--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D229AA-6BC7-4DEB-A659-65F770D6BE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B10A9C-2A3C-476E-BAA4-9088BAE0D72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="665">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -10229,84 +10229,6 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -10413,6 +10335,84 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11963,57 +11963,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="302" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="331" t="s">
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="305" t="s">
         <v>573</v>
       </c>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
-      <c r="N1" s="333"/>
-      <c r="O1" s="337" t="s">
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="311" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="338"/>
-      <c r="Q1" s="338"/>
-      <c r="R1" s="339"/>
-      <c r="S1" s="346" t="s">
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="320" t="s">
         <v>658</v>
       </c>
-      <c r="T1" s="347"/>
-      <c r="U1" s="347"/>
-      <c r="V1" s="347"/>
-      <c r="W1" s="347"/>
-      <c r="X1" s="347"/>
-      <c r="Y1" s="347"/>
-      <c r="Z1" s="348"/>
-      <c r="AA1" s="328" t="s">
+      <c r="T1" s="321"/>
+      <c r="U1" s="321"/>
+      <c r="V1" s="321"/>
+      <c r="W1" s="321"/>
+      <c r="X1" s="321"/>
+      <c r="Y1" s="321"/>
+      <c r="Z1" s="322"/>
+      <c r="AA1" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="330"/>
-      <c r="AC1" s="355" t="str">
+      <c r="AB1" s="304"/>
+      <c r="AC1" s="329" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="356"/>
-      <c r="AE1" s="356"/>
-      <c r="AF1" s="357"/>
-      <c r="AG1" s="322">
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="331"/>
+      <c r="AG1" s="296">
         <f>IF(D8="","",D8)</f>
         <v>44792</v>
       </c>
-      <c r="AH1" s="323"/>
-      <c r="AI1" s="324"/>
+      <c r="AH1" s="297"/>
+      <c r="AI1" s="298"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -12021,53 +12021,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="302" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="329"/>
-      <c r="C2" s="329"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="331" t="s">
+      <c r="B2" s="303"/>
+      <c r="C2" s="303"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="305" t="s">
         <v>656</v>
       </c>
-      <c r="F2" s="332"/>
-      <c r="G2" s="332"/>
-      <c r="H2" s="332"/>
-      <c r="I2" s="332"/>
-      <c r="J2" s="332"/>
-      <c r="K2" s="332"/>
-      <c r="L2" s="332"/>
-      <c r="M2" s="332"/>
-      <c r="N2" s="333"/>
-      <c r="O2" s="340"/>
-      <c r="P2" s="341"/>
-      <c r="Q2" s="341"/>
-      <c r="R2" s="342"/>
-      <c r="S2" s="349"/>
-      <c r="T2" s="350"/>
-      <c r="U2" s="350"/>
-      <c r="V2" s="350"/>
-      <c r="W2" s="350"/>
-      <c r="X2" s="350"/>
-      <c r="Y2" s="350"/>
-      <c r="Z2" s="351"/>
-      <c r="AA2" s="328" t="s">
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
+      <c r="J2" s="306"/>
+      <c r="K2" s="306"/>
+      <c r="L2" s="306"/>
+      <c r="M2" s="306"/>
+      <c r="N2" s="307"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="316"/>
+      <c r="S2" s="323"/>
+      <c r="T2" s="324"/>
+      <c r="U2" s="324"/>
+      <c r="V2" s="324"/>
+      <c r="W2" s="324"/>
+      <c r="X2" s="324"/>
+      <c r="Y2" s="324"/>
+      <c r="Z2" s="325"/>
+      <c r="AA2" s="302" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="330"/>
-      <c r="AC2" s="334" t="str">
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="308" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="335"/>
-      <c r="AE2" s="335"/>
-      <c r="AF2" s="336"/>
-      <c r="AG2" s="322" t="str">
+      <c r="AD2" s="309"/>
+      <c r="AE2" s="309"/>
+      <c r="AF2" s="310"/>
+      <c r="AG2" s="296" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="323"/>
-      <c r="AI2" s="324"/>
+      <c r="AH2" s="297"/>
+      <c r="AI2" s="298"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12075,45 +12075,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="328" t="s">
+      <c r="A3" s="302" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="329"/>
-      <c r="C3" s="329"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="331" t="s">
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="305" t="s">
         <v>657</v>
       </c>
-      <c r="F3" s="332"/>
-      <c r="G3" s="332"/>
-      <c r="H3" s="332"/>
-      <c r="I3" s="332"/>
-      <c r="J3" s="332"/>
-      <c r="K3" s="332"/>
-      <c r="L3" s="332"/>
-      <c r="M3" s="332"/>
-      <c r="N3" s="333"/>
-      <c r="O3" s="343"/>
-      <c r="P3" s="344"/>
-      <c r="Q3" s="344"/>
-      <c r="R3" s="345"/>
-      <c r="S3" s="352"/>
-      <c r="T3" s="353"/>
-      <c r="U3" s="353"/>
-      <c r="V3" s="353"/>
-      <c r="W3" s="353"/>
-      <c r="X3" s="353"/>
-      <c r="Y3" s="353"/>
-      <c r="Z3" s="354"/>
-      <c r="AA3" s="328"/>
-      <c r="AB3" s="330"/>
-      <c r="AC3" s="355"/>
-      <c r="AD3" s="356"/>
-      <c r="AE3" s="356"/>
-      <c r="AF3" s="357"/>
-      <c r="AG3" s="322"/>
-      <c r="AH3" s="323"/>
-      <c r="AI3" s="324"/>
+      <c r="F3" s="306"/>
+      <c r="G3" s="306"/>
+      <c r="H3" s="306"/>
+      <c r="I3" s="306"/>
+      <c r="J3" s="306"/>
+      <c r="K3" s="306"/>
+      <c r="L3" s="306"/>
+      <c r="M3" s="306"/>
+      <c r="N3" s="307"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="318"/>
+      <c r="Q3" s="318"/>
+      <c r="R3" s="319"/>
+      <c r="S3" s="326"/>
+      <c r="T3" s="327"/>
+      <c r="U3" s="327"/>
+      <c r="V3" s="327"/>
+      <c r="W3" s="327"/>
+      <c r="X3" s="327"/>
+      <c r="Y3" s="327"/>
+      <c r="Z3" s="328"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="304"/>
+      <c r="AC3" s="329"/>
+      <c r="AD3" s="330"/>
+      <c r="AE3" s="330"/>
+      <c r="AF3" s="331"/>
+      <c r="AG3" s="296"/>
+      <c r="AH3" s="297"/>
+      <c r="AI3" s="298"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12150,1032 +12150,1188 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="325" t="s">
+      <c r="B7" s="299" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="326"/>
-      <c r="D7" s="325" t="s">
+      <c r="C7" s="300"/>
+      <c r="D7" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="327"/>
-      <c r="F7" s="326"/>
-      <c r="G7" s="325" t="s">
+      <c r="E7" s="301"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="299" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="327"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="325" t="s">
+      <c r="H7" s="301"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="327"/>
-      <c r="L7" s="327"/>
-      <c r="M7" s="327"/>
-      <c r="N7" s="327"/>
-      <c r="O7" s="327"/>
-      <c r="P7" s="326"/>
-      <c r="Q7" s="325" t="s">
+      <c r="K7" s="301"/>
+      <c r="L7" s="301"/>
+      <c r="M7" s="301"/>
+      <c r="N7" s="301"/>
+      <c r="O7" s="301"/>
+      <c r="P7" s="300"/>
+      <c r="Q7" s="299" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="327"/>
-      <c r="S7" s="327"/>
-      <c r="T7" s="327"/>
-      <c r="U7" s="327"/>
-      <c r="V7" s="327"/>
-      <c r="W7" s="327"/>
-      <c r="X7" s="327"/>
-      <c r="Y7" s="327"/>
-      <c r="Z7" s="327"/>
-      <c r="AA7" s="327"/>
-      <c r="AB7" s="327"/>
-      <c r="AC7" s="327"/>
-      <c r="AD7" s="327"/>
-      <c r="AE7" s="326"/>
-      <c r="AF7" s="325" t="s">
+      <c r="R7" s="301"/>
+      <c r="S7" s="301"/>
+      <c r="T7" s="301"/>
+      <c r="U7" s="301"/>
+      <c r="V7" s="301"/>
+      <c r="W7" s="301"/>
+      <c r="X7" s="301"/>
+      <c r="Y7" s="301"/>
+      <c r="Z7" s="301"/>
+      <c r="AA7" s="301"/>
+      <c r="AB7" s="301"/>
+      <c r="AC7" s="301"/>
+      <c r="AD7" s="301"/>
+      <c r="AE7" s="300"/>
+      <c r="AF7" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="327"/>
-      <c r="AH7" s="327"/>
-      <c r="AI7" s="326"/>
+      <c r="AG7" s="301"/>
+      <c r="AH7" s="301"/>
+      <c r="AI7" s="300"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="309" t="s">
+      <c r="B8" s="344" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="310"/>
-      <c r="D8" s="311">
+      <c r="C8" s="345"/>
+      <c r="D8" s="346">
         <v>44792</v>
       </c>
-      <c r="E8" s="312"/>
-      <c r="F8" s="313"/>
-      <c r="G8" s="314" t="s">
+      <c r="E8" s="347"/>
+      <c r="F8" s="348"/>
+      <c r="G8" s="349" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="315"/>
-      <c r="I8" s="310"/>
-      <c r="J8" s="316"/>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="317"/>
-      <c r="O8" s="317"/>
-      <c r="P8" s="318"/>
-      <c r="Q8" s="319" t="s">
+      <c r="H8" s="350"/>
+      <c r="I8" s="345"/>
+      <c r="J8" s="351"/>
+      <c r="K8" s="352"/>
+      <c r="L8" s="352"/>
+      <c r="M8" s="352"/>
+      <c r="N8" s="352"/>
+      <c r="O8" s="352"/>
+      <c r="P8" s="353"/>
+      <c r="Q8" s="354" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="320"/>
-      <c r="S8" s="320"/>
-      <c r="T8" s="320"/>
-      <c r="U8" s="320"/>
-      <c r="V8" s="320"/>
-      <c r="W8" s="320"/>
-      <c r="X8" s="320"/>
-      <c r="Y8" s="320"/>
-      <c r="Z8" s="320"/>
-      <c r="AA8" s="320"/>
-      <c r="AB8" s="320"/>
-      <c r="AC8" s="320"/>
-      <c r="AD8" s="320"/>
-      <c r="AE8" s="321"/>
-      <c r="AF8" s="316" t="s">
+      <c r="R8" s="355"/>
+      <c r="S8" s="355"/>
+      <c r="T8" s="355"/>
+      <c r="U8" s="355"/>
+      <c r="V8" s="355"/>
+      <c r="W8" s="355"/>
+      <c r="X8" s="355"/>
+      <c r="Y8" s="355"/>
+      <c r="Z8" s="355"/>
+      <c r="AA8" s="355"/>
+      <c r="AB8" s="355"/>
+      <c r="AC8" s="355"/>
+      <c r="AD8" s="355"/>
+      <c r="AE8" s="356"/>
+      <c r="AF8" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AG8" s="317"/>
-      <c r="AH8" s="317"/>
-      <c r="AI8" s="318"/>
+      <c r="AG8" s="352"/>
+      <c r="AH8" s="352"/>
+      <c r="AI8" s="353"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="296"/>
-      <c r="C9" s="297"/>
-      <c r="D9" s="298"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="301"/>
-      <c r="I9" s="297"/>
-      <c r="J9" s="302"/>
-      <c r="K9" s="303"/>
-      <c r="L9" s="303"/>
-      <c r="M9" s="303"/>
-      <c r="N9" s="303"/>
-      <c r="O9" s="303"/>
-      <c r="P9" s="304"/>
-      <c r="Q9" s="305"/>
-      <c r="R9" s="306"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="306"/>
-      <c r="V9" s="306"/>
-      <c r="W9" s="306"/>
-      <c r="X9" s="306"/>
-      <c r="Y9" s="306"/>
-      <c r="Z9" s="306"/>
-      <c r="AA9" s="306"/>
-      <c r="AB9" s="306"/>
-      <c r="AC9" s="306"/>
-      <c r="AD9" s="306"/>
-      <c r="AE9" s="307"/>
-      <c r="AF9" s="302"/>
-      <c r="AG9" s="303"/>
-      <c r="AH9" s="303"/>
-      <c r="AI9" s="304"/>
+      <c r="B9" s="332"/>
+      <c r="C9" s="333"/>
+      <c r="D9" s="334"/>
+      <c r="E9" s="335"/>
+      <c r="F9" s="336"/>
+      <c r="G9" s="334"/>
+      <c r="H9" s="337"/>
+      <c r="I9" s="333"/>
+      <c r="J9" s="338"/>
+      <c r="K9" s="339"/>
+      <c r="L9" s="339"/>
+      <c r="M9" s="339"/>
+      <c r="N9" s="339"/>
+      <c r="O9" s="339"/>
+      <c r="P9" s="340"/>
+      <c r="Q9" s="341"/>
+      <c r="R9" s="342"/>
+      <c r="S9" s="342"/>
+      <c r="T9" s="342"/>
+      <c r="U9" s="342"/>
+      <c r="V9" s="342"/>
+      <c r="W9" s="342"/>
+      <c r="X9" s="342"/>
+      <c r="Y9" s="342"/>
+      <c r="Z9" s="342"/>
+      <c r="AA9" s="342"/>
+      <c r="AB9" s="342"/>
+      <c r="AC9" s="342"/>
+      <c r="AD9" s="342"/>
+      <c r="AE9" s="343"/>
+      <c r="AF9" s="338"/>
+      <c r="AG9" s="339"/>
+      <c r="AH9" s="339"/>
+      <c r="AI9" s="340"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="296"/>
-      <c r="C10" s="297"/>
-      <c r="D10" s="298"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="300"/>
-      <c r="G10" s="296"/>
-      <c r="H10" s="301"/>
-      <c r="I10" s="297"/>
-      <c r="J10" s="302"/>
-      <c r="K10" s="303"/>
-      <c r="L10" s="303"/>
-      <c r="M10" s="303"/>
-      <c r="N10" s="303"/>
-      <c r="O10" s="303"/>
-      <c r="P10" s="304"/>
-      <c r="Q10" s="305"/>
-      <c r="R10" s="306"/>
-      <c r="S10" s="306"/>
-      <c r="T10" s="306"/>
-      <c r="U10" s="306"/>
-      <c r="V10" s="306"/>
-      <c r="W10" s="306"/>
-      <c r="X10" s="306"/>
-      <c r="Y10" s="306"/>
-      <c r="Z10" s="306"/>
-      <c r="AA10" s="306"/>
-      <c r="AB10" s="306"/>
-      <c r="AC10" s="306"/>
-      <c r="AD10" s="306"/>
-      <c r="AE10" s="307"/>
-      <c r="AF10" s="302"/>
-      <c r="AG10" s="303"/>
-      <c r="AH10" s="303"/>
-      <c r="AI10" s="304"/>
+      <c r="B10" s="332"/>
+      <c r="C10" s="333"/>
+      <c r="D10" s="334"/>
+      <c r="E10" s="335"/>
+      <c r="F10" s="336"/>
+      <c r="G10" s="332"/>
+      <c r="H10" s="337"/>
+      <c r="I10" s="333"/>
+      <c r="J10" s="338"/>
+      <c r="K10" s="339"/>
+      <c r="L10" s="339"/>
+      <c r="M10" s="339"/>
+      <c r="N10" s="339"/>
+      <c r="O10" s="339"/>
+      <c r="P10" s="340"/>
+      <c r="Q10" s="341"/>
+      <c r="R10" s="342"/>
+      <c r="S10" s="342"/>
+      <c r="T10" s="342"/>
+      <c r="U10" s="342"/>
+      <c r="V10" s="342"/>
+      <c r="W10" s="342"/>
+      <c r="X10" s="342"/>
+      <c r="Y10" s="342"/>
+      <c r="Z10" s="342"/>
+      <c r="AA10" s="342"/>
+      <c r="AB10" s="342"/>
+      <c r="AC10" s="342"/>
+      <c r="AD10" s="342"/>
+      <c r="AE10" s="343"/>
+      <c r="AF10" s="338"/>
+      <c r="AG10" s="339"/>
+      <c r="AH10" s="339"/>
+      <c r="AI10" s="340"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="296"/>
-      <c r="C11" s="297"/>
-      <c r="D11" s="298"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="300"/>
-      <c r="G11" s="296"/>
-      <c r="H11" s="301"/>
-      <c r="I11" s="297"/>
-      <c r="J11" s="302"/>
-      <c r="K11" s="303"/>
-      <c r="L11" s="303"/>
-      <c r="M11" s="303"/>
-      <c r="N11" s="303"/>
-      <c r="O11" s="303"/>
-      <c r="P11" s="304"/>
-      <c r="Q11" s="305"/>
-      <c r="R11" s="306"/>
-      <c r="S11" s="306"/>
-      <c r="T11" s="306"/>
-      <c r="U11" s="306"/>
-      <c r="V11" s="306"/>
-      <c r="W11" s="306"/>
-      <c r="X11" s="306"/>
-      <c r="Y11" s="306"/>
-      <c r="Z11" s="306"/>
-      <c r="AA11" s="306"/>
-      <c r="AB11" s="306"/>
-      <c r="AC11" s="306"/>
-      <c r="AD11" s="306"/>
-      <c r="AE11" s="307"/>
-      <c r="AF11" s="302"/>
-      <c r="AG11" s="303"/>
-      <c r="AH11" s="303"/>
-      <c r="AI11" s="304"/>
+      <c r="B11" s="332"/>
+      <c r="C11" s="333"/>
+      <c r="D11" s="334"/>
+      <c r="E11" s="335"/>
+      <c r="F11" s="336"/>
+      <c r="G11" s="332"/>
+      <c r="H11" s="337"/>
+      <c r="I11" s="333"/>
+      <c r="J11" s="338"/>
+      <c r="K11" s="339"/>
+      <c r="L11" s="339"/>
+      <c r="M11" s="339"/>
+      <c r="N11" s="339"/>
+      <c r="O11" s="339"/>
+      <c r="P11" s="340"/>
+      <c r="Q11" s="341"/>
+      <c r="R11" s="342"/>
+      <c r="S11" s="342"/>
+      <c r="T11" s="342"/>
+      <c r="U11" s="342"/>
+      <c r="V11" s="342"/>
+      <c r="W11" s="342"/>
+      <c r="X11" s="342"/>
+      <c r="Y11" s="342"/>
+      <c r="Z11" s="342"/>
+      <c r="AA11" s="342"/>
+      <c r="AB11" s="342"/>
+      <c r="AC11" s="342"/>
+      <c r="AD11" s="342"/>
+      <c r="AE11" s="343"/>
+      <c r="AF11" s="338"/>
+      <c r="AG11" s="339"/>
+      <c r="AH11" s="339"/>
+      <c r="AI11" s="340"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="296"/>
-      <c r="C12" s="297"/>
-      <c r="D12" s="298"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="300"/>
-      <c r="G12" s="296"/>
-      <c r="H12" s="301"/>
-      <c r="I12" s="297"/>
-      <c r="J12" s="302"/>
-      <c r="K12" s="303"/>
-      <c r="L12" s="303"/>
-      <c r="M12" s="303"/>
-      <c r="N12" s="303"/>
-      <c r="O12" s="303"/>
-      <c r="P12" s="304"/>
-      <c r="Q12" s="305"/>
-      <c r="R12" s="306"/>
-      <c r="S12" s="306"/>
-      <c r="T12" s="306"/>
-      <c r="U12" s="306"/>
-      <c r="V12" s="306"/>
-      <c r="W12" s="306"/>
-      <c r="X12" s="306"/>
-      <c r="Y12" s="306"/>
-      <c r="Z12" s="306"/>
-      <c r="AA12" s="306"/>
-      <c r="AB12" s="306"/>
-      <c r="AC12" s="306"/>
-      <c r="AD12" s="306"/>
-      <c r="AE12" s="307"/>
-      <c r="AF12" s="302"/>
-      <c r="AG12" s="303"/>
-      <c r="AH12" s="303"/>
-      <c r="AI12" s="304"/>
+      <c r="B12" s="332"/>
+      <c r="C12" s="333"/>
+      <c r="D12" s="334"/>
+      <c r="E12" s="335"/>
+      <c r="F12" s="336"/>
+      <c r="G12" s="332"/>
+      <c r="H12" s="337"/>
+      <c r="I12" s="333"/>
+      <c r="J12" s="338"/>
+      <c r="K12" s="339"/>
+      <c r="L12" s="339"/>
+      <c r="M12" s="339"/>
+      <c r="N12" s="339"/>
+      <c r="O12" s="339"/>
+      <c r="P12" s="340"/>
+      <c r="Q12" s="341"/>
+      <c r="R12" s="342"/>
+      <c r="S12" s="342"/>
+      <c r="T12" s="342"/>
+      <c r="U12" s="342"/>
+      <c r="V12" s="342"/>
+      <c r="W12" s="342"/>
+      <c r="X12" s="342"/>
+      <c r="Y12" s="342"/>
+      <c r="Z12" s="342"/>
+      <c r="AA12" s="342"/>
+      <c r="AB12" s="342"/>
+      <c r="AC12" s="342"/>
+      <c r="AD12" s="342"/>
+      <c r="AE12" s="343"/>
+      <c r="AF12" s="338"/>
+      <c r="AG12" s="339"/>
+      <c r="AH12" s="339"/>
+      <c r="AI12" s="340"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="296"/>
-      <c r="C13" s="297"/>
-      <c r="D13" s="298"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="300"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="297"/>
-      <c r="J13" s="302"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="303"/>
-      <c r="M13" s="303"/>
-      <c r="N13" s="303"/>
-      <c r="O13" s="303"/>
-      <c r="P13" s="304"/>
-      <c r="Q13" s="305"/>
-      <c r="R13" s="306"/>
-      <c r="S13" s="306"/>
-      <c r="T13" s="306"/>
-      <c r="U13" s="306"/>
-      <c r="V13" s="306"/>
-      <c r="W13" s="306"/>
-      <c r="X13" s="306"/>
-      <c r="Y13" s="306"/>
-      <c r="Z13" s="306"/>
-      <c r="AA13" s="306"/>
-      <c r="AB13" s="306"/>
-      <c r="AC13" s="306"/>
-      <c r="AD13" s="306"/>
-      <c r="AE13" s="307"/>
-      <c r="AF13" s="302"/>
-      <c r="AG13" s="303"/>
-      <c r="AH13" s="303"/>
-      <c r="AI13" s="304"/>
+      <c r="B13" s="332"/>
+      <c r="C13" s="333"/>
+      <c r="D13" s="334"/>
+      <c r="E13" s="335"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="332"/>
+      <c r="H13" s="337"/>
+      <c r="I13" s="333"/>
+      <c r="J13" s="338"/>
+      <c r="K13" s="339"/>
+      <c r="L13" s="339"/>
+      <c r="M13" s="339"/>
+      <c r="N13" s="339"/>
+      <c r="O13" s="339"/>
+      <c r="P13" s="340"/>
+      <c r="Q13" s="341"/>
+      <c r="R13" s="342"/>
+      <c r="S13" s="342"/>
+      <c r="T13" s="342"/>
+      <c r="U13" s="342"/>
+      <c r="V13" s="342"/>
+      <c r="W13" s="342"/>
+      <c r="X13" s="342"/>
+      <c r="Y13" s="342"/>
+      <c r="Z13" s="342"/>
+      <c r="AA13" s="342"/>
+      <c r="AB13" s="342"/>
+      <c r="AC13" s="342"/>
+      <c r="AD13" s="342"/>
+      <c r="AE13" s="343"/>
+      <c r="AF13" s="338"/>
+      <c r="AG13" s="339"/>
+      <c r="AH13" s="339"/>
+      <c r="AI13" s="340"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="296"/>
-      <c r="C14" s="297"/>
-      <c r="D14" s="298"/>
-      <c r="E14" s="299"/>
-      <c r="F14" s="300"/>
-      <c r="G14" s="296"/>
-      <c r="H14" s="301"/>
-      <c r="I14" s="297"/>
-      <c r="J14" s="302"/>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
-      <c r="M14" s="303"/>
-      <c r="N14" s="303"/>
-      <c r="O14" s="303"/>
-      <c r="P14" s="304"/>
-      <c r="Q14" s="305"/>
-      <c r="R14" s="306"/>
-      <c r="S14" s="306"/>
-      <c r="T14" s="306"/>
-      <c r="U14" s="306"/>
-      <c r="V14" s="306"/>
-      <c r="W14" s="306"/>
-      <c r="X14" s="306"/>
-      <c r="Y14" s="306"/>
-      <c r="Z14" s="306"/>
-      <c r="AA14" s="306"/>
-      <c r="AB14" s="306"/>
-      <c r="AC14" s="306"/>
-      <c r="AD14" s="306"/>
-      <c r="AE14" s="307"/>
-      <c r="AF14" s="302"/>
-      <c r="AG14" s="303"/>
-      <c r="AH14" s="303"/>
-      <c r="AI14" s="304"/>
+      <c r="B14" s="332"/>
+      <c r="C14" s="333"/>
+      <c r="D14" s="334"/>
+      <c r="E14" s="335"/>
+      <c r="F14" s="336"/>
+      <c r="G14" s="332"/>
+      <c r="H14" s="337"/>
+      <c r="I14" s="333"/>
+      <c r="J14" s="338"/>
+      <c r="K14" s="339"/>
+      <c r="L14" s="339"/>
+      <c r="M14" s="339"/>
+      <c r="N14" s="339"/>
+      <c r="O14" s="339"/>
+      <c r="P14" s="340"/>
+      <c r="Q14" s="341"/>
+      <c r="R14" s="342"/>
+      <c r="S14" s="342"/>
+      <c r="T14" s="342"/>
+      <c r="U14" s="342"/>
+      <c r="V14" s="342"/>
+      <c r="W14" s="342"/>
+      <c r="X14" s="342"/>
+      <c r="Y14" s="342"/>
+      <c r="Z14" s="342"/>
+      <c r="AA14" s="342"/>
+      <c r="AB14" s="342"/>
+      <c r="AC14" s="342"/>
+      <c r="AD14" s="342"/>
+      <c r="AE14" s="343"/>
+      <c r="AF14" s="338"/>
+      <c r="AG14" s="339"/>
+      <c r="AH14" s="339"/>
+      <c r="AI14" s="340"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="296"/>
-      <c r="C15" s="297"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="300"/>
-      <c r="G15" s="296"/>
-      <c r="H15" s="301"/>
-      <c r="I15" s="297"/>
-      <c r="J15" s="302"/>
-      <c r="K15" s="303"/>
-      <c r="L15" s="303"/>
-      <c r="M15" s="303"/>
-      <c r="N15" s="303"/>
-      <c r="O15" s="303"/>
-      <c r="P15" s="304"/>
-      <c r="Q15" s="305"/>
-      <c r="R15" s="306"/>
-      <c r="S15" s="306"/>
-      <c r="T15" s="306"/>
-      <c r="U15" s="306"/>
-      <c r="V15" s="306"/>
-      <c r="W15" s="306"/>
-      <c r="X15" s="306"/>
-      <c r="Y15" s="306"/>
-      <c r="Z15" s="306"/>
-      <c r="AA15" s="306"/>
-      <c r="AB15" s="306"/>
-      <c r="AC15" s="306"/>
-      <c r="AD15" s="306"/>
-      <c r="AE15" s="307"/>
-      <c r="AF15" s="302"/>
-      <c r="AG15" s="303"/>
-      <c r="AH15" s="303"/>
-      <c r="AI15" s="304"/>
+      <c r="B15" s="332"/>
+      <c r="C15" s="333"/>
+      <c r="D15" s="334"/>
+      <c r="E15" s="335"/>
+      <c r="F15" s="336"/>
+      <c r="G15" s="332"/>
+      <c r="H15" s="337"/>
+      <c r="I15" s="333"/>
+      <c r="J15" s="338"/>
+      <c r="K15" s="339"/>
+      <c r="L15" s="339"/>
+      <c r="M15" s="339"/>
+      <c r="N15" s="339"/>
+      <c r="O15" s="339"/>
+      <c r="P15" s="340"/>
+      <c r="Q15" s="341"/>
+      <c r="R15" s="342"/>
+      <c r="S15" s="342"/>
+      <c r="T15" s="342"/>
+      <c r="U15" s="342"/>
+      <c r="V15" s="342"/>
+      <c r="W15" s="342"/>
+      <c r="X15" s="342"/>
+      <c r="Y15" s="342"/>
+      <c r="Z15" s="342"/>
+      <c r="AA15" s="342"/>
+      <c r="AB15" s="342"/>
+      <c r="AC15" s="342"/>
+      <c r="AD15" s="342"/>
+      <c r="AE15" s="343"/>
+      <c r="AF15" s="338"/>
+      <c r="AG15" s="339"/>
+      <c r="AH15" s="339"/>
+      <c r="AI15" s="340"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="296"/>
-      <c r="C16" s="297"/>
-      <c r="D16" s="298"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="296"/>
-      <c r="H16" s="301"/>
-      <c r="I16" s="297"/>
-      <c r="J16" s="302"/>
-      <c r="K16" s="303"/>
-      <c r="L16" s="303"/>
-      <c r="M16" s="303"/>
-      <c r="N16" s="303"/>
-      <c r="O16" s="303"/>
-      <c r="P16" s="304"/>
-      <c r="Q16" s="305"/>
-      <c r="R16" s="306"/>
-      <c r="S16" s="306"/>
-      <c r="T16" s="306"/>
-      <c r="U16" s="306"/>
-      <c r="V16" s="306"/>
-      <c r="W16" s="306"/>
-      <c r="X16" s="306"/>
-      <c r="Y16" s="306"/>
-      <c r="Z16" s="306"/>
-      <c r="AA16" s="306"/>
-      <c r="AB16" s="306"/>
-      <c r="AC16" s="306"/>
-      <c r="AD16" s="306"/>
-      <c r="AE16" s="307"/>
-      <c r="AF16" s="302"/>
-      <c r="AG16" s="303"/>
-      <c r="AH16" s="303"/>
-      <c r="AI16" s="304"/>
+      <c r="B16" s="332"/>
+      <c r="C16" s="333"/>
+      <c r="D16" s="334"/>
+      <c r="E16" s="335"/>
+      <c r="F16" s="336"/>
+      <c r="G16" s="332"/>
+      <c r="H16" s="337"/>
+      <c r="I16" s="333"/>
+      <c r="J16" s="338"/>
+      <c r="K16" s="339"/>
+      <c r="L16" s="339"/>
+      <c r="M16" s="339"/>
+      <c r="N16" s="339"/>
+      <c r="O16" s="339"/>
+      <c r="P16" s="340"/>
+      <c r="Q16" s="341"/>
+      <c r="R16" s="342"/>
+      <c r="S16" s="342"/>
+      <c r="T16" s="342"/>
+      <c r="U16" s="342"/>
+      <c r="V16" s="342"/>
+      <c r="W16" s="342"/>
+      <c r="X16" s="342"/>
+      <c r="Y16" s="342"/>
+      <c r="Z16" s="342"/>
+      <c r="AA16" s="342"/>
+      <c r="AB16" s="342"/>
+      <c r="AC16" s="342"/>
+      <c r="AD16" s="342"/>
+      <c r="AE16" s="343"/>
+      <c r="AF16" s="338"/>
+      <c r="AG16" s="339"/>
+      <c r="AH16" s="339"/>
+      <c r="AI16" s="340"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="296"/>
-      <c r="C17" s="297"/>
-      <c r="D17" s="298"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="300"/>
-      <c r="G17" s="296"/>
-      <c r="H17" s="301"/>
-      <c r="I17" s="297"/>
-      <c r="J17" s="302"/>
-      <c r="K17" s="303"/>
-      <c r="L17" s="303"/>
-      <c r="M17" s="303"/>
-      <c r="N17" s="303"/>
-      <c r="O17" s="303"/>
-      <c r="P17" s="304"/>
-      <c r="Q17" s="305"/>
-      <c r="R17" s="306"/>
-      <c r="S17" s="306"/>
-      <c r="T17" s="306"/>
-      <c r="U17" s="306"/>
-      <c r="V17" s="306"/>
-      <c r="W17" s="306"/>
-      <c r="X17" s="306"/>
-      <c r="Y17" s="306"/>
-      <c r="Z17" s="306"/>
-      <c r="AA17" s="306"/>
-      <c r="AB17" s="306"/>
-      <c r="AC17" s="306"/>
-      <c r="AD17" s="306"/>
-      <c r="AE17" s="307"/>
-      <c r="AF17" s="302"/>
-      <c r="AG17" s="303"/>
-      <c r="AH17" s="303"/>
-      <c r="AI17" s="304"/>
+      <c r="B17" s="332"/>
+      <c r="C17" s="333"/>
+      <c r="D17" s="334"/>
+      <c r="E17" s="335"/>
+      <c r="F17" s="336"/>
+      <c r="G17" s="332"/>
+      <c r="H17" s="337"/>
+      <c r="I17" s="333"/>
+      <c r="J17" s="338"/>
+      <c r="K17" s="339"/>
+      <c r="L17" s="339"/>
+      <c r="M17" s="339"/>
+      <c r="N17" s="339"/>
+      <c r="O17" s="339"/>
+      <c r="P17" s="340"/>
+      <c r="Q17" s="341"/>
+      <c r="R17" s="342"/>
+      <c r="S17" s="342"/>
+      <c r="T17" s="342"/>
+      <c r="U17" s="342"/>
+      <c r="V17" s="342"/>
+      <c r="W17" s="342"/>
+      <c r="X17" s="342"/>
+      <c r="Y17" s="342"/>
+      <c r="Z17" s="342"/>
+      <c r="AA17" s="342"/>
+      <c r="AB17" s="342"/>
+      <c r="AC17" s="342"/>
+      <c r="AD17" s="342"/>
+      <c r="AE17" s="343"/>
+      <c r="AF17" s="338"/>
+      <c r="AG17" s="339"/>
+      <c r="AH17" s="339"/>
+      <c r="AI17" s="340"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="297"/>
-      <c r="D18" s="298"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="300"/>
-      <c r="G18" s="296"/>
-      <c r="H18" s="301"/>
-      <c r="I18" s="297"/>
-      <c r="J18" s="302"/>
-      <c r="K18" s="303"/>
-      <c r="L18" s="303"/>
-      <c r="M18" s="303"/>
-      <c r="N18" s="303"/>
-      <c r="O18" s="303"/>
-      <c r="P18" s="304"/>
-      <c r="Q18" s="305"/>
-      <c r="R18" s="306"/>
-      <c r="S18" s="306"/>
-      <c r="T18" s="306"/>
-      <c r="U18" s="306"/>
-      <c r="V18" s="306"/>
-      <c r="W18" s="306"/>
-      <c r="X18" s="306"/>
-      <c r="Y18" s="306"/>
-      <c r="Z18" s="306"/>
-      <c r="AA18" s="306"/>
-      <c r="AB18" s="306"/>
-      <c r="AC18" s="306"/>
-      <c r="AD18" s="306"/>
-      <c r="AE18" s="307"/>
-      <c r="AF18" s="302"/>
-      <c r="AG18" s="303"/>
-      <c r="AH18" s="303"/>
-      <c r="AI18" s="304"/>
+      <c r="B18" s="332"/>
+      <c r="C18" s="333"/>
+      <c r="D18" s="334"/>
+      <c r="E18" s="335"/>
+      <c r="F18" s="336"/>
+      <c r="G18" s="332"/>
+      <c r="H18" s="337"/>
+      <c r="I18" s="333"/>
+      <c r="J18" s="338"/>
+      <c r="K18" s="339"/>
+      <c r="L18" s="339"/>
+      <c r="M18" s="339"/>
+      <c r="N18" s="339"/>
+      <c r="O18" s="339"/>
+      <c r="P18" s="340"/>
+      <c r="Q18" s="341"/>
+      <c r="R18" s="342"/>
+      <c r="S18" s="342"/>
+      <c r="T18" s="342"/>
+      <c r="U18" s="342"/>
+      <c r="V18" s="342"/>
+      <c r="W18" s="342"/>
+      <c r="X18" s="342"/>
+      <c r="Y18" s="342"/>
+      <c r="Z18" s="342"/>
+      <c r="AA18" s="342"/>
+      <c r="AB18" s="342"/>
+      <c r="AC18" s="342"/>
+      <c r="AD18" s="342"/>
+      <c r="AE18" s="343"/>
+      <c r="AF18" s="338"/>
+      <c r="AG18" s="339"/>
+      <c r="AH18" s="339"/>
+      <c r="AI18" s="340"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="296"/>
-      <c r="C19" s="297"/>
-      <c r="D19" s="298"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="300"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="301"/>
-      <c r="I19" s="297"/>
-      <c r="J19" s="302"/>
-      <c r="K19" s="303"/>
-      <c r="L19" s="303"/>
-      <c r="M19" s="303"/>
-      <c r="N19" s="303"/>
-      <c r="O19" s="303"/>
-      <c r="P19" s="304"/>
-      <c r="Q19" s="305"/>
-      <c r="R19" s="306"/>
-      <c r="S19" s="306"/>
-      <c r="T19" s="306"/>
-      <c r="U19" s="306"/>
-      <c r="V19" s="306"/>
-      <c r="W19" s="306"/>
-      <c r="X19" s="306"/>
-      <c r="Y19" s="306"/>
-      <c r="Z19" s="306"/>
-      <c r="AA19" s="306"/>
-      <c r="AB19" s="306"/>
-      <c r="AC19" s="306"/>
-      <c r="AD19" s="306"/>
-      <c r="AE19" s="307"/>
-      <c r="AF19" s="302"/>
-      <c r="AG19" s="303"/>
-      <c r="AH19" s="303"/>
-      <c r="AI19" s="304"/>
+      <c r="B19" s="332"/>
+      <c r="C19" s="333"/>
+      <c r="D19" s="334"/>
+      <c r="E19" s="335"/>
+      <c r="F19" s="336"/>
+      <c r="G19" s="332"/>
+      <c r="H19" s="337"/>
+      <c r="I19" s="333"/>
+      <c r="J19" s="338"/>
+      <c r="K19" s="339"/>
+      <c r="L19" s="339"/>
+      <c r="M19" s="339"/>
+      <c r="N19" s="339"/>
+      <c r="O19" s="339"/>
+      <c r="P19" s="340"/>
+      <c r="Q19" s="341"/>
+      <c r="R19" s="342"/>
+      <c r="S19" s="342"/>
+      <c r="T19" s="342"/>
+      <c r="U19" s="342"/>
+      <c r="V19" s="342"/>
+      <c r="W19" s="342"/>
+      <c r="X19" s="342"/>
+      <c r="Y19" s="342"/>
+      <c r="Z19" s="342"/>
+      <c r="AA19" s="342"/>
+      <c r="AB19" s="342"/>
+      <c r="AC19" s="342"/>
+      <c r="AD19" s="342"/>
+      <c r="AE19" s="343"/>
+      <c r="AF19" s="338"/>
+      <c r="AG19" s="339"/>
+      <c r="AH19" s="339"/>
+      <c r="AI19" s="340"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="296"/>
-      <c r="C20" s="297"/>
-      <c r="D20" s="298"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="300"/>
-      <c r="G20" s="296"/>
-      <c r="H20" s="301"/>
-      <c r="I20" s="297"/>
-      <c r="J20" s="302"/>
-      <c r="K20" s="303"/>
-      <c r="L20" s="303"/>
-      <c r="M20" s="303"/>
-      <c r="N20" s="303"/>
-      <c r="O20" s="303"/>
-      <c r="P20" s="304"/>
-      <c r="Q20" s="305"/>
-      <c r="R20" s="306"/>
-      <c r="S20" s="306"/>
-      <c r="T20" s="306"/>
-      <c r="U20" s="306"/>
-      <c r="V20" s="306"/>
-      <c r="W20" s="306"/>
-      <c r="X20" s="306"/>
-      <c r="Y20" s="306"/>
-      <c r="Z20" s="306"/>
-      <c r="AA20" s="306"/>
-      <c r="AB20" s="306"/>
-      <c r="AC20" s="306"/>
-      <c r="AD20" s="306"/>
-      <c r="AE20" s="307"/>
-      <c r="AF20" s="302"/>
-      <c r="AG20" s="303"/>
-      <c r="AH20" s="303"/>
-      <c r="AI20" s="304"/>
+      <c r="B20" s="332"/>
+      <c r="C20" s="333"/>
+      <c r="D20" s="334"/>
+      <c r="E20" s="335"/>
+      <c r="F20" s="336"/>
+      <c r="G20" s="332"/>
+      <c r="H20" s="337"/>
+      <c r="I20" s="333"/>
+      <c r="J20" s="338"/>
+      <c r="K20" s="339"/>
+      <c r="L20" s="339"/>
+      <c r="M20" s="339"/>
+      <c r="N20" s="339"/>
+      <c r="O20" s="339"/>
+      <c r="P20" s="340"/>
+      <c r="Q20" s="341"/>
+      <c r="R20" s="342"/>
+      <c r="S20" s="342"/>
+      <c r="T20" s="342"/>
+      <c r="U20" s="342"/>
+      <c r="V20" s="342"/>
+      <c r="W20" s="342"/>
+      <c r="X20" s="342"/>
+      <c r="Y20" s="342"/>
+      <c r="Z20" s="342"/>
+      <c r="AA20" s="342"/>
+      <c r="AB20" s="342"/>
+      <c r="AC20" s="342"/>
+      <c r="AD20" s="342"/>
+      <c r="AE20" s="343"/>
+      <c r="AF20" s="338"/>
+      <c r="AG20" s="339"/>
+      <c r="AH20" s="339"/>
+      <c r="AI20" s="340"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="296"/>
-      <c r="C21" s="297"/>
-      <c r="D21" s="298"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="300"/>
-      <c r="G21" s="296"/>
-      <c r="H21" s="301"/>
-      <c r="I21" s="297"/>
-      <c r="J21" s="302"/>
-      <c r="K21" s="303"/>
-      <c r="L21" s="303"/>
-      <c r="M21" s="303"/>
-      <c r="N21" s="303"/>
-      <c r="O21" s="303"/>
-      <c r="P21" s="304"/>
-      <c r="Q21" s="305"/>
-      <c r="R21" s="306"/>
-      <c r="S21" s="306"/>
-      <c r="T21" s="306"/>
-      <c r="U21" s="306"/>
-      <c r="V21" s="306"/>
-      <c r="W21" s="306"/>
-      <c r="X21" s="306"/>
-      <c r="Y21" s="306"/>
-      <c r="Z21" s="306"/>
-      <c r="AA21" s="306"/>
-      <c r="AB21" s="306"/>
-      <c r="AC21" s="306"/>
-      <c r="AD21" s="306"/>
-      <c r="AE21" s="307"/>
-      <c r="AF21" s="302"/>
-      <c r="AG21" s="303"/>
-      <c r="AH21" s="303"/>
-      <c r="AI21" s="304"/>
+      <c r="B21" s="332"/>
+      <c r="C21" s="333"/>
+      <c r="D21" s="334"/>
+      <c r="E21" s="335"/>
+      <c r="F21" s="336"/>
+      <c r="G21" s="332"/>
+      <c r="H21" s="337"/>
+      <c r="I21" s="333"/>
+      <c r="J21" s="338"/>
+      <c r="K21" s="339"/>
+      <c r="L21" s="339"/>
+      <c r="M21" s="339"/>
+      <c r="N21" s="339"/>
+      <c r="O21" s="339"/>
+      <c r="P21" s="340"/>
+      <c r="Q21" s="341"/>
+      <c r="R21" s="342"/>
+      <c r="S21" s="342"/>
+      <c r="T21" s="342"/>
+      <c r="U21" s="342"/>
+      <c r="V21" s="342"/>
+      <c r="W21" s="342"/>
+      <c r="X21" s="342"/>
+      <c r="Y21" s="342"/>
+      <c r="Z21" s="342"/>
+      <c r="AA21" s="342"/>
+      <c r="AB21" s="342"/>
+      <c r="AC21" s="342"/>
+      <c r="AD21" s="342"/>
+      <c r="AE21" s="343"/>
+      <c r="AF21" s="338"/>
+      <c r="AG21" s="339"/>
+      <c r="AH21" s="339"/>
+      <c r="AI21" s="340"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="296"/>
-      <c r="C22" s="297"/>
-      <c r="D22" s="298"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="300"/>
-      <c r="G22" s="296"/>
-      <c r="H22" s="301"/>
-      <c r="I22" s="297"/>
-      <c r="J22" s="302"/>
-      <c r="K22" s="303"/>
-      <c r="L22" s="303"/>
-      <c r="M22" s="303"/>
-      <c r="N22" s="303"/>
-      <c r="O22" s="303"/>
-      <c r="P22" s="304"/>
-      <c r="Q22" s="305"/>
-      <c r="R22" s="306"/>
-      <c r="S22" s="306"/>
-      <c r="T22" s="306"/>
-      <c r="U22" s="306"/>
-      <c r="V22" s="306"/>
-      <c r="W22" s="306"/>
-      <c r="X22" s="306"/>
-      <c r="Y22" s="306"/>
-      <c r="Z22" s="306"/>
-      <c r="AA22" s="306"/>
-      <c r="AB22" s="306"/>
-      <c r="AC22" s="306"/>
-      <c r="AD22" s="306"/>
-      <c r="AE22" s="307"/>
-      <c r="AF22" s="302"/>
-      <c r="AG22" s="303"/>
-      <c r="AH22" s="303"/>
-      <c r="AI22" s="304"/>
+      <c r="B22" s="332"/>
+      <c r="C22" s="333"/>
+      <c r="D22" s="334"/>
+      <c r="E22" s="335"/>
+      <c r="F22" s="336"/>
+      <c r="G22" s="332"/>
+      <c r="H22" s="337"/>
+      <c r="I22" s="333"/>
+      <c r="J22" s="338"/>
+      <c r="K22" s="339"/>
+      <c r="L22" s="339"/>
+      <c r="M22" s="339"/>
+      <c r="N22" s="339"/>
+      <c r="O22" s="339"/>
+      <c r="P22" s="340"/>
+      <c r="Q22" s="341"/>
+      <c r="R22" s="342"/>
+      <c r="S22" s="342"/>
+      <c r="T22" s="342"/>
+      <c r="U22" s="342"/>
+      <c r="V22" s="342"/>
+      <c r="W22" s="342"/>
+      <c r="X22" s="342"/>
+      <c r="Y22" s="342"/>
+      <c r="Z22" s="342"/>
+      <c r="AA22" s="342"/>
+      <c r="AB22" s="342"/>
+      <c r="AC22" s="342"/>
+      <c r="AD22" s="342"/>
+      <c r="AE22" s="343"/>
+      <c r="AF22" s="338"/>
+      <c r="AG22" s="339"/>
+      <c r="AH22" s="339"/>
+      <c r="AI22" s="340"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="296"/>
-      <c r="C23" s="297"/>
-      <c r="D23" s="298"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="300"/>
-      <c r="G23" s="296"/>
-      <c r="H23" s="301"/>
-      <c r="I23" s="297"/>
-      <c r="J23" s="302"/>
-      <c r="K23" s="303"/>
-      <c r="L23" s="303"/>
-      <c r="M23" s="303"/>
-      <c r="N23" s="303"/>
-      <c r="O23" s="303"/>
-      <c r="P23" s="304"/>
-      <c r="Q23" s="305"/>
-      <c r="R23" s="306"/>
-      <c r="S23" s="306"/>
-      <c r="T23" s="306"/>
-      <c r="U23" s="306"/>
-      <c r="V23" s="306"/>
-      <c r="W23" s="306"/>
-      <c r="X23" s="306"/>
-      <c r="Y23" s="306"/>
-      <c r="Z23" s="306"/>
-      <c r="AA23" s="306"/>
-      <c r="AB23" s="306"/>
-      <c r="AC23" s="306"/>
-      <c r="AD23" s="306"/>
-      <c r="AE23" s="307"/>
-      <c r="AF23" s="302"/>
-      <c r="AG23" s="303"/>
-      <c r="AH23" s="303"/>
-      <c r="AI23" s="304"/>
+      <c r="B23" s="332"/>
+      <c r="C23" s="333"/>
+      <c r="D23" s="334"/>
+      <c r="E23" s="335"/>
+      <c r="F23" s="336"/>
+      <c r="G23" s="332"/>
+      <c r="H23" s="337"/>
+      <c r="I23" s="333"/>
+      <c r="J23" s="338"/>
+      <c r="K23" s="339"/>
+      <c r="L23" s="339"/>
+      <c r="M23" s="339"/>
+      <c r="N23" s="339"/>
+      <c r="O23" s="339"/>
+      <c r="P23" s="340"/>
+      <c r="Q23" s="341"/>
+      <c r="R23" s="342"/>
+      <c r="S23" s="342"/>
+      <c r="T23" s="342"/>
+      <c r="U23" s="342"/>
+      <c r="V23" s="342"/>
+      <c r="W23" s="342"/>
+      <c r="X23" s="342"/>
+      <c r="Y23" s="342"/>
+      <c r="Z23" s="342"/>
+      <c r="AA23" s="342"/>
+      <c r="AB23" s="342"/>
+      <c r="AC23" s="342"/>
+      <c r="AD23" s="342"/>
+      <c r="AE23" s="343"/>
+      <c r="AF23" s="338"/>
+      <c r="AG23" s="339"/>
+      <c r="AH23" s="339"/>
+      <c r="AI23" s="340"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="296"/>
-      <c r="C24" s="297"/>
-      <c r="D24" s="298"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="300"/>
-      <c r="G24" s="296"/>
-      <c r="H24" s="301"/>
-      <c r="I24" s="297"/>
-      <c r="J24" s="302"/>
-      <c r="K24" s="303"/>
-      <c r="L24" s="303"/>
-      <c r="M24" s="303"/>
-      <c r="N24" s="303"/>
-      <c r="O24" s="303"/>
-      <c r="P24" s="304"/>
-      <c r="Q24" s="305"/>
-      <c r="R24" s="306"/>
-      <c r="S24" s="306"/>
-      <c r="T24" s="306"/>
-      <c r="U24" s="306"/>
-      <c r="V24" s="306"/>
-      <c r="W24" s="306"/>
-      <c r="X24" s="306"/>
-      <c r="Y24" s="306"/>
-      <c r="Z24" s="306"/>
-      <c r="AA24" s="306"/>
-      <c r="AB24" s="306"/>
-      <c r="AC24" s="306"/>
-      <c r="AD24" s="306"/>
-      <c r="AE24" s="307"/>
-      <c r="AF24" s="302"/>
-      <c r="AG24" s="303"/>
-      <c r="AH24" s="303"/>
-      <c r="AI24" s="304"/>
+      <c r="B24" s="332"/>
+      <c r="C24" s="333"/>
+      <c r="D24" s="334"/>
+      <c r="E24" s="335"/>
+      <c r="F24" s="336"/>
+      <c r="G24" s="332"/>
+      <c r="H24" s="337"/>
+      <c r="I24" s="333"/>
+      <c r="J24" s="338"/>
+      <c r="K24" s="339"/>
+      <c r="L24" s="339"/>
+      <c r="M24" s="339"/>
+      <c r="N24" s="339"/>
+      <c r="O24" s="339"/>
+      <c r="P24" s="340"/>
+      <c r="Q24" s="341"/>
+      <c r="R24" s="342"/>
+      <c r="S24" s="342"/>
+      <c r="T24" s="342"/>
+      <c r="U24" s="342"/>
+      <c r="V24" s="342"/>
+      <c r="W24" s="342"/>
+      <c r="X24" s="342"/>
+      <c r="Y24" s="342"/>
+      <c r="Z24" s="342"/>
+      <c r="AA24" s="342"/>
+      <c r="AB24" s="342"/>
+      <c r="AC24" s="342"/>
+      <c r="AD24" s="342"/>
+      <c r="AE24" s="343"/>
+      <c r="AF24" s="338"/>
+      <c r="AG24" s="339"/>
+      <c r="AH24" s="339"/>
+      <c r="AI24" s="340"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="296"/>
-      <c r="C25" s="297"/>
-      <c r="D25" s="298"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="300"/>
-      <c r="G25" s="296"/>
-      <c r="H25" s="301"/>
-      <c r="I25" s="297"/>
-      <c r="J25" s="302"/>
-      <c r="K25" s="303"/>
-      <c r="L25" s="303"/>
-      <c r="M25" s="303"/>
-      <c r="N25" s="303"/>
-      <c r="O25" s="303"/>
-      <c r="P25" s="304"/>
-      <c r="Q25" s="305"/>
-      <c r="R25" s="306"/>
-      <c r="S25" s="306"/>
-      <c r="T25" s="306"/>
-      <c r="U25" s="306"/>
-      <c r="V25" s="306"/>
-      <c r="W25" s="306"/>
-      <c r="X25" s="306"/>
-      <c r="Y25" s="306"/>
-      <c r="Z25" s="306"/>
-      <c r="AA25" s="306"/>
-      <c r="AB25" s="306"/>
-      <c r="AC25" s="306"/>
-      <c r="AD25" s="306"/>
-      <c r="AE25" s="307"/>
-      <c r="AF25" s="302"/>
-      <c r="AG25" s="303"/>
-      <c r="AH25" s="303"/>
-      <c r="AI25" s="304"/>
+      <c r="B25" s="332"/>
+      <c r="C25" s="333"/>
+      <c r="D25" s="334"/>
+      <c r="E25" s="335"/>
+      <c r="F25" s="336"/>
+      <c r="G25" s="332"/>
+      <c r="H25" s="337"/>
+      <c r="I25" s="333"/>
+      <c r="J25" s="338"/>
+      <c r="K25" s="339"/>
+      <c r="L25" s="339"/>
+      <c r="M25" s="339"/>
+      <c r="N25" s="339"/>
+      <c r="O25" s="339"/>
+      <c r="P25" s="340"/>
+      <c r="Q25" s="341"/>
+      <c r="R25" s="342"/>
+      <c r="S25" s="342"/>
+      <c r="T25" s="342"/>
+      <c r="U25" s="342"/>
+      <c r="V25" s="342"/>
+      <c r="W25" s="342"/>
+      <c r="X25" s="342"/>
+      <c r="Y25" s="342"/>
+      <c r="Z25" s="342"/>
+      <c r="AA25" s="342"/>
+      <c r="AB25" s="342"/>
+      <c r="AC25" s="342"/>
+      <c r="AD25" s="342"/>
+      <c r="AE25" s="343"/>
+      <c r="AF25" s="338"/>
+      <c r="AG25" s="339"/>
+      <c r="AH25" s="339"/>
+      <c r="AI25" s="340"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="296"/>
-      <c r="C26" s="297"/>
-      <c r="D26" s="298"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="300"/>
-      <c r="G26" s="296"/>
-      <c r="H26" s="301"/>
-      <c r="I26" s="297"/>
-      <c r="J26" s="302"/>
-      <c r="K26" s="303"/>
-      <c r="L26" s="303"/>
-      <c r="M26" s="303"/>
-      <c r="N26" s="303"/>
-      <c r="O26" s="303"/>
-      <c r="P26" s="304"/>
-      <c r="Q26" s="305"/>
-      <c r="R26" s="306"/>
-      <c r="S26" s="306"/>
-      <c r="T26" s="306"/>
-      <c r="U26" s="306"/>
-      <c r="V26" s="306"/>
-      <c r="W26" s="306"/>
-      <c r="X26" s="306"/>
-      <c r="Y26" s="306"/>
-      <c r="Z26" s="306"/>
-      <c r="AA26" s="306"/>
-      <c r="AB26" s="306"/>
-      <c r="AC26" s="306"/>
-      <c r="AD26" s="306"/>
-      <c r="AE26" s="307"/>
-      <c r="AF26" s="302"/>
-      <c r="AG26" s="303"/>
-      <c r="AH26" s="303"/>
-      <c r="AI26" s="304"/>
+      <c r="B26" s="332"/>
+      <c r="C26" s="333"/>
+      <c r="D26" s="334"/>
+      <c r="E26" s="335"/>
+      <c r="F26" s="336"/>
+      <c r="G26" s="332"/>
+      <c r="H26" s="337"/>
+      <c r="I26" s="333"/>
+      <c r="J26" s="338"/>
+      <c r="K26" s="339"/>
+      <c r="L26" s="339"/>
+      <c r="M26" s="339"/>
+      <c r="N26" s="339"/>
+      <c r="O26" s="339"/>
+      <c r="P26" s="340"/>
+      <c r="Q26" s="341"/>
+      <c r="R26" s="342"/>
+      <c r="S26" s="342"/>
+      <c r="T26" s="342"/>
+      <c r="U26" s="342"/>
+      <c r="V26" s="342"/>
+      <c r="W26" s="342"/>
+      <c r="X26" s="342"/>
+      <c r="Y26" s="342"/>
+      <c r="Z26" s="342"/>
+      <c r="AA26" s="342"/>
+      <c r="AB26" s="342"/>
+      <c r="AC26" s="342"/>
+      <c r="AD26" s="342"/>
+      <c r="AE26" s="343"/>
+      <c r="AF26" s="338"/>
+      <c r="AG26" s="339"/>
+      <c r="AH26" s="339"/>
+      <c r="AI26" s="340"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="296"/>
-      <c r="C27" s="297"/>
-      <c r="D27" s="298"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="300"/>
-      <c r="G27" s="296"/>
-      <c r="H27" s="301"/>
-      <c r="I27" s="297"/>
-      <c r="J27" s="302"/>
-      <c r="K27" s="303"/>
-      <c r="L27" s="303"/>
-      <c r="M27" s="303"/>
-      <c r="N27" s="303"/>
-      <c r="O27" s="303"/>
-      <c r="P27" s="304"/>
-      <c r="Q27" s="305"/>
-      <c r="R27" s="306"/>
-      <c r="S27" s="306"/>
-      <c r="T27" s="306"/>
-      <c r="U27" s="306"/>
-      <c r="V27" s="306"/>
-      <c r="W27" s="306"/>
-      <c r="X27" s="306"/>
-      <c r="Y27" s="306"/>
-      <c r="Z27" s="306"/>
-      <c r="AA27" s="306"/>
-      <c r="AB27" s="306"/>
-      <c r="AC27" s="306"/>
-      <c r="AD27" s="306"/>
-      <c r="AE27" s="307"/>
-      <c r="AF27" s="302"/>
-      <c r="AG27" s="303"/>
-      <c r="AH27" s="303"/>
-      <c r="AI27" s="304"/>
+      <c r="B27" s="332"/>
+      <c r="C27" s="333"/>
+      <c r="D27" s="334"/>
+      <c r="E27" s="335"/>
+      <c r="F27" s="336"/>
+      <c r="G27" s="332"/>
+      <c r="H27" s="337"/>
+      <c r="I27" s="333"/>
+      <c r="J27" s="338"/>
+      <c r="K27" s="339"/>
+      <c r="L27" s="339"/>
+      <c r="M27" s="339"/>
+      <c r="N27" s="339"/>
+      <c r="O27" s="339"/>
+      <c r="P27" s="340"/>
+      <c r="Q27" s="341"/>
+      <c r="R27" s="342"/>
+      <c r="S27" s="342"/>
+      <c r="T27" s="342"/>
+      <c r="U27" s="342"/>
+      <c r="V27" s="342"/>
+      <c r="W27" s="342"/>
+      <c r="X27" s="342"/>
+      <c r="Y27" s="342"/>
+      <c r="Z27" s="342"/>
+      <c r="AA27" s="342"/>
+      <c r="AB27" s="342"/>
+      <c r="AC27" s="342"/>
+      <c r="AD27" s="342"/>
+      <c r="AE27" s="343"/>
+      <c r="AF27" s="338"/>
+      <c r="AG27" s="339"/>
+      <c r="AH27" s="339"/>
+      <c r="AI27" s="340"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="296"/>
-      <c r="C28" s="297"/>
-      <c r="D28" s="298"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="300"/>
-      <c r="G28" s="296"/>
-      <c r="H28" s="301"/>
-      <c r="I28" s="297"/>
-      <c r="J28" s="302"/>
-      <c r="K28" s="303"/>
-      <c r="L28" s="303"/>
-      <c r="M28" s="303"/>
-      <c r="N28" s="303"/>
-      <c r="O28" s="303"/>
-      <c r="P28" s="304"/>
-      <c r="Q28" s="305"/>
-      <c r="R28" s="306"/>
-      <c r="S28" s="306"/>
-      <c r="T28" s="306"/>
-      <c r="U28" s="306"/>
-      <c r="V28" s="306"/>
-      <c r="W28" s="306"/>
-      <c r="X28" s="306"/>
-      <c r="Y28" s="306"/>
-      <c r="Z28" s="306"/>
-      <c r="AA28" s="306"/>
-      <c r="AB28" s="306"/>
-      <c r="AC28" s="306"/>
-      <c r="AD28" s="306"/>
-      <c r="AE28" s="307"/>
-      <c r="AF28" s="302"/>
-      <c r="AG28" s="303"/>
-      <c r="AH28" s="303"/>
-      <c r="AI28" s="304"/>
+      <c r="B28" s="332"/>
+      <c r="C28" s="333"/>
+      <c r="D28" s="334"/>
+      <c r="E28" s="335"/>
+      <c r="F28" s="336"/>
+      <c r="G28" s="332"/>
+      <c r="H28" s="337"/>
+      <c r="I28" s="333"/>
+      <c r="J28" s="338"/>
+      <c r="K28" s="339"/>
+      <c r="L28" s="339"/>
+      <c r="M28" s="339"/>
+      <c r="N28" s="339"/>
+      <c r="O28" s="339"/>
+      <c r="P28" s="340"/>
+      <c r="Q28" s="341"/>
+      <c r="R28" s="342"/>
+      <c r="S28" s="342"/>
+      <c r="T28" s="342"/>
+      <c r="U28" s="342"/>
+      <c r="V28" s="342"/>
+      <c r="W28" s="342"/>
+      <c r="X28" s="342"/>
+      <c r="Y28" s="342"/>
+      <c r="Z28" s="342"/>
+      <c r="AA28" s="342"/>
+      <c r="AB28" s="342"/>
+      <c r="AC28" s="342"/>
+      <c r="AD28" s="342"/>
+      <c r="AE28" s="343"/>
+      <c r="AF28" s="338"/>
+      <c r="AG28" s="339"/>
+      <c r="AH28" s="339"/>
+      <c r="AI28" s="340"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="296"/>
-      <c r="C29" s="297"/>
-      <c r="D29" s="298"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="300"/>
-      <c r="G29" s="296"/>
-      <c r="H29" s="301"/>
-      <c r="I29" s="297"/>
-      <c r="J29" s="302"/>
-      <c r="K29" s="303"/>
-      <c r="L29" s="303"/>
-      <c r="M29" s="303"/>
-      <c r="N29" s="303"/>
-      <c r="O29" s="303"/>
-      <c r="P29" s="304"/>
-      <c r="Q29" s="305"/>
-      <c r="R29" s="306"/>
-      <c r="S29" s="306"/>
-      <c r="T29" s="306"/>
-      <c r="U29" s="306"/>
-      <c r="V29" s="306"/>
-      <c r="W29" s="306"/>
-      <c r="X29" s="306"/>
-      <c r="Y29" s="306"/>
-      <c r="Z29" s="306"/>
-      <c r="AA29" s="306"/>
-      <c r="AB29" s="306"/>
-      <c r="AC29" s="306"/>
-      <c r="AD29" s="306"/>
-      <c r="AE29" s="307"/>
-      <c r="AF29" s="302"/>
-      <c r="AG29" s="303"/>
-      <c r="AH29" s="303"/>
-      <c r="AI29" s="304"/>
+      <c r="B29" s="332"/>
+      <c r="C29" s="333"/>
+      <c r="D29" s="334"/>
+      <c r="E29" s="335"/>
+      <c r="F29" s="336"/>
+      <c r="G29" s="332"/>
+      <c r="H29" s="337"/>
+      <c r="I29" s="333"/>
+      <c r="J29" s="338"/>
+      <c r="K29" s="339"/>
+      <c r="L29" s="339"/>
+      <c r="M29" s="339"/>
+      <c r="N29" s="339"/>
+      <c r="O29" s="339"/>
+      <c r="P29" s="340"/>
+      <c r="Q29" s="341"/>
+      <c r="R29" s="342"/>
+      <c r="S29" s="342"/>
+      <c r="T29" s="342"/>
+      <c r="U29" s="342"/>
+      <c r="V29" s="342"/>
+      <c r="W29" s="342"/>
+      <c r="X29" s="342"/>
+      <c r="Y29" s="342"/>
+      <c r="Z29" s="342"/>
+      <c r="AA29" s="342"/>
+      <c r="AB29" s="342"/>
+      <c r="AC29" s="342"/>
+      <c r="AD29" s="342"/>
+      <c r="AE29" s="343"/>
+      <c r="AF29" s="338"/>
+      <c r="AG29" s="339"/>
+      <c r="AH29" s="339"/>
+      <c r="AI29" s="340"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="296"/>
-      <c r="C30" s="297"/>
-      <c r="D30" s="298"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="300"/>
-      <c r="G30" s="296"/>
-      <c r="H30" s="301"/>
-      <c r="I30" s="297"/>
-      <c r="J30" s="302"/>
-      <c r="K30" s="303"/>
-      <c r="L30" s="303"/>
-      <c r="M30" s="303"/>
-      <c r="N30" s="303"/>
-      <c r="O30" s="303"/>
-      <c r="P30" s="304"/>
-      <c r="Q30" s="305"/>
-      <c r="R30" s="306"/>
-      <c r="S30" s="306"/>
-      <c r="T30" s="306"/>
-      <c r="U30" s="306"/>
-      <c r="V30" s="306"/>
-      <c r="W30" s="306"/>
-      <c r="X30" s="306"/>
-      <c r="Y30" s="306"/>
-      <c r="Z30" s="306"/>
-      <c r="AA30" s="306"/>
-      <c r="AB30" s="306"/>
-      <c r="AC30" s="306"/>
-      <c r="AD30" s="306"/>
-      <c r="AE30" s="307"/>
-      <c r="AF30" s="302"/>
-      <c r="AG30" s="303"/>
-      <c r="AH30" s="303"/>
-      <c r="AI30" s="304"/>
+      <c r="B30" s="332"/>
+      <c r="C30" s="333"/>
+      <c r="D30" s="334"/>
+      <c r="E30" s="335"/>
+      <c r="F30" s="336"/>
+      <c r="G30" s="332"/>
+      <c r="H30" s="337"/>
+      <c r="I30" s="333"/>
+      <c r="J30" s="338"/>
+      <c r="K30" s="339"/>
+      <c r="L30" s="339"/>
+      <c r="M30" s="339"/>
+      <c r="N30" s="339"/>
+      <c r="O30" s="339"/>
+      <c r="P30" s="340"/>
+      <c r="Q30" s="341"/>
+      <c r="R30" s="342"/>
+      <c r="S30" s="342"/>
+      <c r="T30" s="342"/>
+      <c r="U30" s="342"/>
+      <c r="V30" s="342"/>
+      <c r="W30" s="342"/>
+      <c r="X30" s="342"/>
+      <c r="Y30" s="342"/>
+      <c r="Z30" s="342"/>
+      <c r="AA30" s="342"/>
+      <c r="AB30" s="342"/>
+      <c r="AC30" s="342"/>
+      <c r="AD30" s="342"/>
+      <c r="AE30" s="343"/>
+      <c r="AF30" s="338"/>
+      <c r="AG30" s="339"/>
+      <c r="AH30" s="339"/>
+      <c r="AI30" s="340"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="296"/>
-      <c r="C31" s="297"/>
-      <c r="D31" s="298"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="300"/>
-      <c r="G31" s="296"/>
-      <c r="H31" s="301"/>
-      <c r="I31" s="297"/>
-      <c r="J31" s="302"/>
-      <c r="K31" s="303"/>
-      <c r="L31" s="303"/>
-      <c r="M31" s="303"/>
-      <c r="N31" s="303"/>
-      <c r="O31" s="303"/>
-      <c r="P31" s="304"/>
-      <c r="Q31" s="305"/>
-      <c r="R31" s="306"/>
-      <c r="S31" s="306"/>
-      <c r="T31" s="306"/>
-      <c r="U31" s="306"/>
-      <c r="V31" s="306"/>
-      <c r="W31" s="306"/>
-      <c r="X31" s="306"/>
-      <c r="Y31" s="306"/>
-      <c r="Z31" s="306"/>
-      <c r="AA31" s="306"/>
-      <c r="AB31" s="306"/>
-      <c r="AC31" s="306"/>
-      <c r="AD31" s="306"/>
-      <c r="AE31" s="307"/>
-      <c r="AF31" s="302"/>
-      <c r="AG31" s="303"/>
-      <c r="AH31" s="303"/>
-      <c r="AI31" s="304"/>
+      <c r="B31" s="332"/>
+      <c r="C31" s="333"/>
+      <c r="D31" s="334"/>
+      <c r="E31" s="335"/>
+      <c r="F31" s="336"/>
+      <c r="G31" s="332"/>
+      <c r="H31" s="337"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="338"/>
+      <c r="K31" s="339"/>
+      <c r="L31" s="339"/>
+      <c r="M31" s="339"/>
+      <c r="N31" s="339"/>
+      <c r="O31" s="339"/>
+      <c r="P31" s="340"/>
+      <c r="Q31" s="341"/>
+      <c r="R31" s="342"/>
+      <c r="S31" s="342"/>
+      <c r="T31" s="342"/>
+      <c r="U31" s="342"/>
+      <c r="V31" s="342"/>
+      <c r="W31" s="342"/>
+      <c r="X31" s="342"/>
+      <c r="Y31" s="342"/>
+      <c r="Z31" s="342"/>
+      <c r="AA31" s="342"/>
+      <c r="AB31" s="342"/>
+      <c r="AC31" s="342"/>
+      <c r="AD31" s="342"/>
+      <c r="AE31" s="343"/>
+      <c r="AF31" s="338"/>
+      <c r="AG31" s="339"/>
+      <c r="AH31" s="339"/>
+      <c r="AI31" s="340"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="296"/>
-      <c r="C32" s="297"/>
-      <c r="D32" s="298"/>
-      <c r="E32" s="299"/>
-      <c r="F32" s="300"/>
-      <c r="G32" s="296"/>
-      <c r="H32" s="301"/>
-      <c r="I32" s="297"/>
-      <c r="J32" s="302"/>
-      <c r="K32" s="308"/>
-      <c r="L32" s="303"/>
-      <c r="M32" s="303"/>
-      <c r="N32" s="303"/>
-      <c r="O32" s="303"/>
-      <c r="P32" s="304"/>
-      <c r="Q32" s="305"/>
-      <c r="R32" s="306"/>
-      <c r="S32" s="306"/>
-      <c r="T32" s="306"/>
-      <c r="U32" s="306"/>
-      <c r="V32" s="306"/>
-      <c r="W32" s="306"/>
-      <c r="X32" s="306"/>
-      <c r="Y32" s="306"/>
-      <c r="Z32" s="306"/>
-      <c r="AA32" s="306"/>
-      <c r="AB32" s="306"/>
-      <c r="AC32" s="306"/>
-      <c r="AD32" s="306"/>
-      <c r="AE32" s="307"/>
-      <c r="AF32" s="302"/>
-      <c r="AG32" s="303"/>
-      <c r="AH32" s="303"/>
-      <c r="AI32" s="304"/>
+      <c r="B32" s="332"/>
+      <c r="C32" s="333"/>
+      <c r="D32" s="334"/>
+      <c r="E32" s="335"/>
+      <c r="F32" s="336"/>
+      <c r="G32" s="332"/>
+      <c r="H32" s="337"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="338"/>
+      <c r="K32" s="357"/>
+      <c r="L32" s="339"/>
+      <c r="M32" s="339"/>
+      <c r="N32" s="339"/>
+      <c r="O32" s="339"/>
+      <c r="P32" s="340"/>
+      <c r="Q32" s="341"/>
+      <c r="R32" s="342"/>
+      <c r="S32" s="342"/>
+      <c r="T32" s="342"/>
+      <c r="U32" s="342"/>
+      <c r="V32" s="342"/>
+      <c r="W32" s="342"/>
+      <c r="X32" s="342"/>
+      <c r="Y32" s="342"/>
+      <c r="Z32" s="342"/>
+      <c r="AA32" s="342"/>
+      <c r="AB32" s="342"/>
+      <c r="AC32" s="342"/>
+      <c r="AD32" s="342"/>
+      <c r="AE32" s="343"/>
+      <c r="AF32" s="338"/>
+      <c r="AG32" s="339"/>
+      <c r="AH32" s="339"/>
+      <c r="AI32" s="340"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="296"/>
-      <c r="C33" s="297"/>
-      <c r="D33" s="298"/>
-      <c r="E33" s="299"/>
-      <c r="F33" s="300"/>
-      <c r="G33" s="296"/>
-      <c r="H33" s="301"/>
-      <c r="I33" s="297"/>
-      <c r="J33" s="302"/>
-      <c r="K33" s="303"/>
-      <c r="L33" s="303"/>
-      <c r="M33" s="303"/>
-      <c r="N33" s="303"/>
-      <c r="O33" s="303"/>
-      <c r="P33" s="304"/>
-      <c r="Q33" s="305"/>
-      <c r="R33" s="306"/>
-      <c r="S33" s="306"/>
-      <c r="T33" s="306"/>
-      <c r="U33" s="306"/>
-      <c r="V33" s="306"/>
-      <c r="W33" s="306"/>
-      <c r="X33" s="306"/>
-      <c r="Y33" s="306"/>
-      <c r="Z33" s="306"/>
-      <c r="AA33" s="306"/>
-      <c r="AB33" s="306"/>
-      <c r="AC33" s="306"/>
-      <c r="AD33" s="306"/>
-      <c r="AE33" s="307"/>
-      <c r="AF33" s="302"/>
-      <c r="AG33" s="303"/>
-      <c r="AH33" s="303"/>
-      <c r="AI33" s="304"/>
+      <c r="B33" s="332"/>
+      <c r="C33" s="333"/>
+      <c r="D33" s="334"/>
+      <c r="E33" s="335"/>
+      <c r="F33" s="336"/>
+      <c r="G33" s="332"/>
+      <c r="H33" s="337"/>
+      <c r="I33" s="333"/>
+      <c r="J33" s="338"/>
+      <c r="K33" s="339"/>
+      <c r="L33" s="339"/>
+      <c r="M33" s="339"/>
+      <c r="N33" s="339"/>
+      <c r="O33" s="339"/>
+      <c r="P33" s="340"/>
+      <c r="Q33" s="341"/>
+      <c r="R33" s="342"/>
+      <c r="S33" s="342"/>
+      <c r="T33" s="342"/>
+      <c r="U33" s="342"/>
+      <c r="V33" s="342"/>
+      <c r="W33" s="342"/>
+      <c r="X33" s="342"/>
+      <c r="Y33" s="342"/>
+      <c r="Z33" s="342"/>
+      <c r="AA33" s="342"/>
+      <c r="AB33" s="342"/>
+      <c r="AC33" s="342"/>
+      <c r="AD33" s="342"/>
+      <c r="AE33" s="343"/>
+      <c r="AF33" s="338"/>
+      <c r="AG33" s="339"/>
+      <c r="AH33" s="339"/>
+      <c r="AI33" s="340"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13199,162 +13355,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -14435,14 +14435,18 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>10-2-1</v>
+        <v>11-1-1</v>
       </c>
       <c r="B36" s="237"/>
       <c r="C36" s="238" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="238"/>
-      <c r="E36" s="239"/>
+      <c r="D36" s="238" t="s">
+        <v>502</v>
+      </c>
+      <c r="E36" s="239" t="s">
+        <v>502</v>
+      </c>
       <c r="F36" s="197" t="s">
         <v>90</v>
       </c>
@@ -14470,7 +14474,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>10-3-1</v>
+        <v>11-2-1</v>
       </c>
       <c r="B37" s="237"/>
       <c r="C37" s="237"/>
@@ -14503,7 +14507,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>10-4-1</v>
+        <v>11-3-1</v>
       </c>
       <c r="B38" s="237"/>
       <c r="C38" s="237"/>
@@ -14536,7 +14540,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>10-5-1</v>
+        <v>11-4-1</v>
       </c>
       <c r="B39" s="237"/>
       <c r="C39" s="237"/>
@@ -14569,7 +14573,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>11-1-1</v>
+        <v>12-1-1</v>
       </c>
       <c r="B40" s="237"/>
       <c r="C40" s="237"/>
@@ -14606,7 +14610,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>11-2-1</v>
+        <v>12-2-1</v>
       </c>
       <c r="B41" s="245"/>
       <c r="C41" s="245"/>
@@ -14639,7 +14643,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>12-1-1</v>
+        <v>13-1-1</v>
       </c>
       <c r="B42" s="246" t="s">
         <v>97</v>
@@ -14682,7 +14686,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>12-2-1</v>
+        <v>13-2-1</v>
       </c>
       <c r="B43" s="248"/>
       <c r="C43" s="249"/>
@@ -14717,7 +14721,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>12-3-1</v>
+        <v>13-3-1</v>
       </c>
       <c r="B44" s="248"/>
       <c r="C44" s="249"/>
@@ -14752,7 +14756,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>13-1-1</v>
+        <v>14-1-1</v>
       </c>
       <c r="B45" s="248"/>
       <c r="C45" s="249"/>
@@ -14789,7 +14793,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>13-2-1</v>
+        <v>14-2-1</v>
       </c>
       <c r="B46" s="248"/>
       <c r="C46" s="249"/>
@@ -14824,7 +14828,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>13-3-1</v>
+        <v>14-3-1</v>
       </c>
       <c r="B47" s="248"/>
       <c r="C47" s="249"/>
@@ -14859,7 +14863,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>14-1-1</v>
+        <v>15-1-1</v>
       </c>
       <c r="B48" s="248"/>
       <c r="C48" s="249"/>
@@ -14896,7 +14900,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>14-2-1</v>
+        <v>15-2-1</v>
       </c>
       <c r="B49" s="248"/>
       <c r="C49" s="249"/>
@@ -14931,7 +14935,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>15-1-1</v>
+        <v>16-1-1</v>
       </c>
       <c r="B50" s="248"/>
       <c r="C50" s="249"/>
@@ -14968,7 +14972,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>15-2-1</v>
+        <v>16-2-1</v>
       </c>
       <c r="B51" s="248"/>
       <c r="C51" s="249"/>
@@ -15003,7 +15007,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>15-3-1</v>
+        <v>16-3-1</v>
       </c>
       <c r="B52" s="248"/>
       <c r="C52" s="249"/>
@@ -15038,7 +15042,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>15-4-1</v>
+        <v>16-4-1</v>
       </c>
       <c r="B53" s="248"/>
       <c r="C53" s="249"/>
@@ -15073,7 +15077,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>15-5-1</v>
+        <v>16-5-1</v>
       </c>
       <c r="B54" s="248"/>
       <c r="C54" s="249"/>
@@ -15108,7 +15112,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>15-6-1</v>
+        <v>16-6-1</v>
       </c>
       <c r="B55" s="248"/>
       <c r="C55" s="249"/>
@@ -15132,7 +15136,7 @@
       <c r="Q55" s="50"/>
       <c r="R55" s="51"/>
     </row>
-    <row r="56" spans="1:18" s="34" customFormat="1" ht="33.75">
+    <row r="56" spans="1:18" s="34" customFormat="1" ht="22.5">
       <c r="A56" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -15143,7 +15147,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>16-1-1</v>
+        <v>17-1-1</v>
       </c>
       <c r="B56" s="248"/>
       <c r="C56" s="249"/>
@@ -15180,7 +15184,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>17-1-1</v>
+        <v>18-1-1</v>
       </c>
       <c r="B57" s="248"/>
       <c r="C57" s="249"/>
@@ -15217,7 +15221,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>18-1-1</v>
+        <v>19-1-1</v>
       </c>
       <c r="B58" s="248"/>
       <c r="C58" s="249"/>
@@ -15254,7 +15258,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>19-1-1</v>
+        <v>20-1-1</v>
       </c>
       <c r="B59" s="248"/>
       <c r="C59" s="249"/>
@@ -15293,7 +15297,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>19-2-1</v>
+        <v>20-2-1</v>
       </c>
       <c r="B60" s="248"/>
       <c r="C60" s="248"/>
@@ -15328,7 +15332,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>19-3-1</v>
+        <v>20-3-1</v>
       </c>
       <c r="B61" s="248"/>
       <c r="C61" s="248"/>
@@ -15363,7 +15367,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>19-4-1</v>
+        <v>20-4-1</v>
       </c>
       <c r="B62" s="248"/>
       <c r="C62" s="248"/>
@@ -15398,7 +15402,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>19-5-1</v>
+        <v>20-5-1</v>
       </c>
       <c r="B63" s="248"/>
       <c r="C63" s="248"/>
@@ -15433,7 +15437,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>20-1-1</v>
+        <v>21-1-1</v>
       </c>
       <c r="B64" s="248"/>
       <c r="C64" s="248"/>
@@ -15459,7 +15463,7 @@
       <c r="Q64" s="50"/>
       <c r="R64" s="51"/>
     </row>
-    <row r="65" spans="1:18" s="34" customFormat="1" ht="33.75">
+    <row r="65" spans="1:18" s="34" customFormat="1" ht="22.5">
       <c r="A65" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -15470,7 +15474,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>20-2-1</v>
+        <v>21-2-1</v>
       </c>
       <c r="B65" s="248"/>
       <c r="C65" s="248"/>
@@ -15505,7 +15509,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>20-3-1</v>
+        <v>21-3-1</v>
       </c>
       <c r="B66" s="248"/>
       <c r="C66" s="248"/>
@@ -15529,7 +15533,7 @@
       <c r="Q66" s="50"/>
       <c r="R66" s="51"/>
     </row>
-    <row r="67" spans="1:18" s="34" customFormat="1" ht="33.75">
+    <row r="67" spans="1:18" s="34" customFormat="1" ht="22.5">
       <c r="A67" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -15540,7 +15544,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>20-4-1</v>
+        <v>21-4-1</v>
       </c>
       <c r="B67" s="248"/>
       <c r="C67" s="248"/>
@@ -15575,7 +15579,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>20-5-1</v>
+        <v>21-5-1</v>
       </c>
       <c r="B68" s="248"/>
       <c r="C68" s="248"/>
@@ -15610,7 +15614,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>20-6-1</v>
+        <v>21-6-1</v>
       </c>
       <c r="B69" s="248"/>
       <c r="C69" s="248"/>
@@ -15645,7 +15649,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>20-7-1</v>
+        <v>21-7-1</v>
       </c>
       <c r="B70" s="248"/>
       <c r="C70" s="248"/>
@@ -15680,7 +15684,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>20-8-1</v>
+        <v>21-8-1</v>
       </c>
       <c r="B71" s="248"/>
       <c r="C71" s="248"/>
@@ -15715,7 +15719,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>21-1-1</v>
+        <v>22-1-1</v>
       </c>
       <c r="B72" s="248"/>
       <c r="C72" s="248"/>
@@ -15752,7 +15756,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>22-1-1</v>
+        <v>23-1-1</v>
       </c>
       <c r="B73" s="248"/>
       <c r="C73" s="253"/>
@@ -15789,7 +15793,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>22-2-1</v>
+        <v>23-2-1</v>
       </c>
       <c r="B74" s="248"/>
       <c r="C74" s="253"/>
@@ -15824,7 +15828,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>22-3-1</v>
+        <v>23-3-1</v>
       </c>
       <c r="B75" s="248"/>
       <c r="C75" s="253"/>
@@ -15859,7 +15863,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>22-4-1</v>
+        <v>23-4-1</v>
       </c>
       <c r="B76" s="248"/>
       <c r="C76" s="253"/>
@@ -15894,7 +15898,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>22-5-1</v>
+        <v>23-5-1</v>
       </c>
       <c r="B77" s="249"/>
       <c r="C77" s="254"/>
@@ -15929,7 +15933,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>23-1-1</v>
+        <v>24-1-1</v>
       </c>
       <c r="B78" s="249"/>
       <c r="C78" s="255" t="s">
@@ -15970,7 +15974,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>23-2-1</v>
+        <v>24-2-1</v>
       </c>
       <c r="B79" s="248"/>
       <c r="C79" s="256"/>
@@ -16005,7 +16009,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>24-1-1</v>
+        <v>25-1-1</v>
       </c>
       <c r="B80" s="248"/>
       <c r="C80" s="256"/>
@@ -16042,7 +16046,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>25-1-1</v>
+        <v>26-1-1</v>
       </c>
       <c r="B81" s="248"/>
       <c r="C81" s="256"/>
@@ -16079,7 +16083,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>25-2-1</v>
+        <v>26-2-1</v>
       </c>
       <c r="B82" s="248"/>
       <c r="C82" s="256"/>
@@ -16114,7 +16118,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>26-1-1</v>
+        <v>27-1-1</v>
       </c>
       <c r="B83" s="248"/>
       <c r="C83" s="256"/>
@@ -16151,7 +16155,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>27-1-1</v>
+        <v>28-1-1</v>
       </c>
       <c r="B84" s="248"/>
       <c r="C84" s="257"/>
@@ -16188,7 +16192,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>28-1-1</v>
+        <v>29-1-1</v>
       </c>
       <c r="B85" s="248"/>
       <c r="C85" s="250" t="s">
@@ -16229,7 +16233,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>29-1-1</v>
+        <v>30-1-1</v>
       </c>
       <c r="B86" s="248"/>
       <c r="C86" s="256"/>
@@ -16266,7 +16270,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>30-1-1</v>
+        <v>31-1-1</v>
       </c>
       <c r="B87" s="248"/>
       <c r="C87" s="257"/>
@@ -16303,7 +16307,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>31-1-1</v>
+        <v>32-1-1</v>
       </c>
       <c r="B88" s="248"/>
       <c r="C88" s="258" t="s">
@@ -16344,7 +16348,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>31-2-1</v>
+        <v>32-2-1</v>
       </c>
       <c r="B89" s="248"/>
       <c r="C89" s="256"/>
@@ -16379,7 +16383,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>32-1-1</v>
+        <v>33-1-1</v>
       </c>
       <c r="B90" s="248"/>
       <c r="C90" s="256"/>
@@ -16416,7 +16420,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>33-1-1</v>
+        <v>34-1-1</v>
       </c>
       <c r="B91" s="248"/>
       <c r="C91" s="256"/>
@@ -16453,7 +16457,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>33-2-1</v>
+        <v>34-2-1</v>
       </c>
       <c r="B92" s="248"/>
       <c r="C92" s="256"/>
@@ -16488,7 +16492,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>34-1-1</v>
+        <v>35-1-1</v>
       </c>
       <c r="B93" s="248"/>
       <c r="C93" s="257"/>
@@ -16525,7 +16529,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>35-1-1</v>
+        <v>36-1-1</v>
       </c>
       <c r="B94" s="248"/>
       <c r="C94" s="250" t="s">
@@ -16566,7 +16570,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>35-2-1</v>
+        <v>36-2-1</v>
       </c>
       <c r="B95" s="248"/>
       <c r="C95" s="248"/>
@@ -16601,7 +16605,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>35-3-1</v>
+        <v>36-3-1</v>
       </c>
       <c r="B96" s="248"/>
       <c r="C96" s="248"/>
@@ -16625,7 +16629,7 @@
       <c r="Q96" s="51"/>
       <c r="R96" s="51"/>
     </row>
-    <row r="97" spans="1:18" ht="33.75">
+    <row r="97" spans="1:18" ht="22.5">
       <c r="A97" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -16636,7 +16640,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>35-4-1</v>
+        <v>36-4-1</v>
       </c>
       <c r="B97" s="248"/>
       <c r="C97" s="256"/>
@@ -16660,7 +16664,7 @@
       <c r="Q97" s="51"/>
       <c r="R97" s="51"/>
     </row>
-    <row r="98" spans="1:18" ht="33.75">
+    <row r="98" spans="1:18" ht="22.5">
       <c r="A98" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -16671,7 +16675,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>35-5-1</v>
+        <v>36-5-1</v>
       </c>
       <c r="B98" s="248"/>
       <c r="C98" s="256"/>
@@ -16706,7 +16710,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>36-1-1</v>
+        <v>37-1-1</v>
       </c>
       <c r="B99" s="248"/>
       <c r="C99" s="248"/>
@@ -16743,7 +16747,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>36-2-1</v>
+        <v>37-2-1</v>
       </c>
       <c r="B100" s="253"/>
       <c r="C100" s="249"/>
@@ -16778,7 +16782,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>36-3-1</v>
+        <v>37-3-1</v>
       </c>
       <c r="B101" s="253"/>
       <c r="C101" s="249"/>
@@ -16802,7 +16806,7 @@
       <c r="Q101" s="51"/>
       <c r="R101" s="51"/>
     </row>
-    <row r="102" spans="1:18" ht="33.75">
+    <row r="102" spans="1:18" ht="22.5">
       <c r="A102" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -16813,7 +16817,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>36-4-1</v>
+        <v>37-4-1</v>
       </c>
       <c r="B102" s="248"/>
       <c r="C102" s="256"/>
@@ -16837,7 +16841,7 @@
       <c r="Q102" s="51"/>
       <c r="R102" s="51"/>
     </row>
-    <row r="103" spans="1:18" ht="33.75">
+    <row r="103" spans="1:18" ht="22.5">
       <c r="A103" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -16848,7 +16852,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>36-5-1</v>
+        <v>37-5-1</v>
       </c>
       <c r="B103" s="248"/>
       <c r="C103" s="256"/>
@@ -16883,7 +16887,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>37-1-1</v>
+        <v>38-1-1</v>
       </c>
       <c r="B104" s="253"/>
       <c r="C104" s="257"/>
@@ -16909,7 +16913,7 @@
       <c r="Q104" s="51"/>
       <c r="R104" s="51"/>
     </row>
-    <row r="105" spans="1:18" ht="33.75">
+    <row r="105" spans="1:18" ht="22.5">
       <c r="A105" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -16920,7 +16924,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>38-1-1</v>
+        <v>39-1-1</v>
       </c>
       <c r="B105" s="259" t="s">
         <v>184</v>
@@ -16963,7 +16967,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>39-1-1</v>
+        <v>40-1-1</v>
       </c>
       <c r="B106" s="248"/>
       <c r="C106" s="250" t="s">
@@ -17004,7 +17008,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>39-2-1</v>
+        <v>40-2-1</v>
       </c>
       <c r="B107" s="248"/>
       <c r="C107" s="252"/>
@@ -17039,7 +17043,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>40-1-1</v>
+        <v>41-1-1</v>
       </c>
       <c r="B108" s="248"/>
       <c r="C108" s="252" t="s">
@@ -17080,7 +17084,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>41-1-1</v>
+        <v>42-1-1</v>
       </c>
       <c r="B109" s="248"/>
       <c r="C109" s="250" t="s">
@@ -17121,7 +17125,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>41-2-1</v>
+        <v>42-2-1</v>
       </c>
       <c r="B110" s="260"/>
       <c r="C110" s="252"/>
@@ -17156,7 +17160,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>42-1-1</v>
+        <v>43-1-1</v>
       </c>
       <c r="B111" s="261" t="s">
         <v>195</v>
@@ -17197,7 +17201,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>42-2-1</v>
+        <v>43-2-1</v>
       </c>
       <c r="B112" s="358" t="s">
         <v>198</v>
@@ -17232,7 +17236,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>42-3-1</v>
+        <v>43-3-1</v>
       </c>
       <c r="B113" s="358"/>
       <c r="C113" s="240"/>
@@ -17265,7 +17269,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>42-4-1</v>
+        <v>43-4-1</v>
       </c>
       <c r="B114" s="262"/>
       <c r="C114" s="240"/>
@@ -17298,7 +17302,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>43-1-1</v>
+        <v>44-1-1</v>
       </c>
       <c r="B115" s="262"/>
       <c r="C115" s="240"/>
@@ -17333,7 +17337,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>43-2-1</v>
+        <v>44-2-1</v>
       </c>
       <c r="B116" s="262"/>
       <c r="C116" s="240"/>
@@ -17366,7 +17370,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>43-3-1</v>
+        <v>44-3-1</v>
       </c>
       <c r="B117" s="262"/>
       <c r="C117" s="240"/>
@@ -17399,7 +17403,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>43-4-1</v>
+        <v>44-4-1</v>
       </c>
       <c r="B118" s="262"/>
       <c r="C118" s="240"/>
@@ -17432,7 +17436,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>43-5-1</v>
+        <v>44-5-1</v>
       </c>
       <c r="B119" s="262"/>
       <c r="C119" s="240"/>
@@ -17465,7 +17469,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>44-1-1</v>
+        <v>45-1-1</v>
       </c>
       <c r="B120" s="262"/>
       <c r="C120" s="240"/>
@@ -17500,7 +17504,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>44-2-1</v>
+        <v>45-2-1</v>
       </c>
       <c r="B121" s="262"/>
       <c r="C121" s="240"/>
@@ -17533,7 +17537,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>44-3-1</v>
+        <v>45-3-1</v>
       </c>
       <c r="B122" s="262"/>
       <c r="C122" s="240"/>
@@ -17568,7 +17572,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>44-4-1</v>
+        <v>45-4-1</v>
       </c>
       <c r="B123" s="262"/>
       <c r="C123" s="240"/>
@@ -17603,7 +17607,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>44-5-1</v>
+        <v>45-5-1</v>
       </c>
       <c r="B124" s="262"/>
       <c r="C124" s="240"/>
@@ -17638,7 +17642,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>45-1-1</v>
+        <v>46-1-1</v>
       </c>
       <c r="B125" s="262"/>
       <c r="C125" s="240"/>
@@ -17673,7 +17677,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>46-1-1</v>
+        <v>47-1-1</v>
       </c>
       <c r="B126" s="262"/>
       <c r="C126" s="242"/>
@@ -17710,7 +17714,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>47-1-1</v>
+        <v>48-1-1</v>
       </c>
       <c r="B127" s="262"/>
       <c r="C127" s="241" t="s">
@@ -17751,7 +17755,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>48-1-1</v>
+        <v>49-1-1</v>
       </c>
       <c r="B128" s="262"/>
       <c r="C128" s="241"/>
@@ -17786,7 +17790,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>48-2-1</v>
+        <v>49-2-1</v>
       </c>
       <c r="B129" s="262"/>
       <c r="C129" s="241"/>
@@ -17819,7 +17823,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>48-3-1</v>
+        <v>49-3-1</v>
       </c>
       <c r="B130" s="263"/>
       <c r="C130" s="243"/>
@@ -17852,7 +17856,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>49-1-1</v>
+        <v>50-1-1</v>
       </c>
       <c r="B131" s="261" t="s">
         <v>223</v>
@@ -17895,7 +17899,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>49-2-1</v>
+        <v>50-2-1</v>
       </c>
       <c r="B132" s="358" t="s">
         <v>225</v>
@@ -17932,7 +17936,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>49-3-1</v>
+        <v>50-3-1</v>
       </c>
       <c r="B133" s="358"/>
       <c r="C133" s="240"/>
@@ -17967,7 +17971,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>49-4-1</v>
+        <v>50-4-1</v>
       </c>
       <c r="B134" s="262"/>
       <c r="C134" s="240"/>
@@ -18002,7 +18006,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>50-1-1</v>
+        <v>51-1-1</v>
       </c>
       <c r="B135" s="262"/>
       <c r="C135" s="240"/>
@@ -18039,7 +18043,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>50-2-1</v>
+        <v>51-2-1</v>
       </c>
       <c r="B136" s="262"/>
       <c r="C136" s="240"/>
@@ -18074,7 +18078,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>51-1-1</v>
+        <v>52-1-1</v>
       </c>
       <c r="B137" s="262"/>
       <c r="C137" s="242"/>
@@ -18111,7 +18115,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>52-1-1</v>
+        <v>53-1-1</v>
       </c>
       <c r="B138" s="262"/>
       <c r="C138" s="240" t="s">
@@ -18150,7 +18154,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>53-1-1</v>
+        <v>54-1-1</v>
       </c>
       <c r="B139" s="262"/>
       <c r="C139" s="240"/>
@@ -18185,7 +18189,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>54-1-1</v>
+        <v>55-1-1</v>
       </c>
       <c r="B140" s="262"/>
       <c r="C140" s="240"/>
@@ -18209,7 +18213,7 @@
       <c r="Q140" s="180"/>
       <c r="R140" s="180"/>
     </row>
-    <row r="141" spans="1:18" ht="33.75">
+    <row r="141" spans="1:18" ht="22.5">
       <c r="A141" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -18220,7 +18224,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>55-1-1</v>
+        <v>56-1-1</v>
       </c>
       <c r="B141" s="262"/>
       <c r="C141" s="240"/>
@@ -18257,7 +18261,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>56-1-1</v>
+        <v>57-1-1</v>
       </c>
       <c r="B142" s="262"/>
       <c r="C142" s="240"/>
@@ -18292,7 +18296,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>57-1-1</v>
+        <v>58-1-1</v>
       </c>
       <c r="B143" s="262"/>
       <c r="C143" s="240"/>
@@ -18329,7 +18333,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>57-2-1</v>
+        <v>58-2-1</v>
       </c>
       <c r="B144" s="262"/>
       <c r="C144" s="240"/>
@@ -18364,7 +18368,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>57-3-1</v>
+        <v>58-3-1</v>
       </c>
       <c r="B145" s="262"/>
       <c r="C145" s="240"/>
@@ -18399,7 +18403,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>57-4-1</v>
+        <v>58-4-1</v>
       </c>
       <c r="B146" s="262"/>
       <c r="C146" s="240"/>
@@ -18434,7 +18438,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>57-5-1</v>
+        <v>58-5-1</v>
       </c>
       <c r="B147" s="262"/>
       <c r="C147" s="240"/>
@@ -18469,7 +18473,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>57-6-1</v>
+        <v>58-6-1</v>
       </c>
       <c r="B148" s="262"/>
       <c r="C148" s="240"/>
@@ -18504,7 +18508,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>58-1-1</v>
+        <v>59-1-1</v>
       </c>
       <c r="B149" s="262"/>
       <c r="C149" s="240"/>
@@ -18541,7 +18545,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>58-2-1</v>
+        <v>59-2-1</v>
       </c>
       <c r="B150" s="262"/>
       <c r="C150" s="240"/>
@@ -18574,7 +18578,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>59-1-1</v>
+        <v>60-1-1</v>
       </c>
       <c r="B151" s="262"/>
       <c r="C151" s="240"/>
@@ -18598,7 +18602,7 @@
       <c r="Q151" s="180"/>
       <c r="R151" s="180"/>
     </row>
-    <row r="152" spans="1:18" ht="33.75">
+    <row r="152" spans="1:18" ht="22.5">
       <c r="A152" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -18609,7 +18613,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>59-2-1</v>
+        <v>60-2-1</v>
       </c>
       <c r="B152" s="262"/>
       <c r="C152" s="240"/>
@@ -18642,7 +18646,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>59-3-1</v>
+        <v>60-3-1</v>
       </c>
       <c r="B153" s="262"/>
       <c r="C153" s="240"/>
@@ -18675,7 +18679,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>59-4-1</v>
+        <v>60-4-1</v>
       </c>
       <c r="B154" s="262"/>
       <c r="C154" s="240"/>
@@ -18708,7 +18712,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>59-5-1</v>
+        <v>60-5-1</v>
       </c>
       <c r="B155" s="262"/>
       <c r="C155" s="240"/>
@@ -18741,7 +18745,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>59-6-1</v>
+        <v>60-6-1</v>
       </c>
       <c r="B156" s="262"/>
       <c r="C156" s="240"/>
@@ -18774,7 +18778,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>59-7-1</v>
+        <v>60-7-1</v>
       </c>
       <c r="B157" s="262"/>
       <c r="C157" s="240"/>
@@ -18807,7 +18811,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>59-8-1</v>
+        <v>60-8-1</v>
       </c>
       <c r="B158" s="262"/>
       <c r="C158" s="240"/>
@@ -18840,7 +18844,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>59-9-1</v>
+        <v>60-9-1</v>
       </c>
       <c r="B159" s="262"/>
       <c r="C159" s="240"/>
@@ -18862,7 +18866,7 @@
       <c r="Q159" s="180"/>
       <c r="R159" s="180"/>
     </row>
-    <row r="160" spans="1:18" ht="33.75">
+    <row r="160" spans="1:18" ht="22.5">
       <c r="A160" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -18873,7 +18877,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>59-10-1</v>
+        <v>60-10-1</v>
       </c>
       <c r="B160" s="262"/>
       <c r="C160" s="240"/>
@@ -18906,7 +18910,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>59-11-1</v>
+        <v>60-11-1</v>
       </c>
       <c r="B161" s="262"/>
       <c r="C161" s="240"/>
@@ -18939,7 +18943,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>60-1-1</v>
+        <v>61-1-1</v>
       </c>
       <c r="B162" s="262"/>
       <c r="C162" s="240"/>
@@ -18974,7 +18978,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>60-2-1</v>
+        <v>61-2-1</v>
       </c>
       <c r="B163" s="262"/>
       <c r="C163" s="240"/>
@@ -19007,7 +19011,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>60-3-1</v>
+        <v>61-3-1</v>
       </c>
       <c r="B164" s="262"/>
       <c r="C164" s="240"/>
@@ -19040,7 +19044,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>60-4-1</v>
+        <v>61-4-1</v>
       </c>
       <c r="B165" s="262"/>
       <c r="C165" s="240"/>
@@ -19073,7 +19077,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>60-5-1</v>
+        <v>61-5-1</v>
       </c>
       <c r="B166" s="262"/>
       <c r="C166" s="240"/>
@@ -19106,7 +19110,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>60-6-1</v>
+        <v>61-6-1</v>
       </c>
       <c r="B167" s="262"/>
       <c r="C167" s="240"/>
@@ -19139,7 +19143,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>60-7-1</v>
+        <v>61-7-1</v>
       </c>
       <c r="B168" s="241"/>
       <c r="C168" s="240"/>
@@ -19174,7 +19178,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>61-1-1</v>
+        <v>62-1-1</v>
       </c>
       <c r="B169" s="241"/>
       <c r="C169" s="240"/>
@@ -19209,7 +19213,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>61-2-1</v>
+        <v>62-2-1</v>
       </c>
       <c r="B170" s="262"/>
       <c r="C170" s="240"/>
@@ -19242,7 +19246,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>61-3-1</v>
+        <v>62-3-1</v>
       </c>
       <c r="B171" s="262"/>
       <c r="C171" s="240"/>
@@ -19275,7 +19279,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>61-4-1</v>
+        <v>62-4-1</v>
       </c>
       <c r="B172" s="262"/>
       <c r="C172" s="240"/>
@@ -19308,7 +19312,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>61-5-1</v>
+        <v>62-5-1</v>
       </c>
       <c r="B173" s="262"/>
       <c r="C173" s="240"/>
@@ -19341,7 +19345,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>61-6-1</v>
+        <v>62-6-1</v>
       </c>
       <c r="B174" s="262"/>
       <c r="C174" s="240"/>
@@ -19374,7 +19378,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>61-7-1</v>
+        <v>62-7-1</v>
       </c>
       <c r="B175" s="262"/>
       <c r="C175" s="240"/>
@@ -19409,7 +19413,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>61-8-1</v>
+        <v>62-8-1</v>
       </c>
       <c r="B176" s="262"/>
       <c r="C176" s="240"/>
@@ -19444,7 +19448,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>61-9-1</v>
+        <v>62-9-1</v>
       </c>
       <c r="B177" s="262"/>
       <c r="C177" s="240"/>
@@ -19479,7 +19483,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>62-1-1</v>
+        <v>63-1-1</v>
       </c>
       <c r="B178" s="262"/>
       <c r="C178" s="240"/>
@@ -19514,7 +19518,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>63-1-1</v>
+        <v>64-1-1</v>
       </c>
       <c r="B179" s="243"/>
       <c r="C179" s="242"/>
@@ -19551,7 +19555,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>64-1-1</v>
+        <v>65-1-1</v>
       </c>
       <c r="B180" s="251" t="s">
         <v>283</v>
@@ -19594,7 +19598,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>65-1-1</v>
+        <v>66-1-1</v>
       </c>
       <c r="B181" s="250"/>
       <c r="C181" s="258"/>
@@ -19633,7 +19637,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>66-1-1</v>
+        <v>67-1-1</v>
       </c>
       <c r="B182" s="252"/>
       <c r="C182" s="268"/>
@@ -19672,7 +19676,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>67-1-1</v>
+        <v>68-1-1</v>
       </c>
       <c r="B183" s="251" t="s">
         <v>290</v>
@@ -19715,7 +19719,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>68-1-1</v>
+        <v>69-1-1</v>
       </c>
       <c r="B184" s="246"/>
       <c r="C184" s="246"/>
@@ -19752,7 +19756,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>68-2-1</v>
+        <v>69-2-1</v>
       </c>
       <c r="B185" s="246"/>
       <c r="C185" s="269"/>
@@ -19787,7 +19791,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>69-1-1</v>
+        <v>70-1-1</v>
       </c>
       <c r="B186" s="246"/>
       <c r="C186" s="258"/>
@@ -19824,7 +19828,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>69-2-1</v>
+        <v>70-2-1</v>
       </c>
       <c r="B187" s="246"/>
       <c r="C187" s="258"/>
@@ -19859,7 +19863,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>70-1-1</v>
+        <v>71-1-1</v>
       </c>
       <c r="B188" s="246"/>
       <c r="C188" s="268"/>
@@ -19898,7 +19902,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>71-1-1</v>
+        <v>72-1-1</v>
       </c>
       <c r="B189" s="246"/>
       <c r="C189" s="258" t="s">
@@ -19939,7 +19943,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>71-2-1</v>
+        <v>72-2-1</v>
       </c>
       <c r="B190" s="246"/>
       <c r="C190" s="269"/>
@@ -19974,7 +19978,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>71-3-1</v>
+        <v>72-3-1</v>
       </c>
       <c r="B191" s="246"/>
       <c r="C191" s="269"/>
@@ -20009,7 +20013,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>71-4-1</v>
+        <v>72-4-1</v>
       </c>
       <c r="B192" s="246"/>
       <c r="C192" s="269"/>
@@ -20044,7 +20048,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>71-5-1</v>
+        <v>72-5-1</v>
       </c>
       <c r="B193" s="246"/>
       <c r="C193" s="269"/>
@@ -20079,7 +20083,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>71-6-1</v>
+        <v>72-6-1</v>
       </c>
       <c r="B194" s="246"/>
       <c r="C194" s="269"/>
@@ -20114,7 +20118,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>71-7-1</v>
+        <v>72-7-1</v>
       </c>
       <c r="B195" s="246"/>
       <c r="C195" s="269"/>
@@ -20149,7 +20153,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>72-1-1</v>
+        <v>73-1-1</v>
       </c>
       <c r="B196" s="246"/>
       <c r="C196" s="246"/>
@@ -20186,7 +20190,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>73-1-1</v>
+        <v>74-1-1</v>
       </c>
       <c r="B197" s="246"/>
       <c r="C197" s="246"/>
@@ -20225,7 +20229,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>73-2-1</v>
+        <v>74-2-1</v>
       </c>
       <c r="B198" s="246"/>
       <c r="C198" s="246"/>
@@ -20260,7 +20264,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>73-3-1</v>
+        <v>74-3-1</v>
       </c>
       <c r="B199" s="246"/>
       <c r="C199" s="246"/>
@@ -20295,7 +20299,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>73-4-1</v>
+        <v>74-4-1</v>
       </c>
       <c r="B200" s="246"/>
       <c r="C200" s="246"/>
@@ -20319,7 +20323,7 @@
       <c r="Q200" s="51"/>
       <c r="R200" s="51"/>
     </row>
-    <row r="201" spans="1:18" ht="33.75">
+    <row r="201" spans="1:18" ht="22.5">
       <c r="A201" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -20330,7 +20334,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>73-5-1</v>
+        <v>74-5-1</v>
       </c>
       <c r="B201" s="246"/>
       <c r="C201" s="246"/>
@@ -20365,7 +20369,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>73-6-1</v>
+        <v>74-6-1</v>
       </c>
       <c r="B202" s="246"/>
       <c r="C202" s="246"/>
@@ -20400,7 +20404,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>73-7-1</v>
+        <v>74-7-1</v>
       </c>
       <c r="B203" s="246"/>
       <c r="C203" s="246"/>
@@ -20435,7 +20439,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>73-8-1</v>
+        <v>74-8-1</v>
       </c>
       <c r="B204" s="246"/>
       <c r="C204" s="246"/>
@@ -20459,7 +20463,7 @@
       <c r="Q204" s="51"/>
       <c r="R204" s="51"/>
     </row>
-    <row r="205" spans="1:18" ht="33.75">
+    <row r="205" spans="1:18" ht="22.5">
       <c r="A205" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -20470,7 +20474,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>73-9-1</v>
+        <v>74-9-1</v>
       </c>
       <c r="B205" s="246"/>
       <c r="C205" s="246"/>
@@ -20505,7 +20509,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>73-10-1</v>
+        <v>74-10-1</v>
       </c>
       <c r="B206" s="246"/>
       <c r="C206" s="246"/>
@@ -20540,7 +20544,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>73-11-1</v>
+        <v>74-11-1</v>
       </c>
       <c r="B207" s="246"/>
       <c r="C207" s="246"/>
@@ -20575,7 +20579,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>73-12-1</v>
+        <v>74-12-1</v>
       </c>
       <c r="B208" s="246"/>
       <c r="C208" s="246"/>
@@ -20610,7 +20614,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>73-13-1</v>
+        <v>74-13-1</v>
       </c>
       <c r="B209" s="250"/>
       <c r="C209" s="246"/>
@@ -20645,7 +20649,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-1-1</v>
+        <v>75-1-1</v>
       </c>
       <c r="B210" s="250"/>
       <c r="C210" s="246"/>
@@ -20684,7 +20688,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-2-1</v>
+        <v>75-2-1</v>
       </c>
       <c r="B211" s="246"/>
       <c r="C211" s="246"/>
@@ -20719,7 +20723,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-3-1</v>
+        <v>75-3-1</v>
       </c>
       <c r="B212" s="246"/>
       <c r="C212" s="246"/>
@@ -20754,7 +20758,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-4-1</v>
+        <v>75-4-1</v>
       </c>
       <c r="B213" s="246"/>
       <c r="C213" s="246"/>
@@ -20789,7 +20793,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-5-1</v>
+        <v>75-5-1</v>
       </c>
       <c r="B214" s="246"/>
       <c r="C214" s="246"/>
@@ -20824,7 +20828,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-6-1</v>
+        <v>75-6-1</v>
       </c>
       <c r="B215" s="246"/>
       <c r="C215" s="246"/>
@@ -20848,7 +20852,7 @@
       <c r="Q215" s="51"/>
       <c r="R215" s="51"/>
     </row>
-    <row r="216" spans="1:18" ht="33.75">
+    <row r="216" spans="1:18" ht="22.5">
       <c r="A216" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -20859,7 +20863,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-7-1</v>
+        <v>75-7-1</v>
       </c>
       <c r="B216" s="246"/>
       <c r="C216" s="246"/>
@@ -20894,7 +20898,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-8-1</v>
+        <v>75-8-1</v>
       </c>
       <c r="B217" s="246"/>
       <c r="C217" s="246"/>
@@ -20929,7 +20933,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-9-1</v>
+        <v>75-9-1</v>
       </c>
       <c r="B218" s="246"/>
       <c r="C218" s="246"/>
@@ -20964,7 +20968,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-10-1</v>
+        <v>75-10-1</v>
       </c>
       <c r="B219" s="246"/>
       <c r="C219" s="246"/>
@@ -20988,7 +20992,7 @@
       <c r="Q219" s="51"/>
       <c r="R219" s="51"/>
     </row>
-    <row r="220" spans="1:18" ht="33.75">
+    <row r="220" spans="1:18" ht="22.5">
       <c r="A220" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -20999,7 +21003,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-11-1</v>
+        <v>75-11-1</v>
       </c>
       <c r="B220" s="246"/>
       <c r="C220" s="246"/>
@@ -21034,7 +21038,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-12-1</v>
+        <v>75-12-1</v>
       </c>
       <c r="B221" s="246"/>
       <c r="C221" s="246"/>
@@ -21069,7 +21073,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-13-1</v>
+        <v>75-13-1</v>
       </c>
       <c r="B222" s="246"/>
       <c r="C222" s="246"/>
@@ -21104,7 +21108,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-14-1</v>
+        <v>75-14-1</v>
       </c>
       <c r="B223" s="246"/>
       <c r="C223" s="246"/>
@@ -21139,7 +21143,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>74-15-1</v>
+        <v>75-15-1</v>
       </c>
       <c r="B224" s="246"/>
       <c r="C224" s="246"/>
@@ -21174,7 +21178,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>75-1-1</v>
+        <v>76-1-1</v>
       </c>
       <c r="B225" s="246"/>
       <c r="C225" s="246"/>
@@ -21211,7 +21215,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>75-2-1</v>
+        <v>76-2-1</v>
       </c>
       <c r="B226" s="246"/>
       <c r="C226" s="246"/>
@@ -21246,7 +21250,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>75-3-1</v>
+        <v>76-3-1</v>
       </c>
       <c r="B227" s="246"/>
       <c r="C227" s="246"/>
@@ -21281,7 +21285,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>76-1-1</v>
+        <v>77-1-1</v>
       </c>
       <c r="B228" s="246"/>
       <c r="C228" s="246"/>
@@ -21318,7 +21322,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>77-1-1</v>
+        <v>78-1-1</v>
       </c>
       <c r="B229" s="252"/>
       <c r="C229" s="252"/>
@@ -21355,7 +21359,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>78-1-1</v>
+        <v>79-1-1</v>
       </c>
       <c r="B230" s="251" t="s">
         <v>344</v>
@@ -21398,7 +21402,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>79-1-1</v>
+        <v>80-1-1</v>
       </c>
       <c r="B231" s="246"/>
       <c r="C231" s="250"/>
@@ -21435,7 +21439,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>79-2-1</v>
+        <v>80-2-1</v>
       </c>
       <c r="B232" s="246"/>
       <c r="C232" s="250"/>
@@ -21470,7 +21474,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>79-3-1</v>
+        <v>80-3-1</v>
       </c>
       <c r="B233" s="246"/>
       <c r="C233" s="250"/>
@@ -21505,7 +21509,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>79-4-1</v>
+        <v>80-4-1</v>
       </c>
       <c r="B234" s="246"/>
       <c r="C234" s="250"/>
@@ -21540,7 +21544,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>79-5-1</v>
+        <v>80-5-1</v>
       </c>
       <c r="B235" s="246"/>
       <c r="C235" s="250"/>
@@ -21575,7 +21579,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>80-1-1</v>
+        <v>81-1-1</v>
       </c>
       <c r="B236" s="246"/>
       <c r="C236" s="250"/>
@@ -21612,7 +21616,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>80-2-1</v>
+        <v>81-2-1</v>
       </c>
       <c r="B237" s="246"/>
       <c r="C237" s="250"/>
@@ -21647,7 +21651,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>80-3-1</v>
+        <v>81-3-1</v>
       </c>
       <c r="B238" s="246"/>
       <c r="C238" s="250"/>
@@ -21682,7 +21686,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>80-4-1</v>
+        <v>81-4-1</v>
       </c>
       <c r="B239" s="246"/>
       <c r="C239" s="250"/>
@@ -21706,7 +21710,7 @@
       <c r="Q239" s="51"/>
       <c r="R239" s="51"/>
     </row>
-    <row r="240" spans="1:18" ht="33.75">
+    <row r="240" spans="1:18" ht="22.5">
       <c r="A240" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -21717,7 +21721,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>80-5-1</v>
+        <v>81-5-1</v>
       </c>
       <c r="B240" s="246"/>
       <c r="C240" s="250"/>
@@ -21752,7 +21756,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>81-1-1</v>
+        <v>82-1-1</v>
       </c>
       <c r="B241" s="246"/>
       <c r="C241" s="268"/>
@@ -21778,7 +21782,7 @@
       <c r="Q241" s="51"/>
       <c r="R241" s="51"/>
     </row>
-    <row r="242" spans="1:18" ht="33.75">
+    <row r="242" spans="1:18" ht="22.5">
       <c r="A242" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -21789,7 +21793,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>82-1-1</v>
+        <v>83-1-1</v>
       </c>
       <c r="B242" s="252"/>
       <c r="C242" s="252" t="s">
@@ -21830,7 +21834,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>83-1-1</v>
+        <v>84-1-1</v>
       </c>
       <c r="B243" s="251" t="s">
         <v>358</v>
@@ -21873,7 +21877,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>83-2-1</v>
+        <v>84-2-1</v>
       </c>
       <c r="B244" s="246"/>
       <c r="C244" s="250"/>
@@ -21908,7 +21912,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>84-1-1</v>
+        <v>85-1-1</v>
       </c>
       <c r="B245" s="246"/>
       <c r="C245" s="250"/>
@@ -21947,7 +21951,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>84-2-1</v>
+        <v>85-2-1</v>
       </c>
       <c r="B246" s="246"/>
       <c r="C246" s="252"/>
@@ -21982,7 +21986,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>85-1-1</v>
+        <v>86-1-1</v>
       </c>
       <c r="B247" s="246"/>
       <c r="C247" s="258" t="s">
@@ -22023,7 +22027,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>86-1-1</v>
+        <v>87-1-1</v>
       </c>
       <c r="B248" s="246"/>
       <c r="C248" s="258"/>
@@ -22049,7 +22053,7 @@
       <c r="Q248" s="51"/>
       <c r="R248" s="51"/>
     </row>
-    <row r="249" spans="1:18" ht="33.75">
+    <row r="249" spans="1:18" ht="22.5">
       <c r="A249" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -22060,7 +22064,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>87-1-1</v>
+        <v>88-1-1</v>
       </c>
       <c r="B249" s="246"/>
       <c r="C249" s="246"/>
@@ -22097,7 +22101,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>88-1-1</v>
+        <v>89-1-1</v>
       </c>
       <c r="B250" s="246"/>
       <c r="C250" s="258"/>
@@ -22134,7 +22138,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>89-1-1</v>
+        <v>90-1-1</v>
       </c>
       <c r="B251" s="246"/>
       <c r="C251" s="246"/>
@@ -22173,7 +22177,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>89-2-1</v>
+        <v>90-2-1</v>
       </c>
       <c r="B252" s="246"/>
       <c r="C252" s="246"/>
@@ -22208,7 +22212,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>90-1-1</v>
+        <v>91-1-1</v>
       </c>
       <c r="B253" s="246"/>
       <c r="C253" s="246"/>
@@ -22234,7 +22238,7 @@
       <c r="Q253" s="51"/>
       <c r="R253" s="51"/>
     </row>
-    <row r="254" spans="1:18" ht="33.75">
+    <row r="254" spans="1:18" ht="22.5">
       <c r="A254" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -22245,7 +22249,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>90-2-1</v>
+        <v>91-2-1</v>
       </c>
       <c r="B254" s="246"/>
       <c r="C254" s="246"/>
@@ -22280,7 +22284,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>90-3-1</v>
+        <v>91-3-1</v>
       </c>
       <c r="B255" s="246"/>
       <c r="C255" s="246"/>
@@ -22315,7 +22319,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>90-4-1</v>
+        <v>91-4-1</v>
       </c>
       <c r="B256" s="246"/>
       <c r="C256" s="246"/>
@@ -22350,7 +22354,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>90-5-1</v>
+        <v>91-5-1</v>
       </c>
       <c r="B257" s="250"/>
       <c r="C257" s="250"/>
@@ -22385,7 +22389,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>90-6-1</v>
+        <v>91-6-1</v>
       </c>
       <c r="B258" s="246"/>
       <c r="C258" s="250"/>
@@ -22420,7 +22424,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>90-7-1</v>
+        <v>91-7-1</v>
       </c>
       <c r="B259" s="246"/>
       <c r="C259" s="250"/>
@@ -22455,7 +22459,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>90-8-1</v>
+        <v>91-8-1</v>
       </c>
       <c r="B260" s="246"/>
       <c r="C260" s="250"/>
@@ -22490,7 +22494,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>90-9-1</v>
+        <v>91-9-1</v>
       </c>
       <c r="B261" s="246"/>
       <c r="C261" s="250"/>
@@ -22514,7 +22518,7 @@
       <c r="Q261" s="51"/>
       <c r="R261" s="51"/>
     </row>
-    <row r="262" spans="1:18" ht="33.75">
+    <row r="262" spans="1:18" ht="22.5">
       <c r="A262" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -22525,7 +22529,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>90-10-1</v>
+        <v>91-10-1</v>
       </c>
       <c r="B262" s="246"/>
       <c r="C262" s="250"/>
@@ -22560,7 +22564,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>90-11-1</v>
+        <v>91-11-1</v>
       </c>
       <c r="B263" s="246"/>
       <c r="C263" s="250"/>
@@ -22595,7 +22599,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>91-1-1</v>
+        <v>92-1-1</v>
       </c>
       <c r="B264" s="246"/>
       <c r="C264" s="250"/>
@@ -22632,7 +22636,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>91-2-1</v>
+        <v>92-2-1</v>
       </c>
       <c r="B265" s="246"/>
       <c r="C265" s="250"/>
@@ -22667,7 +22671,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>91-3-1</v>
+        <v>92-3-1</v>
       </c>
       <c r="B266" s="246"/>
       <c r="C266" s="246"/>
@@ -22702,7 +22706,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>91-4-1</v>
+        <v>92-4-1</v>
       </c>
       <c r="B267" s="246"/>
       <c r="C267" s="246"/>
@@ -22737,7 +22741,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>91-5-1</v>
+        <v>92-5-1</v>
       </c>
       <c r="B268" s="246"/>
       <c r="C268" s="246"/>
@@ -22772,7 +22776,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>91-6-1</v>
+        <v>92-6-1</v>
       </c>
       <c r="B269" s="246"/>
       <c r="C269" s="246"/>
@@ -22807,7 +22811,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>92-1-1</v>
+        <v>93-1-1</v>
       </c>
       <c r="B270" s="246"/>
       <c r="C270" s="246"/>
@@ -22844,7 +22848,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>92-2-1</v>
+        <v>93-2-1</v>
       </c>
       <c r="B271" s="246"/>
       <c r="C271" s="246"/>
@@ -22879,7 +22883,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>92-3-1</v>
+        <v>93-3-1</v>
       </c>
       <c r="B272" s="246"/>
       <c r="C272" s="246"/>
@@ -22914,7 +22918,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>92-4-1</v>
+        <v>93-4-1</v>
       </c>
       <c r="B273" s="246"/>
       <c r="C273" s="246"/>
@@ -22949,7 +22953,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>92-5-1</v>
+        <v>93-5-1</v>
       </c>
       <c r="B274" s="246"/>
       <c r="C274" s="246"/>
@@ -22984,7 +22988,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>92-6-1</v>
+        <v>93-6-1</v>
       </c>
       <c r="B275" s="246"/>
       <c r="C275" s="246"/>
@@ -23019,7 +23023,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>92-7-1</v>
+        <v>93-7-1</v>
       </c>
       <c r="B276" s="246"/>
       <c r="C276" s="246"/>
@@ -23054,7 +23058,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>92-8-1</v>
+        <v>93-8-1</v>
       </c>
       <c r="B277" s="246"/>
       <c r="C277" s="246"/>
@@ -23089,7 +23093,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>93-1-1</v>
+        <v>94-1-1</v>
       </c>
       <c r="B278" s="271"/>
       <c r="C278" s="271"/>
@@ -23126,7 +23130,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>94-1-1</v>
+        <v>95-1-1</v>
       </c>
       <c r="B279" s="261" t="s">
         <v>397</v>
@@ -23167,7 +23171,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>94-2-1</v>
+        <v>95-2-1</v>
       </c>
       <c r="B280" s="237"/>
       <c r="C280" s="272"/>
@@ -23200,7 +23204,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>94-3-1</v>
+        <v>95-3-1</v>
       </c>
       <c r="B281" s="237"/>
       <c r="C281" s="272"/>
@@ -23233,7 +23237,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>94-4-1</v>
+        <v>95-4-1</v>
       </c>
       <c r="B282" s="237"/>
       <c r="C282" s="273"/>
@@ -23266,7 +23270,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>95-1-1</v>
+        <v>96-1-1</v>
       </c>
       <c r="B283" s="237"/>
       <c r="C283" s="241" t="s">
@@ -23305,7 +23309,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>96-1-1</v>
+        <v>97-1-1</v>
       </c>
       <c r="B284" s="237"/>
       <c r="C284" s="272"/>
@@ -23340,7 +23344,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>97-1-1</v>
+        <v>98-1-1</v>
       </c>
       <c r="B285" s="237"/>
       <c r="C285" s="272"/>
@@ -23375,7 +23379,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>98-1-1</v>
+        <v>99-1-1</v>
       </c>
       <c r="B286" s="237"/>
       <c r="C286" s="272"/>
@@ -23399,7 +23403,7 @@
       <c r="Q286" s="180"/>
       <c r="R286" s="180"/>
     </row>
-    <row r="287" spans="1:18" ht="22.5">
+    <row r="287" spans="1:18">
       <c r="A287" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -23410,7 +23414,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>99-1-1</v>
+        <v>100-1-1</v>
       </c>
       <c r="B287" s="237"/>
       <c r="C287" s="237"/>
@@ -23447,7 +23451,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>99-2-1</v>
+        <v>100-2-1</v>
       </c>
       <c r="B288" s="237"/>
       <c r="C288" s="237"/>
@@ -23480,7 +23484,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>99-3-1</v>
+        <v>100-3-1</v>
       </c>
       <c r="B289" s="237"/>
       <c r="C289" s="237"/>
@@ -23502,7 +23506,7 @@
       <c r="Q289" s="180"/>
       <c r="R289" s="180"/>
     </row>
-    <row r="290" spans="1:18" ht="33.75">
+    <row r="290" spans="1:18" ht="22.5">
       <c r="A290" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -23513,7 +23517,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>99-4-1</v>
+        <v>100-4-1</v>
       </c>
       <c r="B290" s="237"/>
       <c r="C290" s="237"/>
@@ -23546,7 +23550,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>99-5-1</v>
+        <v>100-5-1</v>
       </c>
       <c r="B291" s="237"/>
       <c r="C291" s="237"/>
@@ -23579,7 +23583,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>99-6-1</v>
+        <v>100-6-1</v>
       </c>
       <c r="B292" s="237"/>
       <c r="C292" s="237"/>
@@ -23612,7 +23616,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>99-7-1</v>
+        <v>100-7-1</v>
       </c>
       <c r="B293" s="237"/>
       <c r="C293" s="237"/>
@@ -23645,7 +23649,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>99-8-1</v>
+        <v>100-8-1</v>
       </c>
       <c r="B294" s="237"/>
       <c r="C294" s="237"/>
@@ -23678,7 +23682,7 @@
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>99-9-1</v>
+        <v>100-9-1</v>
       </c>
       <c r="B295" s="245"/>
       <c r="C295" s="245"/>
@@ -23948,7 +23952,7 @@
       <c r="R11" s="150"/>
       <c r="S11" s="150"/>
     </row>
-    <row r="12" spans="1:19" ht="22.5">
+    <row r="12" spans="1:19">
       <c r="A12" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -24282,7 +24286,7 @@
       <c r="R20" s="150"/>
       <c r="S20" s="150"/>
     </row>
-    <row r="21" spans="1:19" ht="22.5">
+    <row r="21" spans="1:19">
       <c r="A21" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -24320,7 +24324,7 @@
       <c r="R21" s="150"/>
       <c r="S21" s="150"/>
     </row>
-    <row r="22" spans="1:19" ht="22.5">
+    <row r="22" spans="1:19">
       <c r="A22" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -24356,7 +24360,7 @@
       <c r="R22" s="150"/>
       <c r="S22" s="150"/>
     </row>
-    <row r="23" spans="1:19" ht="22.5">
+    <row r="23" spans="1:19">
       <c r="A23" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -24392,7 +24396,7 @@
       <c r="R23" s="150"/>
       <c r="S23" s="150"/>
     </row>
-    <row r="24" spans="1:19" ht="22.5">
+    <row r="24" spans="1:19">
       <c r="A24" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -24726,7 +24730,7 @@
       <c r="R32" s="150"/>
       <c r="S32" s="150"/>
     </row>
-    <row r="33" spans="1:19" ht="22.5">
+    <row r="33" spans="1:19">
       <c r="A33" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -24800,7 +24804,7 @@
       <c r="R34" s="150"/>
       <c r="S34" s="150"/>
     </row>
-    <row r="35" spans="1:19" ht="33.75">
+    <row r="35" spans="1:19" ht="22.5">
       <c r="A35" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -25028,7 +25032,7 @@
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
     </row>
-    <row r="41" spans="1:19" ht="22.5">
+    <row r="41" spans="1:19">
       <c r="A41" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -25700,7 +25704,7 @@
       <c r="R59" s="115"/>
       <c r="S59" s="115"/>
     </row>
-    <row r="60" spans="1:19" ht="22.5">
+    <row r="60" spans="1:19">
       <c r="A60" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -25836,7 +25840,7 @@
       <c r="R63" s="115"/>
       <c r="S63" s="115"/>
     </row>
-    <row r="64" spans="1:19" ht="33.75">
+    <row r="64" spans="1:19" ht="22.5">
       <c r="A64" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -25974,7 +25978,7 @@
       <c r="R67" s="115"/>
       <c r="S67" s="115"/>
     </row>
-    <row r="68" spans="1:19" ht="33.75">
+    <row r="68" spans="1:19" ht="22.5">
       <c r="A68" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -26428,7 +26432,7 @@
       <c r="R80" s="115"/>
       <c r="S80" s="115"/>
     </row>
-    <row r="81" spans="1:19" ht="33.75">
+    <row r="81" spans="1:19" ht="22.5">
       <c r="A81" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -26464,7 +26468,7 @@
       <c r="R81" s="115"/>
       <c r="S81" s="115"/>
     </row>
-    <row r="82" spans="1:19" ht="33.75">
+    <row r="82" spans="1:19" ht="22.5">
       <c r="A82" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -26792,7 +26796,7 @@
       <c r="R90" s="115"/>
       <c r="S90" s="115"/>
     </row>
-    <row r="91" spans="1:19" ht="33.75">
+    <row r="91" spans="1:19" ht="22.5">
       <c r="A91" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -26828,7 +26832,7 @@
       <c r="R91" s="115"/>
       <c r="S91" s="115"/>
     </row>
-    <row r="92" spans="1:19" ht="33.75">
+    <row r="92" spans="1:19" ht="22.5">
       <c r="A92" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -27878,7 +27882,7 @@
       <c r="R120" s="150"/>
       <c r="S120" s="150"/>
     </row>
-    <row r="121" spans="1:19" ht="33.75">
+    <row r="121" spans="1:19" ht="22.5">
       <c r="A121" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -28438,7 +28442,7 @@
       <c r="R135" s="115"/>
       <c r="S135" s="115"/>
     </row>
-    <row r="136" spans="1:19" ht="33.75">
+    <row r="136" spans="1:19" ht="22.5">
       <c r="A136" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -28628,7 +28632,7 @@
       <c r="R140" s="150"/>
       <c r="S140" s="150"/>
     </row>
-    <row r="141" spans="1:19" ht="45">
+    <row r="141" spans="1:19" ht="33.75">
       <c r="A141" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -28666,7 +28670,7 @@
       <c r="R141" s="150"/>
       <c r="S141" s="150"/>
     </row>
-    <row r="142" spans="1:19" ht="33.75">
+    <row r="142" spans="1:19" ht="22.5">
       <c r="A142" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -28704,7 +28708,7 @@
       <c r="R142" s="150"/>
       <c r="S142" s="150"/>
     </row>
-    <row r="143" spans="1:19" ht="33.75">
+    <row r="143" spans="1:19" ht="22.5">
       <c r="A143" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -28742,7 +28746,7 @@
       <c r="R143" s="150"/>
       <c r="S143" s="150"/>
     </row>
-    <row r="144" spans="1:19" ht="33.75">
+    <row r="144" spans="1:19" ht="22.5">
       <c r="A144" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -28778,7 +28782,7 @@
       <c r="R144" s="150"/>
       <c r="S144" s="150"/>
     </row>
-    <row r="145" spans="1:19" ht="33.75">
+    <row r="145" spans="1:19" ht="22.5">
       <c r="A145" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -28814,7 +28818,7 @@
       <c r="R145" s="150"/>
       <c r="S145" s="150"/>
     </row>
-    <row r="146" spans="1:19" ht="33.75">
+    <row r="146" spans="1:19" ht="22.5">
       <c r="A146" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -28850,7 +28854,7 @@
       <c r="R146" s="150"/>
       <c r="S146" s="150"/>
     </row>
-    <row r="147" spans="1:19" ht="33.75">
+    <row r="147" spans="1:19" ht="22.5">
       <c r="A147" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -28886,7 +28890,7 @@
       <c r="R147" s="150"/>
       <c r="S147" s="150"/>
     </row>
-    <row r="148" spans="1:19" ht="33.75">
+    <row r="148" spans="1:19" ht="22.5">
       <c r="A148" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -29108,7 +29112,7 @@
       <c r="R153" s="150"/>
       <c r="S153" s="150"/>
     </row>
-    <row r="154" spans="1:19" ht="33.75">
+    <row r="154" spans="1:19" ht="22.5">
       <c r="A154" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -29288,7 +29292,7 @@
       <c r="R158" s="150"/>
       <c r="S158" s="150"/>
     </row>
-    <row r="159" spans="1:19" ht="33.75">
+    <row r="159" spans="1:19" ht="22.5">
       <c r="A159" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -29360,7 +29364,7 @@
       <c r="R160" s="150"/>
       <c r="S160" s="150"/>
     </row>
-    <row r="161" spans="1:19" ht="33.75">
+    <row r="161" spans="1:19" ht="22.5">
       <c r="A161" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -29614,7 +29618,7 @@
       <c r="R167" s="150"/>
       <c r="S167" s="150"/>
     </row>
-    <row r="168" spans="1:19" ht="33.75">
+    <row r="168" spans="1:19" ht="22.5">
       <c r="A168" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -29688,7 +29692,7 @@
       <c r="R169" s="150"/>
       <c r="S169" s="150"/>
     </row>
-    <row r="170" spans="1:19" ht="33.75">
+    <row r="170" spans="1:19" ht="22.5">
       <c r="A170" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -29866,7 +29870,7 @@
       <c r="R174" s="115"/>
       <c r="S174" s="115"/>
     </row>
-    <row r="175" spans="1:19" ht="45">
+    <row r="175" spans="1:19" ht="33.75">
       <c r="A175" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -29902,7 +29906,7 @@
       <c r="R175" s="150"/>
       <c r="S175" s="150"/>
     </row>
-    <row r="176" spans="1:19" ht="45">
+    <row r="176" spans="1:19" ht="33.75">
       <c r="A176" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -29938,7 +29942,7 @@
       <c r="R176" s="150"/>
       <c r="S176" s="150"/>
     </row>
-    <row r="177" spans="1:19" ht="45">
+    <row r="177" spans="1:19" ht="33.75">
       <c r="A177" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -30012,7 +30016,7 @@
       <c r="R178" s="150"/>
       <c r="S178" s="150"/>
     </row>
-    <row r="179" spans="1:19" ht="33.75">
+    <row r="179" spans="1:19" ht="22.5">
       <c r="A179" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -30174,7 +30178,7 @@
       <c r="R182" s="150"/>
       <c r="S182" s="150"/>
     </row>
-    <row r="183" spans="1:19" ht="33.75">
+    <row r="183" spans="1:19" ht="22.5">
       <c r="A183" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -30218,7 +30222,7 @@
       <c r="R183" s="48"/>
       <c r="S183" s="48"/>
     </row>
-    <row r="184" spans="1:19" ht="33.75">
+    <row r="184" spans="1:19" ht="22.5">
       <c r="A184" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -30256,7 +30260,7 @@
       <c r="R184" s="48"/>
       <c r="S184" s="48"/>
     </row>
-    <row r="185" spans="1:19" ht="33.75">
+    <row r="185" spans="1:19" ht="22.5">
       <c r="A185" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -30292,7 +30296,7 @@
       <c r="R185" s="48"/>
       <c r="S185" s="48"/>
     </row>
-    <row r="186" spans="1:19" ht="33.75">
+    <row r="186" spans="1:19" ht="22.5">
       <c r="A186" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -30330,7 +30334,7 @@
       <c r="R186" s="48"/>
       <c r="S186" s="48"/>
     </row>
-    <row r="187" spans="1:19" ht="33.75">
+    <row r="187" spans="1:19" ht="22.5">
       <c r="A187" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -30366,7 +30370,7 @@
       <c r="R187" s="48"/>
       <c r="S187" s="48"/>
     </row>
-    <row r="188" spans="1:19" ht="33.75">
+    <row r="188" spans="1:19" ht="22.5">
       <c r="A188" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -30406,7 +30410,7 @@
       <c r="R188" s="48"/>
       <c r="S188" s="48"/>
     </row>
-    <row r="189" spans="1:19" ht="33.75">
+    <row r="189" spans="1:19" ht="22.5">
       <c r="A189" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -30448,7 +30452,7 @@
       <c r="R189" s="48"/>
       <c r="S189" s="48"/>
     </row>
-    <row r="190" spans="1:19" ht="33.75">
+    <row r="190" spans="1:19" ht="22.5">
       <c r="A190" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -30484,7 +30488,7 @@
       <c r="R190" s="48"/>
       <c r="S190" s="48"/>
     </row>
-    <row r="191" spans="1:19" ht="33.75">
+    <row r="191" spans="1:19" ht="22.5">
       <c r="A191" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -30520,7 +30524,7 @@
       <c r="R191" s="48"/>
       <c r="S191" s="48"/>
     </row>
-    <row r="192" spans="1:19" ht="33.75">
+    <row r="192" spans="1:19" ht="22.5">
       <c r="A192" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -30556,7 +30560,7 @@
       <c r="R192" s="48"/>
       <c r="S192" s="48"/>
     </row>
-    <row r="193" spans="1:19" ht="33.75">
+    <row r="193" spans="1:19" ht="22.5">
       <c r="A193" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -30592,7 +30596,7 @@
       <c r="R193" s="48"/>
       <c r="S193" s="48"/>
     </row>
-    <row r="194" spans="1:19" ht="33.75">
+    <row r="194" spans="1:19" ht="22.5">
       <c r="A194" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -30628,7 +30632,7 @@
       <c r="R194" s="48"/>
       <c r="S194" s="48"/>
     </row>
-    <row r="195" spans="1:19" ht="33.75">
+    <row r="195" spans="1:19" ht="22.5">
       <c r="A195" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -30664,7 +30668,7 @@
       <c r="R195" s="48"/>
       <c r="S195" s="48"/>
     </row>
-    <row r="196" spans="1:19" ht="33.75">
+    <row r="196" spans="1:19" ht="22.5">
       <c r="A196" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -30702,7 +30706,7 @@
       <c r="R196" s="48"/>
       <c r="S196" s="48"/>
     </row>
-    <row r="197" spans="1:19" ht="33.75">
+    <row r="197" spans="1:19" ht="22.5">
       <c r="A197" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -30742,7 +30746,7 @@
       <c r="R197" s="48"/>
       <c r="S197" s="48"/>
     </row>
-    <row r="198" spans="1:19" ht="33.75">
+    <row r="198" spans="1:19" ht="22.5">
       <c r="A198" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -30778,7 +30782,7 @@
       <c r="R198" s="48"/>
       <c r="S198" s="48"/>
     </row>
-    <row r="199" spans="1:19" ht="33.75">
+    <row r="199" spans="1:19" ht="22.5">
       <c r="A199" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -30814,7 +30818,7 @@
       <c r="R199" s="48"/>
       <c r="S199" s="48"/>
     </row>
-    <row r="200" spans="1:19" ht="33.75">
+    <row r="200" spans="1:19" ht="22.5">
       <c r="A200" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -31030,7 +31034,7 @@
       <c r="R205" s="48"/>
       <c r="S205" s="48"/>
     </row>
-    <row r="206" spans="1:19" ht="33.75">
+    <row r="206" spans="1:19" ht="22.5">
       <c r="A206" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -31066,7 +31070,7 @@
       <c r="R206" s="48"/>
       <c r="S206" s="48"/>
     </row>
-    <row r="207" spans="1:19" ht="33.75">
+    <row r="207" spans="1:19" ht="22.5">
       <c r="A207" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -31102,7 +31106,7 @@
       <c r="R207" s="48"/>
       <c r="S207" s="48"/>
     </row>
-    <row r="208" spans="1:19" ht="33.75">
+    <row r="208" spans="1:19" ht="22.5">
       <c r="A208" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -31138,7 +31142,7 @@
       <c r="R208" s="48"/>
       <c r="S208" s="48"/>
     </row>
-    <row r="209" spans="1:19" ht="33.75">
+    <row r="209" spans="1:19" ht="22.5">
       <c r="A209" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -31174,7 +31178,7 @@
       <c r="R209" s="48"/>
       <c r="S209" s="48"/>
     </row>
-    <row r="210" spans="1:19" ht="33.75">
+    <row r="210" spans="1:19" ht="22.5">
       <c r="A210" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -31214,7 +31218,7 @@
       <c r="R210" s="48"/>
       <c r="S210" s="48"/>
     </row>
-    <row r="211" spans="1:19" ht="33.75">
+    <row r="211" spans="1:19" ht="22.5">
       <c r="A211" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -31250,7 +31254,7 @@
       <c r="R211" s="48"/>
       <c r="S211" s="48"/>
     </row>
-    <row r="212" spans="1:19" ht="33.75">
+    <row r="212" spans="1:19" ht="22.5">
       <c r="A212" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -31286,7 +31290,7 @@
       <c r="R212" s="48"/>
       <c r="S212" s="48"/>
     </row>
-    <row r="213" spans="1:19" ht="33.75">
+    <row r="213" spans="1:19" ht="22.5">
       <c r="A213" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -31322,7 +31326,7 @@
       <c r="R213" s="48"/>
       <c r="S213" s="48"/>
     </row>
-    <row r="214" spans="1:19" ht="33.75">
+    <row r="214" spans="1:19" ht="22.5">
       <c r="A214" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -31574,7 +31578,7 @@
       <c r="R220" s="48"/>
       <c r="S220" s="48"/>
     </row>
-    <row r="221" spans="1:19" ht="33.75">
+    <row r="221" spans="1:19" ht="22.5">
       <c r="A221" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -31610,7 +31614,7 @@
       <c r="R221" s="48"/>
       <c r="S221" s="48"/>
     </row>
-    <row r="222" spans="1:19" ht="33.75">
+    <row r="222" spans="1:19" ht="22.5">
       <c r="A222" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -31646,7 +31650,7 @@
       <c r="R222" s="48"/>
       <c r="S222" s="48"/>
     </row>
-    <row r="223" spans="1:19" ht="33.75">
+    <row r="223" spans="1:19" ht="22.5">
       <c r="A223" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -31682,7 +31686,7 @@
       <c r="R223" s="48"/>
       <c r="S223" s="48"/>
     </row>
-    <row r="224" spans="1:19" ht="33.75">
+    <row r="224" spans="1:19" ht="22.5">
       <c r="A224" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -31866,7 +31870,7 @@
       <c r="R228" s="48"/>
       <c r="S228" s="48"/>
     </row>
-    <row r="229" spans="1:19" ht="33.75">
+    <row r="229" spans="1:19" ht="22.5">
       <c r="A229" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -31948,7 +31952,7 @@
       <c r="R230" s="48"/>
       <c r="S230" s="48"/>
     </row>
-    <row r="231" spans="1:19" ht="22.5">
+    <row r="231" spans="1:19">
       <c r="A231" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -31986,7 +31990,7 @@
       <c r="R231" s="48"/>
       <c r="S231" s="48"/>
     </row>
-    <row r="232" spans="1:19" ht="22.5">
+    <row r="232" spans="1:19">
       <c r="A232" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -32022,7 +32026,7 @@
       <c r="R232" s="48"/>
       <c r="S232" s="48"/>
     </row>
-    <row r="233" spans="1:19" ht="22.5">
+    <row r="233" spans="1:19">
       <c r="A233" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -32058,7 +32062,7 @@
       <c r="R233" s="48"/>
       <c r="S233" s="48"/>
     </row>
-    <row r="234" spans="1:19" ht="22.5">
+    <row r="234" spans="1:19">
       <c r="A234" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -32704,7 +32708,7 @@
       <c r="R250" s="48"/>
       <c r="S250" s="48"/>
     </row>
-    <row r="251" spans="1:19" ht="22.5">
+    <row r="251" spans="1:19">
       <c r="A251" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -32744,7 +32748,7 @@
       <c r="R251" s="48"/>
       <c r="S251" s="48"/>
     </row>
-    <row r="252" spans="1:19" ht="22.5">
+    <row r="252" spans="1:19">
       <c r="A252" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -32890,7 +32894,7 @@
       <c r="R255" s="48"/>
       <c r="S255" s="48"/>
     </row>
-    <row r="256" spans="1:19" ht="33.75">
+    <row r="256" spans="1:19" ht="22.5">
       <c r="A256" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -33070,7 +33074,7 @@
       <c r="R260" s="48"/>
       <c r="S260" s="48"/>
     </row>
-    <row r="261" spans="1:19" ht="33.75">
+    <row r="261" spans="1:19" ht="22.5">
       <c r="A261" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -33142,7 +33146,7 @@
       <c r="R262" s="48"/>
       <c r="S262" s="48"/>
     </row>
-    <row r="263" spans="1:19" ht="33.75">
+    <row r="263" spans="1:19" ht="22.5">
       <c r="A263" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -33178,7 +33182,7 @@
       <c r="R263" s="48"/>
       <c r="S263" s="48"/>
     </row>
-    <row r="264" spans="1:19" ht="22.5">
+    <row r="264" spans="1:19">
       <c r="A264" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A264" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E264),
@@ -33216,7 +33220,7 @@
       <c r="R264" s="48"/>
       <c r="S264" s="48"/>
     </row>
-    <row r="265" spans="1:19" ht="22.5">
+    <row r="265" spans="1:19">
       <c r="A265" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A265" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E265),
@@ -33288,7 +33292,7 @@
       <c r="R266" s="48"/>
       <c r="S266" s="48"/>
     </row>
-    <row r="267" spans="1:19" ht="22.5">
+    <row r="267" spans="1:19">
       <c r="A267" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -33324,7 +33328,7 @@
       <c r="R267" s="48"/>
       <c r="S267" s="48"/>
     </row>
-    <row r="268" spans="1:19" ht="22.5">
+    <row r="268" spans="1:19">
       <c r="A268" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -33396,7 +33400,7 @@
       <c r="R269" s="48"/>
       <c r="S269" s="48"/>
     </row>
-    <row r="270" spans="1:19" ht="22.5">
+    <row r="270" spans="1:19">
       <c r="A270" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -34190,7 +34194,7 @@
       <c r="R291" s="115"/>
       <c r="S291" s="115"/>
     </row>
-    <row r="292" spans="1:19" ht="33.75">
+    <row r="292" spans="1:19" ht="22.5">
       <c r="A292" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -35018,7 +35022,7 @@
       <c r="R315" s="33"/>
       <c r="S315" s="33"/>
     </row>
-    <row r="316" spans="1:19" s="34" customFormat="1" ht="33.75">
+    <row r="316" spans="1:19" s="34" customFormat="1" ht="22.5">
       <c r="A316" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A316" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E316),
@@ -35230,7 +35234,7 @@
       <c r="R321" s="33"/>
       <c r="S321" s="33"/>
     </row>
-    <row r="322" spans="1:19" s="34" customFormat="1" ht="22.5">
+    <row r="322" spans="1:19" s="34" customFormat="1">
       <c r="A322" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A322" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E322),
@@ -35266,7 +35270,7 @@
       <c r="R322" s="33"/>
       <c r="S322" s="33"/>
     </row>
-    <row r="323" spans="1:19" ht="22.5">
+    <row r="323" spans="1:19">
       <c r="A323" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A323" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E323),
@@ -35368,7 +35372,7 @@
       <c r="R325" s="115"/>
       <c r="S325" s="115"/>
     </row>
-    <row r="326" spans="1:19" ht="33.75">
+    <row r="326" spans="1:19" ht="22.5">
       <c r="A326" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A326" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E326),
@@ -36100,7 +36104,7 @@
       <c r="R346" s="115"/>
       <c r="S346" s="115"/>
     </row>
-    <row r="347" spans="1:19" ht="22.5">
+    <row r="347" spans="1:19">
       <c r="A347" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A347" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E347),
@@ -36168,7 +36172,7 @@
       <c r="R348" s="115"/>
       <c r="S348" s="115"/>
     </row>
-    <row r="349" spans="1:19" ht="22.5">
+    <row r="349" spans="1:19">
       <c r="A349" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A349" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E349),

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5005B66-7D9D-4658-812C-BA4B4EB85F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6267DEE-A1BD-40D5-9697-DCA97AEC4562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="664">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -8490,6 +8490,16 @@
     <t>Formで完結しないバリデーション</t>
     <rPh sb="5" eb="7">
       <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サロゲートペアは許容しないので対象外</t>
+    <rPh sb="8" eb="10">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>タイショウガイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -10167,84 +10177,6 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -10351,6 +10283,84 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11901,57 +11911,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="286" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="315" t="s">
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="289" t="s">
         <v>572</v>
       </c>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
-      <c r="J1" s="316"/>
-      <c r="K1" s="316"/>
-      <c r="L1" s="316"/>
-      <c r="M1" s="316"/>
-      <c r="N1" s="317"/>
-      <c r="O1" s="321" t="s">
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="322"/>
-      <c r="Q1" s="322"/>
-      <c r="R1" s="323"/>
-      <c r="S1" s="330" t="s">
+      <c r="P1" s="296"/>
+      <c r="Q1" s="296"/>
+      <c r="R1" s="297"/>
+      <c r="S1" s="304" t="s">
         <v>656</v>
       </c>
-      <c r="T1" s="331"/>
-      <c r="U1" s="331"/>
-      <c r="V1" s="331"/>
-      <c r="W1" s="331"/>
-      <c r="X1" s="331"/>
-      <c r="Y1" s="331"/>
-      <c r="Z1" s="332"/>
-      <c r="AA1" s="312" t="s">
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="286" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="314"/>
-      <c r="AC1" s="339" t="str">
+      <c r="AB1" s="288"/>
+      <c r="AC1" s="313" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="340"/>
-      <c r="AE1" s="340"/>
-      <c r="AF1" s="341"/>
-      <c r="AG1" s="306">
+      <c r="AD1" s="314"/>
+      <c r="AE1" s="314"/>
+      <c r="AF1" s="315"/>
+      <c r="AG1" s="280">
         <f>IF(D8="","",D8)</f>
         <v>44792</v>
       </c>
-      <c r="AH1" s="307"/>
-      <c r="AI1" s="308"/>
+      <c r="AH1" s="281"/>
+      <c r="AI1" s="282"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11959,53 +11969,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="286" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="315" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="289" t="s">
         <v>654</v>
       </c>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
-      <c r="M2" s="316"/>
-      <c r="N2" s="317"/>
-      <c r="O2" s="324"/>
-      <c r="P2" s="325"/>
-      <c r="Q2" s="325"/>
-      <c r="R2" s="326"/>
-      <c r="S2" s="333"/>
-      <c r="T2" s="334"/>
-      <c r="U2" s="334"/>
-      <c r="V2" s="334"/>
-      <c r="W2" s="334"/>
-      <c r="X2" s="334"/>
-      <c r="Y2" s="334"/>
-      <c r="Z2" s="335"/>
-      <c r="AA2" s="312" t="s">
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="290"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="298"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="299"/>
+      <c r="R2" s="300"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="314"/>
-      <c r="AC2" s="318" t="str">
+      <c r="AB2" s="288"/>
+      <c r="AC2" s="292" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="319"/>
-      <c r="AE2" s="319"/>
-      <c r="AF2" s="320"/>
-      <c r="AG2" s="306" t="str">
+      <c r="AD2" s="293"/>
+      <c r="AE2" s="293"/>
+      <c r="AF2" s="294"/>
+      <c r="AG2" s="280" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="307"/>
-      <c r="AI2" s="308"/>
+      <c r="AH2" s="281"/>
+      <c r="AI2" s="282"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12013,45 +12023,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="312" t="s">
+      <c r="A3" s="286" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="315" t="s">
+      <c r="B3" s="287"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="289" t="s">
         <v>655</v>
       </c>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
-      <c r="M3" s="316"/>
-      <c r="N3" s="317"/>
-      <c r="O3" s="327"/>
-      <c r="P3" s="328"/>
-      <c r="Q3" s="328"/>
-      <c r="R3" s="329"/>
-      <c r="S3" s="336"/>
-      <c r="T3" s="337"/>
-      <c r="U3" s="337"/>
-      <c r="V3" s="337"/>
-      <c r="W3" s="337"/>
-      <c r="X3" s="337"/>
-      <c r="Y3" s="337"/>
-      <c r="Z3" s="338"/>
-      <c r="AA3" s="312"/>
-      <c r="AB3" s="314"/>
-      <c r="AC3" s="339"/>
-      <c r="AD3" s="340"/>
-      <c r="AE3" s="340"/>
-      <c r="AF3" s="341"/>
-      <c r="AG3" s="306"/>
-      <c r="AH3" s="307"/>
-      <c r="AI3" s="308"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="290"/>
+      <c r="N3" s="291"/>
+      <c r="O3" s="301"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
+      <c r="R3" s="303"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="286"/>
+      <c r="AB3" s="288"/>
+      <c r="AC3" s="313"/>
+      <c r="AD3" s="314"/>
+      <c r="AE3" s="314"/>
+      <c r="AF3" s="315"/>
+      <c r="AG3" s="280"/>
+      <c r="AH3" s="281"/>
+      <c r="AI3" s="282"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12088,1032 +12098,1188 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="309" t="s">
+      <c r="B7" s="283" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="310"/>
-      <c r="D7" s="309" t="s">
+      <c r="C7" s="284"/>
+      <c r="D7" s="283" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="311"/>
-      <c r="F7" s="310"/>
-      <c r="G7" s="309" t="s">
+      <c r="E7" s="285"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="283" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="311"/>
-      <c r="I7" s="310"/>
-      <c r="J7" s="309" t="s">
+      <c r="H7" s="285"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="283" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="311"/>
-      <c r="L7" s="311"/>
-      <c r="M7" s="311"/>
-      <c r="N7" s="311"/>
-      <c r="O7" s="311"/>
-      <c r="P7" s="310"/>
-      <c r="Q7" s="309" t="s">
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
+      <c r="M7" s="285"/>
+      <c r="N7" s="285"/>
+      <c r="O7" s="285"/>
+      <c r="P7" s="284"/>
+      <c r="Q7" s="283" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="311"/>
-      <c r="S7" s="311"/>
-      <c r="T7" s="311"/>
-      <c r="U7" s="311"/>
-      <c r="V7" s="311"/>
-      <c r="W7" s="311"/>
-      <c r="X7" s="311"/>
-      <c r="Y7" s="311"/>
-      <c r="Z7" s="311"/>
-      <c r="AA7" s="311"/>
-      <c r="AB7" s="311"/>
-      <c r="AC7" s="311"/>
-      <c r="AD7" s="311"/>
-      <c r="AE7" s="310"/>
-      <c r="AF7" s="309" t="s">
+      <c r="R7" s="285"/>
+      <c r="S7" s="285"/>
+      <c r="T7" s="285"/>
+      <c r="U7" s="285"/>
+      <c r="V7" s="285"/>
+      <c r="W7" s="285"/>
+      <c r="X7" s="285"/>
+      <c r="Y7" s="285"/>
+      <c r="Z7" s="285"/>
+      <c r="AA7" s="285"/>
+      <c r="AB7" s="285"/>
+      <c r="AC7" s="285"/>
+      <c r="AD7" s="285"/>
+      <c r="AE7" s="284"/>
+      <c r="AF7" s="283" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="311"/>
-      <c r="AH7" s="311"/>
-      <c r="AI7" s="310"/>
+      <c r="AG7" s="285"/>
+      <c r="AH7" s="285"/>
+      <c r="AI7" s="284"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="293" t="s">
+      <c r="B8" s="328" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="294"/>
-      <c r="D8" s="295">
+      <c r="C8" s="329"/>
+      <c r="D8" s="330">
         <v>44792</v>
       </c>
-      <c r="E8" s="296"/>
-      <c r="F8" s="297"/>
-      <c r="G8" s="298" t="s">
+      <c r="E8" s="331"/>
+      <c r="F8" s="332"/>
+      <c r="G8" s="333" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="299"/>
-      <c r="I8" s="294"/>
-      <c r="J8" s="300"/>
-      <c r="K8" s="301"/>
-      <c r="L8" s="301"/>
-      <c r="M8" s="301"/>
-      <c r="N8" s="301"/>
-      <c r="O8" s="301"/>
-      <c r="P8" s="302"/>
-      <c r="Q8" s="303" t="s">
+      <c r="H8" s="334"/>
+      <c r="I8" s="329"/>
+      <c r="J8" s="335"/>
+      <c r="K8" s="336"/>
+      <c r="L8" s="336"/>
+      <c r="M8" s="336"/>
+      <c r="N8" s="336"/>
+      <c r="O8" s="336"/>
+      <c r="P8" s="337"/>
+      <c r="Q8" s="338" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="304"/>
-      <c r="S8" s="304"/>
-      <c r="T8" s="304"/>
-      <c r="U8" s="304"/>
-      <c r="V8" s="304"/>
-      <c r="W8" s="304"/>
-      <c r="X8" s="304"/>
-      <c r="Y8" s="304"/>
-      <c r="Z8" s="304"/>
-      <c r="AA8" s="304"/>
-      <c r="AB8" s="304"/>
-      <c r="AC8" s="304"/>
-      <c r="AD8" s="304"/>
-      <c r="AE8" s="305"/>
-      <c r="AF8" s="300" t="s">
+      <c r="R8" s="339"/>
+      <c r="S8" s="339"/>
+      <c r="T8" s="339"/>
+      <c r="U8" s="339"/>
+      <c r="V8" s="339"/>
+      <c r="W8" s="339"/>
+      <c r="X8" s="339"/>
+      <c r="Y8" s="339"/>
+      <c r="Z8" s="339"/>
+      <c r="AA8" s="339"/>
+      <c r="AB8" s="339"/>
+      <c r="AC8" s="339"/>
+      <c r="AD8" s="339"/>
+      <c r="AE8" s="340"/>
+      <c r="AF8" s="335" t="s">
         <v>39</v>
       </c>
-      <c r="AG8" s="301"/>
-      <c r="AH8" s="301"/>
-      <c r="AI8" s="302"/>
+      <c r="AG8" s="336"/>
+      <c r="AH8" s="336"/>
+      <c r="AI8" s="337"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="280"/>
-      <c r="C9" s="281"/>
-      <c r="D9" s="282"/>
-      <c r="E9" s="283"/>
-      <c r="F9" s="284"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="285"/>
-      <c r="I9" s="281"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="287"/>
-      <c r="L9" s="287"/>
-      <c r="M9" s="287"/>
-      <c r="N9" s="287"/>
-      <c r="O9" s="287"/>
-      <c r="P9" s="288"/>
-      <c r="Q9" s="289"/>
-      <c r="R9" s="290"/>
-      <c r="S9" s="290"/>
-      <c r="T9" s="290"/>
-      <c r="U9" s="290"/>
-      <c r="V9" s="290"/>
-      <c r="W9" s="290"/>
-      <c r="X9" s="290"/>
-      <c r="Y9" s="290"/>
-      <c r="Z9" s="290"/>
-      <c r="AA9" s="290"/>
-      <c r="AB9" s="290"/>
-      <c r="AC9" s="290"/>
-      <c r="AD9" s="290"/>
-      <c r="AE9" s="291"/>
-      <c r="AF9" s="286"/>
-      <c r="AG9" s="287"/>
-      <c r="AH9" s="287"/>
-      <c r="AI9" s="288"/>
+      <c r="B9" s="316"/>
+      <c r="C9" s="317"/>
+      <c r="D9" s="318"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="318"/>
+      <c r="H9" s="321"/>
+      <c r="I9" s="317"/>
+      <c r="J9" s="322"/>
+      <c r="K9" s="323"/>
+      <c r="L9" s="323"/>
+      <c r="M9" s="323"/>
+      <c r="N9" s="323"/>
+      <c r="O9" s="323"/>
+      <c r="P9" s="324"/>
+      <c r="Q9" s="325"/>
+      <c r="R9" s="326"/>
+      <c r="S9" s="326"/>
+      <c r="T9" s="326"/>
+      <c r="U9" s="326"/>
+      <c r="V9" s="326"/>
+      <c r="W9" s="326"/>
+      <c r="X9" s="326"/>
+      <c r="Y9" s="326"/>
+      <c r="Z9" s="326"/>
+      <c r="AA9" s="326"/>
+      <c r="AB9" s="326"/>
+      <c r="AC9" s="326"/>
+      <c r="AD9" s="326"/>
+      <c r="AE9" s="327"/>
+      <c r="AF9" s="322"/>
+      <c r="AG9" s="323"/>
+      <c r="AH9" s="323"/>
+      <c r="AI9" s="324"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="280"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="283"/>
-      <c r="F10" s="284"/>
-      <c r="G10" s="280"/>
-      <c r="H10" s="285"/>
-      <c r="I10" s="281"/>
-      <c r="J10" s="286"/>
-      <c r="K10" s="287"/>
-      <c r="L10" s="287"/>
-      <c r="M10" s="287"/>
-      <c r="N10" s="287"/>
-      <c r="O10" s="287"/>
-      <c r="P10" s="288"/>
-      <c r="Q10" s="289"/>
-      <c r="R10" s="290"/>
-      <c r="S10" s="290"/>
-      <c r="T10" s="290"/>
-      <c r="U10" s="290"/>
-      <c r="V10" s="290"/>
-      <c r="W10" s="290"/>
-      <c r="X10" s="290"/>
-      <c r="Y10" s="290"/>
-      <c r="Z10" s="290"/>
-      <c r="AA10" s="290"/>
-      <c r="AB10" s="290"/>
-      <c r="AC10" s="290"/>
-      <c r="AD10" s="290"/>
-      <c r="AE10" s="291"/>
-      <c r="AF10" s="286"/>
-      <c r="AG10" s="287"/>
-      <c r="AH10" s="287"/>
-      <c r="AI10" s="288"/>
+      <c r="B10" s="316"/>
+      <c r="C10" s="317"/>
+      <c r="D10" s="318"/>
+      <c r="E10" s="319"/>
+      <c r="F10" s="320"/>
+      <c r="G10" s="316"/>
+      <c r="H10" s="321"/>
+      <c r="I10" s="317"/>
+      <c r="J10" s="322"/>
+      <c r="K10" s="323"/>
+      <c r="L10" s="323"/>
+      <c r="M10" s="323"/>
+      <c r="N10" s="323"/>
+      <c r="O10" s="323"/>
+      <c r="P10" s="324"/>
+      <c r="Q10" s="325"/>
+      <c r="R10" s="326"/>
+      <c r="S10" s="326"/>
+      <c r="T10" s="326"/>
+      <c r="U10" s="326"/>
+      <c r="V10" s="326"/>
+      <c r="W10" s="326"/>
+      <c r="X10" s="326"/>
+      <c r="Y10" s="326"/>
+      <c r="Z10" s="326"/>
+      <c r="AA10" s="326"/>
+      <c r="AB10" s="326"/>
+      <c r="AC10" s="326"/>
+      <c r="AD10" s="326"/>
+      <c r="AE10" s="327"/>
+      <c r="AF10" s="322"/>
+      <c r="AG10" s="323"/>
+      <c r="AH10" s="323"/>
+      <c r="AI10" s="324"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="280"/>
-      <c r="C11" s="281"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="283"/>
-      <c r="F11" s="284"/>
-      <c r="G11" s="280"/>
-      <c r="H11" s="285"/>
-      <c r="I11" s="281"/>
-      <c r="J11" s="286"/>
-      <c r="K11" s="287"/>
-      <c r="L11" s="287"/>
-      <c r="M11" s="287"/>
-      <c r="N11" s="287"/>
-      <c r="O11" s="287"/>
-      <c r="P11" s="288"/>
-      <c r="Q11" s="289"/>
-      <c r="R11" s="290"/>
-      <c r="S11" s="290"/>
-      <c r="T11" s="290"/>
-      <c r="U11" s="290"/>
-      <c r="V11" s="290"/>
-      <c r="W11" s="290"/>
-      <c r="X11" s="290"/>
-      <c r="Y11" s="290"/>
-      <c r="Z11" s="290"/>
-      <c r="AA11" s="290"/>
-      <c r="AB11" s="290"/>
-      <c r="AC11" s="290"/>
-      <c r="AD11" s="290"/>
-      <c r="AE11" s="291"/>
-      <c r="AF11" s="286"/>
-      <c r="AG11" s="287"/>
-      <c r="AH11" s="287"/>
-      <c r="AI11" s="288"/>
+      <c r="B11" s="316"/>
+      <c r="C11" s="317"/>
+      <c r="D11" s="318"/>
+      <c r="E11" s="319"/>
+      <c r="F11" s="320"/>
+      <c r="G11" s="316"/>
+      <c r="H11" s="321"/>
+      <c r="I11" s="317"/>
+      <c r="J11" s="322"/>
+      <c r="K11" s="323"/>
+      <c r="L11" s="323"/>
+      <c r="M11" s="323"/>
+      <c r="N11" s="323"/>
+      <c r="O11" s="323"/>
+      <c r="P11" s="324"/>
+      <c r="Q11" s="325"/>
+      <c r="R11" s="326"/>
+      <c r="S11" s="326"/>
+      <c r="T11" s="326"/>
+      <c r="U11" s="326"/>
+      <c r="V11" s="326"/>
+      <c r="W11" s="326"/>
+      <c r="X11" s="326"/>
+      <c r="Y11" s="326"/>
+      <c r="Z11" s="326"/>
+      <c r="AA11" s="326"/>
+      <c r="AB11" s="326"/>
+      <c r="AC11" s="326"/>
+      <c r="AD11" s="326"/>
+      <c r="AE11" s="327"/>
+      <c r="AF11" s="322"/>
+      <c r="AG11" s="323"/>
+      <c r="AH11" s="323"/>
+      <c r="AI11" s="324"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="280"/>
-      <c r="C12" s="281"/>
-      <c r="D12" s="282"/>
-      <c r="E12" s="283"/>
-      <c r="F12" s="284"/>
-      <c r="G12" s="280"/>
-      <c r="H12" s="285"/>
-      <c r="I12" s="281"/>
-      <c r="J12" s="286"/>
-      <c r="K12" s="287"/>
-      <c r="L12" s="287"/>
-      <c r="M12" s="287"/>
-      <c r="N12" s="287"/>
-      <c r="O12" s="287"/>
-      <c r="P12" s="288"/>
-      <c r="Q12" s="289"/>
-      <c r="R12" s="290"/>
-      <c r="S12" s="290"/>
-      <c r="T12" s="290"/>
-      <c r="U12" s="290"/>
-      <c r="V12" s="290"/>
-      <c r="W12" s="290"/>
-      <c r="X12" s="290"/>
-      <c r="Y12" s="290"/>
-      <c r="Z12" s="290"/>
-      <c r="AA12" s="290"/>
-      <c r="AB12" s="290"/>
-      <c r="AC12" s="290"/>
-      <c r="AD12" s="290"/>
-      <c r="AE12" s="291"/>
-      <c r="AF12" s="286"/>
-      <c r="AG12" s="287"/>
-      <c r="AH12" s="287"/>
-      <c r="AI12" s="288"/>
+      <c r="B12" s="316"/>
+      <c r="C12" s="317"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="320"/>
+      <c r="G12" s="316"/>
+      <c r="H12" s="321"/>
+      <c r="I12" s="317"/>
+      <c r="J12" s="322"/>
+      <c r="K12" s="323"/>
+      <c r="L12" s="323"/>
+      <c r="M12" s="323"/>
+      <c r="N12" s="323"/>
+      <c r="O12" s="323"/>
+      <c r="P12" s="324"/>
+      <c r="Q12" s="325"/>
+      <c r="R12" s="326"/>
+      <c r="S12" s="326"/>
+      <c r="T12" s="326"/>
+      <c r="U12" s="326"/>
+      <c r="V12" s="326"/>
+      <c r="W12" s="326"/>
+      <c r="X12" s="326"/>
+      <c r="Y12" s="326"/>
+      <c r="Z12" s="326"/>
+      <c r="AA12" s="326"/>
+      <c r="AB12" s="326"/>
+      <c r="AC12" s="326"/>
+      <c r="AD12" s="326"/>
+      <c r="AE12" s="327"/>
+      <c r="AF12" s="322"/>
+      <c r="AG12" s="323"/>
+      <c r="AH12" s="323"/>
+      <c r="AI12" s="324"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="280"/>
-      <c r="C13" s="281"/>
-      <c r="D13" s="282"/>
-      <c r="E13" s="283"/>
-      <c r="F13" s="284"/>
-      <c r="G13" s="280"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="281"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="287"/>
-      <c r="M13" s="287"/>
-      <c r="N13" s="287"/>
-      <c r="O13" s="287"/>
-      <c r="P13" s="288"/>
-      <c r="Q13" s="289"/>
-      <c r="R13" s="290"/>
-      <c r="S13" s="290"/>
-      <c r="T13" s="290"/>
-      <c r="U13" s="290"/>
-      <c r="V13" s="290"/>
-      <c r="W13" s="290"/>
-      <c r="X13" s="290"/>
-      <c r="Y13" s="290"/>
-      <c r="Z13" s="290"/>
-      <c r="AA13" s="290"/>
-      <c r="AB13" s="290"/>
-      <c r="AC13" s="290"/>
-      <c r="AD13" s="290"/>
-      <c r="AE13" s="291"/>
-      <c r="AF13" s="286"/>
-      <c r="AG13" s="287"/>
-      <c r="AH13" s="287"/>
-      <c r="AI13" s="288"/>
+      <c r="B13" s="316"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="318"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="320"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="323"/>
+      <c r="L13" s="323"/>
+      <c r="M13" s="323"/>
+      <c r="N13" s="323"/>
+      <c r="O13" s="323"/>
+      <c r="P13" s="324"/>
+      <c r="Q13" s="325"/>
+      <c r="R13" s="326"/>
+      <c r="S13" s="326"/>
+      <c r="T13" s="326"/>
+      <c r="U13" s="326"/>
+      <c r="V13" s="326"/>
+      <c r="W13" s="326"/>
+      <c r="X13" s="326"/>
+      <c r="Y13" s="326"/>
+      <c r="Z13" s="326"/>
+      <c r="AA13" s="326"/>
+      <c r="AB13" s="326"/>
+      <c r="AC13" s="326"/>
+      <c r="AD13" s="326"/>
+      <c r="AE13" s="327"/>
+      <c r="AF13" s="322"/>
+      <c r="AG13" s="323"/>
+      <c r="AH13" s="323"/>
+      <c r="AI13" s="324"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="280"/>
-      <c r="C14" s="281"/>
-      <c r="D14" s="282"/>
-      <c r="E14" s="283"/>
-      <c r="F14" s="284"/>
-      <c r="G14" s="280"/>
-      <c r="H14" s="285"/>
-      <c r="I14" s="281"/>
-      <c r="J14" s="286"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="287"/>
-      <c r="M14" s="287"/>
-      <c r="N14" s="287"/>
-      <c r="O14" s="287"/>
-      <c r="P14" s="288"/>
-      <c r="Q14" s="289"/>
-      <c r="R14" s="290"/>
-      <c r="S14" s="290"/>
-      <c r="T14" s="290"/>
-      <c r="U14" s="290"/>
-      <c r="V14" s="290"/>
-      <c r="W14" s="290"/>
-      <c r="X14" s="290"/>
-      <c r="Y14" s="290"/>
-      <c r="Z14" s="290"/>
-      <c r="AA14" s="290"/>
-      <c r="AB14" s="290"/>
-      <c r="AC14" s="290"/>
-      <c r="AD14" s="290"/>
-      <c r="AE14" s="291"/>
-      <c r="AF14" s="286"/>
-      <c r="AG14" s="287"/>
-      <c r="AH14" s="287"/>
-      <c r="AI14" s="288"/>
+      <c r="B14" s="316"/>
+      <c r="C14" s="317"/>
+      <c r="D14" s="318"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="320"/>
+      <c r="G14" s="316"/>
+      <c r="H14" s="321"/>
+      <c r="I14" s="317"/>
+      <c r="J14" s="322"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
+      <c r="M14" s="323"/>
+      <c r="N14" s="323"/>
+      <c r="O14" s="323"/>
+      <c r="P14" s="324"/>
+      <c r="Q14" s="325"/>
+      <c r="R14" s="326"/>
+      <c r="S14" s="326"/>
+      <c r="T14" s="326"/>
+      <c r="U14" s="326"/>
+      <c r="V14" s="326"/>
+      <c r="W14" s="326"/>
+      <c r="X14" s="326"/>
+      <c r="Y14" s="326"/>
+      <c r="Z14" s="326"/>
+      <c r="AA14" s="326"/>
+      <c r="AB14" s="326"/>
+      <c r="AC14" s="326"/>
+      <c r="AD14" s="326"/>
+      <c r="AE14" s="327"/>
+      <c r="AF14" s="322"/>
+      <c r="AG14" s="323"/>
+      <c r="AH14" s="323"/>
+      <c r="AI14" s="324"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="280"/>
-      <c r="C15" s="281"/>
-      <c r="D15" s="282"/>
-      <c r="E15" s="283"/>
-      <c r="F15" s="284"/>
-      <c r="G15" s="280"/>
-      <c r="H15" s="285"/>
-      <c r="I15" s="281"/>
-      <c r="J15" s="286"/>
-      <c r="K15" s="287"/>
-      <c r="L15" s="287"/>
-      <c r="M15" s="287"/>
-      <c r="N15" s="287"/>
-      <c r="O15" s="287"/>
-      <c r="P15" s="288"/>
-      <c r="Q15" s="289"/>
-      <c r="R15" s="290"/>
-      <c r="S15" s="290"/>
-      <c r="T15" s="290"/>
-      <c r="U15" s="290"/>
-      <c r="V15" s="290"/>
-      <c r="W15" s="290"/>
-      <c r="X15" s="290"/>
-      <c r="Y15" s="290"/>
-      <c r="Z15" s="290"/>
-      <c r="AA15" s="290"/>
-      <c r="AB15" s="290"/>
-      <c r="AC15" s="290"/>
-      <c r="AD15" s="290"/>
-      <c r="AE15" s="291"/>
-      <c r="AF15" s="286"/>
-      <c r="AG15" s="287"/>
-      <c r="AH15" s="287"/>
-      <c r="AI15" s="288"/>
+      <c r="B15" s="316"/>
+      <c r="C15" s="317"/>
+      <c r="D15" s="318"/>
+      <c r="E15" s="319"/>
+      <c r="F15" s="320"/>
+      <c r="G15" s="316"/>
+      <c r="H15" s="321"/>
+      <c r="I15" s="317"/>
+      <c r="J15" s="322"/>
+      <c r="K15" s="323"/>
+      <c r="L15" s="323"/>
+      <c r="M15" s="323"/>
+      <c r="N15" s="323"/>
+      <c r="O15" s="323"/>
+      <c r="P15" s="324"/>
+      <c r="Q15" s="325"/>
+      <c r="R15" s="326"/>
+      <c r="S15" s="326"/>
+      <c r="T15" s="326"/>
+      <c r="U15" s="326"/>
+      <c r="V15" s="326"/>
+      <c r="W15" s="326"/>
+      <c r="X15" s="326"/>
+      <c r="Y15" s="326"/>
+      <c r="Z15" s="326"/>
+      <c r="AA15" s="326"/>
+      <c r="AB15" s="326"/>
+      <c r="AC15" s="326"/>
+      <c r="AD15" s="326"/>
+      <c r="AE15" s="327"/>
+      <c r="AF15" s="322"/>
+      <c r="AG15" s="323"/>
+      <c r="AH15" s="323"/>
+      <c r="AI15" s="324"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="280"/>
-      <c r="C16" s="281"/>
-      <c r="D16" s="282"/>
-      <c r="E16" s="283"/>
-      <c r="F16" s="284"/>
-      <c r="G16" s="280"/>
-      <c r="H16" s="285"/>
-      <c r="I16" s="281"/>
-      <c r="J16" s="286"/>
-      <c r="K16" s="287"/>
-      <c r="L16" s="287"/>
-      <c r="M16" s="287"/>
-      <c r="N16" s="287"/>
-      <c r="O16" s="287"/>
-      <c r="P16" s="288"/>
-      <c r="Q16" s="289"/>
-      <c r="R16" s="290"/>
-      <c r="S16" s="290"/>
-      <c r="T16" s="290"/>
-      <c r="U16" s="290"/>
-      <c r="V16" s="290"/>
-      <c r="W16" s="290"/>
-      <c r="X16" s="290"/>
-      <c r="Y16" s="290"/>
-      <c r="Z16" s="290"/>
-      <c r="AA16" s="290"/>
-      <c r="AB16" s="290"/>
-      <c r="AC16" s="290"/>
-      <c r="AD16" s="290"/>
-      <c r="AE16" s="291"/>
-      <c r="AF16" s="286"/>
-      <c r="AG16" s="287"/>
-      <c r="AH16" s="287"/>
-      <c r="AI16" s="288"/>
+      <c r="B16" s="316"/>
+      <c r="C16" s="317"/>
+      <c r="D16" s="318"/>
+      <c r="E16" s="319"/>
+      <c r="F16" s="320"/>
+      <c r="G16" s="316"/>
+      <c r="H16" s="321"/>
+      <c r="I16" s="317"/>
+      <c r="J16" s="322"/>
+      <c r="K16" s="323"/>
+      <c r="L16" s="323"/>
+      <c r="M16" s="323"/>
+      <c r="N16" s="323"/>
+      <c r="O16" s="323"/>
+      <c r="P16" s="324"/>
+      <c r="Q16" s="325"/>
+      <c r="R16" s="326"/>
+      <c r="S16" s="326"/>
+      <c r="T16" s="326"/>
+      <c r="U16" s="326"/>
+      <c r="V16" s="326"/>
+      <c r="W16" s="326"/>
+      <c r="X16" s="326"/>
+      <c r="Y16" s="326"/>
+      <c r="Z16" s="326"/>
+      <c r="AA16" s="326"/>
+      <c r="AB16" s="326"/>
+      <c r="AC16" s="326"/>
+      <c r="AD16" s="326"/>
+      <c r="AE16" s="327"/>
+      <c r="AF16" s="322"/>
+      <c r="AG16" s="323"/>
+      <c r="AH16" s="323"/>
+      <c r="AI16" s="324"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="280"/>
-      <c r="C17" s="281"/>
-      <c r="D17" s="282"/>
-      <c r="E17" s="283"/>
-      <c r="F17" s="284"/>
-      <c r="G17" s="280"/>
-      <c r="H17" s="285"/>
-      <c r="I17" s="281"/>
-      <c r="J17" s="286"/>
-      <c r="K17" s="287"/>
-      <c r="L17" s="287"/>
-      <c r="M17" s="287"/>
-      <c r="N17" s="287"/>
-      <c r="O17" s="287"/>
-      <c r="P17" s="288"/>
-      <c r="Q17" s="289"/>
-      <c r="R17" s="290"/>
-      <c r="S17" s="290"/>
-      <c r="T17" s="290"/>
-      <c r="U17" s="290"/>
-      <c r="V17" s="290"/>
-      <c r="W17" s="290"/>
-      <c r="X17" s="290"/>
-      <c r="Y17" s="290"/>
-      <c r="Z17" s="290"/>
-      <c r="AA17" s="290"/>
-      <c r="AB17" s="290"/>
-      <c r="AC17" s="290"/>
-      <c r="AD17" s="290"/>
-      <c r="AE17" s="291"/>
-      <c r="AF17" s="286"/>
-      <c r="AG17" s="287"/>
-      <c r="AH17" s="287"/>
-      <c r="AI17" s="288"/>
+      <c r="B17" s="316"/>
+      <c r="C17" s="317"/>
+      <c r="D17" s="318"/>
+      <c r="E17" s="319"/>
+      <c r="F17" s="320"/>
+      <c r="G17" s="316"/>
+      <c r="H17" s="321"/>
+      <c r="I17" s="317"/>
+      <c r="J17" s="322"/>
+      <c r="K17" s="323"/>
+      <c r="L17" s="323"/>
+      <c r="M17" s="323"/>
+      <c r="N17" s="323"/>
+      <c r="O17" s="323"/>
+      <c r="P17" s="324"/>
+      <c r="Q17" s="325"/>
+      <c r="R17" s="326"/>
+      <c r="S17" s="326"/>
+      <c r="T17" s="326"/>
+      <c r="U17" s="326"/>
+      <c r="V17" s="326"/>
+      <c r="W17" s="326"/>
+      <c r="X17" s="326"/>
+      <c r="Y17" s="326"/>
+      <c r="Z17" s="326"/>
+      <c r="AA17" s="326"/>
+      <c r="AB17" s="326"/>
+      <c r="AC17" s="326"/>
+      <c r="AD17" s="326"/>
+      <c r="AE17" s="327"/>
+      <c r="AF17" s="322"/>
+      <c r="AG17" s="323"/>
+      <c r="AH17" s="323"/>
+      <c r="AI17" s="324"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="280"/>
-      <c r="C18" s="281"/>
-      <c r="D18" s="282"/>
-      <c r="E18" s="283"/>
-      <c r="F18" s="284"/>
-      <c r="G18" s="280"/>
-      <c r="H18" s="285"/>
-      <c r="I18" s="281"/>
-      <c r="J18" s="286"/>
-      <c r="K18" s="287"/>
-      <c r="L18" s="287"/>
-      <c r="M18" s="287"/>
-      <c r="N18" s="287"/>
-      <c r="O18" s="287"/>
-      <c r="P18" s="288"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="290"/>
-      <c r="S18" s="290"/>
-      <c r="T18" s="290"/>
-      <c r="U18" s="290"/>
-      <c r="V18" s="290"/>
-      <c r="W18" s="290"/>
-      <c r="X18" s="290"/>
-      <c r="Y18" s="290"/>
-      <c r="Z18" s="290"/>
-      <c r="AA18" s="290"/>
-      <c r="AB18" s="290"/>
-      <c r="AC18" s="290"/>
-      <c r="AD18" s="290"/>
-      <c r="AE18" s="291"/>
-      <c r="AF18" s="286"/>
-      <c r="AG18" s="287"/>
-      <c r="AH18" s="287"/>
-      <c r="AI18" s="288"/>
+      <c r="B18" s="316"/>
+      <c r="C18" s="317"/>
+      <c r="D18" s="318"/>
+      <c r="E18" s="319"/>
+      <c r="F18" s="320"/>
+      <c r="G18" s="316"/>
+      <c r="H18" s="321"/>
+      <c r="I18" s="317"/>
+      <c r="J18" s="322"/>
+      <c r="K18" s="323"/>
+      <c r="L18" s="323"/>
+      <c r="M18" s="323"/>
+      <c r="N18" s="323"/>
+      <c r="O18" s="323"/>
+      <c r="P18" s="324"/>
+      <c r="Q18" s="325"/>
+      <c r="R18" s="326"/>
+      <c r="S18" s="326"/>
+      <c r="T18" s="326"/>
+      <c r="U18" s="326"/>
+      <c r="V18" s="326"/>
+      <c r="W18" s="326"/>
+      <c r="X18" s="326"/>
+      <c r="Y18" s="326"/>
+      <c r="Z18" s="326"/>
+      <c r="AA18" s="326"/>
+      <c r="AB18" s="326"/>
+      <c r="AC18" s="326"/>
+      <c r="AD18" s="326"/>
+      <c r="AE18" s="327"/>
+      <c r="AF18" s="322"/>
+      <c r="AG18" s="323"/>
+      <c r="AH18" s="323"/>
+      <c r="AI18" s="324"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="280"/>
-      <c r="C19" s="281"/>
-      <c r="D19" s="282"/>
-      <c r="E19" s="283"/>
-      <c r="F19" s="284"/>
-      <c r="G19" s="280"/>
-      <c r="H19" s="285"/>
-      <c r="I19" s="281"/>
-      <c r="J19" s="286"/>
-      <c r="K19" s="287"/>
-      <c r="L19" s="287"/>
-      <c r="M19" s="287"/>
-      <c r="N19" s="287"/>
-      <c r="O19" s="287"/>
-      <c r="P19" s="288"/>
-      <c r="Q19" s="289"/>
-      <c r="R19" s="290"/>
-      <c r="S19" s="290"/>
-      <c r="T19" s="290"/>
-      <c r="U19" s="290"/>
-      <c r="V19" s="290"/>
-      <c r="W19" s="290"/>
-      <c r="X19" s="290"/>
-      <c r="Y19" s="290"/>
-      <c r="Z19" s="290"/>
-      <c r="AA19" s="290"/>
-      <c r="AB19" s="290"/>
-      <c r="AC19" s="290"/>
-      <c r="AD19" s="290"/>
-      <c r="AE19" s="291"/>
-      <c r="AF19" s="286"/>
-      <c r="AG19" s="287"/>
-      <c r="AH19" s="287"/>
-      <c r="AI19" s="288"/>
+      <c r="B19" s="316"/>
+      <c r="C19" s="317"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="319"/>
+      <c r="F19" s="320"/>
+      <c r="G19" s="316"/>
+      <c r="H19" s="321"/>
+      <c r="I19" s="317"/>
+      <c r="J19" s="322"/>
+      <c r="K19" s="323"/>
+      <c r="L19" s="323"/>
+      <c r="M19" s="323"/>
+      <c r="N19" s="323"/>
+      <c r="O19" s="323"/>
+      <c r="P19" s="324"/>
+      <c r="Q19" s="325"/>
+      <c r="R19" s="326"/>
+      <c r="S19" s="326"/>
+      <c r="T19" s="326"/>
+      <c r="U19" s="326"/>
+      <c r="V19" s="326"/>
+      <c r="W19" s="326"/>
+      <c r="X19" s="326"/>
+      <c r="Y19" s="326"/>
+      <c r="Z19" s="326"/>
+      <c r="AA19" s="326"/>
+      <c r="AB19" s="326"/>
+      <c r="AC19" s="326"/>
+      <c r="AD19" s="326"/>
+      <c r="AE19" s="327"/>
+      <c r="AF19" s="322"/>
+      <c r="AG19" s="323"/>
+      <c r="AH19" s="323"/>
+      <c r="AI19" s="324"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="280"/>
-      <c r="C20" s="281"/>
-      <c r="D20" s="282"/>
-      <c r="E20" s="283"/>
-      <c r="F20" s="284"/>
-      <c r="G20" s="280"/>
-      <c r="H20" s="285"/>
-      <c r="I20" s="281"/>
-      <c r="J20" s="286"/>
-      <c r="K20" s="287"/>
-      <c r="L20" s="287"/>
-      <c r="M20" s="287"/>
-      <c r="N20" s="287"/>
-      <c r="O20" s="287"/>
-      <c r="P20" s="288"/>
-      <c r="Q20" s="289"/>
-      <c r="R20" s="290"/>
-      <c r="S20" s="290"/>
-      <c r="T20" s="290"/>
-      <c r="U20" s="290"/>
-      <c r="V20" s="290"/>
-      <c r="W20" s="290"/>
-      <c r="X20" s="290"/>
-      <c r="Y20" s="290"/>
-      <c r="Z20" s="290"/>
-      <c r="AA20" s="290"/>
-      <c r="AB20" s="290"/>
-      <c r="AC20" s="290"/>
-      <c r="AD20" s="290"/>
-      <c r="AE20" s="291"/>
-      <c r="AF20" s="286"/>
-      <c r="AG20" s="287"/>
-      <c r="AH20" s="287"/>
-      <c r="AI20" s="288"/>
+      <c r="B20" s="316"/>
+      <c r="C20" s="317"/>
+      <c r="D20" s="318"/>
+      <c r="E20" s="319"/>
+      <c r="F20" s="320"/>
+      <c r="G20" s="316"/>
+      <c r="H20" s="321"/>
+      <c r="I20" s="317"/>
+      <c r="J20" s="322"/>
+      <c r="K20" s="323"/>
+      <c r="L20" s="323"/>
+      <c r="M20" s="323"/>
+      <c r="N20" s="323"/>
+      <c r="O20" s="323"/>
+      <c r="P20" s="324"/>
+      <c r="Q20" s="325"/>
+      <c r="R20" s="326"/>
+      <c r="S20" s="326"/>
+      <c r="T20" s="326"/>
+      <c r="U20" s="326"/>
+      <c r="V20" s="326"/>
+      <c r="W20" s="326"/>
+      <c r="X20" s="326"/>
+      <c r="Y20" s="326"/>
+      <c r="Z20" s="326"/>
+      <c r="AA20" s="326"/>
+      <c r="AB20" s="326"/>
+      <c r="AC20" s="326"/>
+      <c r="AD20" s="326"/>
+      <c r="AE20" s="327"/>
+      <c r="AF20" s="322"/>
+      <c r="AG20" s="323"/>
+      <c r="AH20" s="323"/>
+      <c r="AI20" s="324"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="280"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="282"/>
-      <c r="E21" s="283"/>
-      <c r="F21" s="284"/>
-      <c r="G21" s="280"/>
-      <c r="H21" s="285"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="286"/>
-      <c r="K21" s="287"/>
-      <c r="L21" s="287"/>
-      <c r="M21" s="287"/>
-      <c r="N21" s="287"/>
-      <c r="O21" s="287"/>
-      <c r="P21" s="288"/>
-      <c r="Q21" s="289"/>
-      <c r="R21" s="290"/>
-      <c r="S21" s="290"/>
-      <c r="T21" s="290"/>
-      <c r="U21" s="290"/>
-      <c r="V21" s="290"/>
-      <c r="W21" s="290"/>
-      <c r="X21" s="290"/>
-      <c r="Y21" s="290"/>
-      <c r="Z21" s="290"/>
-      <c r="AA21" s="290"/>
-      <c r="AB21" s="290"/>
-      <c r="AC21" s="290"/>
-      <c r="AD21" s="290"/>
-      <c r="AE21" s="291"/>
-      <c r="AF21" s="286"/>
-      <c r="AG21" s="287"/>
-      <c r="AH21" s="287"/>
-      <c r="AI21" s="288"/>
+      <c r="B21" s="316"/>
+      <c r="C21" s="317"/>
+      <c r="D21" s="318"/>
+      <c r="E21" s="319"/>
+      <c r="F21" s="320"/>
+      <c r="G21" s="316"/>
+      <c r="H21" s="321"/>
+      <c r="I21" s="317"/>
+      <c r="J21" s="322"/>
+      <c r="K21" s="323"/>
+      <c r="L21" s="323"/>
+      <c r="M21" s="323"/>
+      <c r="N21" s="323"/>
+      <c r="O21" s="323"/>
+      <c r="P21" s="324"/>
+      <c r="Q21" s="325"/>
+      <c r="R21" s="326"/>
+      <c r="S21" s="326"/>
+      <c r="T21" s="326"/>
+      <c r="U21" s="326"/>
+      <c r="V21" s="326"/>
+      <c r="W21" s="326"/>
+      <c r="X21" s="326"/>
+      <c r="Y21" s="326"/>
+      <c r="Z21" s="326"/>
+      <c r="AA21" s="326"/>
+      <c r="AB21" s="326"/>
+      <c r="AC21" s="326"/>
+      <c r="AD21" s="326"/>
+      <c r="AE21" s="327"/>
+      <c r="AF21" s="322"/>
+      <c r="AG21" s="323"/>
+      <c r="AH21" s="323"/>
+      <c r="AI21" s="324"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="280"/>
-      <c r="C22" s="281"/>
-      <c r="D22" s="282"/>
-      <c r="E22" s="283"/>
-      <c r="F22" s="284"/>
-      <c r="G22" s="280"/>
-      <c r="H22" s="285"/>
-      <c r="I22" s="281"/>
-      <c r="J22" s="286"/>
-      <c r="K22" s="287"/>
-      <c r="L22" s="287"/>
-      <c r="M22" s="287"/>
-      <c r="N22" s="287"/>
-      <c r="O22" s="287"/>
-      <c r="P22" s="288"/>
-      <c r="Q22" s="289"/>
-      <c r="R22" s="290"/>
-      <c r="S22" s="290"/>
-      <c r="T22" s="290"/>
-      <c r="U22" s="290"/>
-      <c r="V22" s="290"/>
-      <c r="W22" s="290"/>
-      <c r="X22" s="290"/>
-      <c r="Y22" s="290"/>
-      <c r="Z22" s="290"/>
-      <c r="AA22" s="290"/>
-      <c r="AB22" s="290"/>
-      <c r="AC22" s="290"/>
-      <c r="AD22" s="290"/>
-      <c r="AE22" s="291"/>
-      <c r="AF22" s="286"/>
-      <c r="AG22" s="287"/>
-      <c r="AH22" s="287"/>
-      <c r="AI22" s="288"/>
+      <c r="B22" s="316"/>
+      <c r="C22" s="317"/>
+      <c r="D22" s="318"/>
+      <c r="E22" s="319"/>
+      <c r="F22" s="320"/>
+      <c r="G22" s="316"/>
+      <c r="H22" s="321"/>
+      <c r="I22" s="317"/>
+      <c r="J22" s="322"/>
+      <c r="K22" s="323"/>
+      <c r="L22" s="323"/>
+      <c r="M22" s="323"/>
+      <c r="N22" s="323"/>
+      <c r="O22" s="323"/>
+      <c r="P22" s="324"/>
+      <c r="Q22" s="325"/>
+      <c r="R22" s="326"/>
+      <c r="S22" s="326"/>
+      <c r="T22" s="326"/>
+      <c r="U22" s="326"/>
+      <c r="V22" s="326"/>
+      <c r="W22" s="326"/>
+      <c r="X22" s="326"/>
+      <c r="Y22" s="326"/>
+      <c r="Z22" s="326"/>
+      <c r="AA22" s="326"/>
+      <c r="AB22" s="326"/>
+      <c r="AC22" s="326"/>
+      <c r="AD22" s="326"/>
+      <c r="AE22" s="327"/>
+      <c r="AF22" s="322"/>
+      <c r="AG22" s="323"/>
+      <c r="AH22" s="323"/>
+      <c r="AI22" s="324"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="280"/>
-      <c r="C23" s="281"/>
-      <c r="D23" s="282"/>
-      <c r="E23" s="283"/>
-      <c r="F23" s="284"/>
-      <c r="G23" s="280"/>
-      <c r="H23" s="285"/>
-      <c r="I23" s="281"/>
-      <c r="J23" s="286"/>
-      <c r="K23" s="287"/>
-      <c r="L23" s="287"/>
-      <c r="M23" s="287"/>
-      <c r="N23" s="287"/>
-      <c r="O23" s="287"/>
-      <c r="P23" s="288"/>
-      <c r="Q23" s="289"/>
-      <c r="R23" s="290"/>
-      <c r="S23" s="290"/>
-      <c r="T23" s="290"/>
-      <c r="U23" s="290"/>
-      <c r="V23" s="290"/>
-      <c r="W23" s="290"/>
-      <c r="X23" s="290"/>
-      <c r="Y23" s="290"/>
-      <c r="Z23" s="290"/>
-      <c r="AA23" s="290"/>
-      <c r="AB23" s="290"/>
-      <c r="AC23" s="290"/>
-      <c r="AD23" s="290"/>
-      <c r="AE23" s="291"/>
-      <c r="AF23" s="286"/>
-      <c r="AG23" s="287"/>
-      <c r="AH23" s="287"/>
-      <c r="AI23" s="288"/>
+      <c r="B23" s="316"/>
+      <c r="C23" s="317"/>
+      <c r="D23" s="318"/>
+      <c r="E23" s="319"/>
+      <c r="F23" s="320"/>
+      <c r="G23" s="316"/>
+      <c r="H23" s="321"/>
+      <c r="I23" s="317"/>
+      <c r="J23" s="322"/>
+      <c r="K23" s="323"/>
+      <c r="L23" s="323"/>
+      <c r="M23" s="323"/>
+      <c r="N23" s="323"/>
+      <c r="O23" s="323"/>
+      <c r="P23" s="324"/>
+      <c r="Q23" s="325"/>
+      <c r="R23" s="326"/>
+      <c r="S23" s="326"/>
+      <c r="T23" s="326"/>
+      <c r="U23" s="326"/>
+      <c r="V23" s="326"/>
+      <c r="W23" s="326"/>
+      <c r="X23" s="326"/>
+      <c r="Y23" s="326"/>
+      <c r="Z23" s="326"/>
+      <c r="AA23" s="326"/>
+      <c r="AB23" s="326"/>
+      <c r="AC23" s="326"/>
+      <c r="AD23" s="326"/>
+      <c r="AE23" s="327"/>
+      <c r="AF23" s="322"/>
+      <c r="AG23" s="323"/>
+      <c r="AH23" s="323"/>
+      <c r="AI23" s="324"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="280"/>
-      <c r="C24" s="281"/>
-      <c r="D24" s="282"/>
-      <c r="E24" s="283"/>
-      <c r="F24" s="284"/>
-      <c r="G24" s="280"/>
-      <c r="H24" s="285"/>
-      <c r="I24" s="281"/>
-      <c r="J24" s="286"/>
-      <c r="K24" s="287"/>
-      <c r="L24" s="287"/>
-      <c r="M24" s="287"/>
-      <c r="N24" s="287"/>
-      <c r="O24" s="287"/>
-      <c r="P24" s="288"/>
-      <c r="Q24" s="289"/>
-      <c r="R24" s="290"/>
-      <c r="S24" s="290"/>
-      <c r="T24" s="290"/>
-      <c r="U24" s="290"/>
-      <c r="V24" s="290"/>
-      <c r="W24" s="290"/>
-      <c r="X24" s="290"/>
-      <c r="Y24" s="290"/>
-      <c r="Z24" s="290"/>
-      <c r="AA24" s="290"/>
-      <c r="AB24" s="290"/>
-      <c r="AC24" s="290"/>
-      <c r="AD24" s="290"/>
-      <c r="AE24" s="291"/>
-      <c r="AF24" s="286"/>
-      <c r="AG24" s="287"/>
-      <c r="AH24" s="287"/>
-      <c r="AI24" s="288"/>
+      <c r="B24" s="316"/>
+      <c r="C24" s="317"/>
+      <c r="D24" s="318"/>
+      <c r="E24" s="319"/>
+      <c r="F24" s="320"/>
+      <c r="G24" s="316"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="317"/>
+      <c r="J24" s="322"/>
+      <c r="K24" s="323"/>
+      <c r="L24" s="323"/>
+      <c r="M24" s="323"/>
+      <c r="N24" s="323"/>
+      <c r="O24" s="323"/>
+      <c r="P24" s="324"/>
+      <c r="Q24" s="325"/>
+      <c r="R24" s="326"/>
+      <c r="S24" s="326"/>
+      <c r="T24" s="326"/>
+      <c r="U24" s="326"/>
+      <c r="V24" s="326"/>
+      <c r="W24" s="326"/>
+      <c r="X24" s="326"/>
+      <c r="Y24" s="326"/>
+      <c r="Z24" s="326"/>
+      <c r="AA24" s="326"/>
+      <c r="AB24" s="326"/>
+      <c r="AC24" s="326"/>
+      <c r="AD24" s="326"/>
+      <c r="AE24" s="327"/>
+      <c r="AF24" s="322"/>
+      <c r="AG24" s="323"/>
+      <c r="AH24" s="323"/>
+      <c r="AI24" s="324"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="280"/>
-      <c r="C25" s="281"/>
-      <c r="D25" s="282"/>
-      <c r="E25" s="283"/>
-      <c r="F25" s="284"/>
-      <c r="G25" s="280"/>
-      <c r="H25" s="285"/>
-      <c r="I25" s="281"/>
-      <c r="J25" s="286"/>
-      <c r="K25" s="287"/>
-      <c r="L25" s="287"/>
-      <c r="M25" s="287"/>
-      <c r="N25" s="287"/>
-      <c r="O25" s="287"/>
-      <c r="P25" s="288"/>
-      <c r="Q25" s="289"/>
-      <c r="R25" s="290"/>
-      <c r="S25" s="290"/>
-      <c r="T25" s="290"/>
-      <c r="U25" s="290"/>
-      <c r="V25" s="290"/>
-      <c r="W25" s="290"/>
-      <c r="X25" s="290"/>
-      <c r="Y25" s="290"/>
-      <c r="Z25" s="290"/>
-      <c r="AA25" s="290"/>
-      <c r="AB25" s="290"/>
-      <c r="AC25" s="290"/>
-      <c r="AD25" s="290"/>
-      <c r="AE25" s="291"/>
-      <c r="AF25" s="286"/>
-      <c r="AG25" s="287"/>
-      <c r="AH25" s="287"/>
-      <c r="AI25" s="288"/>
+      <c r="B25" s="316"/>
+      <c r="C25" s="317"/>
+      <c r="D25" s="318"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="320"/>
+      <c r="G25" s="316"/>
+      <c r="H25" s="321"/>
+      <c r="I25" s="317"/>
+      <c r="J25" s="322"/>
+      <c r="K25" s="323"/>
+      <c r="L25" s="323"/>
+      <c r="M25" s="323"/>
+      <c r="N25" s="323"/>
+      <c r="O25" s="323"/>
+      <c r="P25" s="324"/>
+      <c r="Q25" s="325"/>
+      <c r="R25" s="326"/>
+      <c r="S25" s="326"/>
+      <c r="T25" s="326"/>
+      <c r="U25" s="326"/>
+      <c r="V25" s="326"/>
+      <c r="W25" s="326"/>
+      <c r="X25" s="326"/>
+      <c r="Y25" s="326"/>
+      <c r="Z25" s="326"/>
+      <c r="AA25" s="326"/>
+      <c r="AB25" s="326"/>
+      <c r="AC25" s="326"/>
+      <c r="AD25" s="326"/>
+      <c r="AE25" s="327"/>
+      <c r="AF25" s="322"/>
+      <c r="AG25" s="323"/>
+      <c r="AH25" s="323"/>
+      <c r="AI25" s="324"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="280"/>
-      <c r="C26" s="281"/>
-      <c r="D26" s="282"/>
-      <c r="E26" s="283"/>
-      <c r="F26" s="284"/>
-      <c r="G26" s="280"/>
-      <c r="H26" s="285"/>
-      <c r="I26" s="281"/>
-      <c r="J26" s="286"/>
-      <c r="K26" s="287"/>
-      <c r="L26" s="287"/>
-      <c r="M26" s="287"/>
-      <c r="N26" s="287"/>
-      <c r="O26" s="287"/>
-      <c r="P26" s="288"/>
-      <c r="Q26" s="289"/>
-      <c r="R26" s="290"/>
-      <c r="S26" s="290"/>
-      <c r="T26" s="290"/>
-      <c r="U26" s="290"/>
-      <c r="V26" s="290"/>
-      <c r="W26" s="290"/>
-      <c r="X26" s="290"/>
-      <c r="Y26" s="290"/>
-      <c r="Z26" s="290"/>
-      <c r="AA26" s="290"/>
-      <c r="AB26" s="290"/>
-      <c r="AC26" s="290"/>
-      <c r="AD26" s="290"/>
-      <c r="AE26" s="291"/>
-      <c r="AF26" s="286"/>
-      <c r="AG26" s="287"/>
-      <c r="AH26" s="287"/>
-      <c r="AI26" s="288"/>
+      <c r="B26" s="316"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="318"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="320"/>
+      <c r="G26" s="316"/>
+      <c r="H26" s="321"/>
+      <c r="I26" s="317"/>
+      <c r="J26" s="322"/>
+      <c r="K26" s="323"/>
+      <c r="L26" s="323"/>
+      <c r="M26" s="323"/>
+      <c r="N26" s="323"/>
+      <c r="O26" s="323"/>
+      <c r="P26" s="324"/>
+      <c r="Q26" s="325"/>
+      <c r="R26" s="326"/>
+      <c r="S26" s="326"/>
+      <c r="T26" s="326"/>
+      <c r="U26" s="326"/>
+      <c r="V26" s="326"/>
+      <c r="W26" s="326"/>
+      <c r="X26" s="326"/>
+      <c r="Y26" s="326"/>
+      <c r="Z26" s="326"/>
+      <c r="AA26" s="326"/>
+      <c r="AB26" s="326"/>
+      <c r="AC26" s="326"/>
+      <c r="AD26" s="326"/>
+      <c r="AE26" s="327"/>
+      <c r="AF26" s="322"/>
+      <c r="AG26" s="323"/>
+      <c r="AH26" s="323"/>
+      <c r="AI26" s="324"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="280"/>
-      <c r="C27" s="281"/>
-      <c r="D27" s="282"/>
-      <c r="E27" s="283"/>
-      <c r="F27" s="284"/>
-      <c r="G27" s="280"/>
-      <c r="H27" s="285"/>
-      <c r="I27" s="281"/>
-      <c r="J27" s="286"/>
-      <c r="K27" s="287"/>
-      <c r="L27" s="287"/>
-      <c r="M27" s="287"/>
-      <c r="N27" s="287"/>
-      <c r="O27" s="287"/>
-      <c r="P27" s="288"/>
-      <c r="Q27" s="289"/>
-      <c r="R27" s="290"/>
-      <c r="S27" s="290"/>
-      <c r="T27" s="290"/>
-      <c r="U27" s="290"/>
-      <c r="V27" s="290"/>
-      <c r="W27" s="290"/>
-      <c r="X27" s="290"/>
-      <c r="Y27" s="290"/>
-      <c r="Z27" s="290"/>
-      <c r="AA27" s="290"/>
-      <c r="AB27" s="290"/>
-      <c r="AC27" s="290"/>
-      <c r="AD27" s="290"/>
-      <c r="AE27" s="291"/>
-      <c r="AF27" s="286"/>
-      <c r="AG27" s="287"/>
-      <c r="AH27" s="287"/>
-      <c r="AI27" s="288"/>
+      <c r="B27" s="316"/>
+      <c r="C27" s="317"/>
+      <c r="D27" s="318"/>
+      <c r="E27" s="319"/>
+      <c r="F27" s="320"/>
+      <c r="G27" s="316"/>
+      <c r="H27" s="321"/>
+      <c r="I27" s="317"/>
+      <c r="J27" s="322"/>
+      <c r="K27" s="323"/>
+      <c r="L27" s="323"/>
+      <c r="M27" s="323"/>
+      <c r="N27" s="323"/>
+      <c r="O27" s="323"/>
+      <c r="P27" s="324"/>
+      <c r="Q27" s="325"/>
+      <c r="R27" s="326"/>
+      <c r="S27" s="326"/>
+      <c r="T27" s="326"/>
+      <c r="U27" s="326"/>
+      <c r="V27" s="326"/>
+      <c r="W27" s="326"/>
+      <c r="X27" s="326"/>
+      <c r="Y27" s="326"/>
+      <c r="Z27" s="326"/>
+      <c r="AA27" s="326"/>
+      <c r="AB27" s="326"/>
+      <c r="AC27" s="326"/>
+      <c r="AD27" s="326"/>
+      <c r="AE27" s="327"/>
+      <c r="AF27" s="322"/>
+      <c r="AG27" s="323"/>
+      <c r="AH27" s="323"/>
+      <c r="AI27" s="324"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="280"/>
-      <c r="C28" s="281"/>
-      <c r="D28" s="282"/>
-      <c r="E28" s="283"/>
-      <c r="F28" s="284"/>
-      <c r="G28" s="280"/>
-      <c r="H28" s="285"/>
-      <c r="I28" s="281"/>
-      <c r="J28" s="286"/>
-      <c r="K28" s="287"/>
-      <c r="L28" s="287"/>
-      <c r="M28" s="287"/>
-      <c r="N28" s="287"/>
-      <c r="O28" s="287"/>
-      <c r="P28" s="288"/>
-      <c r="Q28" s="289"/>
-      <c r="R28" s="290"/>
-      <c r="S28" s="290"/>
-      <c r="T28" s="290"/>
-      <c r="U28" s="290"/>
-      <c r="V28" s="290"/>
-      <c r="W28" s="290"/>
-      <c r="X28" s="290"/>
-      <c r="Y28" s="290"/>
-      <c r="Z28" s="290"/>
-      <c r="AA28" s="290"/>
-      <c r="AB28" s="290"/>
-      <c r="AC28" s="290"/>
-      <c r="AD28" s="290"/>
-      <c r="AE28" s="291"/>
-      <c r="AF28" s="286"/>
-      <c r="AG28" s="287"/>
-      <c r="AH28" s="287"/>
-      <c r="AI28" s="288"/>
+      <c r="B28" s="316"/>
+      <c r="C28" s="317"/>
+      <c r="D28" s="318"/>
+      <c r="E28" s="319"/>
+      <c r="F28" s="320"/>
+      <c r="G28" s="316"/>
+      <c r="H28" s="321"/>
+      <c r="I28" s="317"/>
+      <c r="J28" s="322"/>
+      <c r="K28" s="323"/>
+      <c r="L28" s="323"/>
+      <c r="M28" s="323"/>
+      <c r="N28" s="323"/>
+      <c r="O28" s="323"/>
+      <c r="P28" s="324"/>
+      <c r="Q28" s="325"/>
+      <c r="R28" s="326"/>
+      <c r="S28" s="326"/>
+      <c r="T28" s="326"/>
+      <c r="U28" s="326"/>
+      <c r="V28" s="326"/>
+      <c r="W28" s="326"/>
+      <c r="X28" s="326"/>
+      <c r="Y28" s="326"/>
+      <c r="Z28" s="326"/>
+      <c r="AA28" s="326"/>
+      <c r="AB28" s="326"/>
+      <c r="AC28" s="326"/>
+      <c r="AD28" s="326"/>
+      <c r="AE28" s="327"/>
+      <c r="AF28" s="322"/>
+      <c r="AG28" s="323"/>
+      <c r="AH28" s="323"/>
+      <c r="AI28" s="324"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="280"/>
-      <c r="C29" s="281"/>
-      <c r="D29" s="282"/>
-      <c r="E29" s="283"/>
-      <c r="F29" s="284"/>
-      <c r="G29" s="280"/>
-      <c r="H29" s="285"/>
-      <c r="I29" s="281"/>
-      <c r="J29" s="286"/>
-      <c r="K29" s="287"/>
-      <c r="L29" s="287"/>
-      <c r="M29" s="287"/>
-      <c r="N29" s="287"/>
-      <c r="O29" s="287"/>
-      <c r="P29" s="288"/>
-      <c r="Q29" s="289"/>
-      <c r="R29" s="290"/>
-      <c r="S29" s="290"/>
-      <c r="T29" s="290"/>
-      <c r="U29" s="290"/>
-      <c r="V29" s="290"/>
-      <c r="W29" s="290"/>
-      <c r="X29" s="290"/>
-      <c r="Y29" s="290"/>
-      <c r="Z29" s="290"/>
-      <c r="AA29" s="290"/>
-      <c r="AB29" s="290"/>
-      <c r="AC29" s="290"/>
-      <c r="AD29" s="290"/>
-      <c r="AE29" s="291"/>
-      <c r="AF29" s="286"/>
-      <c r="AG29" s="287"/>
-      <c r="AH29" s="287"/>
-      <c r="AI29" s="288"/>
+      <c r="B29" s="316"/>
+      <c r="C29" s="317"/>
+      <c r="D29" s="318"/>
+      <c r="E29" s="319"/>
+      <c r="F29" s="320"/>
+      <c r="G29" s="316"/>
+      <c r="H29" s="321"/>
+      <c r="I29" s="317"/>
+      <c r="J29" s="322"/>
+      <c r="K29" s="323"/>
+      <c r="L29" s="323"/>
+      <c r="M29" s="323"/>
+      <c r="N29" s="323"/>
+      <c r="O29" s="323"/>
+      <c r="P29" s="324"/>
+      <c r="Q29" s="325"/>
+      <c r="R29" s="326"/>
+      <c r="S29" s="326"/>
+      <c r="T29" s="326"/>
+      <c r="U29" s="326"/>
+      <c r="V29" s="326"/>
+      <c r="W29" s="326"/>
+      <c r="X29" s="326"/>
+      <c r="Y29" s="326"/>
+      <c r="Z29" s="326"/>
+      <c r="AA29" s="326"/>
+      <c r="AB29" s="326"/>
+      <c r="AC29" s="326"/>
+      <c r="AD29" s="326"/>
+      <c r="AE29" s="327"/>
+      <c r="AF29" s="322"/>
+      <c r="AG29" s="323"/>
+      <c r="AH29" s="323"/>
+      <c r="AI29" s="324"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="280"/>
-      <c r="C30" s="281"/>
-      <c r="D30" s="282"/>
-      <c r="E30" s="283"/>
-      <c r="F30" s="284"/>
-      <c r="G30" s="280"/>
-      <c r="H30" s="285"/>
-      <c r="I30" s="281"/>
-      <c r="J30" s="286"/>
-      <c r="K30" s="287"/>
-      <c r="L30" s="287"/>
-      <c r="M30" s="287"/>
-      <c r="N30" s="287"/>
-      <c r="O30" s="287"/>
-      <c r="P30" s="288"/>
-      <c r="Q30" s="289"/>
-      <c r="R30" s="290"/>
-      <c r="S30" s="290"/>
-      <c r="T30" s="290"/>
-      <c r="U30" s="290"/>
-      <c r="V30" s="290"/>
-      <c r="W30" s="290"/>
-      <c r="X30" s="290"/>
-      <c r="Y30" s="290"/>
-      <c r="Z30" s="290"/>
-      <c r="AA30" s="290"/>
-      <c r="AB30" s="290"/>
-      <c r="AC30" s="290"/>
-      <c r="AD30" s="290"/>
-      <c r="AE30" s="291"/>
-      <c r="AF30" s="286"/>
-      <c r="AG30" s="287"/>
-      <c r="AH30" s="287"/>
-      <c r="AI30" s="288"/>
+      <c r="B30" s="316"/>
+      <c r="C30" s="317"/>
+      <c r="D30" s="318"/>
+      <c r="E30" s="319"/>
+      <c r="F30" s="320"/>
+      <c r="G30" s="316"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="317"/>
+      <c r="J30" s="322"/>
+      <c r="K30" s="323"/>
+      <c r="L30" s="323"/>
+      <c r="M30" s="323"/>
+      <c r="N30" s="323"/>
+      <c r="O30" s="323"/>
+      <c r="P30" s="324"/>
+      <c r="Q30" s="325"/>
+      <c r="R30" s="326"/>
+      <c r="S30" s="326"/>
+      <c r="T30" s="326"/>
+      <c r="U30" s="326"/>
+      <c r="V30" s="326"/>
+      <c r="W30" s="326"/>
+      <c r="X30" s="326"/>
+      <c r="Y30" s="326"/>
+      <c r="Z30" s="326"/>
+      <c r="AA30" s="326"/>
+      <c r="AB30" s="326"/>
+      <c r="AC30" s="326"/>
+      <c r="AD30" s="326"/>
+      <c r="AE30" s="327"/>
+      <c r="AF30" s="322"/>
+      <c r="AG30" s="323"/>
+      <c r="AH30" s="323"/>
+      <c r="AI30" s="324"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="280"/>
-      <c r="C31" s="281"/>
-      <c r="D31" s="282"/>
-      <c r="E31" s="283"/>
-      <c r="F31" s="284"/>
-      <c r="G31" s="280"/>
-      <c r="H31" s="285"/>
-      <c r="I31" s="281"/>
-      <c r="J31" s="286"/>
-      <c r="K31" s="287"/>
-      <c r="L31" s="287"/>
-      <c r="M31" s="287"/>
-      <c r="N31" s="287"/>
-      <c r="O31" s="287"/>
-      <c r="P31" s="288"/>
-      <c r="Q31" s="289"/>
-      <c r="R31" s="290"/>
-      <c r="S31" s="290"/>
-      <c r="T31" s="290"/>
-      <c r="U31" s="290"/>
-      <c r="V31" s="290"/>
-      <c r="W31" s="290"/>
-      <c r="X31" s="290"/>
-      <c r="Y31" s="290"/>
-      <c r="Z31" s="290"/>
-      <c r="AA31" s="290"/>
-      <c r="AB31" s="290"/>
-      <c r="AC31" s="290"/>
-      <c r="AD31" s="290"/>
-      <c r="AE31" s="291"/>
-      <c r="AF31" s="286"/>
-      <c r="AG31" s="287"/>
-      <c r="AH31" s="287"/>
-      <c r="AI31" s="288"/>
+      <c r="B31" s="316"/>
+      <c r="C31" s="317"/>
+      <c r="D31" s="318"/>
+      <c r="E31" s="319"/>
+      <c r="F31" s="320"/>
+      <c r="G31" s="316"/>
+      <c r="H31" s="321"/>
+      <c r="I31" s="317"/>
+      <c r="J31" s="322"/>
+      <c r="K31" s="323"/>
+      <c r="L31" s="323"/>
+      <c r="M31" s="323"/>
+      <c r="N31" s="323"/>
+      <c r="O31" s="323"/>
+      <c r="P31" s="324"/>
+      <c r="Q31" s="325"/>
+      <c r="R31" s="326"/>
+      <c r="S31" s="326"/>
+      <c r="T31" s="326"/>
+      <c r="U31" s="326"/>
+      <c r="V31" s="326"/>
+      <c r="W31" s="326"/>
+      <c r="X31" s="326"/>
+      <c r="Y31" s="326"/>
+      <c r="Z31" s="326"/>
+      <c r="AA31" s="326"/>
+      <c r="AB31" s="326"/>
+      <c r="AC31" s="326"/>
+      <c r="AD31" s="326"/>
+      <c r="AE31" s="327"/>
+      <c r="AF31" s="322"/>
+      <c r="AG31" s="323"/>
+      <c r="AH31" s="323"/>
+      <c r="AI31" s="324"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="280"/>
-      <c r="C32" s="281"/>
-      <c r="D32" s="282"/>
-      <c r="E32" s="283"/>
-      <c r="F32" s="284"/>
-      <c r="G32" s="280"/>
-      <c r="H32" s="285"/>
-      <c r="I32" s="281"/>
-      <c r="J32" s="286"/>
-      <c r="K32" s="292"/>
-      <c r="L32" s="287"/>
-      <c r="M32" s="287"/>
-      <c r="N32" s="287"/>
-      <c r="O32" s="287"/>
-      <c r="P32" s="288"/>
-      <c r="Q32" s="289"/>
-      <c r="R32" s="290"/>
-      <c r="S32" s="290"/>
-      <c r="T32" s="290"/>
-      <c r="U32" s="290"/>
-      <c r="V32" s="290"/>
-      <c r="W32" s="290"/>
-      <c r="X32" s="290"/>
-      <c r="Y32" s="290"/>
-      <c r="Z32" s="290"/>
-      <c r="AA32" s="290"/>
-      <c r="AB32" s="290"/>
-      <c r="AC32" s="290"/>
-      <c r="AD32" s="290"/>
-      <c r="AE32" s="291"/>
-      <c r="AF32" s="286"/>
-      <c r="AG32" s="287"/>
-      <c r="AH32" s="287"/>
-      <c r="AI32" s="288"/>
+      <c r="B32" s="316"/>
+      <c r="C32" s="317"/>
+      <c r="D32" s="318"/>
+      <c r="E32" s="319"/>
+      <c r="F32" s="320"/>
+      <c r="G32" s="316"/>
+      <c r="H32" s="321"/>
+      <c r="I32" s="317"/>
+      <c r="J32" s="322"/>
+      <c r="K32" s="341"/>
+      <c r="L32" s="323"/>
+      <c r="M32" s="323"/>
+      <c r="N32" s="323"/>
+      <c r="O32" s="323"/>
+      <c r="P32" s="324"/>
+      <c r="Q32" s="325"/>
+      <c r="R32" s="326"/>
+      <c r="S32" s="326"/>
+      <c r="T32" s="326"/>
+      <c r="U32" s="326"/>
+      <c r="V32" s="326"/>
+      <c r="W32" s="326"/>
+      <c r="X32" s="326"/>
+      <c r="Y32" s="326"/>
+      <c r="Z32" s="326"/>
+      <c r="AA32" s="326"/>
+      <c r="AB32" s="326"/>
+      <c r="AC32" s="326"/>
+      <c r="AD32" s="326"/>
+      <c r="AE32" s="327"/>
+      <c r="AF32" s="322"/>
+      <c r="AG32" s="323"/>
+      <c r="AH32" s="323"/>
+      <c r="AI32" s="324"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="280"/>
-      <c r="C33" s="281"/>
-      <c r="D33" s="282"/>
-      <c r="E33" s="283"/>
-      <c r="F33" s="284"/>
-      <c r="G33" s="280"/>
-      <c r="H33" s="285"/>
-      <c r="I33" s="281"/>
-      <c r="J33" s="286"/>
-      <c r="K33" s="287"/>
-      <c r="L33" s="287"/>
-      <c r="M33" s="287"/>
-      <c r="N33" s="287"/>
-      <c r="O33" s="287"/>
-      <c r="P33" s="288"/>
-      <c r="Q33" s="289"/>
-      <c r="R33" s="290"/>
-      <c r="S33" s="290"/>
-      <c r="T33" s="290"/>
-      <c r="U33" s="290"/>
-      <c r="V33" s="290"/>
-      <c r="W33" s="290"/>
-      <c r="X33" s="290"/>
-      <c r="Y33" s="290"/>
-      <c r="Z33" s="290"/>
-      <c r="AA33" s="290"/>
-      <c r="AB33" s="290"/>
-      <c r="AC33" s="290"/>
-      <c r="AD33" s="290"/>
-      <c r="AE33" s="291"/>
-      <c r="AF33" s="286"/>
-      <c r="AG33" s="287"/>
-      <c r="AH33" s="287"/>
-      <c r="AI33" s="288"/>
+      <c r="B33" s="316"/>
+      <c r="C33" s="317"/>
+      <c r="D33" s="318"/>
+      <c r="E33" s="319"/>
+      <c r="F33" s="320"/>
+      <c r="G33" s="316"/>
+      <c r="H33" s="321"/>
+      <c r="I33" s="317"/>
+      <c r="J33" s="322"/>
+      <c r="K33" s="323"/>
+      <c r="L33" s="323"/>
+      <c r="M33" s="323"/>
+      <c r="N33" s="323"/>
+      <c r="O33" s="323"/>
+      <c r="P33" s="324"/>
+      <c r="Q33" s="325"/>
+      <c r="R33" s="326"/>
+      <c r="S33" s="326"/>
+      <c r="T33" s="326"/>
+      <c r="U33" s="326"/>
+      <c r="V33" s="326"/>
+      <c r="W33" s="326"/>
+      <c r="X33" s="326"/>
+      <c r="Y33" s="326"/>
+      <c r="Z33" s="326"/>
+      <c r="AA33" s="326"/>
+      <c r="AB33" s="326"/>
+      <c r="AC33" s="326"/>
+      <c r="AD33" s="326"/>
+      <c r="AE33" s="327"/>
+      <c r="AF33" s="322"/>
+      <c r="AG33" s="323"/>
+      <c r="AH33" s="323"/>
+      <c r="AI33" s="324"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13137,162 +13303,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -13323,8 +13333,9 @@
     <col min="4" max="4" width="15.875" style="26"/>
     <col min="5" max="5" width="15.875" style="25"/>
     <col min="6" max="6" width="52.75" style="25" customWidth="1"/>
-    <col min="7" max="7" width="33.5" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="9" width="15.875" style="25"/>
+    <col min="7" max="7" width="33.5" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.875" style="25" collapsed="1"/>
+    <col min="9" max="9" width="15.875" style="25"/>
     <col min="10" max="10" width="20.375" style="37" customWidth="1"/>
     <col min="11" max="11" width="17.25" style="35" customWidth="1"/>
     <col min="12" max="12" width="11.625" style="26" customWidth="1"/>
@@ -17266,20 +17277,22 @@
       <c r="C119" s="226"/>
       <c r="D119" s="227"/>
       <c r="E119" s="229"/>
-      <c r="F119" s="185" t="s">
+      <c r="F119" s="194" t="s">
         <v>206</v>
       </c>
-      <c r="G119" s="185"/>
-      <c r="H119" s="185"/>
-      <c r="I119" s="185"/>
-      <c r="J119" s="173"/>
-      <c r="K119" s="173"/>
-      <c r="L119" s="173"/>
-      <c r="M119" s="173"/>
-      <c r="N119" s="173"/>
-      <c r="O119" s="173"/>
-      <c r="P119" s="173"/>
-      <c r="Q119" s="173"/>
+      <c r="G119" s="194" t="s">
+        <v>663</v>
+      </c>
+      <c r="H119" s="194"/>
+      <c r="I119" s="194"/>
+      <c r="J119" s="144"/>
+      <c r="K119" s="144"/>
+      <c r="L119" s="144"/>
+      <c r="M119" s="144"/>
+      <c r="N119" s="144"/>
+      <c r="O119" s="144"/>
+      <c r="P119" s="144"/>
+      <c r="Q119" s="144"/>
     </row>
     <row r="120" spans="1:17" ht="22.5">
       <c r="A120" s="45" t="str" cm="1">
@@ -18892,20 +18905,22 @@
       <c r="C167" s="226"/>
       <c r="D167" s="227"/>
       <c r="E167" s="227"/>
-      <c r="F167" s="185" t="s">
+      <c r="F167" s="194" t="s">
         <v>269</v>
       </c>
-      <c r="G167" s="185"/>
-      <c r="H167" s="185"/>
-      <c r="I167" s="185"/>
-      <c r="J167" s="173"/>
-      <c r="K167" s="173"/>
-      <c r="L167" s="173"/>
-      <c r="M167" s="173"/>
-      <c r="N167" s="173"/>
-      <c r="O167" s="173"/>
-      <c r="P167" s="173"/>
-      <c r="Q167" s="173"/>
+      <c r="G167" s="194" t="s">
+        <v>663</v>
+      </c>
+      <c r="H167" s="194"/>
+      <c r="I167" s="194"/>
+      <c r="J167" s="144"/>
+      <c r="K167" s="144"/>
+      <c r="L167" s="144"/>
+      <c r="M167" s="144"/>
+      <c r="N167" s="144"/>
+      <c r="O167" s="144"/>
+      <c r="P167" s="144"/>
+      <c r="Q167" s="144"/>
     </row>
     <row r="168" spans="1:17" ht="22.5">
       <c r="A168" s="45" t="str" cm="1">
@@ -25880,21 +25895,23 @@
       <c r="C77" s="176"/>
       <c r="D77" s="114"/>
       <c r="E77" s="176"/>
-      <c r="F77" s="99" t="s">
+      <c r="F77" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="G77" s="100"/>
-      <c r="H77" s="173"/>
-      <c r="I77" s="173"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="112"/>
-      <c r="L77" s="173"/>
-      <c r="M77" s="173"/>
-      <c r="N77" s="173"/>
-      <c r="O77" s="173"/>
-      <c r="P77" s="198"/>
-      <c r="Q77" s="112"/>
-      <c r="R77" s="112"/>
+      <c r="G77" s="143" t="s">
+        <v>663</v>
+      </c>
+      <c r="H77" s="144"/>
+      <c r="I77" s="144"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="145"/>
+      <c r="L77" s="144"/>
+      <c r="M77" s="144"/>
+      <c r="N77" s="144"/>
+      <c r="O77" s="144"/>
+      <c r="P77" s="193"/>
+      <c r="Q77" s="145"/>
+      <c r="R77" s="145"/>
     </row>
     <row r="78" spans="1:18" ht="22.5">
       <c r="A78" s="56" t="str" cm="1">
@@ -35393,21 +35410,23 @@
       <c r="C346" s="113"/>
       <c r="D346" s="110"/>
       <c r="E346" s="110"/>
-      <c r="F346" s="99" t="s">
+      <c r="F346" s="142" t="s">
         <v>473</v>
       </c>
-      <c r="G346" s="100"/>
-      <c r="H346" s="173"/>
-      <c r="I346" s="173"/>
-      <c r="J346" s="112"/>
-      <c r="K346" s="112"/>
-      <c r="L346" s="173"/>
-      <c r="M346" s="173"/>
-      <c r="N346" s="173"/>
-      <c r="O346" s="173"/>
-      <c r="P346" s="198"/>
-      <c r="Q346" s="112"/>
-      <c r="R346" s="112"/>
+      <c r="G346" s="143" t="s">
+        <v>663</v>
+      </c>
+      <c r="H346" s="144"/>
+      <c r="I346" s="144"/>
+      <c r="J346" s="145"/>
+      <c r="K346" s="145"/>
+      <c r="L346" s="144"/>
+      <c r="M346" s="144"/>
+      <c r="N346" s="144"/>
+      <c r="O346" s="144"/>
+      <c r="P346" s="193"/>
+      <c r="Q346" s="145"/>
+      <c r="R346" s="145"/>
     </row>
     <row r="347" spans="1:18">
       <c r="A347" s="56" t="str" cm="1">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6267DEE-A1BD-40D5-9697-DCA97AEC4562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6351E9-993C-4309-909B-94BE2C5EC8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8437,16 +8437,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サイズ固定とはしないので対象外</t>
-    <rPh sb="3" eb="5">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ブラウザの戻るは動作保証しない方針なので対象外</t>
     <rPh sb="5" eb="6">
       <t>モド</t>
@@ -8501,6 +8491,10 @@
     <rPh sb="15" eb="18">
       <t>タイショウガイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイズ固定とはしないので対象外</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -10177,6 +10171,84 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -10283,84 +10355,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11911,57 +11905,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="312" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="289" t="s">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="315" t="s">
         <v>572</v>
       </c>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="295" t="s">
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="316"/>
+      <c r="L1" s="316"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="317"/>
+      <c r="O1" s="321" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
-      <c r="R1" s="297"/>
-      <c r="S1" s="304" t="s">
+      <c r="P1" s="322"/>
+      <c r="Q1" s="322"/>
+      <c r="R1" s="323"/>
+      <c r="S1" s="330" t="s">
         <v>656</v>
       </c>
-      <c r="T1" s="305"/>
-      <c r="U1" s="305"/>
-      <c r="V1" s="305"/>
-      <c r="W1" s="305"/>
-      <c r="X1" s="305"/>
-      <c r="Y1" s="305"/>
-      <c r="Z1" s="306"/>
-      <c r="AA1" s="286" t="s">
+      <c r="T1" s="331"/>
+      <c r="U1" s="331"/>
+      <c r="V1" s="331"/>
+      <c r="W1" s="331"/>
+      <c r="X1" s="331"/>
+      <c r="Y1" s="331"/>
+      <c r="Z1" s="332"/>
+      <c r="AA1" s="312" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="288"/>
-      <c r="AC1" s="313" t="str">
+      <c r="AB1" s="314"/>
+      <c r="AC1" s="339" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="314"/>
-      <c r="AE1" s="314"/>
-      <c r="AF1" s="315"/>
-      <c r="AG1" s="280">
+      <c r="AD1" s="340"/>
+      <c r="AE1" s="340"/>
+      <c r="AF1" s="341"/>
+      <c r="AG1" s="306">
         <f>IF(D8="","",D8)</f>
         <v>44792</v>
       </c>
-      <c r="AH1" s="281"/>
-      <c r="AI1" s="282"/>
+      <c r="AH1" s="307"/>
+      <c r="AI1" s="308"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11969,53 +11963,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="312" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="289" t="s">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="315" t="s">
         <v>654</v>
       </c>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="291"/>
-      <c r="O2" s="298"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="299"/>
-      <c r="R2" s="300"/>
-      <c r="S2" s="307"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="308"/>
-      <c r="W2" s="308"/>
-      <c r="X2" s="308"/>
-      <c r="Y2" s="308"/>
-      <c r="Z2" s="309"/>
-      <c r="AA2" s="286" t="s">
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="316"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="316"/>
+      <c r="M2" s="316"/>
+      <c r="N2" s="317"/>
+      <c r="O2" s="324"/>
+      <c r="P2" s="325"/>
+      <c r="Q2" s="325"/>
+      <c r="R2" s="326"/>
+      <c r="S2" s="333"/>
+      <c r="T2" s="334"/>
+      <c r="U2" s="334"/>
+      <c r="V2" s="334"/>
+      <c r="W2" s="334"/>
+      <c r="X2" s="334"/>
+      <c r="Y2" s="334"/>
+      <c r="Z2" s="335"/>
+      <c r="AA2" s="312" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="288"/>
-      <c r="AC2" s="292" t="str">
+      <c r="AB2" s="314"/>
+      <c r="AC2" s="318" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="293"/>
-      <c r="AE2" s="293"/>
-      <c r="AF2" s="294"/>
-      <c r="AG2" s="280" t="str">
+      <c r="AD2" s="319"/>
+      <c r="AE2" s="319"/>
+      <c r="AF2" s="320"/>
+      <c r="AG2" s="306" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="281"/>
-      <c r="AI2" s="282"/>
+      <c r="AH2" s="307"/>
+      <c r="AI2" s="308"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12023,45 +12017,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="286" t="s">
+      <c r="A3" s="312" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="287"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="289" t="s">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="315" t="s">
         <v>655</v>
       </c>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="290"/>
-      <c r="N3" s="291"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="302"/>
-      <c r="Q3" s="302"/>
-      <c r="R3" s="303"/>
-      <c r="S3" s="310"/>
-      <c r="T3" s="311"/>
-      <c r="U3" s="311"/>
-      <c r="V3" s="311"/>
-      <c r="W3" s="311"/>
-      <c r="X3" s="311"/>
-      <c r="Y3" s="311"/>
-      <c r="Z3" s="312"/>
-      <c r="AA3" s="286"/>
-      <c r="AB3" s="288"/>
-      <c r="AC3" s="313"/>
-      <c r="AD3" s="314"/>
-      <c r="AE3" s="314"/>
-      <c r="AF3" s="315"/>
-      <c r="AG3" s="280"/>
-      <c r="AH3" s="281"/>
-      <c r="AI3" s="282"/>
+      <c r="F3" s="316"/>
+      <c r="G3" s="316"/>
+      <c r="H3" s="316"/>
+      <c r="I3" s="316"/>
+      <c r="J3" s="316"/>
+      <c r="K3" s="316"/>
+      <c r="L3" s="316"/>
+      <c r="M3" s="316"/>
+      <c r="N3" s="317"/>
+      <c r="O3" s="327"/>
+      <c r="P3" s="328"/>
+      <c r="Q3" s="328"/>
+      <c r="R3" s="329"/>
+      <c r="S3" s="336"/>
+      <c r="T3" s="337"/>
+      <c r="U3" s="337"/>
+      <c r="V3" s="337"/>
+      <c r="W3" s="337"/>
+      <c r="X3" s="337"/>
+      <c r="Y3" s="337"/>
+      <c r="Z3" s="338"/>
+      <c r="AA3" s="312"/>
+      <c r="AB3" s="314"/>
+      <c r="AC3" s="339"/>
+      <c r="AD3" s="340"/>
+      <c r="AE3" s="340"/>
+      <c r="AF3" s="341"/>
+      <c r="AG3" s="306"/>
+      <c r="AH3" s="307"/>
+      <c r="AI3" s="308"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12098,1188 +12092,1032 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="283" t="s">
+      <c r="B7" s="309" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="283" t="s">
+      <c r="C7" s="310"/>
+      <c r="D7" s="309" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="283" t="s">
+      <c r="E7" s="311"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="309" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="285"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="283" t="s">
+      <c r="H7" s="311"/>
+      <c r="I7" s="310"/>
+      <c r="J7" s="309" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="285"/>
-      <c r="N7" s="285"/>
-      <c r="O7" s="285"/>
-      <c r="P7" s="284"/>
-      <c r="Q7" s="283" t="s">
+      <c r="K7" s="311"/>
+      <c r="L7" s="311"/>
+      <c r="M7" s="311"/>
+      <c r="N7" s="311"/>
+      <c r="O7" s="311"/>
+      <c r="P7" s="310"/>
+      <c r="Q7" s="309" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="285"/>
-      <c r="S7" s="285"/>
-      <c r="T7" s="285"/>
-      <c r="U7" s="285"/>
-      <c r="V7" s="285"/>
-      <c r="W7" s="285"/>
-      <c r="X7" s="285"/>
-      <c r="Y7" s="285"/>
-      <c r="Z7" s="285"/>
-      <c r="AA7" s="285"/>
-      <c r="AB7" s="285"/>
-      <c r="AC7" s="285"/>
-      <c r="AD7" s="285"/>
-      <c r="AE7" s="284"/>
-      <c r="AF7" s="283" t="s">
+      <c r="R7" s="311"/>
+      <c r="S7" s="311"/>
+      <c r="T7" s="311"/>
+      <c r="U7" s="311"/>
+      <c r="V7" s="311"/>
+      <c r="W7" s="311"/>
+      <c r="X7" s="311"/>
+      <c r="Y7" s="311"/>
+      <c r="Z7" s="311"/>
+      <c r="AA7" s="311"/>
+      <c r="AB7" s="311"/>
+      <c r="AC7" s="311"/>
+      <c r="AD7" s="311"/>
+      <c r="AE7" s="310"/>
+      <c r="AF7" s="309" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="285"/>
-      <c r="AH7" s="285"/>
-      <c r="AI7" s="284"/>
+      <c r="AG7" s="311"/>
+      <c r="AH7" s="311"/>
+      <c r="AI7" s="310"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="328" t="s">
+      <c r="B8" s="293" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="329"/>
-      <c r="D8" s="330">
+      <c r="C8" s="294"/>
+      <c r="D8" s="295">
         <v>44792</v>
       </c>
-      <c r="E8" s="331"/>
-      <c r="F8" s="332"/>
-      <c r="G8" s="333" t="s">
+      <c r="E8" s="296"/>
+      <c r="F8" s="297"/>
+      <c r="G8" s="298" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="334"/>
-      <c r="I8" s="329"/>
-      <c r="J8" s="335"/>
-      <c r="K8" s="336"/>
-      <c r="L8" s="336"/>
-      <c r="M8" s="336"/>
-      <c r="N8" s="336"/>
-      <c r="O8" s="336"/>
-      <c r="P8" s="337"/>
-      <c r="Q8" s="338" t="s">
+      <c r="H8" s="299"/>
+      <c r="I8" s="294"/>
+      <c r="J8" s="300"/>
+      <c r="K8" s="301"/>
+      <c r="L8" s="301"/>
+      <c r="M8" s="301"/>
+      <c r="N8" s="301"/>
+      <c r="O8" s="301"/>
+      <c r="P8" s="302"/>
+      <c r="Q8" s="303" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="339"/>
-      <c r="S8" s="339"/>
-      <c r="T8" s="339"/>
-      <c r="U8" s="339"/>
-      <c r="V8" s="339"/>
-      <c r="W8" s="339"/>
-      <c r="X8" s="339"/>
-      <c r="Y8" s="339"/>
-      <c r="Z8" s="339"/>
-      <c r="AA8" s="339"/>
-      <c r="AB8" s="339"/>
-      <c r="AC8" s="339"/>
-      <c r="AD8" s="339"/>
-      <c r="AE8" s="340"/>
-      <c r="AF8" s="335" t="s">
+      <c r="R8" s="304"/>
+      <c r="S8" s="304"/>
+      <c r="T8" s="304"/>
+      <c r="U8" s="304"/>
+      <c r="V8" s="304"/>
+      <c r="W8" s="304"/>
+      <c r="X8" s="304"/>
+      <c r="Y8" s="304"/>
+      <c r="Z8" s="304"/>
+      <c r="AA8" s="304"/>
+      <c r="AB8" s="304"/>
+      <c r="AC8" s="304"/>
+      <c r="AD8" s="304"/>
+      <c r="AE8" s="305"/>
+      <c r="AF8" s="300" t="s">
         <v>39</v>
       </c>
-      <c r="AG8" s="336"/>
-      <c r="AH8" s="336"/>
-      <c r="AI8" s="337"/>
+      <c r="AG8" s="301"/>
+      <c r="AH8" s="301"/>
+      <c r="AI8" s="302"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="316"/>
-      <c r="C9" s="317"/>
-      <c r="D9" s="318"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="321"/>
-      <c r="I9" s="317"/>
-      <c r="J9" s="322"/>
-      <c r="K9" s="323"/>
-      <c r="L9" s="323"/>
-      <c r="M9" s="323"/>
-      <c r="N9" s="323"/>
-      <c r="O9" s="323"/>
-      <c r="P9" s="324"/>
-      <c r="Q9" s="325"/>
-      <c r="R9" s="326"/>
-      <c r="S9" s="326"/>
-      <c r="T9" s="326"/>
-      <c r="U9" s="326"/>
-      <c r="V9" s="326"/>
-      <c r="W9" s="326"/>
-      <c r="X9" s="326"/>
-      <c r="Y9" s="326"/>
-      <c r="Z9" s="326"/>
-      <c r="AA9" s="326"/>
-      <c r="AB9" s="326"/>
-      <c r="AC9" s="326"/>
-      <c r="AD9" s="326"/>
-      <c r="AE9" s="327"/>
-      <c r="AF9" s="322"/>
-      <c r="AG9" s="323"/>
-      <c r="AH9" s="323"/>
-      <c r="AI9" s="324"/>
+      <c r="B9" s="280"/>
+      <c r="C9" s="281"/>
+      <c r="D9" s="282"/>
+      <c r="E9" s="283"/>
+      <c r="F9" s="284"/>
+      <c r="G9" s="282"/>
+      <c r="H9" s="285"/>
+      <c r="I9" s="281"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="287"/>
+      <c r="L9" s="287"/>
+      <c r="M9" s="287"/>
+      <c r="N9" s="287"/>
+      <c r="O9" s="287"/>
+      <c r="P9" s="288"/>
+      <c r="Q9" s="289"/>
+      <c r="R9" s="290"/>
+      <c r="S9" s="290"/>
+      <c r="T9" s="290"/>
+      <c r="U9" s="290"/>
+      <c r="V9" s="290"/>
+      <c r="W9" s="290"/>
+      <c r="X9" s="290"/>
+      <c r="Y9" s="290"/>
+      <c r="Z9" s="290"/>
+      <c r="AA9" s="290"/>
+      <c r="AB9" s="290"/>
+      <c r="AC9" s="290"/>
+      <c r="AD9" s="290"/>
+      <c r="AE9" s="291"/>
+      <c r="AF9" s="286"/>
+      <c r="AG9" s="287"/>
+      <c r="AH9" s="287"/>
+      <c r="AI9" s="288"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="316"/>
-      <c r="C10" s="317"/>
-      <c r="D10" s="318"/>
-      <c r="E10" s="319"/>
-      <c r="F10" s="320"/>
-      <c r="G10" s="316"/>
-      <c r="H10" s="321"/>
-      <c r="I10" s="317"/>
-      <c r="J10" s="322"/>
-      <c r="K10" s="323"/>
-      <c r="L10" s="323"/>
-      <c r="M10" s="323"/>
-      <c r="N10" s="323"/>
-      <c r="O10" s="323"/>
-      <c r="P10" s="324"/>
-      <c r="Q10" s="325"/>
-      <c r="R10" s="326"/>
-      <c r="S10" s="326"/>
-      <c r="T10" s="326"/>
-      <c r="U10" s="326"/>
-      <c r="V10" s="326"/>
-      <c r="W10" s="326"/>
-      <c r="X10" s="326"/>
-      <c r="Y10" s="326"/>
-      <c r="Z10" s="326"/>
-      <c r="AA10" s="326"/>
-      <c r="AB10" s="326"/>
-      <c r="AC10" s="326"/>
-      <c r="AD10" s="326"/>
-      <c r="AE10" s="327"/>
-      <c r="AF10" s="322"/>
-      <c r="AG10" s="323"/>
-      <c r="AH10" s="323"/>
-      <c r="AI10" s="324"/>
+      <c r="B10" s="280"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="282"/>
+      <c r="E10" s="283"/>
+      <c r="F10" s="284"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="285"/>
+      <c r="I10" s="281"/>
+      <c r="J10" s="286"/>
+      <c r="K10" s="287"/>
+      <c r="L10" s="287"/>
+      <c r="M10" s="287"/>
+      <c r="N10" s="287"/>
+      <c r="O10" s="287"/>
+      <c r="P10" s="288"/>
+      <c r="Q10" s="289"/>
+      <c r="R10" s="290"/>
+      <c r="S10" s="290"/>
+      <c r="T10" s="290"/>
+      <c r="U10" s="290"/>
+      <c r="V10" s="290"/>
+      <c r="W10" s="290"/>
+      <c r="X10" s="290"/>
+      <c r="Y10" s="290"/>
+      <c r="Z10" s="290"/>
+      <c r="AA10" s="290"/>
+      <c r="AB10" s="290"/>
+      <c r="AC10" s="290"/>
+      <c r="AD10" s="290"/>
+      <c r="AE10" s="291"/>
+      <c r="AF10" s="286"/>
+      <c r="AG10" s="287"/>
+      <c r="AH10" s="287"/>
+      <c r="AI10" s="288"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="316"/>
-      <c r="C11" s="317"/>
-      <c r="D11" s="318"/>
-      <c r="E11" s="319"/>
-      <c r="F11" s="320"/>
-      <c r="G11" s="316"/>
-      <c r="H11" s="321"/>
-      <c r="I11" s="317"/>
-      <c r="J11" s="322"/>
-      <c r="K11" s="323"/>
-      <c r="L11" s="323"/>
-      <c r="M11" s="323"/>
-      <c r="N11" s="323"/>
-      <c r="O11" s="323"/>
-      <c r="P11" s="324"/>
-      <c r="Q11" s="325"/>
-      <c r="R11" s="326"/>
-      <c r="S11" s="326"/>
-      <c r="T11" s="326"/>
-      <c r="U11" s="326"/>
-      <c r="V11" s="326"/>
-      <c r="W11" s="326"/>
-      <c r="X11" s="326"/>
-      <c r="Y11" s="326"/>
-      <c r="Z11" s="326"/>
-      <c r="AA11" s="326"/>
-      <c r="AB11" s="326"/>
-      <c r="AC11" s="326"/>
-      <c r="AD11" s="326"/>
-      <c r="AE11" s="327"/>
-      <c r="AF11" s="322"/>
-      <c r="AG11" s="323"/>
-      <c r="AH11" s="323"/>
-      <c r="AI11" s="324"/>
+      <c r="B11" s="280"/>
+      <c r="C11" s="281"/>
+      <c r="D11" s="282"/>
+      <c r="E11" s="283"/>
+      <c r="F11" s="284"/>
+      <c r="G11" s="280"/>
+      <c r="H11" s="285"/>
+      <c r="I11" s="281"/>
+      <c r="J11" s="286"/>
+      <c r="K11" s="287"/>
+      <c r="L11" s="287"/>
+      <c r="M11" s="287"/>
+      <c r="N11" s="287"/>
+      <c r="O11" s="287"/>
+      <c r="P11" s="288"/>
+      <c r="Q11" s="289"/>
+      <c r="R11" s="290"/>
+      <c r="S11" s="290"/>
+      <c r="T11" s="290"/>
+      <c r="U11" s="290"/>
+      <c r="V11" s="290"/>
+      <c r="W11" s="290"/>
+      <c r="X11" s="290"/>
+      <c r="Y11" s="290"/>
+      <c r="Z11" s="290"/>
+      <c r="AA11" s="290"/>
+      <c r="AB11" s="290"/>
+      <c r="AC11" s="290"/>
+      <c r="AD11" s="290"/>
+      <c r="AE11" s="291"/>
+      <c r="AF11" s="286"/>
+      <c r="AG11" s="287"/>
+      <c r="AH11" s="287"/>
+      <c r="AI11" s="288"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="316"/>
-      <c r="C12" s="317"/>
-      <c r="D12" s="318"/>
-      <c r="E12" s="319"/>
-      <c r="F12" s="320"/>
-      <c r="G12" s="316"/>
-      <c r="H12" s="321"/>
-      <c r="I12" s="317"/>
-      <c r="J12" s="322"/>
-      <c r="K12" s="323"/>
-      <c r="L12" s="323"/>
-      <c r="M12" s="323"/>
-      <c r="N12" s="323"/>
-      <c r="O12" s="323"/>
-      <c r="P12" s="324"/>
-      <c r="Q12" s="325"/>
-      <c r="R12" s="326"/>
-      <c r="S12" s="326"/>
-      <c r="T12" s="326"/>
-      <c r="U12" s="326"/>
-      <c r="V12" s="326"/>
-      <c r="W12" s="326"/>
-      <c r="X12" s="326"/>
-      <c r="Y12" s="326"/>
-      <c r="Z12" s="326"/>
-      <c r="AA12" s="326"/>
-      <c r="AB12" s="326"/>
-      <c r="AC12" s="326"/>
-      <c r="AD12" s="326"/>
-      <c r="AE12" s="327"/>
-      <c r="AF12" s="322"/>
-      <c r="AG12" s="323"/>
-      <c r="AH12" s="323"/>
-      <c r="AI12" s="324"/>
+      <c r="B12" s="280"/>
+      <c r="C12" s="281"/>
+      <c r="D12" s="282"/>
+      <c r="E12" s="283"/>
+      <c r="F12" s="284"/>
+      <c r="G12" s="280"/>
+      <c r="H12" s="285"/>
+      <c r="I12" s="281"/>
+      <c r="J12" s="286"/>
+      <c r="K12" s="287"/>
+      <c r="L12" s="287"/>
+      <c r="M12" s="287"/>
+      <c r="N12" s="287"/>
+      <c r="O12" s="287"/>
+      <c r="P12" s="288"/>
+      <c r="Q12" s="289"/>
+      <c r="R12" s="290"/>
+      <c r="S12" s="290"/>
+      <c r="T12" s="290"/>
+      <c r="U12" s="290"/>
+      <c r="V12" s="290"/>
+      <c r="W12" s="290"/>
+      <c r="X12" s="290"/>
+      <c r="Y12" s="290"/>
+      <c r="Z12" s="290"/>
+      <c r="AA12" s="290"/>
+      <c r="AB12" s="290"/>
+      <c r="AC12" s="290"/>
+      <c r="AD12" s="290"/>
+      <c r="AE12" s="291"/>
+      <c r="AF12" s="286"/>
+      <c r="AG12" s="287"/>
+      <c r="AH12" s="287"/>
+      <c r="AI12" s="288"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="316"/>
-      <c r="C13" s="317"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="320"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="317"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="323"/>
-      <c r="L13" s="323"/>
-      <c r="M13" s="323"/>
-      <c r="N13" s="323"/>
-      <c r="O13" s="323"/>
-      <c r="P13" s="324"/>
-      <c r="Q13" s="325"/>
-      <c r="R13" s="326"/>
-      <c r="S13" s="326"/>
-      <c r="T13" s="326"/>
-      <c r="U13" s="326"/>
-      <c r="V13" s="326"/>
-      <c r="W13" s="326"/>
-      <c r="X13" s="326"/>
-      <c r="Y13" s="326"/>
-      <c r="Z13" s="326"/>
-      <c r="AA13" s="326"/>
-      <c r="AB13" s="326"/>
-      <c r="AC13" s="326"/>
-      <c r="AD13" s="326"/>
-      <c r="AE13" s="327"/>
-      <c r="AF13" s="322"/>
-      <c r="AG13" s="323"/>
-      <c r="AH13" s="323"/>
-      <c r="AI13" s="324"/>
+      <c r="B13" s="280"/>
+      <c r="C13" s="281"/>
+      <c r="D13" s="282"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="284"/>
+      <c r="G13" s="280"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="281"/>
+      <c r="J13" s="286"/>
+      <c r="K13" s="287"/>
+      <c r="L13" s="287"/>
+      <c r="M13" s="287"/>
+      <c r="N13" s="287"/>
+      <c r="O13" s="287"/>
+      <c r="P13" s="288"/>
+      <c r="Q13" s="289"/>
+      <c r="R13" s="290"/>
+      <c r="S13" s="290"/>
+      <c r="T13" s="290"/>
+      <c r="U13" s="290"/>
+      <c r="V13" s="290"/>
+      <c r="W13" s="290"/>
+      <c r="X13" s="290"/>
+      <c r="Y13" s="290"/>
+      <c r="Z13" s="290"/>
+      <c r="AA13" s="290"/>
+      <c r="AB13" s="290"/>
+      <c r="AC13" s="290"/>
+      <c r="AD13" s="290"/>
+      <c r="AE13" s="291"/>
+      <c r="AF13" s="286"/>
+      <c r="AG13" s="287"/>
+      <c r="AH13" s="287"/>
+      <c r="AI13" s="288"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="316"/>
-      <c r="C14" s="317"/>
-      <c r="D14" s="318"/>
-      <c r="E14" s="319"/>
-      <c r="F14" s="320"/>
-      <c r="G14" s="316"/>
-      <c r="H14" s="321"/>
-      <c r="I14" s="317"/>
-      <c r="J14" s="322"/>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
-      <c r="M14" s="323"/>
-      <c r="N14" s="323"/>
-      <c r="O14" s="323"/>
-      <c r="P14" s="324"/>
-      <c r="Q14" s="325"/>
-      <c r="R14" s="326"/>
-      <c r="S14" s="326"/>
-      <c r="T14" s="326"/>
-      <c r="U14" s="326"/>
-      <c r="V14" s="326"/>
-      <c r="W14" s="326"/>
-      <c r="X14" s="326"/>
-      <c r="Y14" s="326"/>
-      <c r="Z14" s="326"/>
-      <c r="AA14" s="326"/>
-      <c r="AB14" s="326"/>
-      <c r="AC14" s="326"/>
-      <c r="AD14" s="326"/>
-      <c r="AE14" s="327"/>
-      <c r="AF14" s="322"/>
-      <c r="AG14" s="323"/>
-      <c r="AH14" s="323"/>
-      <c r="AI14" s="324"/>
+      <c r="B14" s="280"/>
+      <c r="C14" s="281"/>
+      <c r="D14" s="282"/>
+      <c r="E14" s="283"/>
+      <c r="F14" s="284"/>
+      <c r="G14" s="280"/>
+      <c r="H14" s="285"/>
+      <c r="I14" s="281"/>
+      <c r="J14" s="286"/>
+      <c r="K14" s="287"/>
+      <c r="L14" s="287"/>
+      <c r="M14" s="287"/>
+      <c r="N14" s="287"/>
+      <c r="O14" s="287"/>
+      <c r="P14" s="288"/>
+      <c r="Q14" s="289"/>
+      <c r="R14" s="290"/>
+      <c r="S14" s="290"/>
+      <c r="T14" s="290"/>
+      <c r="U14" s="290"/>
+      <c r="V14" s="290"/>
+      <c r="W14" s="290"/>
+      <c r="X14" s="290"/>
+      <c r="Y14" s="290"/>
+      <c r="Z14" s="290"/>
+      <c r="AA14" s="290"/>
+      <c r="AB14" s="290"/>
+      <c r="AC14" s="290"/>
+      <c r="AD14" s="290"/>
+      <c r="AE14" s="291"/>
+      <c r="AF14" s="286"/>
+      <c r="AG14" s="287"/>
+      <c r="AH14" s="287"/>
+      <c r="AI14" s="288"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="316"/>
-      <c r="C15" s="317"/>
-      <c r="D15" s="318"/>
-      <c r="E15" s="319"/>
-      <c r="F15" s="320"/>
-      <c r="G15" s="316"/>
-      <c r="H15" s="321"/>
-      <c r="I15" s="317"/>
-      <c r="J15" s="322"/>
-      <c r="K15" s="323"/>
-      <c r="L15" s="323"/>
-      <c r="M15" s="323"/>
-      <c r="N15" s="323"/>
-      <c r="O15" s="323"/>
-      <c r="P15" s="324"/>
-      <c r="Q15" s="325"/>
-      <c r="R15" s="326"/>
-      <c r="S15" s="326"/>
-      <c r="T15" s="326"/>
-      <c r="U15" s="326"/>
-      <c r="V15" s="326"/>
-      <c r="W15" s="326"/>
-      <c r="X15" s="326"/>
-      <c r="Y15" s="326"/>
-      <c r="Z15" s="326"/>
-      <c r="AA15" s="326"/>
-      <c r="AB15" s="326"/>
-      <c r="AC15" s="326"/>
-      <c r="AD15" s="326"/>
-      <c r="AE15" s="327"/>
-      <c r="AF15" s="322"/>
-      <c r="AG15" s="323"/>
-      <c r="AH15" s="323"/>
-      <c r="AI15" s="324"/>
+      <c r="B15" s="280"/>
+      <c r="C15" s="281"/>
+      <c r="D15" s="282"/>
+      <c r="E15" s="283"/>
+      <c r="F15" s="284"/>
+      <c r="G15" s="280"/>
+      <c r="H15" s="285"/>
+      <c r="I15" s="281"/>
+      <c r="J15" s="286"/>
+      <c r="K15" s="287"/>
+      <c r="L15" s="287"/>
+      <c r="M15" s="287"/>
+      <c r="N15" s="287"/>
+      <c r="O15" s="287"/>
+      <c r="P15" s="288"/>
+      <c r="Q15" s="289"/>
+      <c r="R15" s="290"/>
+      <c r="S15" s="290"/>
+      <c r="T15" s="290"/>
+      <c r="U15" s="290"/>
+      <c r="V15" s="290"/>
+      <c r="W15" s="290"/>
+      <c r="X15" s="290"/>
+      <c r="Y15" s="290"/>
+      <c r="Z15" s="290"/>
+      <c r="AA15" s="290"/>
+      <c r="AB15" s="290"/>
+      <c r="AC15" s="290"/>
+      <c r="AD15" s="290"/>
+      <c r="AE15" s="291"/>
+      <c r="AF15" s="286"/>
+      <c r="AG15" s="287"/>
+      <c r="AH15" s="287"/>
+      <c r="AI15" s="288"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="316"/>
-      <c r="C16" s="317"/>
-      <c r="D16" s="318"/>
-      <c r="E16" s="319"/>
-      <c r="F16" s="320"/>
-      <c r="G16" s="316"/>
-      <c r="H16" s="321"/>
-      <c r="I16" s="317"/>
-      <c r="J16" s="322"/>
-      <c r="K16" s="323"/>
-      <c r="L16" s="323"/>
-      <c r="M16" s="323"/>
-      <c r="N16" s="323"/>
-      <c r="O16" s="323"/>
-      <c r="P16" s="324"/>
-      <c r="Q16" s="325"/>
-      <c r="R16" s="326"/>
-      <c r="S16" s="326"/>
-      <c r="T16" s="326"/>
-      <c r="U16" s="326"/>
-      <c r="V16" s="326"/>
-      <c r="W16" s="326"/>
-      <c r="X16" s="326"/>
-      <c r="Y16" s="326"/>
-      <c r="Z16" s="326"/>
-      <c r="AA16" s="326"/>
-      <c r="AB16" s="326"/>
-      <c r="AC16" s="326"/>
-      <c r="AD16" s="326"/>
-      <c r="AE16" s="327"/>
-      <c r="AF16" s="322"/>
-      <c r="AG16" s="323"/>
-      <c r="AH16" s="323"/>
-      <c r="AI16" s="324"/>
+      <c r="B16" s="280"/>
+      <c r="C16" s="281"/>
+      <c r="D16" s="282"/>
+      <c r="E16" s="283"/>
+      <c r="F16" s="284"/>
+      <c r="G16" s="280"/>
+      <c r="H16" s="285"/>
+      <c r="I16" s="281"/>
+      <c r="J16" s="286"/>
+      <c r="K16" s="287"/>
+      <c r="L16" s="287"/>
+      <c r="M16" s="287"/>
+      <c r="N16" s="287"/>
+      <c r="O16" s="287"/>
+      <c r="P16" s="288"/>
+      <c r="Q16" s="289"/>
+      <c r="R16" s="290"/>
+      <c r="S16" s="290"/>
+      <c r="T16" s="290"/>
+      <c r="U16" s="290"/>
+      <c r="V16" s="290"/>
+      <c r="W16" s="290"/>
+      <c r="X16" s="290"/>
+      <c r="Y16" s="290"/>
+      <c r="Z16" s="290"/>
+      <c r="AA16" s="290"/>
+      <c r="AB16" s="290"/>
+      <c r="AC16" s="290"/>
+      <c r="AD16" s="290"/>
+      <c r="AE16" s="291"/>
+      <c r="AF16" s="286"/>
+      <c r="AG16" s="287"/>
+      <c r="AH16" s="287"/>
+      <c r="AI16" s="288"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="316"/>
-      <c r="C17" s="317"/>
-      <c r="D17" s="318"/>
-      <c r="E17" s="319"/>
-      <c r="F17" s="320"/>
-      <c r="G17" s="316"/>
-      <c r="H17" s="321"/>
-      <c r="I17" s="317"/>
-      <c r="J17" s="322"/>
-      <c r="K17" s="323"/>
-      <c r="L17" s="323"/>
-      <c r="M17" s="323"/>
-      <c r="N17" s="323"/>
-      <c r="O17" s="323"/>
-      <c r="P17" s="324"/>
-      <c r="Q17" s="325"/>
-      <c r="R17" s="326"/>
-      <c r="S17" s="326"/>
-      <c r="T17" s="326"/>
-      <c r="U17" s="326"/>
-      <c r="V17" s="326"/>
-      <c r="W17" s="326"/>
-      <c r="X17" s="326"/>
-      <c r="Y17" s="326"/>
-      <c r="Z17" s="326"/>
-      <c r="AA17" s="326"/>
-      <c r="AB17" s="326"/>
-      <c r="AC17" s="326"/>
-      <c r="AD17" s="326"/>
-      <c r="AE17" s="327"/>
-      <c r="AF17" s="322"/>
-      <c r="AG17" s="323"/>
-      <c r="AH17" s="323"/>
-      <c r="AI17" s="324"/>
+      <c r="B17" s="280"/>
+      <c r="C17" s="281"/>
+      <c r="D17" s="282"/>
+      <c r="E17" s="283"/>
+      <c r="F17" s="284"/>
+      <c r="G17" s="280"/>
+      <c r="H17" s="285"/>
+      <c r="I17" s="281"/>
+      <c r="J17" s="286"/>
+      <c r="K17" s="287"/>
+      <c r="L17" s="287"/>
+      <c r="M17" s="287"/>
+      <c r="N17" s="287"/>
+      <c r="O17" s="287"/>
+      <c r="P17" s="288"/>
+      <c r="Q17" s="289"/>
+      <c r="R17" s="290"/>
+      <c r="S17" s="290"/>
+      <c r="T17" s="290"/>
+      <c r="U17" s="290"/>
+      <c r="V17" s="290"/>
+      <c r="W17" s="290"/>
+      <c r="X17" s="290"/>
+      <c r="Y17" s="290"/>
+      <c r="Z17" s="290"/>
+      <c r="AA17" s="290"/>
+      <c r="AB17" s="290"/>
+      <c r="AC17" s="290"/>
+      <c r="AD17" s="290"/>
+      <c r="AE17" s="291"/>
+      <c r="AF17" s="286"/>
+      <c r="AG17" s="287"/>
+      <c r="AH17" s="287"/>
+      <c r="AI17" s="288"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="316"/>
-      <c r="C18" s="317"/>
-      <c r="D18" s="318"/>
-      <c r="E18" s="319"/>
-      <c r="F18" s="320"/>
-      <c r="G18" s="316"/>
-      <c r="H18" s="321"/>
-      <c r="I18" s="317"/>
-      <c r="J18" s="322"/>
-      <c r="K18" s="323"/>
-      <c r="L18" s="323"/>
-      <c r="M18" s="323"/>
-      <c r="N18" s="323"/>
-      <c r="O18" s="323"/>
-      <c r="P18" s="324"/>
-      <c r="Q18" s="325"/>
-      <c r="R18" s="326"/>
-      <c r="S18" s="326"/>
-      <c r="T18" s="326"/>
-      <c r="U18" s="326"/>
-      <c r="V18" s="326"/>
-      <c r="W18" s="326"/>
-      <c r="X18" s="326"/>
-      <c r="Y18" s="326"/>
-      <c r="Z18" s="326"/>
-      <c r="AA18" s="326"/>
-      <c r="AB18" s="326"/>
-      <c r="AC18" s="326"/>
-      <c r="AD18" s="326"/>
-      <c r="AE18" s="327"/>
-      <c r="AF18" s="322"/>
-      <c r="AG18" s="323"/>
-      <c r="AH18" s="323"/>
-      <c r="AI18" s="324"/>
+      <c r="B18" s="280"/>
+      <c r="C18" s="281"/>
+      <c r="D18" s="282"/>
+      <c r="E18" s="283"/>
+      <c r="F18" s="284"/>
+      <c r="G18" s="280"/>
+      <c r="H18" s="285"/>
+      <c r="I18" s="281"/>
+      <c r="J18" s="286"/>
+      <c r="K18" s="287"/>
+      <c r="L18" s="287"/>
+      <c r="M18" s="287"/>
+      <c r="N18" s="287"/>
+      <c r="O18" s="287"/>
+      <c r="P18" s="288"/>
+      <c r="Q18" s="289"/>
+      <c r="R18" s="290"/>
+      <c r="S18" s="290"/>
+      <c r="T18" s="290"/>
+      <c r="U18" s="290"/>
+      <c r="V18" s="290"/>
+      <c r="W18" s="290"/>
+      <c r="X18" s="290"/>
+      <c r="Y18" s="290"/>
+      <c r="Z18" s="290"/>
+      <c r="AA18" s="290"/>
+      <c r="AB18" s="290"/>
+      <c r="AC18" s="290"/>
+      <c r="AD18" s="290"/>
+      <c r="AE18" s="291"/>
+      <c r="AF18" s="286"/>
+      <c r="AG18" s="287"/>
+      <c r="AH18" s="287"/>
+      <c r="AI18" s="288"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="316"/>
-      <c r="C19" s="317"/>
-      <c r="D19" s="318"/>
-      <c r="E19" s="319"/>
-      <c r="F19" s="320"/>
-      <c r="G19" s="316"/>
-      <c r="H19" s="321"/>
-      <c r="I19" s="317"/>
-      <c r="J19" s="322"/>
-      <c r="K19" s="323"/>
-      <c r="L19" s="323"/>
-      <c r="M19" s="323"/>
-      <c r="N19" s="323"/>
-      <c r="O19" s="323"/>
-      <c r="P19" s="324"/>
-      <c r="Q19" s="325"/>
-      <c r="R19" s="326"/>
-      <c r="S19" s="326"/>
-      <c r="T19" s="326"/>
-      <c r="U19" s="326"/>
-      <c r="V19" s="326"/>
-      <c r="W19" s="326"/>
-      <c r="X19" s="326"/>
-      <c r="Y19" s="326"/>
-      <c r="Z19" s="326"/>
-      <c r="AA19" s="326"/>
-      <c r="AB19" s="326"/>
-      <c r="AC19" s="326"/>
-      <c r="AD19" s="326"/>
-      <c r="AE19" s="327"/>
-      <c r="AF19" s="322"/>
-      <c r="AG19" s="323"/>
-      <c r="AH19" s="323"/>
-      <c r="AI19" s="324"/>
+      <c r="B19" s="280"/>
+      <c r="C19" s="281"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="283"/>
+      <c r="F19" s="284"/>
+      <c r="G19" s="280"/>
+      <c r="H19" s="285"/>
+      <c r="I19" s="281"/>
+      <c r="J19" s="286"/>
+      <c r="K19" s="287"/>
+      <c r="L19" s="287"/>
+      <c r="M19" s="287"/>
+      <c r="N19" s="287"/>
+      <c r="O19" s="287"/>
+      <c r="P19" s="288"/>
+      <c r="Q19" s="289"/>
+      <c r="R19" s="290"/>
+      <c r="S19" s="290"/>
+      <c r="T19" s="290"/>
+      <c r="U19" s="290"/>
+      <c r="V19" s="290"/>
+      <c r="W19" s="290"/>
+      <c r="X19" s="290"/>
+      <c r="Y19" s="290"/>
+      <c r="Z19" s="290"/>
+      <c r="AA19" s="290"/>
+      <c r="AB19" s="290"/>
+      <c r="AC19" s="290"/>
+      <c r="AD19" s="290"/>
+      <c r="AE19" s="291"/>
+      <c r="AF19" s="286"/>
+      <c r="AG19" s="287"/>
+      <c r="AH19" s="287"/>
+      <c r="AI19" s="288"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="316"/>
-      <c r="C20" s="317"/>
-      <c r="D20" s="318"/>
-      <c r="E20" s="319"/>
-      <c r="F20" s="320"/>
-      <c r="G20" s="316"/>
-      <c r="H20" s="321"/>
-      <c r="I20" s="317"/>
-      <c r="J20" s="322"/>
-      <c r="K20" s="323"/>
-      <c r="L20" s="323"/>
-      <c r="M20" s="323"/>
-      <c r="N20" s="323"/>
-      <c r="O20" s="323"/>
-      <c r="P20" s="324"/>
-      <c r="Q20" s="325"/>
-      <c r="R20" s="326"/>
-      <c r="S20" s="326"/>
-      <c r="T20" s="326"/>
-      <c r="U20" s="326"/>
-      <c r="V20" s="326"/>
-      <c r="W20" s="326"/>
-      <c r="X20" s="326"/>
-      <c r="Y20" s="326"/>
-      <c r="Z20" s="326"/>
-      <c r="AA20" s="326"/>
-      <c r="AB20" s="326"/>
-      <c r="AC20" s="326"/>
-      <c r="AD20" s="326"/>
-      <c r="AE20" s="327"/>
-      <c r="AF20" s="322"/>
-      <c r="AG20" s="323"/>
-      <c r="AH20" s="323"/>
-      <c r="AI20" s="324"/>
+      <c r="B20" s="280"/>
+      <c r="C20" s="281"/>
+      <c r="D20" s="282"/>
+      <c r="E20" s="283"/>
+      <c r="F20" s="284"/>
+      <c r="G20" s="280"/>
+      <c r="H20" s="285"/>
+      <c r="I20" s="281"/>
+      <c r="J20" s="286"/>
+      <c r="K20" s="287"/>
+      <c r="L20" s="287"/>
+      <c r="M20" s="287"/>
+      <c r="N20" s="287"/>
+      <c r="O20" s="287"/>
+      <c r="P20" s="288"/>
+      <c r="Q20" s="289"/>
+      <c r="R20" s="290"/>
+      <c r="S20" s="290"/>
+      <c r="T20" s="290"/>
+      <c r="U20" s="290"/>
+      <c r="V20" s="290"/>
+      <c r="W20" s="290"/>
+      <c r="X20" s="290"/>
+      <c r="Y20" s="290"/>
+      <c r="Z20" s="290"/>
+      <c r="AA20" s="290"/>
+      <c r="AB20" s="290"/>
+      <c r="AC20" s="290"/>
+      <c r="AD20" s="290"/>
+      <c r="AE20" s="291"/>
+      <c r="AF20" s="286"/>
+      <c r="AG20" s="287"/>
+      <c r="AH20" s="287"/>
+      <c r="AI20" s="288"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="316"/>
-      <c r="C21" s="317"/>
-      <c r="D21" s="318"/>
-      <c r="E21" s="319"/>
-      <c r="F21" s="320"/>
-      <c r="G21" s="316"/>
-      <c r="H21" s="321"/>
-      <c r="I21" s="317"/>
-      <c r="J21" s="322"/>
-      <c r="K21" s="323"/>
-      <c r="L21" s="323"/>
-      <c r="M21" s="323"/>
-      <c r="N21" s="323"/>
-      <c r="O21" s="323"/>
-      <c r="P21" s="324"/>
-      <c r="Q21" s="325"/>
-      <c r="R21" s="326"/>
-      <c r="S21" s="326"/>
-      <c r="T21" s="326"/>
-      <c r="U21" s="326"/>
-      <c r="V21" s="326"/>
-      <c r="W21" s="326"/>
-      <c r="X21" s="326"/>
-      <c r="Y21" s="326"/>
-      <c r="Z21" s="326"/>
-      <c r="AA21" s="326"/>
-      <c r="AB21" s="326"/>
-      <c r="AC21" s="326"/>
-      <c r="AD21" s="326"/>
-      <c r="AE21" s="327"/>
-      <c r="AF21" s="322"/>
-      <c r="AG21" s="323"/>
-      <c r="AH21" s="323"/>
-      <c r="AI21" s="324"/>
+      <c r="B21" s="280"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="282"/>
+      <c r="E21" s="283"/>
+      <c r="F21" s="284"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="285"/>
+      <c r="I21" s="281"/>
+      <c r="J21" s="286"/>
+      <c r="K21" s="287"/>
+      <c r="L21" s="287"/>
+      <c r="M21" s="287"/>
+      <c r="N21" s="287"/>
+      <c r="O21" s="287"/>
+      <c r="P21" s="288"/>
+      <c r="Q21" s="289"/>
+      <c r="R21" s="290"/>
+      <c r="S21" s="290"/>
+      <c r="T21" s="290"/>
+      <c r="U21" s="290"/>
+      <c r="V21" s="290"/>
+      <c r="W21" s="290"/>
+      <c r="X21" s="290"/>
+      <c r="Y21" s="290"/>
+      <c r="Z21" s="290"/>
+      <c r="AA21" s="290"/>
+      <c r="AB21" s="290"/>
+      <c r="AC21" s="290"/>
+      <c r="AD21" s="290"/>
+      <c r="AE21" s="291"/>
+      <c r="AF21" s="286"/>
+      <c r="AG21" s="287"/>
+      <c r="AH21" s="287"/>
+      <c r="AI21" s="288"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="316"/>
-      <c r="C22" s="317"/>
-      <c r="D22" s="318"/>
-      <c r="E22" s="319"/>
-      <c r="F22" s="320"/>
-      <c r="G22" s="316"/>
-      <c r="H22" s="321"/>
-      <c r="I22" s="317"/>
-      <c r="J22" s="322"/>
-      <c r="K22" s="323"/>
-      <c r="L22" s="323"/>
-      <c r="M22" s="323"/>
-      <c r="N22" s="323"/>
-      <c r="O22" s="323"/>
-      <c r="P22" s="324"/>
-      <c r="Q22" s="325"/>
-      <c r="R22" s="326"/>
-      <c r="S22" s="326"/>
-      <c r="T22" s="326"/>
-      <c r="U22" s="326"/>
-      <c r="V22" s="326"/>
-      <c r="W22" s="326"/>
-      <c r="X22" s="326"/>
-      <c r="Y22" s="326"/>
-      <c r="Z22" s="326"/>
-      <c r="AA22" s="326"/>
-      <c r="AB22" s="326"/>
-      <c r="AC22" s="326"/>
-      <c r="AD22" s="326"/>
-      <c r="AE22" s="327"/>
-      <c r="AF22" s="322"/>
-      <c r="AG22" s="323"/>
-      <c r="AH22" s="323"/>
-      <c r="AI22" s="324"/>
+      <c r="B22" s="280"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="282"/>
+      <c r="E22" s="283"/>
+      <c r="F22" s="284"/>
+      <c r="G22" s="280"/>
+      <c r="H22" s="285"/>
+      <c r="I22" s="281"/>
+      <c r="J22" s="286"/>
+      <c r="K22" s="287"/>
+      <c r="L22" s="287"/>
+      <c r="M22" s="287"/>
+      <c r="N22" s="287"/>
+      <c r="O22" s="287"/>
+      <c r="P22" s="288"/>
+      <c r="Q22" s="289"/>
+      <c r="R22" s="290"/>
+      <c r="S22" s="290"/>
+      <c r="T22" s="290"/>
+      <c r="U22" s="290"/>
+      <c r="V22" s="290"/>
+      <c r="W22" s="290"/>
+      <c r="X22" s="290"/>
+      <c r="Y22" s="290"/>
+      <c r="Z22" s="290"/>
+      <c r="AA22" s="290"/>
+      <c r="AB22" s="290"/>
+      <c r="AC22" s="290"/>
+      <c r="AD22" s="290"/>
+      <c r="AE22" s="291"/>
+      <c r="AF22" s="286"/>
+      <c r="AG22" s="287"/>
+      <c r="AH22" s="287"/>
+      <c r="AI22" s="288"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="316"/>
-      <c r="C23" s="317"/>
-      <c r="D23" s="318"/>
-      <c r="E23" s="319"/>
-      <c r="F23" s="320"/>
-      <c r="G23" s="316"/>
-      <c r="H23" s="321"/>
-      <c r="I23" s="317"/>
-      <c r="J23" s="322"/>
-      <c r="K23" s="323"/>
-      <c r="L23" s="323"/>
-      <c r="M23" s="323"/>
-      <c r="N23" s="323"/>
-      <c r="O23" s="323"/>
-      <c r="P23" s="324"/>
-      <c r="Q23" s="325"/>
-      <c r="R23" s="326"/>
-      <c r="S23" s="326"/>
-      <c r="T23" s="326"/>
-      <c r="U23" s="326"/>
-      <c r="V23" s="326"/>
-      <c r="W23" s="326"/>
-      <c r="X23" s="326"/>
-      <c r="Y23" s="326"/>
-      <c r="Z23" s="326"/>
-      <c r="AA23" s="326"/>
-      <c r="AB23" s="326"/>
-      <c r="AC23" s="326"/>
-      <c r="AD23" s="326"/>
-      <c r="AE23" s="327"/>
-      <c r="AF23" s="322"/>
-      <c r="AG23" s="323"/>
-      <c r="AH23" s="323"/>
-      <c r="AI23" s="324"/>
+      <c r="B23" s="280"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="282"/>
+      <c r="E23" s="283"/>
+      <c r="F23" s="284"/>
+      <c r="G23" s="280"/>
+      <c r="H23" s="285"/>
+      <c r="I23" s="281"/>
+      <c r="J23" s="286"/>
+      <c r="K23" s="287"/>
+      <c r="L23" s="287"/>
+      <c r="M23" s="287"/>
+      <c r="N23" s="287"/>
+      <c r="O23" s="287"/>
+      <c r="P23" s="288"/>
+      <c r="Q23" s="289"/>
+      <c r="R23" s="290"/>
+      <c r="S23" s="290"/>
+      <c r="T23" s="290"/>
+      <c r="U23" s="290"/>
+      <c r="V23" s="290"/>
+      <c r="W23" s="290"/>
+      <c r="X23" s="290"/>
+      <c r="Y23" s="290"/>
+      <c r="Z23" s="290"/>
+      <c r="AA23" s="290"/>
+      <c r="AB23" s="290"/>
+      <c r="AC23" s="290"/>
+      <c r="AD23" s="290"/>
+      <c r="AE23" s="291"/>
+      <c r="AF23" s="286"/>
+      <c r="AG23" s="287"/>
+      <c r="AH23" s="287"/>
+      <c r="AI23" s="288"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="316"/>
-      <c r="C24" s="317"/>
-      <c r="D24" s="318"/>
-      <c r="E24" s="319"/>
-      <c r="F24" s="320"/>
-      <c r="G24" s="316"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="317"/>
-      <c r="J24" s="322"/>
-      <c r="K24" s="323"/>
-      <c r="L24" s="323"/>
-      <c r="M24" s="323"/>
-      <c r="N24" s="323"/>
-      <c r="O24" s="323"/>
-      <c r="P24" s="324"/>
-      <c r="Q24" s="325"/>
-      <c r="R24" s="326"/>
-      <c r="S24" s="326"/>
-      <c r="T24" s="326"/>
-      <c r="U24" s="326"/>
-      <c r="V24" s="326"/>
-      <c r="W24" s="326"/>
-      <c r="X24" s="326"/>
-      <c r="Y24" s="326"/>
-      <c r="Z24" s="326"/>
-      <c r="AA24" s="326"/>
-      <c r="AB24" s="326"/>
-      <c r="AC24" s="326"/>
-      <c r="AD24" s="326"/>
-      <c r="AE24" s="327"/>
-      <c r="AF24" s="322"/>
-      <c r="AG24" s="323"/>
-      <c r="AH24" s="323"/>
-      <c r="AI24" s="324"/>
+      <c r="B24" s="280"/>
+      <c r="C24" s="281"/>
+      <c r="D24" s="282"/>
+      <c r="E24" s="283"/>
+      <c r="F24" s="284"/>
+      <c r="G24" s="280"/>
+      <c r="H24" s="285"/>
+      <c r="I24" s="281"/>
+      <c r="J24" s="286"/>
+      <c r="K24" s="287"/>
+      <c r="L24" s="287"/>
+      <c r="M24" s="287"/>
+      <c r="N24" s="287"/>
+      <c r="O24" s="287"/>
+      <c r="P24" s="288"/>
+      <c r="Q24" s="289"/>
+      <c r="R24" s="290"/>
+      <c r="S24" s="290"/>
+      <c r="T24" s="290"/>
+      <c r="U24" s="290"/>
+      <c r="V24" s="290"/>
+      <c r="W24" s="290"/>
+      <c r="X24" s="290"/>
+      <c r="Y24" s="290"/>
+      <c r="Z24" s="290"/>
+      <c r="AA24" s="290"/>
+      <c r="AB24" s="290"/>
+      <c r="AC24" s="290"/>
+      <c r="AD24" s="290"/>
+      <c r="AE24" s="291"/>
+      <c r="AF24" s="286"/>
+      <c r="AG24" s="287"/>
+      <c r="AH24" s="287"/>
+      <c r="AI24" s="288"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="316"/>
-      <c r="C25" s="317"/>
-      <c r="D25" s="318"/>
-      <c r="E25" s="319"/>
-      <c r="F25" s="320"/>
-      <c r="G25" s="316"/>
-      <c r="H25" s="321"/>
-      <c r="I25" s="317"/>
-      <c r="J25" s="322"/>
-      <c r="K25" s="323"/>
-      <c r="L25" s="323"/>
-      <c r="M25" s="323"/>
-      <c r="N25" s="323"/>
-      <c r="O25" s="323"/>
-      <c r="P25" s="324"/>
-      <c r="Q25" s="325"/>
-      <c r="R25" s="326"/>
-      <c r="S25" s="326"/>
-      <c r="T25" s="326"/>
-      <c r="U25" s="326"/>
-      <c r="V25" s="326"/>
-      <c r="W25" s="326"/>
-      <c r="X25" s="326"/>
-      <c r="Y25" s="326"/>
-      <c r="Z25" s="326"/>
-      <c r="AA25" s="326"/>
-      <c r="AB25" s="326"/>
-      <c r="AC25" s="326"/>
-      <c r="AD25" s="326"/>
-      <c r="AE25" s="327"/>
-      <c r="AF25" s="322"/>
-      <c r="AG25" s="323"/>
-      <c r="AH25" s="323"/>
-      <c r="AI25" s="324"/>
+      <c r="B25" s="280"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="282"/>
+      <c r="E25" s="283"/>
+      <c r="F25" s="284"/>
+      <c r="G25" s="280"/>
+      <c r="H25" s="285"/>
+      <c r="I25" s="281"/>
+      <c r="J25" s="286"/>
+      <c r="K25" s="287"/>
+      <c r="L25" s="287"/>
+      <c r="M25" s="287"/>
+      <c r="N25" s="287"/>
+      <c r="O25" s="287"/>
+      <c r="P25" s="288"/>
+      <c r="Q25" s="289"/>
+      <c r="R25" s="290"/>
+      <c r="S25" s="290"/>
+      <c r="T25" s="290"/>
+      <c r="U25" s="290"/>
+      <c r="V25" s="290"/>
+      <c r="W25" s="290"/>
+      <c r="X25" s="290"/>
+      <c r="Y25" s="290"/>
+      <c r="Z25" s="290"/>
+      <c r="AA25" s="290"/>
+      <c r="AB25" s="290"/>
+      <c r="AC25" s="290"/>
+      <c r="AD25" s="290"/>
+      <c r="AE25" s="291"/>
+      <c r="AF25" s="286"/>
+      <c r="AG25" s="287"/>
+      <c r="AH25" s="287"/>
+      <c r="AI25" s="288"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="316"/>
-      <c r="C26" s="317"/>
-      <c r="D26" s="318"/>
-      <c r="E26" s="319"/>
-      <c r="F26" s="320"/>
-      <c r="G26" s="316"/>
-      <c r="H26" s="321"/>
-      <c r="I26" s="317"/>
-      <c r="J26" s="322"/>
-      <c r="K26" s="323"/>
-      <c r="L26" s="323"/>
-      <c r="M26" s="323"/>
-      <c r="N26" s="323"/>
-      <c r="O26" s="323"/>
-      <c r="P26" s="324"/>
-      <c r="Q26" s="325"/>
-      <c r="R26" s="326"/>
-      <c r="S26" s="326"/>
-      <c r="T26" s="326"/>
-      <c r="U26" s="326"/>
-      <c r="V26" s="326"/>
-      <c r="W26" s="326"/>
-      <c r="X26" s="326"/>
-      <c r="Y26" s="326"/>
-      <c r="Z26" s="326"/>
-      <c r="AA26" s="326"/>
-      <c r="AB26" s="326"/>
-      <c r="AC26" s="326"/>
-      <c r="AD26" s="326"/>
-      <c r="AE26" s="327"/>
-      <c r="AF26" s="322"/>
-      <c r="AG26" s="323"/>
-      <c r="AH26" s="323"/>
-      <c r="AI26" s="324"/>
+      <c r="B26" s="280"/>
+      <c r="C26" s="281"/>
+      <c r="D26" s="282"/>
+      <c r="E26" s="283"/>
+      <c r="F26" s="284"/>
+      <c r="G26" s="280"/>
+      <c r="H26" s="285"/>
+      <c r="I26" s="281"/>
+      <c r="J26" s="286"/>
+      <c r="K26" s="287"/>
+      <c r="L26" s="287"/>
+      <c r="M26" s="287"/>
+      <c r="N26" s="287"/>
+      <c r="O26" s="287"/>
+      <c r="P26" s="288"/>
+      <c r="Q26" s="289"/>
+      <c r="R26" s="290"/>
+      <c r="S26" s="290"/>
+      <c r="T26" s="290"/>
+      <c r="U26" s="290"/>
+      <c r="V26" s="290"/>
+      <c r="W26" s="290"/>
+      <c r="X26" s="290"/>
+      <c r="Y26" s="290"/>
+      <c r="Z26" s="290"/>
+      <c r="AA26" s="290"/>
+      <c r="AB26" s="290"/>
+      <c r="AC26" s="290"/>
+      <c r="AD26" s="290"/>
+      <c r="AE26" s="291"/>
+      <c r="AF26" s="286"/>
+      <c r="AG26" s="287"/>
+      <c r="AH26" s="287"/>
+      <c r="AI26" s="288"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="316"/>
-      <c r="C27" s="317"/>
-      <c r="D27" s="318"/>
-      <c r="E27" s="319"/>
-      <c r="F27" s="320"/>
-      <c r="G27" s="316"/>
-      <c r="H27" s="321"/>
-      <c r="I27" s="317"/>
-      <c r="J27" s="322"/>
-      <c r="K27" s="323"/>
-      <c r="L27" s="323"/>
-      <c r="M27" s="323"/>
-      <c r="N27" s="323"/>
-      <c r="O27" s="323"/>
-      <c r="P27" s="324"/>
-      <c r="Q27" s="325"/>
-      <c r="R27" s="326"/>
-      <c r="S27" s="326"/>
-      <c r="T27" s="326"/>
-      <c r="U27" s="326"/>
-      <c r="V27" s="326"/>
-      <c r="W27" s="326"/>
-      <c r="X27" s="326"/>
-      <c r="Y27" s="326"/>
-      <c r="Z27" s="326"/>
-      <c r="AA27" s="326"/>
-      <c r="AB27" s="326"/>
-      <c r="AC27" s="326"/>
-      <c r="AD27" s="326"/>
-      <c r="AE27" s="327"/>
-      <c r="AF27" s="322"/>
-      <c r="AG27" s="323"/>
-      <c r="AH27" s="323"/>
-      <c r="AI27" s="324"/>
+      <c r="B27" s="280"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="282"/>
+      <c r="E27" s="283"/>
+      <c r="F27" s="284"/>
+      <c r="G27" s="280"/>
+      <c r="H27" s="285"/>
+      <c r="I27" s="281"/>
+      <c r="J27" s="286"/>
+      <c r="K27" s="287"/>
+      <c r="L27" s="287"/>
+      <c r="M27" s="287"/>
+      <c r="N27" s="287"/>
+      <c r="O27" s="287"/>
+      <c r="P27" s="288"/>
+      <c r="Q27" s="289"/>
+      <c r="R27" s="290"/>
+      <c r="S27" s="290"/>
+      <c r="T27" s="290"/>
+      <c r="U27" s="290"/>
+      <c r="V27" s="290"/>
+      <c r="W27" s="290"/>
+      <c r="X27" s="290"/>
+      <c r="Y27" s="290"/>
+      <c r="Z27" s="290"/>
+      <c r="AA27" s="290"/>
+      <c r="AB27" s="290"/>
+      <c r="AC27" s="290"/>
+      <c r="AD27" s="290"/>
+      <c r="AE27" s="291"/>
+      <c r="AF27" s="286"/>
+      <c r="AG27" s="287"/>
+      <c r="AH27" s="287"/>
+      <c r="AI27" s="288"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="316"/>
-      <c r="C28" s="317"/>
-      <c r="D28" s="318"/>
-      <c r="E28" s="319"/>
-      <c r="F28" s="320"/>
-      <c r="G28" s="316"/>
-      <c r="H28" s="321"/>
-      <c r="I28" s="317"/>
-      <c r="J28" s="322"/>
-      <c r="K28" s="323"/>
-      <c r="L28" s="323"/>
-      <c r="M28" s="323"/>
-      <c r="N28" s="323"/>
-      <c r="O28" s="323"/>
-      <c r="P28" s="324"/>
-      <c r="Q28" s="325"/>
-      <c r="R28" s="326"/>
-      <c r="S28" s="326"/>
-      <c r="T28" s="326"/>
-      <c r="U28" s="326"/>
-      <c r="V28" s="326"/>
-      <c r="W28" s="326"/>
-      <c r="X28" s="326"/>
-      <c r="Y28" s="326"/>
-      <c r="Z28" s="326"/>
-      <c r="AA28" s="326"/>
-      <c r="AB28" s="326"/>
-      <c r="AC28" s="326"/>
-      <c r="AD28" s="326"/>
-      <c r="AE28" s="327"/>
-      <c r="AF28" s="322"/>
-      <c r="AG28" s="323"/>
-      <c r="AH28" s="323"/>
-      <c r="AI28" s="324"/>
+      <c r="B28" s="280"/>
+      <c r="C28" s="281"/>
+      <c r="D28" s="282"/>
+      <c r="E28" s="283"/>
+      <c r="F28" s="284"/>
+      <c r="G28" s="280"/>
+      <c r="H28" s="285"/>
+      <c r="I28" s="281"/>
+      <c r="J28" s="286"/>
+      <c r="K28" s="287"/>
+      <c r="L28" s="287"/>
+      <c r="M28" s="287"/>
+      <c r="N28" s="287"/>
+      <c r="O28" s="287"/>
+      <c r="P28" s="288"/>
+      <c r="Q28" s="289"/>
+      <c r="R28" s="290"/>
+      <c r="S28" s="290"/>
+      <c r="T28" s="290"/>
+      <c r="U28" s="290"/>
+      <c r="V28" s="290"/>
+      <c r="W28" s="290"/>
+      <c r="X28" s="290"/>
+      <c r="Y28" s="290"/>
+      <c r="Z28" s="290"/>
+      <c r="AA28" s="290"/>
+      <c r="AB28" s="290"/>
+      <c r="AC28" s="290"/>
+      <c r="AD28" s="290"/>
+      <c r="AE28" s="291"/>
+      <c r="AF28" s="286"/>
+      <c r="AG28" s="287"/>
+      <c r="AH28" s="287"/>
+      <c r="AI28" s="288"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="316"/>
-      <c r="C29" s="317"/>
-      <c r="D29" s="318"/>
-      <c r="E29" s="319"/>
-      <c r="F29" s="320"/>
-      <c r="G29" s="316"/>
-      <c r="H29" s="321"/>
-      <c r="I29" s="317"/>
-      <c r="J29" s="322"/>
-      <c r="K29" s="323"/>
-      <c r="L29" s="323"/>
-      <c r="M29" s="323"/>
-      <c r="N29" s="323"/>
-      <c r="O29" s="323"/>
-      <c r="P29" s="324"/>
-      <c r="Q29" s="325"/>
-      <c r="R29" s="326"/>
-      <c r="S29" s="326"/>
-      <c r="T29" s="326"/>
-      <c r="U29" s="326"/>
-      <c r="V29" s="326"/>
-      <c r="W29" s="326"/>
-      <c r="X29" s="326"/>
-      <c r="Y29" s="326"/>
-      <c r="Z29" s="326"/>
-      <c r="AA29" s="326"/>
-      <c r="AB29" s="326"/>
-      <c r="AC29" s="326"/>
-      <c r="AD29" s="326"/>
-      <c r="AE29" s="327"/>
-      <c r="AF29" s="322"/>
-      <c r="AG29" s="323"/>
-      <c r="AH29" s="323"/>
-      <c r="AI29" s="324"/>
+      <c r="B29" s="280"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="282"/>
+      <c r="E29" s="283"/>
+      <c r="F29" s="284"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="285"/>
+      <c r="I29" s="281"/>
+      <c r="J29" s="286"/>
+      <c r="K29" s="287"/>
+      <c r="L29" s="287"/>
+      <c r="M29" s="287"/>
+      <c r="N29" s="287"/>
+      <c r="O29" s="287"/>
+      <c r="P29" s="288"/>
+      <c r="Q29" s="289"/>
+      <c r="R29" s="290"/>
+      <c r="S29" s="290"/>
+      <c r="T29" s="290"/>
+      <c r="U29" s="290"/>
+      <c r="V29" s="290"/>
+      <c r="W29" s="290"/>
+      <c r="X29" s="290"/>
+      <c r="Y29" s="290"/>
+      <c r="Z29" s="290"/>
+      <c r="AA29" s="290"/>
+      <c r="AB29" s="290"/>
+      <c r="AC29" s="290"/>
+      <c r="AD29" s="290"/>
+      <c r="AE29" s="291"/>
+      <c r="AF29" s="286"/>
+      <c r="AG29" s="287"/>
+      <c r="AH29" s="287"/>
+      <c r="AI29" s="288"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="316"/>
-      <c r="C30" s="317"/>
-      <c r="D30" s="318"/>
-      <c r="E30" s="319"/>
-      <c r="F30" s="320"/>
-      <c r="G30" s="316"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="317"/>
-      <c r="J30" s="322"/>
-      <c r="K30" s="323"/>
-      <c r="L30" s="323"/>
-      <c r="M30" s="323"/>
-      <c r="N30" s="323"/>
-      <c r="O30" s="323"/>
-      <c r="P30" s="324"/>
-      <c r="Q30" s="325"/>
-      <c r="R30" s="326"/>
-      <c r="S30" s="326"/>
-      <c r="T30" s="326"/>
-      <c r="U30" s="326"/>
-      <c r="V30" s="326"/>
-      <c r="W30" s="326"/>
-      <c r="X30" s="326"/>
-      <c r="Y30" s="326"/>
-      <c r="Z30" s="326"/>
-      <c r="AA30" s="326"/>
-      <c r="AB30" s="326"/>
-      <c r="AC30" s="326"/>
-      <c r="AD30" s="326"/>
-      <c r="AE30" s="327"/>
-      <c r="AF30" s="322"/>
-      <c r="AG30" s="323"/>
-      <c r="AH30" s="323"/>
-      <c r="AI30" s="324"/>
+      <c r="B30" s="280"/>
+      <c r="C30" s="281"/>
+      <c r="D30" s="282"/>
+      <c r="E30" s="283"/>
+      <c r="F30" s="284"/>
+      <c r="G30" s="280"/>
+      <c r="H30" s="285"/>
+      <c r="I30" s="281"/>
+      <c r="J30" s="286"/>
+      <c r="K30" s="287"/>
+      <c r="L30" s="287"/>
+      <c r="M30" s="287"/>
+      <c r="N30" s="287"/>
+      <c r="O30" s="287"/>
+      <c r="P30" s="288"/>
+      <c r="Q30" s="289"/>
+      <c r="R30" s="290"/>
+      <c r="S30" s="290"/>
+      <c r="T30" s="290"/>
+      <c r="U30" s="290"/>
+      <c r="V30" s="290"/>
+      <c r="W30" s="290"/>
+      <c r="X30" s="290"/>
+      <c r="Y30" s="290"/>
+      <c r="Z30" s="290"/>
+      <c r="AA30" s="290"/>
+      <c r="AB30" s="290"/>
+      <c r="AC30" s="290"/>
+      <c r="AD30" s="290"/>
+      <c r="AE30" s="291"/>
+      <c r="AF30" s="286"/>
+      <c r="AG30" s="287"/>
+      <c r="AH30" s="287"/>
+      <c r="AI30" s="288"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="316"/>
-      <c r="C31" s="317"/>
-      <c r="D31" s="318"/>
-      <c r="E31" s="319"/>
-      <c r="F31" s="320"/>
-      <c r="G31" s="316"/>
-      <c r="H31" s="321"/>
-      <c r="I31" s="317"/>
-      <c r="J31" s="322"/>
-      <c r="K31" s="323"/>
-      <c r="L31" s="323"/>
-      <c r="M31" s="323"/>
-      <c r="N31" s="323"/>
-      <c r="O31" s="323"/>
-      <c r="P31" s="324"/>
-      <c r="Q31" s="325"/>
-      <c r="R31" s="326"/>
-      <c r="S31" s="326"/>
-      <c r="T31" s="326"/>
-      <c r="U31" s="326"/>
-      <c r="V31" s="326"/>
-      <c r="W31" s="326"/>
-      <c r="X31" s="326"/>
-      <c r="Y31" s="326"/>
-      <c r="Z31" s="326"/>
-      <c r="AA31" s="326"/>
-      <c r="AB31" s="326"/>
-      <c r="AC31" s="326"/>
-      <c r="AD31" s="326"/>
-      <c r="AE31" s="327"/>
-      <c r="AF31" s="322"/>
-      <c r="AG31" s="323"/>
-      <c r="AH31" s="323"/>
-      <c r="AI31" s="324"/>
+      <c r="B31" s="280"/>
+      <c r="C31" s="281"/>
+      <c r="D31" s="282"/>
+      <c r="E31" s="283"/>
+      <c r="F31" s="284"/>
+      <c r="G31" s="280"/>
+      <c r="H31" s="285"/>
+      <c r="I31" s="281"/>
+      <c r="J31" s="286"/>
+      <c r="K31" s="287"/>
+      <c r="L31" s="287"/>
+      <c r="M31" s="287"/>
+      <c r="N31" s="287"/>
+      <c r="O31" s="287"/>
+      <c r="P31" s="288"/>
+      <c r="Q31" s="289"/>
+      <c r="R31" s="290"/>
+      <c r="S31" s="290"/>
+      <c r="T31" s="290"/>
+      <c r="U31" s="290"/>
+      <c r="V31" s="290"/>
+      <c r="W31" s="290"/>
+      <c r="X31" s="290"/>
+      <c r="Y31" s="290"/>
+      <c r="Z31" s="290"/>
+      <c r="AA31" s="290"/>
+      <c r="AB31" s="290"/>
+      <c r="AC31" s="290"/>
+      <c r="AD31" s="290"/>
+      <c r="AE31" s="291"/>
+      <c r="AF31" s="286"/>
+      <c r="AG31" s="287"/>
+      <c r="AH31" s="287"/>
+      <c r="AI31" s="288"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="316"/>
-      <c r="C32" s="317"/>
-      <c r="D32" s="318"/>
-      <c r="E32" s="319"/>
-      <c r="F32" s="320"/>
-      <c r="G32" s="316"/>
-      <c r="H32" s="321"/>
-      <c r="I32" s="317"/>
-      <c r="J32" s="322"/>
-      <c r="K32" s="341"/>
-      <c r="L32" s="323"/>
-      <c r="M32" s="323"/>
-      <c r="N32" s="323"/>
-      <c r="O32" s="323"/>
-      <c r="P32" s="324"/>
-      <c r="Q32" s="325"/>
-      <c r="R32" s="326"/>
-      <c r="S32" s="326"/>
-      <c r="T32" s="326"/>
-      <c r="U32" s="326"/>
-      <c r="V32" s="326"/>
-      <c r="W32" s="326"/>
-      <c r="X32" s="326"/>
-      <c r="Y32" s="326"/>
-      <c r="Z32" s="326"/>
-      <c r="AA32" s="326"/>
-      <c r="AB32" s="326"/>
-      <c r="AC32" s="326"/>
-      <c r="AD32" s="326"/>
-      <c r="AE32" s="327"/>
-      <c r="AF32" s="322"/>
-      <c r="AG32" s="323"/>
-      <c r="AH32" s="323"/>
-      <c r="AI32" s="324"/>
+      <c r="B32" s="280"/>
+      <c r="C32" s="281"/>
+      <c r="D32" s="282"/>
+      <c r="E32" s="283"/>
+      <c r="F32" s="284"/>
+      <c r="G32" s="280"/>
+      <c r="H32" s="285"/>
+      <c r="I32" s="281"/>
+      <c r="J32" s="286"/>
+      <c r="K32" s="292"/>
+      <c r="L32" s="287"/>
+      <c r="M32" s="287"/>
+      <c r="N32" s="287"/>
+      <c r="O32" s="287"/>
+      <c r="P32" s="288"/>
+      <c r="Q32" s="289"/>
+      <c r="R32" s="290"/>
+      <c r="S32" s="290"/>
+      <c r="T32" s="290"/>
+      <c r="U32" s="290"/>
+      <c r="V32" s="290"/>
+      <c r="W32" s="290"/>
+      <c r="X32" s="290"/>
+      <c r="Y32" s="290"/>
+      <c r="Z32" s="290"/>
+      <c r="AA32" s="290"/>
+      <c r="AB32" s="290"/>
+      <c r="AC32" s="290"/>
+      <c r="AD32" s="290"/>
+      <c r="AE32" s="291"/>
+      <c r="AF32" s="286"/>
+      <c r="AG32" s="287"/>
+      <c r="AH32" s="287"/>
+      <c r="AI32" s="288"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="316"/>
-      <c r="C33" s="317"/>
-      <c r="D33" s="318"/>
-      <c r="E33" s="319"/>
-      <c r="F33" s="320"/>
-      <c r="G33" s="316"/>
-      <c r="H33" s="321"/>
-      <c r="I33" s="317"/>
-      <c r="J33" s="322"/>
-      <c r="K33" s="323"/>
-      <c r="L33" s="323"/>
-      <c r="M33" s="323"/>
-      <c r="N33" s="323"/>
-      <c r="O33" s="323"/>
-      <c r="P33" s="324"/>
-      <c r="Q33" s="325"/>
-      <c r="R33" s="326"/>
-      <c r="S33" s="326"/>
-      <c r="T33" s="326"/>
-      <c r="U33" s="326"/>
-      <c r="V33" s="326"/>
-      <c r="W33" s="326"/>
-      <c r="X33" s="326"/>
-      <c r="Y33" s="326"/>
-      <c r="Z33" s="326"/>
-      <c r="AA33" s="326"/>
-      <c r="AB33" s="326"/>
-      <c r="AC33" s="326"/>
-      <c r="AD33" s="326"/>
-      <c r="AE33" s="327"/>
-      <c r="AF33" s="322"/>
-      <c r="AG33" s="323"/>
-      <c r="AH33" s="323"/>
-      <c r="AI33" s="324"/>
+      <c r="B33" s="280"/>
+      <c r="C33" s="281"/>
+      <c r="D33" s="282"/>
+      <c r="E33" s="283"/>
+      <c r="F33" s="284"/>
+      <c r="G33" s="280"/>
+      <c r="H33" s="285"/>
+      <c r="I33" s="281"/>
+      <c r="J33" s="286"/>
+      <c r="K33" s="287"/>
+      <c r="L33" s="287"/>
+      <c r="M33" s="287"/>
+      <c r="N33" s="287"/>
+      <c r="O33" s="287"/>
+      <c r="P33" s="288"/>
+      <c r="Q33" s="289"/>
+      <c r="R33" s="290"/>
+      <c r="S33" s="290"/>
+      <c r="T33" s="290"/>
+      <c r="U33" s="290"/>
+      <c r="V33" s="290"/>
+      <c r="W33" s="290"/>
+      <c r="X33" s="290"/>
+      <c r="Y33" s="290"/>
+      <c r="Z33" s="290"/>
+      <c r="AA33" s="290"/>
+      <c r="AB33" s="290"/>
+      <c r="AC33" s="290"/>
+      <c r="AD33" s="290"/>
+      <c r="AE33" s="291"/>
+      <c r="AF33" s="286"/>
+      <c r="AG33" s="287"/>
+      <c r="AH33" s="287"/>
+      <c r="AI33" s="288"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13303,6 +13141,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -17281,7 +17275,7 @@
         <v>206</v>
       </c>
       <c r="G119" s="194" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H119" s="194"/>
       <c r="I119" s="194"/>
@@ -18909,7 +18903,7 @@
         <v>269</v>
       </c>
       <c r="G167" s="194" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H167" s="194"/>
       <c r="I167" s="194"/>
@@ -25899,7 +25893,7 @@
         <v>145</v>
       </c>
       <c r="G77" s="143" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H77" s="144"/>
       <c r="I77" s="144"/>
@@ -33703,7 +33697,7 @@
       <c r="Q295" s="112"/>
       <c r="R295" s="112"/>
     </row>
-    <row r="296" spans="1:18" s="34" customFormat="1">
+    <row r="296" spans="1:18" s="34" customFormat="1" ht="22.5">
       <c r="A296" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E296),
@@ -33731,12 +33725,12 @@
       <c r="F296" s="142" t="s">
         <v>419</v>
       </c>
-      <c r="G296" s="117"/>
+      <c r="G296" s="117" t="s">
+        <v>663</v>
+      </c>
       <c r="H296" s="117"/>
       <c r="I296" s="117"/>
-      <c r="J296" s="117" t="s">
-        <v>657</v>
-      </c>
+      <c r="J296" s="117"/>
       <c r="K296" s="188"/>
       <c r="L296" s="144"/>
       <c r="M296" s="144"/>
@@ -33746,7 +33740,7 @@
       <c r="Q296" s="117"/>
       <c r="R296" s="117"/>
     </row>
-    <row r="297" spans="1:18" s="34" customFormat="1">
+    <row r="297" spans="1:18" s="34" customFormat="1" ht="22.5">
       <c r="A297" s="56" t="str" cm="1">
         <f t="array" aca="1" ref="A297" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E297),
@@ -33766,12 +33760,12 @@
       <c r="F297" s="142" t="s">
         <v>420</v>
       </c>
-      <c r="G297" s="117"/>
+      <c r="G297" s="117" t="s">
+        <v>663</v>
+      </c>
       <c r="H297" s="117"/>
       <c r="I297" s="117"/>
-      <c r="J297" s="117" t="s">
-        <v>657</v>
-      </c>
+      <c r="J297" s="117"/>
       <c r="K297" s="188"/>
       <c r="L297" s="144"/>
       <c r="M297" s="144"/>
@@ -35414,7 +35408,7 @@
         <v>473</v>
       </c>
       <c r="G346" s="143" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H346" s="144"/>
       <c r="I346" s="144"/>
@@ -36426,7 +36420,7 @@
         <v>528</v>
       </c>
       <c r="G376" s="263" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H376" s="123"/>
       <c r="I376" s="123"/>
@@ -36891,7 +36885,7 @@
       </c>
       <c r="E13" s="268"/>
       <c r="F13" s="144" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G13" s="123" t="s">
         <v>581</v>
@@ -36973,7 +36967,7 @@
         <v>593</v>
       </c>
       <c r="F16" s="144" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G16" s="123" t="s">
         <v>581</v>
@@ -37001,7 +36995,7 @@
         <v>594</v>
       </c>
       <c r="F17" s="144" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G17" s="123" t="s">
         <v>581</v>
@@ -37029,7 +37023,7 @@
         <v>595</v>
       </c>
       <c r="F18" s="144" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G18" s="123" t="s">
         <v>581</v>
@@ -37059,7 +37053,7 @@
         <v>598</v>
       </c>
       <c r="F19" s="144" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G19" s="123" t="s">
         <v>581</v>
@@ -37089,7 +37083,7 @@
         <v>601</v>
       </c>
       <c r="F20" s="144" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G20" s="123" t="s">
         <v>581</v>
@@ -37117,7 +37111,7 @@
       </c>
       <c r="E21" s="345"/>
       <c r="F21" s="144" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G21" s="123" t="s">
         <v>581</v>
@@ -37147,7 +37141,7 @@
       </c>
       <c r="E22" s="268"/>
       <c r="F22" s="144" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G22" s="123" t="s">
         <v>581</v>
@@ -37175,7 +37169,7 @@
       </c>
       <c r="E23" s="268"/>
       <c r="F23" s="144" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G23" s="123" t="s">
         <v>581</v>
@@ -37201,7 +37195,7 @@
         <v>635</v>
       </c>
       <c r="D24" s="151" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E24" s="136" t="s">
         <v>636</v>
@@ -37255,7 +37249,7 @@
       <c r="B26" s="67"/>
       <c r="C26" s="153"/>
       <c r="D26" s="151" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E26" s="136" t="s">
         <v>636</v>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6351E9-993C-4309-909B-94BE2C5EC8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB6C8D9-8D7E-4CEF-8A37-A0E8124C81DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8311,16 +8311,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面遷移パターン(※1)</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>5-2-2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -8495,6 +8485,16 @@
   </si>
   <si>
     <t>サイズ固定とはしないので対象外</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面遷移パターン</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -10171,84 +10171,6 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -10355,6 +10277,84 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11905,57 +11905,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="286" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="315" t="s">
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="289" t="s">
         <v>572</v>
       </c>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
-      <c r="J1" s="316"/>
-      <c r="K1" s="316"/>
-      <c r="L1" s="316"/>
-      <c r="M1" s="316"/>
-      <c r="N1" s="317"/>
-      <c r="O1" s="321" t="s">
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="322"/>
-      <c r="Q1" s="322"/>
-      <c r="R1" s="323"/>
-      <c r="S1" s="330" t="s">
-        <v>656</v>
-      </c>
-      <c r="T1" s="331"/>
-      <c r="U1" s="331"/>
-      <c r="V1" s="331"/>
-      <c r="W1" s="331"/>
-      <c r="X1" s="331"/>
-      <c r="Y1" s="331"/>
-      <c r="Z1" s="332"/>
-      <c r="AA1" s="312" t="s">
+      <c r="P1" s="296"/>
+      <c r="Q1" s="296"/>
+      <c r="R1" s="297"/>
+      <c r="S1" s="304" t="s">
+        <v>655</v>
+      </c>
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="286" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="314"/>
-      <c r="AC1" s="339" t="str">
+      <c r="AB1" s="288"/>
+      <c r="AC1" s="313" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="340"/>
-      <c r="AE1" s="340"/>
-      <c r="AF1" s="341"/>
-      <c r="AG1" s="306">
+      <c r="AD1" s="314"/>
+      <c r="AE1" s="314"/>
+      <c r="AF1" s="315"/>
+      <c r="AG1" s="280">
         <f>IF(D8="","",D8)</f>
         <v>44792</v>
       </c>
-      <c r="AH1" s="307"/>
-      <c r="AI1" s="308"/>
+      <c r="AH1" s="281"/>
+      <c r="AI1" s="282"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11963,53 +11963,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="286" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="315" t="s">
-        <v>654</v>
-      </c>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
-      <c r="M2" s="316"/>
-      <c r="N2" s="317"/>
-      <c r="O2" s="324"/>
-      <c r="P2" s="325"/>
-      <c r="Q2" s="325"/>
-      <c r="R2" s="326"/>
-      <c r="S2" s="333"/>
-      <c r="T2" s="334"/>
-      <c r="U2" s="334"/>
-      <c r="V2" s="334"/>
-      <c r="W2" s="334"/>
-      <c r="X2" s="334"/>
-      <c r="Y2" s="334"/>
-      <c r="Z2" s="335"/>
-      <c r="AA2" s="312" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="289" t="s">
+        <v>653</v>
+      </c>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="290"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="298"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="299"/>
+      <c r="R2" s="300"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="314"/>
-      <c r="AC2" s="318" t="str">
+      <c r="AB2" s="288"/>
+      <c r="AC2" s="292" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="319"/>
-      <c r="AE2" s="319"/>
-      <c r="AF2" s="320"/>
-      <c r="AG2" s="306" t="str">
+      <c r="AD2" s="293"/>
+      <c r="AE2" s="293"/>
+      <c r="AF2" s="294"/>
+      <c r="AG2" s="280" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="307"/>
-      <c r="AI2" s="308"/>
+      <c r="AH2" s="281"/>
+      <c r="AI2" s="282"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12017,45 +12017,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="312" t="s">
+      <c r="A3" s="286" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="315" t="s">
-        <v>655</v>
-      </c>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
-      <c r="M3" s="316"/>
-      <c r="N3" s="317"/>
-      <c r="O3" s="327"/>
-      <c r="P3" s="328"/>
-      <c r="Q3" s="328"/>
-      <c r="R3" s="329"/>
-      <c r="S3" s="336"/>
-      <c r="T3" s="337"/>
-      <c r="U3" s="337"/>
-      <c r="V3" s="337"/>
-      <c r="W3" s="337"/>
-      <c r="X3" s="337"/>
-      <c r="Y3" s="337"/>
-      <c r="Z3" s="338"/>
-      <c r="AA3" s="312"/>
-      <c r="AB3" s="314"/>
-      <c r="AC3" s="339"/>
-      <c r="AD3" s="340"/>
-      <c r="AE3" s="340"/>
-      <c r="AF3" s="341"/>
-      <c r="AG3" s="306"/>
-      <c r="AH3" s="307"/>
-      <c r="AI3" s="308"/>
+      <c r="B3" s="287"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="289" t="s">
+        <v>654</v>
+      </c>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="290"/>
+      <c r="N3" s="291"/>
+      <c r="O3" s="301"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
+      <c r="R3" s="303"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="286"/>
+      <c r="AB3" s="288"/>
+      <c r="AC3" s="313"/>
+      <c r="AD3" s="314"/>
+      <c r="AE3" s="314"/>
+      <c r="AF3" s="315"/>
+      <c r="AG3" s="280"/>
+      <c r="AH3" s="281"/>
+      <c r="AI3" s="282"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12092,1032 +12092,1188 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="309" t="s">
+      <c r="B7" s="283" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="310"/>
-      <c r="D7" s="309" t="s">
+      <c r="C7" s="284"/>
+      <c r="D7" s="283" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="311"/>
-      <c r="F7" s="310"/>
-      <c r="G7" s="309" t="s">
+      <c r="E7" s="285"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="283" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="311"/>
-      <c r="I7" s="310"/>
-      <c r="J7" s="309" t="s">
+      <c r="H7" s="285"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="283" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="311"/>
-      <c r="L7" s="311"/>
-      <c r="M7" s="311"/>
-      <c r="N7" s="311"/>
-      <c r="O7" s="311"/>
-      <c r="P7" s="310"/>
-      <c r="Q7" s="309" t="s">
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
+      <c r="M7" s="285"/>
+      <c r="N7" s="285"/>
+      <c r="O7" s="285"/>
+      <c r="P7" s="284"/>
+      <c r="Q7" s="283" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="311"/>
-      <c r="S7" s="311"/>
-      <c r="T7" s="311"/>
-      <c r="U7" s="311"/>
-      <c r="V7" s="311"/>
-      <c r="W7" s="311"/>
-      <c r="X7" s="311"/>
-      <c r="Y7" s="311"/>
-      <c r="Z7" s="311"/>
-      <c r="AA7" s="311"/>
-      <c r="AB7" s="311"/>
-      <c r="AC7" s="311"/>
-      <c r="AD7" s="311"/>
-      <c r="AE7" s="310"/>
-      <c r="AF7" s="309" t="s">
+      <c r="R7" s="285"/>
+      <c r="S7" s="285"/>
+      <c r="T7" s="285"/>
+      <c r="U7" s="285"/>
+      <c r="V7" s="285"/>
+      <c r="W7" s="285"/>
+      <c r="X7" s="285"/>
+      <c r="Y7" s="285"/>
+      <c r="Z7" s="285"/>
+      <c r="AA7" s="285"/>
+      <c r="AB7" s="285"/>
+      <c r="AC7" s="285"/>
+      <c r="AD7" s="285"/>
+      <c r="AE7" s="284"/>
+      <c r="AF7" s="283" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="311"/>
-      <c r="AH7" s="311"/>
-      <c r="AI7" s="310"/>
+      <c r="AG7" s="285"/>
+      <c r="AH7" s="285"/>
+      <c r="AI7" s="284"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="293" t="s">
+      <c r="B8" s="328" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="294"/>
-      <c r="D8" s="295">
+      <c r="C8" s="329"/>
+      <c r="D8" s="330">
         <v>44792</v>
       </c>
-      <c r="E8" s="296"/>
-      <c r="F8" s="297"/>
-      <c r="G8" s="298" t="s">
+      <c r="E8" s="331"/>
+      <c r="F8" s="332"/>
+      <c r="G8" s="333" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="299"/>
-      <c r="I8" s="294"/>
-      <c r="J8" s="300"/>
-      <c r="K8" s="301"/>
-      <c r="L8" s="301"/>
-      <c r="M8" s="301"/>
-      <c r="N8" s="301"/>
-      <c r="O8" s="301"/>
-      <c r="P8" s="302"/>
-      <c r="Q8" s="303" t="s">
+      <c r="H8" s="334"/>
+      <c r="I8" s="329"/>
+      <c r="J8" s="335"/>
+      <c r="K8" s="336"/>
+      <c r="L8" s="336"/>
+      <c r="M8" s="336"/>
+      <c r="N8" s="336"/>
+      <c r="O8" s="336"/>
+      <c r="P8" s="337"/>
+      <c r="Q8" s="338" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="304"/>
-      <c r="S8" s="304"/>
-      <c r="T8" s="304"/>
-      <c r="U8" s="304"/>
-      <c r="V8" s="304"/>
-      <c r="W8" s="304"/>
-      <c r="X8" s="304"/>
-      <c r="Y8" s="304"/>
-      <c r="Z8" s="304"/>
-      <c r="AA8" s="304"/>
-      <c r="AB8" s="304"/>
-      <c r="AC8" s="304"/>
-      <c r="AD8" s="304"/>
-      <c r="AE8" s="305"/>
-      <c r="AF8" s="300" t="s">
+      <c r="R8" s="339"/>
+      <c r="S8" s="339"/>
+      <c r="T8" s="339"/>
+      <c r="U8" s="339"/>
+      <c r="V8" s="339"/>
+      <c r="W8" s="339"/>
+      <c r="X8" s="339"/>
+      <c r="Y8" s="339"/>
+      <c r="Z8" s="339"/>
+      <c r="AA8" s="339"/>
+      <c r="AB8" s="339"/>
+      <c r="AC8" s="339"/>
+      <c r="AD8" s="339"/>
+      <c r="AE8" s="340"/>
+      <c r="AF8" s="335" t="s">
         <v>39</v>
       </c>
-      <c r="AG8" s="301"/>
-      <c r="AH8" s="301"/>
-      <c r="AI8" s="302"/>
+      <c r="AG8" s="336"/>
+      <c r="AH8" s="336"/>
+      <c r="AI8" s="337"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="280"/>
-      <c r="C9" s="281"/>
-      <c r="D9" s="282"/>
-      <c r="E9" s="283"/>
-      <c r="F9" s="284"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="285"/>
-      <c r="I9" s="281"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="287"/>
-      <c r="L9" s="287"/>
-      <c r="M9" s="287"/>
-      <c r="N9" s="287"/>
-      <c r="O9" s="287"/>
-      <c r="P9" s="288"/>
-      <c r="Q9" s="289"/>
-      <c r="R9" s="290"/>
-      <c r="S9" s="290"/>
-      <c r="T9" s="290"/>
-      <c r="U9" s="290"/>
-      <c r="V9" s="290"/>
-      <c r="W9" s="290"/>
-      <c r="X9" s="290"/>
-      <c r="Y9" s="290"/>
-      <c r="Z9" s="290"/>
-      <c r="AA9" s="290"/>
-      <c r="AB9" s="290"/>
-      <c r="AC9" s="290"/>
-      <c r="AD9" s="290"/>
-      <c r="AE9" s="291"/>
-      <c r="AF9" s="286"/>
-      <c r="AG9" s="287"/>
-      <c r="AH9" s="287"/>
-      <c r="AI9" s="288"/>
+      <c r="B9" s="316"/>
+      <c r="C9" s="317"/>
+      <c r="D9" s="318"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="318"/>
+      <c r="H9" s="321"/>
+      <c r="I9" s="317"/>
+      <c r="J9" s="322"/>
+      <c r="K9" s="323"/>
+      <c r="L9" s="323"/>
+      <c r="M9" s="323"/>
+      <c r="N9" s="323"/>
+      <c r="O9" s="323"/>
+      <c r="P9" s="324"/>
+      <c r="Q9" s="325"/>
+      <c r="R9" s="326"/>
+      <c r="S9" s="326"/>
+      <c r="T9" s="326"/>
+      <c r="U9" s="326"/>
+      <c r="V9" s="326"/>
+      <c r="W9" s="326"/>
+      <c r="X9" s="326"/>
+      <c r="Y9" s="326"/>
+      <c r="Z9" s="326"/>
+      <c r="AA9" s="326"/>
+      <c r="AB9" s="326"/>
+      <c r="AC9" s="326"/>
+      <c r="AD9" s="326"/>
+      <c r="AE9" s="327"/>
+      <c r="AF9" s="322"/>
+      <c r="AG9" s="323"/>
+      <c r="AH9" s="323"/>
+      <c r="AI9" s="324"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="280"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="283"/>
-      <c r="F10" s="284"/>
-      <c r="G10" s="280"/>
-      <c r="H10" s="285"/>
-      <c r="I10" s="281"/>
-      <c r="J10" s="286"/>
-      <c r="K10" s="287"/>
-      <c r="L10" s="287"/>
-      <c r="M10" s="287"/>
-      <c r="N10" s="287"/>
-      <c r="O10" s="287"/>
-      <c r="P10" s="288"/>
-      <c r="Q10" s="289"/>
-      <c r="R10" s="290"/>
-      <c r="S10" s="290"/>
-      <c r="T10" s="290"/>
-      <c r="U10" s="290"/>
-      <c r="V10" s="290"/>
-      <c r="W10" s="290"/>
-      <c r="X10" s="290"/>
-      <c r="Y10" s="290"/>
-      <c r="Z10" s="290"/>
-      <c r="AA10" s="290"/>
-      <c r="AB10" s="290"/>
-      <c r="AC10" s="290"/>
-      <c r="AD10" s="290"/>
-      <c r="AE10" s="291"/>
-      <c r="AF10" s="286"/>
-      <c r="AG10" s="287"/>
-      <c r="AH10" s="287"/>
-      <c r="AI10" s="288"/>
+      <c r="B10" s="316"/>
+      <c r="C10" s="317"/>
+      <c r="D10" s="318"/>
+      <c r="E10" s="319"/>
+      <c r="F10" s="320"/>
+      <c r="G10" s="316"/>
+      <c r="H10" s="321"/>
+      <c r="I10" s="317"/>
+      <c r="J10" s="322"/>
+      <c r="K10" s="323"/>
+      <c r="L10" s="323"/>
+      <c r="M10" s="323"/>
+      <c r="N10" s="323"/>
+      <c r="O10" s="323"/>
+      <c r="P10" s="324"/>
+      <c r="Q10" s="325"/>
+      <c r="R10" s="326"/>
+      <c r="S10" s="326"/>
+      <c r="T10" s="326"/>
+      <c r="U10" s="326"/>
+      <c r="V10" s="326"/>
+      <c r="W10" s="326"/>
+      <c r="X10" s="326"/>
+      <c r="Y10" s="326"/>
+      <c r="Z10" s="326"/>
+      <c r="AA10" s="326"/>
+      <c r="AB10" s="326"/>
+      <c r="AC10" s="326"/>
+      <c r="AD10" s="326"/>
+      <c r="AE10" s="327"/>
+      <c r="AF10" s="322"/>
+      <c r="AG10" s="323"/>
+      <c r="AH10" s="323"/>
+      <c r="AI10" s="324"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="280"/>
-      <c r="C11" s="281"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="283"/>
-      <c r="F11" s="284"/>
-      <c r="G11" s="280"/>
-      <c r="H11" s="285"/>
-      <c r="I11" s="281"/>
-      <c r="J11" s="286"/>
-      <c r="K11" s="287"/>
-      <c r="L11" s="287"/>
-      <c r="M11" s="287"/>
-      <c r="N11" s="287"/>
-      <c r="O11" s="287"/>
-      <c r="P11" s="288"/>
-      <c r="Q11" s="289"/>
-      <c r="R11" s="290"/>
-      <c r="S11" s="290"/>
-      <c r="T11" s="290"/>
-      <c r="U11" s="290"/>
-      <c r="V11" s="290"/>
-      <c r="W11" s="290"/>
-      <c r="X11" s="290"/>
-      <c r="Y11" s="290"/>
-      <c r="Z11" s="290"/>
-      <c r="AA11" s="290"/>
-      <c r="AB11" s="290"/>
-      <c r="AC11" s="290"/>
-      <c r="AD11" s="290"/>
-      <c r="AE11" s="291"/>
-      <c r="AF11" s="286"/>
-      <c r="AG11" s="287"/>
-      <c r="AH11" s="287"/>
-      <c r="AI11" s="288"/>
+      <c r="B11" s="316"/>
+      <c r="C11" s="317"/>
+      <c r="D11" s="318"/>
+      <c r="E11" s="319"/>
+      <c r="F11" s="320"/>
+      <c r="G11" s="316"/>
+      <c r="H11" s="321"/>
+      <c r="I11" s="317"/>
+      <c r="J11" s="322"/>
+      <c r="K11" s="323"/>
+      <c r="L11" s="323"/>
+      <c r="M11" s="323"/>
+      <c r="N11" s="323"/>
+      <c r="O11" s="323"/>
+      <c r="P11" s="324"/>
+      <c r="Q11" s="325"/>
+      <c r="R11" s="326"/>
+      <c r="S11" s="326"/>
+      <c r="T11" s="326"/>
+      <c r="U11" s="326"/>
+      <c r="V11" s="326"/>
+      <c r="W11" s="326"/>
+      <c r="X11" s="326"/>
+      <c r="Y11" s="326"/>
+      <c r="Z11" s="326"/>
+      <c r="AA11" s="326"/>
+      <c r="AB11" s="326"/>
+      <c r="AC11" s="326"/>
+      <c r="AD11" s="326"/>
+      <c r="AE11" s="327"/>
+      <c r="AF11" s="322"/>
+      <c r="AG11" s="323"/>
+      <c r="AH11" s="323"/>
+      <c r="AI11" s="324"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="280"/>
-      <c r="C12" s="281"/>
-      <c r="D12" s="282"/>
-      <c r="E12" s="283"/>
-      <c r="F12" s="284"/>
-      <c r="G12" s="280"/>
-      <c r="H12" s="285"/>
-      <c r="I12" s="281"/>
-      <c r="J12" s="286"/>
-      <c r="K12" s="287"/>
-      <c r="L12" s="287"/>
-      <c r="M12" s="287"/>
-      <c r="N12" s="287"/>
-      <c r="O12" s="287"/>
-      <c r="P12" s="288"/>
-      <c r="Q12" s="289"/>
-      <c r="R12" s="290"/>
-      <c r="S12" s="290"/>
-      <c r="T12" s="290"/>
-      <c r="U12" s="290"/>
-      <c r="V12" s="290"/>
-      <c r="W12" s="290"/>
-      <c r="X12" s="290"/>
-      <c r="Y12" s="290"/>
-      <c r="Z12" s="290"/>
-      <c r="AA12" s="290"/>
-      <c r="AB12" s="290"/>
-      <c r="AC12" s="290"/>
-      <c r="AD12" s="290"/>
-      <c r="AE12" s="291"/>
-      <c r="AF12" s="286"/>
-      <c r="AG12" s="287"/>
-      <c r="AH12" s="287"/>
-      <c r="AI12" s="288"/>
+      <c r="B12" s="316"/>
+      <c r="C12" s="317"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="320"/>
+      <c r="G12" s="316"/>
+      <c r="H12" s="321"/>
+      <c r="I12" s="317"/>
+      <c r="J12" s="322"/>
+      <c r="K12" s="323"/>
+      <c r="L12" s="323"/>
+      <c r="M12" s="323"/>
+      <c r="N12" s="323"/>
+      <c r="O12" s="323"/>
+      <c r="P12" s="324"/>
+      <c r="Q12" s="325"/>
+      <c r="R12" s="326"/>
+      <c r="S12" s="326"/>
+      <c r="T12" s="326"/>
+      <c r="U12" s="326"/>
+      <c r="V12" s="326"/>
+      <c r="W12" s="326"/>
+      <c r="X12" s="326"/>
+      <c r="Y12" s="326"/>
+      <c r="Z12" s="326"/>
+      <c r="AA12" s="326"/>
+      <c r="AB12" s="326"/>
+      <c r="AC12" s="326"/>
+      <c r="AD12" s="326"/>
+      <c r="AE12" s="327"/>
+      <c r="AF12" s="322"/>
+      <c r="AG12" s="323"/>
+      <c r="AH12" s="323"/>
+      <c r="AI12" s="324"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="280"/>
-      <c r="C13" s="281"/>
-      <c r="D13" s="282"/>
-      <c r="E13" s="283"/>
-      <c r="F13" s="284"/>
-      <c r="G13" s="280"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="281"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="287"/>
-      <c r="M13" s="287"/>
-      <c r="N13" s="287"/>
-      <c r="O13" s="287"/>
-      <c r="P13" s="288"/>
-      <c r="Q13" s="289"/>
-      <c r="R13" s="290"/>
-      <c r="S13" s="290"/>
-      <c r="T13" s="290"/>
-      <c r="U13" s="290"/>
-      <c r="V13" s="290"/>
-      <c r="W13" s="290"/>
-      <c r="X13" s="290"/>
-      <c r="Y13" s="290"/>
-      <c r="Z13" s="290"/>
-      <c r="AA13" s="290"/>
-      <c r="AB13" s="290"/>
-      <c r="AC13" s="290"/>
-      <c r="AD13" s="290"/>
-      <c r="AE13" s="291"/>
-      <c r="AF13" s="286"/>
-      <c r="AG13" s="287"/>
-      <c r="AH13" s="287"/>
-      <c r="AI13" s="288"/>
+      <c r="B13" s="316"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="318"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="320"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="323"/>
+      <c r="L13" s="323"/>
+      <c r="M13" s="323"/>
+      <c r="N13" s="323"/>
+      <c r="O13" s="323"/>
+      <c r="P13" s="324"/>
+      <c r="Q13" s="325"/>
+      <c r="R13" s="326"/>
+      <c r="S13" s="326"/>
+      <c r="T13" s="326"/>
+      <c r="U13" s="326"/>
+      <c r="V13" s="326"/>
+      <c r="W13" s="326"/>
+      <c r="X13" s="326"/>
+      <c r="Y13" s="326"/>
+      <c r="Z13" s="326"/>
+      <c r="AA13" s="326"/>
+      <c r="AB13" s="326"/>
+      <c r="AC13" s="326"/>
+      <c r="AD13" s="326"/>
+      <c r="AE13" s="327"/>
+      <c r="AF13" s="322"/>
+      <c r="AG13" s="323"/>
+      <c r="AH13" s="323"/>
+      <c r="AI13" s="324"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="280"/>
-      <c r="C14" s="281"/>
-      <c r="D14" s="282"/>
-      <c r="E14" s="283"/>
-      <c r="F14" s="284"/>
-      <c r="G14" s="280"/>
-      <c r="H14" s="285"/>
-      <c r="I14" s="281"/>
-      <c r="J14" s="286"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="287"/>
-      <c r="M14" s="287"/>
-      <c r="N14" s="287"/>
-      <c r="O14" s="287"/>
-      <c r="P14" s="288"/>
-      <c r="Q14" s="289"/>
-      <c r="R14" s="290"/>
-      <c r="S14" s="290"/>
-      <c r="T14" s="290"/>
-      <c r="U14" s="290"/>
-      <c r="V14" s="290"/>
-      <c r="W14" s="290"/>
-      <c r="X14" s="290"/>
-      <c r="Y14" s="290"/>
-      <c r="Z14" s="290"/>
-      <c r="AA14" s="290"/>
-      <c r="AB14" s="290"/>
-      <c r="AC14" s="290"/>
-      <c r="AD14" s="290"/>
-      <c r="AE14" s="291"/>
-      <c r="AF14" s="286"/>
-      <c r="AG14" s="287"/>
-      <c r="AH14" s="287"/>
-      <c r="AI14" s="288"/>
+      <c r="B14" s="316"/>
+      <c r="C14" s="317"/>
+      <c r="D14" s="318"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="320"/>
+      <c r="G14" s="316"/>
+      <c r="H14" s="321"/>
+      <c r="I14" s="317"/>
+      <c r="J14" s="322"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
+      <c r="M14" s="323"/>
+      <c r="N14" s="323"/>
+      <c r="O14" s="323"/>
+      <c r="P14" s="324"/>
+      <c r="Q14" s="325"/>
+      <c r="R14" s="326"/>
+      <c r="S14" s="326"/>
+      <c r="T14" s="326"/>
+      <c r="U14" s="326"/>
+      <c r="V14" s="326"/>
+      <c r="W14" s="326"/>
+      <c r="X14" s="326"/>
+      <c r="Y14" s="326"/>
+      <c r="Z14" s="326"/>
+      <c r="AA14" s="326"/>
+      <c r="AB14" s="326"/>
+      <c r="AC14" s="326"/>
+      <c r="AD14" s="326"/>
+      <c r="AE14" s="327"/>
+      <c r="AF14" s="322"/>
+      <c r="AG14" s="323"/>
+      <c r="AH14" s="323"/>
+      <c r="AI14" s="324"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="280"/>
-      <c r="C15" s="281"/>
-      <c r="D15" s="282"/>
-      <c r="E15" s="283"/>
-      <c r="F15" s="284"/>
-      <c r="G15" s="280"/>
-      <c r="H15" s="285"/>
-      <c r="I15" s="281"/>
-      <c r="J15" s="286"/>
-      <c r="K15" s="287"/>
-      <c r="L15" s="287"/>
-      <c r="M15" s="287"/>
-      <c r="N15" s="287"/>
-      <c r="O15" s="287"/>
-      <c r="P15" s="288"/>
-      <c r="Q15" s="289"/>
-      <c r="R15" s="290"/>
-      <c r="S15" s="290"/>
-      <c r="T15" s="290"/>
-      <c r="U15" s="290"/>
-      <c r="V15" s="290"/>
-      <c r="W15" s="290"/>
-      <c r="X15" s="290"/>
-      <c r="Y15" s="290"/>
-      <c r="Z15" s="290"/>
-      <c r="AA15" s="290"/>
-      <c r="AB15" s="290"/>
-      <c r="AC15" s="290"/>
-      <c r="AD15" s="290"/>
-      <c r="AE15" s="291"/>
-      <c r="AF15" s="286"/>
-      <c r="AG15" s="287"/>
-      <c r="AH15" s="287"/>
-      <c r="AI15" s="288"/>
+      <c r="B15" s="316"/>
+      <c r="C15" s="317"/>
+      <c r="D15" s="318"/>
+      <c r="E15" s="319"/>
+      <c r="F15" s="320"/>
+      <c r="G15" s="316"/>
+      <c r="H15" s="321"/>
+      <c r="I15" s="317"/>
+      <c r="J15" s="322"/>
+      <c r="K15" s="323"/>
+      <c r="L15" s="323"/>
+      <c r="M15" s="323"/>
+      <c r="N15" s="323"/>
+      <c r="O15" s="323"/>
+      <c r="P15" s="324"/>
+      <c r="Q15" s="325"/>
+      <c r="R15" s="326"/>
+      <c r="S15" s="326"/>
+      <c r="T15" s="326"/>
+      <c r="U15" s="326"/>
+      <c r="V15" s="326"/>
+      <c r="W15" s="326"/>
+      <c r="X15" s="326"/>
+      <c r="Y15" s="326"/>
+      <c r="Z15" s="326"/>
+      <c r="AA15" s="326"/>
+      <c r="AB15" s="326"/>
+      <c r="AC15" s="326"/>
+      <c r="AD15" s="326"/>
+      <c r="AE15" s="327"/>
+      <c r="AF15" s="322"/>
+      <c r="AG15" s="323"/>
+      <c r="AH15" s="323"/>
+      <c r="AI15" s="324"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="280"/>
-      <c r="C16" s="281"/>
-      <c r="D16" s="282"/>
-      <c r="E16" s="283"/>
-      <c r="F16" s="284"/>
-      <c r="G16" s="280"/>
-      <c r="H16" s="285"/>
-      <c r="I16" s="281"/>
-      <c r="J16" s="286"/>
-      <c r="K16" s="287"/>
-      <c r="L16" s="287"/>
-      <c r="M16" s="287"/>
-      <c r="N16" s="287"/>
-      <c r="O16" s="287"/>
-      <c r="P16" s="288"/>
-      <c r="Q16" s="289"/>
-      <c r="R16" s="290"/>
-      <c r="S16" s="290"/>
-      <c r="T16" s="290"/>
-      <c r="U16" s="290"/>
-      <c r="V16" s="290"/>
-      <c r="W16" s="290"/>
-      <c r="X16" s="290"/>
-      <c r="Y16" s="290"/>
-      <c r="Z16" s="290"/>
-      <c r="AA16" s="290"/>
-      <c r="AB16" s="290"/>
-      <c r="AC16" s="290"/>
-      <c r="AD16" s="290"/>
-      <c r="AE16" s="291"/>
-      <c r="AF16" s="286"/>
-      <c r="AG16" s="287"/>
-      <c r="AH16" s="287"/>
-      <c r="AI16" s="288"/>
+      <c r="B16" s="316"/>
+      <c r="C16" s="317"/>
+      <c r="D16" s="318"/>
+      <c r="E16" s="319"/>
+      <c r="F16" s="320"/>
+      <c r="G16" s="316"/>
+      <c r="H16" s="321"/>
+      <c r="I16" s="317"/>
+      <c r="J16" s="322"/>
+      <c r="K16" s="323"/>
+      <c r="L16" s="323"/>
+      <c r="M16" s="323"/>
+      <c r="N16" s="323"/>
+      <c r="O16" s="323"/>
+      <c r="P16" s="324"/>
+      <c r="Q16" s="325"/>
+      <c r="R16" s="326"/>
+      <c r="S16" s="326"/>
+      <c r="T16" s="326"/>
+      <c r="U16" s="326"/>
+      <c r="V16" s="326"/>
+      <c r="W16" s="326"/>
+      <c r="X16" s="326"/>
+      <c r="Y16" s="326"/>
+      <c r="Z16" s="326"/>
+      <c r="AA16" s="326"/>
+      <c r="AB16" s="326"/>
+      <c r="AC16" s="326"/>
+      <c r="AD16" s="326"/>
+      <c r="AE16" s="327"/>
+      <c r="AF16" s="322"/>
+      <c r="AG16" s="323"/>
+      <c r="AH16" s="323"/>
+      <c r="AI16" s="324"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="280"/>
-      <c r="C17" s="281"/>
-      <c r="D17" s="282"/>
-      <c r="E17" s="283"/>
-      <c r="F17" s="284"/>
-      <c r="G17" s="280"/>
-      <c r="H17" s="285"/>
-      <c r="I17" s="281"/>
-      <c r="J17" s="286"/>
-      <c r="K17" s="287"/>
-      <c r="L17" s="287"/>
-      <c r="M17" s="287"/>
-      <c r="N17" s="287"/>
-      <c r="O17" s="287"/>
-      <c r="P17" s="288"/>
-      <c r="Q17" s="289"/>
-      <c r="R17" s="290"/>
-      <c r="S17" s="290"/>
-      <c r="T17" s="290"/>
-      <c r="U17" s="290"/>
-      <c r="V17" s="290"/>
-      <c r="W17" s="290"/>
-      <c r="X17" s="290"/>
-      <c r="Y17" s="290"/>
-      <c r="Z17" s="290"/>
-      <c r="AA17" s="290"/>
-      <c r="AB17" s="290"/>
-      <c r="AC17" s="290"/>
-      <c r="AD17" s="290"/>
-      <c r="AE17" s="291"/>
-      <c r="AF17" s="286"/>
-      <c r="AG17" s="287"/>
-      <c r="AH17" s="287"/>
-      <c r="AI17" s="288"/>
+      <c r="B17" s="316"/>
+      <c r="C17" s="317"/>
+      <c r="D17" s="318"/>
+      <c r="E17" s="319"/>
+      <c r="F17" s="320"/>
+      <c r="G17" s="316"/>
+      <c r="H17" s="321"/>
+      <c r="I17" s="317"/>
+      <c r="J17" s="322"/>
+      <c r="K17" s="323"/>
+      <c r="L17" s="323"/>
+      <c r="M17" s="323"/>
+      <c r="N17" s="323"/>
+      <c r="O17" s="323"/>
+      <c r="P17" s="324"/>
+      <c r="Q17" s="325"/>
+      <c r="R17" s="326"/>
+      <c r="S17" s="326"/>
+      <c r="T17" s="326"/>
+      <c r="U17" s="326"/>
+      <c r="V17" s="326"/>
+      <c r="W17" s="326"/>
+      <c r="X17" s="326"/>
+      <c r="Y17" s="326"/>
+      <c r="Z17" s="326"/>
+      <c r="AA17" s="326"/>
+      <c r="AB17" s="326"/>
+      <c r="AC17" s="326"/>
+      <c r="AD17" s="326"/>
+      <c r="AE17" s="327"/>
+      <c r="AF17" s="322"/>
+      <c r="AG17" s="323"/>
+      <c r="AH17" s="323"/>
+      <c r="AI17" s="324"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="280"/>
-      <c r="C18" s="281"/>
-      <c r="D18" s="282"/>
-      <c r="E18" s="283"/>
-      <c r="F18" s="284"/>
-      <c r="G18" s="280"/>
-      <c r="H18" s="285"/>
-      <c r="I18" s="281"/>
-      <c r="J18" s="286"/>
-      <c r="K18" s="287"/>
-      <c r="L18" s="287"/>
-      <c r="M18" s="287"/>
-      <c r="N18" s="287"/>
-      <c r="O18" s="287"/>
-      <c r="P18" s="288"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="290"/>
-      <c r="S18" s="290"/>
-      <c r="T18" s="290"/>
-      <c r="U18" s="290"/>
-      <c r="V18" s="290"/>
-      <c r="W18" s="290"/>
-      <c r="X18" s="290"/>
-      <c r="Y18" s="290"/>
-      <c r="Z18" s="290"/>
-      <c r="AA18" s="290"/>
-      <c r="AB18" s="290"/>
-      <c r="AC18" s="290"/>
-      <c r="AD18" s="290"/>
-      <c r="AE18" s="291"/>
-      <c r="AF18" s="286"/>
-      <c r="AG18" s="287"/>
-      <c r="AH18" s="287"/>
-      <c r="AI18" s="288"/>
+      <c r="B18" s="316"/>
+      <c r="C18" s="317"/>
+      <c r="D18" s="318"/>
+      <c r="E18" s="319"/>
+      <c r="F18" s="320"/>
+      <c r="G18" s="316"/>
+      <c r="H18" s="321"/>
+      <c r="I18" s="317"/>
+      <c r="J18" s="322"/>
+      <c r="K18" s="323"/>
+      <c r="L18" s="323"/>
+      <c r="M18" s="323"/>
+      <c r="N18" s="323"/>
+      <c r="O18" s="323"/>
+      <c r="P18" s="324"/>
+      <c r="Q18" s="325"/>
+      <c r="R18" s="326"/>
+      <c r="S18" s="326"/>
+      <c r="T18" s="326"/>
+      <c r="U18" s="326"/>
+      <c r="V18" s="326"/>
+      <c r="W18" s="326"/>
+      <c r="X18" s="326"/>
+      <c r="Y18" s="326"/>
+      <c r="Z18" s="326"/>
+      <c r="AA18" s="326"/>
+      <c r="AB18" s="326"/>
+      <c r="AC18" s="326"/>
+      <c r="AD18" s="326"/>
+      <c r="AE18" s="327"/>
+      <c r="AF18" s="322"/>
+      <c r="AG18" s="323"/>
+      <c r="AH18" s="323"/>
+      <c r="AI18" s="324"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="280"/>
-      <c r="C19" s="281"/>
-      <c r="D19" s="282"/>
-      <c r="E19" s="283"/>
-      <c r="F19" s="284"/>
-      <c r="G19" s="280"/>
-      <c r="H19" s="285"/>
-      <c r="I19" s="281"/>
-      <c r="J19" s="286"/>
-      <c r="K19" s="287"/>
-      <c r="L19" s="287"/>
-      <c r="M19" s="287"/>
-      <c r="N19" s="287"/>
-      <c r="O19" s="287"/>
-      <c r="P19" s="288"/>
-      <c r="Q19" s="289"/>
-      <c r="R19" s="290"/>
-      <c r="S19" s="290"/>
-      <c r="T19" s="290"/>
-      <c r="U19" s="290"/>
-      <c r="V19" s="290"/>
-      <c r="W19" s="290"/>
-      <c r="X19" s="290"/>
-      <c r="Y19" s="290"/>
-      <c r="Z19" s="290"/>
-      <c r="AA19" s="290"/>
-      <c r="AB19" s="290"/>
-      <c r="AC19" s="290"/>
-      <c r="AD19" s="290"/>
-      <c r="AE19" s="291"/>
-      <c r="AF19" s="286"/>
-      <c r="AG19" s="287"/>
-      <c r="AH19" s="287"/>
-      <c r="AI19" s="288"/>
+      <c r="B19" s="316"/>
+      <c r="C19" s="317"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="319"/>
+      <c r="F19" s="320"/>
+      <c r="G19" s="316"/>
+      <c r="H19" s="321"/>
+      <c r="I19" s="317"/>
+      <c r="J19" s="322"/>
+      <c r="K19" s="323"/>
+      <c r="L19" s="323"/>
+      <c r="M19" s="323"/>
+      <c r="N19" s="323"/>
+      <c r="O19" s="323"/>
+      <c r="P19" s="324"/>
+      <c r="Q19" s="325"/>
+      <c r="R19" s="326"/>
+      <c r="S19" s="326"/>
+      <c r="T19" s="326"/>
+      <c r="U19" s="326"/>
+      <c r="V19" s="326"/>
+      <c r="W19" s="326"/>
+      <c r="X19" s="326"/>
+      <c r="Y19" s="326"/>
+      <c r="Z19" s="326"/>
+      <c r="AA19" s="326"/>
+      <c r="AB19" s="326"/>
+      <c r="AC19" s="326"/>
+      <c r="AD19" s="326"/>
+      <c r="AE19" s="327"/>
+      <c r="AF19" s="322"/>
+      <c r="AG19" s="323"/>
+      <c r="AH19" s="323"/>
+      <c r="AI19" s="324"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="280"/>
-      <c r="C20" s="281"/>
-      <c r="D20" s="282"/>
-      <c r="E20" s="283"/>
-      <c r="F20" s="284"/>
-      <c r="G20" s="280"/>
-      <c r="H20" s="285"/>
-      <c r="I20" s="281"/>
-      <c r="J20" s="286"/>
-      <c r="K20" s="287"/>
-      <c r="L20" s="287"/>
-      <c r="M20" s="287"/>
-      <c r="N20" s="287"/>
-      <c r="O20" s="287"/>
-      <c r="P20" s="288"/>
-      <c r="Q20" s="289"/>
-      <c r="R20" s="290"/>
-      <c r="S20" s="290"/>
-      <c r="T20" s="290"/>
-      <c r="U20" s="290"/>
-      <c r="V20" s="290"/>
-      <c r="W20" s="290"/>
-      <c r="X20" s="290"/>
-      <c r="Y20" s="290"/>
-      <c r="Z20" s="290"/>
-      <c r="AA20" s="290"/>
-      <c r="AB20" s="290"/>
-      <c r="AC20" s="290"/>
-      <c r="AD20" s="290"/>
-      <c r="AE20" s="291"/>
-      <c r="AF20" s="286"/>
-      <c r="AG20" s="287"/>
-      <c r="AH20" s="287"/>
-      <c r="AI20" s="288"/>
+      <c r="B20" s="316"/>
+      <c r="C20" s="317"/>
+      <c r="D20" s="318"/>
+      <c r="E20" s="319"/>
+      <c r="F20" s="320"/>
+      <c r="G20" s="316"/>
+      <c r="H20" s="321"/>
+      <c r="I20" s="317"/>
+      <c r="J20" s="322"/>
+      <c r="K20" s="323"/>
+      <c r="L20" s="323"/>
+      <c r="M20" s="323"/>
+      <c r="N20" s="323"/>
+      <c r="O20" s="323"/>
+      <c r="P20" s="324"/>
+      <c r="Q20" s="325"/>
+      <c r="R20" s="326"/>
+      <c r="S20" s="326"/>
+      <c r="T20" s="326"/>
+      <c r="U20" s="326"/>
+      <c r="V20" s="326"/>
+      <c r="W20" s="326"/>
+      <c r="X20" s="326"/>
+      <c r="Y20" s="326"/>
+      <c r="Z20" s="326"/>
+      <c r="AA20" s="326"/>
+      <c r="AB20" s="326"/>
+      <c r="AC20" s="326"/>
+      <c r="AD20" s="326"/>
+      <c r="AE20" s="327"/>
+      <c r="AF20" s="322"/>
+      <c r="AG20" s="323"/>
+      <c r="AH20" s="323"/>
+      <c r="AI20" s="324"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="280"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="282"/>
-      <c r="E21" s="283"/>
-      <c r="F21" s="284"/>
-      <c r="G21" s="280"/>
-      <c r="H21" s="285"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="286"/>
-      <c r="K21" s="287"/>
-      <c r="L21" s="287"/>
-      <c r="M21" s="287"/>
-      <c r="N21" s="287"/>
-      <c r="O21" s="287"/>
-      <c r="P21" s="288"/>
-      <c r="Q21" s="289"/>
-      <c r="R21" s="290"/>
-      <c r="S21" s="290"/>
-      <c r="T21" s="290"/>
-      <c r="U21" s="290"/>
-      <c r="V21" s="290"/>
-      <c r="W21" s="290"/>
-      <c r="X21" s="290"/>
-      <c r="Y21" s="290"/>
-      <c r="Z21" s="290"/>
-      <c r="AA21" s="290"/>
-      <c r="AB21" s="290"/>
-      <c r="AC21" s="290"/>
-      <c r="AD21" s="290"/>
-      <c r="AE21" s="291"/>
-      <c r="AF21" s="286"/>
-      <c r="AG21" s="287"/>
-      <c r="AH21" s="287"/>
-      <c r="AI21" s="288"/>
+      <c r="B21" s="316"/>
+      <c r="C21" s="317"/>
+      <c r="D21" s="318"/>
+      <c r="E21" s="319"/>
+      <c r="F21" s="320"/>
+      <c r="G21" s="316"/>
+      <c r="H21" s="321"/>
+      <c r="I21" s="317"/>
+      <c r="J21" s="322"/>
+      <c r="K21" s="323"/>
+      <c r="L21" s="323"/>
+      <c r="M21" s="323"/>
+      <c r="N21" s="323"/>
+      <c r="O21" s="323"/>
+      <c r="P21" s="324"/>
+      <c r="Q21" s="325"/>
+      <c r="R21" s="326"/>
+      <c r="S21" s="326"/>
+      <c r="T21" s="326"/>
+      <c r="U21" s="326"/>
+      <c r="V21" s="326"/>
+      <c r="W21" s="326"/>
+      <c r="X21" s="326"/>
+      <c r="Y21" s="326"/>
+      <c r="Z21" s="326"/>
+      <c r="AA21" s="326"/>
+      <c r="AB21" s="326"/>
+      <c r="AC21" s="326"/>
+      <c r="AD21" s="326"/>
+      <c r="AE21" s="327"/>
+      <c r="AF21" s="322"/>
+      <c r="AG21" s="323"/>
+      <c r="AH21" s="323"/>
+      <c r="AI21" s="324"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="280"/>
-      <c r="C22" s="281"/>
-      <c r="D22" s="282"/>
-      <c r="E22" s="283"/>
-      <c r="F22" s="284"/>
-      <c r="G22" s="280"/>
-      <c r="H22" s="285"/>
-      <c r="I22" s="281"/>
-      <c r="J22" s="286"/>
-      <c r="K22" s="287"/>
-      <c r="L22" s="287"/>
-      <c r="M22" s="287"/>
-      <c r="N22" s="287"/>
-      <c r="O22" s="287"/>
-      <c r="P22" s="288"/>
-      <c r="Q22" s="289"/>
-      <c r="R22" s="290"/>
-      <c r="S22" s="290"/>
-      <c r="T22" s="290"/>
-      <c r="U22" s="290"/>
-      <c r="V22" s="290"/>
-      <c r="W22" s="290"/>
-      <c r="X22" s="290"/>
-      <c r="Y22" s="290"/>
-      <c r="Z22" s="290"/>
-      <c r="AA22" s="290"/>
-      <c r="AB22" s="290"/>
-      <c r="AC22" s="290"/>
-      <c r="AD22" s="290"/>
-      <c r="AE22" s="291"/>
-      <c r="AF22" s="286"/>
-      <c r="AG22" s="287"/>
-      <c r="AH22" s="287"/>
-      <c r="AI22" s="288"/>
+      <c r="B22" s="316"/>
+      <c r="C22" s="317"/>
+      <c r="D22" s="318"/>
+      <c r="E22" s="319"/>
+      <c r="F22" s="320"/>
+      <c r="G22" s="316"/>
+      <c r="H22" s="321"/>
+      <c r="I22" s="317"/>
+      <c r="J22" s="322"/>
+      <c r="K22" s="323"/>
+      <c r="L22" s="323"/>
+      <c r="M22" s="323"/>
+      <c r="N22" s="323"/>
+      <c r="O22" s="323"/>
+      <c r="P22" s="324"/>
+      <c r="Q22" s="325"/>
+      <c r="R22" s="326"/>
+      <c r="S22" s="326"/>
+      <c r="T22" s="326"/>
+      <c r="U22" s="326"/>
+      <c r="V22" s="326"/>
+      <c r="W22" s="326"/>
+      <c r="X22" s="326"/>
+      <c r="Y22" s="326"/>
+      <c r="Z22" s="326"/>
+      <c r="AA22" s="326"/>
+      <c r="AB22" s="326"/>
+      <c r="AC22" s="326"/>
+      <c r="AD22" s="326"/>
+      <c r="AE22" s="327"/>
+      <c r="AF22" s="322"/>
+      <c r="AG22" s="323"/>
+      <c r="AH22" s="323"/>
+      <c r="AI22" s="324"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="280"/>
-      <c r="C23" s="281"/>
-      <c r="D23" s="282"/>
-      <c r="E23" s="283"/>
-      <c r="F23" s="284"/>
-      <c r="G23" s="280"/>
-      <c r="H23" s="285"/>
-      <c r="I23" s="281"/>
-      <c r="J23" s="286"/>
-      <c r="K23" s="287"/>
-      <c r="L23" s="287"/>
-      <c r="M23" s="287"/>
-      <c r="N23" s="287"/>
-      <c r="O23" s="287"/>
-      <c r="P23" s="288"/>
-      <c r="Q23" s="289"/>
-      <c r="R23" s="290"/>
-      <c r="S23" s="290"/>
-      <c r="T23" s="290"/>
-      <c r="U23" s="290"/>
-      <c r="V23" s="290"/>
-      <c r="W23" s="290"/>
-      <c r="X23" s="290"/>
-      <c r="Y23" s="290"/>
-      <c r="Z23" s="290"/>
-      <c r="AA23" s="290"/>
-      <c r="AB23" s="290"/>
-      <c r="AC23" s="290"/>
-      <c r="AD23" s="290"/>
-      <c r="AE23" s="291"/>
-      <c r="AF23" s="286"/>
-      <c r="AG23" s="287"/>
-      <c r="AH23" s="287"/>
-      <c r="AI23" s="288"/>
+      <c r="B23" s="316"/>
+      <c r="C23" s="317"/>
+      <c r="D23" s="318"/>
+      <c r="E23" s="319"/>
+      <c r="F23" s="320"/>
+      <c r="G23" s="316"/>
+      <c r="H23" s="321"/>
+      <c r="I23" s="317"/>
+      <c r="J23" s="322"/>
+      <c r="K23" s="323"/>
+      <c r="L23" s="323"/>
+      <c r="M23" s="323"/>
+      <c r="N23" s="323"/>
+      <c r="O23" s="323"/>
+      <c r="P23" s="324"/>
+      <c r="Q23" s="325"/>
+      <c r="R23" s="326"/>
+      <c r="S23" s="326"/>
+      <c r="T23" s="326"/>
+      <c r="U23" s="326"/>
+      <c r="V23" s="326"/>
+      <c r="W23" s="326"/>
+      <c r="X23" s="326"/>
+      <c r="Y23" s="326"/>
+      <c r="Z23" s="326"/>
+      <c r="AA23" s="326"/>
+      <c r="AB23" s="326"/>
+      <c r="AC23" s="326"/>
+      <c r="AD23" s="326"/>
+      <c r="AE23" s="327"/>
+      <c r="AF23" s="322"/>
+      <c r="AG23" s="323"/>
+      <c r="AH23" s="323"/>
+      <c r="AI23" s="324"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="280"/>
-      <c r="C24" s="281"/>
-      <c r="D24" s="282"/>
-      <c r="E24" s="283"/>
-      <c r="F24" s="284"/>
-      <c r="G24" s="280"/>
-      <c r="H24" s="285"/>
-      <c r="I24" s="281"/>
-      <c r="J24" s="286"/>
-      <c r="K24" s="287"/>
-      <c r="L24" s="287"/>
-      <c r="M24" s="287"/>
-      <c r="N24" s="287"/>
-      <c r="O24" s="287"/>
-      <c r="P24" s="288"/>
-      <c r="Q24" s="289"/>
-      <c r="R24" s="290"/>
-      <c r="S24" s="290"/>
-      <c r="T24" s="290"/>
-      <c r="U24" s="290"/>
-      <c r="V24" s="290"/>
-      <c r="W24" s="290"/>
-      <c r="X24" s="290"/>
-      <c r="Y24" s="290"/>
-      <c r="Z24" s="290"/>
-      <c r="AA24" s="290"/>
-      <c r="AB24" s="290"/>
-      <c r="AC24" s="290"/>
-      <c r="AD24" s="290"/>
-      <c r="AE24" s="291"/>
-      <c r="AF24" s="286"/>
-      <c r="AG24" s="287"/>
-      <c r="AH24" s="287"/>
-      <c r="AI24" s="288"/>
+      <c r="B24" s="316"/>
+      <c r="C24" s="317"/>
+      <c r="D24" s="318"/>
+      <c r="E24" s="319"/>
+      <c r="F24" s="320"/>
+      <c r="G24" s="316"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="317"/>
+      <c r="J24" s="322"/>
+      <c r="K24" s="323"/>
+      <c r="L24" s="323"/>
+      <c r="M24" s="323"/>
+      <c r="N24" s="323"/>
+      <c r="O24" s="323"/>
+      <c r="P24" s="324"/>
+      <c r="Q24" s="325"/>
+      <c r="R24" s="326"/>
+      <c r="S24" s="326"/>
+      <c r="T24" s="326"/>
+      <c r="U24" s="326"/>
+      <c r="V24" s="326"/>
+      <c r="W24" s="326"/>
+      <c r="X24" s="326"/>
+      <c r="Y24" s="326"/>
+      <c r="Z24" s="326"/>
+      <c r="AA24" s="326"/>
+      <c r="AB24" s="326"/>
+      <c r="AC24" s="326"/>
+      <c r="AD24" s="326"/>
+      <c r="AE24" s="327"/>
+      <c r="AF24" s="322"/>
+      <c r="AG24" s="323"/>
+      <c r="AH24" s="323"/>
+      <c r="AI24" s="324"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="280"/>
-      <c r="C25" s="281"/>
-      <c r="D25" s="282"/>
-      <c r="E25" s="283"/>
-      <c r="F25" s="284"/>
-      <c r="G25" s="280"/>
-      <c r="H25" s="285"/>
-      <c r="I25" s="281"/>
-      <c r="J25" s="286"/>
-      <c r="K25" s="287"/>
-      <c r="L25" s="287"/>
-      <c r="M25" s="287"/>
-      <c r="N25" s="287"/>
-      <c r="O25" s="287"/>
-      <c r="P25" s="288"/>
-      <c r="Q25" s="289"/>
-      <c r="R25" s="290"/>
-      <c r="S25" s="290"/>
-      <c r="T25" s="290"/>
-      <c r="U25" s="290"/>
-      <c r="V25" s="290"/>
-      <c r="W25" s="290"/>
-      <c r="X25" s="290"/>
-      <c r="Y25" s="290"/>
-      <c r="Z25" s="290"/>
-      <c r="AA25" s="290"/>
-      <c r="AB25" s="290"/>
-      <c r="AC25" s="290"/>
-      <c r="AD25" s="290"/>
-      <c r="AE25" s="291"/>
-      <c r="AF25" s="286"/>
-      <c r="AG25" s="287"/>
-      <c r="AH25" s="287"/>
-      <c r="AI25" s="288"/>
+      <c r="B25" s="316"/>
+      <c r="C25" s="317"/>
+      <c r="D25" s="318"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="320"/>
+      <c r="G25" s="316"/>
+      <c r="H25" s="321"/>
+      <c r="I25" s="317"/>
+      <c r="J25" s="322"/>
+      <c r="K25" s="323"/>
+      <c r="L25" s="323"/>
+      <c r="M25" s="323"/>
+      <c r="N25" s="323"/>
+      <c r="O25" s="323"/>
+      <c r="P25" s="324"/>
+      <c r="Q25" s="325"/>
+      <c r="R25" s="326"/>
+      <c r="S25" s="326"/>
+      <c r="T25" s="326"/>
+      <c r="U25" s="326"/>
+      <c r="V25" s="326"/>
+      <c r="W25" s="326"/>
+      <c r="X25" s="326"/>
+      <c r="Y25" s="326"/>
+      <c r="Z25" s="326"/>
+      <c r="AA25" s="326"/>
+      <c r="AB25" s="326"/>
+      <c r="AC25" s="326"/>
+      <c r="AD25" s="326"/>
+      <c r="AE25" s="327"/>
+      <c r="AF25" s="322"/>
+      <c r="AG25" s="323"/>
+      <c r="AH25" s="323"/>
+      <c r="AI25" s="324"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="280"/>
-      <c r="C26" s="281"/>
-      <c r="D26" s="282"/>
-      <c r="E26" s="283"/>
-      <c r="F26" s="284"/>
-      <c r="G26" s="280"/>
-      <c r="H26" s="285"/>
-      <c r="I26" s="281"/>
-      <c r="J26" s="286"/>
-      <c r="K26" s="287"/>
-      <c r="L26" s="287"/>
-      <c r="M26" s="287"/>
-      <c r="N26" s="287"/>
-      <c r="O26" s="287"/>
-      <c r="P26" s="288"/>
-      <c r="Q26" s="289"/>
-      <c r="R26" s="290"/>
-      <c r="S26" s="290"/>
-      <c r="T26" s="290"/>
-      <c r="U26" s="290"/>
-      <c r="V26" s="290"/>
-      <c r="W26" s="290"/>
-      <c r="X26" s="290"/>
-      <c r="Y26" s="290"/>
-      <c r="Z26" s="290"/>
-      <c r="AA26" s="290"/>
-      <c r="AB26" s="290"/>
-      <c r="AC26" s="290"/>
-      <c r="AD26" s="290"/>
-      <c r="AE26" s="291"/>
-      <c r="AF26" s="286"/>
-      <c r="AG26" s="287"/>
-      <c r="AH26" s="287"/>
-      <c r="AI26" s="288"/>
+      <c r="B26" s="316"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="318"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="320"/>
+      <c r="G26" s="316"/>
+      <c r="H26" s="321"/>
+      <c r="I26" s="317"/>
+      <c r="J26" s="322"/>
+      <c r="K26" s="323"/>
+      <c r="L26" s="323"/>
+      <c r="M26" s="323"/>
+      <c r="N26" s="323"/>
+      <c r="O26" s="323"/>
+      <c r="P26" s="324"/>
+      <c r="Q26" s="325"/>
+      <c r="R26" s="326"/>
+      <c r="S26" s="326"/>
+      <c r="T26" s="326"/>
+      <c r="U26" s="326"/>
+      <c r="V26" s="326"/>
+      <c r="W26" s="326"/>
+      <c r="X26" s="326"/>
+      <c r="Y26" s="326"/>
+      <c r="Z26" s="326"/>
+      <c r="AA26" s="326"/>
+      <c r="AB26" s="326"/>
+      <c r="AC26" s="326"/>
+      <c r="AD26" s="326"/>
+      <c r="AE26" s="327"/>
+      <c r="AF26" s="322"/>
+      <c r="AG26" s="323"/>
+      <c r="AH26" s="323"/>
+      <c r="AI26" s="324"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="280"/>
-      <c r="C27" s="281"/>
-      <c r="D27" s="282"/>
-      <c r="E27" s="283"/>
-      <c r="F27" s="284"/>
-      <c r="G27" s="280"/>
-      <c r="H27" s="285"/>
-      <c r="I27" s="281"/>
-      <c r="J27" s="286"/>
-      <c r="K27" s="287"/>
-      <c r="L27" s="287"/>
-      <c r="M27" s="287"/>
-      <c r="N27" s="287"/>
-      <c r="O27" s="287"/>
-      <c r="P27" s="288"/>
-      <c r="Q27" s="289"/>
-      <c r="R27" s="290"/>
-      <c r="S27" s="290"/>
-      <c r="T27" s="290"/>
-      <c r="U27" s="290"/>
-      <c r="V27" s="290"/>
-      <c r="W27" s="290"/>
-      <c r="X27" s="290"/>
-      <c r="Y27" s="290"/>
-      <c r="Z27" s="290"/>
-      <c r="AA27" s="290"/>
-      <c r="AB27" s="290"/>
-      <c r="AC27" s="290"/>
-      <c r="AD27" s="290"/>
-      <c r="AE27" s="291"/>
-      <c r="AF27" s="286"/>
-      <c r="AG27" s="287"/>
-      <c r="AH27" s="287"/>
-      <c r="AI27" s="288"/>
+      <c r="B27" s="316"/>
+      <c r="C27" s="317"/>
+      <c r="D27" s="318"/>
+      <c r="E27" s="319"/>
+      <c r="F27" s="320"/>
+      <c r="G27" s="316"/>
+      <c r="H27" s="321"/>
+      <c r="I27" s="317"/>
+      <c r="J27" s="322"/>
+      <c r="K27" s="323"/>
+      <c r="L27" s="323"/>
+      <c r="M27" s="323"/>
+      <c r="N27" s="323"/>
+      <c r="O27" s="323"/>
+      <c r="P27" s="324"/>
+      <c r="Q27" s="325"/>
+      <c r="R27" s="326"/>
+      <c r="S27" s="326"/>
+      <c r="T27" s="326"/>
+      <c r="U27" s="326"/>
+      <c r="V27" s="326"/>
+      <c r="W27" s="326"/>
+      <c r="X27" s="326"/>
+      <c r="Y27" s="326"/>
+      <c r="Z27" s="326"/>
+      <c r="AA27" s="326"/>
+      <c r="AB27" s="326"/>
+      <c r="AC27" s="326"/>
+      <c r="AD27" s="326"/>
+      <c r="AE27" s="327"/>
+      <c r="AF27" s="322"/>
+      <c r="AG27" s="323"/>
+      <c r="AH27" s="323"/>
+      <c r="AI27" s="324"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="280"/>
-      <c r="C28" s="281"/>
-      <c r="D28" s="282"/>
-      <c r="E28" s="283"/>
-      <c r="F28" s="284"/>
-      <c r="G28" s="280"/>
-      <c r="H28" s="285"/>
-      <c r="I28" s="281"/>
-      <c r="J28" s="286"/>
-      <c r="K28" s="287"/>
-      <c r="L28" s="287"/>
-      <c r="M28" s="287"/>
-      <c r="N28" s="287"/>
-      <c r="O28" s="287"/>
-      <c r="P28" s="288"/>
-      <c r="Q28" s="289"/>
-      <c r="R28" s="290"/>
-      <c r="S28" s="290"/>
-      <c r="T28" s="290"/>
-      <c r="U28" s="290"/>
-      <c r="V28" s="290"/>
-      <c r="W28" s="290"/>
-      <c r="X28" s="290"/>
-      <c r="Y28" s="290"/>
-      <c r="Z28" s="290"/>
-      <c r="AA28" s="290"/>
-      <c r="AB28" s="290"/>
-      <c r="AC28" s="290"/>
-      <c r="AD28" s="290"/>
-      <c r="AE28" s="291"/>
-      <c r="AF28" s="286"/>
-      <c r="AG28" s="287"/>
-      <c r="AH28" s="287"/>
-      <c r="AI28" s="288"/>
+      <c r="B28" s="316"/>
+      <c r="C28" s="317"/>
+      <c r="D28" s="318"/>
+      <c r="E28" s="319"/>
+      <c r="F28" s="320"/>
+      <c r="G28" s="316"/>
+      <c r="H28" s="321"/>
+      <c r="I28" s="317"/>
+      <c r="J28" s="322"/>
+      <c r="K28" s="323"/>
+      <c r="L28" s="323"/>
+      <c r="M28" s="323"/>
+      <c r="N28" s="323"/>
+      <c r="O28" s="323"/>
+      <c r="P28" s="324"/>
+      <c r="Q28" s="325"/>
+      <c r="R28" s="326"/>
+      <c r="S28" s="326"/>
+      <c r="T28" s="326"/>
+      <c r="U28" s="326"/>
+      <c r="V28" s="326"/>
+      <c r="W28" s="326"/>
+      <c r="X28" s="326"/>
+      <c r="Y28" s="326"/>
+      <c r="Z28" s="326"/>
+      <c r="AA28" s="326"/>
+      <c r="AB28" s="326"/>
+      <c r="AC28" s="326"/>
+      <c r="AD28" s="326"/>
+      <c r="AE28" s="327"/>
+      <c r="AF28" s="322"/>
+      <c r="AG28" s="323"/>
+      <c r="AH28" s="323"/>
+      <c r="AI28" s="324"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="280"/>
-      <c r="C29" s="281"/>
-      <c r="D29" s="282"/>
-      <c r="E29" s="283"/>
-      <c r="F29" s="284"/>
-      <c r="G29" s="280"/>
-      <c r="H29" s="285"/>
-      <c r="I29" s="281"/>
-      <c r="J29" s="286"/>
-      <c r="K29" s="287"/>
-      <c r="L29" s="287"/>
-      <c r="M29" s="287"/>
-      <c r="N29" s="287"/>
-      <c r="O29" s="287"/>
-      <c r="P29" s="288"/>
-      <c r="Q29" s="289"/>
-      <c r="R29" s="290"/>
-      <c r="S29" s="290"/>
-      <c r="T29" s="290"/>
-      <c r="U29" s="290"/>
-      <c r="V29" s="290"/>
-      <c r="W29" s="290"/>
-      <c r="X29" s="290"/>
-      <c r="Y29" s="290"/>
-      <c r="Z29" s="290"/>
-      <c r="AA29" s="290"/>
-      <c r="AB29" s="290"/>
-      <c r="AC29" s="290"/>
-      <c r="AD29" s="290"/>
-      <c r="AE29" s="291"/>
-      <c r="AF29" s="286"/>
-      <c r="AG29" s="287"/>
-      <c r="AH29" s="287"/>
-      <c r="AI29" s="288"/>
+      <c r="B29" s="316"/>
+      <c r="C29" s="317"/>
+      <c r="D29" s="318"/>
+      <c r="E29" s="319"/>
+      <c r="F29" s="320"/>
+      <c r="G29" s="316"/>
+      <c r="H29" s="321"/>
+      <c r="I29" s="317"/>
+      <c r="J29" s="322"/>
+      <c r="K29" s="323"/>
+      <c r="L29" s="323"/>
+      <c r="M29" s="323"/>
+      <c r="N29" s="323"/>
+      <c r="O29" s="323"/>
+      <c r="P29" s="324"/>
+      <c r="Q29" s="325"/>
+      <c r="R29" s="326"/>
+      <c r="S29" s="326"/>
+      <c r="T29" s="326"/>
+      <c r="U29" s="326"/>
+      <c r="V29" s="326"/>
+      <c r="W29" s="326"/>
+      <c r="X29" s="326"/>
+      <c r="Y29" s="326"/>
+      <c r="Z29" s="326"/>
+      <c r="AA29" s="326"/>
+      <c r="AB29" s="326"/>
+      <c r="AC29" s="326"/>
+      <c r="AD29" s="326"/>
+      <c r="AE29" s="327"/>
+      <c r="AF29" s="322"/>
+      <c r="AG29" s="323"/>
+      <c r="AH29" s="323"/>
+      <c r="AI29" s="324"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="280"/>
-      <c r="C30" s="281"/>
-      <c r="D30" s="282"/>
-      <c r="E30" s="283"/>
-      <c r="F30" s="284"/>
-      <c r="G30" s="280"/>
-      <c r="H30" s="285"/>
-      <c r="I30" s="281"/>
-      <c r="J30" s="286"/>
-      <c r="K30" s="287"/>
-      <c r="L30" s="287"/>
-      <c r="M30" s="287"/>
-      <c r="N30" s="287"/>
-      <c r="O30" s="287"/>
-      <c r="P30" s="288"/>
-      <c r="Q30" s="289"/>
-      <c r="R30" s="290"/>
-      <c r="S30" s="290"/>
-      <c r="T30" s="290"/>
-      <c r="U30" s="290"/>
-      <c r="V30" s="290"/>
-      <c r="W30" s="290"/>
-      <c r="X30" s="290"/>
-      <c r="Y30" s="290"/>
-      <c r="Z30" s="290"/>
-      <c r="AA30" s="290"/>
-      <c r="AB30" s="290"/>
-      <c r="AC30" s="290"/>
-      <c r="AD30" s="290"/>
-      <c r="AE30" s="291"/>
-      <c r="AF30" s="286"/>
-      <c r="AG30" s="287"/>
-      <c r="AH30" s="287"/>
-      <c r="AI30" s="288"/>
+      <c r="B30" s="316"/>
+      <c r="C30" s="317"/>
+      <c r="D30" s="318"/>
+      <c r="E30" s="319"/>
+      <c r="F30" s="320"/>
+      <c r="G30" s="316"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="317"/>
+      <c r="J30" s="322"/>
+      <c r="K30" s="323"/>
+      <c r="L30" s="323"/>
+      <c r="M30" s="323"/>
+      <c r="N30" s="323"/>
+      <c r="O30" s="323"/>
+      <c r="P30" s="324"/>
+      <c r="Q30" s="325"/>
+      <c r="R30" s="326"/>
+      <c r="S30" s="326"/>
+      <c r="T30" s="326"/>
+      <c r="U30" s="326"/>
+      <c r="V30" s="326"/>
+      <c r="W30" s="326"/>
+      <c r="X30" s="326"/>
+      <c r="Y30" s="326"/>
+      <c r="Z30" s="326"/>
+      <c r="AA30" s="326"/>
+      <c r="AB30" s="326"/>
+      <c r="AC30" s="326"/>
+      <c r="AD30" s="326"/>
+      <c r="AE30" s="327"/>
+      <c r="AF30" s="322"/>
+      <c r="AG30" s="323"/>
+      <c r="AH30" s="323"/>
+      <c r="AI30" s="324"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="280"/>
-      <c r="C31" s="281"/>
-      <c r="D31" s="282"/>
-      <c r="E31" s="283"/>
-      <c r="F31" s="284"/>
-      <c r="G31" s="280"/>
-      <c r="H31" s="285"/>
-      <c r="I31" s="281"/>
-      <c r="J31" s="286"/>
-      <c r="K31" s="287"/>
-      <c r="L31" s="287"/>
-      <c r="M31" s="287"/>
-      <c r="N31" s="287"/>
-      <c r="O31" s="287"/>
-      <c r="P31" s="288"/>
-      <c r="Q31" s="289"/>
-      <c r="R31" s="290"/>
-      <c r="S31" s="290"/>
-      <c r="T31" s="290"/>
-      <c r="U31" s="290"/>
-      <c r="V31" s="290"/>
-      <c r="W31" s="290"/>
-      <c r="X31" s="290"/>
-      <c r="Y31" s="290"/>
-      <c r="Z31" s="290"/>
-      <c r="AA31" s="290"/>
-      <c r="AB31" s="290"/>
-      <c r="AC31" s="290"/>
-      <c r="AD31" s="290"/>
-      <c r="AE31" s="291"/>
-      <c r="AF31" s="286"/>
-      <c r="AG31" s="287"/>
-      <c r="AH31" s="287"/>
-      <c r="AI31" s="288"/>
+      <c r="B31" s="316"/>
+      <c r="C31" s="317"/>
+      <c r="D31" s="318"/>
+      <c r="E31" s="319"/>
+      <c r="F31" s="320"/>
+      <c r="G31" s="316"/>
+      <c r="H31" s="321"/>
+      <c r="I31" s="317"/>
+      <c r="J31" s="322"/>
+      <c r="K31" s="323"/>
+      <c r="L31" s="323"/>
+      <c r="M31" s="323"/>
+      <c r="N31" s="323"/>
+      <c r="O31" s="323"/>
+      <c r="P31" s="324"/>
+      <c r="Q31" s="325"/>
+      <c r="R31" s="326"/>
+      <c r="S31" s="326"/>
+      <c r="T31" s="326"/>
+      <c r="U31" s="326"/>
+      <c r="V31" s="326"/>
+      <c r="W31" s="326"/>
+      <c r="X31" s="326"/>
+      <c r="Y31" s="326"/>
+      <c r="Z31" s="326"/>
+      <c r="AA31" s="326"/>
+      <c r="AB31" s="326"/>
+      <c r="AC31" s="326"/>
+      <c r="AD31" s="326"/>
+      <c r="AE31" s="327"/>
+      <c r="AF31" s="322"/>
+      <c r="AG31" s="323"/>
+      <c r="AH31" s="323"/>
+      <c r="AI31" s="324"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="280"/>
-      <c r="C32" s="281"/>
-      <c r="D32" s="282"/>
-      <c r="E32" s="283"/>
-      <c r="F32" s="284"/>
-      <c r="G32" s="280"/>
-      <c r="H32" s="285"/>
-      <c r="I32" s="281"/>
-      <c r="J32" s="286"/>
-      <c r="K32" s="292"/>
-      <c r="L32" s="287"/>
-      <c r="M32" s="287"/>
-      <c r="N32" s="287"/>
-      <c r="O32" s="287"/>
-      <c r="P32" s="288"/>
-      <c r="Q32" s="289"/>
-      <c r="R32" s="290"/>
-      <c r="S32" s="290"/>
-      <c r="T32" s="290"/>
-      <c r="U32" s="290"/>
-      <c r="V32" s="290"/>
-      <c r="W32" s="290"/>
-      <c r="X32" s="290"/>
-      <c r="Y32" s="290"/>
-      <c r="Z32" s="290"/>
-      <c r="AA32" s="290"/>
-      <c r="AB32" s="290"/>
-      <c r="AC32" s="290"/>
-      <c r="AD32" s="290"/>
-      <c r="AE32" s="291"/>
-      <c r="AF32" s="286"/>
-      <c r="AG32" s="287"/>
-      <c r="AH32" s="287"/>
-      <c r="AI32" s="288"/>
+      <c r="B32" s="316"/>
+      <c r="C32" s="317"/>
+      <c r="D32" s="318"/>
+      <c r="E32" s="319"/>
+      <c r="F32" s="320"/>
+      <c r="G32" s="316"/>
+      <c r="H32" s="321"/>
+      <c r="I32" s="317"/>
+      <c r="J32" s="322"/>
+      <c r="K32" s="341"/>
+      <c r="L32" s="323"/>
+      <c r="M32" s="323"/>
+      <c r="N32" s="323"/>
+      <c r="O32" s="323"/>
+      <c r="P32" s="324"/>
+      <c r="Q32" s="325"/>
+      <c r="R32" s="326"/>
+      <c r="S32" s="326"/>
+      <c r="T32" s="326"/>
+      <c r="U32" s="326"/>
+      <c r="V32" s="326"/>
+      <c r="W32" s="326"/>
+      <c r="X32" s="326"/>
+      <c r="Y32" s="326"/>
+      <c r="Z32" s="326"/>
+      <c r="AA32" s="326"/>
+      <c r="AB32" s="326"/>
+      <c r="AC32" s="326"/>
+      <c r="AD32" s="326"/>
+      <c r="AE32" s="327"/>
+      <c r="AF32" s="322"/>
+      <c r="AG32" s="323"/>
+      <c r="AH32" s="323"/>
+      <c r="AI32" s="324"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="280"/>
-      <c r="C33" s="281"/>
-      <c r="D33" s="282"/>
-      <c r="E33" s="283"/>
-      <c r="F33" s="284"/>
-      <c r="G33" s="280"/>
-      <c r="H33" s="285"/>
-      <c r="I33" s="281"/>
-      <c r="J33" s="286"/>
-      <c r="K33" s="287"/>
-      <c r="L33" s="287"/>
-      <c r="M33" s="287"/>
-      <c r="N33" s="287"/>
-      <c r="O33" s="287"/>
-      <c r="P33" s="288"/>
-      <c r="Q33" s="289"/>
-      <c r="R33" s="290"/>
-      <c r="S33" s="290"/>
-      <c r="T33" s="290"/>
-      <c r="U33" s="290"/>
-      <c r="V33" s="290"/>
-      <c r="W33" s="290"/>
-      <c r="X33" s="290"/>
-      <c r="Y33" s="290"/>
-      <c r="Z33" s="290"/>
-      <c r="AA33" s="290"/>
-      <c r="AB33" s="290"/>
-      <c r="AC33" s="290"/>
-      <c r="AD33" s="290"/>
-      <c r="AE33" s="291"/>
-      <c r="AF33" s="286"/>
-      <c r="AG33" s="287"/>
-      <c r="AH33" s="287"/>
-      <c r="AI33" s="288"/>
+      <c r="B33" s="316"/>
+      <c r="C33" s="317"/>
+      <c r="D33" s="318"/>
+      <c r="E33" s="319"/>
+      <c r="F33" s="320"/>
+      <c r="G33" s="316"/>
+      <c r="H33" s="321"/>
+      <c r="I33" s="317"/>
+      <c r="J33" s="322"/>
+      <c r="K33" s="323"/>
+      <c r="L33" s="323"/>
+      <c r="M33" s="323"/>
+      <c r="N33" s="323"/>
+      <c r="O33" s="323"/>
+      <c r="P33" s="324"/>
+      <c r="Q33" s="325"/>
+      <c r="R33" s="326"/>
+      <c r="S33" s="326"/>
+      <c r="T33" s="326"/>
+      <c r="U33" s="326"/>
+      <c r="V33" s="326"/>
+      <c r="W33" s="326"/>
+      <c r="X33" s="326"/>
+      <c r="Y33" s="326"/>
+      <c r="Z33" s="326"/>
+      <c r="AA33" s="326"/>
+      <c r="AB33" s="326"/>
+      <c r="AC33" s="326"/>
+      <c r="AD33" s="326"/>
+      <c r="AE33" s="327"/>
+      <c r="AF33" s="322"/>
+      <c r="AG33" s="323"/>
+      <c r="AH33" s="323"/>
+      <c r="AI33" s="324"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13141,162 +13297,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -17275,7 +17275,7 @@
         <v>206</v>
       </c>
       <c r="G119" s="194" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H119" s="194"/>
       <c r="I119" s="194"/>
@@ -18903,7 +18903,7 @@
         <v>269</v>
       </c>
       <c r="G167" s="194" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H167" s="194"/>
       <c r="I167" s="194"/>
@@ -25893,7 +25893,7 @@
         <v>145</v>
       </c>
       <c r="G77" s="143" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H77" s="144"/>
       <c r="I77" s="144"/>
@@ -27233,7 +27233,7 @@
         <v>202</v>
       </c>
       <c r="G115" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H115" s="144"/>
       <c r="I115" s="144"/>
@@ -27268,7 +27268,7 @@
         <v>203</v>
       </c>
       <c r="G116" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H116" s="144"/>
       <c r="I116" s="144"/>
@@ -27303,7 +27303,7 @@
         <v>204</v>
       </c>
       <c r="G117" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H117" s="144"/>
       <c r="I117" s="144"/>
@@ -27338,7 +27338,7 @@
         <v>205</v>
       </c>
       <c r="G118" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H118" s="144"/>
       <c r="I118" s="144"/>
@@ -27373,7 +27373,7 @@
         <v>206</v>
       </c>
       <c r="G119" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H119" s="144"/>
       <c r="I119" s="144"/>
@@ -27410,7 +27410,7 @@
         <v>208</v>
       </c>
       <c r="G120" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H120" s="144"/>
       <c r="I120" s="144"/>
@@ -27445,7 +27445,7 @@
         <v>209</v>
       </c>
       <c r="G121" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H121" s="144"/>
       <c r="I121" s="144"/>
@@ -27587,7 +27587,7 @@
         <v>214</v>
       </c>
       <c r="G125" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H125" s="144"/>
       <c r="I125" s="144"/>
@@ -27702,7 +27702,7 @@
         <v>220</v>
       </c>
       <c r="G128" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H128" s="144"/>
       <c r="I128" s="144"/>
@@ -27737,7 +27737,7 @@
         <v>221</v>
       </c>
       <c r="G129" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H129" s="144"/>
       <c r="I129" s="144"/>
@@ -27772,7 +27772,7 @@
         <v>222</v>
       </c>
       <c r="G130" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H130" s="144"/>
       <c r="I130" s="144"/>
@@ -28066,7 +28066,7 @@
         <v>235</v>
       </c>
       <c r="G138" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H138" s="144"/>
       <c r="I138" s="144"/>
@@ -28103,7 +28103,7 @@
         <v>237</v>
       </c>
       <c r="G139" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H139" s="144"/>
       <c r="I139" s="144"/>
@@ -28140,7 +28140,7 @@
         <v>239</v>
       </c>
       <c r="G140" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H140" s="144"/>
       <c r="I140" s="144"/>
@@ -28214,7 +28214,7 @@
         <v>242</v>
       </c>
       <c r="G142" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H142" s="144"/>
       <c r="I142" s="144"/>
@@ -28465,7 +28465,7 @@
         <v>251</v>
       </c>
       <c r="G149" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H149" s="144"/>
       <c r="I149" s="144"/>
@@ -28500,7 +28500,7 @@
         <v>252</v>
       </c>
       <c r="G150" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H150" s="144"/>
       <c r="I150" s="144"/>
@@ -28537,7 +28537,7 @@
         <v>253</v>
       </c>
       <c r="G151" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H151" s="144"/>
       <c r="I151" s="144"/>
@@ -28572,7 +28572,7 @@
         <v>254</v>
       </c>
       <c r="G152" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H152" s="144"/>
       <c r="I152" s="144"/>
@@ -28607,7 +28607,7 @@
         <v>554</v>
       </c>
       <c r="G153" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H153" s="144"/>
       <c r="I153" s="144"/>
@@ -28642,7 +28642,7 @@
         <v>555</v>
       </c>
       <c r="G154" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H154" s="144"/>
       <c r="I154" s="144"/>
@@ -28677,7 +28677,7 @@
         <v>257</v>
       </c>
       <c r="G155" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H155" s="144"/>
       <c r="I155" s="144"/>
@@ -28712,7 +28712,7 @@
         <v>258</v>
       </c>
       <c r="G156" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H156" s="144"/>
       <c r="I156" s="144"/>
@@ -28747,7 +28747,7 @@
         <v>259</v>
       </c>
       <c r="G157" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H157" s="144"/>
       <c r="I157" s="144"/>
@@ -28782,7 +28782,7 @@
         <v>260</v>
       </c>
       <c r="G158" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H158" s="144"/>
       <c r="I158" s="144"/>
@@ -28817,7 +28817,7 @@
         <v>261</v>
       </c>
       <c r="G159" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H159" s="144"/>
       <c r="I159" s="144"/>
@@ -28852,7 +28852,7 @@
         <v>262</v>
       </c>
       <c r="G160" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H160" s="144"/>
       <c r="I160" s="144"/>
@@ -28887,7 +28887,7 @@
         <v>263</v>
       </c>
       <c r="G161" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H161" s="144"/>
       <c r="I161" s="144"/>
@@ -28924,7 +28924,7 @@
         <v>264</v>
       </c>
       <c r="G162" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H162" s="144"/>
       <c r="I162" s="144"/>
@@ -28959,7 +28959,7 @@
         <v>265</v>
       </c>
       <c r="G163" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H163" s="144"/>
       <c r="I163" s="144"/>
@@ -28994,7 +28994,7 @@
         <v>266</v>
       </c>
       <c r="G164" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H164" s="144"/>
       <c r="I164" s="144"/>
@@ -29029,7 +29029,7 @@
         <v>267</v>
       </c>
       <c r="G165" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H165" s="144"/>
       <c r="I165" s="144"/>
@@ -29064,7 +29064,7 @@
         <v>268</v>
       </c>
       <c r="G166" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H166" s="144"/>
       <c r="I166" s="144"/>
@@ -29099,7 +29099,7 @@
         <v>269</v>
       </c>
       <c r="G167" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H167" s="144"/>
       <c r="I167" s="144"/>
@@ -29171,7 +29171,7 @@
         <v>271</v>
       </c>
       <c r="G169" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H169" s="144"/>
       <c r="I169" s="144"/>
@@ -29206,7 +29206,7 @@
         <v>272</v>
       </c>
       <c r="G170" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H170" s="144"/>
       <c r="I170" s="144"/>
@@ -29241,7 +29241,7 @@
         <v>273</v>
       </c>
       <c r="G171" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H171" s="144"/>
       <c r="I171" s="144"/>
@@ -29276,7 +29276,7 @@
         <v>274</v>
       </c>
       <c r="G172" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H172" s="144"/>
       <c r="I172" s="144"/>
@@ -29311,7 +29311,7 @@
         <v>275</v>
       </c>
       <c r="G173" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H173" s="144"/>
       <c r="I173" s="144"/>
@@ -29486,7 +29486,7 @@
         <v>280</v>
       </c>
       <c r="G178" s="143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H178" s="144"/>
       <c r="I178" s="144"/>
@@ -33726,7 +33726,7 @@
         <v>419</v>
       </c>
       <c r="G296" s="117" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H296" s="117"/>
       <c r="I296" s="117"/>
@@ -33761,7 +33761,7 @@
         <v>420</v>
       </c>
       <c r="G297" s="117" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H297" s="117"/>
       <c r="I297" s="117"/>
@@ -34390,7 +34390,7 @@
         <v>438</v>
       </c>
       <c r="G316" s="117" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H316" s="194"/>
       <c r="I316" s="117"/>
@@ -35408,7 +35408,7 @@
         <v>473</v>
       </c>
       <c r="G346" s="143" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H346" s="144"/>
       <c r="I346" s="144"/>
@@ -36285,7 +36285,7 @@
         <v>502</v>
       </c>
       <c r="F372" s="151" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G372" s="151"/>
       <c r="H372" s="185"/>
@@ -36420,7 +36420,7 @@
         <v>528</v>
       </c>
       <c r="G376" s="263" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H376" s="123"/>
       <c r="I376" s="123"/>
@@ -36717,7 +36717,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="25" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -36785,7 +36785,7 @@
         <v>577</v>
       </c>
       <c r="F10" s="159" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>9</v>
@@ -36826,7 +36826,7 @@
         <v>579</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="D11" s="119" t="s">
         <v>580</v>
@@ -36885,7 +36885,7 @@
       </c>
       <c r="E13" s="268"/>
       <c r="F13" s="144" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G13" s="123" t="s">
         <v>581</v>
@@ -36967,7 +36967,7 @@
         <v>593</v>
       </c>
       <c r="F16" s="144" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G16" s="123" t="s">
         <v>581</v>
@@ -36986,7 +36986,7 @@
     </row>
     <row r="17" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A17" s="122" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -36995,7 +36995,7 @@
         <v>594</v>
       </c>
       <c r="F17" s="144" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G17" s="123" t="s">
         <v>581</v>
@@ -37014,7 +37014,7 @@
     </row>
     <row r="18" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A18" s="122" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -37023,7 +37023,7 @@
         <v>595</v>
       </c>
       <c r="F18" s="144" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G18" s="123" t="s">
         <v>581</v>
@@ -37053,7 +37053,7 @@
         <v>598</v>
       </c>
       <c r="F19" s="144" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G19" s="123" t="s">
         <v>581</v>
@@ -37083,7 +37083,7 @@
         <v>601</v>
       </c>
       <c r="F20" s="144" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G20" s="123" t="s">
         <v>581</v>
@@ -37107,11 +37107,11 @@
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
       <c r="D21" s="344" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E21" s="345"/>
       <c r="F21" s="144" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G21" s="123" t="s">
         <v>581</v>
@@ -37141,7 +37141,7 @@
       </c>
       <c r="E22" s="268"/>
       <c r="F22" s="144" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G22" s="123" t="s">
         <v>581</v>
@@ -37169,7 +37169,7 @@
       </c>
       <c r="E23" s="268"/>
       <c r="F23" s="144" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G23" s="123" t="s">
         <v>581</v>
@@ -37195,7 +37195,7 @@
         <v>635</v>
       </c>
       <c r="D24" s="151" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E24" s="136" t="s">
         <v>636</v>
@@ -37249,7 +37249,7 @@
       <c r="B26" s="67"/>
       <c r="C26" s="153"/>
       <c r="D26" s="151" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E26" s="136" t="s">
         <v>636</v>
@@ -37309,13 +37309,13 @@
       <c r="D28" s="128"/>
       <c r="E28" s="129"/>
       <c r="F28" s="144" t="s">
+        <v>643</v>
+      </c>
+      <c r="G28" s="126" t="s">
         <v>644</v>
       </c>
-      <c r="G28" s="126" t="s">
+      <c r="H28" s="117" t="s">
         <v>645</v>
-      </c>
-      <c r="H28" s="117" t="s">
-        <v>646</v>
       </c>
       <c r="I28" s="124"/>
       <c r="J28" s="124"/>
@@ -37328,7 +37328,7 @@
     </row>
     <row r="29" spans="1:16" s="31" customFormat="1">
       <c r="A29" s="158" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B29" s="164"/>
       <c r="C29" s="165" t="s">
@@ -37337,7 +37337,7 @@
       <c r="D29" s="166"/>
       <c r="E29" s="167"/>
       <c r="F29" s="144" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G29" s="168" t="s">
         <v>502</v>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBFBAC8-D050-47CC-88A7-CD63ED8FD68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34AEEAF-4C60-43A9-BBA7-CE729AA7B054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8371,13 +8371,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>単体テスト仕様書(画面)</t>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ブラウザの戻るは動作保証しない方針なので対象外</t>
     <rPh sb="5" eb="6">
       <t>モド</t>
@@ -8450,6 +8443,16 @@
   </si>
   <si>
     <t>テストコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書(リクエスト・取引単体(画面))</t>
+    <rPh sb="15" eb="19">
+      <t>トリヒキタンタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -10132,84 +10135,6 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -10316,6 +10241,84 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10765,6 +10768,26 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
+            <a:t>リクエスト・取引単体</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
             <a:t>画面</a:t>
           </a:r>
           <a:r>
@@ -10775,7 +10798,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>)</a:t>
+            <a:t>))</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11866,57 +11889,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="314" t="s">
+      <c r="A1" s="288" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="317" t="s">
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="291" t="s">
         <v>567</v>
       </c>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="323" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="293"/>
+      <c r="O1" s="297" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="324"/>
-      <c r="R1" s="325"/>
-      <c r="S1" s="332" t="s">
-        <v>649</v>
-      </c>
-      <c r="T1" s="333"/>
-      <c r="U1" s="333"/>
-      <c r="V1" s="333"/>
-      <c r="W1" s="333"/>
-      <c r="X1" s="333"/>
-      <c r="Y1" s="333"/>
-      <c r="Z1" s="334"/>
-      <c r="AA1" s="314" t="s">
+      <c r="P1" s="298"/>
+      <c r="Q1" s="298"/>
+      <c r="R1" s="299"/>
+      <c r="S1" s="306" t="s">
+        <v>658</v>
+      </c>
+      <c r="T1" s="307"/>
+      <c r="U1" s="307"/>
+      <c r="V1" s="307"/>
+      <c r="W1" s="307"/>
+      <c r="X1" s="307"/>
+      <c r="Y1" s="307"/>
+      <c r="Z1" s="308"/>
+      <c r="AA1" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="316"/>
-      <c r="AC1" s="341" t="str">
+      <c r="AB1" s="290"/>
+      <c r="AC1" s="315" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="342"/>
-      <c r="AE1" s="342"/>
-      <c r="AF1" s="343"/>
-      <c r="AG1" s="308">
+      <c r="AD1" s="316"/>
+      <c r="AE1" s="316"/>
+      <c r="AF1" s="317"/>
+      <c r="AG1" s="282">
         <f>IF(D8="","",D8)</f>
         <v>44792</v>
       </c>
-      <c r="AH1" s="309"/>
-      <c r="AI1" s="310"/>
+      <c r="AH1" s="283"/>
+      <c r="AI1" s="284"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11924,53 +11947,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="314" t="s">
+      <c r="A2" s="288" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="317" t="s">
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="291" t="s">
         <v>647</v>
       </c>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="318"/>
-      <c r="M2" s="318"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="326"/>
-      <c r="P2" s="327"/>
-      <c r="Q2" s="327"/>
-      <c r="R2" s="328"/>
-      <c r="S2" s="335"/>
-      <c r="T2" s="336"/>
-      <c r="U2" s="336"/>
-      <c r="V2" s="336"/>
-      <c r="W2" s="336"/>
-      <c r="X2" s="336"/>
-      <c r="Y2" s="336"/>
-      <c r="Z2" s="337"/>
-      <c r="AA2" s="314" t="s">
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="292"/>
+      <c r="N2" s="293"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="301"/>
+      <c r="Q2" s="301"/>
+      <c r="R2" s="302"/>
+      <c r="S2" s="309"/>
+      <c r="T2" s="310"/>
+      <c r="U2" s="310"/>
+      <c r="V2" s="310"/>
+      <c r="W2" s="310"/>
+      <c r="X2" s="310"/>
+      <c r="Y2" s="310"/>
+      <c r="Z2" s="311"/>
+      <c r="AA2" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="316"/>
-      <c r="AC2" s="320" t="str">
+      <c r="AB2" s="290"/>
+      <c r="AC2" s="294" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="321"/>
-      <c r="AE2" s="321"/>
-      <c r="AF2" s="322"/>
-      <c r="AG2" s="308" t="str">
+      <c r="AD2" s="295"/>
+      <c r="AE2" s="295"/>
+      <c r="AF2" s="296"/>
+      <c r="AG2" s="282" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="309"/>
-      <c r="AI2" s="310"/>
+      <c r="AH2" s="283"/>
+      <c r="AI2" s="284"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -11978,45 +12001,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="288" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="317" t="s">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="291" t="s">
         <v>648</v>
       </c>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="329"/>
-      <c r="P3" s="330"/>
-      <c r="Q3" s="330"/>
-      <c r="R3" s="331"/>
-      <c r="S3" s="338"/>
-      <c r="T3" s="339"/>
-      <c r="U3" s="339"/>
-      <c r="V3" s="339"/>
-      <c r="W3" s="339"/>
-      <c r="X3" s="339"/>
-      <c r="Y3" s="339"/>
-      <c r="Z3" s="340"/>
-      <c r="AA3" s="314"/>
-      <c r="AB3" s="316"/>
-      <c r="AC3" s="341"/>
-      <c r="AD3" s="342"/>
-      <c r="AE3" s="342"/>
-      <c r="AF3" s="343"/>
-      <c r="AG3" s="308"/>
-      <c r="AH3" s="309"/>
-      <c r="AI3" s="310"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="293"/>
+      <c r="O3" s="303"/>
+      <c r="P3" s="304"/>
+      <c r="Q3" s="304"/>
+      <c r="R3" s="305"/>
+      <c r="S3" s="312"/>
+      <c r="T3" s="313"/>
+      <c r="U3" s="313"/>
+      <c r="V3" s="313"/>
+      <c r="W3" s="313"/>
+      <c r="X3" s="313"/>
+      <c r="Y3" s="313"/>
+      <c r="Z3" s="314"/>
+      <c r="AA3" s="288"/>
+      <c r="AB3" s="290"/>
+      <c r="AC3" s="315"/>
+      <c r="AD3" s="316"/>
+      <c r="AE3" s="316"/>
+      <c r="AF3" s="317"/>
+      <c r="AG3" s="282"/>
+      <c r="AH3" s="283"/>
+      <c r="AI3" s="284"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12053,1032 +12076,1188 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="311" t="s">
+      <c r="B7" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="312"/>
-      <c r="D7" s="311" t="s">
+      <c r="C7" s="286"/>
+      <c r="D7" s="285" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="313"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="311" t="s">
+      <c r="E7" s="287"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="313"/>
-      <c r="I7" s="312"/>
-      <c r="J7" s="311" t="s">
+      <c r="H7" s="287"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="285" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="313"/>
-      <c r="L7" s="313"/>
-      <c r="M7" s="313"/>
-      <c r="N7" s="313"/>
-      <c r="O7" s="313"/>
-      <c r="P7" s="312"/>
-      <c r="Q7" s="311" t="s">
+      <c r="K7" s="287"/>
+      <c r="L7" s="287"/>
+      <c r="M7" s="287"/>
+      <c r="N7" s="287"/>
+      <c r="O7" s="287"/>
+      <c r="P7" s="286"/>
+      <c r="Q7" s="285" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="313"/>
-      <c r="S7" s="313"/>
-      <c r="T7" s="313"/>
-      <c r="U7" s="313"/>
-      <c r="V7" s="313"/>
-      <c r="W7" s="313"/>
-      <c r="X7" s="313"/>
-      <c r="Y7" s="313"/>
-      <c r="Z7" s="313"/>
-      <c r="AA7" s="313"/>
-      <c r="AB7" s="313"/>
-      <c r="AC7" s="313"/>
-      <c r="AD7" s="313"/>
-      <c r="AE7" s="312"/>
-      <c r="AF7" s="311" t="s">
+      <c r="R7" s="287"/>
+      <c r="S7" s="287"/>
+      <c r="T7" s="287"/>
+      <c r="U7" s="287"/>
+      <c r="V7" s="287"/>
+      <c r="W7" s="287"/>
+      <c r="X7" s="287"/>
+      <c r="Y7" s="287"/>
+      <c r="Z7" s="287"/>
+      <c r="AA7" s="287"/>
+      <c r="AB7" s="287"/>
+      <c r="AC7" s="287"/>
+      <c r="AD7" s="287"/>
+      <c r="AE7" s="286"/>
+      <c r="AF7" s="285" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="313"/>
-      <c r="AH7" s="313"/>
-      <c r="AI7" s="312"/>
+      <c r="AG7" s="287"/>
+      <c r="AH7" s="287"/>
+      <c r="AI7" s="286"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="295" t="s">
+      <c r="B8" s="330" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="296"/>
-      <c r="D8" s="297">
+      <c r="C8" s="331"/>
+      <c r="D8" s="332">
         <v>44792</v>
       </c>
-      <c r="E8" s="298"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="300" t="s">
+      <c r="E8" s="333"/>
+      <c r="F8" s="334"/>
+      <c r="G8" s="335" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="301"/>
-      <c r="I8" s="296"/>
-      <c r="J8" s="302"/>
-      <c r="K8" s="303"/>
-      <c r="L8" s="303"/>
-      <c r="M8" s="303"/>
-      <c r="N8" s="303"/>
-      <c r="O8" s="303"/>
-      <c r="P8" s="304"/>
-      <c r="Q8" s="305" t="s">
+      <c r="H8" s="336"/>
+      <c r="I8" s="331"/>
+      <c r="J8" s="337"/>
+      <c r="K8" s="338"/>
+      <c r="L8" s="338"/>
+      <c r="M8" s="338"/>
+      <c r="N8" s="338"/>
+      <c r="O8" s="338"/>
+      <c r="P8" s="339"/>
+      <c r="Q8" s="340" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="306"/>
-      <c r="S8" s="306"/>
-      <c r="T8" s="306"/>
-      <c r="U8" s="306"/>
-      <c r="V8" s="306"/>
-      <c r="W8" s="306"/>
-      <c r="X8" s="306"/>
-      <c r="Y8" s="306"/>
-      <c r="Z8" s="306"/>
-      <c r="AA8" s="306"/>
-      <c r="AB8" s="306"/>
-      <c r="AC8" s="306"/>
-      <c r="AD8" s="306"/>
-      <c r="AE8" s="307"/>
-      <c r="AF8" s="302" t="s">
+      <c r="R8" s="341"/>
+      <c r="S8" s="341"/>
+      <c r="T8" s="341"/>
+      <c r="U8" s="341"/>
+      <c r="V8" s="341"/>
+      <c r="W8" s="341"/>
+      <c r="X8" s="341"/>
+      <c r="Y8" s="341"/>
+      <c r="Z8" s="341"/>
+      <c r="AA8" s="341"/>
+      <c r="AB8" s="341"/>
+      <c r="AC8" s="341"/>
+      <c r="AD8" s="341"/>
+      <c r="AE8" s="342"/>
+      <c r="AF8" s="337" t="s">
         <v>39</v>
       </c>
-      <c r="AG8" s="303"/>
-      <c r="AH8" s="303"/>
-      <c r="AI8" s="304"/>
+      <c r="AG8" s="338"/>
+      <c r="AH8" s="338"/>
+      <c r="AI8" s="339"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="282"/>
-      <c r="C9" s="283"/>
-      <c r="D9" s="284"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="284"/>
-      <c r="H9" s="287"/>
-      <c r="I9" s="283"/>
-      <c r="J9" s="288"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="289"/>
-      <c r="M9" s="289"/>
-      <c r="N9" s="289"/>
-      <c r="O9" s="289"/>
-      <c r="P9" s="290"/>
-      <c r="Q9" s="291"/>
-      <c r="R9" s="292"/>
-      <c r="S9" s="292"/>
-      <c r="T9" s="292"/>
-      <c r="U9" s="292"/>
-      <c r="V9" s="292"/>
-      <c r="W9" s="292"/>
-      <c r="X9" s="292"/>
-      <c r="Y9" s="292"/>
-      <c r="Z9" s="292"/>
-      <c r="AA9" s="292"/>
-      <c r="AB9" s="292"/>
-      <c r="AC9" s="292"/>
-      <c r="AD9" s="292"/>
-      <c r="AE9" s="293"/>
-      <c r="AF9" s="288"/>
-      <c r="AG9" s="289"/>
-      <c r="AH9" s="289"/>
-      <c r="AI9" s="290"/>
+      <c r="B9" s="318"/>
+      <c r="C9" s="319"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="321"/>
+      <c r="F9" s="322"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="323"/>
+      <c r="I9" s="319"/>
+      <c r="J9" s="324"/>
+      <c r="K9" s="325"/>
+      <c r="L9" s="325"/>
+      <c r="M9" s="325"/>
+      <c r="N9" s="325"/>
+      <c r="O9" s="325"/>
+      <c r="P9" s="326"/>
+      <c r="Q9" s="327"/>
+      <c r="R9" s="328"/>
+      <c r="S9" s="328"/>
+      <c r="T9" s="328"/>
+      <c r="U9" s="328"/>
+      <c r="V9" s="328"/>
+      <c r="W9" s="328"/>
+      <c r="X9" s="328"/>
+      <c r="Y9" s="328"/>
+      <c r="Z9" s="328"/>
+      <c r="AA9" s="328"/>
+      <c r="AB9" s="328"/>
+      <c r="AC9" s="328"/>
+      <c r="AD9" s="328"/>
+      <c r="AE9" s="329"/>
+      <c r="AF9" s="324"/>
+      <c r="AG9" s="325"/>
+      <c r="AH9" s="325"/>
+      <c r="AI9" s="326"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="282"/>
-      <c r="C10" s="283"/>
-      <c r="D10" s="284"/>
-      <c r="E10" s="285"/>
-      <c r="F10" s="286"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="283"/>
-      <c r="J10" s="288"/>
-      <c r="K10" s="289"/>
-      <c r="L10" s="289"/>
-      <c r="M10" s="289"/>
-      <c r="N10" s="289"/>
-      <c r="O10" s="289"/>
-      <c r="P10" s="290"/>
-      <c r="Q10" s="291"/>
-      <c r="R10" s="292"/>
-      <c r="S10" s="292"/>
-      <c r="T10" s="292"/>
-      <c r="U10" s="292"/>
-      <c r="V10" s="292"/>
-      <c r="W10" s="292"/>
-      <c r="X10" s="292"/>
-      <c r="Y10" s="292"/>
-      <c r="Z10" s="292"/>
-      <c r="AA10" s="292"/>
-      <c r="AB10" s="292"/>
-      <c r="AC10" s="292"/>
-      <c r="AD10" s="292"/>
-      <c r="AE10" s="293"/>
-      <c r="AF10" s="288"/>
-      <c r="AG10" s="289"/>
-      <c r="AH10" s="289"/>
-      <c r="AI10" s="290"/>
+      <c r="B10" s="318"/>
+      <c r="C10" s="319"/>
+      <c r="D10" s="320"/>
+      <c r="E10" s="321"/>
+      <c r="F10" s="322"/>
+      <c r="G10" s="318"/>
+      <c r="H10" s="323"/>
+      <c r="I10" s="319"/>
+      <c r="J10" s="324"/>
+      <c r="K10" s="325"/>
+      <c r="L10" s="325"/>
+      <c r="M10" s="325"/>
+      <c r="N10" s="325"/>
+      <c r="O10" s="325"/>
+      <c r="P10" s="326"/>
+      <c r="Q10" s="327"/>
+      <c r="R10" s="328"/>
+      <c r="S10" s="328"/>
+      <c r="T10" s="328"/>
+      <c r="U10" s="328"/>
+      <c r="V10" s="328"/>
+      <c r="W10" s="328"/>
+      <c r="X10" s="328"/>
+      <c r="Y10" s="328"/>
+      <c r="Z10" s="328"/>
+      <c r="AA10" s="328"/>
+      <c r="AB10" s="328"/>
+      <c r="AC10" s="328"/>
+      <c r="AD10" s="328"/>
+      <c r="AE10" s="329"/>
+      <c r="AF10" s="324"/>
+      <c r="AG10" s="325"/>
+      <c r="AH10" s="325"/>
+      <c r="AI10" s="326"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="282"/>
-      <c r="C11" s="283"/>
-      <c r="D11" s="284"/>
-      <c r="E11" s="285"/>
-      <c r="F11" s="286"/>
-      <c r="G11" s="282"/>
-      <c r="H11" s="287"/>
-      <c r="I11" s="283"/>
-      <c r="J11" s="288"/>
-      <c r="K11" s="289"/>
-      <c r="L11" s="289"/>
-      <c r="M11" s="289"/>
-      <c r="N11" s="289"/>
-      <c r="O11" s="289"/>
-      <c r="P11" s="290"/>
-      <c r="Q11" s="291"/>
-      <c r="R11" s="292"/>
-      <c r="S11" s="292"/>
-      <c r="T11" s="292"/>
-      <c r="U11" s="292"/>
-      <c r="V11" s="292"/>
-      <c r="W11" s="292"/>
-      <c r="X11" s="292"/>
-      <c r="Y11" s="292"/>
-      <c r="Z11" s="292"/>
-      <c r="AA11" s="292"/>
-      <c r="AB11" s="292"/>
-      <c r="AC11" s="292"/>
-      <c r="AD11" s="292"/>
-      <c r="AE11" s="293"/>
-      <c r="AF11" s="288"/>
-      <c r="AG11" s="289"/>
-      <c r="AH11" s="289"/>
-      <c r="AI11" s="290"/>
+      <c r="B11" s="318"/>
+      <c r="C11" s="319"/>
+      <c r="D11" s="320"/>
+      <c r="E11" s="321"/>
+      <c r="F11" s="322"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="323"/>
+      <c r="I11" s="319"/>
+      <c r="J11" s="324"/>
+      <c r="K11" s="325"/>
+      <c r="L11" s="325"/>
+      <c r="M11" s="325"/>
+      <c r="N11" s="325"/>
+      <c r="O11" s="325"/>
+      <c r="P11" s="326"/>
+      <c r="Q11" s="327"/>
+      <c r="R11" s="328"/>
+      <c r="S11" s="328"/>
+      <c r="T11" s="328"/>
+      <c r="U11" s="328"/>
+      <c r="V11" s="328"/>
+      <c r="W11" s="328"/>
+      <c r="X11" s="328"/>
+      <c r="Y11" s="328"/>
+      <c r="Z11" s="328"/>
+      <c r="AA11" s="328"/>
+      <c r="AB11" s="328"/>
+      <c r="AC11" s="328"/>
+      <c r="AD11" s="328"/>
+      <c r="AE11" s="329"/>
+      <c r="AF11" s="324"/>
+      <c r="AG11" s="325"/>
+      <c r="AH11" s="325"/>
+      <c r="AI11" s="326"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="282"/>
-      <c r="C12" s="283"/>
-      <c r="D12" s="284"/>
-      <c r="E12" s="285"/>
-      <c r="F12" s="286"/>
-      <c r="G12" s="282"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="283"/>
-      <c r="J12" s="288"/>
-      <c r="K12" s="289"/>
-      <c r="L12" s="289"/>
-      <c r="M12" s="289"/>
-      <c r="N12" s="289"/>
-      <c r="O12" s="289"/>
-      <c r="P12" s="290"/>
-      <c r="Q12" s="291"/>
-      <c r="R12" s="292"/>
-      <c r="S12" s="292"/>
-      <c r="T12" s="292"/>
-      <c r="U12" s="292"/>
-      <c r="V12" s="292"/>
-      <c r="W12" s="292"/>
-      <c r="X12" s="292"/>
-      <c r="Y12" s="292"/>
-      <c r="Z12" s="292"/>
-      <c r="AA12" s="292"/>
-      <c r="AB12" s="292"/>
-      <c r="AC12" s="292"/>
-      <c r="AD12" s="292"/>
-      <c r="AE12" s="293"/>
-      <c r="AF12" s="288"/>
-      <c r="AG12" s="289"/>
-      <c r="AH12" s="289"/>
-      <c r="AI12" s="290"/>
+      <c r="B12" s="318"/>
+      <c r="C12" s="319"/>
+      <c r="D12" s="320"/>
+      <c r="E12" s="321"/>
+      <c r="F12" s="322"/>
+      <c r="G12" s="318"/>
+      <c r="H12" s="323"/>
+      <c r="I12" s="319"/>
+      <c r="J12" s="324"/>
+      <c r="K12" s="325"/>
+      <c r="L12" s="325"/>
+      <c r="M12" s="325"/>
+      <c r="N12" s="325"/>
+      <c r="O12" s="325"/>
+      <c r="P12" s="326"/>
+      <c r="Q12" s="327"/>
+      <c r="R12" s="328"/>
+      <c r="S12" s="328"/>
+      <c r="T12" s="328"/>
+      <c r="U12" s="328"/>
+      <c r="V12" s="328"/>
+      <c r="W12" s="328"/>
+      <c r="X12" s="328"/>
+      <c r="Y12" s="328"/>
+      <c r="Z12" s="328"/>
+      <c r="AA12" s="328"/>
+      <c r="AB12" s="328"/>
+      <c r="AC12" s="328"/>
+      <c r="AD12" s="328"/>
+      <c r="AE12" s="329"/>
+      <c r="AF12" s="324"/>
+      <c r="AG12" s="325"/>
+      <c r="AH12" s="325"/>
+      <c r="AI12" s="326"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="282"/>
-      <c r="C13" s="283"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="282"/>
-      <c r="H13" s="287"/>
-      <c r="I13" s="283"/>
-      <c r="J13" s="288"/>
-      <c r="K13" s="289"/>
-      <c r="L13" s="289"/>
-      <c r="M13" s="289"/>
-      <c r="N13" s="289"/>
-      <c r="O13" s="289"/>
-      <c r="P13" s="290"/>
-      <c r="Q13" s="291"/>
-      <c r="R13" s="292"/>
-      <c r="S13" s="292"/>
-      <c r="T13" s="292"/>
-      <c r="U13" s="292"/>
-      <c r="V13" s="292"/>
-      <c r="W13" s="292"/>
-      <c r="X13" s="292"/>
-      <c r="Y13" s="292"/>
-      <c r="Z13" s="292"/>
-      <c r="AA13" s="292"/>
-      <c r="AB13" s="292"/>
-      <c r="AC13" s="292"/>
-      <c r="AD13" s="292"/>
-      <c r="AE13" s="293"/>
-      <c r="AF13" s="288"/>
-      <c r="AG13" s="289"/>
-      <c r="AH13" s="289"/>
-      <c r="AI13" s="290"/>
+      <c r="B13" s="318"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="320"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="318"/>
+      <c r="H13" s="323"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="324"/>
+      <c r="K13" s="325"/>
+      <c r="L13" s="325"/>
+      <c r="M13" s="325"/>
+      <c r="N13" s="325"/>
+      <c r="O13" s="325"/>
+      <c r="P13" s="326"/>
+      <c r="Q13" s="327"/>
+      <c r="R13" s="328"/>
+      <c r="S13" s="328"/>
+      <c r="T13" s="328"/>
+      <c r="U13" s="328"/>
+      <c r="V13" s="328"/>
+      <c r="W13" s="328"/>
+      <c r="X13" s="328"/>
+      <c r="Y13" s="328"/>
+      <c r="Z13" s="328"/>
+      <c r="AA13" s="328"/>
+      <c r="AB13" s="328"/>
+      <c r="AC13" s="328"/>
+      <c r="AD13" s="328"/>
+      <c r="AE13" s="329"/>
+      <c r="AF13" s="324"/>
+      <c r="AG13" s="325"/>
+      <c r="AH13" s="325"/>
+      <c r="AI13" s="326"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="282"/>
-      <c r="C14" s="283"/>
-      <c r="D14" s="284"/>
-      <c r="E14" s="285"/>
-      <c r="F14" s="286"/>
-      <c r="G14" s="282"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="283"/>
-      <c r="J14" s="288"/>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
-      <c r="M14" s="289"/>
-      <c r="N14" s="289"/>
-      <c r="O14" s="289"/>
-      <c r="P14" s="290"/>
-      <c r="Q14" s="291"/>
-      <c r="R14" s="292"/>
-      <c r="S14" s="292"/>
-      <c r="T14" s="292"/>
-      <c r="U14" s="292"/>
-      <c r="V14" s="292"/>
-      <c r="W14" s="292"/>
-      <c r="X14" s="292"/>
-      <c r="Y14" s="292"/>
-      <c r="Z14" s="292"/>
-      <c r="AA14" s="292"/>
-      <c r="AB14" s="292"/>
-      <c r="AC14" s="292"/>
-      <c r="AD14" s="292"/>
-      <c r="AE14" s="293"/>
-      <c r="AF14" s="288"/>
-      <c r="AG14" s="289"/>
-      <c r="AH14" s="289"/>
-      <c r="AI14" s="290"/>
+      <c r="B14" s="318"/>
+      <c r="C14" s="319"/>
+      <c r="D14" s="320"/>
+      <c r="E14" s="321"/>
+      <c r="F14" s="322"/>
+      <c r="G14" s="318"/>
+      <c r="H14" s="323"/>
+      <c r="I14" s="319"/>
+      <c r="J14" s="324"/>
+      <c r="K14" s="325"/>
+      <c r="L14" s="325"/>
+      <c r="M14" s="325"/>
+      <c r="N14" s="325"/>
+      <c r="O14" s="325"/>
+      <c r="P14" s="326"/>
+      <c r="Q14" s="327"/>
+      <c r="R14" s="328"/>
+      <c r="S14" s="328"/>
+      <c r="T14" s="328"/>
+      <c r="U14" s="328"/>
+      <c r="V14" s="328"/>
+      <c r="W14" s="328"/>
+      <c r="X14" s="328"/>
+      <c r="Y14" s="328"/>
+      <c r="Z14" s="328"/>
+      <c r="AA14" s="328"/>
+      <c r="AB14" s="328"/>
+      <c r="AC14" s="328"/>
+      <c r="AD14" s="328"/>
+      <c r="AE14" s="329"/>
+      <c r="AF14" s="324"/>
+      <c r="AG14" s="325"/>
+      <c r="AH14" s="325"/>
+      <c r="AI14" s="326"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="282"/>
-      <c r="C15" s="283"/>
-      <c r="D15" s="284"/>
-      <c r="E15" s="285"/>
-      <c r="F15" s="286"/>
-      <c r="G15" s="282"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="283"/>
-      <c r="J15" s="288"/>
-      <c r="K15" s="289"/>
-      <c r="L15" s="289"/>
-      <c r="M15" s="289"/>
-      <c r="N15" s="289"/>
-      <c r="O15" s="289"/>
-      <c r="P15" s="290"/>
-      <c r="Q15" s="291"/>
-      <c r="R15" s="292"/>
-      <c r="S15" s="292"/>
-      <c r="T15" s="292"/>
-      <c r="U15" s="292"/>
-      <c r="V15" s="292"/>
-      <c r="W15" s="292"/>
-      <c r="X15" s="292"/>
-      <c r="Y15" s="292"/>
-      <c r="Z15" s="292"/>
-      <c r="AA15" s="292"/>
-      <c r="AB15" s="292"/>
-      <c r="AC15" s="292"/>
-      <c r="AD15" s="292"/>
-      <c r="AE15" s="293"/>
-      <c r="AF15" s="288"/>
-      <c r="AG15" s="289"/>
-      <c r="AH15" s="289"/>
-      <c r="AI15" s="290"/>
+      <c r="B15" s="318"/>
+      <c r="C15" s="319"/>
+      <c r="D15" s="320"/>
+      <c r="E15" s="321"/>
+      <c r="F15" s="322"/>
+      <c r="G15" s="318"/>
+      <c r="H15" s="323"/>
+      <c r="I15" s="319"/>
+      <c r="J15" s="324"/>
+      <c r="K15" s="325"/>
+      <c r="L15" s="325"/>
+      <c r="M15" s="325"/>
+      <c r="N15" s="325"/>
+      <c r="O15" s="325"/>
+      <c r="P15" s="326"/>
+      <c r="Q15" s="327"/>
+      <c r="R15" s="328"/>
+      <c r="S15" s="328"/>
+      <c r="T15" s="328"/>
+      <c r="U15" s="328"/>
+      <c r="V15" s="328"/>
+      <c r="W15" s="328"/>
+      <c r="X15" s="328"/>
+      <c r="Y15" s="328"/>
+      <c r="Z15" s="328"/>
+      <c r="AA15" s="328"/>
+      <c r="AB15" s="328"/>
+      <c r="AC15" s="328"/>
+      <c r="AD15" s="328"/>
+      <c r="AE15" s="329"/>
+      <c r="AF15" s="324"/>
+      <c r="AG15" s="325"/>
+      <c r="AH15" s="325"/>
+      <c r="AI15" s="326"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="282"/>
-      <c r="C16" s="283"/>
-      <c r="D16" s="284"/>
-      <c r="E16" s="285"/>
-      <c r="F16" s="286"/>
-      <c r="G16" s="282"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="283"/>
-      <c r="J16" s="288"/>
-      <c r="K16" s="289"/>
-      <c r="L16" s="289"/>
-      <c r="M16" s="289"/>
-      <c r="N16" s="289"/>
-      <c r="O16" s="289"/>
-      <c r="P16" s="290"/>
-      <c r="Q16" s="291"/>
-      <c r="R16" s="292"/>
-      <c r="S16" s="292"/>
-      <c r="T16" s="292"/>
-      <c r="U16" s="292"/>
-      <c r="V16" s="292"/>
-      <c r="W16" s="292"/>
-      <c r="X16" s="292"/>
-      <c r="Y16" s="292"/>
-      <c r="Z16" s="292"/>
-      <c r="AA16" s="292"/>
-      <c r="AB16" s="292"/>
-      <c r="AC16" s="292"/>
-      <c r="AD16" s="292"/>
-      <c r="AE16" s="293"/>
-      <c r="AF16" s="288"/>
-      <c r="AG16" s="289"/>
-      <c r="AH16" s="289"/>
-      <c r="AI16" s="290"/>
+      <c r="B16" s="318"/>
+      <c r="C16" s="319"/>
+      <c r="D16" s="320"/>
+      <c r="E16" s="321"/>
+      <c r="F16" s="322"/>
+      <c r="G16" s="318"/>
+      <c r="H16" s="323"/>
+      <c r="I16" s="319"/>
+      <c r="J16" s="324"/>
+      <c r="K16" s="325"/>
+      <c r="L16" s="325"/>
+      <c r="M16" s="325"/>
+      <c r="N16" s="325"/>
+      <c r="O16" s="325"/>
+      <c r="P16" s="326"/>
+      <c r="Q16" s="327"/>
+      <c r="R16" s="328"/>
+      <c r="S16" s="328"/>
+      <c r="T16" s="328"/>
+      <c r="U16" s="328"/>
+      <c r="V16" s="328"/>
+      <c r="W16" s="328"/>
+      <c r="X16" s="328"/>
+      <c r="Y16" s="328"/>
+      <c r="Z16" s="328"/>
+      <c r="AA16" s="328"/>
+      <c r="AB16" s="328"/>
+      <c r="AC16" s="328"/>
+      <c r="AD16" s="328"/>
+      <c r="AE16" s="329"/>
+      <c r="AF16" s="324"/>
+      <c r="AG16" s="325"/>
+      <c r="AH16" s="325"/>
+      <c r="AI16" s="326"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="282"/>
-      <c r="C17" s="283"/>
-      <c r="D17" s="284"/>
-      <c r="E17" s="285"/>
-      <c r="F17" s="286"/>
-      <c r="G17" s="282"/>
-      <c r="H17" s="287"/>
-      <c r="I17" s="283"/>
-      <c r="J17" s="288"/>
-      <c r="K17" s="289"/>
-      <c r="L17" s="289"/>
-      <c r="M17" s="289"/>
-      <c r="N17" s="289"/>
-      <c r="O17" s="289"/>
-      <c r="P17" s="290"/>
-      <c r="Q17" s="291"/>
-      <c r="R17" s="292"/>
-      <c r="S17" s="292"/>
-      <c r="T17" s="292"/>
-      <c r="U17" s="292"/>
-      <c r="V17" s="292"/>
-      <c r="W17" s="292"/>
-      <c r="X17" s="292"/>
-      <c r="Y17" s="292"/>
-      <c r="Z17" s="292"/>
-      <c r="AA17" s="292"/>
-      <c r="AB17" s="292"/>
-      <c r="AC17" s="292"/>
-      <c r="AD17" s="292"/>
-      <c r="AE17" s="293"/>
-      <c r="AF17" s="288"/>
-      <c r="AG17" s="289"/>
-      <c r="AH17" s="289"/>
-      <c r="AI17" s="290"/>
+      <c r="B17" s="318"/>
+      <c r="C17" s="319"/>
+      <c r="D17" s="320"/>
+      <c r="E17" s="321"/>
+      <c r="F17" s="322"/>
+      <c r="G17" s="318"/>
+      <c r="H17" s="323"/>
+      <c r="I17" s="319"/>
+      <c r="J17" s="324"/>
+      <c r="K17" s="325"/>
+      <c r="L17" s="325"/>
+      <c r="M17" s="325"/>
+      <c r="N17" s="325"/>
+      <c r="O17" s="325"/>
+      <c r="P17" s="326"/>
+      <c r="Q17" s="327"/>
+      <c r="R17" s="328"/>
+      <c r="S17" s="328"/>
+      <c r="T17" s="328"/>
+      <c r="U17" s="328"/>
+      <c r="V17" s="328"/>
+      <c r="W17" s="328"/>
+      <c r="X17" s="328"/>
+      <c r="Y17" s="328"/>
+      <c r="Z17" s="328"/>
+      <c r="AA17" s="328"/>
+      <c r="AB17" s="328"/>
+      <c r="AC17" s="328"/>
+      <c r="AD17" s="328"/>
+      <c r="AE17" s="329"/>
+      <c r="AF17" s="324"/>
+      <c r="AG17" s="325"/>
+      <c r="AH17" s="325"/>
+      <c r="AI17" s="326"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="282"/>
-      <c r="C18" s="283"/>
-      <c r="D18" s="284"/>
-      <c r="E18" s="285"/>
-      <c r="F18" s="286"/>
-      <c r="G18" s="282"/>
-      <c r="H18" s="287"/>
-      <c r="I18" s="283"/>
-      <c r="J18" s="288"/>
-      <c r="K18" s="289"/>
-      <c r="L18" s="289"/>
-      <c r="M18" s="289"/>
-      <c r="N18" s="289"/>
-      <c r="O18" s="289"/>
-      <c r="P18" s="290"/>
-      <c r="Q18" s="291"/>
-      <c r="R18" s="292"/>
-      <c r="S18" s="292"/>
-      <c r="T18" s="292"/>
-      <c r="U18" s="292"/>
-      <c r="V18" s="292"/>
-      <c r="W18" s="292"/>
-      <c r="X18" s="292"/>
-      <c r="Y18" s="292"/>
-      <c r="Z18" s="292"/>
-      <c r="AA18" s="292"/>
-      <c r="AB18" s="292"/>
-      <c r="AC18" s="292"/>
-      <c r="AD18" s="292"/>
-      <c r="AE18" s="293"/>
-      <c r="AF18" s="288"/>
-      <c r="AG18" s="289"/>
-      <c r="AH18" s="289"/>
-      <c r="AI18" s="290"/>
+      <c r="B18" s="318"/>
+      <c r="C18" s="319"/>
+      <c r="D18" s="320"/>
+      <c r="E18" s="321"/>
+      <c r="F18" s="322"/>
+      <c r="G18" s="318"/>
+      <c r="H18" s="323"/>
+      <c r="I18" s="319"/>
+      <c r="J18" s="324"/>
+      <c r="K18" s="325"/>
+      <c r="L18" s="325"/>
+      <c r="M18" s="325"/>
+      <c r="N18" s="325"/>
+      <c r="O18" s="325"/>
+      <c r="P18" s="326"/>
+      <c r="Q18" s="327"/>
+      <c r="R18" s="328"/>
+      <c r="S18" s="328"/>
+      <c r="T18" s="328"/>
+      <c r="U18" s="328"/>
+      <c r="V18" s="328"/>
+      <c r="W18" s="328"/>
+      <c r="X18" s="328"/>
+      <c r="Y18" s="328"/>
+      <c r="Z18" s="328"/>
+      <c r="AA18" s="328"/>
+      <c r="AB18" s="328"/>
+      <c r="AC18" s="328"/>
+      <c r="AD18" s="328"/>
+      <c r="AE18" s="329"/>
+      <c r="AF18" s="324"/>
+      <c r="AG18" s="325"/>
+      <c r="AH18" s="325"/>
+      <c r="AI18" s="326"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="282"/>
-      <c r="C19" s="283"/>
-      <c r="D19" s="284"/>
-      <c r="E19" s="285"/>
-      <c r="F19" s="286"/>
-      <c r="G19" s="282"/>
-      <c r="H19" s="287"/>
-      <c r="I19" s="283"/>
-      <c r="J19" s="288"/>
-      <c r="K19" s="289"/>
-      <c r="L19" s="289"/>
-      <c r="M19" s="289"/>
-      <c r="N19" s="289"/>
-      <c r="O19" s="289"/>
-      <c r="P19" s="290"/>
-      <c r="Q19" s="291"/>
-      <c r="R19" s="292"/>
-      <c r="S19" s="292"/>
-      <c r="T19" s="292"/>
-      <c r="U19" s="292"/>
-      <c r="V19" s="292"/>
-      <c r="W19" s="292"/>
-      <c r="X19" s="292"/>
-      <c r="Y19" s="292"/>
-      <c r="Z19" s="292"/>
-      <c r="AA19" s="292"/>
-      <c r="AB19" s="292"/>
-      <c r="AC19" s="292"/>
-      <c r="AD19" s="292"/>
-      <c r="AE19" s="293"/>
-      <c r="AF19" s="288"/>
-      <c r="AG19" s="289"/>
-      <c r="AH19" s="289"/>
-      <c r="AI19" s="290"/>
+      <c r="B19" s="318"/>
+      <c r="C19" s="319"/>
+      <c r="D19" s="320"/>
+      <c r="E19" s="321"/>
+      <c r="F19" s="322"/>
+      <c r="G19" s="318"/>
+      <c r="H19" s="323"/>
+      <c r="I19" s="319"/>
+      <c r="J19" s="324"/>
+      <c r="K19" s="325"/>
+      <c r="L19" s="325"/>
+      <c r="M19" s="325"/>
+      <c r="N19" s="325"/>
+      <c r="O19" s="325"/>
+      <c r="P19" s="326"/>
+      <c r="Q19" s="327"/>
+      <c r="R19" s="328"/>
+      <c r="S19" s="328"/>
+      <c r="T19" s="328"/>
+      <c r="U19" s="328"/>
+      <c r="V19" s="328"/>
+      <c r="W19" s="328"/>
+      <c r="X19" s="328"/>
+      <c r="Y19" s="328"/>
+      <c r="Z19" s="328"/>
+      <c r="AA19" s="328"/>
+      <c r="AB19" s="328"/>
+      <c r="AC19" s="328"/>
+      <c r="AD19" s="328"/>
+      <c r="AE19" s="329"/>
+      <c r="AF19" s="324"/>
+      <c r="AG19" s="325"/>
+      <c r="AH19" s="325"/>
+      <c r="AI19" s="326"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="282"/>
-      <c r="C20" s="283"/>
-      <c r="D20" s="284"/>
-      <c r="E20" s="285"/>
-      <c r="F20" s="286"/>
-      <c r="G20" s="282"/>
-      <c r="H20" s="287"/>
-      <c r="I20" s="283"/>
-      <c r="J20" s="288"/>
-      <c r="K20" s="289"/>
-      <c r="L20" s="289"/>
-      <c r="M20" s="289"/>
-      <c r="N20" s="289"/>
-      <c r="O20" s="289"/>
-      <c r="P20" s="290"/>
-      <c r="Q20" s="291"/>
-      <c r="R20" s="292"/>
-      <c r="S20" s="292"/>
-      <c r="T20" s="292"/>
-      <c r="U20" s="292"/>
-      <c r="V20" s="292"/>
-      <c r="W20" s="292"/>
-      <c r="X20" s="292"/>
-      <c r="Y20" s="292"/>
-      <c r="Z20" s="292"/>
-      <c r="AA20" s="292"/>
-      <c r="AB20" s="292"/>
-      <c r="AC20" s="292"/>
-      <c r="AD20" s="292"/>
-      <c r="AE20" s="293"/>
-      <c r="AF20" s="288"/>
-      <c r="AG20" s="289"/>
-      <c r="AH20" s="289"/>
-      <c r="AI20" s="290"/>
+      <c r="B20" s="318"/>
+      <c r="C20" s="319"/>
+      <c r="D20" s="320"/>
+      <c r="E20" s="321"/>
+      <c r="F20" s="322"/>
+      <c r="G20" s="318"/>
+      <c r="H20" s="323"/>
+      <c r="I20" s="319"/>
+      <c r="J20" s="324"/>
+      <c r="K20" s="325"/>
+      <c r="L20" s="325"/>
+      <c r="M20" s="325"/>
+      <c r="N20" s="325"/>
+      <c r="O20" s="325"/>
+      <c r="P20" s="326"/>
+      <c r="Q20" s="327"/>
+      <c r="R20" s="328"/>
+      <c r="S20" s="328"/>
+      <c r="T20" s="328"/>
+      <c r="U20" s="328"/>
+      <c r="V20" s="328"/>
+      <c r="W20" s="328"/>
+      <c r="X20" s="328"/>
+      <c r="Y20" s="328"/>
+      <c r="Z20" s="328"/>
+      <c r="AA20" s="328"/>
+      <c r="AB20" s="328"/>
+      <c r="AC20" s="328"/>
+      <c r="AD20" s="328"/>
+      <c r="AE20" s="329"/>
+      <c r="AF20" s="324"/>
+      <c r="AG20" s="325"/>
+      <c r="AH20" s="325"/>
+      <c r="AI20" s="326"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="282"/>
-      <c r="C21" s="283"/>
-      <c r="D21" s="284"/>
-      <c r="E21" s="285"/>
-      <c r="F21" s="286"/>
-      <c r="G21" s="282"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="283"/>
-      <c r="J21" s="288"/>
-      <c r="K21" s="289"/>
-      <c r="L21" s="289"/>
-      <c r="M21" s="289"/>
-      <c r="N21" s="289"/>
-      <c r="O21" s="289"/>
-      <c r="P21" s="290"/>
-      <c r="Q21" s="291"/>
-      <c r="R21" s="292"/>
-      <c r="S21" s="292"/>
-      <c r="T21" s="292"/>
-      <c r="U21" s="292"/>
-      <c r="V21" s="292"/>
-      <c r="W21" s="292"/>
-      <c r="X21" s="292"/>
-      <c r="Y21" s="292"/>
-      <c r="Z21" s="292"/>
-      <c r="AA21" s="292"/>
-      <c r="AB21" s="292"/>
-      <c r="AC21" s="292"/>
-      <c r="AD21" s="292"/>
-      <c r="AE21" s="293"/>
-      <c r="AF21" s="288"/>
-      <c r="AG21" s="289"/>
-      <c r="AH21" s="289"/>
-      <c r="AI21" s="290"/>
+      <c r="B21" s="318"/>
+      <c r="C21" s="319"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="321"/>
+      <c r="F21" s="322"/>
+      <c r="G21" s="318"/>
+      <c r="H21" s="323"/>
+      <c r="I21" s="319"/>
+      <c r="J21" s="324"/>
+      <c r="K21" s="325"/>
+      <c r="L21" s="325"/>
+      <c r="M21" s="325"/>
+      <c r="N21" s="325"/>
+      <c r="O21" s="325"/>
+      <c r="P21" s="326"/>
+      <c r="Q21" s="327"/>
+      <c r="R21" s="328"/>
+      <c r="S21" s="328"/>
+      <c r="T21" s="328"/>
+      <c r="U21" s="328"/>
+      <c r="V21" s="328"/>
+      <c r="W21" s="328"/>
+      <c r="X21" s="328"/>
+      <c r="Y21" s="328"/>
+      <c r="Z21" s="328"/>
+      <c r="AA21" s="328"/>
+      <c r="AB21" s="328"/>
+      <c r="AC21" s="328"/>
+      <c r="AD21" s="328"/>
+      <c r="AE21" s="329"/>
+      <c r="AF21" s="324"/>
+      <c r="AG21" s="325"/>
+      <c r="AH21" s="325"/>
+      <c r="AI21" s="326"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="282"/>
-      <c r="C22" s="283"/>
-      <c r="D22" s="284"/>
-      <c r="E22" s="285"/>
-      <c r="F22" s="286"/>
-      <c r="G22" s="282"/>
-      <c r="H22" s="287"/>
-      <c r="I22" s="283"/>
-      <c r="J22" s="288"/>
-      <c r="K22" s="289"/>
-      <c r="L22" s="289"/>
-      <c r="M22" s="289"/>
-      <c r="N22" s="289"/>
-      <c r="O22" s="289"/>
-      <c r="P22" s="290"/>
-      <c r="Q22" s="291"/>
-      <c r="R22" s="292"/>
-      <c r="S22" s="292"/>
-      <c r="T22" s="292"/>
-      <c r="U22" s="292"/>
-      <c r="V22" s="292"/>
-      <c r="W22" s="292"/>
-      <c r="X22" s="292"/>
-      <c r="Y22" s="292"/>
-      <c r="Z22" s="292"/>
-      <c r="AA22" s="292"/>
-      <c r="AB22" s="292"/>
-      <c r="AC22" s="292"/>
-      <c r="AD22" s="292"/>
-      <c r="AE22" s="293"/>
-      <c r="AF22" s="288"/>
-      <c r="AG22" s="289"/>
-      <c r="AH22" s="289"/>
-      <c r="AI22" s="290"/>
+      <c r="B22" s="318"/>
+      <c r="C22" s="319"/>
+      <c r="D22" s="320"/>
+      <c r="E22" s="321"/>
+      <c r="F22" s="322"/>
+      <c r="G22" s="318"/>
+      <c r="H22" s="323"/>
+      <c r="I22" s="319"/>
+      <c r="J22" s="324"/>
+      <c r="K22" s="325"/>
+      <c r="L22" s="325"/>
+      <c r="M22" s="325"/>
+      <c r="N22" s="325"/>
+      <c r="O22" s="325"/>
+      <c r="P22" s="326"/>
+      <c r="Q22" s="327"/>
+      <c r="R22" s="328"/>
+      <c r="S22" s="328"/>
+      <c r="T22" s="328"/>
+      <c r="U22" s="328"/>
+      <c r="V22" s="328"/>
+      <c r="W22" s="328"/>
+      <c r="X22" s="328"/>
+      <c r="Y22" s="328"/>
+      <c r="Z22" s="328"/>
+      <c r="AA22" s="328"/>
+      <c r="AB22" s="328"/>
+      <c r="AC22" s="328"/>
+      <c r="AD22" s="328"/>
+      <c r="AE22" s="329"/>
+      <c r="AF22" s="324"/>
+      <c r="AG22" s="325"/>
+      <c r="AH22" s="325"/>
+      <c r="AI22" s="326"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="282"/>
-      <c r="C23" s="283"/>
-      <c r="D23" s="284"/>
-      <c r="E23" s="285"/>
-      <c r="F23" s="286"/>
-      <c r="G23" s="282"/>
-      <c r="H23" s="287"/>
-      <c r="I23" s="283"/>
-      <c r="J23" s="288"/>
-      <c r="K23" s="289"/>
-      <c r="L23" s="289"/>
-      <c r="M23" s="289"/>
-      <c r="N23" s="289"/>
-      <c r="O23" s="289"/>
-      <c r="P23" s="290"/>
-      <c r="Q23" s="291"/>
-      <c r="R23" s="292"/>
-      <c r="S23" s="292"/>
-      <c r="T23" s="292"/>
-      <c r="U23" s="292"/>
-      <c r="V23" s="292"/>
-      <c r="W23" s="292"/>
-      <c r="X23" s="292"/>
-      <c r="Y23" s="292"/>
-      <c r="Z23" s="292"/>
-      <c r="AA23" s="292"/>
-      <c r="AB23" s="292"/>
-      <c r="AC23" s="292"/>
-      <c r="AD23" s="292"/>
-      <c r="AE23" s="293"/>
-      <c r="AF23" s="288"/>
-      <c r="AG23" s="289"/>
-      <c r="AH23" s="289"/>
-      <c r="AI23" s="290"/>
+      <c r="B23" s="318"/>
+      <c r="C23" s="319"/>
+      <c r="D23" s="320"/>
+      <c r="E23" s="321"/>
+      <c r="F23" s="322"/>
+      <c r="G23" s="318"/>
+      <c r="H23" s="323"/>
+      <c r="I23" s="319"/>
+      <c r="J23" s="324"/>
+      <c r="K23" s="325"/>
+      <c r="L23" s="325"/>
+      <c r="M23" s="325"/>
+      <c r="N23" s="325"/>
+      <c r="O23" s="325"/>
+      <c r="P23" s="326"/>
+      <c r="Q23" s="327"/>
+      <c r="R23" s="328"/>
+      <c r="S23" s="328"/>
+      <c r="T23" s="328"/>
+      <c r="U23" s="328"/>
+      <c r="V23" s="328"/>
+      <c r="W23" s="328"/>
+      <c r="X23" s="328"/>
+      <c r="Y23" s="328"/>
+      <c r="Z23" s="328"/>
+      <c r="AA23" s="328"/>
+      <c r="AB23" s="328"/>
+      <c r="AC23" s="328"/>
+      <c r="AD23" s="328"/>
+      <c r="AE23" s="329"/>
+      <c r="AF23" s="324"/>
+      <c r="AG23" s="325"/>
+      <c r="AH23" s="325"/>
+      <c r="AI23" s="326"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="282"/>
-      <c r="C24" s="283"/>
-      <c r="D24" s="284"/>
-      <c r="E24" s="285"/>
-      <c r="F24" s="286"/>
-      <c r="G24" s="282"/>
-      <c r="H24" s="287"/>
-      <c r="I24" s="283"/>
-      <c r="J24" s="288"/>
-      <c r="K24" s="289"/>
-      <c r="L24" s="289"/>
-      <c r="M24" s="289"/>
-      <c r="N24" s="289"/>
-      <c r="O24" s="289"/>
-      <c r="P24" s="290"/>
-      <c r="Q24" s="291"/>
-      <c r="R24" s="292"/>
-      <c r="S24" s="292"/>
-      <c r="T24" s="292"/>
-      <c r="U24" s="292"/>
-      <c r="V24" s="292"/>
-      <c r="W24" s="292"/>
-      <c r="X24" s="292"/>
-      <c r="Y24" s="292"/>
-      <c r="Z24" s="292"/>
-      <c r="AA24" s="292"/>
-      <c r="AB24" s="292"/>
-      <c r="AC24" s="292"/>
-      <c r="AD24" s="292"/>
-      <c r="AE24" s="293"/>
-      <c r="AF24" s="288"/>
-      <c r="AG24" s="289"/>
-      <c r="AH24" s="289"/>
-      <c r="AI24" s="290"/>
+      <c r="B24" s="318"/>
+      <c r="C24" s="319"/>
+      <c r="D24" s="320"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="322"/>
+      <c r="G24" s="318"/>
+      <c r="H24" s="323"/>
+      <c r="I24" s="319"/>
+      <c r="J24" s="324"/>
+      <c r="K24" s="325"/>
+      <c r="L24" s="325"/>
+      <c r="M24" s="325"/>
+      <c r="N24" s="325"/>
+      <c r="O24" s="325"/>
+      <c r="P24" s="326"/>
+      <c r="Q24" s="327"/>
+      <c r="R24" s="328"/>
+      <c r="S24" s="328"/>
+      <c r="T24" s="328"/>
+      <c r="U24" s="328"/>
+      <c r="V24" s="328"/>
+      <c r="W24" s="328"/>
+      <c r="X24" s="328"/>
+      <c r="Y24" s="328"/>
+      <c r="Z24" s="328"/>
+      <c r="AA24" s="328"/>
+      <c r="AB24" s="328"/>
+      <c r="AC24" s="328"/>
+      <c r="AD24" s="328"/>
+      <c r="AE24" s="329"/>
+      <c r="AF24" s="324"/>
+      <c r="AG24" s="325"/>
+      <c r="AH24" s="325"/>
+      <c r="AI24" s="326"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="282"/>
-      <c r="C25" s="283"/>
-      <c r="D25" s="284"/>
-      <c r="E25" s="285"/>
-      <c r="F25" s="286"/>
-      <c r="G25" s="282"/>
-      <c r="H25" s="287"/>
-      <c r="I25" s="283"/>
-      <c r="J25" s="288"/>
-      <c r="K25" s="289"/>
-      <c r="L25" s="289"/>
-      <c r="M25" s="289"/>
-      <c r="N25" s="289"/>
-      <c r="O25" s="289"/>
-      <c r="P25" s="290"/>
-      <c r="Q25" s="291"/>
-      <c r="R25" s="292"/>
-      <c r="S25" s="292"/>
-      <c r="T25" s="292"/>
-      <c r="U25" s="292"/>
-      <c r="V25" s="292"/>
-      <c r="W25" s="292"/>
-      <c r="X25" s="292"/>
-      <c r="Y25" s="292"/>
-      <c r="Z25" s="292"/>
-      <c r="AA25" s="292"/>
-      <c r="AB25" s="292"/>
-      <c r="AC25" s="292"/>
-      <c r="AD25" s="292"/>
-      <c r="AE25" s="293"/>
-      <c r="AF25" s="288"/>
-      <c r="AG25" s="289"/>
-      <c r="AH25" s="289"/>
-      <c r="AI25" s="290"/>
+      <c r="B25" s="318"/>
+      <c r="C25" s="319"/>
+      <c r="D25" s="320"/>
+      <c r="E25" s="321"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="318"/>
+      <c r="H25" s="323"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="324"/>
+      <c r="K25" s="325"/>
+      <c r="L25" s="325"/>
+      <c r="M25" s="325"/>
+      <c r="N25" s="325"/>
+      <c r="O25" s="325"/>
+      <c r="P25" s="326"/>
+      <c r="Q25" s="327"/>
+      <c r="R25" s="328"/>
+      <c r="S25" s="328"/>
+      <c r="T25" s="328"/>
+      <c r="U25" s="328"/>
+      <c r="V25" s="328"/>
+      <c r="W25" s="328"/>
+      <c r="X25" s="328"/>
+      <c r="Y25" s="328"/>
+      <c r="Z25" s="328"/>
+      <c r="AA25" s="328"/>
+      <c r="AB25" s="328"/>
+      <c r="AC25" s="328"/>
+      <c r="AD25" s="328"/>
+      <c r="AE25" s="329"/>
+      <c r="AF25" s="324"/>
+      <c r="AG25" s="325"/>
+      <c r="AH25" s="325"/>
+      <c r="AI25" s="326"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="282"/>
-      <c r="C26" s="283"/>
-      <c r="D26" s="284"/>
-      <c r="E26" s="285"/>
-      <c r="F26" s="286"/>
-      <c r="G26" s="282"/>
-      <c r="H26" s="287"/>
-      <c r="I26" s="283"/>
-      <c r="J26" s="288"/>
-      <c r="K26" s="289"/>
-      <c r="L26" s="289"/>
-      <c r="M26" s="289"/>
-      <c r="N26" s="289"/>
-      <c r="O26" s="289"/>
-      <c r="P26" s="290"/>
-      <c r="Q26" s="291"/>
-      <c r="R26" s="292"/>
-      <c r="S26" s="292"/>
-      <c r="T26" s="292"/>
-      <c r="U26" s="292"/>
-      <c r="V26" s="292"/>
-      <c r="W26" s="292"/>
-      <c r="X26" s="292"/>
-      <c r="Y26" s="292"/>
-      <c r="Z26" s="292"/>
-      <c r="AA26" s="292"/>
-      <c r="AB26" s="292"/>
-      <c r="AC26" s="292"/>
-      <c r="AD26" s="292"/>
-      <c r="AE26" s="293"/>
-      <c r="AF26" s="288"/>
-      <c r="AG26" s="289"/>
-      <c r="AH26" s="289"/>
-      <c r="AI26" s="290"/>
+      <c r="B26" s="318"/>
+      <c r="C26" s="319"/>
+      <c r="D26" s="320"/>
+      <c r="E26" s="321"/>
+      <c r="F26" s="322"/>
+      <c r="G26" s="318"/>
+      <c r="H26" s="323"/>
+      <c r="I26" s="319"/>
+      <c r="J26" s="324"/>
+      <c r="K26" s="325"/>
+      <c r="L26" s="325"/>
+      <c r="M26" s="325"/>
+      <c r="N26" s="325"/>
+      <c r="O26" s="325"/>
+      <c r="P26" s="326"/>
+      <c r="Q26" s="327"/>
+      <c r="R26" s="328"/>
+      <c r="S26" s="328"/>
+      <c r="T26" s="328"/>
+      <c r="U26" s="328"/>
+      <c r="V26" s="328"/>
+      <c r="W26" s="328"/>
+      <c r="X26" s="328"/>
+      <c r="Y26" s="328"/>
+      <c r="Z26" s="328"/>
+      <c r="AA26" s="328"/>
+      <c r="AB26" s="328"/>
+      <c r="AC26" s="328"/>
+      <c r="AD26" s="328"/>
+      <c r="AE26" s="329"/>
+      <c r="AF26" s="324"/>
+      <c r="AG26" s="325"/>
+      <c r="AH26" s="325"/>
+      <c r="AI26" s="326"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="282"/>
-      <c r="C27" s="283"/>
-      <c r="D27" s="284"/>
-      <c r="E27" s="285"/>
-      <c r="F27" s="286"/>
-      <c r="G27" s="282"/>
-      <c r="H27" s="287"/>
-      <c r="I27" s="283"/>
-      <c r="J27" s="288"/>
-      <c r="K27" s="289"/>
-      <c r="L27" s="289"/>
-      <c r="M27" s="289"/>
-      <c r="N27" s="289"/>
-      <c r="O27" s="289"/>
-      <c r="P27" s="290"/>
-      <c r="Q27" s="291"/>
-      <c r="R27" s="292"/>
-      <c r="S27" s="292"/>
-      <c r="T27" s="292"/>
-      <c r="U27" s="292"/>
-      <c r="V27" s="292"/>
-      <c r="W27" s="292"/>
-      <c r="X27" s="292"/>
-      <c r="Y27" s="292"/>
-      <c r="Z27" s="292"/>
-      <c r="AA27" s="292"/>
-      <c r="AB27" s="292"/>
-      <c r="AC27" s="292"/>
-      <c r="AD27" s="292"/>
-      <c r="AE27" s="293"/>
-      <c r="AF27" s="288"/>
-      <c r="AG27" s="289"/>
-      <c r="AH27" s="289"/>
-      <c r="AI27" s="290"/>
+      <c r="B27" s="318"/>
+      <c r="C27" s="319"/>
+      <c r="D27" s="320"/>
+      <c r="E27" s="321"/>
+      <c r="F27" s="322"/>
+      <c r="G27" s="318"/>
+      <c r="H27" s="323"/>
+      <c r="I27" s="319"/>
+      <c r="J27" s="324"/>
+      <c r="K27" s="325"/>
+      <c r="L27" s="325"/>
+      <c r="M27" s="325"/>
+      <c r="N27" s="325"/>
+      <c r="O27" s="325"/>
+      <c r="P27" s="326"/>
+      <c r="Q27" s="327"/>
+      <c r="R27" s="328"/>
+      <c r="S27" s="328"/>
+      <c r="T27" s="328"/>
+      <c r="U27" s="328"/>
+      <c r="V27" s="328"/>
+      <c r="W27" s="328"/>
+      <c r="X27" s="328"/>
+      <c r="Y27" s="328"/>
+      <c r="Z27" s="328"/>
+      <c r="AA27" s="328"/>
+      <c r="AB27" s="328"/>
+      <c r="AC27" s="328"/>
+      <c r="AD27" s="328"/>
+      <c r="AE27" s="329"/>
+      <c r="AF27" s="324"/>
+      <c r="AG27" s="325"/>
+      <c r="AH27" s="325"/>
+      <c r="AI27" s="326"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="282"/>
-      <c r="C28" s="283"/>
-      <c r="D28" s="284"/>
-      <c r="E28" s="285"/>
-      <c r="F28" s="286"/>
-      <c r="G28" s="282"/>
-      <c r="H28" s="287"/>
-      <c r="I28" s="283"/>
-      <c r="J28" s="288"/>
-      <c r="K28" s="289"/>
-      <c r="L28" s="289"/>
-      <c r="M28" s="289"/>
-      <c r="N28" s="289"/>
-      <c r="O28" s="289"/>
-      <c r="P28" s="290"/>
-      <c r="Q28" s="291"/>
-      <c r="R28" s="292"/>
-      <c r="S28" s="292"/>
-      <c r="T28" s="292"/>
-      <c r="U28" s="292"/>
-      <c r="V28" s="292"/>
-      <c r="W28" s="292"/>
-      <c r="X28" s="292"/>
-      <c r="Y28" s="292"/>
-      <c r="Z28" s="292"/>
-      <c r="AA28" s="292"/>
-      <c r="AB28" s="292"/>
-      <c r="AC28" s="292"/>
-      <c r="AD28" s="292"/>
-      <c r="AE28" s="293"/>
-      <c r="AF28" s="288"/>
-      <c r="AG28" s="289"/>
-      <c r="AH28" s="289"/>
-      <c r="AI28" s="290"/>
+      <c r="B28" s="318"/>
+      <c r="C28" s="319"/>
+      <c r="D28" s="320"/>
+      <c r="E28" s="321"/>
+      <c r="F28" s="322"/>
+      <c r="G28" s="318"/>
+      <c r="H28" s="323"/>
+      <c r="I28" s="319"/>
+      <c r="J28" s="324"/>
+      <c r="K28" s="325"/>
+      <c r="L28" s="325"/>
+      <c r="M28" s="325"/>
+      <c r="N28" s="325"/>
+      <c r="O28" s="325"/>
+      <c r="P28" s="326"/>
+      <c r="Q28" s="327"/>
+      <c r="R28" s="328"/>
+      <c r="S28" s="328"/>
+      <c r="T28" s="328"/>
+      <c r="U28" s="328"/>
+      <c r="V28" s="328"/>
+      <c r="W28" s="328"/>
+      <c r="X28" s="328"/>
+      <c r="Y28" s="328"/>
+      <c r="Z28" s="328"/>
+      <c r="AA28" s="328"/>
+      <c r="AB28" s="328"/>
+      <c r="AC28" s="328"/>
+      <c r="AD28" s="328"/>
+      <c r="AE28" s="329"/>
+      <c r="AF28" s="324"/>
+      <c r="AG28" s="325"/>
+      <c r="AH28" s="325"/>
+      <c r="AI28" s="326"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="282"/>
-      <c r="C29" s="283"/>
-      <c r="D29" s="284"/>
-      <c r="E29" s="285"/>
-      <c r="F29" s="286"/>
-      <c r="G29" s="282"/>
-      <c r="H29" s="287"/>
-      <c r="I29" s="283"/>
-      <c r="J29" s="288"/>
-      <c r="K29" s="289"/>
-      <c r="L29" s="289"/>
-      <c r="M29" s="289"/>
-      <c r="N29" s="289"/>
-      <c r="O29" s="289"/>
-      <c r="P29" s="290"/>
-      <c r="Q29" s="291"/>
-      <c r="R29" s="292"/>
-      <c r="S29" s="292"/>
-      <c r="T29" s="292"/>
-      <c r="U29" s="292"/>
-      <c r="V29" s="292"/>
-      <c r="W29" s="292"/>
-      <c r="X29" s="292"/>
-      <c r="Y29" s="292"/>
-      <c r="Z29" s="292"/>
-      <c r="AA29" s="292"/>
-      <c r="AB29" s="292"/>
-      <c r="AC29" s="292"/>
-      <c r="AD29" s="292"/>
-      <c r="AE29" s="293"/>
-      <c r="AF29" s="288"/>
-      <c r="AG29" s="289"/>
-      <c r="AH29" s="289"/>
-      <c r="AI29" s="290"/>
+      <c r="B29" s="318"/>
+      <c r="C29" s="319"/>
+      <c r="D29" s="320"/>
+      <c r="E29" s="321"/>
+      <c r="F29" s="322"/>
+      <c r="G29" s="318"/>
+      <c r="H29" s="323"/>
+      <c r="I29" s="319"/>
+      <c r="J29" s="324"/>
+      <c r="K29" s="325"/>
+      <c r="L29" s="325"/>
+      <c r="M29" s="325"/>
+      <c r="N29" s="325"/>
+      <c r="O29" s="325"/>
+      <c r="P29" s="326"/>
+      <c r="Q29" s="327"/>
+      <c r="R29" s="328"/>
+      <c r="S29" s="328"/>
+      <c r="T29" s="328"/>
+      <c r="U29" s="328"/>
+      <c r="V29" s="328"/>
+      <c r="W29" s="328"/>
+      <c r="X29" s="328"/>
+      <c r="Y29" s="328"/>
+      <c r="Z29" s="328"/>
+      <c r="AA29" s="328"/>
+      <c r="AB29" s="328"/>
+      <c r="AC29" s="328"/>
+      <c r="AD29" s="328"/>
+      <c r="AE29" s="329"/>
+      <c r="AF29" s="324"/>
+      <c r="AG29" s="325"/>
+      <c r="AH29" s="325"/>
+      <c r="AI29" s="326"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="282"/>
-      <c r="C30" s="283"/>
-      <c r="D30" s="284"/>
-      <c r="E30" s="285"/>
-      <c r="F30" s="286"/>
-      <c r="G30" s="282"/>
-      <c r="H30" s="287"/>
-      <c r="I30" s="283"/>
-      <c r="J30" s="288"/>
-      <c r="K30" s="289"/>
-      <c r="L30" s="289"/>
-      <c r="M30" s="289"/>
-      <c r="N30" s="289"/>
-      <c r="O30" s="289"/>
-      <c r="P30" s="290"/>
-      <c r="Q30" s="291"/>
-      <c r="R30" s="292"/>
-      <c r="S30" s="292"/>
-      <c r="T30" s="292"/>
-      <c r="U30" s="292"/>
-      <c r="V30" s="292"/>
-      <c r="W30" s="292"/>
-      <c r="X30" s="292"/>
-      <c r="Y30" s="292"/>
-      <c r="Z30" s="292"/>
-      <c r="AA30" s="292"/>
-      <c r="AB30" s="292"/>
-      <c r="AC30" s="292"/>
-      <c r="AD30" s="292"/>
-      <c r="AE30" s="293"/>
-      <c r="AF30" s="288"/>
-      <c r="AG30" s="289"/>
-      <c r="AH30" s="289"/>
-      <c r="AI30" s="290"/>
+      <c r="B30" s="318"/>
+      <c r="C30" s="319"/>
+      <c r="D30" s="320"/>
+      <c r="E30" s="321"/>
+      <c r="F30" s="322"/>
+      <c r="G30" s="318"/>
+      <c r="H30" s="323"/>
+      <c r="I30" s="319"/>
+      <c r="J30" s="324"/>
+      <c r="K30" s="325"/>
+      <c r="L30" s="325"/>
+      <c r="M30" s="325"/>
+      <c r="N30" s="325"/>
+      <c r="O30" s="325"/>
+      <c r="P30" s="326"/>
+      <c r="Q30" s="327"/>
+      <c r="R30" s="328"/>
+      <c r="S30" s="328"/>
+      <c r="T30" s="328"/>
+      <c r="U30" s="328"/>
+      <c r="V30" s="328"/>
+      <c r="W30" s="328"/>
+      <c r="X30" s="328"/>
+      <c r="Y30" s="328"/>
+      <c r="Z30" s="328"/>
+      <c r="AA30" s="328"/>
+      <c r="AB30" s="328"/>
+      <c r="AC30" s="328"/>
+      <c r="AD30" s="328"/>
+      <c r="AE30" s="329"/>
+      <c r="AF30" s="324"/>
+      <c r="AG30" s="325"/>
+      <c r="AH30" s="325"/>
+      <c r="AI30" s="326"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="282"/>
-      <c r="C31" s="283"/>
-      <c r="D31" s="284"/>
-      <c r="E31" s="285"/>
-      <c r="F31" s="286"/>
-      <c r="G31" s="282"/>
-      <c r="H31" s="287"/>
-      <c r="I31" s="283"/>
-      <c r="J31" s="288"/>
-      <c r="K31" s="289"/>
-      <c r="L31" s="289"/>
-      <c r="M31" s="289"/>
-      <c r="N31" s="289"/>
-      <c r="O31" s="289"/>
-      <c r="P31" s="290"/>
-      <c r="Q31" s="291"/>
-      <c r="R31" s="292"/>
-      <c r="S31" s="292"/>
-      <c r="T31" s="292"/>
-      <c r="U31" s="292"/>
-      <c r="V31" s="292"/>
-      <c r="W31" s="292"/>
-      <c r="X31" s="292"/>
-      <c r="Y31" s="292"/>
-      <c r="Z31" s="292"/>
-      <c r="AA31" s="292"/>
-      <c r="AB31" s="292"/>
-      <c r="AC31" s="292"/>
-      <c r="AD31" s="292"/>
-      <c r="AE31" s="293"/>
-      <c r="AF31" s="288"/>
-      <c r="AG31" s="289"/>
-      <c r="AH31" s="289"/>
-      <c r="AI31" s="290"/>
+      <c r="B31" s="318"/>
+      <c r="C31" s="319"/>
+      <c r="D31" s="320"/>
+      <c r="E31" s="321"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="318"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="319"/>
+      <c r="J31" s="324"/>
+      <c r="K31" s="325"/>
+      <c r="L31" s="325"/>
+      <c r="M31" s="325"/>
+      <c r="N31" s="325"/>
+      <c r="O31" s="325"/>
+      <c r="P31" s="326"/>
+      <c r="Q31" s="327"/>
+      <c r="R31" s="328"/>
+      <c r="S31" s="328"/>
+      <c r="T31" s="328"/>
+      <c r="U31" s="328"/>
+      <c r="V31" s="328"/>
+      <c r="W31" s="328"/>
+      <c r="X31" s="328"/>
+      <c r="Y31" s="328"/>
+      <c r="Z31" s="328"/>
+      <c r="AA31" s="328"/>
+      <c r="AB31" s="328"/>
+      <c r="AC31" s="328"/>
+      <c r="AD31" s="328"/>
+      <c r="AE31" s="329"/>
+      <c r="AF31" s="324"/>
+      <c r="AG31" s="325"/>
+      <c r="AH31" s="325"/>
+      <c r="AI31" s="326"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="282"/>
-      <c r="C32" s="283"/>
-      <c r="D32" s="284"/>
-      <c r="E32" s="285"/>
-      <c r="F32" s="286"/>
-      <c r="G32" s="282"/>
-      <c r="H32" s="287"/>
-      <c r="I32" s="283"/>
-      <c r="J32" s="288"/>
-      <c r="K32" s="294"/>
-      <c r="L32" s="289"/>
-      <c r="M32" s="289"/>
-      <c r="N32" s="289"/>
-      <c r="O32" s="289"/>
-      <c r="P32" s="290"/>
-      <c r="Q32" s="291"/>
-      <c r="R32" s="292"/>
-      <c r="S32" s="292"/>
-      <c r="T32" s="292"/>
-      <c r="U32" s="292"/>
-      <c r="V32" s="292"/>
-      <c r="W32" s="292"/>
-      <c r="X32" s="292"/>
-      <c r="Y32" s="292"/>
-      <c r="Z32" s="292"/>
-      <c r="AA32" s="292"/>
-      <c r="AB32" s="292"/>
-      <c r="AC32" s="292"/>
-      <c r="AD32" s="292"/>
-      <c r="AE32" s="293"/>
-      <c r="AF32" s="288"/>
-      <c r="AG32" s="289"/>
-      <c r="AH32" s="289"/>
-      <c r="AI32" s="290"/>
+      <c r="B32" s="318"/>
+      <c r="C32" s="319"/>
+      <c r="D32" s="320"/>
+      <c r="E32" s="321"/>
+      <c r="F32" s="322"/>
+      <c r="G32" s="318"/>
+      <c r="H32" s="323"/>
+      <c r="I32" s="319"/>
+      <c r="J32" s="324"/>
+      <c r="K32" s="343"/>
+      <c r="L32" s="325"/>
+      <c r="M32" s="325"/>
+      <c r="N32" s="325"/>
+      <c r="O32" s="325"/>
+      <c r="P32" s="326"/>
+      <c r="Q32" s="327"/>
+      <c r="R32" s="328"/>
+      <c r="S32" s="328"/>
+      <c r="T32" s="328"/>
+      <c r="U32" s="328"/>
+      <c r="V32" s="328"/>
+      <c r="W32" s="328"/>
+      <c r="X32" s="328"/>
+      <c r="Y32" s="328"/>
+      <c r="Z32" s="328"/>
+      <c r="AA32" s="328"/>
+      <c r="AB32" s="328"/>
+      <c r="AC32" s="328"/>
+      <c r="AD32" s="328"/>
+      <c r="AE32" s="329"/>
+      <c r="AF32" s="324"/>
+      <c r="AG32" s="325"/>
+      <c r="AH32" s="325"/>
+      <c r="AI32" s="326"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="282"/>
-      <c r="C33" s="283"/>
-      <c r="D33" s="284"/>
-      <c r="E33" s="285"/>
-      <c r="F33" s="286"/>
-      <c r="G33" s="282"/>
-      <c r="H33" s="287"/>
-      <c r="I33" s="283"/>
-      <c r="J33" s="288"/>
-      <c r="K33" s="289"/>
-      <c r="L33" s="289"/>
-      <c r="M33" s="289"/>
-      <c r="N33" s="289"/>
-      <c r="O33" s="289"/>
-      <c r="P33" s="290"/>
-      <c r="Q33" s="291"/>
-      <c r="R33" s="292"/>
-      <c r="S33" s="292"/>
-      <c r="T33" s="292"/>
-      <c r="U33" s="292"/>
-      <c r="V33" s="292"/>
-      <c r="W33" s="292"/>
-      <c r="X33" s="292"/>
-      <c r="Y33" s="292"/>
-      <c r="Z33" s="292"/>
-      <c r="AA33" s="292"/>
-      <c r="AB33" s="292"/>
-      <c r="AC33" s="292"/>
-      <c r="AD33" s="292"/>
-      <c r="AE33" s="293"/>
-      <c r="AF33" s="288"/>
-      <c r="AG33" s="289"/>
-      <c r="AH33" s="289"/>
-      <c r="AI33" s="290"/>
+      <c r="B33" s="318"/>
+      <c r="C33" s="319"/>
+      <c r="D33" s="320"/>
+      <c r="E33" s="321"/>
+      <c r="F33" s="322"/>
+      <c r="G33" s="318"/>
+      <c r="H33" s="323"/>
+      <c r="I33" s="319"/>
+      <c r="J33" s="324"/>
+      <c r="K33" s="325"/>
+      <c r="L33" s="325"/>
+      <c r="M33" s="325"/>
+      <c r="N33" s="325"/>
+      <c r="O33" s="325"/>
+      <c r="P33" s="326"/>
+      <c r="Q33" s="327"/>
+      <c r="R33" s="328"/>
+      <c r="S33" s="328"/>
+      <c r="T33" s="328"/>
+      <c r="U33" s="328"/>
+      <c r="V33" s="328"/>
+      <c r="W33" s="328"/>
+      <c r="X33" s="328"/>
+      <c r="Y33" s="328"/>
+      <c r="Z33" s="328"/>
+      <c r="AA33" s="328"/>
+      <c r="AB33" s="328"/>
+      <c r="AC33" s="328"/>
+      <c r="AD33" s="328"/>
+      <c r="AE33" s="329"/>
+      <c r="AF33" s="324"/>
+      <c r="AG33" s="325"/>
+      <c r="AH33" s="325"/>
+      <c r="AI33" s="326"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13102,162 +13281,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -13397,7 +13420,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>4</v>
@@ -17238,7 +17261,7 @@
         <v>206</v>
       </c>
       <c r="G119" s="154" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H119" s="154"/>
       <c r="I119" s="154"/>
@@ -18866,7 +18889,7 @@
         <v>269</v>
       </c>
       <c r="G167" s="154" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H167" s="154"/>
       <c r="I167" s="154"/>
@@ -25786,7 +25809,7 @@
         <v>145</v>
       </c>
       <c r="G77" s="114" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H77" s="115"/>
       <c r="I77" s="115"/>
@@ -33400,7 +33423,7 @@
         <v>419</v>
       </c>
       <c r="G296" s="94" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H296" s="94"/>
       <c r="I296" s="94"/>
@@ -33434,7 +33457,7 @@
         <v>420</v>
       </c>
       <c r="G297" s="94" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H297" s="94"/>
       <c r="I297" s="94"/>
@@ -35032,7 +35055,7 @@
         <v>473</v>
       </c>
       <c r="G346" s="114" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H346" s="115"/>
       <c r="I346" s="115"/>
@@ -36014,7 +36037,7 @@
         <v>523</v>
       </c>
       <c r="G376" s="221" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H376" s="100"/>
       <c r="I376" s="100"/>
@@ -36417,7 +36440,7 @@
         <v>573</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D11" s="96" t="s">
         <v>574</v>
@@ -36476,7 +36499,7 @@
       </c>
       <c r="E13" s="226"/>
       <c r="F13" s="115" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G13" s="100" t="s">
         <v>575</v>
@@ -36558,7 +36581,7 @@
         <v>587</v>
       </c>
       <c r="F16" s="115" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G16" s="100" t="s">
         <v>575</v>
@@ -36586,7 +36609,7 @@
         <v>588</v>
       </c>
       <c r="F17" s="115" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G17" s="100" t="s">
         <v>575</v>
@@ -36614,7 +36637,7 @@
         <v>589</v>
       </c>
       <c r="F18" s="115" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G18" s="100" t="s">
         <v>575</v>
@@ -36644,7 +36667,7 @@
         <v>592</v>
       </c>
       <c r="F19" s="115" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G19" s="100" t="s">
         <v>575</v>
@@ -36674,7 +36697,7 @@
         <v>595</v>
       </c>
       <c r="F20" s="115" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G20" s="100" t="s">
         <v>575</v>
@@ -36702,7 +36725,7 @@
       </c>
       <c r="E21" s="347"/>
       <c r="F21" s="115" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G21" s="100" t="s">
         <v>575</v>
@@ -36732,7 +36755,7 @@
       </c>
       <c r="E22" s="226"/>
       <c r="F22" s="115" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G22" s="100" t="s">
         <v>575</v>
@@ -36760,7 +36783,7 @@
       </c>
       <c r="E23" s="226"/>
       <c r="F23" s="115" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G23" s="100" t="s">
         <v>575</v>
@@ -36786,7 +36809,7 @@
         <v>629</v>
       </c>
       <c r="D24" s="118" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E24" s="109" t="s">
         <v>630</v>
@@ -36840,7 +36863,7 @@
       <c r="B26" s="65"/>
       <c r="C26" s="120"/>
       <c r="D26" s="118" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E26" s="109" t="s">
         <v>630</v>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34AEEAF-4C60-43A9-BBA7-CE729AA7B054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A93C59-9AC2-490A-A557-EBA5AD75F431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="660">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -8453,6 +8453,10 @@
     <rPh sb="20" eb="22">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IME制御は行わないので対象外</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9324,7 +9328,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="348">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -10135,6 +10139,84 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -10243,84 +10325,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10331,6 +10335,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11889,57 +11905,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="291" t="s">
+      <c r="B1" s="315"/>
+      <c r="C1" s="315"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="317" t="s">
         <v>567</v>
       </c>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="293"/>
-      <c r="O1" s="297" t="s">
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="323" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="298"/>
-      <c r="Q1" s="298"/>
-      <c r="R1" s="299"/>
-      <c r="S1" s="306" t="s">
+      <c r="P1" s="324"/>
+      <c r="Q1" s="324"/>
+      <c r="R1" s="325"/>
+      <c r="S1" s="332" t="s">
         <v>658</v>
       </c>
-      <c r="T1" s="307"/>
-      <c r="U1" s="307"/>
-      <c r="V1" s="307"/>
-      <c r="W1" s="307"/>
-      <c r="X1" s="307"/>
-      <c r="Y1" s="307"/>
-      <c r="Z1" s="308"/>
-      <c r="AA1" s="288" t="s">
+      <c r="T1" s="333"/>
+      <c r="U1" s="333"/>
+      <c r="V1" s="333"/>
+      <c r="W1" s="333"/>
+      <c r="X1" s="333"/>
+      <c r="Y1" s="333"/>
+      <c r="Z1" s="334"/>
+      <c r="AA1" s="314" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="290"/>
-      <c r="AC1" s="315" t="str">
+      <c r="AB1" s="316"/>
+      <c r="AC1" s="341" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="316"/>
-      <c r="AE1" s="316"/>
-      <c r="AF1" s="317"/>
-      <c r="AG1" s="282">
+      <c r="AD1" s="342"/>
+      <c r="AE1" s="342"/>
+      <c r="AF1" s="343"/>
+      <c r="AG1" s="308">
         <f>IF(D8="","",D8)</f>
         <v>44792</v>
       </c>
-      <c r="AH1" s="283"/>
-      <c r="AI1" s="284"/>
+      <c r="AH1" s="309"/>
+      <c r="AI1" s="310"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11947,53 +11963,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="314" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="291" t="s">
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="317" t="s">
         <v>647</v>
       </c>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="292"/>
-      <c r="N2" s="293"/>
-      <c r="O2" s="300"/>
-      <c r="P2" s="301"/>
-      <c r="Q2" s="301"/>
-      <c r="R2" s="302"/>
-      <c r="S2" s="309"/>
-      <c r="T2" s="310"/>
-      <c r="U2" s="310"/>
-      <c r="V2" s="310"/>
-      <c r="W2" s="310"/>
-      <c r="X2" s="310"/>
-      <c r="Y2" s="310"/>
-      <c r="Z2" s="311"/>
-      <c r="AA2" s="288" t="s">
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="326"/>
+      <c r="P2" s="327"/>
+      <c r="Q2" s="327"/>
+      <c r="R2" s="328"/>
+      <c r="S2" s="335"/>
+      <c r="T2" s="336"/>
+      <c r="U2" s="336"/>
+      <c r="V2" s="336"/>
+      <c r="W2" s="336"/>
+      <c r="X2" s="336"/>
+      <c r="Y2" s="336"/>
+      <c r="Z2" s="337"/>
+      <c r="AA2" s="314" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="290"/>
-      <c r="AC2" s="294" t="str">
+      <c r="AB2" s="316"/>
+      <c r="AC2" s="320" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="295"/>
-      <c r="AE2" s="295"/>
-      <c r="AF2" s="296"/>
-      <c r="AG2" s="282" t="str">
+      <c r="AD2" s="321"/>
+      <c r="AE2" s="321"/>
+      <c r="AF2" s="322"/>
+      <c r="AG2" s="308" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="283"/>
-      <c r="AI2" s="284"/>
+      <c r="AH2" s="309"/>
+      <c r="AI2" s="310"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12001,45 +12017,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="288" t="s">
+      <c r="A3" s="314" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="291" t="s">
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="317" t="s">
         <v>648</v>
       </c>
-      <c r="F3" s="292"/>
-      <c r="G3" s="292"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
-      <c r="J3" s="292"/>
-      <c r="K3" s="292"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="293"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="304"/>
-      <c r="Q3" s="304"/>
-      <c r="R3" s="305"/>
-      <c r="S3" s="312"/>
-      <c r="T3" s="313"/>
-      <c r="U3" s="313"/>
-      <c r="V3" s="313"/>
-      <c r="W3" s="313"/>
-      <c r="X3" s="313"/>
-      <c r="Y3" s="313"/>
-      <c r="Z3" s="314"/>
-      <c r="AA3" s="288"/>
-      <c r="AB3" s="290"/>
-      <c r="AC3" s="315"/>
-      <c r="AD3" s="316"/>
-      <c r="AE3" s="316"/>
-      <c r="AF3" s="317"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="283"/>
-      <c r="AI3" s="284"/>
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="319"/>
+      <c r="O3" s="329"/>
+      <c r="P3" s="330"/>
+      <c r="Q3" s="330"/>
+      <c r="R3" s="331"/>
+      <c r="S3" s="338"/>
+      <c r="T3" s="339"/>
+      <c r="U3" s="339"/>
+      <c r="V3" s="339"/>
+      <c r="W3" s="339"/>
+      <c r="X3" s="339"/>
+      <c r="Y3" s="339"/>
+      <c r="Z3" s="340"/>
+      <c r="AA3" s="314"/>
+      <c r="AB3" s="316"/>
+      <c r="AC3" s="341"/>
+      <c r="AD3" s="342"/>
+      <c r="AE3" s="342"/>
+      <c r="AF3" s="343"/>
+      <c r="AG3" s="308"/>
+      <c r="AH3" s="309"/>
+      <c r="AI3" s="310"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12076,1188 +12092,1032 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="285" t="s">
+      <c r="B7" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="285" t="s">
+      <c r="C7" s="312"/>
+      <c r="D7" s="311" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="287"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="285" t="s">
+      <c r="E7" s="313"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="287"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="285" t="s">
+      <c r="H7" s="313"/>
+      <c r="I7" s="312"/>
+      <c r="J7" s="311" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="287"/>
-      <c r="L7" s="287"/>
-      <c r="M7" s="287"/>
-      <c r="N7" s="287"/>
-      <c r="O7" s="287"/>
-      <c r="P7" s="286"/>
-      <c r="Q7" s="285" t="s">
+      <c r="K7" s="313"/>
+      <c r="L7" s="313"/>
+      <c r="M7" s="313"/>
+      <c r="N7" s="313"/>
+      <c r="O7" s="313"/>
+      <c r="P7" s="312"/>
+      <c r="Q7" s="311" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="287"/>
-      <c r="S7" s="287"/>
-      <c r="T7" s="287"/>
-      <c r="U7" s="287"/>
-      <c r="V7" s="287"/>
-      <c r="W7" s="287"/>
-      <c r="X7" s="287"/>
-      <c r="Y7" s="287"/>
-      <c r="Z7" s="287"/>
-      <c r="AA7" s="287"/>
-      <c r="AB7" s="287"/>
-      <c r="AC7" s="287"/>
-      <c r="AD7" s="287"/>
-      <c r="AE7" s="286"/>
-      <c r="AF7" s="285" t="s">
+      <c r="R7" s="313"/>
+      <c r="S7" s="313"/>
+      <c r="T7" s="313"/>
+      <c r="U7" s="313"/>
+      <c r="V7" s="313"/>
+      <c r="W7" s="313"/>
+      <c r="X7" s="313"/>
+      <c r="Y7" s="313"/>
+      <c r="Z7" s="313"/>
+      <c r="AA7" s="313"/>
+      <c r="AB7" s="313"/>
+      <c r="AC7" s="313"/>
+      <c r="AD7" s="313"/>
+      <c r="AE7" s="312"/>
+      <c r="AF7" s="311" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="287"/>
-      <c r="AH7" s="287"/>
-      <c r="AI7" s="286"/>
+      <c r="AG7" s="313"/>
+      <c r="AH7" s="313"/>
+      <c r="AI7" s="312"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="330" t="s">
+      <c r="B8" s="295" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="331"/>
-      <c r="D8" s="332">
+      <c r="C8" s="296"/>
+      <c r="D8" s="297">
         <v>44792</v>
       </c>
-      <c r="E8" s="333"/>
-      <c r="F8" s="334"/>
-      <c r="G8" s="335" t="s">
+      <c r="E8" s="298"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="336"/>
-      <c r="I8" s="331"/>
-      <c r="J8" s="337"/>
-      <c r="K8" s="338"/>
-      <c r="L8" s="338"/>
-      <c r="M8" s="338"/>
-      <c r="N8" s="338"/>
-      <c r="O8" s="338"/>
-      <c r="P8" s="339"/>
-      <c r="Q8" s="340" t="s">
+      <c r="H8" s="301"/>
+      <c r="I8" s="296"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="303"/>
+      <c r="L8" s="303"/>
+      <c r="M8" s="303"/>
+      <c r="N8" s="303"/>
+      <c r="O8" s="303"/>
+      <c r="P8" s="304"/>
+      <c r="Q8" s="305" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="341"/>
-      <c r="S8" s="341"/>
-      <c r="T8" s="341"/>
-      <c r="U8" s="341"/>
-      <c r="V8" s="341"/>
-      <c r="W8" s="341"/>
-      <c r="X8" s="341"/>
-      <c r="Y8" s="341"/>
-      <c r="Z8" s="341"/>
-      <c r="AA8" s="341"/>
-      <c r="AB8" s="341"/>
-      <c r="AC8" s="341"/>
-      <c r="AD8" s="341"/>
-      <c r="AE8" s="342"/>
-      <c r="AF8" s="337" t="s">
+      <c r="R8" s="306"/>
+      <c r="S8" s="306"/>
+      <c r="T8" s="306"/>
+      <c r="U8" s="306"/>
+      <c r="V8" s="306"/>
+      <c r="W8" s="306"/>
+      <c r="X8" s="306"/>
+      <c r="Y8" s="306"/>
+      <c r="Z8" s="306"/>
+      <c r="AA8" s="306"/>
+      <c r="AB8" s="306"/>
+      <c r="AC8" s="306"/>
+      <c r="AD8" s="306"/>
+      <c r="AE8" s="307"/>
+      <c r="AF8" s="302" t="s">
         <v>39</v>
       </c>
-      <c r="AG8" s="338"/>
-      <c r="AH8" s="338"/>
-      <c r="AI8" s="339"/>
+      <c r="AG8" s="303"/>
+      <c r="AH8" s="303"/>
+      <c r="AI8" s="304"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="318"/>
-      <c r="C9" s="319"/>
-      <c r="D9" s="320"/>
-      <c r="E9" s="321"/>
-      <c r="F9" s="322"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="323"/>
-      <c r="I9" s="319"/>
-      <c r="J9" s="324"/>
-      <c r="K9" s="325"/>
-      <c r="L9" s="325"/>
-      <c r="M9" s="325"/>
-      <c r="N9" s="325"/>
-      <c r="O9" s="325"/>
-      <c r="P9" s="326"/>
-      <c r="Q9" s="327"/>
-      <c r="R9" s="328"/>
-      <c r="S9" s="328"/>
-      <c r="T9" s="328"/>
-      <c r="U9" s="328"/>
-      <c r="V9" s="328"/>
-      <c r="W9" s="328"/>
-      <c r="X9" s="328"/>
-      <c r="Y9" s="328"/>
-      <c r="Z9" s="328"/>
-      <c r="AA9" s="328"/>
-      <c r="AB9" s="328"/>
-      <c r="AC9" s="328"/>
-      <c r="AD9" s="328"/>
-      <c r="AE9" s="329"/>
-      <c r="AF9" s="324"/>
-      <c r="AG9" s="325"/>
-      <c r="AH9" s="325"/>
-      <c r="AI9" s="326"/>
+      <c r="B9" s="282"/>
+      <c r="C9" s="283"/>
+      <c r="D9" s="284"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="286"/>
+      <c r="G9" s="284"/>
+      <c r="H9" s="287"/>
+      <c r="I9" s="283"/>
+      <c r="J9" s="288"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="289"/>
+      <c r="M9" s="289"/>
+      <c r="N9" s="289"/>
+      <c r="O9" s="289"/>
+      <c r="P9" s="290"/>
+      <c r="Q9" s="291"/>
+      <c r="R9" s="292"/>
+      <c r="S9" s="292"/>
+      <c r="T9" s="292"/>
+      <c r="U9" s="292"/>
+      <c r="V9" s="292"/>
+      <c r="W9" s="292"/>
+      <c r="X9" s="292"/>
+      <c r="Y9" s="292"/>
+      <c r="Z9" s="292"/>
+      <c r="AA9" s="292"/>
+      <c r="AB9" s="292"/>
+      <c r="AC9" s="292"/>
+      <c r="AD9" s="292"/>
+      <c r="AE9" s="293"/>
+      <c r="AF9" s="288"/>
+      <c r="AG9" s="289"/>
+      <c r="AH9" s="289"/>
+      <c r="AI9" s="290"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="318"/>
-      <c r="C10" s="319"/>
-      <c r="D10" s="320"/>
-      <c r="E10" s="321"/>
-      <c r="F10" s="322"/>
-      <c r="G10" s="318"/>
-      <c r="H10" s="323"/>
-      <c r="I10" s="319"/>
-      <c r="J10" s="324"/>
-      <c r="K10" s="325"/>
-      <c r="L10" s="325"/>
-      <c r="M10" s="325"/>
-      <c r="N10" s="325"/>
-      <c r="O10" s="325"/>
-      <c r="P10" s="326"/>
-      <c r="Q10" s="327"/>
-      <c r="R10" s="328"/>
-      <c r="S10" s="328"/>
-      <c r="T10" s="328"/>
-      <c r="U10" s="328"/>
-      <c r="V10" s="328"/>
-      <c r="W10" s="328"/>
-      <c r="X10" s="328"/>
-      <c r="Y10" s="328"/>
-      <c r="Z10" s="328"/>
-      <c r="AA10" s="328"/>
-      <c r="AB10" s="328"/>
-      <c r="AC10" s="328"/>
-      <c r="AD10" s="328"/>
-      <c r="AE10" s="329"/>
-      <c r="AF10" s="324"/>
-      <c r="AG10" s="325"/>
-      <c r="AH10" s="325"/>
-      <c r="AI10" s="326"/>
+      <c r="B10" s="282"/>
+      <c r="C10" s="283"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="285"/>
+      <c r="F10" s="286"/>
+      <c r="G10" s="282"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="283"/>
+      <c r="J10" s="288"/>
+      <c r="K10" s="289"/>
+      <c r="L10" s="289"/>
+      <c r="M10" s="289"/>
+      <c r="N10" s="289"/>
+      <c r="O10" s="289"/>
+      <c r="P10" s="290"/>
+      <c r="Q10" s="291"/>
+      <c r="R10" s="292"/>
+      <c r="S10" s="292"/>
+      <c r="T10" s="292"/>
+      <c r="U10" s="292"/>
+      <c r="V10" s="292"/>
+      <c r="W10" s="292"/>
+      <c r="X10" s="292"/>
+      <c r="Y10" s="292"/>
+      <c r="Z10" s="292"/>
+      <c r="AA10" s="292"/>
+      <c r="AB10" s="292"/>
+      <c r="AC10" s="292"/>
+      <c r="AD10" s="292"/>
+      <c r="AE10" s="293"/>
+      <c r="AF10" s="288"/>
+      <c r="AG10" s="289"/>
+      <c r="AH10" s="289"/>
+      <c r="AI10" s="290"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="318"/>
-      <c r="C11" s="319"/>
-      <c r="D11" s="320"/>
-      <c r="E11" s="321"/>
-      <c r="F11" s="322"/>
-      <c r="G11" s="318"/>
-      <c r="H11" s="323"/>
-      <c r="I11" s="319"/>
-      <c r="J11" s="324"/>
-      <c r="K11" s="325"/>
-      <c r="L11" s="325"/>
-      <c r="M11" s="325"/>
-      <c r="N11" s="325"/>
-      <c r="O11" s="325"/>
-      <c r="P11" s="326"/>
-      <c r="Q11" s="327"/>
-      <c r="R11" s="328"/>
-      <c r="S11" s="328"/>
-      <c r="T11" s="328"/>
-      <c r="U11" s="328"/>
-      <c r="V11" s="328"/>
-      <c r="W11" s="328"/>
-      <c r="X11" s="328"/>
-      <c r="Y11" s="328"/>
-      <c r="Z11" s="328"/>
-      <c r="AA11" s="328"/>
-      <c r="AB11" s="328"/>
-      <c r="AC11" s="328"/>
-      <c r="AD11" s="328"/>
-      <c r="AE11" s="329"/>
-      <c r="AF11" s="324"/>
-      <c r="AG11" s="325"/>
-      <c r="AH11" s="325"/>
-      <c r="AI11" s="326"/>
+      <c r="B11" s="282"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="286"/>
+      <c r="G11" s="282"/>
+      <c r="H11" s="287"/>
+      <c r="I11" s="283"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="289"/>
+      <c r="L11" s="289"/>
+      <c r="M11" s="289"/>
+      <c r="N11" s="289"/>
+      <c r="O11" s="289"/>
+      <c r="P11" s="290"/>
+      <c r="Q11" s="291"/>
+      <c r="R11" s="292"/>
+      <c r="S11" s="292"/>
+      <c r="T11" s="292"/>
+      <c r="U11" s="292"/>
+      <c r="V11" s="292"/>
+      <c r="W11" s="292"/>
+      <c r="X11" s="292"/>
+      <c r="Y11" s="292"/>
+      <c r="Z11" s="292"/>
+      <c r="AA11" s="292"/>
+      <c r="AB11" s="292"/>
+      <c r="AC11" s="292"/>
+      <c r="AD11" s="292"/>
+      <c r="AE11" s="293"/>
+      <c r="AF11" s="288"/>
+      <c r="AG11" s="289"/>
+      <c r="AH11" s="289"/>
+      <c r="AI11" s="290"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="318"/>
-      <c r="C12" s="319"/>
-      <c r="D12" s="320"/>
-      <c r="E12" s="321"/>
-      <c r="F12" s="322"/>
-      <c r="G12" s="318"/>
-      <c r="H12" s="323"/>
-      <c r="I12" s="319"/>
-      <c r="J12" s="324"/>
-      <c r="K12" s="325"/>
-      <c r="L12" s="325"/>
-      <c r="M12" s="325"/>
-      <c r="N12" s="325"/>
-      <c r="O12" s="325"/>
-      <c r="P12" s="326"/>
-      <c r="Q12" s="327"/>
-      <c r="R12" s="328"/>
-      <c r="S12" s="328"/>
-      <c r="T12" s="328"/>
-      <c r="U12" s="328"/>
-      <c r="V12" s="328"/>
-      <c r="W12" s="328"/>
-      <c r="X12" s="328"/>
-      <c r="Y12" s="328"/>
-      <c r="Z12" s="328"/>
-      <c r="AA12" s="328"/>
-      <c r="AB12" s="328"/>
-      <c r="AC12" s="328"/>
-      <c r="AD12" s="328"/>
-      <c r="AE12" s="329"/>
-      <c r="AF12" s="324"/>
-      <c r="AG12" s="325"/>
-      <c r="AH12" s="325"/>
-      <c r="AI12" s="326"/>
+      <c r="B12" s="282"/>
+      <c r="C12" s="283"/>
+      <c r="D12" s="284"/>
+      <c r="E12" s="285"/>
+      <c r="F12" s="286"/>
+      <c r="G12" s="282"/>
+      <c r="H12" s="287"/>
+      <c r="I12" s="283"/>
+      <c r="J12" s="288"/>
+      <c r="K12" s="289"/>
+      <c r="L12" s="289"/>
+      <c r="M12" s="289"/>
+      <c r="N12" s="289"/>
+      <c r="O12" s="289"/>
+      <c r="P12" s="290"/>
+      <c r="Q12" s="291"/>
+      <c r="R12" s="292"/>
+      <c r="S12" s="292"/>
+      <c r="T12" s="292"/>
+      <c r="U12" s="292"/>
+      <c r="V12" s="292"/>
+      <c r="W12" s="292"/>
+      <c r="X12" s="292"/>
+      <c r="Y12" s="292"/>
+      <c r="Z12" s="292"/>
+      <c r="AA12" s="292"/>
+      <c r="AB12" s="292"/>
+      <c r="AC12" s="292"/>
+      <c r="AD12" s="292"/>
+      <c r="AE12" s="293"/>
+      <c r="AF12" s="288"/>
+      <c r="AG12" s="289"/>
+      <c r="AH12" s="289"/>
+      <c r="AI12" s="290"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="318"/>
-      <c r="C13" s="319"/>
-      <c r="D13" s="320"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="323"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="324"/>
-      <c r="K13" s="325"/>
-      <c r="L13" s="325"/>
-      <c r="M13" s="325"/>
-      <c r="N13" s="325"/>
-      <c r="O13" s="325"/>
-      <c r="P13" s="326"/>
-      <c r="Q13" s="327"/>
-      <c r="R13" s="328"/>
-      <c r="S13" s="328"/>
-      <c r="T13" s="328"/>
-      <c r="U13" s="328"/>
-      <c r="V13" s="328"/>
-      <c r="W13" s="328"/>
-      <c r="X13" s="328"/>
-      <c r="Y13" s="328"/>
-      <c r="Z13" s="328"/>
-      <c r="AA13" s="328"/>
-      <c r="AB13" s="328"/>
-      <c r="AC13" s="328"/>
-      <c r="AD13" s="328"/>
-      <c r="AE13" s="329"/>
-      <c r="AF13" s="324"/>
-      <c r="AG13" s="325"/>
-      <c r="AH13" s="325"/>
-      <c r="AI13" s="326"/>
+      <c r="B13" s="282"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="284"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="286"/>
+      <c r="G13" s="282"/>
+      <c r="H13" s="287"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="289"/>
+      <c r="L13" s="289"/>
+      <c r="M13" s="289"/>
+      <c r="N13" s="289"/>
+      <c r="O13" s="289"/>
+      <c r="P13" s="290"/>
+      <c r="Q13" s="291"/>
+      <c r="R13" s="292"/>
+      <c r="S13" s="292"/>
+      <c r="T13" s="292"/>
+      <c r="U13" s="292"/>
+      <c r="V13" s="292"/>
+      <c r="W13" s="292"/>
+      <c r="X13" s="292"/>
+      <c r="Y13" s="292"/>
+      <c r="Z13" s="292"/>
+      <c r="AA13" s="292"/>
+      <c r="AB13" s="292"/>
+      <c r="AC13" s="292"/>
+      <c r="AD13" s="292"/>
+      <c r="AE13" s="293"/>
+      <c r="AF13" s="288"/>
+      <c r="AG13" s="289"/>
+      <c r="AH13" s="289"/>
+      <c r="AI13" s="290"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="318"/>
-      <c r="C14" s="319"/>
-      <c r="D14" s="320"/>
-      <c r="E14" s="321"/>
-      <c r="F14" s="322"/>
-      <c r="G14" s="318"/>
-      <c r="H14" s="323"/>
-      <c r="I14" s="319"/>
-      <c r="J14" s="324"/>
-      <c r="K14" s="325"/>
-      <c r="L14" s="325"/>
-      <c r="M14" s="325"/>
-      <c r="N14" s="325"/>
-      <c r="O14" s="325"/>
-      <c r="P14" s="326"/>
-      <c r="Q14" s="327"/>
-      <c r="R14" s="328"/>
-      <c r="S14" s="328"/>
-      <c r="T14" s="328"/>
-      <c r="U14" s="328"/>
-      <c r="V14" s="328"/>
-      <c r="W14" s="328"/>
-      <c r="X14" s="328"/>
-      <c r="Y14" s="328"/>
-      <c r="Z14" s="328"/>
-      <c r="AA14" s="328"/>
-      <c r="AB14" s="328"/>
-      <c r="AC14" s="328"/>
-      <c r="AD14" s="328"/>
-      <c r="AE14" s="329"/>
-      <c r="AF14" s="324"/>
-      <c r="AG14" s="325"/>
-      <c r="AH14" s="325"/>
-      <c r="AI14" s="326"/>
+      <c r="B14" s="282"/>
+      <c r="C14" s="283"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="285"/>
+      <c r="F14" s="286"/>
+      <c r="G14" s="282"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="283"/>
+      <c r="J14" s="288"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="289"/>
+      <c r="M14" s="289"/>
+      <c r="N14" s="289"/>
+      <c r="O14" s="289"/>
+      <c r="P14" s="290"/>
+      <c r="Q14" s="291"/>
+      <c r="R14" s="292"/>
+      <c r="S14" s="292"/>
+      <c r="T14" s="292"/>
+      <c r="U14" s="292"/>
+      <c r="V14" s="292"/>
+      <c r="W14" s="292"/>
+      <c r="X14" s="292"/>
+      <c r="Y14" s="292"/>
+      <c r="Z14" s="292"/>
+      <c r="AA14" s="292"/>
+      <c r="AB14" s="292"/>
+      <c r="AC14" s="292"/>
+      <c r="AD14" s="292"/>
+      <c r="AE14" s="293"/>
+      <c r="AF14" s="288"/>
+      <c r="AG14" s="289"/>
+      <c r="AH14" s="289"/>
+      <c r="AI14" s="290"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="318"/>
-      <c r="C15" s="319"/>
-      <c r="D15" s="320"/>
-      <c r="E15" s="321"/>
-      <c r="F15" s="322"/>
-      <c r="G15" s="318"/>
-      <c r="H15" s="323"/>
-      <c r="I15" s="319"/>
-      <c r="J15" s="324"/>
-      <c r="K15" s="325"/>
-      <c r="L15" s="325"/>
-      <c r="M15" s="325"/>
-      <c r="N15" s="325"/>
-      <c r="O15" s="325"/>
-      <c r="P15" s="326"/>
-      <c r="Q15" s="327"/>
-      <c r="R15" s="328"/>
-      <c r="S15" s="328"/>
-      <c r="T15" s="328"/>
-      <c r="U15" s="328"/>
-      <c r="V15" s="328"/>
-      <c r="W15" s="328"/>
-      <c r="X15" s="328"/>
-      <c r="Y15" s="328"/>
-      <c r="Z15" s="328"/>
-      <c r="AA15" s="328"/>
-      <c r="AB15" s="328"/>
-      <c r="AC15" s="328"/>
-      <c r="AD15" s="328"/>
-      <c r="AE15" s="329"/>
-      <c r="AF15" s="324"/>
-      <c r="AG15" s="325"/>
-      <c r="AH15" s="325"/>
-      <c r="AI15" s="326"/>
+      <c r="B15" s="282"/>
+      <c r="C15" s="283"/>
+      <c r="D15" s="284"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="286"/>
+      <c r="G15" s="282"/>
+      <c r="H15" s="287"/>
+      <c r="I15" s="283"/>
+      <c r="J15" s="288"/>
+      <c r="K15" s="289"/>
+      <c r="L15" s="289"/>
+      <c r="M15" s="289"/>
+      <c r="N15" s="289"/>
+      <c r="O15" s="289"/>
+      <c r="P15" s="290"/>
+      <c r="Q15" s="291"/>
+      <c r="R15" s="292"/>
+      <c r="S15" s="292"/>
+      <c r="T15" s="292"/>
+      <c r="U15" s="292"/>
+      <c r="V15" s="292"/>
+      <c r="W15" s="292"/>
+      <c r="X15" s="292"/>
+      <c r="Y15" s="292"/>
+      <c r="Z15" s="292"/>
+      <c r="AA15" s="292"/>
+      <c r="AB15" s="292"/>
+      <c r="AC15" s="292"/>
+      <c r="AD15" s="292"/>
+      <c r="AE15" s="293"/>
+      <c r="AF15" s="288"/>
+      <c r="AG15" s="289"/>
+      <c r="AH15" s="289"/>
+      <c r="AI15" s="290"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="318"/>
-      <c r="C16" s="319"/>
-      <c r="D16" s="320"/>
-      <c r="E16" s="321"/>
-      <c r="F16" s="322"/>
-      <c r="G16" s="318"/>
-      <c r="H16" s="323"/>
-      <c r="I16" s="319"/>
-      <c r="J16" s="324"/>
-      <c r="K16" s="325"/>
-      <c r="L16" s="325"/>
-      <c r="M16" s="325"/>
-      <c r="N16" s="325"/>
-      <c r="O16" s="325"/>
-      <c r="P16" s="326"/>
-      <c r="Q16" s="327"/>
-      <c r="R16" s="328"/>
-      <c r="S16" s="328"/>
-      <c r="T16" s="328"/>
-      <c r="U16" s="328"/>
-      <c r="V16" s="328"/>
-      <c r="W16" s="328"/>
-      <c r="X16" s="328"/>
-      <c r="Y16" s="328"/>
-      <c r="Z16" s="328"/>
-      <c r="AA16" s="328"/>
-      <c r="AB16" s="328"/>
-      <c r="AC16" s="328"/>
-      <c r="AD16" s="328"/>
-      <c r="AE16" s="329"/>
-      <c r="AF16" s="324"/>
-      <c r="AG16" s="325"/>
-      <c r="AH16" s="325"/>
-      <c r="AI16" s="326"/>
+      <c r="B16" s="282"/>
+      <c r="C16" s="283"/>
+      <c r="D16" s="284"/>
+      <c r="E16" s="285"/>
+      <c r="F16" s="286"/>
+      <c r="G16" s="282"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="283"/>
+      <c r="J16" s="288"/>
+      <c r="K16" s="289"/>
+      <c r="L16" s="289"/>
+      <c r="M16" s="289"/>
+      <c r="N16" s="289"/>
+      <c r="O16" s="289"/>
+      <c r="P16" s="290"/>
+      <c r="Q16" s="291"/>
+      <c r="R16" s="292"/>
+      <c r="S16" s="292"/>
+      <c r="T16" s="292"/>
+      <c r="U16" s="292"/>
+      <c r="V16" s="292"/>
+      <c r="W16" s="292"/>
+      <c r="X16" s="292"/>
+      <c r="Y16" s="292"/>
+      <c r="Z16" s="292"/>
+      <c r="AA16" s="292"/>
+      <c r="AB16" s="292"/>
+      <c r="AC16" s="292"/>
+      <c r="AD16" s="292"/>
+      <c r="AE16" s="293"/>
+      <c r="AF16" s="288"/>
+      <c r="AG16" s="289"/>
+      <c r="AH16" s="289"/>
+      <c r="AI16" s="290"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="318"/>
-      <c r="C17" s="319"/>
-      <c r="D17" s="320"/>
-      <c r="E17" s="321"/>
-      <c r="F17" s="322"/>
-      <c r="G17" s="318"/>
-      <c r="H17" s="323"/>
-      <c r="I17" s="319"/>
-      <c r="J17" s="324"/>
-      <c r="K17" s="325"/>
-      <c r="L17" s="325"/>
-      <c r="M17" s="325"/>
-      <c r="N17" s="325"/>
-      <c r="O17" s="325"/>
-      <c r="P17" s="326"/>
-      <c r="Q17" s="327"/>
-      <c r="R17" s="328"/>
-      <c r="S17" s="328"/>
-      <c r="T17" s="328"/>
-      <c r="U17" s="328"/>
-      <c r="V17" s="328"/>
-      <c r="W17" s="328"/>
-      <c r="X17" s="328"/>
-      <c r="Y17" s="328"/>
-      <c r="Z17" s="328"/>
-      <c r="AA17" s="328"/>
-      <c r="AB17" s="328"/>
-      <c r="AC17" s="328"/>
-      <c r="AD17" s="328"/>
-      <c r="AE17" s="329"/>
-      <c r="AF17" s="324"/>
-      <c r="AG17" s="325"/>
-      <c r="AH17" s="325"/>
-      <c r="AI17" s="326"/>
+      <c r="B17" s="282"/>
+      <c r="C17" s="283"/>
+      <c r="D17" s="284"/>
+      <c r="E17" s="285"/>
+      <c r="F17" s="286"/>
+      <c r="G17" s="282"/>
+      <c r="H17" s="287"/>
+      <c r="I17" s="283"/>
+      <c r="J17" s="288"/>
+      <c r="K17" s="289"/>
+      <c r="L17" s="289"/>
+      <c r="M17" s="289"/>
+      <c r="N17" s="289"/>
+      <c r="O17" s="289"/>
+      <c r="P17" s="290"/>
+      <c r="Q17" s="291"/>
+      <c r="R17" s="292"/>
+      <c r="S17" s="292"/>
+      <c r="T17" s="292"/>
+      <c r="U17" s="292"/>
+      <c r="V17" s="292"/>
+      <c r="W17" s="292"/>
+      <c r="X17" s="292"/>
+      <c r="Y17" s="292"/>
+      <c r="Z17" s="292"/>
+      <c r="AA17" s="292"/>
+      <c r="AB17" s="292"/>
+      <c r="AC17" s="292"/>
+      <c r="AD17" s="292"/>
+      <c r="AE17" s="293"/>
+      <c r="AF17" s="288"/>
+      <c r="AG17" s="289"/>
+      <c r="AH17" s="289"/>
+      <c r="AI17" s="290"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="318"/>
-      <c r="C18" s="319"/>
-      <c r="D18" s="320"/>
-      <c r="E18" s="321"/>
-      <c r="F18" s="322"/>
-      <c r="G18" s="318"/>
-      <c r="H18" s="323"/>
-      <c r="I18" s="319"/>
-      <c r="J18" s="324"/>
-      <c r="K18" s="325"/>
-      <c r="L18" s="325"/>
-      <c r="M18" s="325"/>
-      <c r="N18" s="325"/>
-      <c r="O18" s="325"/>
-      <c r="P18" s="326"/>
-      <c r="Q18" s="327"/>
-      <c r="R18" s="328"/>
-      <c r="S18" s="328"/>
-      <c r="T18" s="328"/>
-      <c r="U18" s="328"/>
-      <c r="V18" s="328"/>
-      <c r="W18" s="328"/>
-      <c r="X18" s="328"/>
-      <c r="Y18" s="328"/>
-      <c r="Z18" s="328"/>
-      <c r="AA18" s="328"/>
-      <c r="AB18" s="328"/>
-      <c r="AC18" s="328"/>
-      <c r="AD18" s="328"/>
-      <c r="AE18" s="329"/>
-      <c r="AF18" s="324"/>
-      <c r="AG18" s="325"/>
-      <c r="AH18" s="325"/>
-      <c r="AI18" s="326"/>
+      <c r="B18" s="282"/>
+      <c r="C18" s="283"/>
+      <c r="D18" s="284"/>
+      <c r="E18" s="285"/>
+      <c r="F18" s="286"/>
+      <c r="G18" s="282"/>
+      <c r="H18" s="287"/>
+      <c r="I18" s="283"/>
+      <c r="J18" s="288"/>
+      <c r="K18" s="289"/>
+      <c r="L18" s="289"/>
+      <c r="M18" s="289"/>
+      <c r="N18" s="289"/>
+      <c r="O18" s="289"/>
+      <c r="P18" s="290"/>
+      <c r="Q18" s="291"/>
+      <c r="R18" s="292"/>
+      <c r="S18" s="292"/>
+      <c r="T18" s="292"/>
+      <c r="U18" s="292"/>
+      <c r="V18" s="292"/>
+      <c r="W18" s="292"/>
+      <c r="X18" s="292"/>
+      <c r="Y18" s="292"/>
+      <c r="Z18" s="292"/>
+      <c r="AA18" s="292"/>
+      <c r="AB18" s="292"/>
+      <c r="AC18" s="292"/>
+      <c r="AD18" s="292"/>
+      <c r="AE18" s="293"/>
+      <c r="AF18" s="288"/>
+      <c r="AG18" s="289"/>
+      <c r="AH18" s="289"/>
+      <c r="AI18" s="290"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="318"/>
-      <c r="C19" s="319"/>
-      <c r="D19" s="320"/>
-      <c r="E19" s="321"/>
-      <c r="F19" s="322"/>
-      <c r="G19" s="318"/>
-      <c r="H19" s="323"/>
-      <c r="I19" s="319"/>
-      <c r="J19" s="324"/>
-      <c r="K19" s="325"/>
-      <c r="L19" s="325"/>
-      <c r="M19" s="325"/>
-      <c r="N19" s="325"/>
-      <c r="O19" s="325"/>
-      <c r="P19" s="326"/>
-      <c r="Q19" s="327"/>
-      <c r="R19" s="328"/>
-      <c r="S19" s="328"/>
-      <c r="T19" s="328"/>
-      <c r="U19" s="328"/>
-      <c r="V19" s="328"/>
-      <c r="W19" s="328"/>
-      <c r="X19" s="328"/>
-      <c r="Y19" s="328"/>
-      <c r="Z19" s="328"/>
-      <c r="AA19" s="328"/>
-      <c r="AB19" s="328"/>
-      <c r="AC19" s="328"/>
-      <c r="AD19" s="328"/>
-      <c r="AE19" s="329"/>
-      <c r="AF19" s="324"/>
-      <c r="AG19" s="325"/>
-      <c r="AH19" s="325"/>
-      <c r="AI19" s="326"/>
+      <c r="B19" s="282"/>
+      <c r="C19" s="283"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="285"/>
+      <c r="F19" s="286"/>
+      <c r="G19" s="282"/>
+      <c r="H19" s="287"/>
+      <c r="I19" s="283"/>
+      <c r="J19" s="288"/>
+      <c r="K19" s="289"/>
+      <c r="L19" s="289"/>
+      <c r="M19" s="289"/>
+      <c r="N19" s="289"/>
+      <c r="O19" s="289"/>
+      <c r="P19" s="290"/>
+      <c r="Q19" s="291"/>
+      <c r="R19" s="292"/>
+      <c r="S19" s="292"/>
+      <c r="T19" s="292"/>
+      <c r="U19" s="292"/>
+      <c r="V19" s="292"/>
+      <c r="W19" s="292"/>
+      <c r="X19" s="292"/>
+      <c r="Y19" s="292"/>
+      <c r="Z19" s="292"/>
+      <c r="AA19" s="292"/>
+      <c r="AB19" s="292"/>
+      <c r="AC19" s="292"/>
+      <c r="AD19" s="292"/>
+      <c r="AE19" s="293"/>
+      <c r="AF19" s="288"/>
+      <c r="AG19" s="289"/>
+      <c r="AH19" s="289"/>
+      <c r="AI19" s="290"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="318"/>
-      <c r="C20" s="319"/>
-      <c r="D20" s="320"/>
-      <c r="E20" s="321"/>
-      <c r="F20" s="322"/>
-      <c r="G20" s="318"/>
-      <c r="H20" s="323"/>
-      <c r="I20" s="319"/>
-      <c r="J20" s="324"/>
-      <c r="K20" s="325"/>
-      <c r="L20" s="325"/>
-      <c r="M20" s="325"/>
-      <c r="N20" s="325"/>
-      <c r="O20" s="325"/>
-      <c r="P20" s="326"/>
-      <c r="Q20" s="327"/>
-      <c r="R20" s="328"/>
-      <c r="S20" s="328"/>
-      <c r="T20" s="328"/>
-      <c r="U20" s="328"/>
-      <c r="V20" s="328"/>
-      <c r="W20" s="328"/>
-      <c r="X20" s="328"/>
-      <c r="Y20" s="328"/>
-      <c r="Z20" s="328"/>
-      <c r="AA20" s="328"/>
-      <c r="AB20" s="328"/>
-      <c r="AC20" s="328"/>
-      <c r="AD20" s="328"/>
-      <c r="AE20" s="329"/>
-      <c r="AF20" s="324"/>
-      <c r="AG20" s="325"/>
-      <c r="AH20" s="325"/>
-      <c r="AI20" s="326"/>
+      <c r="B20" s="282"/>
+      <c r="C20" s="283"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="285"/>
+      <c r="F20" s="286"/>
+      <c r="G20" s="282"/>
+      <c r="H20" s="287"/>
+      <c r="I20" s="283"/>
+      <c r="J20" s="288"/>
+      <c r="K20" s="289"/>
+      <c r="L20" s="289"/>
+      <c r="M20" s="289"/>
+      <c r="N20" s="289"/>
+      <c r="O20" s="289"/>
+      <c r="P20" s="290"/>
+      <c r="Q20" s="291"/>
+      <c r="R20" s="292"/>
+      <c r="S20" s="292"/>
+      <c r="T20" s="292"/>
+      <c r="U20" s="292"/>
+      <c r="V20" s="292"/>
+      <c r="W20" s="292"/>
+      <c r="X20" s="292"/>
+      <c r="Y20" s="292"/>
+      <c r="Z20" s="292"/>
+      <c r="AA20" s="292"/>
+      <c r="AB20" s="292"/>
+      <c r="AC20" s="292"/>
+      <c r="AD20" s="292"/>
+      <c r="AE20" s="293"/>
+      <c r="AF20" s="288"/>
+      <c r="AG20" s="289"/>
+      <c r="AH20" s="289"/>
+      <c r="AI20" s="290"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="318"/>
-      <c r="C21" s="319"/>
-      <c r="D21" s="320"/>
-      <c r="E21" s="321"/>
-      <c r="F21" s="322"/>
-      <c r="G21" s="318"/>
-      <c r="H21" s="323"/>
-      <c r="I21" s="319"/>
-      <c r="J21" s="324"/>
-      <c r="K21" s="325"/>
-      <c r="L21" s="325"/>
-      <c r="M21" s="325"/>
-      <c r="N21" s="325"/>
-      <c r="O21" s="325"/>
-      <c r="P21" s="326"/>
-      <c r="Q21" s="327"/>
-      <c r="R21" s="328"/>
-      <c r="S21" s="328"/>
-      <c r="T21" s="328"/>
-      <c r="U21" s="328"/>
-      <c r="V21" s="328"/>
-      <c r="W21" s="328"/>
-      <c r="X21" s="328"/>
-      <c r="Y21" s="328"/>
-      <c r="Z21" s="328"/>
-      <c r="AA21" s="328"/>
-      <c r="AB21" s="328"/>
-      <c r="AC21" s="328"/>
-      <c r="AD21" s="328"/>
-      <c r="AE21" s="329"/>
-      <c r="AF21" s="324"/>
-      <c r="AG21" s="325"/>
-      <c r="AH21" s="325"/>
-      <c r="AI21" s="326"/>
+      <c r="B21" s="282"/>
+      <c r="C21" s="283"/>
+      <c r="D21" s="284"/>
+      <c r="E21" s="285"/>
+      <c r="F21" s="286"/>
+      <c r="G21" s="282"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="283"/>
+      <c r="J21" s="288"/>
+      <c r="K21" s="289"/>
+      <c r="L21" s="289"/>
+      <c r="M21" s="289"/>
+      <c r="N21" s="289"/>
+      <c r="O21" s="289"/>
+      <c r="P21" s="290"/>
+      <c r="Q21" s="291"/>
+      <c r="R21" s="292"/>
+      <c r="S21" s="292"/>
+      <c r="T21" s="292"/>
+      <c r="U21" s="292"/>
+      <c r="V21" s="292"/>
+      <c r="W21" s="292"/>
+      <c r="X21" s="292"/>
+      <c r="Y21" s="292"/>
+      <c r="Z21" s="292"/>
+      <c r="AA21" s="292"/>
+      <c r="AB21" s="292"/>
+      <c r="AC21" s="292"/>
+      <c r="AD21" s="292"/>
+      <c r="AE21" s="293"/>
+      <c r="AF21" s="288"/>
+      <c r="AG21" s="289"/>
+      <c r="AH21" s="289"/>
+      <c r="AI21" s="290"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="318"/>
-      <c r="C22" s="319"/>
-      <c r="D22" s="320"/>
-      <c r="E22" s="321"/>
-      <c r="F22" s="322"/>
-      <c r="G22" s="318"/>
-      <c r="H22" s="323"/>
-      <c r="I22" s="319"/>
-      <c r="J22" s="324"/>
-      <c r="K22" s="325"/>
-      <c r="L22" s="325"/>
-      <c r="M22" s="325"/>
-      <c r="N22" s="325"/>
-      <c r="O22" s="325"/>
-      <c r="P22" s="326"/>
-      <c r="Q22" s="327"/>
-      <c r="R22" s="328"/>
-      <c r="S22" s="328"/>
-      <c r="T22" s="328"/>
-      <c r="U22" s="328"/>
-      <c r="V22" s="328"/>
-      <c r="W22" s="328"/>
-      <c r="X22" s="328"/>
-      <c r="Y22" s="328"/>
-      <c r="Z22" s="328"/>
-      <c r="AA22" s="328"/>
-      <c r="AB22" s="328"/>
-      <c r="AC22" s="328"/>
-      <c r="AD22" s="328"/>
-      <c r="AE22" s="329"/>
-      <c r="AF22" s="324"/>
-      <c r="AG22" s="325"/>
-      <c r="AH22" s="325"/>
-      <c r="AI22" s="326"/>
+      <c r="B22" s="282"/>
+      <c r="C22" s="283"/>
+      <c r="D22" s="284"/>
+      <c r="E22" s="285"/>
+      <c r="F22" s="286"/>
+      <c r="G22" s="282"/>
+      <c r="H22" s="287"/>
+      <c r="I22" s="283"/>
+      <c r="J22" s="288"/>
+      <c r="K22" s="289"/>
+      <c r="L22" s="289"/>
+      <c r="M22" s="289"/>
+      <c r="N22" s="289"/>
+      <c r="O22" s="289"/>
+      <c r="P22" s="290"/>
+      <c r="Q22" s="291"/>
+      <c r="R22" s="292"/>
+      <c r="S22" s="292"/>
+      <c r="T22" s="292"/>
+      <c r="U22" s="292"/>
+      <c r="V22" s="292"/>
+      <c r="W22" s="292"/>
+      <c r="X22" s="292"/>
+      <c r="Y22" s="292"/>
+      <c r="Z22" s="292"/>
+      <c r="AA22" s="292"/>
+      <c r="AB22" s="292"/>
+      <c r="AC22" s="292"/>
+      <c r="AD22" s="292"/>
+      <c r="AE22" s="293"/>
+      <c r="AF22" s="288"/>
+      <c r="AG22" s="289"/>
+      <c r="AH22" s="289"/>
+      <c r="AI22" s="290"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="318"/>
-      <c r="C23" s="319"/>
-      <c r="D23" s="320"/>
-      <c r="E23" s="321"/>
-      <c r="F23" s="322"/>
-      <c r="G23" s="318"/>
-      <c r="H23" s="323"/>
-      <c r="I23" s="319"/>
-      <c r="J23" s="324"/>
-      <c r="K23" s="325"/>
-      <c r="L23" s="325"/>
-      <c r="M23" s="325"/>
-      <c r="N23" s="325"/>
-      <c r="O23" s="325"/>
-      <c r="P23" s="326"/>
-      <c r="Q23" s="327"/>
-      <c r="R23" s="328"/>
-      <c r="S23" s="328"/>
-      <c r="T23" s="328"/>
-      <c r="U23" s="328"/>
-      <c r="V23" s="328"/>
-      <c r="W23" s="328"/>
-      <c r="X23" s="328"/>
-      <c r="Y23" s="328"/>
-      <c r="Z23" s="328"/>
-      <c r="AA23" s="328"/>
-      <c r="AB23" s="328"/>
-      <c r="AC23" s="328"/>
-      <c r="AD23" s="328"/>
-      <c r="AE23" s="329"/>
-      <c r="AF23" s="324"/>
-      <c r="AG23" s="325"/>
-      <c r="AH23" s="325"/>
-      <c r="AI23" s="326"/>
+      <c r="B23" s="282"/>
+      <c r="C23" s="283"/>
+      <c r="D23" s="284"/>
+      <c r="E23" s="285"/>
+      <c r="F23" s="286"/>
+      <c r="G23" s="282"/>
+      <c r="H23" s="287"/>
+      <c r="I23" s="283"/>
+      <c r="J23" s="288"/>
+      <c r="K23" s="289"/>
+      <c r="L23" s="289"/>
+      <c r="M23" s="289"/>
+      <c r="N23" s="289"/>
+      <c r="O23" s="289"/>
+      <c r="P23" s="290"/>
+      <c r="Q23" s="291"/>
+      <c r="R23" s="292"/>
+      <c r="S23" s="292"/>
+      <c r="T23" s="292"/>
+      <c r="U23" s="292"/>
+      <c r="V23" s="292"/>
+      <c r="W23" s="292"/>
+      <c r="X23" s="292"/>
+      <c r="Y23" s="292"/>
+      <c r="Z23" s="292"/>
+      <c r="AA23" s="292"/>
+      <c r="AB23" s="292"/>
+      <c r="AC23" s="292"/>
+      <c r="AD23" s="292"/>
+      <c r="AE23" s="293"/>
+      <c r="AF23" s="288"/>
+      <c r="AG23" s="289"/>
+      <c r="AH23" s="289"/>
+      <c r="AI23" s="290"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="318"/>
-      <c r="C24" s="319"/>
-      <c r="D24" s="320"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="322"/>
-      <c r="G24" s="318"/>
-      <c r="H24" s="323"/>
-      <c r="I24" s="319"/>
-      <c r="J24" s="324"/>
-      <c r="K24" s="325"/>
-      <c r="L24" s="325"/>
-      <c r="M24" s="325"/>
-      <c r="N24" s="325"/>
-      <c r="O24" s="325"/>
-      <c r="P24" s="326"/>
-      <c r="Q24" s="327"/>
-      <c r="R24" s="328"/>
-      <c r="S24" s="328"/>
-      <c r="T24" s="328"/>
-      <c r="U24" s="328"/>
-      <c r="V24" s="328"/>
-      <c r="W24" s="328"/>
-      <c r="X24" s="328"/>
-      <c r="Y24" s="328"/>
-      <c r="Z24" s="328"/>
-      <c r="AA24" s="328"/>
-      <c r="AB24" s="328"/>
-      <c r="AC24" s="328"/>
-      <c r="AD24" s="328"/>
-      <c r="AE24" s="329"/>
-      <c r="AF24" s="324"/>
-      <c r="AG24" s="325"/>
-      <c r="AH24" s="325"/>
-      <c r="AI24" s="326"/>
+      <c r="B24" s="282"/>
+      <c r="C24" s="283"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="285"/>
+      <c r="F24" s="286"/>
+      <c r="G24" s="282"/>
+      <c r="H24" s="287"/>
+      <c r="I24" s="283"/>
+      <c r="J24" s="288"/>
+      <c r="K24" s="289"/>
+      <c r="L24" s="289"/>
+      <c r="M24" s="289"/>
+      <c r="N24" s="289"/>
+      <c r="O24" s="289"/>
+      <c r="P24" s="290"/>
+      <c r="Q24" s="291"/>
+      <c r="R24" s="292"/>
+      <c r="S24" s="292"/>
+      <c r="T24" s="292"/>
+      <c r="U24" s="292"/>
+      <c r="V24" s="292"/>
+      <c r="W24" s="292"/>
+      <c r="X24" s="292"/>
+      <c r="Y24" s="292"/>
+      <c r="Z24" s="292"/>
+      <c r="AA24" s="292"/>
+      <c r="AB24" s="292"/>
+      <c r="AC24" s="292"/>
+      <c r="AD24" s="292"/>
+      <c r="AE24" s="293"/>
+      <c r="AF24" s="288"/>
+      <c r="AG24" s="289"/>
+      <c r="AH24" s="289"/>
+      <c r="AI24" s="290"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="318"/>
-      <c r="C25" s="319"/>
-      <c r="D25" s="320"/>
-      <c r="E25" s="321"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="318"/>
-      <c r="H25" s="323"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="324"/>
-      <c r="K25" s="325"/>
-      <c r="L25" s="325"/>
-      <c r="M25" s="325"/>
-      <c r="N25" s="325"/>
-      <c r="O25" s="325"/>
-      <c r="P25" s="326"/>
-      <c r="Q25" s="327"/>
-      <c r="R25" s="328"/>
-      <c r="S25" s="328"/>
-      <c r="T25" s="328"/>
-      <c r="U25" s="328"/>
-      <c r="V25" s="328"/>
-      <c r="W25" s="328"/>
-      <c r="X25" s="328"/>
-      <c r="Y25" s="328"/>
-      <c r="Z25" s="328"/>
-      <c r="AA25" s="328"/>
-      <c r="AB25" s="328"/>
-      <c r="AC25" s="328"/>
-      <c r="AD25" s="328"/>
-      <c r="AE25" s="329"/>
-      <c r="AF25" s="324"/>
-      <c r="AG25" s="325"/>
-      <c r="AH25" s="325"/>
-      <c r="AI25" s="326"/>
+      <c r="B25" s="282"/>
+      <c r="C25" s="283"/>
+      <c r="D25" s="284"/>
+      <c r="E25" s="285"/>
+      <c r="F25" s="286"/>
+      <c r="G25" s="282"/>
+      <c r="H25" s="287"/>
+      <c r="I25" s="283"/>
+      <c r="J25" s="288"/>
+      <c r="K25" s="289"/>
+      <c r="L25" s="289"/>
+      <c r="M25" s="289"/>
+      <c r="N25" s="289"/>
+      <c r="O25" s="289"/>
+      <c r="P25" s="290"/>
+      <c r="Q25" s="291"/>
+      <c r="R25" s="292"/>
+      <c r="S25" s="292"/>
+      <c r="T25" s="292"/>
+      <c r="U25" s="292"/>
+      <c r="V25" s="292"/>
+      <c r="W25" s="292"/>
+      <c r="X25" s="292"/>
+      <c r="Y25" s="292"/>
+      <c r="Z25" s="292"/>
+      <c r="AA25" s="292"/>
+      <c r="AB25" s="292"/>
+      <c r="AC25" s="292"/>
+      <c r="AD25" s="292"/>
+      <c r="AE25" s="293"/>
+      <c r="AF25" s="288"/>
+      <c r="AG25" s="289"/>
+      <c r="AH25" s="289"/>
+      <c r="AI25" s="290"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="318"/>
-      <c r="C26" s="319"/>
-      <c r="D26" s="320"/>
-      <c r="E26" s="321"/>
-      <c r="F26" s="322"/>
-      <c r="G26" s="318"/>
-      <c r="H26" s="323"/>
-      <c r="I26" s="319"/>
-      <c r="J26" s="324"/>
-      <c r="K26" s="325"/>
-      <c r="L26" s="325"/>
-      <c r="M26" s="325"/>
-      <c r="N26" s="325"/>
-      <c r="O26" s="325"/>
-      <c r="P26" s="326"/>
-      <c r="Q26" s="327"/>
-      <c r="R26" s="328"/>
-      <c r="S26" s="328"/>
-      <c r="T26" s="328"/>
-      <c r="U26" s="328"/>
-      <c r="V26" s="328"/>
-      <c r="W26" s="328"/>
-      <c r="X26" s="328"/>
-      <c r="Y26" s="328"/>
-      <c r="Z26" s="328"/>
-      <c r="AA26" s="328"/>
-      <c r="AB26" s="328"/>
-      <c r="AC26" s="328"/>
-      <c r="AD26" s="328"/>
-      <c r="AE26" s="329"/>
-      <c r="AF26" s="324"/>
-      <c r="AG26" s="325"/>
-      <c r="AH26" s="325"/>
-      <c r="AI26" s="326"/>
+      <c r="B26" s="282"/>
+      <c r="C26" s="283"/>
+      <c r="D26" s="284"/>
+      <c r="E26" s="285"/>
+      <c r="F26" s="286"/>
+      <c r="G26" s="282"/>
+      <c r="H26" s="287"/>
+      <c r="I26" s="283"/>
+      <c r="J26" s="288"/>
+      <c r="K26" s="289"/>
+      <c r="L26" s="289"/>
+      <c r="M26" s="289"/>
+      <c r="N26" s="289"/>
+      <c r="O26" s="289"/>
+      <c r="P26" s="290"/>
+      <c r="Q26" s="291"/>
+      <c r="R26" s="292"/>
+      <c r="S26" s="292"/>
+      <c r="T26" s="292"/>
+      <c r="U26" s="292"/>
+      <c r="V26" s="292"/>
+      <c r="W26" s="292"/>
+      <c r="X26" s="292"/>
+      <c r="Y26" s="292"/>
+      <c r="Z26" s="292"/>
+      <c r="AA26" s="292"/>
+      <c r="AB26" s="292"/>
+      <c r="AC26" s="292"/>
+      <c r="AD26" s="292"/>
+      <c r="AE26" s="293"/>
+      <c r="AF26" s="288"/>
+      <c r="AG26" s="289"/>
+      <c r="AH26" s="289"/>
+      <c r="AI26" s="290"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="318"/>
-      <c r="C27" s="319"/>
-      <c r="D27" s="320"/>
-      <c r="E27" s="321"/>
-      <c r="F27" s="322"/>
-      <c r="G27" s="318"/>
-      <c r="H27" s="323"/>
-      <c r="I27" s="319"/>
-      <c r="J27" s="324"/>
-      <c r="K27" s="325"/>
-      <c r="L27" s="325"/>
-      <c r="M27" s="325"/>
-      <c r="N27" s="325"/>
-      <c r="O27" s="325"/>
-      <c r="P27" s="326"/>
-      <c r="Q27" s="327"/>
-      <c r="R27" s="328"/>
-      <c r="S27" s="328"/>
-      <c r="T27" s="328"/>
-      <c r="U27" s="328"/>
-      <c r="V27" s="328"/>
-      <c r="W27" s="328"/>
-      <c r="X27" s="328"/>
-      <c r="Y27" s="328"/>
-      <c r="Z27" s="328"/>
-      <c r="AA27" s="328"/>
-      <c r="AB27" s="328"/>
-      <c r="AC27" s="328"/>
-      <c r="AD27" s="328"/>
-      <c r="AE27" s="329"/>
-      <c r="AF27" s="324"/>
-      <c r="AG27" s="325"/>
-      <c r="AH27" s="325"/>
-      <c r="AI27" s="326"/>
+      <c r="B27" s="282"/>
+      <c r="C27" s="283"/>
+      <c r="D27" s="284"/>
+      <c r="E27" s="285"/>
+      <c r="F27" s="286"/>
+      <c r="G27" s="282"/>
+      <c r="H27" s="287"/>
+      <c r="I27" s="283"/>
+      <c r="J27" s="288"/>
+      <c r="K27" s="289"/>
+      <c r="L27" s="289"/>
+      <c r="M27" s="289"/>
+      <c r="N27" s="289"/>
+      <c r="O27" s="289"/>
+      <c r="P27" s="290"/>
+      <c r="Q27" s="291"/>
+      <c r="R27" s="292"/>
+      <c r="S27" s="292"/>
+      <c r="T27" s="292"/>
+      <c r="U27" s="292"/>
+      <c r="V27" s="292"/>
+      <c r="W27" s="292"/>
+      <c r="X27" s="292"/>
+      <c r="Y27" s="292"/>
+      <c r="Z27" s="292"/>
+      <c r="AA27" s="292"/>
+      <c r="AB27" s="292"/>
+      <c r="AC27" s="292"/>
+      <c r="AD27" s="292"/>
+      <c r="AE27" s="293"/>
+      <c r="AF27" s="288"/>
+      <c r="AG27" s="289"/>
+      <c r="AH27" s="289"/>
+      <c r="AI27" s="290"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="318"/>
-      <c r="C28" s="319"/>
-      <c r="D28" s="320"/>
-      <c r="E28" s="321"/>
-      <c r="F28" s="322"/>
-      <c r="G28" s="318"/>
-      <c r="H28" s="323"/>
-      <c r="I28" s="319"/>
-      <c r="J28" s="324"/>
-      <c r="K28" s="325"/>
-      <c r="L28" s="325"/>
-      <c r="M28" s="325"/>
-      <c r="N28" s="325"/>
-      <c r="O28" s="325"/>
-      <c r="P28" s="326"/>
-      <c r="Q28" s="327"/>
-      <c r="R28" s="328"/>
-      <c r="S28" s="328"/>
-      <c r="T28" s="328"/>
-      <c r="U28" s="328"/>
-      <c r="V28" s="328"/>
-      <c r="W28" s="328"/>
-      <c r="X28" s="328"/>
-      <c r="Y28" s="328"/>
-      <c r="Z28" s="328"/>
-      <c r="AA28" s="328"/>
-      <c r="AB28" s="328"/>
-      <c r="AC28" s="328"/>
-      <c r="AD28" s="328"/>
-      <c r="AE28" s="329"/>
-      <c r="AF28" s="324"/>
-      <c r="AG28" s="325"/>
-      <c r="AH28" s="325"/>
-      <c r="AI28" s="326"/>
+      <c r="B28" s="282"/>
+      <c r="C28" s="283"/>
+      <c r="D28" s="284"/>
+      <c r="E28" s="285"/>
+      <c r="F28" s="286"/>
+      <c r="G28" s="282"/>
+      <c r="H28" s="287"/>
+      <c r="I28" s="283"/>
+      <c r="J28" s="288"/>
+      <c r="K28" s="289"/>
+      <c r="L28" s="289"/>
+      <c r="M28" s="289"/>
+      <c r="N28" s="289"/>
+      <c r="O28" s="289"/>
+      <c r="P28" s="290"/>
+      <c r="Q28" s="291"/>
+      <c r="R28" s="292"/>
+      <c r="S28" s="292"/>
+      <c r="T28" s="292"/>
+      <c r="U28" s="292"/>
+      <c r="V28" s="292"/>
+      <c r="W28" s="292"/>
+      <c r="X28" s="292"/>
+      <c r="Y28" s="292"/>
+      <c r="Z28" s="292"/>
+      <c r="AA28" s="292"/>
+      <c r="AB28" s="292"/>
+      <c r="AC28" s="292"/>
+      <c r="AD28" s="292"/>
+      <c r="AE28" s="293"/>
+      <c r="AF28" s="288"/>
+      <c r="AG28" s="289"/>
+      <c r="AH28" s="289"/>
+      <c r="AI28" s="290"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="318"/>
-      <c r="C29" s="319"/>
-      <c r="D29" s="320"/>
-      <c r="E29" s="321"/>
-      <c r="F29" s="322"/>
-      <c r="G29" s="318"/>
-      <c r="H29" s="323"/>
-      <c r="I29" s="319"/>
-      <c r="J29" s="324"/>
-      <c r="K29" s="325"/>
-      <c r="L29" s="325"/>
-      <c r="M29" s="325"/>
-      <c r="N29" s="325"/>
-      <c r="O29" s="325"/>
-      <c r="P29" s="326"/>
-      <c r="Q29" s="327"/>
-      <c r="R29" s="328"/>
-      <c r="S29" s="328"/>
-      <c r="T29" s="328"/>
-      <c r="U29" s="328"/>
-      <c r="V29" s="328"/>
-      <c r="W29" s="328"/>
-      <c r="X29" s="328"/>
-      <c r="Y29" s="328"/>
-      <c r="Z29" s="328"/>
-      <c r="AA29" s="328"/>
-      <c r="AB29" s="328"/>
-      <c r="AC29" s="328"/>
-      <c r="AD29" s="328"/>
-      <c r="AE29" s="329"/>
-      <c r="AF29" s="324"/>
-      <c r="AG29" s="325"/>
-      <c r="AH29" s="325"/>
-      <c r="AI29" s="326"/>
+      <c r="B29" s="282"/>
+      <c r="C29" s="283"/>
+      <c r="D29" s="284"/>
+      <c r="E29" s="285"/>
+      <c r="F29" s="286"/>
+      <c r="G29" s="282"/>
+      <c r="H29" s="287"/>
+      <c r="I29" s="283"/>
+      <c r="J29" s="288"/>
+      <c r="K29" s="289"/>
+      <c r="L29" s="289"/>
+      <c r="M29" s="289"/>
+      <c r="N29" s="289"/>
+      <c r="O29" s="289"/>
+      <c r="P29" s="290"/>
+      <c r="Q29" s="291"/>
+      <c r="R29" s="292"/>
+      <c r="S29" s="292"/>
+      <c r="T29" s="292"/>
+      <c r="U29" s="292"/>
+      <c r="V29" s="292"/>
+      <c r="W29" s="292"/>
+      <c r="X29" s="292"/>
+      <c r="Y29" s="292"/>
+      <c r="Z29" s="292"/>
+      <c r="AA29" s="292"/>
+      <c r="AB29" s="292"/>
+      <c r="AC29" s="292"/>
+      <c r="AD29" s="292"/>
+      <c r="AE29" s="293"/>
+      <c r="AF29" s="288"/>
+      <c r="AG29" s="289"/>
+      <c r="AH29" s="289"/>
+      <c r="AI29" s="290"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="318"/>
-      <c r="C30" s="319"/>
-      <c r="D30" s="320"/>
-      <c r="E30" s="321"/>
-      <c r="F30" s="322"/>
-      <c r="G30" s="318"/>
-      <c r="H30" s="323"/>
-      <c r="I30" s="319"/>
-      <c r="J30" s="324"/>
-      <c r="K30" s="325"/>
-      <c r="L30" s="325"/>
-      <c r="M30" s="325"/>
-      <c r="N30" s="325"/>
-      <c r="O30" s="325"/>
-      <c r="P30" s="326"/>
-      <c r="Q30" s="327"/>
-      <c r="R30" s="328"/>
-      <c r="S30" s="328"/>
-      <c r="T30" s="328"/>
-      <c r="U30" s="328"/>
-      <c r="V30" s="328"/>
-      <c r="W30" s="328"/>
-      <c r="X30" s="328"/>
-      <c r="Y30" s="328"/>
-      <c r="Z30" s="328"/>
-      <c r="AA30" s="328"/>
-      <c r="AB30" s="328"/>
-      <c r="AC30" s="328"/>
-      <c r="AD30" s="328"/>
-      <c r="AE30" s="329"/>
-      <c r="AF30" s="324"/>
-      <c r="AG30" s="325"/>
-      <c r="AH30" s="325"/>
-      <c r="AI30" s="326"/>
+      <c r="B30" s="282"/>
+      <c r="C30" s="283"/>
+      <c r="D30" s="284"/>
+      <c r="E30" s="285"/>
+      <c r="F30" s="286"/>
+      <c r="G30" s="282"/>
+      <c r="H30" s="287"/>
+      <c r="I30" s="283"/>
+      <c r="J30" s="288"/>
+      <c r="K30" s="289"/>
+      <c r="L30" s="289"/>
+      <c r="M30" s="289"/>
+      <c r="N30" s="289"/>
+      <c r="O30" s="289"/>
+      <c r="P30" s="290"/>
+      <c r="Q30" s="291"/>
+      <c r="R30" s="292"/>
+      <c r="S30" s="292"/>
+      <c r="T30" s="292"/>
+      <c r="U30" s="292"/>
+      <c r="V30" s="292"/>
+      <c r="W30" s="292"/>
+      <c r="X30" s="292"/>
+      <c r="Y30" s="292"/>
+      <c r="Z30" s="292"/>
+      <c r="AA30" s="292"/>
+      <c r="AB30" s="292"/>
+      <c r="AC30" s="292"/>
+      <c r="AD30" s="292"/>
+      <c r="AE30" s="293"/>
+      <c r="AF30" s="288"/>
+      <c r="AG30" s="289"/>
+      <c r="AH30" s="289"/>
+      <c r="AI30" s="290"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="318"/>
-      <c r="C31" s="319"/>
-      <c r="D31" s="320"/>
-      <c r="E31" s="321"/>
-      <c r="F31" s="322"/>
-      <c r="G31" s="318"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="319"/>
-      <c r="J31" s="324"/>
-      <c r="K31" s="325"/>
-      <c r="L31" s="325"/>
-      <c r="M31" s="325"/>
-      <c r="N31" s="325"/>
-      <c r="O31" s="325"/>
-      <c r="P31" s="326"/>
-      <c r="Q31" s="327"/>
-      <c r="R31" s="328"/>
-      <c r="S31" s="328"/>
-      <c r="T31" s="328"/>
-      <c r="U31" s="328"/>
-      <c r="V31" s="328"/>
-      <c r="W31" s="328"/>
-      <c r="X31" s="328"/>
-      <c r="Y31" s="328"/>
-      <c r="Z31" s="328"/>
-      <c r="AA31" s="328"/>
-      <c r="AB31" s="328"/>
-      <c r="AC31" s="328"/>
-      <c r="AD31" s="328"/>
-      <c r="AE31" s="329"/>
-      <c r="AF31" s="324"/>
-      <c r="AG31" s="325"/>
-      <c r="AH31" s="325"/>
-      <c r="AI31" s="326"/>
+      <c r="B31" s="282"/>
+      <c r="C31" s="283"/>
+      <c r="D31" s="284"/>
+      <c r="E31" s="285"/>
+      <c r="F31" s="286"/>
+      <c r="G31" s="282"/>
+      <c r="H31" s="287"/>
+      <c r="I31" s="283"/>
+      <c r="J31" s="288"/>
+      <c r="K31" s="289"/>
+      <c r="L31" s="289"/>
+      <c r="M31" s="289"/>
+      <c r="N31" s="289"/>
+      <c r="O31" s="289"/>
+      <c r="P31" s="290"/>
+      <c r="Q31" s="291"/>
+      <c r="R31" s="292"/>
+      <c r="S31" s="292"/>
+      <c r="T31" s="292"/>
+      <c r="U31" s="292"/>
+      <c r="V31" s="292"/>
+      <c r="W31" s="292"/>
+      <c r="X31" s="292"/>
+      <c r="Y31" s="292"/>
+      <c r="Z31" s="292"/>
+      <c r="AA31" s="292"/>
+      <c r="AB31" s="292"/>
+      <c r="AC31" s="292"/>
+      <c r="AD31" s="292"/>
+      <c r="AE31" s="293"/>
+      <c r="AF31" s="288"/>
+      <c r="AG31" s="289"/>
+      <c r="AH31" s="289"/>
+      <c r="AI31" s="290"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="318"/>
-      <c r="C32" s="319"/>
-      <c r="D32" s="320"/>
-      <c r="E32" s="321"/>
-      <c r="F32" s="322"/>
-      <c r="G32" s="318"/>
-      <c r="H32" s="323"/>
-      <c r="I32" s="319"/>
-      <c r="J32" s="324"/>
-      <c r="K32" s="343"/>
-      <c r="L32" s="325"/>
-      <c r="M32" s="325"/>
-      <c r="N32" s="325"/>
-      <c r="O32" s="325"/>
-      <c r="P32" s="326"/>
-      <c r="Q32" s="327"/>
-      <c r="R32" s="328"/>
-      <c r="S32" s="328"/>
-      <c r="T32" s="328"/>
-      <c r="U32" s="328"/>
-      <c r="V32" s="328"/>
-      <c r="W32" s="328"/>
-      <c r="X32" s="328"/>
-      <c r="Y32" s="328"/>
-      <c r="Z32" s="328"/>
-      <c r="AA32" s="328"/>
-      <c r="AB32" s="328"/>
-      <c r="AC32" s="328"/>
-      <c r="AD32" s="328"/>
-      <c r="AE32" s="329"/>
-      <c r="AF32" s="324"/>
-      <c r="AG32" s="325"/>
-      <c r="AH32" s="325"/>
-      <c r="AI32" s="326"/>
+      <c r="B32" s="282"/>
+      <c r="C32" s="283"/>
+      <c r="D32" s="284"/>
+      <c r="E32" s="285"/>
+      <c r="F32" s="286"/>
+      <c r="G32" s="282"/>
+      <c r="H32" s="287"/>
+      <c r="I32" s="283"/>
+      <c r="J32" s="288"/>
+      <c r="K32" s="294"/>
+      <c r="L32" s="289"/>
+      <c r="M32" s="289"/>
+      <c r="N32" s="289"/>
+      <c r="O32" s="289"/>
+      <c r="P32" s="290"/>
+      <c r="Q32" s="291"/>
+      <c r="R32" s="292"/>
+      <c r="S32" s="292"/>
+      <c r="T32" s="292"/>
+      <c r="U32" s="292"/>
+      <c r="V32" s="292"/>
+      <c r="W32" s="292"/>
+      <c r="X32" s="292"/>
+      <c r="Y32" s="292"/>
+      <c r="Z32" s="292"/>
+      <c r="AA32" s="292"/>
+      <c r="AB32" s="292"/>
+      <c r="AC32" s="292"/>
+      <c r="AD32" s="292"/>
+      <c r="AE32" s="293"/>
+      <c r="AF32" s="288"/>
+      <c r="AG32" s="289"/>
+      <c r="AH32" s="289"/>
+      <c r="AI32" s="290"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="318"/>
-      <c r="C33" s="319"/>
-      <c r="D33" s="320"/>
-      <c r="E33" s="321"/>
-      <c r="F33" s="322"/>
-      <c r="G33" s="318"/>
-      <c r="H33" s="323"/>
-      <c r="I33" s="319"/>
-      <c r="J33" s="324"/>
-      <c r="K33" s="325"/>
-      <c r="L33" s="325"/>
-      <c r="M33" s="325"/>
-      <c r="N33" s="325"/>
-      <c r="O33" s="325"/>
-      <c r="P33" s="326"/>
-      <c r="Q33" s="327"/>
-      <c r="R33" s="328"/>
-      <c r="S33" s="328"/>
-      <c r="T33" s="328"/>
-      <c r="U33" s="328"/>
-      <c r="V33" s="328"/>
-      <c r="W33" s="328"/>
-      <c r="X33" s="328"/>
-      <c r="Y33" s="328"/>
-      <c r="Z33" s="328"/>
-      <c r="AA33" s="328"/>
-      <c r="AB33" s="328"/>
-      <c r="AC33" s="328"/>
-      <c r="AD33" s="328"/>
-      <c r="AE33" s="329"/>
-      <c r="AF33" s="324"/>
-      <c r="AG33" s="325"/>
-      <c r="AH33" s="325"/>
-      <c r="AI33" s="326"/>
+      <c r="B33" s="282"/>
+      <c r="C33" s="283"/>
+      <c r="D33" s="284"/>
+      <c r="E33" s="285"/>
+      <c r="F33" s="286"/>
+      <c r="G33" s="282"/>
+      <c r="H33" s="287"/>
+      <c r="I33" s="283"/>
+      <c r="J33" s="288"/>
+      <c r="K33" s="289"/>
+      <c r="L33" s="289"/>
+      <c r="M33" s="289"/>
+      <c r="N33" s="289"/>
+      <c r="O33" s="289"/>
+      <c r="P33" s="290"/>
+      <c r="Q33" s="291"/>
+      <c r="R33" s="292"/>
+      <c r="S33" s="292"/>
+      <c r="T33" s="292"/>
+      <c r="U33" s="292"/>
+      <c r="V33" s="292"/>
+      <c r="W33" s="292"/>
+      <c r="X33" s="292"/>
+      <c r="Y33" s="292"/>
+      <c r="Z33" s="292"/>
+      <c r="AA33" s="292"/>
+      <c r="AB33" s="292"/>
+      <c r="AC33" s="292"/>
+      <c r="AD33" s="292"/>
+      <c r="AE33" s="293"/>
+      <c r="AF33" s="288"/>
+      <c r="AG33" s="289"/>
+      <c r="AH33" s="289"/>
+      <c r="AI33" s="290"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13281,6 +13141,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -35803,20 +35819,22 @@
       <c r="C369" s="256"/>
       <c r="D369" s="256"/>
       <c r="E369" s="258"/>
-      <c r="F369" s="142" t="s">
+      <c r="F369" s="348" t="s">
         <v>515</v>
       </c>
-      <c r="G369" s="142"/>
-      <c r="H369" s="110"/>
-      <c r="I369" s="110"/>
-      <c r="J369" s="139"/>
-      <c r="K369" s="140"/>
-      <c r="L369" s="166"/>
-      <c r="M369" s="167"/>
-      <c r="N369" s="167"/>
-      <c r="O369" s="167"/>
-      <c r="P369" s="167"/>
-      <c r="Q369" s="167"/>
+      <c r="G369" s="348" t="s">
+        <v>659</v>
+      </c>
+      <c r="H369" s="100"/>
+      <c r="I369" s="100"/>
+      <c r="J369" s="115"/>
+      <c r="K369" s="349"/>
+      <c r="L369" s="350"/>
+      <c r="M369" s="351"/>
+      <c r="N369" s="351"/>
+      <c r="O369" s="351"/>
+      <c r="P369" s="351"/>
+      <c r="Q369" s="351"/>
     </row>
     <row r="370" spans="1:17" s="34" customFormat="1" ht="22.5">
       <c r="A370" s="55" t="str" cm="1">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A93C59-9AC2-490A-A557-EBA5AD75F431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1487CAA6-ACE4-432F-AD06-0D22F11B534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="661">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -8457,6 +8457,25 @@
   </si>
   <si>
     <t>IME制御は行わないので対象外</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tabキーによるフォーカスの移動はブラウザ標準の挙動に任せるため対象外</t>
+    <rPh sb="14" eb="16">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>タイショウガイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -10136,86 +10155,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -10325,6 +10278,84 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10335,18 +10366,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11340,12 +11359,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="281">
+      <c r="I25" s="285">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44792</v>
       </c>
-      <c r="J25" s="281"/>
-      <c r="K25" s="281"/>
+      <c r="J25" s="285"/>
+      <c r="K25" s="285"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -11905,57 +11924,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="314" t="s">
+      <c r="A1" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="317" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="293"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="295" t="s">
         <v>567</v>
       </c>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="323" t="s">
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
+      <c r="N1" s="297"/>
+      <c r="O1" s="301" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="324"/>
-      <c r="R1" s="325"/>
-      <c r="S1" s="332" t="s">
+      <c r="P1" s="302"/>
+      <c r="Q1" s="302"/>
+      <c r="R1" s="303"/>
+      <c r="S1" s="310" t="s">
         <v>658</v>
       </c>
-      <c r="T1" s="333"/>
-      <c r="U1" s="333"/>
-      <c r="V1" s="333"/>
-      <c r="W1" s="333"/>
-      <c r="X1" s="333"/>
-      <c r="Y1" s="333"/>
-      <c r="Z1" s="334"/>
-      <c r="AA1" s="314" t="s">
+      <c r="T1" s="311"/>
+      <c r="U1" s="311"/>
+      <c r="V1" s="311"/>
+      <c r="W1" s="311"/>
+      <c r="X1" s="311"/>
+      <c r="Y1" s="311"/>
+      <c r="Z1" s="312"/>
+      <c r="AA1" s="292" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="316"/>
-      <c r="AC1" s="341" t="str">
+      <c r="AB1" s="294"/>
+      <c r="AC1" s="319" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="342"/>
-      <c r="AE1" s="342"/>
-      <c r="AF1" s="343"/>
-      <c r="AG1" s="308">
+      <c r="AD1" s="320"/>
+      <c r="AE1" s="320"/>
+      <c r="AF1" s="321"/>
+      <c r="AG1" s="286">
         <f>IF(D8="","",D8)</f>
         <v>44792</v>
       </c>
-      <c r="AH1" s="309"/>
-      <c r="AI1" s="310"/>
+      <c r="AH1" s="287"/>
+      <c r="AI1" s="288"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11963,53 +11982,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="314" t="s">
+      <c r="A2" s="292" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="317" t="s">
+      <c r="B2" s="293"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="295" t="s">
         <v>647</v>
       </c>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="318"/>
-      <c r="M2" s="318"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="326"/>
-      <c r="P2" s="327"/>
-      <c r="Q2" s="327"/>
-      <c r="R2" s="328"/>
-      <c r="S2" s="335"/>
-      <c r="T2" s="336"/>
-      <c r="U2" s="336"/>
-      <c r="V2" s="336"/>
-      <c r="W2" s="336"/>
-      <c r="X2" s="336"/>
-      <c r="Y2" s="336"/>
-      <c r="Z2" s="337"/>
-      <c r="AA2" s="314" t="s">
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="296"/>
+      <c r="L2" s="296"/>
+      <c r="M2" s="296"/>
+      <c r="N2" s="297"/>
+      <c r="O2" s="304"/>
+      <c r="P2" s="305"/>
+      <c r="Q2" s="305"/>
+      <c r="R2" s="306"/>
+      <c r="S2" s="313"/>
+      <c r="T2" s="314"/>
+      <c r="U2" s="314"/>
+      <c r="V2" s="314"/>
+      <c r="W2" s="314"/>
+      <c r="X2" s="314"/>
+      <c r="Y2" s="314"/>
+      <c r="Z2" s="315"/>
+      <c r="AA2" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="316"/>
-      <c r="AC2" s="320" t="str">
+      <c r="AB2" s="294"/>
+      <c r="AC2" s="298" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="321"/>
-      <c r="AE2" s="321"/>
-      <c r="AF2" s="322"/>
-      <c r="AG2" s="308" t="str">
+      <c r="AD2" s="299"/>
+      <c r="AE2" s="299"/>
+      <c r="AF2" s="300"/>
+      <c r="AG2" s="286" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="309"/>
-      <c r="AI2" s="310"/>
+      <c r="AH2" s="287"/>
+      <c r="AI2" s="288"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12017,45 +12036,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="317" t="s">
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="295" t="s">
         <v>648</v>
       </c>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="329"/>
-      <c r="P3" s="330"/>
-      <c r="Q3" s="330"/>
-      <c r="R3" s="331"/>
-      <c r="S3" s="338"/>
-      <c r="T3" s="339"/>
-      <c r="U3" s="339"/>
-      <c r="V3" s="339"/>
-      <c r="W3" s="339"/>
-      <c r="X3" s="339"/>
-      <c r="Y3" s="339"/>
-      <c r="Z3" s="340"/>
-      <c r="AA3" s="314"/>
-      <c r="AB3" s="316"/>
-      <c r="AC3" s="341"/>
-      <c r="AD3" s="342"/>
-      <c r="AE3" s="342"/>
-      <c r="AF3" s="343"/>
-      <c r="AG3" s="308"/>
-      <c r="AH3" s="309"/>
-      <c r="AI3" s="310"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="296"/>
+      <c r="L3" s="296"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="307"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="309"/>
+      <c r="S3" s="316"/>
+      <c r="T3" s="317"/>
+      <c r="U3" s="317"/>
+      <c r="V3" s="317"/>
+      <c r="W3" s="317"/>
+      <c r="X3" s="317"/>
+      <c r="Y3" s="317"/>
+      <c r="Z3" s="318"/>
+      <c r="AA3" s="292"/>
+      <c r="AB3" s="294"/>
+      <c r="AC3" s="319"/>
+      <c r="AD3" s="320"/>
+      <c r="AE3" s="320"/>
+      <c r="AF3" s="321"/>
+      <c r="AG3" s="286"/>
+      <c r="AH3" s="287"/>
+      <c r="AI3" s="288"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12092,1032 +12111,1188 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="311" t="s">
+      <c r="B7" s="289" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="312"/>
-      <c r="D7" s="311" t="s">
+      <c r="C7" s="290"/>
+      <c r="D7" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="313"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="311" t="s">
+      <c r="E7" s="291"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="289" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="313"/>
-      <c r="I7" s="312"/>
-      <c r="J7" s="311" t="s">
+      <c r="H7" s="291"/>
+      <c r="I7" s="290"/>
+      <c r="J7" s="289" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="313"/>
-      <c r="L7" s="313"/>
-      <c r="M7" s="313"/>
-      <c r="N7" s="313"/>
-      <c r="O7" s="313"/>
-      <c r="P7" s="312"/>
-      <c r="Q7" s="311" t="s">
+      <c r="K7" s="291"/>
+      <c r="L7" s="291"/>
+      <c r="M7" s="291"/>
+      <c r="N7" s="291"/>
+      <c r="O7" s="291"/>
+      <c r="P7" s="290"/>
+      <c r="Q7" s="289" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="313"/>
-      <c r="S7" s="313"/>
-      <c r="T7" s="313"/>
-      <c r="U7" s="313"/>
-      <c r="V7" s="313"/>
-      <c r="W7" s="313"/>
-      <c r="X7" s="313"/>
-      <c r="Y7" s="313"/>
-      <c r="Z7" s="313"/>
-      <c r="AA7" s="313"/>
-      <c r="AB7" s="313"/>
-      <c r="AC7" s="313"/>
-      <c r="AD7" s="313"/>
-      <c r="AE7" s="312"/>
-      <c r="AF7" s="311" t="s">
+      <c r="R7" s="291"/>
+      <c r="S7" s="291"/>
+      <c r="T7" s="291"/>
+      <c r="U7" s="291"/>
+      <c r="V7" s="291"/>
+      <c r="W7" s="291"/>
+      <c r="X7" s="291"/>
+      <c r="Y7" s="291"/>
+      <c r="Z7" s="291"/>
+      <c r="AA7" s="291"/>
+      <c r="AB7" s="291"/>
+      <c r="AC7" s="291"/>
+      <c r="AD7" s="291"/>
+      <c r="AE7" s="290"/>
+      <c r="AF7" s="289" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="313"/>
-      <c r="AH7" s="313"/>
-      <c r="AI7" s="312"/>
+      <c r="AG7" s="291"/>
+      <c r="AH7" s="291"/>
+      <c r="AI7" s="290"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="295" t="s">
+      <c r="B8" s="334" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="296"/>
-      <c r="D8" s="297">
+      <c r="C8" s="335"/>
+      <c r="D8" s="336">
         <v>44792</v>
       </c>
-      <c r="E8" s="298"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="300" t="s">
+      <c r="E8" s="337"/>
+      <c r="F8" s="338"/>
+      <c r="G8" s="339" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="301"/>
-      <c r="I8" s="296"/>
-      <c r="J8" s="302"/>
-      <c r="K8" s="303"/>
-      <c r="L8" s="303"/>
-      <c r="M8" s="303"/>
-      <c r="N8" s="303"/>
-      <c r="O8" s="303"/>
-      <c r="P8" s="304"/>
-      <c r="Q8" s="305" t="s">
+      <c r="H8" s="340"/>
+      <c r="I8" s="335"/>
+      <c r="J8" s="341"/>
+      <c r="K8" s="342"/>
+      <c r="L8" s="342"/>
+      <c r="M8" s="342"/>
+      <c r="N8" s="342"/>
+      <c r="O8" s="342"/>
+      <c r="P8" s="343"/>
+      <c r="Q8" s="344" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="306"/>
-      <c r="S8" s="306"/>
-      <c r="T8" s="306"/>
-      <c r="U8" s="306"/>
-      <c r="V8" s="306"/>
-      <c r="W8" s="306"/>
-      <c r="X8" s="306"/>
-      <c r="Y8" s="306"/>
-      <c r="Z8" s="306"/>
-      <c r="AA8" s="306"/>
-      <c r="AB8" s="306"/>
-      <c r="AC8" s="306"/>
-      <c r="AD8" s="306"/>
-      <c r="AE8" s="307"/>
-      <c r="AF8" s="302" t="s">
+      <c r="R8" s="345"/>
+      <c r="S8" s="345"/>
+      <c r="T8" s="345"/>
+      <c r="U8" s="345"/>
+      <c r="V8" s="345"/>
+      <c r="W8" s="345"/>
+      <c r="X8" s="345"/>
+      <c r="Y8" s="345"/>
+      <c r="Z8" s="345"/>
+      <c r="AA8" s="345"/>
+      <c r="AB8" s="345"/>
+      <c r="AC8" s="345"/>
+      <c r="AD8" s="345"/>
+      <c r="AE8" s="346"/>
+      <c r="AF8" s="341" t="s">
         <v>39</v>
       </c>
-      <c r="AG8" s="303"/>
-      <c r="AH8" s="303"/>
-      <c r="AI8" s="304"/>
+      <c r="AG8" s="342"/>
+      <c r="AH8" s="342"/>
+      <c r="AI8" s="343"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="282"/>
-      <c r="C9" s="283"/>
-      <c r="D9" s="284"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="284"/>
-      <c r="H9" s="287"/>
-      <c r="I9" s="283"/>
-      <c r="J9" s="288"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="289"/>
-      <c r="M9" s="289"/>
-      <c r="N9" s="289"/>
-      <c r="O9" s="289"/>
-      <c r="P9" s="290"/>
-      <c r="Q9" s="291"/>
-      <c r="R9" s="292"/>
-      <c r="S9" s="292"/>
-      <c r="T9" s="292"/>
-      <c r="U9" s="292"/>
-      <c r="V9" s="292"/>
-      <c r="W9" s="292"/>
-      <c r="X9" s="292"/>
-      <c r="Y9" s="292"/>
-      <c r="Z9" s="292"/>
-      <c r="AA9" s="292"/>
-      <c r="AB9" s="292"/>
-      <c r="AC9" s="292"/>
-      <c r="AD9" s="292"/>
-      <c r="AE9" s="293"/>
-      <c r="AF9" s="288"/>
-      <c r="AG9" s="289"/>
-      <c r="AH9" s="289"/>
-      <c r="AI9" s="290"/>
+      <c r="B9" s="322"/>
+      <c r="C9" s="323"/>
+      <c r="D9" s="324"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="326"/>
+      <c r="G9" s="324"/>
+      <c r="H9" s="327"/>
+      <c r="I9" s="323"/>
+      <c r="J9" s="328"/>
+      <c r="K9" s="329"/>
+      <c r="L9" s="329"/>
+      <c r="M9" s="329"/>
+      <c r="N9" s="329"/>
+      <c r="O9" s="329"/>
+      <c r="P9" s="330"/>
+      <c r="Q9" s="331"/>
+      <c r="R9" s="332"/>
+      <c r="S9" s="332"/>
+      <c r="T9" s="332"/>
+      <c r="U9" s="332"/>
+      <c r="V9" s="332"/>
+      <c r="W9" s="332"/>
+      <c r="X9" s="332"/>
+      <c r="Y9" s="332"/>
+      <c r="Z9" s="332"/>
+      <c r="AA9" s="332"/>
+      <c r="AB9" s="332"/>
+      <c r="AC9" s="332"/>
+      <c r="AD9" s="332"/>
+      <c r="AE9" s="333"/>
+      <c r="AF9" s="328"/>
+      <c r="AG9" s="329"/>
+      <c r="AH9" s="329"/>
+      <c r="AI9" s="330"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="282"/>
-      <c r="C10" s="283"/>
-      <c r="D10" s="284"/>
-      <c r="E10" s="285"/>
-      <c r="F10" s="286"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="283"/>
-      <c r="J10" s="288"/>
-      <c r="K10" s="289"/>
-      <c r="L10" s="289"/>
-      <c r="M10" s="289"/>
-      <c r="N10" s="289"/>
-      <c r="O10" s="289"/>
-      <c r="P10" s="290"/>
-      <c r="Q10" s="291"/>
-      <c r="R10" s="292"/>
-      <c r="S10" s="292"/>
-      <c r="T10" s="292"/>
-      <c r="U10" s="292"/>
-      <c r="V10" s="292"/>
-      <c r="W10" s="292"/>
-      <c r="X10" s="292"/>
-      <c r="Y10" s="292"/>
-      <c r="Z10" s="292"/>
-      <c r="AA10" s="292"/>
-      <c r="AB10" s="292"/>
-      <c r="AC10" s="292"/>
-      <c r="AD10" s="292"/>
-      <c r="AE10" s="293"/>
-      <c r="AF10" s="288"/>
-      <c r="AG10" s="289"/>
-      <c r="AH10" s="289"/>
-      <c r="AI10" s="290"/>
+      <c r="B10" s="322"/>
+      <c r="C10" s="323"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="326"/>
+      <c r="G10" s="322"/>
+      <c r="H10" s="327"/>
+      <c r="I10" s="323"/>
+      <c r="J10" s="328"/>
+      <c r="K10" s="329"/>
+      <c r="L10" s="329"/>
+      <c r="M10" s="329"/>
+      <c r="N10" s="329"/>
+      <c r="O10" s="329"/>
+      <c r="P10" s="330"/>
+      <c r="Q10" s="331"/>
+      <c r="R10" s="332"/>
+      <c r="S10" s="332"/>
+      <c r="T10" s="332"/>
+      <c r="U10" s="332"/>
+      <c r="V10" s="332"/>
+      <c r="W10" s="332"/>
+      <c r="X10" s="332"/>
+      <c r="Y10" s="332"/>
+      <c r="Z10" s="332"/>
+      <c r="AA10" s="332"/>
+      <c r="AB10" s="332"/>
+      <c r="AC10" s="332"/>
+      <c r="AD10" s="332"/>
+      <c r="AE10" s="333"/>
+      <c r="AF10" s="328"/>
+      <c r="AG10" s="329"/>
+      <c r="AH10" s="329"/>
+      <c r="AI10" s="330"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="282"/>
-      <c r="C11" s="283"/>
-      <c r="D11" s="284"/>
-      <c r="E11" s="285"/>
-      <c r="F11" s="286"/>
-      <c r="G11" s="282"/>
-      <c r="H11" s="287"/>
-      <c r="I11" s="283"/>
-      <c r="J11" s="288"/>
-      <c r="K11" s="289"/>
-      <c r="L11" s="289"/>
-      <c r="M11" s="289"/>
-      <c r="N11" s="289"/>
-      <c r="O11" s="289"/>
-      <c r="P11" s="290"/>
-      <c r="Q11" s="291"/>
-      <c r="R11" s="292"/>
-      <c r="S11" s="292"/>
-      <c r="T11" s="292"/>
-      <c r="U11" s="292"/>
-      <c r="V11" s="292"/>
-      <c r="W11" s="292"/>
-      <c r="X11" s="292"/>
-      <c r="Y11" s="292"/>
-      <c r="Z11" s="292"/>
-      <c r="AA11" s="292"/>
-      <c r="AB11" s="292"/>
-      <c r="AC11" s="292"/>
-      <c r="AD11" s="292"/>
-      <c r="AE11" s="293"/>
-      <c r="AF11" s="288"/>
-      <c r="AG11" s="289"/>
-      <c r="AH11" s="289"/>
-      <c r="AI11" s="290"/>
+      <c r="B11" s="322"/>
+      <c r="C11" s="323"/>
+      <c r="D11" s="324"/>
+      <c r="E11" s="325"/>
+      <c r="F11" s="326"/>
+      <c r="G11" s="322"/>
+      <c r="H11" s="327"/>
+      <c r="I11" s="323"/>
+      <c r="J11" s="328"/>
+      <c r="K11" s="329"/>
+      <c r="L11" s="329"/>
+      <c r="M11" s="329"/>
+      <c r="N11" s="329"/>
+      <c r="O11" s="329"/>
+      <c r="P11" s="330"/>
+      <c r="Q11" s="331"/>
+      <c r="R11" s="332"/>
+      <c r="S11" s="332"/>
+      <c r="T11" s="332"/>
+      <c r="U11" s="332"/>
+      <c r="V11" s="332"/>
+      <c r="W11" s="332"/>
+      <c r="X11" s="332"/>
+      <c r="Y11" s="332"/>
+      <c r="Z11" s="332"/>
+      <c r="AA11" s="332"/>
+      <c r="AB11" s="332"/>
+      <c r="AC11" s="332"/>
+      <c r="AD11" s="332"/>
+      <c r="AE11" s="333"/>
+      <c r="AF11" s="328"/>
+      <c r="AG11" s="329"/>
+      <c r="AH11" s="329"/>
+      <c r="AI11" s="330"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="282"/>
-      <c r="C12" s="283"/>
-      <c r="D12" s="284"/>
-      <c r="E12" s="285"/>
-      <c r="F12" s="286"/>
-      <c r="G12" s="282"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="283"/>
-      <c r="J12" s="288"/>
-      <c r="K12" s="289"/>
-      <c r="L12" s="289"/>
-      <c r="M12" s="289"/>
-      <c r="N12" s="289"/>
-      <c r="O12" s="289"/>
-      <c r="P12" s="290"/>
-      <c r="Q12" s="291"/>
-      <c r="R12" s="292"/>
-      <c r="S12" s="292"/>
-      <c r="T12" s="292"/>
-      <c r="U12" s="292"/>
-      <c r="V12" s="292"/>
-      <c r="W12" s="292"/>
-      <c r="X12" s="292"/>
-      <c r="Y12" s="292"/>
-      <c r="Z12" s="292"/>
-      <c r="AA12" s="292"/>
-      <c r="AB12" s="292"/>
-      <c r="AC12" s="292"/>
-      <c r="AD12" s="292"/>
-      <c r="AE12" s="293"/>
-      <c r="AF12" s="288"/>
-      <c r="AG12" s="289"/>
-      <c r="AH12" s="289"/>
-      <c r="AI12" s="290"/>
+      <c r="B12" s="322"/>
+      <c r="C12" s="323"/>
+      <c r="D12" s="324"/>
+      <c r="E12" s="325"/>
+      <c r="F12" s="326"/>
+      <c r="G12" s="322"/>
+      <c r="H12" s="327"/>
+      <c r="I12" s="323"/>
+      <c r="J12" s="328"/>
+      <c r="K12" s="329"/>
+      <c r="L12" s="329"/>
+      <c r="M12" s="329"/>
+      <c r="N12" s="329"/>
+      <c r="O12" s="329"/>
+      <c r="P12" s="330"/>
+      <c r="Q12" s="331"/>
+      <c r="R12" s="332"/>
+      <c r="S12" s="332"/>
+      <c r="T12" s="332"/>
+      <c r="U12" s="332"/>
+      <c r="V12" s="332"/>
+      <c r="W12" s="332"/>
+      <c r="X12" s="332"/>
+      <c r="Y12" s="332"/>
+      <c r="Z12" s="332"/>
+      <c r="AA12" s="332"/>
+      <c r="AB12" s="332"/>
+      <c r="AC12" s="332"/>
+      <c r="AD12" s="332"/>
+      <c r="AE12" s="333"/>
+      <c r="AF12" s="328"/>
+      <c r="AG12" s="329"/>
+      <c r="AH12" s="329"/>
+      <c r="AI12" s="330"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="282"/>
-      <c r="C13" s="283"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="282"/>
-      <c r="H13" s="287"/>
-      <c r="I13" s="283"/>
-      <c r="J13" s="288"/>
-      <c r="K13" s="289"/>
-      <c r="L13" s="289"/>
-      <c r="M13" s="289"/>
-      <c r="N13" s="289"/>
-      <c r="O13" s="289"/>
-      <c r="P13" s="290"/>
-      <c r="Q13" s="291"/>
-      <c r="R13" s="292"/>
-      <c r="S13" s="292"/>
-      <c r="T13" s="292"/>
-      <c r="U13" s="292"/>
-      <c r="V13" s="292"/>
-      <c r="W13" s="292"/>
-      <c r="X13" s="292"/>
-      <c r="Y13" s="292"/>
-      <c r="Z13" s="292"/>
-      <c r="AA13" s="292"/>
-      <c r="AB13" s="292"/>
-      <c r="AC13" s="292"/>
-      <c r="AD13" s="292"/>
-      <c r="AE13" s="293"/>
-      <c r="AF13" s="288"/>
-      <c r="AG13" s="289"/>
-      <c r="AH13" s="289"/>
-      <c r="AI13" s="290"/>
+      <c r="B13" s="322"/>
+      <c r="C13" s="323"/>
+      <c r="D13" s="324"/>
+      <c r="E13" s="325"/>
+      <c r="F13" s="326"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="327"/>
+      <c r="I13" s="323"/>
+      <c r="J13" s="328"/>
+      <c r="K13" s="329"/>
+      <c r="L13" s="329"/>
+      <c r="M13" s="329"/>
+      <c r="N13" s="329"/>
+      <c r="O13" s="329"/>
+      <c r="P13" s="330"/>
+      <c r="Q13" s="331"/>
+      <c r="R13" s="332"/>
+      <c r="S13" s="332"/>
+      <c r="T13" s="332"/>
+      <c r="U13" s="332"/>
+      <c r="V13" s="332"/>
+      <c r="W13" s="332"/>
+      <c r="X13" s="332"/>
+      <c r="Y13" s="332"/>
+      <c r="Z13" s="332"/>
+      <c r="AA13" s="332"/>
+      <c r="AB13" s="332"/>
+      <c r="AC13" s="332"/>
+      <c r="AD13" s="332"/>
+      <c r="AE13" s="333"/>
+      <c r="AF13" s="328"/>
+      <c r="AG13" s="329"/>
+      <c r="AH13" s="329"/>
+      <c r="AI13" s="330"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="282"/>
-      <c r="C14" s="283"/>
-      <c r="D14" s="284"/>
-      <c r="E14" s="285"/>
-      <c r="F14" s="286"/>
-      <c r="G14" s="282"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="283"/>
-      <c r="J14" s="288"/>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
-      <c r="M14" s="289"/>
-      <c r="N14" s="289"/>
-      <c r="O14" s="289"/>
-      <c r="P14" s="290"/>
-      <c r="Q14" s="291"/>
-      <c r="R14" s="292"/>
-      <c r="S14" s="292"/>
-      <c r="T14" s="292"/>
-      <c r="U14" s="292"/>
-      <c r="V14" s="292"/>
-      <c r="W14" s="292"/>
-      <c r="X14" s="292"/>
-      <c r="Y14" s="292"/>
-      <c r="Z14" s="292"/>
-      <c r="AA14" s="292"/>
-      <c r="AB14" s="292"/>
-      <c r="AC14" s="292"/>
-      <c r="AD14" s="292"/>
-      <c r="AE14" s="293"/>
-      <c r="AF14" s="288"/>
-      <c r="AG14" s="289"/>
-      <c r="AH14" s="289"/>
-      <c r="AI14" s="290"/>
+      <c r="B14" s="322"/>
+      <c r="C14" s="323"/>
+      <c r="D14" s="324"/>
+      <c r="E14" s="325"/>
+      <c r="F14" s="326"/>
+      <c r="G14" s="322"/>
+      <c r="H14" s="327"/>
+      <c r="I14" s="323"/>
+      <c r="J14" s="328"/>
+      <c r="K14" s="329"/>
+      <c r="L14" s="329"/>
+      <c r="M14" s="329"/>
+      <c r="N14" s="329"/>
+      <c r="O14" s="329"/>
+      <c r="P14" s="330"/>
+      <c r="Q14" s="331"/>
+      <c r="R14" s="332"/>
+      <c r="S14" s="332"/>
+      <c r="T14" s="332"/>
+      <c r="U14" s="332"/>
+      <c r="V14" s="332"/>
+      <c r="W14" s="332"/>
+      <c r="X14" s="332"/>
+      <c r="Y14" s="332"/>
+      <c r="Z14" s="332"/>
+      <c r="AA14" s="332"/>
+      <c r="AB14" s="332"/>
+      <c r="AC14" s="332"/>
+      <c r="AD14" s="332"/>
+      <c r="AE14" s="333"/>
+      <c r="AF14" s="328"/>
+      <c r="AG14" s="329"/>
+      <c r="AH14" s="329"/>
+      <c r="AI14" s="330"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="282"/>
-      <c r="C15" s="283"/>
-      <c r="D15" s="284"/>
-      <c r="E15" s="285"/>
-      <c r="F15" s="286"/>
-      <c r="G15" s="282"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="283"/>
-      <c r="J15" s="288"/>
-      <c r="K15" s="289"/>
-      <c r="L15" s="289"/>
-      <c r="M15" s="289"/>
-      <c r="N15" s="289"/>
-      <c r="O15" s="289"/>
-      <c r="P15" s="290"/>
-      <c r="Q15" s="291"/>
-      <c r="R15" s="292"/>
-      <c r="S15" s="292"/>
-      <c r="T15" s="292"/>
-      <c r="U15" s="292"/>
-      <c r="V15" s="292"/>
-      <c r="W15" s="292"/>
-      <c r="X15" s="292"/>
-      <c r="Y15" s="292"/>
-      <c r="Z15" s="292"/>
-      <c r="AA15" s="292"/>
-      <c r="AB15" s="292"/>
-      <c r="AC15" s="292"/>
-      <c r="AD15" s="292"/>
-      <c r="AE15" s="293"/>
-      <c r="AF15" s="288"/>
-      <c r="AG15" s="289"/>
-      <c r="AH15" s="289"/>
-      <c r="AI15" s="290"/>
+      <c r="B15" s="322"/>
+      <c r="C15" s="323"/>
+      <c r="D15" s="324"/>
+      <c r="E15" s="325"/>
+      <c r="F15" s="326"/>
+      <c r="G15" s="322"/>
+      <c r="H15" s="327"/>
+      <c r="I15" s="323"/>
+      <c r="J15" s="328"/>
+      <c r="K15" s="329"/>
+      <c r="L15" s="329"/>
+      <c r="M15" s="329"/>
+      <c r="N15" s="329"/>
+      <c r="O15" s="329"/>
+      <c r="P15" s="330"/>
+      <c r="Q15" s="331"/>
+      <c r="R15" s="332"/>
+      <c r="S15" s="332"/>
+      <c r="T15" s="332"/>
+      <c r="U15" s="332"/>
+      <c r="V15" s="332"/>
+      <c r="W15" s="332"/>
+      <c r="X15" s="332"/>
+      <c r="Y15" s="332"/>
+      <c r="Z15" s="332"/>
+      <c r="AA15" s="332"/>
+      <c r="AB15" s="332"/>
+      <c r="AC15" s="332"/>
+      <c r="AD15" s="332"/>
+      <c r="AE15" s="333"/>
+      <c r="AF15" s="328"/>
+      <c r="AG15" s="329"/>
+      <c r="AH15" s="329"/>
+      <c r="AI15" s="330"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="282"/>
-      <c r="C16" s="283"/>
-      <c r="D16" s="284"/>
-      <c r="E16" s="285"/>
-      <c r="F16" s="286"/>
-      <c r="G16" s="282"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="283"/>
-      <c r="J16" s="288"/>
-      <c r="K16" s="289"/>
-      <c r="L16" s="289"/>
-      <c r="M16" s="289"/>
-      <c r="N16" s="289"/>
-      <c r="O16" s="289"/>
-      <c r="P16" s="290"/>
-      <c r="Q16" s="291"/>
-      <c r="R16" s="292"/>
-      <c r="S16" s="292"/>
-      <c r="T16" s="292"/>
-      <c r="U16" s="292"/>
-      <c r="V16" s="292"/>
-      <c r="W16" s="292"/>
-      <c r="X16" s="292"/>
-      <c r="Y16" s="292"/>
-      <c r="Z16" s="292"/>
-      <c r="AA16" s="292"/>
-      <c r="AB16" s="292"/>
-      <c r="AC16" s="292"/>
-      <c r="AD16" s="292"/>
-      <c r="AE16" s="293"/>
-      <c r="AF16" s="288"/>
-      <c r="AG16" s="289"/>
-      <c r="AH16" s="289"/>
-      <c r="AI16" s="290"/>
+      <c r="B16" s="322"/>
+      <c r="C16" s="323"/>
+      <c r="D16" s="324"/>
+      <c r="E16" s="325"/>
+      <c r="F16" s="326"/>
+      <c r="G16" s="322"/>
+      <c r="H16" s="327"/>
+      <c r="I16" s="323"/>
+      <c r="J16" s="328"/>
+      <c r="K16" s="329"/>
+      <c r="L16" s="329"/>
+      <c r="M16" s="329"/>
+      <c r="N16" s="329"/>
+      <c r="O16" s="329"/>
+      <c r="P16" s="330"/>
+      <c r="Q16" s="331"/>
+      <c r="R16" s="332"/>
+      <c r="S16" s="332"/>
+      <c r="T16" s="332"/>
+      <c r="U16" s="332"/>
+      <c r="V16" s="332"/>
+      <c r="W16" s="332"/>
+      <c r="X16" s="332"/>
+      <c r="Y16" s="332"/>
+      <c r="Z16" s="332"/>
+      <c r="AA16" s="332"/>
+      <c r="AB16" s="332"/>
+      <c r="AC16" s="332"/>
+      <c r="AD16" s="332"/>
+      <c r="AE16" s="333"/>
+      <c r="AF16" s="328"/>
+      <c r="AG16" s="329"/>
+      <c r="AH16" s="329"/>
+      <c r="AI16" s="330"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="282"/>
-      <c r="C17" s="283"/>
-      <c r="D17" s="284"/>
-      <c r="E17" s="285"/>
-      <c r="F17" s="286"/>
-      <c r="G17" s="282"/>
-      <c r="H17" s="287"/>
-      <c r="I17" s="283"/>
-      <c r="J17" s="288"/>
-      <c r="K17" s="289"/>
-      <c r="L17" s="289"/>
-      <c r="M17" s="289"/>
-      <c r="N17" s="289"/>
-      <c r="O17" s="289"/>
-      <c r="P17" s="290"/>
-      <c r="Q17" s="291"/>
-      <c r="R17" s="292"/>
-      <c r="S17" s="292"/>
-      <c r="T17" s="292"/>
-      <c r="U17" s="292"/>
-      <c r="V17" s="292"/>
-      <c r="W17" s="292"/>
-      <c r="X17" s="292"/>
-      <c r="Y17" s="292"/>
-      <c r="Z17" s="292"/>
-      <c r="AA17" s="292"/>
-      <c r="AB17" s="292"/>
-      <c r="AC17" s="292"/>
-      <c r="AD17" s="292"/>
-      <c r="AE17" s="293"/>
-      <c r="AF17" s="288"/>
-      <c r="AG17" s="289"/>
-      <c r="AH17" s="289"/>
-      <c r="AI17" s="290"/>
+      <c r="B17" s="322"/>
+      <c r="C17" s="323"/>
+      <c r="D17" s="324"/>
+      <c r="E17" s="325"/>
+      <c r="F17" s="326"/>
+      <c r="G17" s="322"/>
+      <c r="H17" s="327"/>
+      <c r="I17" s="323"/>
+      <c r="J17" s="328"/>
+      <c r="K17" s="329"/>
+      <c r="L17" s="329"/>
+      <c r="M17" s="329"/>
+      <c r="N17" s="329"/>
+      <c r="O17" s="329"/>
+      <c r="P17" s="330"/>
+      <c r="Q17" s="331"/>
+      <c r="R17" s="332"/>
+      <c r="S17" s="332"/>
+      <c r="T17" s="332"/>
+      <c r="U17" s="332"/>
+      <c r="V17" s="332"/>
+      <c r="W17" s="332"/>
+      <c r="X17" s="332"/>
+      <c r="Y17" s="332"/>
+      <c r="Z17" s="332"/>
+      <c r="AA17" s="332"/>
+      <c r="AB17" s="332"/>
+      <c r="AC17" s="332"/>
+      <c r="AD17" s="332"/>
+      <c r="AE17" s="333"/>
+      <c r="AF17" s="328"/>
+      <c r="AG17" s="329"/>
+      <c r="AH17" s="329"/>
+      <c r="AI17" s="330"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="282"/>
-      <c r="C18" s="283"/>
-      <c r="D18" s="284"/>
-      <c r="E18" s="285"/>
-      <c r="F18" s="286"/>
-      <c r="G18" s="282"/>
-      <c r="H18" s="287"/>
-      <c r="I18" s="283"/>
-      <c r="J18" s="288"/>
-      <c r="K18" s="289"/>
-      <c r="L18" s="289"/>
-      <c r="M18" s="289"/>
-      <c r="N18" s="289"/>
-      <c r="O18" s="289"/>
-      <c r="P18" s="290"/>
-      <c r="Q18" s="291"/>
-      <c r="R18" s="292"/>
-      <c r="S18" s="292"/>
-      <c r="T18" s="292"/>
-      <c r="U18" s="292"/>
-      <c r="V18" s="292"/>
-      <c r="W18" s="292"/>
-      <c r="X18" s="292"/>
-      <c r="Y18" s="292"/>
-      <c r="Z18" s="292"/>
-      <c r="AA18" s="292"/>
-      <c r="AB18" s="292"/>
-      <c r="AC18" s="292"/>
-      <c r="AD18" s="292"/>
-      <c r="AE18" s="293"/>
-      <c r="AF18" s="288"/>
-      <c r="AG18" s="289"/>
-      <c r="AH18" s="289"/>
-      <c r="AI18" s="290"/>
+      <c r="B18" s="322"/>
+      <c r="C18" s="323"/>
+      <c r="D18" s="324"/>
+      <c r="E18" s="325"/>
+      <c r="F18" s="326"/>
+      <c r="G18" s="322"/>
+      <c r="H18" s="327"/>
+      <c r="I18" s="323"/>
+      <c r="J18" s="328"/>
+      <c r="K18" s="329"/>
+      <c r="L18" s="329"/>
+      <c r="M18" s="329"/>
+      <c r="N18" s="329"/>
+      <c r="O18" s="329"/>
+      <c r="P18" s="330"/>
+      <c r="Q18" s="331"/>
+      <c r="R18" s="332"/>
+      <c r="S18" s="332"/>
+      <c r="T18" s="332"/>
+      <c r="U18" s="332"/>
+      <c r="V18" s="332"/>
+      <c r="W18" s="332"/>
+      <c r="X18" s="332"/>
+      <c r="Y18" s="332"/>
+      <c r="Z18" s="332"/>
+      <c r="AA18" s="332"/>
+      <c r="AB18" s="332"/>
+      <c r="AC18" s="332"/>
+      <c r="AD18" s="332"/>
+      <c r="AE18" s="333"/>
+      <c r="AF18" s="328"/>
+      <c r="AG18" s="329"/>
+      <c r="AH18" s="329"/>
+      <c r="AI18" s="330"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="282"/>
-      <c r="C19" s="283"/>
-      <c r="D19" s="284"/>
-      <c r="E19" s="285"/>
-      <c r="F19" s="286"/>
-      <c r="G19" s="282"/>
-      <c r="H19" s="287"/>
-      <c r="I19" s="283"/>
-      <c r="J19" s="288"/>
-      <c r="K19" s="289"/>
-      <c r="L19" s="289"/>
-      <c r="M19" s="289"/>
-      <c r="N19" s="289"/>
-      <c r="O19" s="289"/>
-      <c r="P19" s="290"/>
-      <c r="Q19" s="291"/>
-      <c r="R19" s="292"/>
-      <c r="S19" s="292"/>
-      <c r="T19" s="292"/>
-      <c r="U19" s="292"/>
-      <c r="V19" s="292"/>
-      <c r="W19" s="292"/>
-      <c r="X19" s="292"/>
-      <c r="Y19" s="292"/>
-      <c r="Z19" s="292"/>
-      <c r="AA19" s="292"/>
-      <c r="AB19" s="292"/>
-      <c r="AC19" s="292"/>
-      <c r="AD19" s="292"/>
-      <c r="AE19" s="293"/>
-      <c r="AF19" s="288"/>
-      <c r="AG19" s="289"/>
-      <c r="AH19" s="289"/>
-      <c r="AI19" s="290"/>
+      <c r="B19" s="322"/>
+      <c r="C19" s="323"/>
+      <c r="D19" s="324"/>
+      <c r="E19" s="325"/>
+      <c r="F19" s="326"/>
+      <c r="G19" s="322"/>
+      <c r="H19" s="327"/>
+      <c r="I19" s="323"/>
+      <c r="J19" s="328"/>
+      <c r="K19" s="329"/>
+      <c r="L19" s="329"/>
+      <c r="M19" s="329"/>
+      <c r="N19" s="329"/>
+      <c r="O19" s="329"/>
+      <c r="P19" s="330"/>
+      <c r="Q19" s="331"/>
+      <c r="R19" s="332"/>
+      <c r="S19" s="332"/>
+      <c r="T19" s="332"/>
+      <c r="U19" s="332"/>
+      <c r="V19" s="332"/>
+      <c r="W19" s="332"/>
+      <c r="X19" s="332"/>
+      <c r="Y19" s="332"/>
+      <c r="Z19" s="332"/>
+      <c r="AA19" s="332"/>
+      <c r="AB19" s="332"/>
+      <c r="AC19" s="332"/>
+      <c r="AD19" s="332"/>
+      <c r="AE19" s="333"/>
+      <c r="AF19" s="328"/>
+      <c r="AG19" s="329"/>
+      <c r="AH19" s="329"/>
+      <c r="AI19" s="330"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="282"/>
-      <c r="C20" s="283"/>
-      <c r="D20" s="284"/>
-      <c r="E20" s="285"/>
-      <c r="F20" s="286"/>
-      <c r="G20" s="282"/>
-      <c r="H20" s="287"/>
-      <c r="I20" s="283"/>
-      <c r="J20" s="288"/>
-      <c r="K20" s="289"/>
-      <c r="L20" s="289"/>
-      <c r="M20" s="289"/>
-      <c r="N20" s="289"/>
-      <c r="O20" s="289"/>
-      <c r="P20" s="290"/>
-      <c r="Q20" s="291"/>
-      <c r="R20" s="292"/>
-      <c r="S20" s="292"/>
-      <c r="T20" s="292"/>
-      <c r="U20" s="292"/>
-      <c r="V20" s="292"/>
-      <c r="W20" s="292"/>
-      <c r="X20" s="292"/>
-      <c r="Y20" s="292"/>
-      <c r="Z20" s="292"/>
-      <c r="AA20" s="292"/>
-      <c r="AB20" s="292"/>
-      <c r="AC20" s="292"/>
-      <c r="AD20" s="292"/>
-      <c r="AE20" s="293"/>
-      <c r="AF20" s="288"/>
-      <c r="AG20" s="289"/>
-      <c r="AH20" s="289"/>
-      <c r="AI20" s="290"/>
+      <c r="B20" s="322"/>
+      <c r="C20" s="323"/>
+      <c r="D20" s="324"/>
+      <c r="E20" s="325"/>
+      <c r="F20" s="326"/>
+      <c r="G20" s="322"/>
+      <c r="H20" s="327"/>
+      <c r="I20" s="323"/>
+      <c r="J20" s="328"/>
+      <c r="K20" s="329"/>
+      <c r="L20" s="329"/>
+      <c r="M20" s="329"/>
+      <c r="N20" s="329"/>
+      <c r="O20" s="329"/>
+      <c r="P20" s="330"/>
+      <c r="Q20" s="331"/>
+      <c r="R20" s="332"/>
+      <c r="S20" s="332"/>
+      <c r="T20" s="332"/>
+      <c r="U20" s="332"/>
+      <c r="V20" s="332"/>
+      <c r="W20" s="332"/>
+      <c r="X20" s="332"/>
+      <c r="Y20" s="332"/>
+      <c r="Z20" s="332"/>
+      <c r="AA20" s="332"/>
+      <c r="AB20" s="332"/>
+      <c r="AC20" s="332"/>
+      <c r="AD20" s="332"/>
+      <c r="AE20" s="333"/>
+      <c r="AF20" s="328"/>
+      <c r="AG20" s="329"/>
+      <c r="AH20" s="329"/>
+      <c r="AI20" s="330"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="282"/>
-      <c r="C21" s="283"/>
-      <c r="D21" s="284"/>
-      <c r="E21" s="285"/>
-      <c r="F21" s="286"/>
-      <c r="G21" s="282"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="283"/>
-      <c r="J21" s="288"/>
-      <c r="K21" s="289"/>
-      <c r="L21" s="289"/>
-      <c r="M21" s="289"/>
-      <c r="N21" s="289"/>
-      <c r="O21" s="289"/>
-      <c r="P21" s="290"/>
-      <c r="Q21" s="291"/>
-      <c r="R21" s="292"/>
-      <c r="S21" s="292"/>
-      <c r="T21" s="292"/>
-      <c r="U21" s="292"/>
-      <c r="V21" s="292"/>
-      <c r="W21" s="292"/>
-      <c r="X21" s="292"/>
-      <c r="Y21" s="292"/>
-      <c r="Z21" s="292"/>
-      <c r="AA21" s="292"/>
-      <c r="AB21" s="292"/>
-      <c r="AC21" s="292"/>
-      <c r="AD21" s="292"/>
-      <c r="AE21" s="293"/>
-      <c r="AF21" s="288"/>
-      <c r="AG21" s="289"/>
-      <c r="AH21" s="289"/>
-      <c r="AI21" s="290"/>
+      <c r="B21" s="322"/>
+      <c r="C21" s="323"/>
+      <c r="D21" s="324"/>
+      <c r="E21" s="325"/>
+      <c r="F21" s="326"/>
+      <c r="G21" s="322"/>
+      <c r="H21" s="327"/>
+      <c r="I21" s="323"/>
+      <c r="J21" s="328"/>
+      <c r="K21" s="329"/>
+      <c r="L21" s="329"/>
+      <c r="M21" s="329"/>
+      <c r="N21" s="329"/>
+      <c r="O21" s="329"/>
+      <c r="P21" s="330"/>
+      <c r="Q21" s="331"/>
+      <c r="R21" s="332"/>
+      <c r="S21" s="332"/>
+      <c r="T21" s="332"/>
+      <c r="U21" s="332"/>
+      <c r="V21" s="332"/>
+      <c r="W21" s="332"/>
+      <c r="X21" s="332"/>
+      <c r="Y21" s="332"/>
+      <c r="Z21" s="332"/>
+      <c r="AA21" s="332"/>
+      <c r="AB21" s="332"/>
+      <c r="AC21" s="332"/>
+      <c r="AD21" s="332"/>
+      <c r="AE21" s="333"/>
+      <c r="AF21" s="328"/>
+      <c r="AG21" s="329"/>
+      <c r="AH21" s="329"/>
+      <c r="AI21" s="330"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="282"/>
-      <c r="C22" s="283"/>
-      <c r="D22" s="284"/>
-      <c r="E22" s="285"/>
-      <c r="F22" s="286"/>
-      <c r="G22" s="282"/>
-      <c r="H22" s="287"/>
-      <c r="I22" s="283"/>
-      <c r="J22" s="288"/>
-      <c r="K22" s="289"/>
-      <c r="L22" s="289"/>
-      <c r="M22" s="289"/>
-      <c r="N22" s="289"/>
-      <c r="O22" s="289"/>
-      <c r="P22" s="290"/>
-      <c r="Q22" s="291"/>
-      <c r="R22" s="292"/>
-      <c r="S22" s="292"/>
-      <c r="T22" s="292"/>
-      <c r="U22" s="292"/>
-      <c r="V22" s="292"/>
-      <c r="W22" s="292"/>
-      <c r="X22" s="292"/>
-      <c r="Y22" s="292"/>
-      <c r="Z22" s="292"/>
-      <c r="AA22" s="292"/>
-      <c r="AB22" s="292"/>
-      <c r="AC22" s="292"/>
-      <c r="AD22" s="292"/>
-      <c r="AE22" s="293"/>
-      <c r="AF22" s="288"/>
-      <c r="AG22" s="289"/>
-      <c r="AH22" s="289"/>
-      <c r="AI22" s="290"/>
+      <c r="B22" s="322"/>
+      <c r="C22" s="323"/>
+      <c r="D22" s="324"/>
+      <c r="E22" s="325"/>
+      <c r="F22" s="326"/>
+      <c r="G22" s="322"/>
+      <c r="H22" s="327"/>
+      <c r="I22" s="323"/>
+      <c r="J22" s="328"/>
+      <c r="K22" s="329"/>
+      <c r="L22" s="329"/>
+      <c r="M22" s="329"/>
+      <c r="N22" s="329"/>
+      <c r="O22" s="329"/>
+      <c r="P22" s="330"/>
+      <c r="Q22" s="331"/>
+      <c r="R22" s="332"/>
+      <c r="S22" s="332"/>
+      <c r="T22" s="332"/>
+      <c r="U22" s="332"/>
+      <c r="V22" s="332"/>
+      <c r="W22" s="332"/>
+      <c r="X22" s="332"/>
+      <c r="Y22" s="332"/>
+      <c r="Z22" s="332"/>
+      <c r="AA22" s="332"/>
+      <c r="AB22" s="332"/>
+      <c r="AC22" s="332"/>
+      <c r="AD22" s="332"/>
+      <c r="AE22" s="333"/>
+      <c r="AF22" s="328"/>
+      <c r="AG22" s="329"/>
+      <c r="AH22" s="329"/>
+      <c r="AI22" s="330"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="282"/>
-      <c r="C23" s="283"/>
-      <c r="D23" s="284"/>
-      <c r="E23" s="285"/>
-      <c r="F23" s="286"/>
-      <c r="G23" s="282"/>
-      <c r="H23" s="287"/>
-      <c r="I23" s="283"/>
-      <c r="J23" s="288"/>
-      <c r="K23" s="289"/>
-      <c r="L23" s="289"/>
-      <c r="M23" s="289"/>
-      <c r="N23" s="289"/>
-      <c r="O23" s="289"/>
-      <c r="P23" s="290"/>
-      <c r="Q23" s="291"/>
-      <c r="R23" s="292"/>
-      <c r="S23" s="292"/>
-      <c r="T23" s="292"/>
-      <c r="U23" s="292"/>
-      <c r="V23" s="292"/>
-      <c r="W23" s="292"/>
-      <c r="X23" s="292"/>
-      <c r="Y23" s="292"/>
-      <c r="Z23" s="292"/>
-      <c r="AA23" s="292"/>
-      <c r="AB23" s="292"/>
-      <c r="AC23" s="292"/>
-      <c r="AD23" s="292"/>
-      <c r="AE23" s="293"/>
-      <c r="AF23" s="288"/>
-      <c r="AG23" s="289"/>
-      <c r="AH23" s="289"/>
-      <c r="AI23" s="290"/>
+      <c r="B23" s="322"/>
+      <c r="C23" s="323"/>
+      <c r="D23" s="324"/>
+      <c r="E23" s="325"/>
+      <c r="F23" s="326"/>
+      <c r="G23" s="322"/>
+      <c r="H23" s="327"/>
+      <c r="I23" s="323"/>
+      <c r="J23" s="328"/>
+      <c r="K23" s="329"/>
+      <c r="L23" s="329"/>
+      <c r="M23" s="329"/>
+      <c r="N23" s="329"/>
+      <c r="O23" s="329"/>
+      <c r="P23" s="330"/>
+      <c r="Q23" s="331"/>
+      <c r="R23" s="332"/>
+      <c r="S23" s="332"/>
+      <c r="T23" s="332"/>
+      <c r="U23" s="332"/>
+      <c r="V23" s="332"/>
+      <c r="W23" s="332"/>
+      <c r="X23" s="332"/>
+      <c r="Y23" s="332"/>
+      <c r="Z23" s="332"/>
+      <c r="AA23" s="332"/>
+      <c r="AB23" s="332"/>
+      <c r="AC23" s="332"/>
+      <c r="AD23" s="332"/>
+      <c r="AE23" s="333"/>
+      <c r="AF23" s="328"/>
+      <c r="AG23" s="329"/>
+      <c r="AH23" s="329"/>
+      <c r="AI23" s="330"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="282"/>
-      <c r="C24" s="283"/>
-      <c r="D24" s="284"/>
-      <c r="E24" s="285"/>
-      <c r="F24" s="286"/>
-      <c r="G24" s="282"/>
-      <c r="H24" s="287"/>
-      <c r="I24" s="283"/>
-      <c r="J24" s="288"/>
-      <c r="K24" s="289"/>
-      <c r="L24" s="289"/>
-      <c r="M24" s="289"/>
-      <c r="N24" s="289"/>
-      <c r="O24" s="289"/>
-      <c r="P24" s="290"/>
-      <c r="Q24" s="291"/>
-      <c r="R24" s="292"/>
-      <c r="S24" s="292"/>
-      <c r="T24" s="292"/>
-      <c r="U24" s="292"/>
-      <c r="V24" s="292"/>
-      <c r="W24" s="292"/>
-      <c r="X24" s="292"/>
-      <c r="Y24" s="292"/>
-      <c r="Z24" s="292"/>
-      <c r="AA24" s="292"/>
-      <c r="AB24" s="292"/>
-      <c r="AC24" s="292"/>
-      <c r="AD24" s="292"/>
-      <c r="AE24" s="293"/>
-      <c r="AF24" s="288"/>
-      <c r="AG24" s="289"/>
-      <c r="AH24" s="289"/>
-      <c r="AI24" s="290"/>
+      <c r="B24" s="322"/>
+      <c r="C24" s="323"/>
+      <c r="D24" s="324"/>
+      <c r="E24" s="325"/>
+      <c r="F24" s="326"/>
+      <c r="G24" s="322"/>
+      <c r="H24" s="327"/>
+      <c r="I24" s="323"/>
+      <c r="J24" s="328"/>
+      <c r="K24" s="329"/>
+      <c r="L24" s="329"/>
+      <c r="M24" s="329"/>
+      <c r="N24" s="329"/>
+      <c r="O24" s="329"/>
+      <c r="P24" s="330"/>
+      <c r="Q24" s="331"/>
+      <c r="R24" s="332"/>
+      <c r="S24" s="332"/>
+      <c r="T24" s="332"/>
+      <c r="U24" s="332"/>
+      <c r="V24" s="332"/>
+      <c r="W24" s="332"/>
+      <c r="X24" s="332"/>
+      <c r="Y24" s="332"/>
+      <c r="Z24" s="332"/>
+      <c r="AA24" s="332"/>
+      <c r="AB24" s="332"/>
+      <c r="AC24" s="332"/>
+      <c r="AD24" s="332"/>
+      <c r="AE24" s="333"/>
+      <c r="AF24" s="328"/>
+      <c r="AG24" s="329"/>
+      <c r="AH24" s="329"/>
+      <c r="AI24" s="330"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="282"/>
-      <c r="C25" s="283"/>
-      <c r="D25" s="284"/>
-      <c r="E25" s="285"/>
-      <c r="F25" s="286"/>
-      <c r="G25" s="282"/>
-      <c r="H25" s="287"/>
-      <c r="I25" s="283"/>
-      <c r="J25" s="288"/>
-      <c r="K25" s="289"/>
-      <c r="L25" s="289"/>
-      <c r="M25" s="289"/>
-      <c r="N25" s="289"/>
-      <c r="O25" s="289"/>
-      <c r="P25" s="290"/>
-      <c r="Q25" s="291"/>
-      <c r="R25" s="292"/>
-      <c r="S25" s="292"/>
-      <c r="T25" s="292"/>
-      <c r="U25" s="292"/>
-      <c r="V25" s="292"/>
-      <c r="W25" s="292"/>
-      <c r="X25" s="292"/>
-      <c r="Y25" s="292"/>
-      <c r="Z25" s="292"/>
-      <c r="AA25" s="292"/>
-      <c r="AB25" s="292"/>
-      <c r="AC25" s="292"/>
-      <c r="AD25" s="292"/>
-      <c r="AE25" s="293"/>
-      <c r="AF25" s="288"/>
-      <c r="AG25" s="289"/>
-      <c r="AH25" s="289"/>
-      <c r="AI25" s="290"/>
+      <c r="B25" s="322"/>
+      <c r="C25" s="323"/>
+      <c r="D25" s="324"/>
+      <c r="E25" s="325"/>
+      <c r="F25" s="326"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="327"/>
+      <c r="I25" s="323"/>
+      <c r="J25" s="328"/>
+      <c r="K25" s="329"/>
+      <c r="L25" s="329"/>
+      <c r="M25" s="329"/>
+      <c r="N25" s="329"/>
+      <c r="O25" s="329"/>
+      <c r="P25" s="330"/>
+      <c r="Q25" s="331"/>
+      <c r="R25" s="332"/>
+      <c r="S25" s="332"/>
+      <c r="T25" s="332"/>
+      <c r="U25" s="332"/>
+      <c r="V25" s="332"/>
+      <c r="W25" s="332"/>
+      <c r="X25" s="332"/>
+      <c r="Y25" s="332"/>
+      <c r="Z25" s="332"/>
+      <c r="AA25" s="332"/>
+      <c r="AB25" s="332"/>
+      <c r="AC25" s="332"/>
+      <c r="AD25" s="332"/>
+      <c r="AE25" s="333"/>
+      <c r="AF25" s="328"/>
+      <c r="AG25" s="329"/>
+      <c r="AH25" s="329"/>
+      <c r="AI25" s="330"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="282"/>
-      <c r="C26" s="283"/>
-      <c r="D26" s="284"/>
-      <c r="E26" s="285"/>
-      <c r="F26" s="286"/>
-      <c r="G26" s="282"/>
-      <c r="H26" s="287"/>
-      <c r="I26" s="283"/>
-      <c r="J26" s="288"/>
-      <c r="K26" s="289"/>
-      <c r="L26" s="289"/>
-      <c r="M26" s="289"/>
-      <c r="N26" s="289"/>
-      <c r="O26" s="289"/>
-      <c r="P26" s="290"/>
-      <c r="Q26" s="291"/>
-      <c r="R26" s="292"/>
-      <c r="S26" s="292"/>
-      <c r="T26" s="292"/>
-      <c r="U26" s="292"/>
-      <c r="V26" s="292"/>
-      <c r="W26" s="292"/>
-      <c r="X26" s="292"/>
-      <c r="Y26" s="292"/>
-      <c r="Z26" s="292"/>
-      <c r="AA26" s="292"/>
-      <c r="AB26" s="292"/>
-      <c r="AC26" s="292"/>
-      <c r="AD26" s="292"/>
-      <c r="AE26" s="293"/>
-      <c r="AF26" s="288"/>
-      <c r="AG26" s="289"/>
-      <c r="AH26" s="289"/>
-      <c r="AI26" s="290"/>
+      <c r="B26" s="322"/>
+      <c r="C26" s="323"/>
+      <c r="D26" s="324"/>
+      <c r="E26" s="325"/>
+      <c r="F26" s="326"/>
+      <c r="G26" s="322"/>
+      <c r="H26" s="327"/>
+      <c r="I26" s="323"/>
+      <c r="J26" s="328"/>
+      <c r="K26" s="329"/>
+      <c r="L26" s="329"/>
+      <c r="M26" s="329"/>
+      <c r="N26" s="329"/>
+      <c r="O26" s="329"/>
+      <c r="P26" s="330"/>
+      <c r="Q26" s="331"/>
+      <c r="R26" s="332"/>
+      <c r="S26" s="332"/>
+      <c r="T26" s="332"/>
+      <c r="U26" s="332"/>
+      <c r="V26" s="332"/>
+      <c r="W26" s="332"/>
+      <c r="X26" s="332"/>
+      <c r="Y26" s="332"/>
+      <c r="Z26" s="332"/>
+      <c r="AA26" s="332"/>
+      <c r="AB26" s="332"/>
+      <c r="AC26" s="332"/>
+      <c r="AD26" s="332"/>
+      <c r="AE26" s="333"/>
+      <c r="AF26" s="328"/>
+      <c r="AG26" s="329"/>
+      <c r="AH26" s="329"/>
+      <c r="AI26" s="330"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="282"/>
-      <c r="C27" s="283"/>
-      <c r="D27" s="284"/>
-      <c r="E27" s="285"/>
-      <c r="F27" s="286"/>
-      <c r="G27" s="282"/>
-      <c r="H27" s="287"/>
-      <c r="I27" s="283"/>
-      <c r="J27" s="288"/>
-      <c r="K27" s="289"/>
-      <c r="L27" s="289"/>
-      <c r="M27" s="289"/>
-      <c r="N27" s="289"/>
-      <c r="O27" s="289"/>
-      <c r="P27" s="290"/>
-      <c r="Q27" s="291"/>
-      <c r="R27" s="292"/>
-      <c r="S27" s="292"/>
-      <c r="T27" s="292"/>
-      <c r="U27" s="292"/>
-      <c r="V27" s="292"/>
-      <c r="W27" s="292"/>
-      <c r="X27" s="292"/>
-      <c r="Y27" s="292"/>
-      <c r="Z27" s="292"/>
-      <c r="AA27" s="292"/>
-      <c r="AB27" s="292"/>
-      <c r="AC27" s="292"/>
-      <c r="AD27" s="292"/>
-      <c r="AE27" s="293"/>
-      <c r="AF27" s="288"/>
-      <c r="AG27" s="289"/>
-      <c r="AH27" s="289"/>
-      <c r="AI27" s="290"/>
+      <c r="B27" s="322"/>
+      <c r="C27" s="323"/>
+      <c r="D27" s="324"/>
+      <c r="E27" s="325"/>
+      <c r="F27" s="326"/>
+      <c r="G27" s="322"/>
+      <c r="H27" s="327"/>
+      <c r="I27" s="323"/>
+      <c r="J27" s="328"/>
+      <c r="K27" s="329"/>
+      <c r="L27" s="329"/>
+      <c r="M27" s="329"/>
+      <c r="N27" s="329"/>
+      <c r="O27" s="329"/>
+      <c r="P27" s="330"/>
+      <c r="Q27" s="331"/>
+      <c r="R27" s="332"/>
+      <c r="S27" s="332"/>
+      <c r="T27" s="332"/>
+      <c r="U27" s="332"/>
+      <c r="V27" s="332"/>
+      <c r="W27" s="332"/>
+      <c r="X27" s="332"/>
+      <c r="Y27" s="332"/>
+      <c r="Z27" s="332"/>
+      <c r="AA27" s="332"/>
+      <c r="AB27" s="332"/>
+      <c r="AC27" s="332"/>
+      <c r="AD27" s="332"/>
+      <c r="AE27" s="333"/>
+      <c r="AF27" s="328"/>
+      <c r="AG27" s="329"/>
+      <c r="AH27" s="329"/>
+      <c r="AI27" s="330"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="282"/>
-      <c r="C28" s="283"/>
-      <c r="D28" s="284"/>
-      <c r="E28" s="285"/>
-      <c r="F28" s="286"/>
-      <c r="G28" s="282"/>
-      <c r="H28" s="287"/>
-      <c r="I28" s="283"/>
-      <c r="J28" s="288"/>
-      <c r="K28" s="289"/>
-      <c r="L28" s="289"/>
-      <c r="M28" s="289"/>
-      <c r="N28" s="289"/>
-      <c r="O28" s="289"/>
-      <c r="P28" s="290"/>
-      <c r="Q28" s="291"/>
-      <c r="R28" s="292"/>
-      <c r="S28" s="292"/>
-      <c r="T28" s="292"/>
-      <c r="U28" s="292"/>
-      <c r="V28" s="292"/>
-      <c r="W28" s="292"/>
-      <c r="X28" s="292"/>
-      <c r="Y28" s="292"/>
-      <c r="Z28" s="292"/>
-      <c r="AA28" s="292"/>
-      <c r="AB28" s="292"/>
-      <c r="AC28" s="292"/>
-      <c r="AD28" s="292"/>
-      <c r="AE28" s="293"/>
-      <c r="AF28" s="288"/>
-      <c r="AG28" s="289"/>
-      <c r="AH28" s="289"/>
-      <c r="AI28" s="290"/>
+      <c r="B28" s="322"/>
+      <c r="C28" s="323"/>
+      <c r="D28" s="324"/>
+      <c r="E28" s="325"/>
+      <c r="F28" s="326"/>
+      <c r="G28" s="322"/>
+      <c r="H28" s="327"/>
+      <c r="I28" s="323"/>
+      <c r="J28" s="328"/>
+      <c r="K28" s="329"/>
+      <c r="L28" s="329"/>
+      <c r="M28" s="329"/>
+      <c r="N28" s="329"/>
+      <c r="O28" s="329"/>
+      <c r="P28" s="330"/>
+      <c r="Q28" s="331"/>
+      <c r="R28" s="332"/>
+      <c r="S28" s="332"/>
+      <c r="T28" s="332"/>
+      <c r="U28" s="332"/>
+      <c r="V28" s="332"/>
+      <c r="W28" s="332"/>
+      <c r="X28" s="332"/>
+      <c r="Y28" s="332"/>
+      <c r="Z28" s="332"/>
+      <c r="AA28" s="332"/>
+      <c r="AB28" s="332"/>
+      <c r="AC28" s="332"/>
+      <c r="AD28" s="332"/>
+      <c r="AE28" s="333"/>
+      <c r="AF28" s="328"/>
+      <c r="AG28" s="329"/>
+      <c r="AH28" s="329"/>
+      <c r="AI28" s="330"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="282"/>
-      <c r="C29" s="283"/>
-      <c r="D29" s="284"/>
-      <c r="E29" s="285"/>
-      <c r="F29" s="286"/>
-      <c r="G29" s="282"/>
-      <c r="H29" s="287"/>
-      <c r="I29" s="283"/>
-      <c r="J29" s="288"/>
-      <c r="K29" s="289"/>
-      <c r="L29" s="289"/>
-      <c r="M29" s="289"/>
-      <c r="N29" s="289"/>
-      <c r="O29" s="289"/>
-      <c r="P29" s="290"/>
-      <c r="Q29" s="291"/>
-      <c r="R29" s="292"/>
-      <c r="S29" s="292"/>
-      <c r="T29" s="292"/>
-      <c r="U29" s="292"/>
-      <c r="V29" s="292"/>
-      <c r="W29" s="292"/>
-      <c r="X29" s="292"/>
-      <c r="Y29" s="292"/>
-      <c r="Z29" s="292"/>
-      <c r="AA29" s="292"/>
-      <c r="AB29" s="292"/>
-      <c r="AC29" s="292"/>
-      <c r="AD29" s="292"/>
-      <c r="AE29" s="293"/>
-      <c r="AF29" s="288"/>
-      <c r="AG29" s="289"/>
-      <c r="AH29" s="289"/>
-      <c r="AI29" s="290"/>
+      <c r="B29" s="322"/>
+      <c r="C29" s="323"/>
+      <c r="D29" s="324"/>
+      <c r="E29" s="325"/>
+      <c r="F29" s="326"/>
+      <c r="G29" s="322"/>
+      <c r="H29" s="327"/>
+      <c r="I29" s="323"/>
+      <c r="J29" s="328"/>
+      <c r="K29" s="329"/>
+      <c r="L29" s="329"/>
+      <c r="M29" s="329"/>
+      <c r="N29" s="329"/>
+      <c r="O29" s="329"/>
+      <c r="P29" s="330"/>
+      <c r="Q29" s="331"/>
+      <c r="R29" s="332"/>
+      <c r="S29" s="332"/>
+      <c r="T29" s="332"/>
+      <c r="U29" s="332"/>
+      <c r="V29" s="332"/>
+      <c r="W29" s="332"/>
+      <c r="X29" s="332"/>
+      <c r="Y29" s="332"/>
+      <c r="Z29" s="332"/>
+      <c r="AA29" s="332"/>
+      <c r="AB29" s="332"/>
+      <c r="AC29" s="332"/>
+      <c r="AD29" s="332"/>
+      <c r="AE29" s="333"/>
+      <c r="AF29" s="328"/>
+      <c r="AG29" s="329"/>
+      <c r="AH29" s="329"/>
+      <c r="AI29" s="330"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="282"/>
-      <c r="C30" s="283"/>
-      <c r="D30" s="284"/>
-      <c r="E30" s="285"/>
-      <c r="F30" s="286"/>
-      <c r="G30" s="282"/>
-      <c r="H30" s="287"/>
-      <c r="I30" s="283"/>
-      <c r="J30" s="288"/>
-      <c r="K30" s="289"/>
-      <c r="L30" s="289"/>
-      <c r="M30" s="289"/>
-      <c r="N30" s="289"/>
-      <c r="O30" s="289"/>
-      <c r="P30" s="290"/>
-      <c r="Q30" s="291"/>
-      <c r="R30" s="292"/>
-      <c r="S30" s="292"/>
-      <c r="T30" s="292"/>
-      <c r="U30" s="292"/>
-      <c r="V30" s="292"/>
-      <c r="W30" s="292"/>
-      <c r="X30" s="292"/>
-      <c r="Y30" s="292"/>
-      <c r="Z30" s="292"/>
-      <c r="AA30" s="292"/>
-      <c r="AB30" s="292"/>
-      <c r="AC30" s="292"/>
-      <c r="AD30" s="292"/>
-      <c r="AE30" s="293"/>
-      <c r="AF30" s="288"/>
-      <c r="AG30" s="289"/>
-      <c r="AH30" s="289"/>
-      <c r="AI30" s="290"/>
+      <c r="B30" s="322"/>
+      <c r="C30" s="323"/>
+      <c r="D30" s="324"/>
+      <c r="E30" s="325"/>
+      <c r="F30" s="326"/>
+      <c r="G30" s="322"/>
+      <c r="H30" s="327"/>
+      <c r="I30" s="323"/>
+      <c r="J30" s="328"/>
+      <c r="K30" s="329"/>
+      <c r="L30" s="329"/>
+      <c r="M30" s="329"/>
+      <c r="N30" s="329"/>
+      <c r="O30" s="329"/>
+      <c r="P30" s="330"/>
+      <c r="Q30" s="331"/>
+      <c r="R30" s="332"/>
+      <c r="S30" s="332"/>
+      <c r="T30" s="332"/>
+      <c r="U30" s="332"/>
+      <c r="V30" s="332"/>
+      <c r="W30" s="332"/>
+      <c r="X30" s="332"/>
+      <c r="Y30" s="332"/>
+      <c r="Z30" s="332"/>
+      <c r="AA30" s="332"/>
+      <c r="AB30" s="332"/>
+      <c r="AC30" s="332"/>
+      <c r="AD30" s="332"/>
+      <c r="AE30" s="333"/>
+      <c r="AF30" s="328"/>
+      <c r="AG30" s="329"/>
+      <c r="AH30" s="329"/>
+      <c r="AI30" s="330"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="282"/>
-      <c r="C31" s="283"/>
-      <c r="D31" s="284"/>
-      <c r="E31" s="285"/>
-      <c r="F31" s="286"/>
-      <c r="G31" s="282"/>
-      <c r="H31" s="287"/>
-      <c r="I31" s="283"/>
-      <c r="J31" s="288"/>
-      <c r="K31" s="289"/>
-      <c r="L31" s="289"/>
-      <c r="M31" s="289"/>
-      <c r="N31" s="289"/>
-      <c r="O31" s="289"/>
-      <c r="P31" s="290"/>
-      <c r="Q31" s="291"/>
-      <c r="R31" s="292"/>
-      <c r="S31" s="292"/>
-      <c r="T31" s="292"/>
-      <c r="U31" s="292"/>
-      <c r="V31" s="292"/>
-      <c r="W31" s="292"/>
-      <c r="X31" s="292"/>
-      <c r="Y31" s="292"/>
-      <c r="Z31" s="292"/>
-      <c r="AA31" s="292"/>
-      <c r="AB31" s="292"/>
-      <c r="AC31" s="292"/>
-      <c r="AD31" s="292"/>
-      <c r="AE31" s="293"/>
-      <c r="AF31" s="288"/>
-      <c r="AG31" s="289"/>
-      <c r="AH31" s="289"/>
-      <c r="AI31" s="290"/>
+      <c r="B31" s="322"/>
+      <c r="C31" s="323"/>
+      <c r="D31" s="324"/>
+      <c r="E31" s="325"/>
+      <c r="F31" s="326"/>
+      <c r="G31" s="322"/>
+      <c r="H31" s="327"/>
+      <c r="I31" s="323"/>
+      <c r="J31" s="328"/>
+      <c r="K31" s="329"/>
+      <c r="L31" s="329"/>
+      <c r="M31" s="329"/>
+      <c r="N31" s="329"/>
+      <c r="O31" s="329"/>
+      <c r="P31" s="330"/>
+      <c r="Q31" s="331"/>
+      <c r="R31" s="332"/>
+      <c r="S31" s="332"/>
+      <c r="T31" s="332"/>
+      <c r="U31" s="332"/>
+      <c r="V31" s="332"/>
+      <c r="W31" s="332"/>
+      <c r="X31" s="332"/>
+      <c r="Y31" s="332"/>
+      <c r="Z31" s="332"/>
+      <c r="AA31" s="332"/>
+      <c r="AB31" s="332"/>
+      <c r="AC31" s="332"/>
+      <c r="AD31" s="332"/>
+      <c r="AE31" s="333"/>
+      <c r="AF31" s="328"/>
+      <c r="AG31" s="329"/>
+      <c r="AH31" s="329"/>
+      <c r="AI31" s="330"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="282"/>
-      <c r="C32" s="283"/>
-      <c r="D32" s="284"/>
-      <c r="E32" s="285"/>
-      <c r="F32" s="286"/>
-      <c r="G32" s="282"/>
-      <c r="H32" s="287"/>
-      <c r="I32" s="283"/>
-      <c r="J32" s="288"/>
-      <c r="K32" s="294"/>
-      <c r="L32" s="289"/>
-      <c r="M32" s="289"/>
-      <c r="N32" s="289"/>
-      <c r="O32" s="289"/>
-      <c r="P32" s="290"/>
-      <c r="Q32" s="291"/>
-      <c r="R32" s="292"/>
-      <c r="S32" s="292"/>
-      <c r="T32" s="292"/>
-      <c r="U32" s="292"/>
-      <c r="V32" s="292"/>
-      <c r="W32" s="292"/>
-      <c r="X32" s="292"/>
-      <c r="Y32" s="292"/>
-      <c r="Z32" s="292"/>
-      <c r="AA32" s="292"/>
-      <c r="AB32" s="292"/>
-      <c r="AC32" s="292"/>
-      <c r="AD32" s="292"/>
-      <c r="AE32" s="293"/>
-      <c r="AF32" s="288"/>
-      <c r="AG32" s="289"/>
-      <c r="AH32" s="289"/>
-      <c r="AI32" s="290"/>
+      <c r="B32" s="322"/>
+      <c r="C32" s="323"/>
+      <c r="D32" s="324"/>
+      <c r="E32" s="325"/>
+      <c r="F32" s="326"/>
+      <c r="G32" s="322"/>
+      <c r="H32" s="327"/>
+      <c r="I32" s="323"/>
+      <c r="J32" s="328"/>
+      <c r="K32" s="347"/>
+      <c r="L32" s="329"/>
+      <c r="M32" s="329"/>
+      <c r="N32" s="329"/>
+      <c r="O32" s="329"/>
+      <c r="P32" s="330"/>
+      <c r="Q32" s="331"/>
+      <c r="R32" s="332"/>
+      <c r="S32" s="332"/>
+      <c r="T32" s="332"/>
+      <c r="U32" s="332"/>
+      <c r="V32" s="332"/>
+      <c r="W32" s="332"/>
+      <c r="X32" s="332"/>
+      <c r="Y32" s="332"/>
+      <c r="Z32" s="332"/>
+      <c r="AA32" s="332"/>
+      <c r="AB32" s="332"/>
+      <c r="AC32" s="332"/>
+      <c r="AD32" s="332"/>
+      <c r="AE32" s="333"/>
+      <c r="AF32" s="328"/>
+      <c r="AG32" s="329"/>
+      <c r="AH32" s="329"/>
+      <c r="AI32" s="330"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="282"/>
-      <c r="C33" s="283"/>
-      <c r="D33" s="284"/>
-      <c r="E33" s="285"/>
-      <c r="F33" s="286"/>
-      <c r="G33" s="282"/>
-      <c r="H33" s="287"/>
-      <c r="I33" s="283"/>
-      <c r="J33" s="288"/>
-      <c r="K33" s="289"/>
-      <c r="L33" s="289"/>
-      <c r="M33" s="289"/>
-      <c r="N33" s="289"/>
-      <c r="O33" s="289"/>
-      <c r="P33" s="290"/>
-      <c r="Q33" s="291"/>
-      <c r="R33" s="292"/>
-      <c r="S33" s="292"/>
-      <c r="T33" s="292"/>
-      <c r="U33" s="292"/>
-      <c r="V33" s="292"/>
-      <c r="W33" s="292"/>
-      <c r="X33" s="292"/>
-      <c r="Y33" s="292"/>
-      <c r="Z33" s="292"/>
-      <c r="AA33" s="292"/>
-      <c r="AB33" s="292"/>
-      <c r="AC33" s="292"/>
-      <c r="AD33" s="292"/>
-      <c r="AE33" s="293"/>
-      <c r="AF33" s="288"/>
-      <c r="AG33" s="289"/>
-      <c r="AH33" s="289"/>
-      <c r="AI33" s="290"/>
+      <c r="B33" s="322"/>
+      <c r="C33" s="323"/>
+      <c r="D33" s="324"/>
+      <c r="E33" s="325"/>
+      <c r="F33" s="326"/>
+      <c r="G33" s="322"/>
+      <c r="H33" s="327"/>
+      <c r="I33" s="323"/>
+      <c r="J33" s="328"/>
+      <c r="K33" s="329"/>
+      <c r="L33" s="329"/>
+      <c r="M33" s="329"/>
+      <c r="N33" s="329"/>
+      <c r="O33" s="329"/>
+      <c r="P33" s="330"/>
+      <c r="Q33" s="331"/>
+      <c r="R33" s="332"/>
+      <c r="S33" s="332"/>
+      <c r="T33" s="332"/>
+      <c r="U33" s="332"/>
+      <c r="V33" s="332"/>
+      <c r="W33" s="332"/>
+      <c r="X33" s="332"/>
+      <c r="Y33" s="332"/>
+      <c r="Z33" s="332"/>
+      <c r="AA33" s="332"/>
+      <c r="AB33" s="332"/>
+      <c r="AC33" s="332"/>
+      <c r="AD33" s="332"/>
+      <c r="AE33" s="333"/>
+      <c r="AF33" s="328"/>
+      <c r="AG33" s="329"/>
+      <c r="AH33" s="329"/>
+      <c r="AI33" s="330"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13141,162 +13316,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -17041,7 +17060,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="344" t="s">
+      <c r="B112" s="348" t="s">
         <v>198</v>
       </c>
       <c r="C112" s="186"/>
@@ -17075,7 +17094,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="344"/>
+      <c r="B113" s="348"/>
       <c r="C113" s="186"/>
       <c r="D113" s="237"/>
       <c r="E113" s="207"/>
@@ -17721,7 +17740,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="344" t="s">
+      <c r="B132" s="348" t="s">
         <v>225</v>
       </c>
       <c r="C132" s="186"/>
@@ -17757,7 +17776,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="344"/>
+      <c r="B133" s="348"/>
       <c r="C133" s="186"/>
       <c r="D133" s="174"/>
       <c r="E133" s="174"/>
@@ -27019,7 +27038,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="345" t="s">
+      <c r="B112" s="349" t="s">
         <v>544</v>
       </c>
       <c r="C112" s="254"/>
@@ -27053,7 +27072,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="345"/>
+      <c r="B113" s="349"/>
       <c r="C113" s="254"/>
       <c r="D113" s="256"/>
       <c r="E113" s="264"/>
@@ -27717,7 +27736,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="345" t="s">
+      <c r="B132" s="349" t="s">
         <v>225</v>
       </c>
       <c r="C132" s="254"/>
@@ -27753,7 +27772,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="345"/>
+      <c r="B133" s="349"/>
       <c r="C133" s="254"/>
       <c r="D133" s="256"/>
       <c r="E133" s="254"/>
@@ -35719,20 +35738,22 @@
       <c r="C366" s="256"/>
       <c r="D366" s="256"/>
       <c r="E366" s="258"/>
-      <c r="F366" s="142" t="s">
+      <c r="F366" s="281" t="s">
         <v>510</v>
       </c>
-      <c r="G366" s="142"/>
-      <c r="H366" s="110"/>
-      <c r="I366" s="110"/>
-      <c r="J366" s="139"/>
-      <c r="K366" s="140"/>
-      <c r="L366" s="166"/>
-      <c r="M366" s="167"/>
-      <c r="N366" s="167"/>
-      <c r="O366" s="167"/>
-      <c r="P366" s="167"/>
-      <c r="Q366" s="167"/>
+      <c r="G366" s="281" t="s">
+        <v>660</v>
+      </c>
+      <c r="H366" s="100"/>
+      <c r="I366" s="100"/>
+      <c r="J366" s="115"/>
+      <c r="K366" s="282"/>
+      <c r="L366" s="283"/>
+      <c r="M366" s="284"/>
+      <c r="N366" s="284"/>
+      <c r="O366" s="284"/>
+      <c r="P366" s="284"/>
+      <c r="Q366" s="284"/>
     </row>
     <row r="367" spans="1:17" s="34" customFormat="1">
       <c r="A367" s="55" t="str" cm="1">
@@ -35819,22 +35840,22 @@
       <c r="C369" s="256"/>
       <c r="D369" s="256"/>
       <c r="E369" s="258"/>
-      <c r="F369" s="348" t="s">
+      <c r="F369" s="281" t="s">
         <v>515</v>
       </c>
-      <c r="G369" s="348" t="s">
+      <c r="G369" s="281" t="s">
         <v>659</v>
       </c>
       <c r="H369" s="100"/>
       <c r="I369" s="100"/>
       <c r="J369" s="115"/>
-      <c r="K369" s="349"/>
-      <c r="L369" s="350"/>
-      <c r="M369" s="351"/>
-      <c r="N369" s="351"/>
-      <c r="O369" s="351"/>
-      <c r="P369" s="351"/>
-      <c r="Q369" s="351"/>
+      <c r="K369" s="282"/>
+      <c r="L369" s="283"/>
+      <c r="M369" s="284"/>
+      <c r="N369" s="284"/>
+      <c r="O369" s="284"/>
+      <c r="P369" s="284"/>
+      <c r="Q369" s="284"/>
     </row>
     <row r="370" spans="1:17" s="34" customFormat="1" ht="22.5">
       <c r="A370" s="55" t="str" cm="1">
@@ -36738,10 +36759,10 @@
       </c>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
-      <c r="D21" s="346" t="s">
+      <c r="D21" s="350" t="s">
         <v>636</v>
       </c>
-      <c r="E21" s="347"/>
+      <c r="E21" s="351"/>
       <c r="F21" s="115" t="s">
         <v>650</v>
       </c>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098FBA72-58D0-4AFF-8044-B3F9CF12374A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC4B1E8-F6D1-40CF-9C04-0AC2AD2A2A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9971,9 +9971,6 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -10145,6 +10142,84 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -10253,84 +10328,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10342,6 +10339,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -11334,12 +11334,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="285" t="str">
+      <c r="I25" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="285"/>
-      <c r="K25" s="285"/>
+      <c r="J25" s="284"/>
+      <c r="K25" s="284"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -11899,51 +11899,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="317" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="295" t="s">
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="320" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
-      <c r="N1" s="297"/>
-      <c r="O1" s="301" t="s">
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
+      <c r="N1" s="322"/>
+      <c r="O1" s="326" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="302"/>
-      <c r="Q1" s="302"/>
-      <c r="R1" s="303"/>
-      <c r="S1" s="310" t="s">
+      <c r="P1" s="327"/>
+      <c r="Q1" s="327"/>
+      <c r="R1" s="328"/>
+      <c r="S1" s="335" t="s">
         <v>654</v>
       </c>
-      <c r="T1" s="311"/>
-      <c r="U1" s="311"/>
-      <c r="V1" s="311"/>
-      <c r="W1" s="311"/>
-      <c r="X1" s="311"/>
-      <c r="Y1" s="311"/>
-      <c r="Z1" s="312"/>
-      <c r="AA1" s="292" t="s">
+      <c r="T1" s="336"/>
+      <c r="U1" s="336"/>
+      <c r="V1" s="336"/>
+      <c r="W1" s="336"/>
+      <c r="X1" s="336"/>
+      <c r="Y1" s="336"/>
+      <c r="Z1" s="337"/>
+      <c r="AA1" s="317" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="294"/>
-      <c r="AC1" s="319"/>
-      <c r="AD1" s="320"/>
-      <c r="AE1" s="320"/>
-      <c r="AF1" s="321"/>
-      <c r="AG1" s="286"/>
-      <c r="AH1" s="287"/>
-      <c r="AI1" s="288"/>
+      <c r="AB1" s="319"/>
+      <c r="AC1" s="344"/>
+      <c r="AD1" s="345"/>
+      <c r="AE1" s="345"/>
+      <c r="AF1" s="346"/>
+      <c r="AG1" s="311"/>
+      <c r="AH1" s="312"/>
+      <c r="AI1" s="313"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11951,53 +11951,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="317" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="293"/>
-      <c r="C2" s="293"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="295" t="s">
+      <c r="B2" s="318"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="320" t="s">
         <v>643</v>
       </c>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="296"/>
-      <c r="N2" s="297"/>
-      <c r="O2" s="304"/>
-      <c r="P2" s="305"/>
-      <c r="Q2" s="305"/>
-      <c r="R2" s="306"/>
-      <c r="S2" s="313"/>
-      <c r="T2" s="314"/>
-      <c r="U2" s="314"/>
-      <c r="V2" s="314"/>
-      <c r="W2" s="314"/>
-      <c r="X2" s="314"/>
-      <c r="Y2" s="314"/>
-      <c r="Z2" s="315"/>
-      <c r="AA2" s="292" t="s">
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="322"/>
+      <c r="O2" s="329"/>
+      <c r="P2" s="330"/>
+      <c r="Q2" s="330"/>
+      <c r="R2" s="331"/>
+      <c r="S2" s="338"/>
+      <c r="T2" s="339"/>
+      <c r="U2" s="339"/>
+      <c r="V2" s="339"/>
+      <c r="W2" s="339"/>
+      <c r="X2" s="339"/>
+      <c r="Y2" s="339"/>
+      <c r="Z2" s="340"/>
+      <c r="AA2" s="317" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="294"/>
-      <c r="AC2" s="298" t="str">
+      <c r="AB2" s="319"/>
+      <c r="AC2" s="323" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="299"/>
-      <c r="AE2" s="299"/>
-      <c r="AF2" s="300"/>
-      <c r="AG2" s="286" t="str">
+      <c r="AD2" s="324"/>
+      <c r="AE2" s="324"/>
+      <c r="AF2" s="325"/>
+      <c r="AG2" s="311" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="287"/>
-      <c r="AI2" s="288"/>
+      <c r="AH2" s="312"/>
+      <c r="AI2" s="313"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12005,45 +12005,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="292" t="s">
+      <c r="A3" s="317" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="295" t="s">
+      <c r="B3" s="318"/>
+      <c r="C3" s="318"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="320" t="s">
         <v>644</v>
       </c>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="296"/>
-      <c r="K3" s="296"/>
-      <c r="L3" s="296"/>
-      <c r="M3" s="296"/>
-      <c r="N3" s="297"/>
-      <c r="O3" s="307"/>
-      <c r="P3" s="308"/>
-      <c r="Q3" s="308"/>
-      <c r="R3" s="309"/>
-      <c r="S3" s="316"/>
-      <c r="T3" s="317"/>
-      <c r="U3" s="317"/>
-      <c r="V3" s="317"/>
-      <c r="W3" s="317"/>
-      <c r="X3" s="317"/>
-      <c r="Y3" s="317"/>
-      <c r="Z3" s="318"/>
-      <c r="AA3" s="292"/>
-      <c r="AB3" s="294"/>
-      <c r="AC3" s="319"/>
-      <c r="AD3" s="320"/>
-      <c r="AE3" s="320"/>
-      <c r="AF3" s="321"/>
-      <c r="AG3" s="286"/>
-      <c r="AH3" s="287"/>
-      <c r="AI3" s="288"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="321"/>
+      <c r="M3" s="321"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="332"/>
+      <c r="P3" s="333"/>
+      <c r="Q3" s="333"/>
+      <c r="R3" s="334"/>
+      <c r="S3" s="341"/>
+      <c r="T3" s="342"/>
+      <c r="U3" s="342"/>
+      <c r="V3" s="342"/>
+      <c r="W3" s="342"/>
+      <c r="X3" s="342"/>
+      <c r="Y3" s="342"/>
+      <c r="Z3" s="343"/>
+      <c r="AA3" s="317"/>
+      <c r="AB3" s="319"/>
+      <c r="AC3" s="344"/>
+      <c r="AD3" s="345"/>
+      <c r="AE3" s="345"/>
+      <c r="AF3" s="346"/>
+      <c r="AG3" s="311"/>
+      <c r="AH3" s="312"/>
+      <c r="AI3" s="313"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12080,1176 +12080,1020 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="289" t="s">
+      <c r="B7" s="314" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="290"/>
-      <c r="D7" s="289" t="s">
+      <c r="C7" s="315"/>
+      <c r="D7" s="314" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="291"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="289" t="s">
+      <c r="E7" s="316"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="314" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="291"/>
-      <c r="I7" s="290"/>
-      <c r="J7" s="289" t="s">
+      <c r="H7" s="316"/>
+      <c r="I7" s="315"/>
+      <c r="J7" s="314" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="291"/>
-      <c r="L7" s="291"/>
-      <c r="M7" s="291"/>
-      <c r="N7" s="291"/>
-      <c r="O7" s="291"/>
-      <c r="P7" s="290"/>
-      <c r="Q7" s="289" t="s">
+      <c r="K7" s="316"/>
+      <c r="L7" s="316"/>
+      <c r="M7" s="316"/>
+      <c r="N7" s="316"/>
+      <c r="O7" s="316"/>
+      <c r="P7" s="315"/>
+      <c r="Q7" s="314" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="291"/>
-      <c r="S7" s="291"/>
-      <c r="T7" s="291"/>
-      <c r="U7" s="291"/>
-      <c r="V7" s="291"/>
-      <c r="W7" s="291"/>
-      <c r="X7" s="291"/>
-      <c r="Y7" s="291"/>
-      <c r="Z7" s="291"/>
-      <c r="AA7" s="291"/>
-      <c r="AB7" s="291"/>
-      <c r="AC7" s="291"/>
-      <c r="AD7" s="291"/>
-      <c r="AE7" s="290"/>
-      <c r="AF7" s="289" t="s">
+      <c r="R7" s="316"/>
+      <c r="S7" s="316"/>
+      <c r="T7" s="316"/>
+      <c r="U7" s="316"/>
+      <c r="V7" s="316"/>
+      <c r="W7" s="316"/>
+      <c r="X7" s="316"/>
+      <c r="Y7" s="316"/>
+      <c r="Z7" s="316"/>
+      <c r="AA7" s="316"/>
+      <c r="AB7" s="316"/>
+      <c r="AC7" s="316"/>
+      <c r="AD7" s="316"/>
+      <c r="AE7" s="315"/>
+      <c r="AF7" s="314" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="291"/>
-      <c r="AH7" s="291"/>
-      <c r="AI7" s="290"/>
+      <c r="AG7" s="316"/>
+      <c r="AH7" s="316"/>
+      <c r="AI7" s="315"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="334"/>
-      <c r="C8" s="335"/>
-      <c r="D8" s="336"/>
-      <c r="E8" s="337"/>
-      <c r="F8" s="338"/>
-      <c r="G8" s="339"/>
-      <c r="H8" s="340"/>
-      <c r="I8" s="335"/>
-      <c r="J8" s="341"/>
-      <c r="K8" s="342"/>
-      <c r="L8" s="342"/>
-      <c r="M8" s="342"/>
-      <c r="N8" s="342"/>
-      <c r="O8" s="342"/>
-      <c r="P8" s="343"/>
-      <c r="Q8" s="344"/>
-      <c r="R8" s="345"/>
-      <c r="S8" s="345"/>
-      <c r="T8" s="345"/>
-      <c r="U8" s="345"/>
-      <c r="V8" s="345"/>
-      <c r="W8" s="345"/>
-      <c r="X8" s="345"/>
-      <c r="Y8" s="345"/>
-      <c r="Z8" s="345"/>
-      <c r="AA8" s="345"/>
-      <c r="AB8" s="345"/>
-      <c r="AC8" s="345"/>
-      <c r="AD8" s="345"/>
-      <c r="AE8" s="346"/>
-      <c r="AF8" s="341"/>
-      <c r="AG8" s="342"/>
-      <c r="AH8" s="342"/>
-      <c r="AI8" s="343"/>
+      <c r="B8" s="298"/>
+      <c r="C8" s="299"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="301"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="303"/>
+      <c r="H8" s="304"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="305"/>
+      <c r="K8" s="306"/>
+      <c r="L8" s="306"/>
+      <c r="M8" s="306"/>
+      <c r="N8" s="306"/>
+      <c r="O8" s="306"/>
+      <c r="P8" s="307"/>
+      <c r="Q8" s="308"/>
+      <c r="R8" s="309"/>
+      <c r="S8" s="309"/>
+      <c r="T8" s="309"/>
+      <c r="U8" s="309"/>
+      <c r="V8" s="309"/>
+      <c r="W8" s="309"/>
+      <c r="X8" s="309"/>
+      <c r="Y8" s="309"/>
+      <c r="Z8" s="309"/>
+      <c r="AA8" s="309"/>
+      <c r="AB8" s="309"/>
+      <c r="AC8" s="309"/>
+      <c r="AD8" s="309"/>
+      <c r="AE8" s="310"/>
+      <c r="AF8" s="305"/>
+      <c r="AG8" s="306"/>
+      <c r="AH8" s="306"/>
+      <c r="AI8" s="307"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="322"/>
-      <c r="C9" s="323"/>
-      <c r="D9" s="324"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="326"/>
-      <c r="G9" s="324"/>
-      <c r="H9" s="327"/>
-      <c r="I9" s="323"/>
-      <c r="J9" s="328"/>
-      <c r="K9" s="329"/>
-      <c r="L9" s="329"/>
-      <c r="M9" s="329"/>
-      <c r="N9" s="329"/>
-      <c r="O9" s="329"/>
-      <c r="P9" s="330"/>
-      <c r="Q9" s="331"/>
-      <c r="R9" s="332"/>
-      <c r="S9" s="332"/>
-      <c r="T9" s="332"/>
-      <c r="U9" s="332"/>
-      <c r="V9" s="332"/>
-      <c r="W9" s="332"/>
-      <c r="X9" s="332"/>
-      <c r="Y9" s="332"/>
-      <c r="Z9" s="332"/>
-      <c r="AA9" s="332"/>
-      <c r="AB9" s="332"/>
-      <c r="AC9" s="332"/>
-      <c r="AD9" s="332"/>
-      <c r="AE9" s="333"/>
-      <c r="AF9" s="328"/>
-      <c r="AG9" s="329"/>
-      <c r="AH9" s="329"/>
-      <c r="AI9" s="330"/>
+      <c r="B9" s="285"/>
+      <c r="C9" s="286"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="287"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="286"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="292"/>
+      <c r="L9" s="292"/>
+      <c r="M9" s="292"/>
+      <c r="N9" s="292"/>
+      <c r="O9" s="292"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="294"/>
+      <c r="R9" s="295"/>
+      <c r="S9" s="295"/>
+      <c r="T9" s="295"/>
+      <c r="U9" s="295"/>
+      <c r="V9" s="295"/>
+      <c r="W9" s="295"/>
+      <c r="X9" s="295"/>
+      <c r="Y9" s="295"/>
+      <c r="Z9" s="295"/>
+      <c r="AA9" s="295"/>
+      <c r="AB9" s="295"/>
+      <c r="AC9" s="295"/>
+      <c r="AD9" s="295"/>
+      <c r="AE9" s="296"/>
+      <c r="AF9" s="291"/>
+      <c r="AG9" s="292"/>
+      <c r="AH9" s="292"/>
+      <c r="AI9" s="293"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="322"/>
-      <c r="C10" s="323"/>
-      <c r="D10" s="324"/>
-      <c r="E10" s="325"/>
-      <c r="F10" s="326"/>
-      <c r="G10" s="322"/>
-      <c r="H10" s="327"/>
-      <c r="I10" s="323"/>
-      <c r="J10" s="328"/>
-      <c r="K10" s="329"/>
-      <c r="L10" s="329"/>
-      <c r="M10" s="329"/>
-      <c r="N10" s="329"/>
-      <c r="O10" s="329"/>
-      <c r="P10" s="330"/>
-      <c r="Q10" s="331"/>
-      <c r="R10" s="332"/>
-      <c r="S10" s="332"/>
-      <c r="T10" s="332"/>
-      <c r="U10" s="332"/>
-      <c r="V10" s="332"/>
-      <c r="W10" s="332"/>
-      <c r="X10" s="332"/>
-      <c r="Y10" s="332"/>
-      <c r="Z10" s="332"/>
-      <c r="AA10" s="332"/>
-      <c r="AB10" s="332"/>
-      <c r="AC10" s="332"/>
-      <c r="AD10" s="332"/>
-      <c r="AE10" s="333"/>
-      <c r="AF10" s="328"/>
-      <c r="AG10" s="329"/>
-      <c r="AH10" s="329"/>
-      <c r="AI10" s="330"/>
+      <c r="B10" s="285"/>
+      <c r="C10" s="286"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="288"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="285"/>
+      <c r="H10" s="290"/>
+      <c r="I10" s="286"/>
+      <c r="J10" s="291"/>
+      <c r="K10" s="292"/>
+      <c r="L10" s="292"/>
+      <c r="M10" s="292"/>
+      <c r="N10" s="292"/>
+      <c r="O10" s="292"/>
+      <c r="P10" s="293"/>
+      <c r="Q10" s="294"/>
+      <c r="R10" s="295"/>
+      <c r="S10" s="295"/>
+      <c r="T10" s="295"/>
+      <c r="U10" s="295"/>
+      <c r="V10" s="295"/>
+      <c r="W10" s="295"/>
+      <c r="X10" s="295"/>
+      <c r="Y10" s="295"/>
+      <c r="Z10" s="295"/>
+      <c r="AA10" s="295"/>
+      <c r="AB10" s="295"/>
+      <c r="AC10" s="295"/>
+      <c r="AD10" s="295"/>
+      <c r="AE10" s="296"/>
+      <c r="AF10" s="291"/>
+      <c r="AG10" s="292"/>
+      <c r="AH10" s="292"/>
+      <c r="AI10" s="293"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="322"/>
-      <c r="C11" s="323"/>
-      <c r="D11" s="324"/>
-      <c r="E11" s="325"/>
-      <c r="F11" s="326"/>
-      <c r="G11" s="322"/>
-      <c r="H11" s="327"/>
-      <c r="I11" s="323"/>
-      <c r="J11" s="328"/>
-      <c r="K11" s="329"/>
-      <c r="L11" s="329"/>
-      <c r="M11" s="329"/>
-      <c r="N11" s="329"/>
-      <c r="O11" s="329"/>
-      <c r="P11" s="330"/>
-      <c r="Q11" s="331"/>
-      <c r="R11" s="332"/>
-      <c r="S11" s="332"/>
-      <c r="T11" s="332"/>
-      <c r="U11" s="332"/>
-      <c r="V11" s="332"/>
-      <c r="W11" s="332"/>
-      <c r="X11" s="332"/>
-      <c r="Y11" s="332"/>
-      <c r="Z11" s="332"/>
-      <c r="AA11" s="332"/>
-      <c r="AB11" s="332"/>
-      <c r="AC11" s="332"/>
-      <c r="AD11" s="332"/>
-      <c r="AE11" s="333"/>
-      <c r="AF11" s="328"/>
-      <c r="AG11" s="329"/>
-      <c r="AH11" s="329"/>
-      <c r="AI11" s="330"/>
+      <c r="B11" s="285"/>
+      <c r="C11" s="286"/>
+      <c r="D11" s="287"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="289"/>
+      <c r="G11" s="285"/>
+      <c r="H11" s="290"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="291"/>
+      <c r="K11" s="292"/>
+      <c r="L11" s="292"/>
+      <c r="M11" s="292"/>
+      <c r="N11" s="292"/>
+      <c r="O11" s="292"/>
+      <c r="P11" s="293"/>
+      <c r="Q11" s="294"/>
+      <c r="R11" s="295"/>
+      <c r="S11" s="295"/>
+      <c r="T11" s="295"/>
+      <c r="U11" s="295"/>
+      <c r="V11" s="295"/>
+      <c r="W11" s="295"/>
+      <c r="X11" s="295"/>
+      <c r="Y11" s="295"/>
+      <c r="Z11" s="295"/>
+      <c r="AA11" s="295"/>
+      <c r="AB11" s="295"/>
+      <c r="AC11" s="295"/>
+      <c r="AD11" s="295"/>
+      <c r="AE11" s="296"/>
+      <c r="AF11" s="291"/>
+      <c r="AG11" s="292"/>
+      <c r="AH11" s="292"/>
+      <c r="AI11" s="293"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="322"/>
-      <c r="C12" s="323"/>
-      <c r="D12" s="324"/>
-      <c r="E12" s="325"/>
-      <c r="F12" s="326"/>
-      <c r="G12" s="322"/>
-      <c r="H12" s="327"/>
-      <c r="I12" s="323"/>
-      <c r="J12" s="328"/>
-      <c r="K12" s="329"/>
-      <c r="L12" s="329"/>
-      <c r="M12" s="329"/>
-      <c r="N12" s="329"/>
-      <c r="O12" s="329"/>
-      <c r="P12" s="330"/>
-      <c r="Q12" s="331"/>
-      <c r="R12" s="332"/>
-      <c r="S12" s="332"/>
-      <c r="T12" s="332"/>
-      <c r="U12" s="332"/>
-      <c r="V12" s="332"/>
-      <c r="W12" s="332"/>
-      <c r="X12" s="332"/>
-      <c r="Y12" s="332"/>
-      <c r="Z12" s="332"/>
-      <c r="AA12" s="332"/>
-      <c r="AB12" s="332"/>
-      <c r="AC12" s="332"/>
-      <c r="AD12" s="332"/>
-      <c r="AE12" s="333"/>
-      <c r="AF12" s="328"/>
-      <c r="AG12" s="329"/>
-      <c r="AH12" s="329"/>
-      <c r="AI12" s="330"/>
+      <c r="B12" s="285"/>
+      <c r="C12" s="286"/>
+      <c r="D12" s="287"/>
+      <c r="E12" s="288"/>
+      <c r="F12" s="289"/>
+      <c r="G12" s="285"/>
+      <c r="H12" s="290"/>
+      <c r="I12" s="286"/>
+      <c r="J12" s="291"/>
+      <c r="K12" s="292"/>
+      <c r="L12" s="292"/>
+      <c r="M12" s="292"/>
+      <c r="N12" s="292"/>
+      <c r="O12" s="292"/>
+      <c r="P12" s="293"/>
+      <c r="Q12" s="294"/>
+      <c r="R12" s="295"/>
+      <c r="S12" s="295"/>
+      <c r="T12" s="295"/>
+      <c r="U12" s="295"/>
+      <c r="V12" s="295"/>
+      <c r="W12" s="295"/>
+      <c r="X12" s="295"/>
+      <c r="Y12" s="295"/>
+      <c r="Z12" s="295"/>
+      <c r="AA12" s="295"/>
+      <c r="AB12" s="295"/>
+      <c r="AC12" s="295"/>
+      <c r="AD12" s="295"/>
+      <c r="AE12" s="296"/>
+      <c r="AF12" s="291"/>
+      <c r="AG12" s="292"/>
+      <c r="AH12" s="292"/>
+      <c r="AI12" s="293"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="322"/>
-      <c r="C13" s="323"/>
-      <c r="D13" s="324"/>
-      <c r="E13" s="325"/>
-      <c r="F13" s="326"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="327"/>
-      <c r="I13" s="323"/>
-      <c r="J13" s="328"/>
-      <c r="K13" s="329"/>
-      <c r="L13" s="329"/>
-      <c r="M13" s="329"/>
-      <c r="N13" s="329"/>
-      <c r="O13" s="329"/>
-      <c r="P13" s="330"/>
-      <c r="Q13" s="331"/>
-      <c r="R13" s="332"/>
-      <c r="S13" s="332"/>
-      <c r="T13" s="332"/>
-      <c r="U13" s="332"/>
-      <c r="V13" s="332"/>
-      <c r="W13" s="332"/>
-      <c r="X13" s="332"/>
-      <c r="Y13" s="332"/>
-      <c r="Z13" s="332"/>
-      <c r="AA13" s="332"/>
-      <c r="AB13" s="332"/>
-      <c r="AC13" s="332"/>
-      <c r="AD13" s="332"/>
-      <c r="AE13" s="333"/>
-      <c r="AF13" s="328"/>
-      <c r="AG13" s="329"/>
-      <c r="AH13" s="329"/>
-      <c r="AI13" s="330"/>
+      <c r="B13" s="285"/>
+      <c r="C13" s="286"/>
+      <c r="D13" s="287"/>
+      <c r="E13" s="288"/>
+      <c r="F13" s="289"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="290"/>
+      <c r="I13" s="286"/>
+      <c r="J13" s="291"/>
+      <c r="K13" s="292"/>
+      <c r="L13" s="292"/>
+      <c r="M13" s="292"/>
+      <c r="N13" s="292"/>
+      <c r="O13" s="292"/>
+      <c r="P13" s="293"/>
+      <c r="Q13" s="294"/>
+      <c r="R13" s="295"/>
+      <c r="S13" s="295"/>
+      <c r="T13" s="295"/>
+      <c r="U13" s="295"/>
+      <c r="V13" s="295"/>
+      <c r="W13" s="295"/>
+      <c r="X13" s="295"/>
+      <c r="Y13" s="295"/>
+      <c r="Z13" s="295"/>
+      <c r="AA13" s="295"/>
+      <c r="AB13" s="295"/>
+      <c r="AC13" s="295"/>
+      <c r="AD13" s="295"/>
+      <c r="AE13" s="296"/>
+      <c r="AF13" s="291"/>
+      <c r="AG13" s="292"/>
+      <c r="AH13" s="292"/>
+      <c r="AI13" s="293"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="322"/>
-      <c r="C14" s="323"/>
-      <c r="D14" s="324"/>
-      <c r="E14" s="325"/>
-      <c r="F14" s="326"/>
-      <c r="G14" s="322"/>
-      <c r="H14" s="327"/>
-      <c r="I14" s="323"/>
-      <c r="J14" s="328"/>
-      <c r="K14" s="329"/>
-      <c r="L14" s="329"/>
-      <c r="M14" s="329"/>
-      <c r="N14" s="329"/>
-      <c r="O14" s="329"/>
-      <c r="P14" s="330"/>
-      <c r="Q14" s="331"/>
-      <c r="R14" s="332"/>
-      <c r="S14" s="332"/>
-      <c r="T14" s="332"/>
-      <c r="U14" s="332"/>
-      <c r="V14" s="332"/>
-      <c r="W14" s="332"/>
-      <c r="X14" s="332"/>
-      <c r="Y14" s="332"/>
-      <c r="Z14" s="332"/>
-      <c r="AA14" s="332"/>
-      <c r="AB14" s="332"/>
-      <c r="AC14" s="332"/>
-      <c r="AD14" s="332"/>
-      <c r="AE14" s="333"/>
-      <c r="AF14" s="328"/>
-      <c r="AG14" s="329"/>
-      <c r="AH14" s="329"/>
-      <c r="AI14" s="330"/>
+      <c r="B14" s="285"/>
+      <c r="C14" s="286"/>
+      <c r="D14" s="287"/>
+      <c r="E14" s="288"/>
+      <c r="F14" s="289"/>
+      <c r="G14" s="285"/>
+      <c r="H14" s="290"/>
+      <c r="I14" s="286"/>
+      <c r="J14" s="291"/>
+      <c r="K14" s="292"/>
+      <c r="L14" s="292"/>
+      <c r="M14" s="292"/>
+      <c r="N14" s="292"/>
+      <c r="O14" s="292"/>
+      <c r="P14" s="293"/>
+      <c r="Q14" s="294"/>
+      <c r="R14" s="295"/>
+      <c r="S14" s="295"/>
+      <c r="T14" s="295"/>
+      <c r="U14" s="295"/>
+      <c r="V14" s="295"/>
+      <c r="W14" s="295"/>
+      <c r="X14" s="295"/>
+      <c r="Y14" s="295"/>
+      <c r="Z14" s="295"/>
+      <c r="AA14" s="295"/>
+      <c r="AB14" s="295"/>
+      <c r="AC14" s="295"/>
+      <c r="AD14" s="295"/>
+      <c r="AE14" s="296"/>
+      <c r="AF14" s="291"/>
+      <c r="AG14" s="292"/>
+      <c r="AH14" s="292"/>
+      <c r="AI14" s="293"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="322"/>
-      <c r="C15" s="323"/>
-      <c r="D15" s="324"/>
-      <c r="E15" s="325"/>
-      <c r="F15" s="326"/>
-      <c r="G15" s="322"/>
-      <c r="H15" s="327"/>
-      <c r="I15" s="323"/>
-      <c r="J15" s="328"/>
-      <c r="K15" s="329"/>
-      <c r="L15" s="329"/>
-      <c r="M15" s="329"/>
-      <c r="N15" s="329"/>
-      <c r="O15" s="329"/>
-      <c r="P15" s="330"/>
-      <c r="Q15" s="331"/>
-      <c r="R15" s="332"/>
-      <c r="S15" s="332"/>
-      <c r="T15" s="332"/>
-      <c r="U15" s="332"/>
-      <c r="V15" s="332"/>
-      <c r="W15" s="332"/>
-      <c r="X15" s="332"/>
-      <c r="Y15" s="332"/>
-      <c r="Z15" s="332"/>
-      <c r="AA15" s="332"/>
-      <c r="AB15" s="332"/>
-      <c r="AC15" s="332"/>
-      <c r="AD15" s="332"/>
-      <c r="AE15" s="333"/>
-      <c r="AF15" s="328"/>
-      <c r="AG15" s="329"/>
-      <c r="AH15" s="329"/>
-      <c r="AI15" s="330"/>
+      <c r="B15" s="285"/>
+      <c r="C15" s="286"/>
+      <c r="D15" s="287"/>
+      <c r="E15" s="288"/>
+      <c r="F15" s="289"/>
+      <c r="G15" s="285"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="286"/>
+      <c r="J15" s="291"/>
+      <c r="K15" s="292"/>
+      <c r="L15" s="292"/>
+      <c r="M15" s="292"/>
+      <c r="N15" s="292"/>
+      <c r="O15" s="292"/>
+      <c r="P15" s="293"/>
+      <c r="Q15" s="294"/>
+      <c r="R15" s="295"/>
+      <c r="S15" s="295"/>
+      <c r="T15" s="295"/>
+      <c r="U15" s="295"/>
+      <c r="V15" s="295"/>
+      <c r="W15" s="295"/>
+      <c r="X15" s="295"/>
+      <c r="Y15" s="295"/>
+      <c r="Z15" s="295"/>
+      <c r="AA15" s="295"/>
+      <c r="AB15" s="295"/>
+      <c r="AC15" s="295"/>
+      <c r="AD15" s="295"/>
+      <c r="AE15" s="296"/>
+      <c r="AF15" s="291"/>
+      <c r="AG15" s="292"/>
+      <c r="AH15" s="292"/>
+      <c r="AI15" s="293"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="322"/>
-      <c r="C16" s="323"/>
-      <c r="D16" s="324"/>
-      <c r="E16" s="325"/>
-      <c r="F16" s="326"/>
-      <c r="G16" s="322"/>
-      <c r="H16" s="327"/>
-      <c r="I16" s="323"/>
-      <c r="J16" s="328"/>
-      <c r="K16" s="329"/>
-      <c r="L16" s="329"/>
-      <c r="M16" s="329"/>
-      <c r="N16" s="329"/>
-      <c r="O16" s="329"/>
-      <c r="P16" s="330"/>
-      <c r="Q16" s="331"/>
-      <c r="R16" s="332"/>
-      <c r="S16" s="332"/>
-      <c r="T16" s="332"/>
-      <c r="U16" s="332"/>
-      <c r="V16" s="332"/>
-      <c r="W16" s="332"/>
-      <c r="X16" s="332"/>
-      <c r="Y16" s="332"/>
-      <c r="Z16" s="332"/>
-      <c r="AA16" s="332"/>
-      <c r="AB16" s="332"/>
-      <c r="AC16" s="332"/>
-      <c r="AD16" s="332"/>
-      <c r="AE16" s="333"/>
-      <c r="AF16" s="328"/>
-      <c r="AG16" s="329"/>
-      <c r="AH16" s="329"/>
-      <c r="AI16" s="330"/>
+      <c r="B16" s="285"/>
+      <c r="C16" s="286"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="288"/>
+      <c r="F16" s="289"/>
+      <c r="G16" s="285"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="286"/>
+      <c r="J16" s="291"/>
+      <c r="K16" s="292"/>
+      <c r="L16" s="292"/>
+      <c r="M16" s="292"/>
+      <c r="N16" s="292"/>
+      <c r="O16" s="292"/>
+      <c r="P16" s="293"/>
+      <c r="Q16" s="294"/>
+      <c r="R16" s="295"/>
+      <c r="S16" s="295"/>
+      <c r="T16" s="295"/>
+      <c r="U16" s="295"/>
+      <c r="V16" s="295"/>
+      <c r="W16" s="295"/>
+      <c r="X16" s="295"/>
+      <c r="Y16" s="295"/>
+      <c r="Z16" s="295"/>
+      <c r="AA16" s="295"/>
+      <c r="AB16" s="295"/>
+      <c r="AC16" s="295"/>
+      <c r="AD16" s="295"/>
+      <c r="AE16" s="296"/>
+      <c r="AF16" s="291"/>
+      <c r="AG16" s="292"/>
+      <c r="AH16" s="292"/>
+      <c r="AI16" s="293"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="322"/>
-      <c r="C17" s="323"/>
-      <c r="D17" s="324"/>
-      <c r="E17" s="325"/>
-      <c r="F17" s="326"/>
-      <c r="G17" s="322"/>
-      <c r="H17" s="327"/>
-      <c r="I17" s="323"/>
-      <c r="J17" s="328"/>
-      <c r="K17" s="329"/>
-      <c r="L17" s="329"/>
-      <c r="M17" s="329"/>
-      <c r="N17" s="329"/>
-      <c r="O17" s="329"/>
-      <c r="P17" s="330"/>
-      <c r="Q17" s="331"/>
-      <c r="R17" s="332"/>
-      <c r="S17" s="332"/>
-      <c r="T17" s="332"/>
-      <c r="U17" s="332"/>
-      <c r="V17" s="332"/>
-      <c r="W17" s="332"/>
-      <c r="X17" s="332"/>
-      <c r="Y17" s="332"/>
-      <c r="Z17" s="332"/>
-      <c r="AA17" s="332"/>
-      <c r="AB17" s="332"/>
-      <c r="AC17" s="332"/>
-      <c r="AD17" s="332"/>
-      <c r="AE17" s="333"/>
-      <c r="AF17" s="328"/>
-      <c r="AG17" s="329"/>
-      <c r="AH17" s="329"/>
-      <c r="AI17" s="330"/>
+      <c r="B17" s="285"/>
+      <c r="C17" s="286"/>
+      <c r="D17" s="287"/>
+      <c r="E17" s="288"/>
+      <c r="F17" s="289"/>
+      <c r="G17" s="285"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="286"/>
+      <c r="J17" s="291"/>
+      <c r="K17" s="292"/>
+      <c r="L17" s="292"/>
+      <c r="M17" s="292"/>
+      <c r="N17" s="292"/>
+      <c r="O17" s="292"/>
+      <c r="P17" s="293"/>
+      <c r="Q17" s="294"/>
+      <c r="R17" s="295"/>
+      <c r="S17" s="295"/>
+      <c r="T17" s="295"/>
+      <c r="U17" s="295"/>
+      <c r="V17" s="295"/>
+      <c r="W17" s="295"/>
+      <c r="X17" s="295"/>
+      <c r="Y17" s="295"/>
+      <c r="Z17" s="295"/>
+      <c r="AA17" s="295"/>
+      <c r="AB17" s="295"/>
+      <c r="AC17" s="295"/>
+      <c r="AD17" s="295"/>
+      <c r="AE17" s="296"/>
+      <c r="AF17" s="291"/>
+      <c r="AG17" s="292"/>
+      <c r="AH17" s="292"/>
+      <c r="AI17" s="293"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="322"/>
-      <c r="C18" s="323"/>
-      <c r="D18" s="324"/>
-      <c r="E18" s="325"/>
-      <c r="F18" s="326"/>
-      <c r="G18" s="322"/>
-      <c r="H18" s="327"/>
-      <c r="I18" s="323"/>
-      <c r="J18" s="328"/>
-      <c r="K18" s="329"/>
-      <c r="L18" s="329"/>
-      <c r="M18" s="329"/>
-      <c r="N18" s="329"/>
-      <c r="O18" s="329"/>
-      <c r="P18" s="330"/>
-      <c r="Q18" s="331"/>
-      <c r="R18" s="332"/>
-      <c r="S18" s="332"/>
-      <c r="T18" s="332"/>
-      <c r="U18" s="332"/>
-      <c r="V18" s="332"/>
-      <c r="W18" s="332"/>
-      <c r="X18" s="332"/>
-      <c r="Y18" s="332"/>
-      <c r="Z18" s="332"/>
-      <c r="AA18" s="332"/>
-      <c r="AB18" s="332"/>
-      <c r="AC18" s="332"/>
-      <c r="AD18" s="332"/>
-      <c r="AE18" s="333"/>
-      <c r="AF18" s="328"/>
-      <c r="AG18" s="329"/>
-      <c r="AH18" s="329"/>
-      <c r="AI18" s="330"/>
+      <c r="B18" s="285"/>
+      <c r="C18" s="286"/>
+      <c r="D18" s="287"/>
+      <c r="E18" s="288"/>
+      <c r="F18" s="289"/>
+      <c r="G18" s="285"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="286"/>
+      <c r="J18" s="291"/>
+      <c r="K18" s="292"/>
+      <c r="L18" s="292"/>
+      <c r="M18" s="292"/>
+      <c r="N18" s="292"/>
+      <c r="O18" s="292"/>
+      <c r="P18" s="293"/>
+      <c r="Q18" s="294"/>
+      <c r="R18" s="295"/>
+      <c r="S18" s="295"/>
+      <c r="T18" s="295"/>
+      <c r="U18" s="295"/>
+      <c r="V18" s="295"/>
+      <c r="W18" s="295"/>
+      <c r="X18" s="295"/>
+      <c r="Y18" s="295"/>
+      <c r="Z18" s="295"/>
+      <c r="AA18" s="295"/>
+      <c r="AB18" s="295"/>
+      <c r="AC18" s="295"/>
+      <c r="AD18" s="295"/>
+      <c r="AE18" s="296"/>
+      <c r="AF18" s="291"/>
+      <c r="AG18" s="292"/>
+      <c r="AH18" s="292"/>
+      <c r="AI18" s="293"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="322"/>
-      <c r="C19" s="323"/>
-      <c r="D19" s="324"/>
-      <c r="E19" s="325"/>
-      <c r="F19" s="326"/>
-      <c r="G19" s="322"/>
-      <c r="H19" s="327"/>
-      <c r="I19" s="323"/>
-      <c r="J19" s="328"/>
-      <c r="K19" s="329"/>
-      <c r="L19" s="329"/>
-      <c r="M19" s="329"/>
-      <c r="N19" s="329"/>
-      <c r="O19" s="329"/>
-      <c r="P19" s="330"/>
-      <c r="Q19" s="331"/>
-      <c r="R19" s="332"/>
-      <c r="S19" s="332"/>
-      <c r="T19" s="332"/>
-      <c r="U19" s="332"/>
-      <c r="V19" s="332"/>
-      <c r="W19" s="332"/>
-      <c r="X19" s="332"/>
-      <c r="Y19" s="332"/>
-      <c r="Z19" s="332"/>
-      <c r="AA19" s="332"/>
-      <c r="AB19" s="332"/>
-      <c r="AC19" s="332"/>
-      <c r="AD19" s="332"/>
-      <c r="AE19" s="333"/>
-      <c r="AF19" s="328"/>
-      <c r="AG19" s="329"/>
-      <c r="AH19" s="329"/>
-      <c r="AI19" s="330"/>
+      <c r="B19" s="285"/>
+      <c r="C19" s="286"/>
+      <c r="D19" s="287"/>
+      <c r="E19" s="288"/>
+      <c r="F19" s="289"/>
+      <c r="G19" s="285"/>
+      <c r="H19" s="290"/>
+      <c r="I19" s="286"/>
+      <c r="J19" s="291"/>
+      <c r="K19" s="292"/>
+      <c r="L19" s="292"/>
+      <c r="M19" s="292"/>
+      <c r="N19" s="292"/>
+      <c r="O19" s="292"/>
+      <c r="P19" s="293"/>
+      <c r="Q19" s="294"/>
+      <c r="R19" s="295"/>
+      <c r="S19" s="295"/>
+      <c r="T19" s="295"/>
+      <c r="U19" s="295"/>
+      <c r="V19" s="295"/>
+      <c r="W19" s="295"/>
+      <c r="X19" s="295"/>
+      <c r="Y19" s="295"/>
+      <c r="Z19" s="295"/>
+      <c r="AA19" s="295"/>
+      <c r="AB19" s="295"/>
+      <c r="AC19" s="295"/>
+      <c r="AD19" s="295"/>
+      <c r="AE19" s="296"/>
+      <c r="AF19" s="291"/>
+      <c r="AG19" s="292"/>
+      <c r="AH19" s="292"/>
+      <c r="AI19" s="293"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="322"/>
-      <c r="C20" s="323"/>
-      <c r="D20" s="324"/>
-      <c r="E20" s="325"/>
-      <c r="F20" s="326"/>
-      <c r="G20" s="322"/>
-      <c r="H20" s="327"/>
-      <c r="I20" s="323"/>
-      <c r="J20" s="328"/>
-      <c r="K20" s="329"/>
-      <c r="L20" s="329"/>
-      <c r="M20" s="329"/>
-      <c r="N20" s="329"/>
-      <c r="O20" s="329"/>
-      <c r="P20" s="330"/>
-      <c r="Q20" s="331"/>
-      <c r="R20" s="332"/>
-      <c r="S20" s="332"/>
-      <c r="T20" s="332"/>
-      <c r="U20" s="332"/>
-      <c r="V20" s="332"/>
-      <c r="W20" s="332"/>
-      <c r="X20" s="332"/>
-      <c r="Y20" s="332"/>
-      <c r="Z20" s="332"/>
-      <c r="AA20" s="332"/>
-      <c r="AB20" s="332"/>
-      <c r="AC20" s="332"/>
-      <c r="AD20" s="332"/>
-      <c r="AE20" s="333"/>
-      <c r="AF20" s="328"/>
-      <c r="AG20" s="329"/>
-      <c r="AH20" s="329"/>
-      <c r="AI20" s="330"/>
+      <c r="B20" s="285"/>
+      <c r="C20" s="286"/>
+      <c r="D20" s="287"/>
+      <c r="E20" s="288"/>
+      <c r="F20" s="289"/>
+      <c r="G20" s="285"/>
+      <c r="H20" s="290"/>
+      <c r="I20" s="286"/>
+      <c r="J20" s="291"/>
+      <c r="K20" s="292"/>
+      <c r="L20" s="292"/>
+      <c r="M20" s="292"/>
+      <c r="N20" s="292"/>
+      <c r="O20" s="292"/>
+      <c r="P20" s="293"/>
+      <c r="Q20" s="294"/>
+      <c r="R20" s="295"/>
+      <c r="S20" s="295"/>
+      <c r="T20" s="295"/>
+      <c r="U20" s="295"/>
+      <c r="V20" s="295"/>
+      <c r="W20" s="295"/>
+      <c r="X20" s="295"/>
+      <c r="Y20" s="295"/>
+      <c r="Z20" s="295"/>
+      <c r="AA20" s="295"/>
+      <c r="AB20" s="295"/>
+      <c r="AC20" s="295"/>
+      <c r="AD20" s="295"/>
+      <c r="AE20" s="296"/>
+      <c r="AF20" s="291"/>
+      <c r="AG20" s="292"/>
+      <c r="AH20" s="292"/>
+      <c r="AI20" s="293"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="322"/>
-      <c r="C21" s="323"/>
-      <c r="D21" s="324"/>
-      <c r="E21" s="325"/>
-      <c r="F21" s="326"/>
-      <c r="G21" s="322"/>
-      <c r="H21" s="327"/>
-      <c r="I21" s="323"/>
-      <c r="J21" s="328"/>
-      <c r="K21" s="329"/>
-      <c r="L21" s="329"/>
-      <c r="M21" s="329"/>
-      <c r="N21" s="329"/>
-      <c r="O21" s="329"/>
-      <c r="P21" s="330"/>
-      <c r="Q21" s="331"/>
-      <c r="R21" s="332"/>
-      <c r="S21" s="332"/>
-      <c r="T21" s="332"/>
-      <c r="U21" s="332"/>
-      <c r="V21" s="332"/>
-      <c r="W21" s="332"/>
-      <c r="X21" s="332"/>
-      <c r="Y21" s="332"/>
-      <c r="Z21" s="332"/>
-      <c r="AA21" s="332"/>
-      <c r="AB21" s="332"/>
-      <c r="AC21" s="332"/>
-      <c r="AD21" s="332"/>
-      <c r="AE21" s="333"/>
-      <c r="AF21" s="328"/>
-      <c r="AG21" s="329"/>
-      <c r="AH21" s="329"/>
-      <c r="AI21" s="330"/>
+      <c r="B21" s="285"/>
+      <c r="C21" s="286"/>
+      <c r="D21" s="287"/>
+      <c r="E21" s="288"/>
+      <c r="F21" s="289"/>
+      <c r="G21" s="285"/>
+      <c r="H21" s="290"/>
+      <c r="I21" s="286"/>
+      <c r="J21" s="291"/>
+      <c r="K21" s="292"/>
+      <c r="L21" s="292"/>
+      <c r="M21" s="292"/>
+      <c r="N21" s="292"/>
+      <c r="O21" s="292"/>
+      <c r="P21" s="293"/>
+      <c r="Q21" s="294"/>
+      <c r="R21" s="295"/>
+      <c r="S21" s="295"/>
+      <c r="T21" s="295"/>
+      <c r="U21" s="295"/>
+      <c r="V21" s="295"/>
+      <c r="W21" s="295"/>
+      <c r="X21" s="295"/>
+      <c r="Y21" s="295"/>
+      <c r="Z21" s="295"/>
+      <c r="AA21" s="295"/>
+      <c r="AB21" s="295"/>
+      <c r="AC21" s="295"/>
+      <c r="AD21" s="295"/>
+      <c r="AE21" s="296"/>
+      <c r="AF21" s="291"/>
+      <c r="AG21" s="292"/>
+      <c r="AH21" s="292"/>
+      <c r="AI21" s="293"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="322"/>
-      <c r="C22" s="323"/>
-      <c r="D22" s="324"/>
-      <c r="E22" s="325"/>
-      <c r="F22" s="326"/>
-      <c r="G22" s="322"/>
-      <c r="H22" s="327"/>
-      <c r="I22" s="323"/>
-      <c r="J22" s="328"/>
-      <c r="K22" s="329"/>
-      <c r="L22" s="329"/>
-      <c r="M22" s="329"/>
-      <c r="N22" s="329"/>
-      <c r="O22" s="329"/>
-      <c r="P22" s="330"/>
-      <c r="Q22" s="331"/>
-      <c r="R22" s="332"/>
-      <c r="S22" s="332"/>
-      <c r="T22" s="332"/>
-      <c r="U22" s="332"/>
-      <c r="V22" s="332"/>
-      <c r="W22" s="332"/>
-      <c r="X22" s="332"/>
-      <c r="Y22" s="332"/>
-      <c r="Z22" s="332"/>
-      <c r="AA22" s="332"/>
-      <c r="AB22" s="332"/>
-      <c r="AC22" s="332"/>
-      <c r="AD22" s="332"/>
-      <c r="AE22" s="333"/>
-      <c r="AF22" s="328"/>
-      <c r="AG22" s="329"/>
-      <c r="AH22" s="329"/>
-      <c r="AI22" s="330"/>
+      <c r="B22" s="285"/>
+      <c r="C22" s="286"/>
+      <c r="D22" s="287"/>
+      <c r="E22" s="288"/>
+      <c r="F22" s="289"/>
+      <c r="G22" s="285"/>
+      <c r="H22" s="290"/>
+      <c r="I22" s="286"/>
+      <c r="J22" s="291"/>
+      <c r="K22" s="292"/>
+      <c r="L22" s="292"/>
+      <c r="M22" s="292"/>
+      <c r="N22" s="292"/>
+      <c r="O22" s="292"/>
+      <c r="P22" s="293"/>
+      <c r="Q22" s="294"/>
+      <c r="R22" s="295"/>
+      <c r="S22" s="295"/>
+      <c r="T22" s="295"/>
+      <c r="U22" s="295"/>
+      <c r="V22" s="295"/>
+      <c r="W22" s="295"/>
+      <c r="X22" s="295"/>
+      <c r="Y22" s="295"/>
+      <c r="Z22" s="295"/>
+      <c r="AA22" s="295"/>
+      <c r="AB22" s="295"/>
+      <c r="AC22" s="295"/>
+      <c r="AD22" s="295"/>
+      <c r="AE22" s="296"/>
+      <c r="AF22" s="291"/>
+      <c r="AG22" s="292"/>
+      <c r="AH22" s="292"/>
+      <c r="AI22" s="293"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="322"/>
-      <c r="C23" s="323"/>
-      <c r="D23" s="324"/>
-      <c r="E23" s="325"/>
-      <c r="F23" s="326"/>
-      <c r="G23" s="322"/>
-      <c r="H23" s="327"/>
-      <c r="I23" s="323"/>
-      <c r="J23" s="328"/>
-      <c r="K23" s="329"/>
-      <c r="L23" s="329"/>
-      <c r="M23" s="329"/>
-      <c r="N23" s="329"/>
-      <c r="O23" s="329"/>
-      <c r="P23" s="330"/>
-      <c r="Q23" s="331"/>
-      <c r="R23" s="332"/>
-      <c r="S23" s="332"/>
-      <c r="T23" s="332"/>
-      <c r="U23" s="332"/>
-      <c r="V23" s="332"/>
-      <c r="W23" s="332"/>
-      <c r="X23" s="332"/>
-      <c r="Y23" s="332"/>
-      <c r="Z23" s="332"/>
-      <c r="AA23" s="332"/>
-      <c r="AB23" s="332"/>
-      <c r="AC23" s="332"/>
-      <c r="AD23" s="332"/>
-      <c r="AE23" s="333"/>
-      <c r="AF23" s="328"/>
-      <c r="AG23" s="329"/>
-      <c r="AH23" s="329"/>
-      <c r="AI23" s="330"/>
+      <c r="B23" s="285"/>
+      <c r="C23" s="286"/>
+      <c r="D23" s="287"/>
+      <c r="E23" s="288"/>
+      <c r="F23" s="289"/>
+      <c r="G23" s="285"/>
+      <c r="H23" s="290"/>
+      <c r="I23" s="286"/>
+      <c r="J23" s="291"/>
+      <c r="K23" s="292"/>
+      <c r="L23" s="292"/>
+      <c r="M23" s="292"/>
+      <c r="N23" s="292"/>
+      <c r="O23" s="292"/>
+      <c r="P23" s="293"/>
+      <c r="Q23" s="294"/>
+      <c r="R23" s="295"/>
+      <c r="S23" s="295"/>
+      <c r="T23" s="295"/>
+      <c r="U23" s="295"/>
+      <c r="V23" s="295"/>
+      <c r="W23" s="295"/>
+      <c r="X23" s="295"/>
+      <c r="Y23" s="295"/>
+      <c r="Z23" s="295"/>
+      <c r="AA23" s="295"/>
+      <c r="AB23" s="295"/>
+      <c r="AC23" s="295"/>
+      <c r="AD23" s="295"/>
+      <c r="AE23" s="296"/>
+      <c r="AF23" s="291"/>
+      <c r="AG23" s="292"/>
+      <c r="AH23" s="292"/>
+      <c r="AI23" s="293"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="322"/>
-      <c r="C24" s="323"/>
-      <c r="D24" s="324"/>
-      <c r="E24" s="325"/>
-      <c r="F24" s="326"/>
-      <c r="G24" s="322"/>
-      <c r="H24" s="327"/>
-      <c r="I24" s="323"/>
-      <c r="J24" s="328"/>
-      <c r="K24" s="329"/>
-      <c r="L24" s="329"/>
-      <c r="M24" s="329"/>
-      <c r="N24" s="329"/>
-      <c r="O24" s="329"/>
-      <c r="P24" s="330"/>
-      <c r="Q24" s="331"/>
-      <c r="R24" s="332"/>
-      <c r="S24" s="332"/>
-      <c r="T24" s="332"/>
-      <c r="U24" s="332"/>
-      <c r="V24" s="332"/>
-      <c r="W24" s="332"/>
-      <c r="X24" s="332"/>
-      <c r="Y24" s="332"/>
-      <c r="Z24" s="332"/>
-      <c r="AA24" s="332"/>
-      <c r="AB24" s="332"/>
-      <c r="AC24" s="332"/>
-      <c r="AD24" s="332"/>
-      <c r="AE24" s="333"/>
-      <c r="AF24" s="328"/>
-      <c r="AG24" s="329"/>
-      <c r="AH24" s="329"/>
-      <c r="AI24" s="330"/>
+      <c r="B24" s="285"/>
+      <c r="C24" s="286"/>
+      <c r="D24" s="287"/>
+      <c r="E24" s="288"/>
+      <c r="F24" s="289"/>
+      <c r="G24" s="285"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="286"/>
+      <c r="J24" s="291"/>
+      <c r="K24" s="292"/>
+      <c r="L24" s="292"/>
+      <c r="M24" s="292"/>
+      <c r="N24" s="292"/>
+      <c r="O24" s="292"/>
+      <c r="P24" s="293"/>
+      <c r="Q24" s="294"/>
+      <c r="R24" s="295"/>
+      <c r="S24" s="295"/>
+      <c r="T24" s="295"/>
+      <c r="U24" s="295"/>
+      <c r="V24" s="295"/>
+      <c r="W24" s="295"/>
+      <c r="X24" s="295"/>
+      <c r="Y24" s="295"/>
+      <c r="Z24" s="295"/>
+      <c r="AA24" s="295"/>
+      <c r="AB24" s="295"/>
+      <c r="AC24" s="295"/>
+      <c r="AD24" s="295"/>
+      <c r="AE24" s="296"/>
+      <c r="AF24" s="291"/>
+      <c r="AG24" s="292"/>
+      <c r="AH24" s="292"/>
+      <c r="AI24" s="293"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="322"/>
-      <c r="C25" s="323"/>
-      <c r="D25" s="324"/>
-      <c r="E25" s="325"/>
-      <c r="F25" s="326"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="327"/>
-      <c r="I25" s="323"/>
-      <c r="J25" s="328"/>
-      <c r="K25" s="329"/>
-      <c r="L25" s="329"/>
-      <c r="M25" s="329"/>
-      <c r="N25" s="329"/>
-      <c r="O25" s="329"/>
-      <c r="P25" s="330"/>
-      <c r="Q25" s="331"/>
-      <c r="R25" s="332"/>
-      <c r="S25" s="332"/>
-      <c r="T25" s="332"/>
-      <c r="U25" s="332"/>
-      <c r="V25" s="332"/>
-      <c r="W25" s="332"/>
-      <c r="X25" s="332"/>
-      <c r="Y25" s="332"/>
-      <c r="Z25" s="332"/>
-      <c r="AA25" s="332"/>
-      <c r="AB25" s="332"/>
-      <c r="AC25" s="332"/>
-      <c r="AD25" s="332"/>
-      <c r="AE25" s="333"/>
-      <c r="AF25" s="328"/>
-      <c r="AG25" s="329"/>
-      <c r="AH25" s="329"/>
-      <c r="AI25" s="330"/>
+      <c r="B25" s="285"/>
+      <c r="C25" s="286"/>
+      <c r="D25" s="287"/>
+      <c r="E25" s="288"/>
+      <c r="F25" s="289"/>
+      <c r="G25" s="285"/>
+      <c r="H25" s="290"/>
+      <c r="I25" s="286"/>
+      <c r="J25" s="291"/>
+      <c r="K25" s="292"/>
+      <c r="L25" s="292"/>
+      <c r="M25" s="292"/>
+      <c r="N25" s="292"/>
+      <c r="O25" s="292"/>
+      <c r="P25" s="293"/>
+      <c r="Q25" s="294"/>
+      <c r="R25" s="295"/>
+      <c r="S25" s="295"/>
+      <c r="T25" s="295"/>
+      <c r="U25" s="295"/>
+      <c r="V25" s="295"/>
+      <c r="W25" s="295"/>
+      <c r="X25" s="295"/>
+      <c r="Y25" s="295"/>
+      <c r="Z25" s="295"/>
+      <c r="AA25" s="295"/>
+      <c r="AB25" s="295"/>
+      <c r="AC25" s="295"/>
+      <c r="AD25" s="295"/>
+      <c r="AE25" s="296"/>
+      <c r="AF25" s="291"/>
+      <c r="AG25" s="292"/>
+      <c r="AH25" s="292"/>
+      <c r="AI25" s="293"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="322"/>
-      <c r="C26" s="323"/>
-      <c r="D26" s="324"/>
-      <c r="E26" s="325"/>
-      <c r="F26" s="326"/>
-      <c r="G26" s="322"/>
-      <c r="H26" s="327"/>
-      <c r="I26" s="323"/>
-      <c r="J26" s="328"/>
-      <c r="K26" s="329"/>
-      <c r="L26" s="329"/>
-      <c r="M26" s="329"/>
-      <c r="N26" s="329"/>
-      <c r="O26" s="329"/>
-      <c r="P26" s="330"/>
-      <c r="Q26" s="331"/>
-      <c r="R26" s="332"/>
-      <c r="S26" s="332"/>
-      <c r="T26" s="332"/>
-      <c r="U26" s="332"/>
-      <c r="V26" s="332"/>
-      <c r="W26" s="332"/>
-      <c r="X26" s="332"/>
-      <c r="Y26" s="332"/>
-      <c r="Z26" s="332"/>
-      <c r="AA26" s="332"/>
-      <c r="AB26" s="332"/>
-      <c r="AC26" s="332"/>
-      <c r="AD26" s="332"/>
-      <c r="AE26" s="333"/>
-      <c r="AF26" s="328"/>
-      <c r="AG26" s="329"/>
-      <c r="AH26" s="329"/>
-      <c r="AI26" s="330"/>
+      <c r="B26" s="285"/>
+      <c r="C26" s="286"/>
+      <c r="D26" s="287"/>
+      <c r="E26" s="288"/>
+      <c r="F26" s="289"/>
+      <c r="G26" s="285"/>
+      <c r="H26" s="290"/>
+      <c r="I26" s="286"/>
+      <c r="J26" s="291"/>
+      <c r="K26" s="292"/>
+      <c r="L26" s="292"/>
+      <c r="M26" s="292"/>
+      <c r="N26" s="292"/>
+      <c r="O26" s="292"/>
+      <c r="P26" s="293"/>
+      <c r="Q26" s="294"/>
+      <c r="R26" s="295"/>
+      <c r="S26" s="295"/>
+      <c r="T26" s="295"/>
+      <c r="U26" s="295"/>
+      <c r="V26" s="295"/>
+      <c r="W26" s="295"/>
+      <c r="X26" s="295"/>
+      <c r="Y26" s="295"/>
+      <c r="Z26" s="295"/>
+      <c r="AA26" s="295"/>
+      <c r="AB26" s="295"/>
+      <c r="AC26" s="295"/>
+      <c r="AD26" s="295"/>
+      <c r="AE26" s="296"/>
+      <c r="AF26" s="291"/>
+      <c r="AG26" s="292"/>
+      <c r="AH26" s="292"/>
+      <c r="AI26" s="293"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="322"/>
-      <c r="C27" s="323"/>
-      <c r="D27" s="324"/>
-      <c r="E27" s="325"/>
-      <c r="F27" s="326"/>
-      <c r="G27" s="322"/>
-      <c r="H27" s="327"/>
-      <c r="I27" s="323"/>
-      <c r="J27" s="328"/>
-      <c r="K27" s="329"/>
-      <c r="L27" s="329"/>
-      <c r="M27" s="329"/>
-      <c r="N27" s="329"/>
-      <c r="O27" s="329"/>
-      <c r="P27" s="330"/>
-      <c r="Q27" s="331"/>
-      <c r="R27" s="332"/>
-      <c r="S27" s="332"/>
-      <c r="T27" s="332"/>
-      <c r="U27" s="332"/>
-      <c r="V27" s="332"/>
-      <c r="W27" s="332"/>
-      <c r="X27" s="332"/>
-      <c r="Y27" s="332"/>
-      <c r="Z27" s="332"/>
-      <c r="AA27" s="332"/>
-      <c r="AB27" s="332"/>
-      <c r="AC27" s="332"/>
-      <c r="AD27" s="332"/>
-      <c r="AE27" s="333"/>
-      <c r="AF27" s="328"/>
-      <c r="AG27" s="329"/>
-      <c r="AH27" s="329"/>
-      <c r="AI27" s="330"/>
+      <c r="B27" s="285"/>
+      <c r="C27" s="286"/>
+      <c r="D27" s="287"/>
+      <c r="E27" s="288"/>
+      <c r="F27" s="289"/>
+      <c r="G27" s="285"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="286"/>
+      <c r="J27" s="291"/>
+      <c r="K27" s="292"/>
+      <c r="L27" s="292"/>
+      <c r="M27" s="292"/>
+      <c r="N27" s="292"/>
+      <c r="O27" s="292"/>
+      <c r="P27" s="293"/>
+      <c r="Q27" s="294"/>
+      <c r="R27" s="295"/>
+      <c r="S27" s="295"/>
+      <c r="T27" s="295"/>
+      <c r="U27" s="295"/>
+      <c r="V27" s="295"/>
+      <c r="W27" s="295"/>
+      <c r="X27" s="295"/>
+      <c r="Y27" s="295"/>
+      <c r="Z27" s="295"/>
+      <c r="AA27" s="295"/>
+      <c r="AB27" s="295"/>
+      <c r="AC27" s="295"/>
+      <c r="AD27" s="295"/>
+      <c r="AE27" s="296"/>
+      <c r="AF27" s="291"/>
+      <c r="AG27" s="292"/>
+      <c r="AH27" s="292"/>
+      <c r="AI27" s="293"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="322"/>
-      <c r="C28" s="323"/>
-      <c r="D28" s="324"/>
-      <c r="E28" s="325"/>
-      <c r="F28" s="326"/>
-      <c r="G28" s="322"/>
-      <c r="H28" s="327"/>
-      <c r="I28" s="323"/>
-      <c r="J28" s="328"/>
-      <c r="K28" s="329"/>
-      <c r="L28" s="329"/>
-      <c r="M28" s="329"/>
-      <c r="N28" s="329"/>
-      <c r="O28" s="329"/>
-      <c r="P28" s="330"/>
-      <c r="Q28" s="331"/>
-      <c r="R28" s="332"/>
-      <c r="S28" s="332"/>
-      <c r="T28" s="332"/>
-      <c r="U28" s="332"/>
-      <c r="V28" s="332"/>
-      <c r="W28" s="332"/>
-      <c r="X28" s="332"/>
-      <c r="Y28" s="332"/>
-      <c r="Z28" s="332"/>
-      <c r="AA28" s="332"/>
-      <c r="AB28" s="332"/>
-      <c r="AC28" s="332"/>
-      <c r="AD28" s="332"/>
-      <c r="AE28" s="333"/>
-      <c r="AF28" s="328"/>
-      <c r="AG28" s="329"/>
-      <c r="AH28" s="329"/>
-      <c r="AI28" s="330"/>
+      <c r="B28" s="285"/>
+      <c r="C28" s="286"/>
+      <c r="D28" s="287"/>
+      <c r="E28" s="288"/>
+      <c r="F28" s="289"/>
+      <c r="G28" s="285"/>
+      <c r="H28" s="290"/>
+      <c r="I28" s="286"/>
+      <c r="J28" s="291"/>
+      <c r="K28" s="292"/>
+      <c r="L28" s="292"/>
+      <c r="M28" s="292"/>
+      <c r="N28" s="292"/>
+      <c r="O28" s="292"/>
+      <c r="P28" s="293"/>
+      <c r="Q28" s="294"/>
+      <c r="R28" s="295"/>
+      <c r="S28" s="295"/>
+      <c r="T28" s="295"/>
+      <c r="U28" s="295"/>
+      <c r="V28" s="295"/>
+      <c r="W28" s="295"/>
+      <c r="X28" s="295"/>
+      <c r="Y28" s="295"/>
+      <c r="Z28" s="295"/>
+      <c r="AA28" s="295"/>
+      <c r="AB28" s="295"/>
+      <c r="AC28" s="295"/>
+      <c r="AD28" s="295"/>
+      <c r="AE28" s="296"/>
+      <c r="AF28" s="291"/>
+      <c r="AG28" s="292"/>
+      <c r="AH28" s="292"/>
+      <c r="AI28" s="293"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="322"/>
-      <c r="C29" s="323"/>
-      <c r="D29" s="324"/>
-      <c r="E29" s="325"/>
-      <c r="F29" s="326"/>
-      <c r="G29" s="322"/>
-      <c r="H29" s="327"/>
-      <c r="I29" s="323"/>
-      <c r="J29" s="328"/>
-      <c r="K29" s="329"/>
-      <c r="L29" s="329"/>
-      <c r="M29" s="329"/>
-      <c r="N29" s="329"/>
-      <c r="O29" s="329"/>
-      <c r="P29" s="330"/>
-      <c r="Q29" s="331"/>
-      <c r="R29" s="332"/>
-      <c r="S29" s="332"/>
-      <c r="T29" s="332"/>
-      <c r="U29" s="332"/>
-      <c r="V29" s="332"/>
-      <c r="W29" s="332"/>
-      <c r="X29" s="332"/>
-      <c r="Y29" s="332"/>
-      <c r="Z29" s="332"/>
-      <c r="AA29" s="332"/>
-      <c r="AB29" s="332"/>
-      <c r="AC29" s="332"/>
-      <c r="AD29" s="332"/>
-      <c r="AE29" s="333"/>
-      <c r="AF29" s="328"/>
-      <c r="AG29" s="329"/>
-      <c r="AH29" s="329"/>
-      <c r="AI29" s="330"/>
+      <c r="B29" s="285"/>
+      <c r="C29" s="286"/>
+      <c r="D29" s="287"/>
+      <c r="E29" s="288"/>
+      <c r="F29" s="289"/>
+      <c r="G29" s="285"/>
+      <c r="H29" s="290"/>
+      <c r="I29" s="286"/>
+      <c r="J29" s="291"/>
+      <c r="K29" s="292"/>
+      <c r="L29" s="292"/>
+      <c r="M29" s="292"/>
+      <c r="N29" s="292"/>
+      <c r="O29" s="292"/>
+      <c r="P29" s="293"/>
+      <c r="Q29" s="294"/>
+      <c r="R29" s="295"/>
+      <c r="S29" s="295"/>
+      <c r="T29" s="295"/>
+      <c r="U29" s="295"/>
+      <c r="V29" s="295"/>
+      <c r="W29" s="295"/>
+      <c r="X29" s="295"/>
+      <c r="Y29" s="295"/>
+      <c r="Z29" s="295"/>
+      <c r="AA29" s="295"/>
+      <c r="AB29" s="295"/>
+      <c r="AC29" s="295"/>
+      <c r="AD29" s="295"/>
+      <c r="AE29" s="296"/>
+      <c r="AF29" s="291"/>
+      <c r="AG29" s="292"/>
+      <c r="AH29" s="292"/>
+      <c r="AI29" s="293"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="322"/>
-      <c r="C30" s="323"/>
-      <c r="D30" s="324"/>
-      <c r="E30" s="325"/>
-      <c r="F30" s="326"/>
-      <c r="G30" s="322"/>
-      <c r="H30" s="327"/>
-      <c r="I30" s="323"/>
-      <c r="J30" s="328"/>
-      <c r="K30" s="329"/>
-      <c r="L30" s="329"/>
-      <c r="M30" s="329"/>
-      <c r="N30" s="329"/>
-      <c r="O30" s="329"/>
-      <c r="P30" s="330"/>
-      <c r="Q30" s="331"/>
-      <c r="R30" s="332"/>
-      <c r="S30" s="332"/>
-      <c r="T30" s="332"/>
-      <c r="U30" s="332"/>
-      <c r="V30" s="332"/>
-      <c r="W30" s="332"/>
-      <c r="X30" s="332"/>
-      <c r="Y30" s="332"/>
-      <c r="Z30" s="332"/>
-      <c r="AA30" s="332"/>
-      <c r="AB30" s="332"/>
-      <c r="AC30" s="332"/>
-      <c r="AD30" s="332"/>
-      <c r="AE30" s="333"/>
-      <c r="AF30" s="328"/>
-      <c r="AG30" s="329"/>
-      <c r="AH30" s="329"/>
-      <c r="AI30" s="330"/>
+      <c r="B30" s="285"/>
+      <c r="C30" s="286"/>
+      <c r="D30" s="287"/>
+      <c r="E30" s="288"/>
+      <c r="F30" s="289"/>
+      <c r="G30" s="285"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="286"/>
+      <c r="J30" s="291"/>
+      <c r="K30" s="292"/>
+      <c r="L30" s="292"/>
+      <c r="M30" s="292"/>
+      <c r="N30" s="292"/>
+      <c r="O30" s="292"/>
+      <c r="P30" s="293"/>
+      <c r="Q30" s="294"/>
+      <c r="R30" s="295"/>
+      <c r="S30" s="295"/>
+      <c r="T30" s="295"/>
+      <c r="U30" s="295"/>
+      <c r="V30" s="295"/>
+      <c r="W30" s="295"/>
+      <c r="X30" s="295"/>
+      <c r="Y30" s="295"/>
+      <c r="Z30" s="295"/>
+      <c r="AA30" s="295"/>
+      <c r="AB30" s="295"/>
+      <c r="AC30" s="295"/>
+      <c r="AD30" s="295"/>
+      <c r="AE30" s="296"/>
+      <c r="AF30" s="291"/>
+      <c r="AG30" s="292"/>
+      <c r="AH30" s="292"/>
+      <c r="AI30" s="293"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="322"/>
-      <c r="C31" s="323"/>
-      <c r="D31" s="324"/>
-      <c r="E31" s="325"/>
-      <c r="F31" s="326"/>
-      <c r="G31" s="322"/>
-      <c r="H31" s="327"/>
-      <c r="I31" s="323"/>
-      <c r="J31" s="328"/>
-      <c r="K31" s="329"/>
-      <c r="L31" s="329"/>
-      <c r="M31" s="329"/>
-      <c r="N31" s="329"/>
-      <c r="O31" s="329"/>
-      <c r="P31" s="330"/>
-      <c r="Q31" s="331"/>
-      <c r="R31" s="332"/>
-      <c r="S31" s="332"/>
-      <c r="T31" s="332"/>
-      <c r="U31" s="332"/>
-      <c r="V31" s="332"/>
-      <c r="W31" s="332"/>
-      <c r="X31" s="332"/>
-      <c r="Y31" s="332"/>
-      <c r="Z31" s="332"/>
-      <c r="AA31" s="332"/>
-      <c r="AB31" s="332"/>
-      <c r="AC31" s="332"/>
-      <c r="AD31" s="332"/>
-      <c r="AE31" s="333"/>
-      <c r="AF31" s="328"/>
-      <c r="AG31" s="329"/>
-      <c r="AH31" s="329"/>
-      <c r="AI31" s="330"/>
+      <c r="B31" s="285"/>
+      <c r="C31" s="286"/>
+      <c r="D31" s="287"/>
+      <c r="E31" s="288"/>
+      <c r="F31" s="289"/>
+      <c r="G31" s="285"/>
+      <c r="H31" s="290"/>
+      <c r="I31" s="286"/>
+      <c r="J31" s="291"/>
+      <c r="K31" s="292"/>
+      <c r="L31" s="292"/>
+      <c r="M31" s="292"/>
+      <c r="N31" s="292"/>
+      <c r="O31" s="292"/>
+      <c r="P31" s="293"/>
+      <c r="Q31" s="294"/>
+      <c r="R31" s="295"/>
+      <c r="S31" s="295"/>
+      <c r="T31" s="295"/>
+      <c r="U31" s="295"/>
+      <c r="V31" s="295"/>
+      <c r="W31" s="295"/>
+      <c r="X31" s="295"/>
+      <c r="Y31" s="295"/>
+      <c r="Z31" s="295"/>
+      <c r="AA31" s="295"/>
+      <c r="AB31" s="295"/>
+      <c r="AC31" s="295"/>
+      <c r="AD31" s="295"/>
+      <c r="AE31" s="296"/>
+      <c r="AF31" s="291"/>
+      <c r="AG31" s="292"/>
+      <c r="AH31" s="292"/>
+      <c r="AI31" s="293"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="322"/>
-      <c r="C32" s="323"/>
-      <c r="D32" s="324"/>
-      <c r="E32" s="325"/>
-      <c r="F32" s="326"/>
-      <c r="G32" s="322"/>
-      <c r="H32" s="327"/>
-      <c r="I32" s="323"/>
-      <c r="J32" s="328"/>
-      <c r="K32" s="347"/>
-      <c r="L32" s="329"/>
-      <c r="M32" s="329"/>
-      <c r="N32" s="329"/>
-      <c r="O32" s="329"/>
-      <c r="P32" s="330"/>
-      <c r="Q32" s="331"/>
-      <c r="R32" s="332"/>
-      <c r="S32" s="332"/>
-      <c r="T32" s="332"/>
-      <c r="U32" s="332"/>
-      <c r="V32" s="332"/>
-      <c r="W32" s="332"/>
-      <c r="X32" s="332"/>
-      <c r="Y32" s="332"/>
-      <c r="Z32" s="332"/>
-      <c r="AA32" s="332"/>
-      <c r="AB32" s="332"/>
-      <c r="AC32" s="332"/>
-      <c r="AD32" s="332"/>
-      <c r="AE32" s="333"/>
-      <c r="AF32" s="328"/>
-      <c r="AG32" s="329"/>
-      <c r="AH32" s="329"/>
-      <c r="AI32" s="330"/>
+      <c r="B32" s="285"/>
+      <c r="C32" s="286"/>
+      <c r="D32" s="287"/>
+      <c r="E32" s="288"/>
+      <c r="F32" s="289"/>
+      <c r="G32" s="285"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="286"/>
+      <c r="J32" s="291"/>
+      <c r="K32" s="297"/>
+      <c r="L32" s="292"/>
+      <c r="M32" s="292"/>
+      <c r="N32" s="292"/>
+      <c r="O32" s="292"/>
+      <c r="P32" s="293"/>
+      <c r="Q32" s="294"/>
+      <c r="R32" s="295"/>
+      <c r="S32" s="295"/>
+      <c r="T32" s="295"/>
+      <c r="U32" s="295"/>
+      <c r="V32" s="295"/>
+      <c r="W32" s="295"/>
+      <c r="X32" s="295"/>
+      <c r="Y32" s="295"/>
+      <c r="Z32" s="295"/>
+      <c r="AA32" s="295"/>
+      <c r="AB32" s="295"/>
+      <c r="AC32" s="295"/>
+      <c r="AD32" s="295"/>
+      <c r="AE32" s="296"/>
+      <c r="AF32" s="291"/>
+      <c r="AG32" s="292"/>
+      <c r="AH32" s="292"/>
+      <c r="AI32" s="293"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="322"/>
-      <c r="C33" s="323"/>
-      <c r="D33" s="324"/>
-      <c r="E33" s="325"/>
-      <c r="F33" s="326"/>
-      <c r="G33" s="322"/>
-      <c r="H33" s="327"/>
-      <c r="I33" s="323"/>
-      <c r="J33" s="328"/>
-      <c r="K33" s="329"/>
-      <c r="L33" s="329"/>
-      <c r="M33" s="329"/>
-      <c r="N33" s="329"/>
-      <c r="O33" s="329"/>
-      <c r="P33" s="330"/>
-      <c r="Q33" s="331"/>
-      <c r="R33" s="332"/>
-      <c r="S33" s="332"/>
-      <c r="T33" s="332"/>
-      <c r="U33" s="332"/>
-      <c r="V33" s="332"/>
-      <c r="W33" s="332"/>
-      <c r="X33" s="332"/>
-      <c r="Y33" s="332"/>
-      <c r="Z33" s="332"/>
-      <c r="AA33" s="332"/>
-      <c r="AB33" s="332"/>
-      <c r="AC33" s="332"/>
-      <c r="AD33" s="332"/>
-      <c r="AE33" s="333"/>
-      <c r="AF33" s="328"/>
-      <c r="AG33" s="329"/>
-      <c r="AH33" s="329"/>
-      <c r="AI33" s="330"/>
+      <c r="B33" s="285"/>
+      <c r="C33" s="286"/>
+      <c r="D33" s="287"/>
+      <c r="E33" s="288"/>
+      <c r="F33" s="289"/>
+      <c r="G33" s="285"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="286"/>
+      <c r="J33" s="291"/>
+      <c r="K33" s="292"/>
+      <c r="L33" s="292"/>
+      <c r="M33" s="292"/>
+      <c r="N33" s="292"/>
+      <c r="O33" s="292"/>
+      <c r="P33" s="293"/>
+      <c r="Q33" s="294"/>
+      <c r="R33" s="295"/>
+      <c r="S33" s="295"/>
+      <c r="T33" s="295"/>
+      <c r="U33" s="295"/>
+      <c r="V33" s="295"/>
+      <c r="W33" s="295"/>
+      <c r="X33" s="295"/>
+      <c r="Y33" s="295"/>
+      <c r="Z33" s="295"/>
+      <c r="AA33" s="295"/>
+      <c r="AB33" s="295"/>
+      <c r="AC33" s="295"/>
+      <c r="AD33" s="295"/>
+      <c r="AE33" s="296"/>
+      <c r="AF33" s="291"/>
+      <c r="AG33" s="292"/>
+      <c r="AH33" s="292"/>
+      <c r="AI33" s="293"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13273,6 +13117,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -14368,7 +14368,7 @@
       <c r="B37" s="183"/>
       <c r="C37" s="183"/>
       <c r="D37" s="186"/>
-      <c r="E37" s="237"/>
+      <c r="E37" s="236"/>
       <c r="F37" s="146" t="s">
         <v>87</v>
       </c>
@@ -14400,7 +14400,7 @@
       <c r="B38" s="183"/>
       <c r="C38" s="183"/>
       <c r="D38" s="186"/>
-      <c r="E38" s="237"/>
+      <c r="E38" s="236"/>
       <c r="F38" s="185" t="s">
         <v>88</v>
       </c>
@@ -14466,7 +14466,7 @@
       <c r="D40" s="186" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="237" t="s">
+      <c r="E40" s="236" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="146" t="s">
@@ -17017,11 +17017,11 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="348" t="s">
+      <c r="B112" s="347" t="s">
         <v>194</v>
       </c>
       <c r="C112" s="186"/>
-      <c r="D112" s="237"/>
+      <c r="D112" s="236"/>
       <c r="E112" s="207"/>
       <c r="F112" s="146" t="s">
         <v>195</v>
@@ -17051,9 +17051,9 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="348"/>
+      <c r="B113" s="347"/>
       <c r="C113" s="186"/>
-      <c r="D113" s="237"/>
+      <c r="D113" s="236"/>
       <c r="E113" s="207"/>
       <c r="F113" s="146" t="s">
         <v>196</v>
@@ -17085,7 +17085,7 @@
       </c>
       <c r="B114" s="207"/>
       <c r="C114" s="186"/>
-      <c r="D114" s="237"/>
+      <c r="D114" s="236"/>
       <c r="E114" s="188"/>
       <c r="F114" s="146" t="s">
         <v>197</v>
@@ -17117,8 +17117,8 @@
       </c>
       <c r="B115" s="207"/>
       <c r="C115" s="186"/>
-      <c r="D115" s="237"/>
-      <c r="E115" s="237" t="s">
+      <c r="D115" s="236"/>
+      <c r="E115" s="236" t="s">
         <v>136</v>
       </c>
       <c r="F115" s="146" t="s">
@@ -17151,8 +17151,8 @@
       </c>
       <c r="B116" s="207"/>
       <c r="C116" s="186"/>
-      <c r="D116" s="237"/>
-      <c r="E116" s="237"/>
+      <c r="D116" s="236"/>
+      <c r="E116" s="236"/>
       <c r="F116" s="146" t="s">
         <v>199</v>
       </c>
@@ -17183,8 +17183,8 @@
       </c>
       <c r="B117" s="207"/>
       <c r="C117" s="186"/>
-      <c r="D117" s="237"/>
-      <c r="E117" s="237"/>
+      <c r="D117" s="236"/>
+      <c r="E117" s="236"/>
       <c r="F117" s="146" t="s">
         <v>200</v>
       </c>
@@ -17215,8 +17215,8 @@
       </c>
       <c r="B118" s="207"/>
       <c r="C118" s="186"/>
-      <c r="D118" s="237"/>
-      <c r="E118" s="237"/>
+      <c r="D118" s="236"/>
+      <c r="E118" s="236"/>
       <c r="F118" s="146" t="s">
         <v>201</v>
       </c>
@@ -17247,7 +17247,7 @@
       </c>
       <c r="B119" s="207"/>
       <c r="C119" s="186"/>
-      <c r="D119" s="237"/>
+      <c r="D119" s="236"/>
       <c r="E119" s="188"/>
       <c r="F119" s="154" t="s">
         <v>202</v>
@@ -17281,8 +17281,8 @@
       </c>
       <c r="B120" s="207"/>
       <c r="C120" s="186"/>
-      <c r="D120" s="237"/>
-      <c r="E120" s="237" t="s">
+      <c r="D120" s="236"/>
+      <c r="E120" s="236" t="s">
         <v>203</v>
       </c>
       <c r="F120" s="146" t="s">
@@ -17315,8 +17315,8 @@
       </c>
       <c r="B121" s="207"/>
       <c r="C121" s="186"/>
-      <c r="D121" s="237"/>
-      <c r="E121" s="237"/>
+      <c r="D121" s="236"/>
+      <c r="E121" s="236"/>
       <c r="F121" s="146" t="s">
         <v>205</v>
       </c>
@@ -17347,8 +17347,8 @@
       </c>
       <c r="B122" s="207"/>
       <c r="C122" s="186"/>
-      <c r="D122" s="237"/>
-      <c r="E122" s="237"/>
+      <c r="D122" s="236"/>
+      <c r="E122" s="236"/>
       <c r="F122" s="154" t="s">
         <v>206</v>
       </c>
@@ -17381,8 +17381,8 @@
       </c>
       <c r="B123" s="207"/>
       <c r="C123" s="186"/>
-      <c r="D123" s="237"/>
-      <c r="E123" s="237"/>
+      <c r="D123" s="236"/>
+      <c r="E123" s="236"/>
       <c r="F123" s="154" t="s">
         <v>207</v>
       </c>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="B124" s="207"/>
       <c r="C124" s="186"/>
-      <c r="D124" s="237"/>
+      <c r="D124" s="236"/>
       <c r="E124" s="188"/>
       <c r="F124" s="154" t="s">
         <v>208</v>
@@ -17518,10 +17518,10 @@
         <v>48-1-1</v>
       </c>
       <c r="B127" s="207"/>
-      <c r="C127" s="237" t="s">
+      <c r="C127" s="236" t="s">
         <v>44</v>
       </c>
-      <c r="D127" s="237" t="s">
+      <c r="D127" s="236" t="s">
         <v>212</v>
       </c>
       <c r="E127" s="154" t="s">
@@ -17558,9 +17558,9 @@
         <v>49-1-1</v>
       </c>
       <c r="B128" s="207"/>
-      <c r="C128" s="237"/>
-      <c r="D128" s="237"/>
-      <c r="E128" s="237" t="s">
+      <c r="C128" s="236"/>
+      <c r="D128" s="236"/>
+      <c r="E128" s="236" t="s">
         <v>215</v>
       </c>
       <c r="F128" s="146" t="s">
@@ -17592,9 +17592,9 @@
         <v>49-2-1</v>
       </c>
       <c r="B129" s="207"/>
-      <c r="C129" s="237"/>
-      <c r="D129" s="237"/>
-      <c r="E129" s="237"/>
+      <c r="C129" s="236"/>
+      <c r="D129" s="236"/>
+      <c r="E129" s="236"/>
       <c r="F129" s="146" t="s">
         <v>217</v>
       </c>
@@ -17697,7 +17697,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="348" t="s">
+      <c r="B132" s="347" t="s">
         <v>221</v>
       </c>
       <c r="C132" s="186"/>
@@ -17733,7 +17733,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="348"/>
+      <c r="B133" s="347"/>
       <c r="C133" s="186"/>
       <c r="D133" s="174"/>
       <c r="E133" s="174"/>
@@ -17911,7 +17911,7 @@
       <c r="C138" s="186" t="s">
         <v>229</v>
       </c>
-      <c r="D138" s="237" t="s">
+      <c r="D138" s="236" t="s">
         <v>212</v>
       </c>
       <c r="E138" s="146" t="s">
@@ -17947,7 +17947,7 @@
       </c>
       <c r="B139" s="207"/>
       <c r="C139" s="186"/>
-      <c r="D139" s="237"/>
+      <c r="D139" s="236"/>
       <c r="E139" s="146" t="s">
         <v>232</v>
       </c>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="B140" s="207"/>
       <c r="C140" s="186"/>
-      <c r="D140" s="237"/>
+      <c r="D140" s="236"/>
       <c r="E140" s="146" t="s">
         <v>234</v>
       </c>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="B141" s="207"/>
       <c r="C141" s="186"/>
-      <c r="D141" s="237"/>
+      <c r="D141" s="236"/>
       <c r="E141" s="154" t="s">
         <v>213</v>
       </c>
@@ -18051,7 +18051,7 @@
       </c>
       <c r="B142" s="207"/>
       <c r="C142" s="186"/>
-      <c r="D142" s="237"/>
+      <c r="D142" s="236"/>
       <c r="E142" s="146" t="s">
         <v>237</v>
       </c>
@@ -18085,7 +18085,7 @@
       </c>
       <c r="B143" s="207"/>
       <c r="C143" s="186"/>
-      <c r="D143" s="237"/>
+      <c r="D143" s="236"/>
       <c r="E143" s="210" t="s">
         <v>239</v>
       </c>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="B144" s="207"/>
       <c r="C144" s="186"/>
-      <c r="D144" s="237"/>
+      <c r="D144" s="236"/>
       <c r="E144" s="210"/>
       <c r="F144" s="154" t="s">
         <v>241</v>
@@ -18155,7 +18155,7 @@
       </c>
       <c r="B145" s="207"/>
       <c r="C145" s="186"/>
-      <c r="D145" s="237"/>
+      <c r="D145" s="236"/>
       <c r="E145" s="210"/>
       <c r="F145" s="154" t="s">
         <v>242</v>
@@ -18189,7 +18189,7 @@
       </c>
       <c r="B146" s="207"/>
       <c r="C146" s="186"/>
-      <c r="D146" s="237"/>
+      <c r="D146" s="236"/>
       <c r="E146" s="210"/>
       <c r="F146" s="154" t="s">
         <v>243</v>
@@ -18223,7 +18223,7 @@
       </c>
       <c r="B147" s="207"/>
       <c r="C147" s="186"/>
-      <c r="D147" s="237"/>
+      <c r="D147" s="236"/>
       <c r="E147" s="210"/>
       <c r="F147" s="154" t="s">
         <v>244</v>
@@ -18291,7 +18291,7 @@
       </c>
       <c r="B149" s="207"/>
       <c r="C149" s="186"/>
-      <c r="D149" s="237" t="s">
+      <c r="D149" s="236" t="s">
         <v>246</v>
       </c>
       <c r="E149" s="207" t="s">
@@ -18327,7 +18327,7 @@
       </c>
       <c r="B150" s="207"/>
       <c r="C150" s="186"/>
-      <c r="D150" s="237"/>
+      <c r="D150" s="236"/>
       <c r="E150" s="188"/>
       <c r="F150" s="146" t="s">
         <v>248</v>
@@ -18359,8 +18359,8 @@
       </c>
       <c r="B151" s="207"/>
       <c r="C151" s="186"/>
-      <c r="D151" s="237"/>
-      <c r="E151" s="237" t="s">
+      <c r="D151" s="236"/>
+      <c r="E151" s="236" t="s">
         <v>125</v>
       </c>
       <c r="F151" s="146" t="s">
@@ -18393,7 +18393,7 @@
       </c>
       <c r="B152" s="207"/>
       <c r="C152" s="186"/>
-      <c r="D152" s="237"/>
+      <c r="D152" s="236"/>
       <c r="E152" s="207"/>
       <c r="F152" s="146" t="s">
         <v>250</v>
@@ -18425,7 +18425,7 @@
       </c>
       <c r="B153" s="207"/>
       <c r="C153" s="186"/>
-      <c r="D153" s="237"/>
+      <c r="D153" s="236"/>
       <c r="E153" s="207"/>
       <c r="F153" s="146" t="s">
         <v>251</v>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="B154" s="207"/>
       <c r="C154" s="186"/>
-      <c r="D154" s="237"/>
+      <c r="D154" s="236"/>
       <c r="E154" s="207"/>
       <c r="F154" s="146" t="s">
         <v>252</v>
@@ -18489,7 +18489,7 @@
       </c>
       <c r="B155" s="207"/>
       <c r="C155" s="186"/>
-      <c r="D155" s="237"/>
+      <c r="D155" s="236"/>
       <c r="E155" s="207"/>
       <c r="F155" s="146" t="s">
         <v>253</v>
@@ -18521,7 +18521,7 @@
       </c>
       <c r="B156" s="207"/>
       <c r="C156" s="186"/>
-      <c r="D156" s="237"/>
+      <c r="D156" s="236"/>
       <c r="E156" s="207"/>
       <c r="F156" s="146" t="s">
         <v>254</v>
@@ -18553,7 +18553,7 @@
       </c>
       <c r="B157" s="207"/>
       <c r="C157" s="186"/>
-      <c r="D157" s="237"/>
+      <c r="D157" s="236"/>
       <c r="E157" s="207"/>
       <c r="F157" s="146" t="s">
         <v>255</v>
@@ -18585,7 +18585,7 @@
       </c>
       <c r="B158" s="207"/>
       <c r="C158" s="186"/>
-      <c r="D158" s="237"/>
+      <c r="D158" s="236"/>
       <c r="E158" s="207"/>
       <c r="F158" s="146" t="s">
         <v>256</v>
@@ -18617,7 +18617,7 @@
       </c>
       <c r="B159" s="207"/>
       <c r="C159" s="186"/>
-      <c r="D159" s="237"/>
+      <c r="D159" s="236"/>
       <c r="E159" s="207"/>
       <c r="F159" s="146" t="s">
         <v>257</v>
@@ -18649,7 +18649,7 @@
       </c>
       <c r="B160" s="207"/>
       <c r="C160" s="186"/>
-      <c r="D160" s="237"/>
+      <c r="D160" s="236"/>
       <c r="E160" s="207"/>
       <c r="F160" s="146" t="s">
         <v>258</v>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="B161" s="207"/>
       <c r="C161" s="186"/>
-      <c r="D161" s="237"/>
+      <c r="D161" s="236"/>
       <c r="E161" s="188"/>
       <c r="F161" s="146" t="s">
         <v>259</v>
@@ -18713,8 +18713,8 @@
       </c>
       <c r="B162" s="207"/>
       <c r="C162" s="186"/>
-      <c r="D162" s="237"/>
-      <c r="E162" s="237" t="s">
+      <c r="D162" s="236"/>
+      <c r="E162" s="236" t="s">
         <v>59</v>
       </c>
       <c r="F162" s="146" t="s">
@@ -18747,8 +18747,8 @@
       </c>
       <c r="B163" s="207"/>
       <c r="C163" s="186"/>
-      <c r="D163" s="237"/>
-      <c r="E163" s="237"/>
+      <c r="D163" s="236"/>
+      <c r="E163" s="236"/>
       <c r="F163" s="146" t="s">
         <v>261</v>
       </c>
@@ -18779,8 +18779,8 @@
       </c>
       <c r="B164" s="207"/>
       <c r="C164" s="186"/>
-      <c r="D164" s="237"/>
-      <c r="E164" s="237"/>
+      <c r="D164" s="236"/>
+      <c r="E164" s="236"/>
       <c r="F164" s="146" t="s">
         <v>262</v>
       </c>
@@ -18811,8 +18811,8 @@
       </c>
       <c r="B165" s="207"/>
       <c r="C165" s="186"/>
-      <c r="D165" s="237"/>
-      <c r="E165" s="237"/>
+      <c r="D165" s="236"/>
+      <c r="E165" s="236"/>
       <c r="F165" s="146" t="s">
         <v>263</v>
       </c>
@@ -18843,8 +18843,8 @@
       </c>
       <c r="B166" s="207"/>
       <c r="C166" s="186"/>
-      <c r="D166" s="237"/>
-      <c r="E166" s="237"/>
+      <c r="D166" s="236"/>
+      <c r="E166" s="236"/>
       <c r="F166" s="146" t="s">
         <v>264</v>
       </c>
@@ -18875,8 +18875,8 @@
       </c>
       <c r="B167" s="207"/>
       <c r="C167" s="186"/>
-      <c r="D167" s="237"/>
-      <c r="E167" s="237"/>
+      <c r="D167" s="236"/>
+      <c r="E167" s="236"/>
       <c r="F167" s="154" t="s">
         <v>265</v>
       </c>
@@ -18907,9 +18907,9 @@
 )</f>
         <v>61-7-1</v>
       </c>
-      <c r="B168" s="237"/>
+      <c r="B168" s="236"/>
       <c r="C168" s="186"/>
-      <c r="D168" s="237"/>
+      <c r="D168" s="236"/>
       <c r="E168" s="188"/>
       <c r="F168" s="154" t="s">
         <v>266</v>
@@ -18941,9 +18941,9 @@
 )</f>
         <v>62-1-1</v>
       </c>
-      <c r="B169" s="237"/>
+      <c r="B169" s="236"/>
       <c r="C169" s="186"/>
-      <c r="D169" s="237"/>
+      <c r="D169" s="236"/>
       <c r="E169" s="185" t="s">
         <v>203</v>
       </c>
@@ -18977,8 +18977,8 @@
       </c>
       <c r="B170" s="207"/>
       <c r="C170" s="186"/>
-      <c r="D170" s="237"/>
-      <c r="E170" s="237"/>
+      <c r="D170" s="236"/>
+      <c r="E170" s="236"/>
       <c r="F170" s="146" t="s">
         <v>268</v>
       </c>
@@ -19009,8 +19009,8 @@
       </c>
       <c r="B171" s="207"/>
       <c r="C171" s="186"/>
-      <c r="D171" s="237"/>
-      <c r="E171" s="237"/>
+      <c r="D171" s="236"/>
+      <c r="E171" s="236"/>
       <c r="F171" s="146" t="s">
         <v>269</v>
       </c>
@@ -19041,8 +19041,8 @@
       </c>
       <c r="B172" s="207"/>
       <c r="C172" s="186"/>
-      <c r="D172" s="237"/>
-      <c r="E172" s="237"/>
+      <c r="D172" s="236"/>
+      <c r="E172" s="236"/>
       <c r="F172" s="146" t="s">
         <v>270</v>
       </c>
@@ -19073,8 +19073,8 @@
       </c>
       <c r="B173" s="207"/>
       <c r="C173" s="186"/>
-      <c r="D173" s="237"/>
-      <c r="E173" s="237"/>
+      <c r="D173" s="236"/>
+      <c r="E173" s="236"/>
       <c r="F173" s="146" t="s">
         <v>271</v>
       </c>
@@ -19105,8 +19105,8 @@
       </c>
       <c r="B174" s="207"/>
       <c r="C174" s="186"/>
-      <c r="D174" s="237"/>
-      <c r="E174" s="237"/>
+      <c r="D174" s="236"/>
+      <c r="E174" s="236"/>
       <c r="F174" s="146" t="s">
         <v>272</v>
       </c>
@@ -19137,8 +19137,8 @@
       </c>
       <c r="B175" s="207"/>
       <c r="C175" s="186"/>
-      <c r="D175" s="237"/>
-      <c r="E175" s="237"/>
+      <c r="D175" s="236"/>
+      <c r="E175" s="236"/>
       <c r="F175" s="154" t="s">
         <v>273</v>
       </c>
@@ -19171,8 +19171,8 @@
       </c>
       <c r="B176" s="207"/>
       <c r="C176" s="186"/>
-      <c r="D176" s="237"/>
-      <c r="E176" s="237"/>
+      <c r="D176" s="236"/>
+      <c r="E176" s="236"/>
       <c r="F176" s="154" t="s">
         <v>274</v>
       </c>
@@ -19205,7 +19205,7 @@
       </c>
       <c r="B177" s="207"/>
       <c r="C177" s="186"/>
-      <c r="D177" s="237"/>
+      <c r="D177" s="236"/>
       <c r="E177" s="188"/>
       <c r="F177" s="154" t="s">
         <v>275</v>
@@ -19239,7 +19239,7 @@
       </c>
       <c r="B178" s="207"/>
       <c r="C178" s="186"/>
-      <c r="D178" s="237"/>
+      <c r="D178" s="236"/>
       <c r="E178" s="146" t="s">
         <v>237</v>
       </c>
@@ -22825,8 +22825,8 @@
       </c>
       <c r="B280" s="183"/>
       <c r="C280" s="217"/>
-      <c r="D280" s="237"/>
-      <c r="E280" s="237"/>
+      <c r="D280" s="236"/>
+      <c r="E280" s="236"/>
       <c r="F280" s="146" t="s">
         <v>396</v>
       </c>
@@ -22857,8 +22857,8 @@
       </c>
       <c r="B281" s="183"/>
       <c r="C281" s="217"/>
-      <c r="D281" s="237"/>
-      <c r="E281" s="237"/>
+      <c r="D281" s="236"/>
+      <c r="E281" s="236"/>
       <c r="F281" s="146" t="s">
         <v>397</v>
       </c>
@@ -22920,10 +22920,10 @@
         <v>96-1-1</v>
       </c>
       <c r="B283" s="183"/>
-      <c r="C283" s="237" t="s">
+      <c r="C283" s="236" t="s">
         <v>399</v>
       </c>
-      <c r="D283" s="237" t="s">
+      <c r="D283" s="236" t="s">
         <v>212</v>
       </c>
       <c r="E283" s="146" t="s">
@@ -22959,7 +22959,7 @@
       </c>
       <c r="B284" s="183"/>
       <c r="C284" s="217"/>
-      <c r="D284" s="237"/>
+      <c r="D284" s="236"/>
       <c r="E284" s="188" t="s">
         <v>232</v>
       </c>
@@ -22993,7 +22993,7 @@
       </c>
       <c r="B285" s="183"/>
       <c r="C285" s="217"/>
-      <c r="D285" s="237"/>
+      <c r="D285" s="236"/>
       <c r="E285" s="146" t="s">
         <v>234</v>
       </c>
@@ -23061,10 +23061,10 @@
       </c>
       <c r="B287" s="183"/>
       <c r="C287" s="183"/>
-      <c r="D287" s="237" t="s">
+      <c r="D287" s="236" t="s">
         <v>404</v>
       </c>
-      <c r="E287" s="237" t="s">
+      <c r="E287" s="236" t="s">
         <v>405</v>
       </c>
       <c r="F287" s="146" t="s">
@@ -23098,7 +23098,7 @@
       <c r="B288" s="183"/>
       <c r="C288" s="183"/>
       <c r="D288" s="186"/>
-      <c r="E288" s="237"/>
+      <c r="E288" s="236"/>
       <c r="F288" s="146" t="s">
         <v>407</v>
       </c>
@@ -23130,7 +23130,7 @@
       <c r="B289" s="183"/>
       <c r="C289" s="183"/>
       <c r="D289" s="186"/>
-      <c r="E289" s="237"/>
+      <c r="E289" s="236"/>
       <c r="F289" s="146" t="s">
         <v>408</v>
       </c>
@@ -23162,7 +23162,7 @@
       <c r="B290" s="183"/>
       <c r="C290" s="183"/>
       <c r="D290" s="186"/>
-      <c r="E290" s="237"/>
+      <c r="E290" s="236"/>
       <c r="F290" s="146" t="s">
         <v>250</v>
       </c>
@@ -23194,7 +23194,7 @@
       <c r="B291" s="183"/>
       <c r="C291" s="183"/>
       <c r="D291" s="186"/>
-      <c r="E291" s="237"/>
+      <c r="E291" s="236"/>
       <c r="F291" s="146" t="s">
         <v>251</v>
       </c>
@@ -23226,7 +23226,7 @@
       <c r="B292" s="183"/>
       <c r="C292" s="183"/>
       <c r="D292" s="186"/>
-      <c r="E292" s="237"/>
+      <c r="E292" s="236"/>
       <c r="F292" s="146" t="s">
         <v>252</v>
       </c>
@@ -23258,7 +23258,7 @@
       <c r="B293" s="183"/>
       <c r="C293" s="183"/>
       <c r="D293" s="186"/>
-      <c r="E293" s="237"/>
+      <c r="E293" s="236"/>
       <c r="F293" s="146" t="s">
         <v>409</v>
       </c>
@@ -23290,7 +23290,7 @@
       <c r="B294" s="183"/>
       <c r="C294" s="183"/>
       <c r="D294" s="186"/>
-      <c r="E294" s="237"/>
+      <c r="E294" s="236"/>
       <c r="F294" s="146" t="s">
         <v>410</v>
       </c>
@@ -23545,13 +23545,13 @@
 )</f>
         <v>1-1-1</v>
       </c>
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="238" t="s">
         <v>526</v>
       </c>
-      <c r="C11" s="239" t="s">
+      <c r="C11" s="238" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="240" t="s">
+      <c r="D11" s="239" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="153" t="s">
@@ -23587,10 +23587,10 @@
 )</f>
         <v>2-1-1</v>
       </c>
-      <c r="B12" s="240"/>
-      <c r="C12" s="241"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="242" t="s">
+      <c r="B12" s="239"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="113" t="s">
@@ -23623,12 +23623,12 @@
 )</f>
         <v>3-1-1</v>
       </c>
-      <c r="B13" s="240"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="240" t="s">
+      <c r="B13" s="239"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="239" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="243" t="s">
+      <c r="E13" s="242" t="s">
         <v>493</v>
       </c>
       <c r="F13" s="113" t="s">
@@ -23661,10 +23661,10 @@
 )</f>
         <v>3-2-1</v>
       </c>
-      <c r="B14" s="240"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="240"/>
-      <c r="E14" s="243"/>
+      <c r="B14" s="239"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="242"/>
       <c r="F14" s="113" t="s">
         <v>54</v>
       </c>
@@ -23695,10 +23695,10 @@
 )</f>
         <v>3-3-1</v>
       </c>
-      <c r="B15" s="240"/>
-      <c r="C15" s="241"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="243"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="242"/>
       <c r="F15" s="113" t="s">
         <v>55</v>
       </c>
@@ -23729,10 +23729,10 @@
 )</f>
         <v>3-4-1</v>
       </c>
-      <c r="B16" s="240"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="240"/>
-      <c r="E16" s="243"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="242"/>
       <c r="F16" s="113" t="s">
         <v>56</v>
       </c>
@@ -23763,10 +23763,10 @@
 )</f>
         <v>3-5-1</v>
       </c>
-      <c r="B17" s="240"/>
-      <c r="C17" s="241"/>
-      <c r="D17" s="244"/>
-      <c r="E17" s="242"/>
+      <c r="B17" s="239"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="241"/>
       <c r="F17" s="113" t="s">
         <v>57</v>
       </c>
@@ -23797,12 +23797,12 @@
 )</f>
         <v>4-1-1</v>
       </c>
-      <c r="B18" s="240"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="243" t="s">
+      <c r="B18" s="239"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="242" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="243" t="s">
+      <c r="E18" s="242" t="s">
         <v>59</v>
       </c>
       <c r="F18" s="113" t="s">
@@ -23835,10 +23835,10 @@
 )</f>
         <v>4-2-1</v>
       </c>
-      <c r="B19" s="240"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="243"/>
+      <c r="B19" s="239"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="113" t="s">
         <v>61</v>
       </c>
@@ -23869,10 +23869,10 @@
 )</f>
         <v>4-3-1</v>
       </c>
-      <c r="B20" s="240"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="243"/>
-      <c r="E20" s="242"/>
+      <c r="B20" s="239"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="241"/>
       <c r="F20" s="113" t="s">
         <v>62</v>
       </c>
@@ -23903,10 +23903,10 @@
 )</f>
         <v>5-1-1</v>
       </c>
-      <c r="B21" s="240"/>
-      <c r="C21" s="241"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="243" t="s">
+      <c r="B21" s="239"/>
+      <c r="C21" s="240"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="242" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="113" t="s">
@@ -23939,10 +23939,10 @@
 )</f>
         <v>5-2-1</v>
       </c>
-      <c r="B22" s="240"/>
-      <c r="C22" s="241"/>
-      <c r="D22" s="243"/>
-      <c r="E22" s="243"/>
+      <c r="B22" s="239"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="242"/>
+      <c r="E22" s="242"/>
       <c r="F22" s="113" t="s">
         <v>65</v>
       </c>
@@ -23973,10 +23973,10 @@
 )</f>
         <v>5-3-1</v>
       </c>
-      <c r="B23" s="240"/>
-      <c r="C23" s="241"/>
-      <c r="D23" s="243"/>
-      <c r="E23" s="243"/>
+      <c r="B23" s="239"/>
+      <c r="C23" s="240"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="242"/>
       <c r="F23" s="113" t="s">
         <v>527</v>
       </c>
@@ -24007,10 +24007,10 @@
 )</f>
         <v>5-4-1</v>
       </c>
-      <c r="B24" s="240"/>
-      <c r="C24" s="241"/>
-      <c r="D24" s="244"/>
-      <c r="E24" s="242"/>
+      <c r="B24" s="239"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="241"/>
       <c r="F24" s="113" t="s">
         <v>528</v>
       </c>
@@ -24041,12 +24041,12 @@
 )</f>
         <v>6-1-1</v>
       </c>
-      <c r="B25" s="240"/>
-      <c r="C25" s="241"/>
-      <c r="D25" s="243" t="s">
+      <c r="B25" s="239"/>
+      <c r="C25" s="240"/>
+      <c r="D25" s="242" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="243" t="s">
+      <c r="E25" s="242" t="s">
         <v>493</v>
       </c>
       <c r="F25" s="113" t="s">
@@ -24079,10 +24079,10 @@
 )</f>
         <v>6-2-1</v>
       </c>
-      <c r="B26" s="240"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="242"/>
+      <c r="B26" s="239"/>
+      <c r="C26" s="240"/>
+      <c r="D26" s="243"/>
+      <c r="E26" s="241"/>
       <c r="F26" s="113" t="s">
         <v>70</v>
       </c>
@@ -24113,12 +24113,12 @@
 )</f>
         <v>7-1-1</v>
       </c>
-      <c r="B27" s="240"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="243" t="s">
+      <c r="B27" s="239"/>
+      <c r="C27" s="240"/>
+      <c r="D27" s="242" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="243" t="s">
+      <c r="E27" s="242" t="s">
         <v>72</v>
       </c>
       <c r="F27" s="113" t="s">
@@ -24151,10 +24151,10 @@
 )</f>
         <v>7-2-1</v>
       </c>
-      <c r="B28" s="240"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="243"/>
-      <c r="E28" s="242"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="242"/>
+      <c r="E28" s="241"/>
       <c r="F28" s="113" t="s">
         <v>74</v>
       </c>
@@ -24185,10 +24185,10 @@
 )</f>
         <v>8-1-1</v>
       </c>
-      <c r="B29" s="240"/>
-      <c r="C29" s="241"/>
-      <c r="D29" s="240"/>
-      <c r="E29" s="243" t="s">
+      <c r="B29" s="239"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="242" t="s">
         <v>75</v>
       </c>
       <c r="F29" s="113" t="s">
@@ -24221,10 +24221,10 @@
 )</f>
         <v>8-2-1</v>
       </c>
-      <c r="B30" s="240"/>
-      <c r="C30" s="241"/>
-      <c r="D30" s="243"/>
-      <c r="E30" s="243"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="240"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="242"/>
       <c r="F30" s="113" t="s">
         <v>77</v>
       </c>
@@ -24255,10 +24255,10 @@
 )</f>
         <v>8-3-1</v>
       </c>
-      <c r="B31" s="240"/>
-      <c r="C31" s="241"/>
-      <c r="D31" s="243"/>
-      <c r="E31" s="243"/>
+      <c r="B31" s="239"/>
+      <c r="C31" s="240"/>
+      <c r="D31" s="242"/>
+      <c r="E31" s="242"/>
       <c r="F31" s="113" t="s">
         <v>78</v>
       </c>
@@ -24289,10 +24289,10 @@
 )</f>
         <v>8-4-1</v>
       </c>
-      <c r="B32" s="240"/>
-      <c r="C32" s="241"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="242"/>
+      <c r="B32" s="239"/>
+      <c r="C32" s="240"/>
+      <c r="D32" s="242"/>
+      <c r="E32" s="241"/>
       <c r="F32" s="113" t="s">
         <v>79</v>
       </c>
@@ -24323,10 +24323,10 @@
 )</f>
         <v>9-1-1</v>
       </c>
-      <c r="B33" s="240"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243" t="s">
+      <c r="B33" s="239"/>
+      <c r="C33" s="240"/>
+      <c r="D33" s="242"/>
+      <c r="E33" s="242" t="s">
         <v>529</v>
       </c>
       <c r="F33" s="113" t="s">
@@ -24359,10 +24359,10 @@
 )</f>
         <v>9-2-1</v>
       </c>
-      <c r="B34" s="240"/>
-      <c r="C34" s="241"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="242"/>
+      <c r="B34" s="239"/>
+      <c r="C34" s="240"/>
+      <c r="D34" s="242"/>
+      <c r="E34" s="241"/>
       <c r="F34" s="113" t="s">
         <v>82</v>
       </c>
@@ -24393,10 +24393,10 @@
 )</f>
         <v>10-1-1</v>
       </c>
-      <c r="B35" s="240"/>
-      <c r="C35" s="240"/>
-      <c r="D35" s="243"/>
-      <c r="E35" s="240" t="s">
+      <c r="B35" s="239"/>
+      <c r="C35" s="239"/>
+      <c r="D35" s="242"/>
+      <c r="E35" s="239" t="s">
         <v>83</v>
       </c>
       <c r="F35" s="113" t="s">
@@ -24429,14 +24429,14 @@
 )</f>
         <v>11-1-1</v>
       </c>
-      <c r="B36" s="240"/>
-      <c r="C36" s="245" t="s">
+      <c r="B36" s="239"/>
+      <c r="C36" s="244" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="245" t="s">
+      <c r="D36" s="244" t="s">
         <v>497</v>
       </c>
-      <c r="E36" s="246" t="s">
+      <c r="E36" s="245" t="s">
         <v>497</v>
       </c>
       <c r="F36" s="74" t="s">
@@ -24469,10 +24469,10 @@
 )</f>
         <v>11-2-1</v>
       </c>
-      <c r="B37" s="240"/>
-      <c r="C37" s="247"/>
-      <c r="D37" s="248"/>
-      <c r="E37" s="247"/>
+      <c r="B37" s="239"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="247"/>
+      <c r="E37" s="246"/>
       <c r="F37" s="73" t="s">
         <v>530</v>
       </c>
@@ -24503,10 +24503,10 @@
 )</f>
         <v>11-3-1</v>
       </c>
-      <c r="B38" s="240"/>
-      <c r="C38" s="247"/>
-      <c r="D38" s="248"/>
-      <c r="E38" s="247"/>
+      <c r="B38" s="239"/>
+      <c r="C38" s="246"/>
+      <c r="D38" s="247"/>
+      <c r="E38" s="246"/>
       <c r="F38" s="73" t="s">
         <v>88</v>
       </c>
@@ -24537,10 +24537,10 @@
 )</f>
         <v>11-4-1</v>
       </c>
-      <c r="B39" s="240"/>
-      <c r="C39" s="247"/>
-      <c r="D39" s="249"/>
-      <c r="E39" s="250"/>
+      <c r="B39" s="239"/>
+      <c r="C39" s="246"/>
+      <c r="D39" s="248"/>
+      <c r="E39" s="249"/>
       <c r="F39" s="73" t="s">
         <v>89</v>
       </c>
@@ -24571,12 +24571,12 @@
 )</f>
         <v>12-1-1</v>
       </c>
-      <c r="B40" s="240"/>
-      <c r="C40" s="247"/>
-      <c r="D40" s="248" t="s">
+      <c r="B40" s="239"/>
+      <c r="C40" s="246"/>
+      <c r="D40" s="247" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="247" t="s">
+      <c r="E40" s="246" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="73" t="s">
@@ -24609,10 +24609,10 @@
 )</f>
         <v>12-2-1</v>
       </c>
-      <c r="B41" s="242"/>
-      <c r="C41" s="250"/>
-      <c r="D41" s="249"/>
-      <c r="E41" s="250"/>
+      <c r="B41" s="241"/>
+      <c r="C41" s="249"/>
+      <c r="D41" s="248"/>
+      <c r="E41" s="249"/>
       <c r="F41" s="73" t="s">
         <v>532</v>
       </c>
@@ -24643,16 +24643,16 @@
 )</f>
         <v>13-1-1</v>
       </c>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="252" t="s">
+      <c r="C42" s="251" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="252" t="s">
+      <c r="D42" s="251" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="253" t="s">
+      <c r="E42" s="252" t="s">
         <v>96</v>
       </c>
       <c r="F42" s="81" t="s">
@@ -24683,10 +24683,10 @@
 )</f>
         <v>13-2-1</v>
       </c>
-      <c r="B43" s="251"/>
-      <c r="C43" s="251"/>
-      <c r="D43" s="251"/>
-      <c r="E43" s="254"/>
+      <c r="B43" s="250"/>
+      <c r="C43" s="250"/>
+      <c r="D43" s="250"/>
+      <c r="E43" s="253"/>
       <c r="F43" s="81" t="s">
         <v>98</v>
       </c>
@@ -24715,10 +24715,10 @@
 )</f>
         <v>13-3-1</v>
       </c>
-      <c r="B44" s="251"/>
-      <c r="C44" s="251"/>
-      <c r="D44" s="251"/>
-      <c r="E44" s="255"/>
+      <c r="B44" s="250"/>
+      <c r="C44" s="250"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="254"/>
       <c r="F44" s="81" t="s">
         <v>99</v>
       </c>
@@ -24747,10 +24747,10 @@
 )</f>
         <v>14-1-1</v>
       </c>
-      <c r="B45" s="256"/>
-      <c r="C45" s="256"/>
-      <c r="D45" s="256"/>
-      <c r="E45" s="254" t="s">
+      <c r="B45" s="255"/>
+      <c r="C45" s="255"/>
+      <c r="D45" s="255"/>
+      <c r="E45" s="253" t="s">
         <v>100</v>
       </c>
       <c r="F45" s="81" t="s">
@@ -24781,10 +24781,10 @@
 )</f>
         <v>14-2-1</v>
       </c>
-      <c r="B46" s="256"/>
-      <c r="C46" s="256"/>
-      <c r="D46" s="256"/>
-      <c r="E46" s="254"/>
+      <c r="B46" s="255"/>
+      <c r="C46" s="255"/>
+      <c r="D46" s="255"/>
+      <c r="E46" s="253"/>
       <c r="F46" s="81" t="s">
         <v>102</v>
       </c>
@@ -24813,10 +24813,10 @@
 )</f>
         <v>14-3-1</v>
       </c>
-      <c r="B47" s="256"/>
-      <c r="C47" s="256"/>
-      <c r="D47" s="256"/>
-      <c r="E47" s="255"/>
+      <c r="B47" s="255"/>
+      <c r="C47" s="255"/>
+      <c r="D47" s="255"/>
+      <c r="E47" s="254"/>
       <c r="F47" s="81" t="s">
         <v>99</v>
       </c>
@@ -24845,10 +24845,10 @@
 )</f>
         <v>15-1-1</v>
       </c>
-      <c r="B48" s="256"/>
-      <c r="C48" s="256"/>
-      <c r="D48" s="256"/>
-      <c r="E48" s="254" t="s">
+      <c r="B48" s="255"/>
+      <c r="C48" s="255"/>
+      <c r="D48" s="255"/>
+      <c r="E48" s="253" t="s">
         <v>103</v>
       </c>
       <c r="F48" s="92" t="s">
@@ -24879,10 +24879,10 @@
 )</f>
         <v>15-2-1</v>
       </c>
-      <c r="B49" s="256"/>
-      <c r="C49" s="256"/>
-      <c r="D49" s="256"/>
-      <c r="E49" s="255"/>
+      <c r="B49" s="255"/>
+      <c r="C49" s="255"/>
+      <c r="D49" s="255"/>
+      <c r="E49" s="254"/>
       <c r="F49" s="92" t="s">
         <v>105</v>
       </c>
@@ -24911,10 +24911,10 @@
 )</f>
         <v>16-1-1</v>
       </c>
-      <c r="B50" s="256"/>
-      <c r="C50" s="256"/>
-      <c r="D50" s="256"/>
-      <c r="E50" s="254" t="s">
+      <c r="B50" s="255"/>
+      <c r="C50" s="255"/>
+      <c r="D50" s="255"/>
+      <c r="E50" s="253" t="s">
         <v>106</v>
       </c>
       <c r="F50" s="81" t="s">
@@ -24945,10 +24945,10 @@
 )</f>
         <v>16-2-1</v>
       </c>
-      <c r="B51" s="256"/>
-      <c r="C51" s="256"/>
-      <c r="D51" s="256"/>
-      <c r="E51" s="254"/>
+      <c r="B51" s="255"/>
+      <c r="C51" s="255"/>
+      <c r="D51" s="255"/>
+      <c r="E51" s="253"/>
       <c r="F51" s="81" t="s">
         <v>108</v>
       </c>
@@ -24977,10 +24977,10 @@
 )</f>
         <v>16-3-1</v>
       </c>
-      <c r="B52" s="256"/>
-      <c r="C52" s="256"/>
-      <c r="D52" s="256"/>
-      <c r="E52" s="254"/>
+      <c r="B52" s="255"/>
+      <c r="C52" s="255"/>
+      <c r="D52" s="255"/>
+      <c r="E52" s="253"/>
       <c r="F52" s="81" t="s">
         <v>109</v>
       </c>
@@ -25009,10 +25009,10 @@
 )</f>
         <v>16-4-1</v>
       </c>
-      <c r="B53" s="256"/>
-      <c r="C53" s="256"/>
-      <c r="D53" s="256"/>
-      <c r="E53" s="254"/>
+      <c r="B53" s="255"/>
+      <c r="C53" s="255"/>
+      <c r="D53" s="255"/>
+      <c r="E53" s="253"/>
       <c r="F53" s="81" t="s">
         <v>110</v>
       </c>
@@ -25041,10 +25041,10 @@
 )</f>
         <v>16-5-1</v>
       </c>
-      <c r="B54" s="256"/>
-      <c r="C54" s="256"/>
-      <c r="D54" s="256"/>
-      <c r="E54" s="254"/>
+      <c r="B54" s="255"/>
+      <c r="C54" s="255"/>
+      <c r="D54" s="255"/>
+      <c r="E54" s="253"/>
       <c r="F54" s="81" t="s">
         <v>111</v>
       </c>
@@ -25073,10 +25073,10 @@
 )</f>
         <v>16-6-1</v>
       </c>
-      <c r="B55" s="256"/>
-      <c r="C55" s="256"/>
-      <c r="D55" s="256"/>
-      <c r="E55" s="255"/>
+      <c r="B55" s="255"/>
+      <c r="C55" s="255"/>
+      <c r="D55" s="255"/>
+      <c r="E55" s="254"/>
       <c r="F55" s="81" t="s">
         <v>112</v>
       </c>
@@ -25105,10 +25105,10 @@
 )</f>
         <v>17-1-1</v>
       </c>
-      <c r="B56" s="256"/>
-      <c r="C56" s="256"/>
-      <c r="D56" s="256"/>
-      <c r="E56" s="257" t="s">
+      <c r="B56" s="255"/>
+      <c r="C56" s="255"/>
+      <c r="D56" s="255"/>
+      <c r="E56" s="256" t="s">
         <v>113</v>
       </c>
       <c r="F56" s="92" t="s">
@@ -25139,9 +25139,9 @@
 )</f>
         <v>18-1-1</v>
       </c>
-      <c r="B57" s="256"/>
-      <c r="C57" s="256"/>
-      <c r="D57" s="256"/>
+      <c r="B57" s="255"/>
+      <c r="C57" s="255"/>
+      <c r="D57" s="255"/>
       <c r="E57" s="158" t="s">
         <v>533</v>
       </c>
@@ -25173,9 +25173,9 @@
 )</f>
         <v>19-1-1</v>
       </c>
-      <c r="B58" s="256"/>
-      <c r="C58" s="256"/>
-      <c r="D58" s="255"/>
+      <c r="B58" s="255"/>
+      <c r="C58" s="255"/>
+      <c r="D58" s="254"/>
       <c r="E58" s="158" t="s">
         <v>117</v>
       </c>
@@ -25207,12 +25207,12 @@
 )</f>
         <v>20-1-1</v>
       </c>
-      <c r="B59" s="256"/>
-      <c r="C59" s="256"/>
-      <c r="D59" s="256" t="s">
+      <c r="B59" s="255"/>
+      <c r="C59" s="255"/>
+      <c r="D59" s="255" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="254" t="s">
+      <c r="E59" s="253" t="s">
         <v>497</v>
       </c>
       <c r="F59" s="81" t="s">
@@ -25243,10 +25243,10 @@
 )</f>
         <v>20-2-1</v>
       </c>
-      <c r="B60" s="256"/>
-      <c r="C60" s="258"/>
-      <c r="D60" s="256"/>
-      <c r="E60" s="254"/>
+      <c r="B60" s="255"/>
+      <c r="C60" s="257"/>
+      <c r="D60" s="255"/>
+      <c r="E60" s="253"/>
       <c r="F60" s="92" t="s">
         <v>535</v>
       </c>
@@ -25275,10 +25275,10 @@
 )</f>
         <v>20-3-1</v>
       </c>
-      <c r="B61" s="256"/>
-      <c r="C61" s="258"/>
-      <c r="D61" s="256"/>
-      <c r="E61" s="254"/>
+      <c r="B61" s="255"/>
+      <c r="C61" s="257"/>
+      <c r="D61" s="255"/>
+      <c r="E61" s="253"/>
       <c r="F61" s="81" t="s">
         <v>536</v>
       </c>
@@ -25307,10 +25307,10 @@
 )</f>
         <v>20-4-1</v>
       </c>
-      <c r="B62" s="256"/>
-      <c r="C62" s="258"/>
-      <c r="D62" s="256"/>
-      <c r="E62" s="254"/>
+      <c r="B62" s="255"/>
+      <c r="C62" s="257"/>
+      <c r="D62" s="255"/>
+      <c r="E62" s="253"/>
       <c r="F62" s="81" t="s">
         <v>537</v>
       </c>
@@ -25339,10 +25339,10 @@
 )</f>
         <v>20-5-1</v>
       </c>
-      <c r="B63" s="256"/>
-      <c r="C63" s="258"/>
-      <c r="D63" s="256"/>
-      <c r="E63" s="255"/>
+      <c r="B63" s="255"/>
+      <c r="C63" s="257"/>
+      <c r="D63" s="255"/>
+      <c r="E63" s="254"/>
       <c r="F63" s="81" t="s">
         <v>124</v>
       </c>
@@ -25371,10 +25371,10 @@
 )</f>
         <v>21-1-1</v>
       </c>
-      <c r="B64" s="256"/>
-      <c r="C64" s="258"/>
-      <c r="D64" s="256"/>
-      <c r="E64" s="254" t="s">
+      <c r="B64" s="255"/>
+      <c r="C64" s="257"/>
+      <c r="D64" s="255"/>
+      <c r="E64" s="253" t="s">
         <v>125</v>
       </c>
       <c r="F64" s="81" t="s">
@@ -25405,10 +25405,10 @@
 )</f>
         <v>21-2-1</v>
       </c>
-      <c r="B65" s="256"/>
-      <c r="C65" s="258"/>
-      <c r="D65" s="256"/>
-      <c r="E65" s="254"/>
+      <c r="B65" s="255"/>
+      <c r="C65" s="257"/>
+      <c r="D65" s="255"/>
+      <c r="E65" s="253"/>
       <c r="F65" s="81" t="s">
         <v>127</v>
       </c>
@@ -25437,10 +25437,10 @@
 )</f>
         <v>21-3-1</v>
       </c>
-      <c r="B66" s="256"/>
-      <c r="C66" s="258"/>
-      <c r="D66" s="256"/>
-      <c r="E66" s="254"/>
+      <c r="B66" s="255"/>
+      <c r="C66" s="257"/>
+      <c r="D66" s="255"/>
+      <c r="E66" s="253"/>
       <c r="F66" s="81" t="s">
         <v>128</v>
       </c>
@@ -25469,10 +25469,10 @@
 )</f>
         <v>21-4-1</v>
       </c>
-      <c r="B67" s="256"/>
-      <c r="C67" s="258"/>
-      <c r="D67" s="256"/>
-      <c r="E67" s="254"/>
+      <c r="B67" s="255"/>
+      <c r="C67" s="257"/>
+      <c r="D67" s="255"/>
+      <c r="E67" s="253"/>
       <c r="F67" s="81" t="s">
         <v>129</v>
       </c>
@@ -25501,10 +25501,10 @@
 )</f>
         <v>21-5-1</v>
       </c>
-      <c r="B68" s="256"/>
-      <c r="C68" s="258"/>
-      <c r="D68" s="256"/>
-      <c r="E68" s="254"/>
+      <c r="B68" s="255"/>
+      <c r="C68" s="257"/>
+      <c r="D68" s="255"/>
+      <c r="E68" s="253"/>
       <c r="F68" s="81" t="s">
         <v>130</v>
       </c>
@@ -25533,10 +25533,10 @@
 )</f>
         <v>21-6-1</v>
       </c>
-      <c r="B69" s="256"/>
-      <c r="C69" s="258"/>
-      <c r="D69" s="256"/>
-      <c r="E69" s="254"/>
+      <c r="B69" s="255"/>
+      <c r="C69" s="257"/>
+      <c r="D69" s="255"/>
+      <c r="E69" s="253"/>
       <c r="F69" s="81" t="s">
         <v>131</v>
       </c>
@@ -25565,10 +25565,10 @@
 )</f>
         <v>21-7-1</v>
       </c>
-      <c r="B70" s="256"/>
-      <c r="C70" s="258"/>
-      <c r="D70" s="256"/>
-      <c r="E70" s="254"/>
+      <c r="B70" s="255"/>
+      <c r="C70" s="257"/>
+      <c r="D70" s="255"/>
+      <c r="E70" s="253"/>
       <c r="F70" s="81" t="s">
         <v>132</v>
       </c>
@@ -25597,10 +25597,10 @@
 )</f>
         <v>21-8-1</v>
       </c>
-      <c r="B71" s="256"/>
-      <c r="C71" s="258"/>
-      <c r="D71" s="256"/>
-      <c r="E71" s="255"/>
+      <c r="B71" s="255"/>
+      <c r="C71" s="257"/>
+      <c r="D71" s="255"/>
+      <c r="E71" s="254"/>
       <c r="F71" s="81" t="s">
         <v>133</v>
       </c>
@@ -25629,9 +25629,9 @@
 )</f>
         <v>22-1-1</v>
       </c>
-      <c r="B72" s="256"/>
-      <c r="C72" s="258"/>
-      <c r="D72" s="256"/>
+      <c r="B72" s="255"/>
+      <c r="C72" s="257"/>
+      <c r="D72" s="255"/>
       <c r="E72" s="157" t="s">
         <v>134</v>
       </c>
@@ -25663,10 +25663,10 @@
 )</f>
         <v>23-1-1</v>
       </c>
-      <c r="B73" s="256"/>
-      <c r="C73" s="259"/>
-      <c r="D73" s="256"/>
-      <c r="E73" s="254" t="s">
+      <c r="B73" s="255"/>
+      <c r="C73" s="258"/>
+      <c r="D73" s="255"/>
+      <c r="E73" s="253" t="s">
         <v>136</v>
       </c>
       <c r="F73" s="81" t="s">
@@ -25697,10 +25697,10 @@
 )</f>
         <v>23-2-1</v>
       </c>
-      <c r="B74" s="256"/>
-      <c r="C74" s="259"/>
-      <c r="D74" s="256"/>
-      <c r="E74" s="254"/>
+      <c r="B74" s="255"/>
+      <c r="C74" s="258"/>
+      <c r="D74" s="255"/>
+      <c r="E74" s="253"/>
       <c r="F74" s="81" t="s">
         <v>138</v>
       </c>
@@ -25729,10 +25729,10 @@
 )</f>
         <v>23-3-1</v>
       </c>
-      <c r="B75" s="256"/>
-      <c r="C75" s="259"/>
-      <c r="D75" s="256"/>
-      <c r="E75" s="254"/>
+      <c r="B75" s="255"/>
+      <c r="C75" s="258"/>
+      <c r="D75" s="255"/>
+      <c r="E75" s="253"/>
       <c r="F75" s="81" t="s">
         <v>139</v>
       </c>
@@ -25761,10 +25761,10 @@
 )</f>
         <v>23-4-1</v>
       </c>
-      <c r="B76" s="256"/>
-      <c r="C76" s="259"/>
-      <c r="D76" s="256"/>
-      <c r="E76" s="254"/>
+      <c r="B76" s="255"/>
+      <c r="C76" s="258"/>
+      <c r="D76" s="255"/>
+      <c r="E76" s="253"/>
       <c r="F76" s="81" t="s">
         <v>140</v>
       </c>
@@ -25793,10 +25793,10 @@
 )</f>
         <v>23-5-1</v>
       </c>
-      <c r="B77" s="256"/>
-      <c r="C77" s="260"/>
-      <c r="D77" s="255"/>
-      <c r="E77" s="260"/>
+      <c r="B77" s="255"/>
+      <c r="C77" s="259"/>
+      <c r="D77" s="254"/>
+      <c r="E77" s="259"/>
       <c r="F77" s="113" t="s">
         <v>141</v>
       </c>
@@ -25827,14 +25827,14 @@
 )</f>
         <v>24-1-1</v>
       </c>
-      <c r="B78" s="261"/>
-      <c r="C78" s="262" t="s">
+      <c r="B78" s="260"/>
+      <c r="C78" s="261" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="257" t="s">
+      <c r="D78" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="262" t="s">
+      <c r="E78" s="261" t="s">
         <v>493</v>
       </c>
       <c r="F78" s="81" t="s">
@@ -25865,10 +25865,10 @@
 )</f>
         <v>24-2-1</v>
       </c>
-      <c r="B79" s="256"/>
-      <c r="C79" s="254"/>
-      <c r="D79" s="256"/>
-      <c r="E79" s="255"/>
+      <c r="B79" s="255"/>
+      <c r="C79" s="253"/>
+      <c r="D79" s="255"/>
+      <c r="E79" s="254"/>
       <c r="F79" s="81" t="s">
         <v>144</v>
       </c>
@@ -25897,9 +25897,9 @@
 )</f>
         <v>25-1-1</v>
       </c>
-      <c r="B80" s="256"/>
-      <c r="C80" s="254"/>
-      <c r="D80" s="256"/>
+      <c r="B80" s="255"/>
+      <c r="C80" s="253"/>
+      <c r="D80" s="255"/>
       <c r="E80" s="158" t="s">
         <v>145</v>
       </c>
@@ -25931,10 +25931,10 @@
 )</f>
         <v>26-1-1</v>
       </c>
-      <c r="B81" s="256"/>
-      <c r="C81" s="254"/>
-      <c r="D81" s="256"/>
-      <c r="E81" s="254" t="s">
+      <c r="B81" s="255"/>
+      <c r="C81" s="253"/>
+      <c r="D81" s="255"/>
+      <c r="E81" s="253" t="s">
         <v>147</v>
       </c>
       <c r="F81" s="81" t="s">
@@ -25965,10 +25965,10 @@
 )</f>
         <v>26-2-1</v>
       </c>
-      <c r="B82" s="256"/>
-      <c r="C82" s="254"/>
-      <c r="D82" s="256"/>
-      <c r="E82" s="255"/>
+      <c r="B82" s="255"/>
+      <c r="C82" s="253"/>
+      <c r="D82" s="255"/>
+      <c r="E82" s="254"/>
       <c r="F82" s="81" t="s">
         <v>149</v>
       </c>
@@ -25997,9 +25997,9 @@
 )</f>
         <v>27-1-1</v>
       </c>
-      <c r="B83" s="256"/>
-      <c r="C83" s="254"/>
-      <c r="D83" s="256"/>
+      <c r="B83" s="255"/>
+      <c r="C83" s="253"/>
+      <c r="D83" s="255"/>
       <c r="E83" s="158" t="s">
         <v>150</v>
       </c>
@@ -26031,9 +26031,9 @@
 )</f>
         <v>28-1-1</v>
       </c>
-      <c r="B84" s="256"/>
-      <c r="C84" s="255"/>
-      <c r="D84" s="255"/>
+      <c r="B84" s="255"/>
+      <c r="C84" s="254"/>
+      <c r="D84" s="254"/>
       <c r="E84" s="158" t="s">
         <v>152</v>
       </c>
@@ -26065,11 +26065,11 @@
 )</f>
         <v>29-1-1</v>
       </c>
-      <c r="B85" s="256"/>
-      <c r="C85" s="256" t="s">
+      <c r="B85" s="255"/>
+      <c r="C85" s="255" t="s">
         <v>154</v>
       </c>
-      <c r="D85" s="256" t="s">
+      <c r="D85" s="255" t="s">
         <v>17</v>
       </c>
       <c r="E85" s="158" t="s">
@@ -26103,9 +26103,9 @@
 )</f>
         <v>30-1-1</v>
       </c>
-      <c r="B86" s="256"/>
-      <c r="C86" s="254"/>
-      <c r="D86" s="256"/>
+      <c r="B86" s="255"/>
+      <c r="C86" s="253"/>
+      <c r="D86" s="255"/>
       <c r="E86" s="158" t="s">
         <v>145</v>
       </c>
@@ -26137,10 +26137,10 @@
 )</f>
         <v>31-1-1</v>
       </c>
-      <c r="B87" s="256"/>
-      <c r="C87" s="255"/>
-      <c r="D87" s="255"/>
-      <c r="E87" s="255" t="s">
+      <c r="B87" s="255"/>
+      <c r="C87" s="254"/>
+      <c r="D87" s="254"/>
+      <c r="E87" s="254" t="s">
         <v>494</v>
       </c>
       <c r="F87" s="81" t="s">
@@ -26171,14 +26171,14 @@
 )</f>
         <v>32-1-1</v>
       </c>
-      <c r="B88" s="256"/>
-      <c r="C88" s="254" t="s">
+      <c r="B88" s="255"/>
+      <c r="C88" s="253" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="256" t="s">
+      <c r="D88" s="255" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="254" t="s">
+      <c r="E88" s="253" t="s">
         <v>497</v>
       </c>
       <c r="F88" s="92" t="s">
@@ -26209,10 +26209,10 @@
 )</f>
         <v>32-2-1</v>
       </c>
-      <c r="B89" s="256"/>
-      <c r="C89" s="254"/>
-      <c r="D89" s="256"/>
-      <c r="E89" s="255"/>
+      <c r="B89" s="255"/>
+      <c r="C89" s="253"/>
+      <c r="D89" s="255"/>
+      <c r="E89" s="254"/>
       <c r="F89" s="81" t="s">
         <v>161</v>
       </c>
@@ -26241,9 +26241,9 @@
 )</f>
         <v>33-1-1</v>
       </c>
-      <c r="B90" s="256"/>
-      <c r="C90" s="254"/>
-      <c r="D90" s="256"/>
+      <c r="B90" s="255"/>
+      <c r="C90" s="253"/>
+      <c r="D90" s="255"/>
       <c r="E90" s="158" t="s">
         <v>145</v>
       </c>
@@ -26275,10 +26275,10 @@
 )</f>
         <v>34-1-1</v>
       </c>
-      <c r="B91" s="256"/>
-      <c r="C91" s="254"/>
-      <c r="D91" s="256"/>
-      <c r="E91" s="254" t="s">
+      <c r="B91" s="255"/>
+      <c r="C91" s="253"/>
+      <c r="D91" s="255"/>
+      <c r="E91" s="253" t="s">
         <v>147</v>
       </c>
       <c r="F91" s="81" t="s">
@@ -26309,10 +26309,10 @@
 )</f>
         <v>34-2-1</v>
       </c>
-      <c r="B92" s="256"/>
-      <c r="C92" s="254"/>
-      <c r="D92" s="256"/>
-      <c r="E92" s="255"/>
+      <c r="B92" s="255"/>
+      <c r="C92" s="253"/>
+      <c r="D92" s="255"/>
+      <c r="E92" s="254"/>
       <c r="F92" s="81" t="s">
         <v>164</v>
       </c>
@@ -26341,10 +26341,10 @@
 )</f>
         <v>35-1-1</v>
       </c>
-      <c r="B93" s="256"/>
-      <c r="C93" s="255"/>
-      <c r="D93" s="255"/>
-      <c r="E93" s="255" t="s">
+      <c r="B93" s="255"/>
+      <c r="C93" s="254"/>
+      <c r="D93" s="254"/>
+      <c r="E93" s="254" t="s">
         <v>494</v>
       </c>
       <c r="F93" s="81" t="s">
@@ -26375,14 +26375,14 @@
 )</f>
         <v>36-1-1</v>
       </c>
-      <c r="B94" s="256"/>
-      <c r="C94" s="257" t="s">
+      <c r="B94" s="255"/>
+      <c r="C94" s="256" t="s">
         <v>166</v>
       </c>
-      <c r="D94" s="257" t="s">
+      <c r="D94" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="254" t="s">
+      <c r="E94" s="253" t="s">
         <v>167</v>
       </c>
       <c r="F94" s="81" t="s">
@@ -26413,10 +26413,10 @@
 )</f>
         <v>36-2-1</v>
       </c>
-      <c r="B95" s="256"/>
-      <c r="C95" s="258"/>
-      <c r="D95" s="256"/>
-      <c r="E95" s="254"/>
+      <c r="B95" s="255"/>
+      <c r="C95" s="257"/>
+      <c r="D95" s="255"/>
+      <c r="E95" s="253"/>
       <c r="F95" s="81" t="s">
         <v>169</v>
       </c>
@@ -26445,10 +26445,10 @@
 )</f>
         <v>36-3-1</v>
       </c>
-      <c r="B96" s="256"/>
-      <c r="C96" s="258"/>
-      <c r="D96" s="256"/>
-      <c r="E96" s="254"/>
+      <c r="B96" s="255"/>
+      <c r="C96" s="257"/>
+      <c r="D96" s="255"/>
+      <c r="E96" s="253"/>
       <c r="F96" s="81" t="s">
         <v>170</v>
       </c>
@@ -26477,10 +26477,10 @@
 )</f>
         <v>36-4-1</v>
       </c>
-      <c r="B97" s="256"/>
-      <c r="C97" s="254"/>
-      <c r="D97" s="256"/>
-      <c r="E97" s="254"/>
+      <c r="B97" s="255"/>
+      <c r="C97" s="253"/>
+      <c r="D97" s="255"/>
+      <c r="E97" s="253"/>
       <c r="F97" s="81" t="s">
         <v>171</v>
       </c>
@@ -26509,10 +26509,10 @@
 )</f>
         <v>36-5-1</v>
       </c>
-      <c r="B98" s="256"/>
-      <c r="C98" s="254"/>
-      <c r="D98" s="256"/>
-      <c r="E98" s="255"/>
+      <c r="B98" s="255"/>
+      <c r="C98" s="253"/>
+      <c r="D98" s="255"/>
+      <c r="E98" s="254"/>
       <c r="F98" s="81" t="s">
         <v>172</v>
       </c>
@@ -26541,10 +26541,10 @@
 )</f>
         <v>37-1-1</v>
       </c>
-      <c r="B99" s="256"/>
-      <c r="C99" s="258"/>
-      <c r="D99" s="256"/>
-      <c r="E99" s="254" t="s">
+      <c r="B99" s="255"/>
+      <c r="C99" s="257"/>
+      <c r="D99" s="255"/>
+      <c r="E99" s="253" t="s">
         <v>173</v>
       </c>
       <c r="F99" s="81" t="s">
@@ -26575,10 +26575,10 @@
 )</f>
         <v>37-2-1</v>
       </c>
-      <c r="B100" s="256"/>
-      <c r="C100" s="256"/>
-      <c r="D100" s="256"/>
-      <c r="E100" s="254"/>
+      <c r="B100" s="255"/>
+      <c r="C100" s="255"/>
+      <c r="D100" s="255"/>
+      <c r="E100" s="253"/>
       <c r="F100" s="81" t="s">
         <v>175</v>
       </c>
@@ -26607,10 +26607,10 @@
 )</f>
         <v>37-3-1</v>
       </c>
-      <c r="B101" s="256"/>
-      <c r="C101" s="256"/>
-      <c r="D101" s="256"/>
-      <c r="E101" s="254"/>
+      <c r="B101" s="255"/>
+      <c r="C101" s="255"/>
+      <c r="D101" s="255"/>
+      <c r="E101" s="253"/>
       <c r="F101" s="81" t="s">
         <v>176</v>
       </c>
@@ -26639,10 +26639,10 @@
 )</f>
         <v>37-4-1</v>
       </c>
-      <c r="B102" s="256"/>
-      <c r="C102" s="254"/>
-      <c r="D102" s="256"/>
-      <c r="E102" s="254"/>
+      <c r="B102" s="255"/>
+      <c r="C102" s="253"/>
+      <c r="D102" s="255"/>
+      <c r="E102" s="253"/>
       <c r="F102" s="81" t="s">
         <v>177</v>
       </c>
@@ -26671,10 +26671,10 @@
 )</f>
         <v>37-5-1</v>
       </c>
-      <c r="B103" s="256"/>
-      <c r="C103" s="254"/>
-      <c r="D103" s="256"/>
-      <c r="E103" s="255"/>
+      <c r="B103" s="255"/>
+      <c r="C103" s="253"/>
+      <c r="D103" s="255"/>
+      <c r="E103" s="254"/>
       <c r="F103" s="81" t="s">
         <v>178</v>
       </c>
@@ -26703,10 +26703,10 @@
 )</f>
         <v>38-1-1</v>
       </c>
-      <c r="B104" s="256"/>
-      <c r="C104" s="255"/>
-      <c r="D104" s="256"/>
-      <c r="E104" s="260" t="s">
+      <c r="B104" s="255"/>
+      <c r="C104" s="254"/>
+      <c r="D104" s="255"/>
+      <c r="E104" s="259" t="s">
         <v>494</v>
       </c>
       <c r="F104" s="81" t="s">
@@ -26737,7 +26737,7 @@
 )</f>
         <v>39-1-1</v>
       </c>
-      <c r="B105" s="257" t="s">
+      <c r="B105" s="256" t="s">
         <v>180</v>
       </c>
       <c r="C105" s="158" t="s">
@@ -26777,14 +26777,14 @@
 )</f>
         <v>40-1-1</v>
       </c>
-      <c r="B106" s="256"/>
-      <c r="C106" s="257" t="s">
+      <c r="B106" s="255"/>
+      <c r="C106" s="256" t="s">
         <v>183</v>
       </c>
-      <c r="D106" s="257" t="s">
+      <c r="D106" s="256" t="s">
         <v>52</v>
       </c>
-      <c r="E106" s="257" t="s">
+      <c r="E106" s="256" t="s">
         <v>52</v>
       </c>
       <c r="F106" s="81" t="s">
@@ -26815,10 +26815,10 @@
 )</f>
         <v>40-2-1</v>
       </c>
-      <c r="B107" s="256"/>
-      <c r="C107" s="255"/>
-      <c r="D107" s="255"/>
-      <c r="E107" s="255"/>
+      <c r="B107" s="255"/>
+      <c r="C107" s="254"/>
+      <c r="D107" s="254"/>
+      <c r="E107" s="254"/>
       <c r="F107" s="81" t="s">
         <v>185</v>
       </c>
@@ -26847,7 +26847,7 @@
 )</f>
         <v>41-1-1</v>
       </c>
-      <c r="B108" s="256"/>
+      <c r="B108" s="255"/>
       <c r="C108" s="158" t="s">
         <v>538</v>
       </c>
@@ -26885,14 +26885,14 @@
 )</f>
         <v>42-1-1</v>
       </c>
-      <c r="B109" s="256"/>
-      <c r="C109" s="256" t="s">
+      <c r="B109" s="255"/>
+      <c r="C109" s="255" t="s">
         <v>539</v>
       </c>
-      <c r="D109" s="256" t="s">
+      <c r="D109" s="255" t="s">
         <v>52</v>
       </c>
-      <c r="E109" s="254" t="s">
+      <c r="E109" s="253" t="s">
         <v>52</v>
       </c>
       <c r="F109" s="81" t="s">
@@ -26923,10 +26923,10 @@
 )</f>
         <v>42-2-1</v>
       </c>
-      <c r="B110" s="255"/>
-      <c r="C110" s="255"/>
-      <c r="D110" s="255"/>
-      <c r="E110" s="260"/>
+      <c r="B110" s="254"/>
+      <c r="C110" s="254"/>
+      <c r="D110" s="254"/>
+      <c r="E110" s="259"/>
       <c r="F110" s="81" t="s">
         <v>190</v>
       </c>
@@ -26955,16 +26955,16 @@
 )</f>
         <v>43-1-1</v>
       </c>
-      <c r="B111" s="257" t="s">
+      <c r="B111" s="256" t="s">
         <v>191</v>
       </c>
-      <c r="C111" s="257" t="s">
+      <c r="C111" s="256" t="s">
         <v>192</v>
       </c>
-      <c r="D111" s="257" t="s">
+      <c r="D111" s="256" t="s">
         <v>497</v>
       </c>
-      <c r="E111" s="263" t="s">
+      <c r="E111" s="262" t="s">
         <v>497</v>
       </c>
       <c r="F111" s="81" t="s">
@@ -26995,12 +26995,12 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="349" t="s">
+      <c r="B112" s="348" t="s">
         <v>540</v>
       </c>
-      <c r="C112" s="254"/>
-      <c r="D112" s="256"/>
-      <c r="E112" s="264"/>
+      <c r="C112" s="253"/>
+      <c r="D112" s="255"/>
+      <c r="E112" s="263"/>
       <c r="F112" s="81" t="s">
         <v>195</v>
       </c>
@@ -27029,10 +27029,10 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="349"/>
-      <c r="C113" s="254"/>
-      <c r="D113" s="256"/>
-      <c r="E113" s="264"/>
+      <c r="B113" s="348"/>
+      <c r="C113" s="253"/>
+      <c r="D113" s="255"/>
+      <c r="E113" s="263"/>
       <c r="F113" s="81" t="s">
         <v>196</v>
       </c>
@@ -27061,10 +27061,10 @@
 )</f>
         <v>43-4-1</v>
       </c>
-      <c r="B114" s="256"/>
-      <c r="C114" s="254"/>
-      <c r="D114" s="256"/>
-      <c r="E114" s="255"/>
+      <c r="B114" s="255"/>
+      <c r="C114" s="253"/>
+      <c r="D114" s="255"/>
+      <c r="E114" s="254"/>
       <c r="F114" s="81" t="s">
         <v>197</v>
       </c>
@@ -27093,10 +27093,10 @@
 )</f>
         <v>44-1-1</v>
       </c>
-      <c r="B115" s="256"/>
-      <c r="C115" s="254"/>
-      <c r="D115" s="256"/>
-      <c r="E115" s="243" t="s">
+      <c r="B115" s="255"/>
+      <c r="C115" s="253"/>
+      <c r="D115" s="255"/>
+      <c r="E115" s="242" t="s">
         <v>136</v>
       </c>
       <c r="F115" s="113" t="s">
@@ -27129,10 +27129,10 @@
 )</f>
         <v>44-2-1</v>
       </c>
-      <c r="B116" s="256"/>
-      <c r="C116" s="254"/>
-      <c r="D116" s="256"/>
-      <c r="E116" s="243"/>
+      <c r="B116" s="255"/>
+      <c r="C116" s="253"/>
+      <c r="D116" s="255"/>
+      <c r="E116" s="242"/>
       <c r="F116" s="113" t="s">
         <v>199</v>
       </c>
@@ -27163,10 +27163,10 @@
 )</f>
         <v>44-3-1</v>
       </c>
-      <c r="B117" s="256"/>
-      <c r="C117" s="254"/>
-      <c r="D117" s="256"/>
-      <c r="E117" s="243"/>
+      <c r="B117" s="255"/>
+      <c r="C117" s="253"/>
+      <c r="D117" s="255"/>
+      <c r="E117" s="242"/>
       <c r="F117" s="113" t="s">
         <v>200</v>
       </c>
@@ -27197,10 +27197,10 @@
 )</f>
         <v>44-4-1</v>
       </c>
-      <c r="B118" s="256"/>
-      <c r="C118" s="254"/>
-      <c r="D118" s="256"/>
-      <c r="E118" s="243"/>
+      <c r="B118" s="255"/>
+      <c r="C118" s="253"/>
+      <c r="D118" s="255"/>
+      <c r="E118" s="242"/>
       <c r="F118" s="113" t="s">
         <v>201</v>
       </c>
@@ -27231,10 +27231,10 @@
 )</f>
         <v>44-5-1</v>
       </c>
-      <c r="B119" s="256"/>
-      <c r="C119" s="254"/>
-      <c r="D119" s="256"/>
-      <c r="E119" s="242"/>
+      <c r="B119" s="255"/>
+      <c r="C119" s="253"/>
+      <c r="D119" s="255"/>
+      <c r="E119" s="241"/>
       <c r="F119" s="113" t="s">
         <v>202</v>
       </c>
@@ -27265,10 +27265,10 @@
 )</f>
         <v>45-1-1</v>
       </c>
-      <c r="B120" s="256"/>
-      <c r="C120" s="254"/>
-      <c r="D120" s="256"/>
-      <c r="E120" s="243" t="s">
+      <c r="B120" s="255"/>
+      <c r="C120" s="253"/>
+      <c r="D120" s="255"/>
+      <c r="E120" s="242" t="s">
         <v>203</v>
       </c>
       <c r="F120" s="113" t="s">
@@ -27301,10 +27301,10 @@
 )</f>
         <v>45-2-1</v>
       </c>
-      <c r="B121" s="256"/>
-      <c r="C121" s="254"/>
-      <c r="D121" s="256"/>
-      <c r="E121" s="243"/>
+      <c r="B121" s="255"/>
+      <c r="C121" s="253"/>
+      <c r="D121" s="255"/>
+      <c r="E121" s="242"/>
       <c r="F121" s="113" t="s">
         <v>205</v>
       </c>
@@ -27335,10 +27335,10 @@
 )</f>
         <v>45-3-1</v>
       </c>
-      <c r="B122" s="256"/>
-      <c r="C122" s="254"/>
-      <c r="D122" s="256"/>
-      <c r="E122" s="243"/>
+      <c r="B122" s="255"/>
+      <c r="C122" s="253"/>
+      <c r="D122" s="255"/>
+      <c r="E122" s="242"/>
       <c r="F122" s="113" t="s">
         <v>206</v>
       </c>
@@ -27369,10 +27369,10 @@
 )</f>
         <v>45-4-1</v>
       </c>
-      <c r="B123" s="256"/>
-      <c r="C123" s="254"/>
-      <c r="D123" s="256"/>
-      <c r="E123" s="243"/>
+      <c r="B123" s="255"/>
+      <c r="C123" s="253"/>
+      <c r="D123" s="255"/>
+      <c r="E123" s="242"/>
       <c r="F123" s="113" t="s">
         <v>207</v>
       </c>
@@ -27403,10 +27403,10 @@
 )</f>
         <v>45-5-1</v>
       </c>
-      <c r="B124" s="256"/>
-      <c r="C124" s="254"/>
-      <c r="D124" s="256"/>
-      <c r="E124" s="242"/>
+      <c r="B124" s="255"/>
+      <c r="C124" s="253"/>
+      <c r="D124" s="255"/>
+      <c r="E124" s="241"/>
       <c r="F124" s="113" t="s">
         <v>208</v>
       </c>
@@ -27437,10 +27437,10 @@
 )</f>
         <v>46-1-1</v>
       </c>
-      <c r="B125" s="256"/>
-      <c r="C125" s="254"/>
-      <c r="D125" s="255"/>
-      <c r="E125" s="242" t="s">
+      <c r="B125" s="255"/>
+      <c r="C125" s="253"/>
+      <c r="D125" s="254"/>
+      <c r="E125" s="241" t="s">
         <v>541</v>
       </c>
       <c r="F125" s="113" t="s">
@@ -27473,12 +27473,12 @@
 )</f>
         <v>47-1-1</v>
       </c>
-      <c r="B126" s="256"/>
-      <c r="C126" s="260"/>
-      <c r="D126" s="255" t="s">
+      <c r="B126" s="255"/>
+      <c r="C126" s="259"/>
+      <c r="D126" s="254" t="s">
         <v>494</v>
       </c>
-      <c r="E126" s="255" t="s">
+      <c r="E126" s="254" t="s">
         <v>497</v>
       </c>
       <c r="F126" s="81" t="s">
@@ -27509,11 +27509,11 @@
 )</f>
         <v>48-1-1</v>
       </c>
-      <c r="B127" s="256"/>
-      <c r="C127" s="240" t="s">
+      <c r="B127" s="255"/>
+      <c r="C127" s="239" t="s">
         <v>526</v>
       </c>
-      <c r="D127" s="240" t="s">
+      <c r="D127" s="239" t="s">
         <v>212</v>
       </c>
       <c r="E127" s="153" t="s">
@@ -27549,10 +27549,10 @@
 )</f>
         <v>49-1-1</v>
       </c>
-      <c r="B128" s="256"/>
-      <c r="C128" s="240"/>
-      <c r="D128" s="240"/>
-      <c r="E128" s="243" t="s">
+      <c r="B128" s="255"/>
+      <c r="C128" s="239"/>
+      <c r="D128" s="239"/>
+      <c r="E128" s="242" t="s">
         <v>542</v>
       </c>
       <c r="F128" s="113" t="s">
@@ -27585,10 +27585,10 @@
 )</f>
         <v>49-2-1</v>
       </c>
-      <c r="B129" s="256"/>
-      <c r="C129" s="240"/>
-      <c r="D129" s="240"/>
-      <c r="E129" s="243"/>
+      <c r="B129" s="255"/>
+      <c r="C129" s="239"/>
+      <c r="D129" s="239"/>
+      <c r="E129" s="242"/>
       <c r="F129" s="113" t="s">
         <v>217</v>
       </c>
@@ -27619,10 +27619,10 @@
 )</f>
         <v>49-3-1</v>
       </c>
-      <c r="B130" s="255"/>
-      <c r="C130" s="242"/>
-      <c r="D130" s="242"/>
-      <c r="E130" s="244"/>
+      <c r="B130" s="254"/>
+      <c r="C130" s="241"/>
+      <c r="D130" s="241"/>
+      <c r="E130" s="243"/>
       <c r="F130" s="113" t="s">
         <v>218</v>
       </c>
@@ -27653,16 +27653,16 @@
 )</f>
         <v>50-1-1</v>
       </c>
-      <c r="B131" s="257" t="s">
+      <c r="B131" s="256" t="s">
         <v>219</v>
       </c>
-      <c r="C131" s="257" t="s">
+      <c r="C131" s="256" t="s">
         <v>192</v>
       </c>
-      <c r="D131" s="257" t="s">
+      <c r="D131" s="256" t="s">
         <v>497</v>
       </c>
-      <c r="E131" s="263" t="s">
+      <c r="E131" s="262" t="s">
         <v>497</v>
       </c>
       <c r="F131" s="81" t="s">
@@ -27693,12 +27693,12 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="349" t="s">
+      <c r="B132" s="348" t="s">
         <v>221</v>
       </c>
-      <c r="C132" s="254"/>
-      <c r="D132" s="256"/>
-      <c r="E132" s="254"/>
+      <c r="C132" s="253"/>
+      <c r="D132" s="255"/>
+      <c r="E132" s="253"/>
       <c r="F132" s="113" t="s">
         <v>222</v>
       </c>
@@ -27729,10 +27729,10 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="349"/>
-      <c r="C133" s="254"/>
-      <c r="D133" s="256"/>
-      <c r="E133" s="254"/>
+      <c r="B133" s="348"/>
+      <c r="C133" s="253"/>
+      <c r="D133" s="255"/>
+      <c r="E133" s="253"/>
       <c r="F133" s="113" t="s">
         <v>223</v>
       </c>
@@ -27763,10 +27763,10 @@
 )</f>
         <v>50-4-1</v>
       </c>
-      <c r="B134" s="256"/>
-      <c r="C134" s="254"/>
-      <c r="D134" s="256"/>
-      <c r="E134" s="255"/>
+      <c r="B134" s="255"/>
+      <c r="C134" s="253"/>
+      <c r="D134" s="255"/>
+      <c r="E134" s="254"/>
       <c r="F134" s="113" t="s">
         <v>224</v>
       </c>
@@ -27797,10 +27797,10 @@
 )</f>
         <v>51-1-1</v>
       </c>
-      <c r="B135" s="256"/>
-      <c r="C135" s="254"/>
-      <c r="D135" s="256"/>
-      <c r="E135" s="254" t="s">
+      <c r="B135" s="255"/>
+      <c r="C135" s="253"/>
+      <c r="D135" s="255"/>
+      <c r="E135" s="253" t="s">
         <v>225</v>
       </c>
       <c r="F135" s="81" t="s">
@@ -27831,10 +27831,10 @@
 )</f>
         <v>51-2-1</v>
       </c>
-      <c r="B136" s="256"/>
-      <c r="C136" s="254"/>
-      <c r="D136" s="255"/>
-      <c r="E136" s="255"/>
+      <c r="B136" s="255"/>
+      <c r="C136" s="253"/>
+      <c r="D136" s="254"/>
+      <c r="E136" s="254"/>
       <c r="F136" s="81" t="s">
         <v>227</v>
       </c>
@@ -27863,12 +27863,12 @@
 )</f>
         <v>52-1-1</v>
       </c>
-      <c r="B137" s="256"/>
-      <c r="C137" s="260"/>
-      <c r="D137" s="255" t="s">
+      <c r="B137" s="255"/>
+      <c r="C137" s="259"/>
+      <c r="D137" s="254" t="s">
         <v>494</v>
       </c>
-      <c r="E137" s="255" t="s">
+      <c r="E137" s="254" t="s">
         <v>497</v>
       </c>
       <c r="F137" s="81" t="s">
@@ -27899,11 +27899,11 @@
 )</f>
         <v>53-1-1</v>
       </c>
-      <c r="B138" s="256"/>
-      <c r="C138" s="254" t="s">
+      <c r="B138" s="255"/>
+      <c r="C138" s="253" t="s">
         <v>229</v>
       </c>
-      <c r="D138" s="256" t="s">
+      <c r="D138" s="255" t="s">
         <v>212</v>
       </c>
       <c r="E138" s="153" t="s">
@@ -27939,9 +27939,9 @@
 )</f>
         <v>54-1-1</v>
       </c>
-      <c r="B139" s="256"/>
-      <c r="C139" s="254"/>
-      <c r="D139" s="256"/>
+      <c r="B139" s="255"/>
+      <c r="C139" s="253"/>
+      <c r="D139" s="255"/>
       <c r="E139" s="153" t="s">
         <v>232</v>
       </c>
@@ -27975,9 +27975,9 @@
 )</f>
         <v>55-1-1</v>
       </c>
-      <c r="B140" s="256"/>
-      <c r="C140" s="254"/>
-      <c r="D140" s="256"/>
+      <c r="B140" s="255"/>
+      <c r="C140" s="253"/>
+      <c r="D140" s="255"/>
       <c r="E140" s="153" t="s">
         <v>234</v>
       </c>
@@ -28011,9 +28011,9 @@
 )</f>
         <v>56-1-1</v>
       </c>
-      <c r="B141" s="256"/>
-      <c r="C141" s="254"/>
-      <c r="D141" s="256"/>
+      <c r="B141" s="255"/>
+      <c r="C141" s="253"/>
+      <c r="D141" s="255"/>
       <c r="E141" s="153" t="s">
         <v>213</v>
       </c>
@@ -28047,9 +28047,9 @@
 )</f>
         <v>57-1-1</v>
       </c>
-      <c r="B142" s="256"/>
-      <c r="C142" s="254"/>
-      <c r="D142" s="256"/>
+      <c r="B142" s="255"/>
+      <c r="C142" s="253"/>
+      <c r="D142" s="255"/>
       <c r="E142" s="153" t="s">
         <v>543</v>
       </c>
@@ -28083,10 +28083,10 @@
 )</f>
         <v>58-1-1</v>
       </c>
-      <c r="B143" s="256"/>
-      <c r="C143" s="254"/>
-      <c r="D143" s="256"/>
-      <c r="E143" s="265" t="s">
+      <c r="B143" s="255"/>
+      <c r="C143" s="253"/>
+      <c r="D143" s="255"/>
+      <c r="E143" s="264" t="s">
         <v>544</v>
       </c>
       <c r="F143" s="113" t="s">
@@ -28119,10 +28119,10 @@
 )</f>
         <v>58-2-1</v>
       </c>
-      <c r="B144" s="256"/>
-      <c r="C144" s="254"/>
-      <c r="D144" s="256"/>
-      <c r="E144" s="265"/>
+      <c r="B144" s="255"/>
+      <c r="C144" s="253"/>
+      <c r="D144" s="255"/>
+      <c r="E144" s="264"/>
       <c r="F144" s="113" t="s">
         <v>241</v>
       </c>
@@ -28153,10 +28153,10 @@
 )</f>
         <v>58-3-1</v>
       </c>
-      <c r="B145" s="256"/>
-      <c r="C145" s="254"/>
-      <c r="D145" s="256"/>
-      <c r="E145" s="265"/>
+      <c r="B145" s="255"/>
+      <c r="C145" s="253"/>
+      <c r="D145" s="255"/>
+      <c r="E145" s="264"/>
       <c r="F145" s="113" t="s">
         <v>242</v>
       </c>
@@ -28187,10 +28187,10 @@
 )</f>
         <v>58-4-1</v>
       </c>
-      <c r="B146" s="256"/>
-      <c r="C146" s="254"/>
-      <c r="D146" s="256"/>
-      <c r="E146" s="265"/>
+      <c r="B146" s="255"/>
+      <c r="C146" s="253"/>
+      <c r="D146" s="255"/>
+      <c r="E146" s="264"/>
       <c r="F146" s="113" t="s">
         <v>243</v>
       </c>
@@ -28221,10 +28221,10 @@
 )</f>
         <v>58-5-1</v>
       </c>
-      <c r="B147" s="256"/>
-      <c r="C147" s="254"/>
-      <c r="D147" s="256"/>
-      <c r="E147" s="265"/>
+      <c r="B147" s="255"/>
+      <c r="C147" s="253"/>
+      <c r="D147" s="255"/>
+      <c r="E147" s="264"/>
       <c r="F147" s="113" t="s">
         <v>244</v>
       </c>
@@ -28255,10 +28255,10 @@
 )</f>
         <v>58-6-1</v>
       </c>
-      <c r="B148" s="256"/>
-      <c r="C148" s="254"/>
-      <c r="D148" s="255"/>
-      <c r="E148" s="242"/>
+      <c r="B148" s="255"/>
+      <c r="C148" s="253"/>
+      <c r="D148" s="254"/>
+      <c r="E148" s="241"/>
       <c r="F148" s="113" t="s">
         <v>245</v>
       </c>
@@ -28289,12 +28289,12 @@
 )</f>
         <v>59-1-1</v>
       </c>
-      <c r="B149" s="256"/>
-      <c r="C149" s="254"/>
-      <c r="D149" s="240" t="s">
+      <c r="B149" s="255"/>
+      <c r="C149" s="253"/>
+      <c r="D149" s="239" t="s">
         <v>246</v>
       </c>
-      <c r="E149" s="239" t="s">
+      <c r="E149" s="238" t="s">
         <v>497</v>
       </c>
       <c r="F149" s="113" t="s">
@@ -28327,10 +28327,10 @@
 )</f>
         <v>59-2-1</v>
       </c>
-      <c r="B150" s="256"/>
-      <c r="C150" s="254"/>
-      <c r="D150" s="240"/>
-      <c r="E150" s="242"/>
+      <c r="B150" s="255"/>
+      <c r="C150" s="253"/>
+      <c r="D150" s="239"/>
+      <c r="E150" s="241"/>
       <c r="F150" s="113" t="s">
         <v>248</v>
       </c>
@@ -28361,10 +28361,10 @@
 )</f>
         <v>60-1-1</v>
       </c>
-      <c r="B151" s="256"/>
-      <c r="C151" s="254"/>
-      <c r="D151" s="240"/>
-      <c r="E151" s="243" t="s">
+      <c r="B151" s="255"/>
+      <c r="C151" s="253"/>
+      <c r="D151" s="239"/>
+      <c r="E151" s="242" t="s">
         <v>125</v>
       </c>
       <c r="F151" s="113" t="s">
@@ -28397,10 +28397,10 @@
 )</f>
         <v>60-2-1</v>
       </c>
-      <c r="B152" s="256"/>
-      <c r="C152" s="254"/>
-      <c r="D152" s="240"/>
-      <c r="E152" s="265"/>
+      <c r="B152" s="255"/>
+      <c r="C152" s="253"/>
+      <c r="D152" s="239"/>
+      <c r="E152" s="264"/>
       <c r="F152" s="113" t="s">
         <v>250</v>
       </c>
@@ -28431,10 +28431,10 @@
 )</f>
         <v>60-3-1</v>
       </c>
-      <c r="B153" s="256"/>
-      <c r="C153" s="254"/>
-      <c r="D153" s="240"/>
-      <c r="E153" s="265"/>
+      <c r="B153" s="255"/>
+      <c r="C153" s="253"/>
+      <c r="D153" s="239"/>
+      <c r="E153" s="264"/>
       <c r="F153" s="113" t="s">
         <v>545</v>
       </c>
@@ -28465,10 +28465,10 @@
 )</f>
         <v>60-4-1</v>
       </c>
-      <c r="B154" s="256"/>
-      <c r="C154" s="254"/>
-      <c r="D154" s="240"/>
-      <c r="E154" s="265"/>
+      <c r="B154" s="255"/>
+      <c r="C154" s="253"/>
+      <c r="D154" s="239"/>
+      <c r="E154" s="264"/>
       <c r="F154" s="113" t="s">
         <v>546</v>
       </c>
@@ -28499,10 +28499,10 @@
 )</f>
         <v>60-5-1</v>
       </c>
-      <c r="B155" s="256"/>
-      <c r="C155" s="254"/>
-      <c r="D155" s="240"/>
-      <c r="E155" s="265"/>
+      <c r="B155" s="255"/>
+      <c r="C155" s="253"/>
+      <c r="D155" s="239"/>
+      <c r="E155" s="264"/>
       <c r="F155" s="113" t="s">
         <v>253</v>
       </c>
@@ -28533,10 +28533,10 @@
 )</f>
         <v>60-6-1</v>
       </c>
-      <c r="B156" s="256"/>
-      <c r="C156" s="254"/>
-      <c r="D156" s="240"/>
-      <c r="E156" s="265"/>
+      <c r="B156" s="255"/>
+      <c r="C156" s="253"/>
+      <c r="D156" s="239"/>
+      <c r="E156" s="264"/>
       <c r="F156" s="113" t="s">
         <v>254</v>
       </c>
@@ -28567,10 +28567,10 @@
 )</f>
         <v>60-7-1</v>
       </c>
-      <c r="B157" s="256"/>
-      <c r="C157" s="254"/>
-      <c r="D157" s="240"/>
-      <c r="E157" s="265"/>
+      <c r="B157" s="255"/>
+      <c r="C157" s="253"/>
+      <c r="D157" s="239"/>
+      <c r="E157" s="264"/>
       <c r="F157" s="113" t="s">
         <v>255</v>
       </c>
@@ -28601,10 +28601,10 @@
 )</f>
         <v>60-8-1</v>
       </c>
-      <c r="B158" s="256"/>
-      <c r="C158" s="254"/>
-      <c r="D158" s="240"/>
-      <c r="E158" s="265"/>
+      <c r="B158" s="255"/>
+      <c r="C158" s="253"/>
+      <c r="D158" s="239"/>
+      <c r="E158" s="264"/>
       <c r="F158" s="113" t="s">
         <v>256</v>
       </c>
@@ -28635,10 +28635,10 @@
 )</f>
         <v>60-9-1</v>
       </c>
-      <c r="B159" s="256"/>
-      <c r="C159" s="254"/>
-      <c r="D159" s="240"/>
-      <c r="E159" s="265"/>
+      <c r="B159" s="255"/>
+      <c r="C159" s="253"/>
+      <c r="D159" s="239"/>
+      <c r="E159" s="264"/>
       <c r="F159" s="113" t="s">
         <v>257</v>
       </c>
@@ -28669,10 +28669,10 @@
 )</f>
         <v>60-10-1</v>
       </c>
-      <c r="B160" s="256"/>
-      <c r="C160" s="254"/>
-      <c r="D160" s="240"/>
-      <c r="E160" s="265"/>
+      <c r="B160" s="255"/>
+      <c r="C160" s="253"/>
+      <c r="D160" s="239"/>
+      <c r="E160" s="264"/>
       <c r="F160" s="113" t="s">
         <v>258</v>
       </c>
@@ -28703,10 +28703,10 @@
 )</f>
         <v>60-11-1</v>
       </c>
-      <c r="B161" s="256"/>
-      <c r="C161" s="254"/>
-      <c r="D161" s="240"/>
-      <c r="E161" s="242"/>
+      <c r="B161" s="255"/>
+      <c r="C161" s="253"/>
+      <c r="D161" s="239"/>
+      <c r="E161" s="241"/>
       <c r="F161" s="113" t="s">
         <v>259</v>
       </c>
@@ -28737,10 +28737,10 @@
 )</f>
         <v>61-1-1</v>
       </c>
-      <c r="B162" s="256"/>
-      <c r="C162" s="254"/>
-      <c r="D162" s="240"/>
-      <c r="E162" s="243" t="s">
+      <c r="B162" s="255"/>
+      <c r="C162" s="253"/>
+      <c r="D162" s="239"/>
+      <c r="E162" s="242" t="s">
         <v>59</v>
       </c>
       <c r="F162" s="113" t="s">
@@ -28773,10 +28773,10 @@
 )</f>
         <v>61-2-1</v>
       </c>
-      <c r="B163" s="256"/>
-      <c r="C163" s="254"/>
-      <c r="D163" s="240"/>
-      <c r="E163" s="243"/>
+      <c r="B163" s="255"/>
+      <c r="C163" s="253"/>
+      <c r="D163" s="239"/>
+      <c r="E163" s="242"/>
       <c r="F163" s="113" t="s">
         <v>261</v>
       </c>
@@ -28807,10 +28807,10 @@
 )</f>
         <v>61-3-1</v>
       </c>
-      <c r="B164" s="256"/>
-      <c r="C164" s="254"/>
-      <c r="D164" s="240"/>
-      <c r="E164" s="243"/>
+      <c r="B164" s="255"/>
+      <c r="C164" s="253"/>
+      <c r="D164" s="239"/>
+      <c r="E164" s="242"/>
       <c r="F164" s="113" t="s">
         <v>262</v>
       </c>
@@ -28841,10 +28841,10 @@
 )</f>
         <v>61-4-1</v>
       </c>
-      <c r="B165" s="256"/>
-      <c r="C165" s="254"/>
-      <c r="D165" s="240"/>
-      <c r="E165" s="243"/>
+      <c r="B165" s="255"/>
+      <c r="C165" s="253"/>
+      <c r="D165" s="239"/>
+      <c r="E165" s="242"/>
       <c r="F165" s="113" t="s">
         <v>263</v>
       </c>
@@ -28875,10 +28875,10 @@
 )</f>
         <v>61-5-1</v>
       </c>
-      <c r="B166" s="256"/>
-      <c r="C166" s="254"/>
-      <c r="D166" s="240"/>
-      <c r="E166" s="243"/>
+      <c r="B166" s="255"/>
+      <c r="C166" s="253"/>
+      <c r="D166" s="239"/>
+      <c r="E166" s="242"/>
       <c r="F166" s="113" t="s">
         <v>264</v>
       </c>
@@ -28909,10 +28909,10 @@
 )</f>
         <v>61-6-1</v>
       </c>
-      <c r="B167" s="256"/>
-      <c r="C167" s="254"/>
-      <c r="D167" s="240"/>
-      <c r="E167" s="243"/>
+      <c r="B167" s="255"/>
+      <c r="C167" s="253"/>
+      <c r="D167" s="239"/>
+      <c r="E167" s="242"/>
       <c r="F167" s="113" t="s">
         <v>265</v>
       </c>
@@ -28943,10 +28943,10 @@
 )</f>
         <v>61-7-1</v>
       </c>
-      <c r="B168" s="255"/>
-      <c r="C168" s="260"/>
-      <c r="D168" s="242"/>
-      <c r="E168" s="244"/>
+      <c r="B168" s="254"/>
+      <c r="C168" s="259"/>
+      <c r="D168" s="241"/>
+      <c r="E168" s="243"/>
       <c r="F168" s="113" t="s">
         <v>266</v>
       </c>
@@ -28977,10 +28977,10 @@
 )</f>
         <v>62-1-1</v>
       </c>
-      <c r="B169" s="257"/>
-      <c r="C169" s="262"/>
-      <c r="D169" s="257"/>
-      <c r="E169" s="262" t="s">
+      <c r="B169" s="256"/>
+      <c r="C169" s="261"/>
+      <c r="D169" s="256"/>
+      <c r="E169" s="261" t="s">
         <v>203</v>
       </c>
       <c r="F169" s="113" t="s">
@@ -29013,10 +29013,10 @@
 )</f>
         <v>62-2-1</v>
       </c>
-      <c r="B170" s="256"/>
-      <c r="C170" s="254"/>
-      <c r="D170" s="256"/>
-      <c r="E170" s="254"/>
+      <c r="B170" s="255"/>
+      <c r="C170" s="253"/>
+      <c r="D170" s="255"/>
+      <c r="E170" s="253"/>
       <c r="F170" s="113" t="s">
         <v>268</v>
       </c>
@@ -29047,10 +29047,10 @@
 )</f>
         <v>62-3-1</v>
       </c>
-      <c r="B171" s="256"/>
-      <c r="C171" s="254"/>
-      <c r="D171" s="256"/>
-      <c r="E171" s="254"/>
+      <c r="B171" s="255"/>
+      <c r="C171" s="253"/>
+      <c r="D171" s="255"/>
+      <c r="E171" s="253"/>
       <c r="F171" s="113" t="s">
         <v>269</v>
       </c>
@@ -29081,10 +29081,10 @@
 )</f>
         <v>62-4-1</v>
       </c>
-      <c r="B172" s="256"/>
-      <c r="C172" s="254"/>
-      <c r="D172" s="256"/>
-      <c r="E172" s="254"/>
+      <c r="B172" s="255"/>
+      <c r="C172" s="253"/>
+      <c r="D172" s="255"/>
+      <c r="E172" s="253"/>
       <c r="F172" s="113" t="s">
         <v>270</v>
       </c>
@@ -29115,10 +29115,10 @@
 )</f>
         <v>62-5-1</v>
       </c>
-      <c r="B173" s="256"/>
-      <c r="C173" s="254"/>
-      <c r="D173" s="256"/>
-      <c r="E173" s="254"/>
+      <c r="B173" s="255"/>
+      <c r="C173" s="253"/>
+      <c r="D173" s="255"/>
+      <c r="E173" s="253"/>
       <c r="F173" s="113" t="s">
         <v>271</v>
       </c>
@@ -29149,10 +29149,10 @@
 )</f>
         <v>62-6-1</v>
       </c>
-      <c r="B174" s="256"/>
-      <c r="C174" s="254"/>
-      <c r="D174" s="256"/>
-      <c r="E174" s="254"/>
+      <c r="B174" s="255"/>
+      <c r="C174" s="253"/>
+      <c r="D174" s="255"/>
+      <c r="E174" s="253"/>
       <c r="F174" s="81" t="s">
         <v>272</v>
       </c>
@@ -29181,10 +29181,10 @@
 )</f>
         <v>62-7-1</v>
       </c>
-      <c r="B175" s="256"/>
-      <c r="C175" s="254"/>
-      <c r="D175" s="256"/>
-      <c r="E175" s="254"/>
+      <c r="B175" s="255"/>
+      <c r="C175" s="253"/>
+      <c r="D175" s="255"/>
+      <c r="E175" s="253"/>
       <c r="F175" s="113" t="s">
         <v>273</v>
       </c>
@@ -29215,10 +29215,10 @@
 )</f>
         <v>62-8-1</v>
       </c>
-      <c r="B176" s="256"/>
-      <c r="C176" s="254"/>
-      <c r="D176" s="256"/>
-      <c r="E176" s="254"/>
+      <c r="B176" s="255"/>
+      <c r="C176" s="253"/>
+      <c r="D176" s="255"/>
+      <c r="E176" s="253"/>
       <c r="F176" s="113" t="s">
         <v>274</v>
       </c>
@@ -29249,10 +29249,10 @@
 )</f>
         <v>62-9-1</v>
       </c>
-      <c r="B177" s="256"/>
-      <c r="C177" s="254"/>
-      <c r="D177" s="256"/>
-      <c r="E177" s="255"/>
+      <c r="B177" s="255"/>
+      <c r="C177" s="253"/>
+      <c r="D177" s="255"/>
+      <c r="E177" s="254"/>
       <c r="F177" s="113" t="s">
         <v>275</v>
       </c>
@@ -29283,10 +29283,10 @@
 )</f>
         <v>63-1-1</v>
       </c>
-      <c r="B178" s="256"/>
-      <c r="C178" s="254"/>
-      <c r="D178" s="256"/>
-      <c r="E178" s="242" t="s">
+      <c r="B178" s="255"/>
+      <c r="C178" s="253"/>
+      <c r="D178" s="255"/>
+      <c r="E178" s="241" t="s">
         <v>237</v>
       </c>
       <c r="F178" s="113" t="s">
@@ -29319,10 +29319,10 @@
 )</f>
         <v>64-1-1</v>
       </c>
-      <c r="B179" s="255"/>
-      <c r="C179" s="260"/>
-      <c r="D179" s="255"/>
-      <c r="E179" s="244" t="s">
+      <c r="B179" s="254"/>
+      <c r="C179" s="259"/>
+      <c r="D179" s="254"/>
+      <c r="E179" s="243" t="s">
         <v>277</v>
       </c>
       <c r="F179" s="113" t="s">
@@ -29355,10 +29355,10 @@
 )</f>
         <v>65-1-1</v>
       </c>
-      <c r="B180" s="239" t="s">
+      <c r="B180" s="238" t="s">
         <v>279</v>
       </c>
-      <c r="C180" s="239" t="s">
+      <c r="C180" s="238" t="s">
         <v>192</v>
       </c>
       <c r="D180" s="153" t="s">
@@ -29397,12 +29397,12 @@
 )</f>
         <v>66-1-1</v>
       </c>
-      <c r="B181" s="240"/>
-      <c r="C181" s="243"/>
+      <c r="B181" s="239"/>
+      <c r="C181" s="242"/>
       <c r="D181" s="153" t="s">
         <v>282</v>
       </c>
-      <c r="E181" s="242" t="s">
+      <c r="E181" s="241" t="s">
         <v>52</v>
       </c>
       <c r="F181" s="113" t="s">
@@ -29435,12 +29435,12 @@
 )</f>
         <v>67-1-1</v>
       </c>
-      <c r="B182" s="242"/>
-      <c r="C182" s="244"/>
-      <c r="D182" s="244" t="s">
+      <c r="B182" s="241"/>
+      <c r="C182" s="243"/>
+      <c r="D182" s="243" t="s">
         <v>547</v>
       </c>
-      <c r="E182" s="244" t="s">
+      <c r="E182" s="243" t="s">
         <v>52</v>
       </c>
       <c r="F182" s="113" t="s">
@@ -29473,13 +29473,13 @@
 )</f>
         <v>68-1-1</v>
       </c>
-      <c r="B183" s="246" t="s">
+      <c r="B183" s="245" t="s">
         <v>286</v>
       </c>
-      <c r="C183" s="246" t="s">
+      <c r="C183" s="245" t="s">
         <v>192</v>
       </c>
-      <c r="D183" s="246" t="s">
+      <c r="D183" s="245" t="s">
         <v>497</v>
       </c>
       <c r="E183" s="156" t="s">
@@ -29515,10 +29515,10 @@
 )</f>
         <v>69-1-1</v>
       </c>
-      <c r="B184" s="247"/>
-      <c r="C184" s="266"/>
-      <c r="D184" s="247"/>
-      <c r="E184" s="248" t="s">
+      <c r="B184" s="246"/>
+      <c r="C184" s="265"/>
+      <c r="D184" s="246"/>
+      <c r="E184" s="247" t="s">
         <v>59</v>
       </c>
       <c r="F184" s="73" t="s">
@@ -29551,10 +29551,10 @@
 )</f>
         <v>69-2-1</v>
       </c>
-      <c r="B185" s="247"/>
-      <c r="C185" s="267"/>
-      <c r="D185" s="247"/>
-      <c r="E185" s="250"/>
+      <c r="B185" s="246"/>
+      <c r="C185" s="266"/>
+      <c r="D185" s="246"/>
+      <c r="E185" s="249"/>
       <c r="F185" s="73" t="s">
         <v>290</v>
       </c>
@@ -29585,10 +29585,10 @@
 )</f>
         <v>70-1-1</v>
       </c>
-      <c r="B186" s="247"/>
-      <c r="C186" s="248"/>
-      <c r="D186" s="247"/>
-      <c r="E186" s="248" t="s">
+      <c r="B186" s="246"/>
+      <c r="C186" s="247"/>
+      <c r="D186" s="246"/>
+      <c r="E186" s="247" t="s">
         <v>291</v>
       </c>
       <c r="F186" s="73" t="s">
@@ -29621,10 +29621,10 @@
 )</f>
         <v>70-2-1</v>
       </c>
-      <c r="B187" s="247"/>
-      <c r="C187" s="248"/>
-      <c r="D187" s="268"/>
-      <c r="E187" s="250"/>
+      <c r="B187" s="246"/>
+      <c r="C187" s="247"/>
+      <c r="D187" s="267"/>
+      <c r="E187" s="249"/>
       <c r="F187" s="73" t="s">
         <v>293</v>
       </c>
@@ -29655,12 +29655,12 @@
 )</f>
         <v>71-1-1</v>
       </c>
-      <c r="B188" s="247"/>
-      <c r="C188" s="250"/>
-      <c r="D188" s="250" t="s">
+      <c r="B188" s="246"/>
+      <c r="C188" s="249"/>
+      <c r="D188" s="249" t="s">
         <v>494</v>
       </c>
-      <c r="E188" s="250" t="s">
+      <c r="E188" s="249" t="s">
         <v>497</v>
       </c>
       <c r="F188" s="73" t="s">
@@ -29693,14 +29693,14 @@
 )</f>
         <v>72-1-1</v>
       </c>
-      <c r="B189" s="247"/>
-      <c r="C189" s="248" t="s">
+      <c r="B189" s="246"/>
+      <c r="C189" s="247" t="s">
         <v>295</v>
       </c>
-      <c r="D189" s="247" t="s">
+      <c r="D189" s="246" t="s">
         <v>548</v>
       </c>
-      <c r="E189" s="248" t="s">
+      <c r="E189" s="247" t="s">
         <v>297</v>
       </c>
       <c r="F189" s="73" t="s">
@@ -29733,10 +29733,10 @@
 )</f>
         <v>72-2-1</v>
       </c>
-      <c r="B190" s="247"/>
-      <c r="C190" s="267"/>
-      <c r="D190" s="247"/>
-      <c r="E190" s="248"/>
+      <c r="B190" s="246"/>
+      <c r="C190" s="266"/>
+      <c r="D190" s="246"/>
+      <c r="E190" s="247"/>
       <c r="F190" s="73" t="s">
         <v>299</v>
       </c>
@@ -29767,10 +29767,10 @@
 )</f>
         <v>72-3-1</v>
       </c>
-      <c r="B191" s="247"/>
-      <c r="C191" s="267"/>
-      <c r="D191" s="247"/>
-      <c r="E191" s="248"/>
+      <c r="B191" s="246"/>
+      <c r="C191" s="266"/>
+      <c r="D191" s="246"/>
+      <c r="E191" s="247"/>
       <c r="F191" s="73" t="s">
         <v>300</v>
       </c>
@@ -29801,10 +29801,10 @@
 )</f>
         <v>72-4-1</v>
       </c>
-      <c r="B192" s="247"/>
-      <c r="C192" s="267"/>
-      <c r="D192" s="247"/>
-      <c r="E192" s="248"/>
+      <c r="B192" s="246"/>
+      <c r="C192" s="266"/>
+      <c r="D192" s="246"/>
+      <c r="E192" s="247"/>
       <c r="F192" s="73" t="s">
         <v>301</v>
       </c>
@@ -29835,10 +29835,10 @@
 )</f>
         <v>72-5-1</v>
       </c>
-      <c r="B193" s="247"/>
-      <c r="C193" s="267"/>
-      <c r="D193" s="247"/>
-      <c r="E193" s="248"/>
+      <c r="B193" s="246"/>
+      <c r="C193" s="266"/>
+      <c r="D193" s="246"/>
+      <c r="E193" s="247"/>
       <c r="F193" s="73" t="s">
         <v>302</v>
       </c>
@@ -29869,10 +29869,10 @@
 )</f>
         <v>72-6-1</v>
       </c>
-      <c r="B194" s="247"/>
-      <c r="C194" s="267"/>
-      <c r="D194" s="247"/>
-      <c r="E194" s="248"/>
+      <c r="B194" s="246"/>
+      <c r="C194" s="266"/>
+      <c r="D194" s="246"/>
+      <c r="E194" s="247"/>
       <c r="F194" s="73" t="s">
         <v>303</v>
       </c>
@@ -29903,10 +29903,10 @@
 )</f>
         <v>72-7-1</v>
       </c>
-      <c r="B195" s="247"/>
-      <c r="C195" s="267"/>
-      <c r="D195" s="247"/>
-      <c r="E195" s="250"/>
+      <c r="B195" s="246"/>
+      <c r="C195" s="266"/>
+      <c r="D195" s="246"/>
+      <c r="E195" s="249"/>
       <c r="F195" s="73" t="s">
         <v>304</v>
       </c>
@@ -29937,9 +29937,9 @@
 )</f>
         <v>73-1-1</v>
       </c>
-      <c r="B196" s="247"/>
-      <c r="C196" s="266"/>
-      <c r="D196" s="250"/>
+      <c r="B196" s="246"/>
+      <c r="C196" s="265"/>
+      <c r="D196" s="249"/>
       <c r="E196" s="156" t="s">
         <v>305</v>
       </c>
@@ -29973,12 +29973,12 @@
 )</f>
         <v>74-1-1</v>
       </c>
-      <c r="B197" s="247"/>
-      <c r="C197" s="266"/>
-      <c r="D197" s="247" t="s">
+      <c r="B197" s="246"/>
+      <c r="C197" s="265"/>
+      <c r="D197" s="246" t="s">
         <v>307</v>
       </c>
-      <c r="E197" s="248" t="s">
+      <c r="E197" s="247" t="s">
         <v>125</v>
       </c>
       <c r="F197" s="73" t="s">
@@ -30011,10 +30011,10 @@
 )</f>
         <v>74-2-1</v>
       </c>
-      <c r="B198" s="247"/>
-      <c r="C198" s="266"/>
-      <c r="D198" s="247"/>
-      <c r="E198" s="248"/>
+      <c r="B198" s="246"/>
+      <c r="C198" s="265"/>
+      <c r="D198" s="246"/>
+      <c r="E198" s="247"/>
       <c r="F198" s="73" t="s">
         <v>309</v>
       </c>
@@ -30045,10 +30045,10 @@
 )</f>
         <v>74-3-1</v>
       </c>
-      <c r="B199" s="247"/>
-      <c r="C199" s="266"/>
-      <c r="D199" s="247"/>
-      <c r="E199" s="248"/>
+      <c r="B199" s="246"/>
+      <c r="C199" s="265"/>
+      <c r="D199" s="246"/>
+      <c r="E199" s="247"/>
       <c r="F199" s="73" t="s">
         <v>310</v>
       </c>
@@ -30079,10 +30079,10 @@
 )</f>
         <v>74-4-1</v>
       </c>
-      <c r="B200" s="247"/>
-      <c r="C200" s="266"/>
-      <c r="D200" s="247"/>
-      <c r="E200" s="248"/>
+      <c r="B200" s="246"/>
+      <c r="C200" s="265"/>
+      <c r="D200" s="246"/>
+      <c r="E200" s="247"/>
       <c r="F200" s="73" t="s">
         <v>311</v>
       </c>
@@ -30113,10 +30113,10 @@
 )</f>
         <v>74-5-1</v>
       </c>
-      <c r="B201" s="247"/>
-      <c r="C201" s="266"/>
-      <c r="D201" s="247"/>
-      <c r="E201" s="248"/>
+      <c r="B201" s="246"/>
+      <c r="C201" s="265"/>
+      <c r="D201" s="246"/>
+      <c r="E201" s="247"/>
       <c r="F201" s="73" t="s">
         <v>312</v>
       </c>
@@ -30147,10 +30147,10 @@
 )</f>
         <v>74-6-1</v>
       </c>
-      <c r="B202" s="247"/>
-      <c r="C202" s="266"/>
-      <c r="D202" s="247"/>
-      <c r="E202" s="248"/>
+      <c r="B202" s="246"/>
+      <c r="C202" s="265"/>
+      <c r="D202" s="246"/>
+      <c r="E202" s="247"/>
       <c r="F202" s="73" t="s">
         <v>313</v>
       </c>
@@ -30181,10 +30181,10 @@
 )</f>
         <v>74-7-1</v>
       </c>
-      <c r="B203" s="247"/>
-      <c r="C203" s="266"/>
-      <c r="D203" s="247"/>
-      <c r="E203" s="248"/>
+      <c r="B203" s="246"/>
+      <c r="C203" s="265"/>
+      <c r="D203" s="246"/>
+      <c r="E203" s="247"/>
       <c r="F203" s="73" t="s">
         <v>550</v>
       </c>
@@ -30215,10 +30215,10 @@
 )</f>
         <v>74-8-1</v>
       </c>
-      <c r="B204" s="247"/>
-      <c r="C204" s="266"/>
-      <c r="D204" s="247"/>
-      <c r="E204" s="248"/>
+      <c r="B204" s="246"/>
+      <c r="C204" s="265"/>
+      <c r="D204" s="246"/>
+      <c r="E204" s="247"/>
       <c r="F204" s="73" t="s">
         <v>315</v>
       </c>
@@ -30249,10 +30249,10 @@
 )</f>
         <v>74-9-1</v>
       </c>
-      <c r="B205" s="247"/>
-      <c r="C205" s="266"/>
-      <c r="D205" s="247"/>
-      <c r="E205" s="248"/>
+      <c r="B205" s="246"/>
+      <c r="C205" s="265"/>
+      <c r="D205" s="246"/>
+      <c r="E205" s="247"/>
       <c r="F205" s="73" t="s">
         <v>316</v>
       </c>
@@ -30283,10 +30283,10 @@
 )</f>
         <v>74-10-1</v>
       </c>
-      <c r="B206" s="247"/>
-      <c r="C206" s="266"/>
-      <c r="D206" s="247"/>
-      <c r="E206" s="248"/>
+      <c r="B206" s="246"/>
+      <c r="C206" s="265"/>
+      <c r="D206" s="246"/>
+      <c r="E206" s="247"/>
       <c r="F206" s="73" t="s">
         <v>317</v>
       </c>
@@ -30317,10 +30317,10 @@
 )</f>
         <v>74-11-1</v>
       </c>
-      <c r="B207" s="247"/>
-      <c r="C207" s="266"/>
-      <c r="D207" s="247"/>
-      <c r="E207" s="248"/>
+      <c r="B207" s="246"/>
+      <c r="C207" s="265"/>
+      <c r="D207" s="246"/>
+      <c r="E207" s="247"/>
       <c r="F207" s="73" t="s">
         <v>318</v>
       </c>
@@ -30351,10 +30351,10 @@
 )</f>
         <v>74-12-1</v>
       </c>
-      <c r="B208" s="247"/>
-      <c r="C208" s="266"/>
-      <c r="D208" s="247"/>
-      <c r="E208" s="248"/>
+      <c r="B208" s="246"/>
+      <c r="C208" s="265"/>
+      <c r="D208" s="246"/>
+      <c r="E208" s="247"/>
       <c r="F208" s="73" t="s">
         <v>319</v>
       </c>
@@ -30385,10 +30385,10 @@
 )</f>
         <v>74-13-1</v>
       </c>
-      <c r="B209" s="247"/>
-      <c r="C209" s="266"/>
-      <c r="D209" s="250"/>
-      <c r="E209" s="249"/>
+      <c r="B209" s="246"/>
+      <c r="C209" s="265"/>
+      <c r="D209" s="249"/>
+      <c r="E209" s="248"/>
       <c r="F209" s="73" t="s">
         <v>320</v>
       </c>
@@ -30419,12 +30419,12 @@
 )</f>
         <v>75-1-1</v>
       </c>
-      <c r="B210" s="247"/>
-      <c r="C210" s="266"/>
-      <c r="D210" s="246" t="s">
+      <c r="B210" s="246"/>
+      <c r="C210" s="265"/>
+      <c r="D210" s="245" t="s">
         <v>551</v>
       </c>
-      <c r="E210" s="245" t="s">
+      <c r="E210" s="244" t="s">
         <v>125</v>
       </c>
       <c r="F210" s="73" t="s">
@@ -30457,10 +30457,10 @@
 )</f>
         <v>75-2-1</v>
       </c>
-      <c r="B211" s="247"/>
-      <c r="C211" s="266"/>
-      <c r="D211" s="247"/>
-      <c r="E211" s="248"/>
+      <c r="B211" s="246"/>
+      <c r="C211" s="265"/>
+      <c r="D211" s="246"/>
+      <c r="E211" s="247"/>
       <c r="F211" s="73" t="s">
         <v>323</v>
       </c>
@@ -30491,10 +30491,10 @@
 )</f>
         <v>75-3-1</v>
       </c>
-      <c r="B212" s="247"/>
-      <c r="C212" s="266"/>
-      <c r="D212" s="247"/>
-      <c r="E212" s="248"/>
+      <c r="B212" s="246"/>
+      <c r="C212" s="265"/>
+      <c r="D212" s="246"/>
+      <c r="E212" s="247"/>
       <c r="F212" s="73" t="s">
         <v>324</v>
       </c>
@@ -30525,10 +30525,10 @@
 )</f>
         <v>75-4-1</v>
       </c>
-      <c r="B213" s="247"/>
-      <c r="C213" s="266"/>
-      <c r="D213" s="247"/>
-      <c r="E213" s="248"/>
+      <c r="B213" s="246"/>
+      <c r="C213" s="265"/>
+      <c r="D213" s="246"/>
+      <c r="E213" s="247"/>
       <c r="F213" s="73" t="s">
         <v>310</v>
       </c>
@@ -30559,10 +30559,10 @@
 )</f>
         <v>75-5-1</v>
       </c>
-      <c r="B214" s="247"/>
-      <c r="C214" s="266"/>
-      <c r="D214" s="247"/>
-      <c r="E214" s="248"/>
+      <c r="B214" s="246"/>
+      <c r="C214" s="265"/>
+      <c r="D214" s="246"/>
+      <c r="E214" s="247"/>
       <c r="F214" s="73" t="s">
         <v>311</v>
       </c>
@@ -30593,10 +30593,10 @@
 )</f>
         <v>75-6-1</v>
       </c>
-      <c r="B215" s="247"/>
-      <c r="C215" s="266"/>
-      <c r="D215" s="247"/>
-      <c r="E215" s="248"/>
+      <c r="B215" s="246"/>
+      <c r="C215" s="265"/>
+      <c r="D215" s="246"/>
+      <c r="E215" s="247"/>
       <c r="F215" s="73" t="s">
         <v>325</v>
       </c>
@@ -30627,10 +30627,10 @@
 )</f>
         <v>75-7-1</v>
       </c>
-      <c r="B216" s="247"/>
-      <c r="C216" s="266"/>
-      <c r="D216" s="247"/>
-      <c r="E216" s="248"/>
+      <c r="B216" s="246"/>
+      <c r="C216" s="265"/>
+      <c r="D216" s="246"/>
+      <c r="E216" s="247"/>
       <c r="F216" s="73" t="s">
         <v>326</v>
       </c>
@@ -30661,10 +30661,10 @@
 )</f>
         <v>75-8-1</v>
       </c>
-      <c r="B217" s="247"/>
-      <c r="C217" s="266"/>
-      <c r="D217" s="247"/>
-      <c r="E217" s="248"/>
+      <c r="B217" s="246"/>
+      <c r="C217" s="265"/>
+      <c r="D217" s="246"/>
+      <c r="E217" s="247"/>
       <c r="F217" s="73" t="s">
         <v>552</v>
       </c>
@@ -30695,10 +30695,10 @@
 )</f>
         <v>75-9-1</v>
       </c>
-      <c r="B218" s="247"/>
-      <c r="C218" s="266"/>
-      <c r="D218" s="247"/>
-      <c r="E218" s="248"/>
+      <c r="B218" s="246"/>
+      <c r="C218" s="265"/>
+      <c r="D218" s="246"/>
+      <c r="E218" s="247"/>
       <c r="F218" s="73" t="s">
         <v>553</v>
       </c>
@@ -30729,10 +30729,10 @@
 )</f>
         <v>75-10-1</v>
       </c>
-      <c r="B219" s="247"/>
-      <c r="C219" s="266"/>
-      <c r="D219" s="247"/>
-      <c r="E219" s="248"/>
+      <c r="B219" s="246"/>
+      <c r="C219" s="265"/>
+      <c r="D219" s="246"/>
+      <c r="E219" s="247"/>
       <c r="F219" s="73" t="s">
         <v>328</v>
       </c>
@@ -30763,10 +30763,10 @@
 )</f>
         <v>75-11-1</v>
       </c>
-      <c r="B220" s="247"/>
-      <c r="C220" s="266"/>
-      <c r="D220" s="247"/>
-      <c r="E220" s="248"/>
+      <c r="B220" s="246"/>
+      <c r="C220" s="265"/>
+      <c r="D220" s="246"/>
+      <c r="E220" s="247"/>
       <c r="F220" s="73" t="s">
         <v>329</v>
       </c>
@@ -30797,10 +30797,10 @@
 )</f>
         <v>75-12-1</v>
       </c>
-      <c r="B221" s="247"/>
-      <c r="C221" s="266"/>
-      <c r="D221" s="247"/>
-      <c r="E221" s="248"/>
+      <c r="B221" s="246"/>
+      <c r="C221" s="265"/>
+      <c r="D221" s="246"/>
+      <c r="E221" s="247"/>
       <c r="F221" s="73" t="s">
         <v>330</v>
       </c>
@@ -30831,10 +30831,10 @@
 )</f>
         <v>75-13-1</v>
       </c>
-      <c r="B222" s="247"/>
-      <c r="C222" s="266"/>
-      <c r="D222" s="247"/>
-      <c r="E222" s="248"/>
+      <c r="B222" s="246"/>
+      <c r="C222" s="265"/>
+      <c r="D222" s="246"/>
+      <c r="E222" s="247"/>
       <c r="F222" s="73" t="s">
         <v>331</v>
       </c>
@@ -30865,10 +30865,10 @@
 )</f>
         <v>75-14-1</v>
       </c>
-      <c r="B223" s="247"/>
-      <c r="C223" s="266"/>
-      <c r="D223" s="247"/>
-      <c r="E223" s="248"/>
+      <c r="B223" s="246"/>
+      <c r="C223" s="265"/>
+      <c r="D223" s="246"/>
+      <c r="E223" s="247"/>
       <c r="F223" s="73" t="s">
         <v>332</v>
       </c>
@@ -30899,10 +30899,10 @@
 )</f>
         <v>75-15-1</v>
       </c>
-      <c r="B224" s="247"/>
-      <c r="C224" s="266"/>
-      <c r="D224" s="247"/>
-      <c r="E224" s="250"/>
+      <c r="B224" s="246"/>
+      <c r="C224" s="265"/>
+      <c r="D224" s="246"/>
+      <c r="E224" s="249"/>
       <c r="F224" s="73" t="s">
         <v>320</v>
       </c>
@@ -30933,10 +30933,10 @@
 )</f>
         <v>76-1-1</v>
       </c>
-      <c r="B225" s="247"/>
-      <c r="C225" s="266"/>
-      <c r="D225" s="247"/>
-      <c r="E225" s="248" t="s">
+      <c r="B225" s="246"/>
+      <c r="C225" s="265"/>
+      <c r="D225" s="246"/>
+      <c r="E225" s="247" t="s">
         <v>333</v>
       </c>
       <c r="F225" s="73" t="s">
@@ -30969,10 +30969,10 @@
 )</f>
         <v>76-2-1</v>
       </c>
-      <c r="B226" s="247"/>
-      <c r="C226" s="266"/>
-      <c r="D226" s="247"/>
-      <c r="E226" s="248"/>
+      <c r="B226" s="246"/>
+      <c r="C226" s="265"/>
+      <c r="D226" s="246"/>
+      <c r="E226" s="247"/>
       <c r="F226" s="73" t="s">
         <v>335</v>
       </c>
@@ -31003,10 +31003,10 @@
 )</f>
         <v>76-3-1</v>
       </c>
-      <c r="B227" s="247"/>
-      <c r="C227" s="266"/>
-      <c r="D227" s="247"/>
-      <c r="E227" s="250"/>
+      <c r="B227" s="246"/>
+      <c r="C227" s="265"/>
+      <c r="D227" s="246"/>
+      <c r="E227" s="249"/>
       <c r="F227" s="73" t="s">
         <v>336</v>
       </c>
@@ -31037,9 +31037,9 @@
 )</f>
         <v>77-1-1</v>
       </c>
-      <c r="B228" s="247"/>
-      <c r="C228" s="266"/>
-      <c r="D228" s="247"/>
+      <c r="B228" s="246"/>
+      <c r="C228" s="265"/>
+      <c r="D228" s="246"/>
       <c r="E228" s="156" t="s">
         <v>150</v>
       </c>
@@ -31073,10 +31073,10 @@
 )</f>
         <v>78-1-1</v>
       </c>
-      <c r="B229" s="250"/>
-      <c r="C229" s="250"/>
-      <c r="D229" s="250"/>
-      <c r="E229" s="269" t="s">
+      <c r="B229" s="249"/>
+      <c r="C229" s="249"/>
+      <c r="D229" s="249"/>
+      <c r="E229" s="268" t="s">
         <v>338</v>
       </c>
       <c r="F229" s="73" t="s">
@@ -31109,13 +31109,13 @@
 )</f>
         <v>79-1-1</v>
       </c>
-      <c r="B230" s="246" t="s">
+      <c r="B230" s="245" t="s">
         <v>340</v>
       </c>
-      <c r="C230" s="246" t="s">
+      <c r="C230" s="245" t="s">
         <v>192</v>
       </c>
-      <c r="D230" s="246" t="s">
+      <c r="D230" s="245" t="s">
         <v>497</v>
       </c>
       <c r="E230" s="156" t="s">
@@ -31151,10 +31151,10 @@
 )</f>
         <v>80-1-1</v>
       </c>
-      <c r="B231" s="247"/>
-      <c r="C231" s="247"/>
-      <c r="D231" s="247"/>
-      <c r="E231" s="248" t="s">
+      <c r="B231" s="246"/>
+      <c r="C231" s="246"/>
+      <c r="D231" s="246"/>
+      <c r="E231" s="247" t="s">
         <v>136</v>
       </c>
       <c r="F231" s="73" t="s">
@@ -31187,10 +31187,10 @@
 )</f>
         <v>80-2-1</v>
       </c>
-      <c r="B232" s="247"/>
-      <c r="C232" s="247"/>
-      <c r="D232" s="247"/>
-      <c r="E232" s="248"/>
+      <c r="B232" s="246"/>
+      <c r="C232" s="246"/>
+      <c r="D232" s="246"/>
+      <c r="E232" s="247"/>
       <c r="F232" s="73" t="s">
         <v>343</v>
       </c>
@@ -31221,10 +31221,10 @@
 )</f>
         <v>80-3-1</v>
       </c>
-      <c r="B233" s="247"/>
-      <c r="C233" s="247"/>
-      <c r="D233" s="247"/>
-      <c r="E233" s="248"/>
+      <c r="B233" s="246"/>
+      <c r="C233" s="246"/>
+      <c r="D233" s="246"/>
+      <c r="E233" s="247"/>
       <c r="F233" s="73" t="s">
         <v>344</v>
       </c>
@@ -31255,10 +31255,10 @@
 )</f>
         <v>80-4-1</v>
       </c>
-      <c r="B234" s="247"/>
-      <c r="C234" s="247"/>
-      <c r="D234" s="247"/>
-      <c r="E234" s="248"/>
+      <c r="B234" s="246"/>
+      <c r="C234" s="246"/>
+      <c r="D234" s="246"/>
+      <c r="E234" s="247"/>
       <c r="F234" s="73" t="s">
         <v>345</v>
       </c>
@@ -31289,10 +31289,10 @@
 )</f>
         <v>80-5-1</v>
       </c>
-      <c r="B235" s="247"/>
-      <c r="C235" s="247"/>
-      <c r="D235" s="247"/>
-      <c r="E235" s="250"/>
+      <c r="B235" s="246"/>
+      <c r="C235" s="246"/>
+      <c r="D235" s="246"/>
+      <c r="E235" s="249"/>
       <c r="F235" s="73" t="s">
         <v>346</v>
       </c>
@@ -31323,10 +31323,10 @@
 )</f>
         <v>81-1-1</v>
       </c>
-      <c r="B236" s="247"/>
-      <c r="C236" s="247"/>
-      <c r="D236" s="247"/>
-      <c r="E236" s="248" t="s">
+      <c r="B236" s="246"/>
+      <c r="C236" s="246"/>
+      <c r="D236" s="246"/>
+      <c r="E236" s="247" t="s">
         <v>203</v>
       </c>
       <c r="F236" s="73" t="s">
@@ -31359,10 +31359,10 @@
 )</f>
         <v>81-2-1</v>
       </c>
-      <c r="B237" s="247"/>
-      <c r="C237" s="247"/>
-      <c r="D237" s="247"/>
-      <c r="E237" s="248"/>
+      <c r="B237" s="246"/>
+      <c r="C237" s="246"/>
+      <c r="D237" s="246"/>
+      <c r="E237" s="247"/>
       <c r="F237" s="73" t="s">
         <v>348</v>
       </c>
@@ -31393,10 +31393,10 @@
 )</f>
         <v>81-3-1</v>
       </c>
-      <c r="B238" s="247"/>
-      <c r="C238" s="247"/>
-      <c r="D238" s="247"/>
-      <c r="E238" s="248"/>
+      <c r="B238" s="246"/>
+      <c r="C238" s="246"/>
+      <c r="D238" s="246"/>
+      <c r="E238" s="247"/>
       <c r="F238" s="73" t="s">
         <v>349</v>
       </c>
@@ -31427,10 +31427,10 @@
 )</f>
         <v>81-4-1</v>
       </c>
-      <c r="B239" s="247"/>
-      <c r="C239" s="247"/>
-      <c r="D239" s="247"/>
-      <c r="E239" s="248"/>
+      <c r="B239" s="246"/>
+      <c r="C239" s="246"/>
+      <c r="D239" s="246"/>
+      <c r="E239" s="247"/>
       <c r="F239" s="73" t="s">
         <v>350</v>
       </c>
@@ -31461,10 +31461,10 @@
 )</f>
         <v>81-5-1</v>
       </c>
-      <c r="B240" s="247"/>
-      <c r="C240" s="247"/>
-      <c r="D240" s="247"/>
-      <c r="E240" s="250"/>
+      <c r="B240" s="246"/>
+      <c r="C240" s="246"/>
+      <c r="D240" s="246"/>
+      <c r="E240" s="249"/>
       <c r="F240" s="73" t="s">
         <v>351</v>
       </c>
@@ -31495,10 +31495,10 @@
 )</f>
         <v>82-1-1</v>
       </c>
-      <c r="B241" s="247"/>
-      <c r="C241" s="250"/>
-      <c r="D241" s="250"/>
-      <c r="E241" s="250" t="s">
+      <c r="B241" s="246"/>
+      <c r="C241" s="249"/>
+      <c r="D241" s="249"/>
+      <c r="E241" s="249" t="s">
         <v>541</v>
       </c>
       <c r="F241" s="73" t="s">
@@ -31531,14 +31531,14 @@
 )</f>
         <v>83-1-1</v>
       </c>
-      <c r="B242" s="250"/>
-      <c r="C242" s="250" t="s">
+      <c r="B242" s="249"/>
+      <c r="C242" s="249" t="s">
         <v>526</v>
       </c>
-      <c r="D242" s="250" t="s">
+      <c r="D242" s="249" t="s">
         <v>212</v>
       </c>
-      <c r="E242" s="249" t="s">
+      <c r="E242" s="248" t="s">
         <v>213</v>
       </c>
       <c r="F242" s="73" t="s">
@@ -31571,16 +31571,16 @@
 )</f>
         <v>84-1-1</v>
       </c>
-      <c r="B243" s="246" t="s">
+      <c r="B243" s="245" t="s">
         <v>354</v>
       </c>
-      <c r="C243" s="246" t="s">
+      <c r="C243" s="245" t="s">
         <v>355</v>
       </c>
-      <c r="D243" s="246" t="s">
+      <c r="D243" s="245" t="s">
         <v>497</v>
       </c>
-      <c r="E243" s="245" t="s">
+      <c r="E243" s="244" t="s">
         <v>497</v>
       </c>
       <c r="F243" s="73" t="s">
@@ -31613,10 +31613,10 @@
 )</f>
         <v>84-2-1</v>
       </c>
-      <c r="B244" s="247"/>
-      <c r="C244" s="247"/>
-      <c r="D244" s="250"/>
-      <c r="E244" s="250"/>
+      <c r="B244" s="246"/>
+      <c r="C244" s="246"/>
+      <c r="D244" s="249"/>
+      <c r="E244" s="249"/>
       <c r="F244" s="73" t="s">
         <v>357</v>
       </c>
@@ -31647,12 +31647,12 @@
 )</f>
         <v>85-1-1</v>
       </c>
-      <c r="B245" s="247"/>
-      <c r="C245" s="247"/>
-      <c r="D245" s="247" t="s">
+      <c r="B245" s="246"/>
+      <c r="C245" s="246"/>
+      <c r="D245" s="246" t="s">
         <v>494</v>
       </c>
-      <c r="E245" s="248" t="s">
+      <c r="E245" s="247" t="s">
         <v>497</v>
       </c>
       <c r="F245" s="73" t="s">
@@ -31685,10 +31685,10 @@
 )</f>
         <v>85-2-1</v>
       </c>
-      <c r="B246" s="247"/>
-      <c r="C246" s="250"/>
-      <c r="D246" s="250"/>
-      <c r="E246" s="250"/>
+      <c r="B246" s="246"/>
+      <c r="C246" s="249"/>
+      <c r="D246" s="249"/>
+      <c r="E246" s="249"/>
       <c r="F246" s="73" t="s">
         <v>359</v>
       </c>
@@ -31719,14 +31719,14 @@
 )</f>
         <v>86-1-1</v>
       </c>
-      <c r="B247" s="247"/>
-      <c r="C247" s="248" t="s">
+      <c r="B247" s="246"/>
+      <c r="C247" s="247" t="s">
         <v>360</v>
       </c>
-      <c r="D247" s="247" t="s">
+      <c r="D247" s="246" t="s">
         <v>212</v>
       </c>
-      <c r="E247" s="250" t="s">
+      <c r="E247" s="249" t="s">
         <v>230</v>
       </c>
       <c r="F247" s="73" t="s">
@@ -31759,10 +31759,10 @@
 )</f>
         <v>87-1-1</v>
       </c>
-      <c r="B248" s="247"/>
-      <c r="C248" s="248"/>
-      <c r="D248" s="247"/>
-      <c r="E248" s="250" t="s">
+      <c r="B248" s="246"/>
+      <c r="C248" s="247"/>
+      <c r="D248" s="246"/>
+      <c r="E248" s="249" t="s">
         <v>234</v>
       </c>
       <c r="F248" s="73" t="s">
@@ -31795,10 +31795,10 @@
 )</f>
         <v>88-1-1</v>
       </c>
-      <c r="B249" s="247"/>
-      <c r="C249" s="266"/>
-      <c r="D249" s="248"/>
-      <c r="E249" s="250" t="s">
+      <c r="B249" s="246"/>
+      <c r="C249" s="265"/>
+      <c r="D249" s="247"/>
+      <c r="E249" s="249" t="s">
         <v>213</v>
       </c>
       <c r="F249" s="73" t="s">
@@ -31831,10 +31831,10 @@
 )</f>
         <v>89-1-1</v>
       </c>
-      <c r="B250" s="247"/>
-      <c r="C250" s="248"/>
-      <c r="D250" s="250"/>
-      <c r="E250" s="250" t="s">
+      <c r="B250" s="246"/>
+      <c r="C250" s="247"/>
+      <c r="D250" s="249"/>
+      <c r="E250" s="249" t="s">
         <v>237</v>
       </c>
       <c r="F250" s="73" t="s">
@@ -31867,12 +31867,12 @@
 )</f>
         <v>90-1-1</v>
       </c>
-      <c r="B251" s="247"/>
-      <c r="C251" s="266"/>
-      <c r="D251" s="247" t="s">
+      <c r="B251" s="246"/>
+      <c r="C251" s="265"/>
+      <c r="D251" s="246" t="s">
         <v>246</v>
       </c>
-      <c r="E251" s="270" t="s">
+      <c r="E251" s="269" t="s">
         <v>497</v>
       </c>
       <c r="F251" s="73" t="s">
@@ -31905,10 +31905,10 @@
 )</f>
         <v>90-2-1</v>
       </c>
-      <c r="B252" s="247"/>
-      <c r="C252" s="266"/>
-      <c r="D252" s="248"/>
-      <c r="E252" s="250"/>
+      <c r="B252" s="246"/>
+      <c r="C252" s="265"/>
+      <c r="D252" s="247"/>
+      <c r="E252" s="249"/>
       <c r="F252" s="73" t="s">
         <v>366</v>
       </c>
@@ -31939,10 +31939,10 @@
 )</f>
         <v>91-1-1</v>
       </c>
-      <c r="B253" s="247"/>
-      <c r="C253" s="266"/>
-      <c r="D253" s="248"/>
-      <c r="E253" s="248" t="s">
+      <c r="B253" s="246"/>
+      <c r="C253" s="265"/>
+      <c r="D253" s="247"/>
+      <c r="E253" s="247" t="s">
         <v>125</v>
       </c>
       <c r="F253" s="73" t="s">
@@ -31975,10 +31975,10 @@
 )</f>
         <v>91-2-1</v>
       </c>
-      <c r="B254" s="247"/>
-      <c r="C254" s="266"/>
-      <c r="D254" s="248"/>
-      <c r="E254" s="248"/>
+      <c r="B254" s="246"/>
+      <c r="C254" s="265"/>
+      <c r="D254" s="247"/>
+      <c r="E254" s="247"/>
       <c r="F254" s="73" t="s">
         <v>368</v>
       </c>
@@ -32009,10 +32009,10 @@
 )</f>
         <v>91-3-1</v>
       </c>
-      <c r="B255" s="247"/>
-      <c r="C255" s="266"/>
-      <c r="D255" s="248"/>
-      <c r="E255" s="248"/>
+      <c r="B255" s="246"/>
+      <c r="C255" s="265"/>
+      <c r="D255" s="247"/>
+      <c r="E255" s="247"/>
       <c r="F255" s="73" t="s">
         <v>555</v>
       </c>
@@ -32043,10 +32043,10 @@
 )</f>
         <v>91-4-1</v>
       </c>
-      <c r="B256" s="247"/>
-      <c r="C256" s="266"/>
-      <c r="D256" s="248"/>
-      <c r="E256" s="248"/>
+      <c r="B256" s="246"/>
+      <c r="C256" s="265"/>
+      <c r="D256" s="247"/>
+      <c r="E256" s="247"/>
       <c r="F256" s="73" t="s">
         <v>370</v>
       </c>
@@ -32077,10 +32077,10 @@
 )</f>
         <v>91-5-1</v>
       </c>
-      <c r="B257" s="247"/>
-      <c r="C257" s="247"/>
-      <c r="D257" s="247"/>
-      <c r="E257" s="270"/>
+      <c r="B257" s="246"/>
+      <c r="C257" s="246"/>
+      <c r="D257" s="246"/>
+      <c r="E257" s="269"/>
       <c r="F257" s="73" t="s">
         <v>371</v>
       </c>
@@ -32111,10 +32111,10 @@
 )</f>
         <v>91-6-1</v>
       </c>
-      <c r="B258" s="247"/>
-      <c r="C258" s="247"/>
-      <c r="D258" s="247"/>
-      <c r="E258" s="270"/>
+      <c r="B258" s="246"/>
+      <c r="C258" s="246"/>
+      <c r="D258" s="246"/>
+      <c r="E258" s="269"/>
       <c r="F258" s="73" t="s">
         <v>372</v>
       </c>
@@ -32145,10 +32145,10 @@
 )</f>
         <v>91-7-1</v>
       </c>
-      <c r="B259" s="247"/>
-      <c r="C259" s="247"/>
-      <c r="D259" s="247"/>
-      <c r="E259" s="270"/>
+      <c r="B259" s="246"/>
+      <c r="C259" s="246"/>
+      <c r="D259" s="246"/>
+      <c r="E259" s="269"/>
       <c r="F259" s="73" t="s">
         <v>373</v>
       </c>
@@ -32179,10 +32179,10 @@
 )</f>
         <v>91-8-1</v>
       </c>
-      <c r="B260" s="247"/>
-      <c r="C260" s="247"/>
-      <c r="D260" s="247"/>
-      <c r="E260" s="270"/>
+      <c r="B260" s="246"/>
+      <c r="C260" s="246"/>
+      <c r="D260" s="246"/>
+      <c r="E260" s="269"/>
       <c r="F260" s="73" t="s">
         <v>374</v>
       </c>
@@ -32213,10 +32213,10 @@
 )</f>
         <v>91-9-1</v>
       </c>
-      <c r="B261" s="247"/>
-      <c r="C261" s="247"/>
-      <c r="D261" s="247"/>
-      <c r="E261" s="270"/>
+      <c r="B261" s="246"/>
+      <c r="C261" s="246"/>
+      <c r="D261" s="246"/>
+      <c r="E261" s="269"/>
       <c r="F261" s="73" t="s">
         <v>375</v>
       </c>
@@ -32247,10 +32247,10 @@
 )</f>
         <v>91-10-1</v>
       </c>
-      <c r="B262" s="247"/>
-      <c r="C262" s="247"/>
-      <c r="D262" s="247"/>
-      <c r="E262" s="248"/>
+      <c r="B262" s="246"/>
+      <c r="C262" s="246"/>
+      <c r="D262" s="246"/>
+      <c r="E262" s="247"/>
       <c r="F262" s="73" t="s">
         <v>376</v>
       </c>
@@ -32281,10 +32281,10 @@
 )</f>
         <v>91-11-1</v>
       </c>
-      <c r="B263" s="247"/>
-      <c r="C263" s="247"/>
-      <c r="D263" s="247"/>
-      <c r="E263" s="250"/>
+      <c r="B263" s="246"/>
+      <c r="C263" s="246"/>
+      <c r="D263" s="246"/>
+      <c r="E263" s="249"/>
       <c r="F263" s="73" t="s">
         <v>377</v>
       </c>
@@ -32315,10 +32315,10 @@
 )</f>
         <v>92-1-1</v>
       </c>
-      <c r="B264" s="247"/>
-      <c r="C264" s="247"/>
-      <c r="D264" s="247"/>
-      <c r="E264" s="248" t="s">
+      <c r="B264" s="246"/>
+      <c r="C264" s="246"/>
+      <c r="D264" s="246"/>
+      <c r="E264" s="247" t="s">
         <v>59</v>
       </c>
       <c r="F264" s="73" t="s">
@@ -32351,10 +32351,10 @@
 )</f>
         <v>92-2-1</v>
       </c>
-      <c r="B265" s="247"/>
-      <c r="C265" s="247"/>
-      <c r="D265" s="247"/>
-      <c r="E265" s="248"/>
+      <c r="B265" s="246"/>
+      <c r="C265" s="246"/>
+      <c r="D265" s="246"/>
+      <c r="E265" s="247"/>
       <c r="F265" s="73" t="s">
         <v>379</v>
       </c>
@@ -32385,10 +32385,10 @@
 )</f>
         <v>92-3-1</v>
       </c>
-      <c r="B266" s="247"/>
-      <c r="C266" s="266"/>
-      <c r="D266" s="247"/>
-      <c r="E266" s="248"/>
+      <c r="B266" s="246"/>
+      <c r="C266" s="265"/>
+      <c r="D266" s="246"/>
+      <c r="E266" s="247"/>
       <c r="F266" s="73" t="s">
         <v>380</v>
       </c>
@@ -32419,10 +32419,10 @@
 )</f>
         <v>92-4-1</v>
       </c>
-      <c r="B267" s="247"/>
-      <c r="C267" s="266"/>
-      <c r="D267" s="248"/>
-      <c r="E267" s="248"/>
+      <c r="B267" s="246"/>
+      <c r="C267" s="265"/>
+      <c r="D267" s="247"/>
+      <c r="E267" s="247"/>
       <c r="F267" s="73" t="s">
         <v>381</v>
       </c>
@@ -32453,10 +32453,10 @@
 )</f>
         <v>92-5-1</v>
       </c>
-      <c r="B268" s="247"/>
-      <c r="C268" s="266"/>
-      <c r="D268" s="248"/>
-      <c r="E268" s="248"/>
+      <c r="B268" s="246"/>
+      <c r="C268" s="265"/>
+      <c r="D268" s="247"/>
+      <c r="E268" s="247"/>
       <c r="F268" s="73" t="s">
         <v>382</v>
       </c>
@@ -32487,10 +32487,10 @@
 )</f>
         <v>92-6-1</v>
       </c>
-      <c r="B269" s="247"/>
-      <c r="C269" s="266"/>
-      <c r="D269" s="248"/>
-      <c r="E269" s="250"/>
+      <c r="B269" s="246"/>
+      <c r="C269" s="265"/>
+      <c r="D269" s="247"/>
+      <c r="E269" s="249"/>
       <c r="F269" s="73" t="s">
         <v>383</v>
       </c>
@@ -32521,10 +32521,10 @@
 )</f>
         <v>93-1-1</v>
       </c>
-      <c r="B270" s="247"/>
-      <c r="C270" s="266"/>
-      <c r="D270" s="248"/>
-      <c r="E270" s="248" t="s">
+      <c r="B270" s="246"/>
+      <c r="C270" s="265"/>
+      <c r="D270" s="247"/>
+      <c r="E270" s="247" t="s">
         <v>203</v>
       </c>
       <c r="F270" s="73" t="s">
@@ -32557,10 +32557,10 @@
 )</f>
         <v>93-2-1</v>
       </c>
-      <c r="B271" s="247"/>
-      <c r="C271" s="266"/>
-      <c r="D271" s="248"/>
-      <c r="E271" s="248"/>
+      <c r="B271" s="246"/>
+      <c r="C271" s="265"/>
+      <c r="D271" s="247"/>
+      <c r="E271" s="247"/>
       <c r="F271" s="73" t="s">
         <v>385</v>
       </c>
@@ -32591,10 +32591,10 @@
 )</f>
         <v>93-3-1</v>
       </c>
-      <c r="B272" s="247"/>
-      <c r="C272" s="266"/>
-      <c r="D272" s="248"/>
-      <c r="E272" s="248"/>
+      <c r="B272" s="246"/>
+      <c r="C272" s="265"/>
+      <c r="D272" s="247"/>
+      <c r="E272" s="247"/>
       <c r="F272" s="73" t="s">
         <v>386</v>
       </c>
@@ -32625,10 +32625,10 @@
 )</f>
         <v>93-4-1</v>
       </c>
-      <c r="B273" s="247"/>
-      <c r="C273" s="266"/>
-      <c r="D273" s="248"/>
-      <c r="E273" s="248"/>
+      <c r="B273" s="246"/>
+      <c r="C273" s="265"/>
+      <c r="D273" s="247"/>
+      <c r="E273" s="247"/>
       <c r="F273" s="73" t="s">
         <v>387</v>
       </c>
@@ -32659,10 +32659,10 @@
 )</f>
         <v>93-5-1</v>
       </c>
-      <c r="B274" s="247"/>
-      <c r="C274" s="266"/>
-      <c r="D274" s="248"/>
-      <c r="E274" s="248"/>
+      <c r="B274" s="246"/>
+      <c r="C274" s="265"/>
+      <c r="D274" s="247"/>
+      <c r="E274" s="247"/>
       <c r="F274" s="73" t="s">
         <v>388</v>
       </c>
@@ -32693,10 +32693,10 @@
 )</f>
         <v>93-6-1</v>
       </c>
-      <c r="B275" s="247"/>
-      <c r="C275" s="266"/>
-      <c r="D275" s="248"/>
-      <c r="E275" s="248"/>
+      <c r="B275" s="246"/>
+      <c r="C275" s="265"/>
+      <c r="D275" s="247"/>
+      <c r="E275" s="247"/>
       <c r="F275" s="73" t="s">
         <v>389</v>
       </c>
@@ -32727,10 +32727,10 @@
 )</f>
         <v>93-7-1</v>
       </c>
-      <c r="B276" s="247"/>
-      <c r="C276" s="266"/>
-      <c r="D276" s="248"/>
-      <c r="E276" s="248"/>
+      <c r="B276" s="246"/>
+      <c r="C276" s="265"/>
+      <c r="D276" s="247"/>
+      <c r="E276" s="247"/>
       <c r="F276" s="73" t="s">
         <v>390</v>
       </c>
@@ -32761,10 +32761,10 @@
 )</f>
         <v>93-8-1</v>
       </c>
-      <c r="B277" s="247"/>
-      <c r="C277" s="266"/>
-      <c r="D277" s="248"/>
-      <c r="E277" s="250"/>
+      <c r="B277" s="246"/>
+      <c r="C277" s="265"/>
+      <c r="D277" s="247"/>
+      <c r="E277" s="249"/>
       <c r="F277" s="73" t="s">
         <v>391</v>
       </c>
@@ -32795,10 +32795,10 @@
 )</f>
         <v>94-1-1</v>
       </c>
-      <c r="B278" s="250"/>
-      <c r="C278" s="271"/>
-      <c r="D278" s="249"/>
-      <c r="E278" s="249" t="s">
+      <c r="B278" s="249"/>
+      <c r="C278" s="270"/>
+      <c r="D278" s="248"/>
+      <c r="E278" s="248" t="s">
         <v>237</v>
       </c>
       <c r="F278" s="73" t="s">
@@ -32831,16 +32831,16 @@
 )</f>
         <v>95-1-1</v>
       </c>
-      <c r="B279" s="257" t="s">
+      <c r="B279" s="256" t="s">
         <v>393</v>
       </c>
-      <c r="C279" s="257" t="s">
+      <c r="C279" s="256" t="s">
         <v>394</v>
       </c>
-      <c r="D279" s="257" t="s">
+      <c r="D279" s="256" t="s">
         <v>497</v>
       </c>
-      <c r="E279" s="262" t="s">
+      <c r="E279" s="261" t="s">
         <v>497</v>
       </c>
       <c r="F279" s="81" t="s">
@@ -32871,10 +32871,10 @@
 )</f>
         <v>95-2-1</v>
       </c>
-      <c r="B280" s="256"/>
-      <c r="C280" s="256"/>
-      <c r="D280" s="256"/>
-      <c r="E280" s="254"/>
+      <c r="B280" s="255"/>
+      <c r="C280" s="255"/>
+      <c r="D280" s="255"/>
+      <c r="E280" s="253"/>
       <c r="F280" s="81" t="s">
         <v>396</v>
       </c>
@@ -32903,10 +32903,10 @@
 )</f>
         <v>95-3-1</v>
       </c>
-      <c r="B281" s="256"/>
-      <c r="C281" s="256"/>
-      <c r="D281" s="256"/>
-      <c r="E281" s="254"/>
+      <c r="B281" s="255"/>
+      <c r="C281" s="255"/>
+      <c r="D281" s="255"/>
+      <c r="E281" s="253"/>
       <c r="F281" s="81" t="s">
         <v>397</v>
       </c>
@@ -32935,10 +32935,10 @@
 )</f>
         <v>95-4-1</v>
       </c>
-      <c r="B282" s="256"/>
-      <c r="C282" s="255"/>
-      <c r="D282" s="255"/>
-      <c r="E282" s="255"/>
+      <c r="B282" s="255"/>
+      <c r="C282" s="254"/>
+      <c r="D282" s="254"/>
+      <c r="E282" s="254"/>
       <c r="F282" s="81" t="s">
         <v>398</v>
       </c>
@@ -32967,14 +32967,14 @@
 )</f>
         <v>96-1-1</v>
       </c>
-      <c r="B283" s="256"/>
-      <c r="C283" s="256" t="s">
+      <c r="B283" s="255"/>
+      <c r="C283" s="255" t="s">
         <v>399</v>
       </c>
-      <c r="D283" s="256" t="s">
+      <c r="D283" s="255" t="s">
         <v>212</v>
       </c>
-      <c r="E283" s="255" t="s">
+      <c r="E283" s="254" t="s">
         <v>230</v>
       </c>
       <c r="F283" s="81" t="s">
@@ -33005,10 +33005,10 @@
 )</f>
         <v>97-1-1</v>
       </c>
-      <c r="B284" s="256"/>
-      <c r="C284" s="256"/>
-      <c r="D284" s="256"/>
-      <c r="E284" s="255" t="s">
+      <c r="B284" s="255"/>
+      <c r="C284" s="255"/>
+      <c r="D284" s="255"/>
+      <c r="E284" s="254" t="s">
         <v>232</v>
       </c>
       <c r="F284" s="81" t="s">
@@ -33039,10 +33039,10 @@
 )</f>
         <v>98-1-1</v>
       </c>
-      <c r="B285" s="256"/>
-      <c r="C285" s="256"/>
-      <c r="D285" s="256"/>
-      <c r="E285" s="255" t="s">
+      <c r="B285" s="255"/>
+      <c r="C285" s="255"/>
+      <c r="D285" s="255"/>
+      <c r="E285" s="254" t="s">
         <v>234</v>
       </c>
       <c r="F285" s="81" t="s">
@@ -33073,10 +33073,10 @@
 )</f>
         <v>99-1-1</v>
       </c>
-      <c r="B286" s="256"/>
-      <c r="C286" s="256"/>
-      <c r="D286" s="255"/>
-      <c r="E286" s="255" t="s">
+      <c r="B286" s="255"/>
+      <c r="C286" s="255"/>
+      <c r="D286" s="254"/>
+      <c r="E286" s="254" t="s">
         <v>150</v>
       </c>
       <c r="F286" s="81" t="s">
@@ -33107,12 +33107,12 @@
 )</f>
         <v>100-1-1</v>
       </c>
-      <c r="B287" s="256"/>
-      <c r="C287" s="258"/>
-      <c r="D287" s="256" t="s">
+      <c r="B287" s="255"/>
+      <c r="C287" s="257"/>
+      <c r="D287" s="255" t="s">
         <v>404</v>
       </c>
-      <c r="E287" s="254" t="s">
+      <c r="E287" s="253" t="s">
         <v>405</v>
       </c>
       <c r="F287" s="81" t="s">
@@ -33143,10 +33143,10 @@
 )</f>
         <v>100-2-1</v>
       </c>
-      <c r="B288" s="256"/>
-      <c r="C288" s="258"/>
-      <c r="D288" s="254"/>
-      <c r="E288" s="254"/>
+      <c r="B288" s="255"/>
+      <c r="C288" s="257"/>
+      <c r="D288" s="253"/>
+      <c r="E288" s="253"/>
       <c r="F288" s="81" t="s">
         <v>407</v>
       </c>
@@ -33175,10 +33175,10 @@
 )</f>
         <v>100-3-1</v>
       </c>
-      <c r="B289" s="256"/>
-      <c r="C289" s="258"/>
-      <c r="D289" s="254"/>
-      <c r="E289" s="254"/>
+      <c r="B289" s="255"/>
+      <c r="C289" s="257"/>
+      <c r="D289" s="253"/>
+      <c r="E289" s="253"/>
       <c r="F289" s="81" t="s">
         <v>408</v>
       </c>
@@ -33207,10 +33207,10 @@
 )</f>
         <v>100-4-1</v>
       </c>
-      <c r="B290" s="256"/>
-      <c r="C290" s="258"/>
-      <c r="D290" s="254"/>
-      <c r="E290" s="254"/>
+      <c r="B290" s="255"/>
+      <c r="C290" s="257"/>
+      <c r="D290" s="253"/>
+      <c r="E290" s="253"/>
       <c r="F290" s="81" t="s">
         <v>556</v>
       </c>
@@ -33239,10 +33239,10 @@
 )</f>
         <v>100-5-1</v>
       </c>
-      <c r="B291" s="256"/>
-      <c r="C291" s="258"/>
-      <c r="D291" s="254"/>
-      <c r="E291" s="254"/>
+      <c r="B291" s="255"/>
+      <c r="C291" s="257"/>
+      <c r="D291" s="253"/>
+      <c r="E291" s="253"/>
       <c r="F291" s="81" t="s">
         <v>545</v>
       </c>
@@ -33271,10 +33271,10 @@
 )</f>
         <v>100-6-1</v>
       </c>
-      <c r="B292" s="256"/>
-      <c r="C292" s="258"/>
-      <c r="D292" s="254"/>
-      <c r="E292" s="254"/>
+      <c r="B292" s="255"/>
+      <c r="C292" s="257"/>
+      <c r="D292" s="253"/>
+      <c r="E292" s="253"/>
       <c r="F292" s="81" t="s">
         <v>546</v>
       </c>
@@ -33303,10 +33303,10 @@
 )</f>
         <v>100-7-1</v>
       </c>
-      <c r="B293" s="256"/>
-      <c r="C293" s="258"/>
-      <c r="D293" s="254"/>
-      <c r="E293" s="254"/>
+      <c r="B293" s="255"/>
+      <c r="C293" s="257"/>
+      <c r="D293" s="253"/>
+      <c r="E293" s="253"/>
       <c r="F293" s="81" t="s">
         <v>557</v>
       </c>
@@ -33335,10 +33335,10 @@
 )</f>
         <v>100-8-1</v>
       </c>
-      <c r="B294" s="256"/>
-      <c r="C294" s="258"/>
-      <c r="D294" s="254"/>
-      <c r="E294" s="254"/>
+      <c r="B294" s="255"/>
+      <c r="C294" s="257"/>
+      <c r="D294" s="253"/>
+      <c r="E294" s="253"/>
       <c r="F294" s="81" t="s">
         <v>410</v>
       </c>
@@ -33367,10 +33367,10 @@
 )</f>
         <v>100-9-1</v>
       </c>
-      <c r="B295" s="255"/>
-      <c r="C295" s="272"/>
-      <c r="D295" s="260"/>
-      <c r="E295" s="260"/>
+      <c r="B295" s="254"/>
+      <c r="C295" s="271"/>
+      <c r="D295" s="259"/>
+      <c r="E295" s="259"/>
       <c r="F295" s="81" t="s">
         <v>411</v>
       </c>
@@ -33399,16 +33399,16 @@
 )</f>
         <v>101-1-1</v>
       </c>
-      <c r="B296" s="273" t="s">
+      <c r="B296" s="272" t="s">
         <v>412</v>
       </c>
-      <c r="C296" s="262" t="s">
+      <c r="C296" s="261" t="s">
         <v>413</v>
       </c>
-      <c r="D296" s="256" t="s">
+      <c r="D296" s="255" t="s">
         <v>414</v>
       </c>
-      <c r="E296" s="257" t="s">
+      <c r="E296" s="256" t="s">
         <v>493</v>
       </c>
       <c r="F296" s="113" t="s">
@@ -33441,10 +33441,10 @@
 )</f>
         <v>101-2-1</v>
       </c>
-      <c r="B297" s="259"/>
-      <c r="C297" s="254"/>
-      <c r="D297" s="256"/>
-      <c r="E297" s="256"/>
+      <c r="B297" s="258"/>
+      <c r="C297" s="253"/>
+      <c r="D297" s="255"/>
+      <c r="E297" s="255"/>
       <c r="F297" s="113" t="s">
         <v>416</v>
       </c>
@@ -33475,10 +33475,10 @@
 )</f>
         <v>101-3-1</v>
       </c>
-      <c r="B298" s="259"/>
-      <c r="C298" s="254"/>
-      <c r="D298" s="256"/>
-      <c r="E298" s="256"/>
+      <c r="B298" s="258"/>
+      <c r="C298" s="253"/>
+      <c r="D298" s="255"/>
+      <c r="E298" s="255"/>
       <c r="F298" s="81" t="s">
         <v>417</v>
       </c>
@@ -33507,10 +33507,10 @@
 )</f>
         <v>101-4-1</v>
       </c>
-      <c r="B299" s="274"/>
-      <c r="C299" s="275"/>
-      <c r="D299" s="251"/>
-      <c r="E299" s="251"/>
+      <c r="B299" s="273"/>
+      <c r="C299" s="274"/>
+      <c r="D299" s="250"/>
+      <c r="E299" s="250"/>
       <c r="F299" s="68" t="s">
         <v>418</v>
       </c>
@@ -33539,10 +33539,10 @@
 )</f>
         <v>101-5-1</v>
       </c>
-      <c r="B300" s="274"/>
-      <c r="C300" s="275"/>
-      <c r="D300" s="251"/>
-      <c r="E300" s="251"/>
+      <c r="B300" s="273"/>
+      <c r="C300" s="274"/>
+      <c r="D300" s="250"/>
+      <c r="E300" s="250"/>
       <c r="F300" s="68" t="s">
         <v>419</v>
       </c>
@@ -33571,10 +33571,10 @@
 )</f>
         <v>101-6-1</v>
       </c>
-      <c r="B301" s="276"/>
-      <c r="C301" s="277"/>
-      <c r="D301" s="278"/>
-      <c r="E301" s="278"/>
+      <c r="B301" s="275"/>
+      <c r="C301" s="276"/>
+      <c r="D301" s="277"/>
+      <c r="E301" s="277"/>
       <c r="F301" s="53" t="s">
         <v>605</v>
       </c>
@@ -33603,10 +33603,10 @@
 )</f>
         <v>101-7-1</v>
       </c>
-      <c r="B302" s="274"/>
-      <c r="C302" s="275"/>
-      <c r="D302" s="251"/>
-      <c r="E302" s="251"/>
+      <c r="B302" s="273"/>
+      <c r="C302" s="274"/>
+      <c r="D302" s="250"/>
+      <c r="E302" s="250"/>
       <c r="F302" s="68" t="s">
         <v>420</v>
       </c>
@@ -33635,10 +33635,10 @@
 )</f>
         <v>101-8-1</v>
       </c>
-      <c r="B303" s="274"/>
-      <c r="C303" s="275"/>
-      <c r="D303" s="251"/>
-      <c r="E303" s="251"/>
+      <c r="B303" s="273"/>
+      <c r="C303" s="274"/>
+      <c r="D303" s="250"/>
+      <c r="E303" s="250"/>
       <c r="F303" s="68" t="s">
         <v>421</v>
       </c>
@@ -33667,10 +33667,10 @@
 )</f>
         <v>101-9-1</v>
       </c>
-      <c r="B304" s="274"/>
-      <c r="C304" s="275"/>
-      <c r="D304" s="251"/>
-      <c r="E304" s="251"/>
+      <c r="B304" s="273"/>
+      <c r="C304" s="274"/>
+      <c r="D304" s="250"/>
+      <c r="E304" s="250"/>
       <c r="F304" s="68" t="s">
         <v>422</v>
       </c>
@@ -33699,10 +33699,10 @@
 )</f>
         <v>101-10-1</v>
       </c>
-      <c r="B305" s="274"/>
-      <c r="C305" s="275"/>
-      <c r="D305" s="251"/>
-      <c r="E305" s="251"/>
+      <c r="B305" s="273"/>
+      <c r="C305" s="274"/>
+      <c r="D305" s="250"/>
+      <c r="E305" s="250"/>
       <c r="F305" s="68" t="s">
         <v>423</v>
       </c>
@@ -33731,10 +33731,10 @@
 )</f>
         <v>101-11-1</v>
       </c>
-      <c r="B306" s="274"/>
-      <c r="C306" s="275"/>
-      <c r="D306" s="251"/>
-      <c r="E306" s="251"/>
+      <c r="B306" s="273"/>
+      <c r="C306" s="274"/>
+      <c r="D306" s="250"/>
+      <c r="E306" s="250"/>
       <c r="F306" s="68" t="s">
         <v>424</v>
       </c>
@@ -33763,10 +33763,10 @@
 )</f>
         <v>101-12-1</v>
       </c>
-      <c r="B307" s="274"/>
-      <c r="C307" s="275"/>
-      <c r="D307" s="251"/>
-      <c r="E307" s="251"/>
+      <c r="B307" s="273"/>
+      <c r="C307" s="274"/>
+      <c r="D307" s="250"/>
+      <c r="E307" s="250"/>
       <c r="F307" s="68" t="s">
         <v>425</v>
       </c>
@@ -33795,10 +33795,10 @@
 )</f>
         <v>101-13-1</v>
       </c>
-      <c r="B308" s="274"/>
-      <c r="C308" s="275"/>
-      <c r="D308" s="251"/>
-      <c r="E308" s="251"/>
+      <c r="B308" s="273"/>
+      <c r="C308" s="274"/>
+      <c r="D308" s="250"/>
+      <c r="E308" s="250"/>
       <c r="F308" s="68" t="s">
         <v>426</v>
       </c>
@@ -33827,10 +33827,10 @@
 )</f>
         <v>101-14-1</v>
       </c>
-      <c r="B309" s="274"/>
-      <c r="C309" s="275"/>
-      <c r="D309" s="251"/>
-      <c r="E309" s="251"/>
+      <c r="B309" s="273"/>
+      <c r="C309" s="274"/>
+      <c r="D309" s="250"/>
+      <c r="E309" s="250"/>
       <c r="F309" s="67" t="s">
         <v>427</v>
       </c>
@@ -33859,10 +33859,10 @@
 )</f>
         <v>101-15-1</v>
       </c>
-      <c r="B310" s="274"/>
-      <c r="C310" s="275"/>
-      <c r="D310" s="251"/>
-      <c r="E310" s="251"/>
+      <c r="B310" s="273"/>
+      <c r="C310" s="274"/>
+      <c r="D310" s="250"/>
+      <c r="E310" s="250"/>
       <c r="F310" s="68" t="s">
         <v>428</v>
       </c>
@@ -33891,10 +33891,10 @@
 )</f>
         <v>101-16-1</v>
       </c>
-      <c r="B311" s="274"/>
-      <c r="C311" s="275"/>
-      <c r="D311" s="251"/>
-      <c r="E311" s="251"/>
+      <c r="B311" s="273"/>
+      <c r="C311" s="274"/>
+      <c r="D311" s="250"/>
+      <c r="E311" s="250"/>
       <c r="F311" s="68" t="s">
         <v>429</v>
       </c>
@@ -33923,10 +33923,10 @@
 )</f>
         <v>101-17-1</v>
       </c>
-      <c r="B312" s="274"/>
-      <c r="C312" s="275"/>
-      <c r="D312" s="251"/>
-      <c r="E312" s="251"/>
+      <c r="B312" s="273"/>
+      <c r="C312" s="274"/>
+      <c r="D312" s="250"/>
+      <c r="E312" s="250"/>
       <c r="F312" s="67" t="s">
         <v>430</v>
       </c>
@@ -33955,10 +33955,10 @@
 )</f>
         <v>101-18-1</v>
       </c>
-      <c r="B313" s="274"/>
-      <c r="C313" s="275"/>
-      <c r="D313" s="251"/>
-      <c r="E313" s="251"/>
+      <c r="B313" s="273"/>
+      <c r="C313" s="274"/>
+      <c r="D313" s="250"/>
+      <c r="E313" s="250"/>
       <c r="F313" s="67" t="s">
         <v>431</v>
       </c>
@@ -33987,10 +33987,10 @@
 )</f>
         <v>101-19-1</v>
       </c>
-      <c r="B314" s="274"/>
-      <c r="C314" s="275"/>
-      <c r="D314" s="251"/>
-      <c r="E314" s="251"/>
+      <c r="B314" s="273"/>
+      <c r="C314" s="274"/>
+      <c r="D314" s="250"/>
+      <c r="E314" s="250"/>
       <c r="F314" s="67" t="s">
         <v>432</v>
       </c>
@@ -34019,10 +34019,10 @@
 )</f>
         <v>101-20-1</v>
       </c>
-      <c r="B315" s="259"/>
-      <c r="C315" s="254"/>
-      <c r="D315" s="256"/>
-      <c r="E315" s="256"/>
+      <c r="B315" s="258"/>
+      <c r="C315" s="253"/>
+      <c r="D315" s="255"/>
+      <c r="E315" s="255"/>
       <c r="F315" s="81" t="s">
         <v>433</v>
       </c>
@@ -34051,10 +34051,10 @@
 )</f>
         <v>101-21-1</v>
       </c>
-      <c r="B316" s="259"/>
-      <c r="C316" s="254"/>
-      <c r="D316" s="256"/>
-      <c r="E316" s="256"/>
+      <c r="B316" s="258"/>
+      <c r="C316" s="253"/>
+      <c r="D316" s="255"/>
+      <c r="E316" s="255"/>
       <c r="F316" s="113" t="s">
         <v>434</v>
       </c>
@@ -34085,10 +34085,10 @@
 )</f>
         <v>102-1-1</v>
       </c>
-      <c r="B317" s="259"/>
-      <c r="C317" s="256"/>
-      <c r="D317" s="256"/>
-      <c r="E317" s="257" t="s">
+      <c r="B317" s="258"/>
+      <c r="C317" s="255"/>
+      <c r="D317" s="255"/>
+      <c r="E317" s="256" t="s">
         <v>435</v>
       </c>
       <c r="F317" s="81" t="s">
@@ -34119,10 +34119,10 @@
 )</f>
         <v>102-2-1</v>
       </c>
-      <c r="B318" s="259"/>
-      <c r="C318" s="254"/>
-      <c r="D318" s="256"/>
-      <c r="E318" s="255"/>
+      <c r="B318" s="258"/>
+      <c r="C318" s="253"/>
+      <c r="D318" s="255"/>
+      <c r="E318" s="254"/>
       <c r="F318" s="81" t="s">
         <v>437</v>
       </c>
@@ -34151,10 +34151,10 @@
 )</f>
         <v>103-1-1</v>
       </c>
-      <c r="B319" s="259"/>
-      <c r="C319" s="254"/>
-      <c r="D319" s="256"/>
-      <c r="E319" s="256" t="s">
+      <c r="B319" s="258"/>
+      <c r="C319" s="253"/>
+      <c r="D319" s="255"/>
+      <c r="E319" s="255" t="s">
         <v>438</v>
       </c>
       <c r="F319" s="81" t="s">
@@ -34185,10 +34185,10 @@
 )</f>
         <v>103-2-1</v>
       </c>
-      <c r="B320" s="259"/>
-      <c r="C320" s="254"/>
-      <c r="D320" s="256"/>
-      <c r="E320" s="256"/>
+      <c r="B320" s="258"/>
+      <c r="C320" s="253"/>
+      <c r="D320" s="255"/>
+      <c r="E320" s="255"/>
       <c r="F320" s="81" t="s">
         <v>440</v>
       </c>
@@ -34217,9 +34217,9 @@
 )</f>
         <v>104-1-1</v>
       </c>
-      <c r="B321" s="259"/>
-      <c r="C321" s="254"/>
-      <c r="D321" s="256"/>
+      <c r="B321" s="258"/>
+      <c r="C321" s="253"/>
+      <c r="D321" s="255"/>
       <c r="E321" s="158" t="s">
         <v>441</v>
       </c>
@@ -34251,10 +34251,10 @@
 )</f>
         <v>105-1-1</v>
       </c>
-      <c r="B322" s="259"/>
-      <c r="C322" s="254"/>
-      <c r="D322" s="256"/>
-      <c r="E322" s="256" t="s">
+      <c r="B322" s="258"/>
+      <c r="C322" s="253"/>
+      <c r="D322" s="255"/>
+      <c r="E322" s="255" t="s">
         <v>494</v>
       </c>
       <c r="F322" s="81" t="s">
@@ -34285,10 +34285,10 @@
 )</f>
         <v>105-2-1</v>
       </c>
-      <c r="B323" s="259"/>
-      <c r="C323" s="254"/>
-      <c r="D323" s="256"/>
-      <c r="E323" s="256"/>
+      <c r="B323" s="258"/>
+      <c r="C323" s="253"/>
+      <c r="D323" s="255"/>
+      <c r="E323" s="255"/>
       <c r="F323" s="81" t="s">
         <v>444</v>
       </c>
@@ -34317,10 +34317,10 @@
 )</f>
         <v>105-3-1</v>
       </c>
-      <c r="B324" s="259"/>
-      <c r="C324" s="254"/>
-      <c r="D324" s="256"/>
-      <c r="E324" s="256"/>
+      <c r="B324" s="258"/>
+      <c r="C324" s="253"/>
+      <c r="D324" s="255"/>
+      <c r="E324" s="255"/>
       <c r="F324" s="81" t="s">
         <v>445</v>
       </c>
@@ -34349,10 +34349,10 @@
 )</f>
         <v>105-4-1</v>
       </c>
-      <c r="B325" s="259"/>
-      <c r="C325" s="254"/>
-      <c r="D325" s="256"/>
-      <c r="E325" s="256"/>
+      <c r="B325" s="258"/>
+      <c r="C325" s="253"/>
+      <c r="D325" s="255"/>
+      <c r="E325" s="255"/>
       <c r="F325" s="81" t="s">
         <v>446</v>
       </c>
@@ -34381,10 +34381,10 @@
 )</f>
         <v>105-5-1</v>
       </c>
-      <c r="B326" s="259"/>
-      <c r="C326" s="254"/>
-      <c r="D326" s="256"/>
-      <c r="E326" s="256"/>
+      <c r="B326" s="258"/>
+      <c r="C326" s="253"/>
+      <c r="D326" s="255"/>
+      <c r="E326" s="255"/>
       <c r="F326" s="81" t="s">
         <v>447</v>
       </c>
@@ -34413,10 +34413,10 @@
 )</f>
         <v>105-6-1</v>
       </c>
-      <c r="B327" s="259"/>
-      <c r="C327" s="254"/>
-      <c r="D327" s="256"/>
-      <c r="E327" s="256"/>
+      <c r="B327" s="258"/>
+      <c r="C327" s="253"/>
+      <c r="D327" s="255"/>
+      <c r="E327" s="255"/>
       <c r="F327" s="81" t="s">
         <v>448</v>
       </c>
@@ -34445,10 +34445,10 @@
 )</f>
         <v>105-7-1</v>
       </c>
-      <c r="B328" s="259"/>
-      <c r="C328" s="254"/>
-      <c r="D328" s="256"/>
-      <c r="E328" s="256"/>
+      <c r="B328" s="258"/>
+      <c r="C328" s="253"/>
+      <c r="D328" s="255"/>
+      <c r="E328" s="255"/>
       <c r="F328" s="81" t="s">
         <v>449</v>
       </c>
@@ -34477,10 +34477,10 @@
 )</f>
         <v>105-8-1</v>
       </c>
-      <c r="B329" s="259"/>
-      <c r="C329" s="254"/>
-      <c r="D329" s="256"/>
-      <c r="E329" s="256"/>
+      <c r="B329" s="258"/>
+      <c r="C329" s="253"/>
+      <c r="D329" s="255"/>
+      <c r="E329" s="255"/>
       <c r="F329" s="81" t="s">
         <v>450</v>
       </c>
@@ -34509,10 +34509,10 @@
 )</f>
         <v>105-9-1</v>
       </c>
-      <c r="B330" s="259"/>
-      <c r="C330" s="254"/>
-      <c r="D330" s="256"/>
-      <c r="E330" s="256"/>
+      <c r="B330" s="258"/>
+      <c r="C330" s="253"/>
+      <c r="D330" s="255"/>
+      <c r="E330" s="255"/>
       <c r="F330" s="81" t="s">
         <v>451</v>
       </c>
@@ -34541,9 +34541,9 @@
 )</f>
         <v>106-1-1</v>
       </c>
-      <c r="B331" s="258"/>
-      <c r="C331" s="254"/>
-      <c r="D331" s="256"/>
+      <c r="B331" s="257"/>
+      <c r="C331" s="253"/>
+      <c r="D331" s="255"/>
       <c r="E331" s="158" t="s">
         <v>495</v>
       </c>
@@ -34575,9 +34575,9 @@
 )</f>
         <v>107-1-1</v>
       </c>
-      <c r="B332" s="258"/>
-      <c r="C332" s="254"/>
-      <c r="D332" s="255"/>
+      <c r="B332" s="257"/>
+      <c r="C332" s="253"/>
+      <c r="D332" s="254"/>
       <c r="E332" s="158" t="s">
         <v>496</v>
       </c>
@@ -34609,9 +34609,9 @@
 )</f>
         <v>108-1-1</v>
       </c>
-      <c r="B333" s="258"/>
-      <c r="C333" s="256"/>
-      <c r="D333" s="256" t="s">
+      <c r="B333" s="257"/>
+      <c r="C333" s="255"/>
+      <c r="D333" s="255" t="s">
         <v>454</v>
       </c>
       <c r="E333" s="158" t="s">
@@ -34645,10 +34645,10 @@
 )</f>
         <v>109-1-1</v>
       </c>
-      <c r="B334" s="258"/>
-      <c r="C334" s="254"/>
-      <c r="D334" s="256"/>
-      <c r="E334" s="256" t="s">
+      <c r="B334" s="257"/>
+      <c r="C334" s="253"/>
+      <c r="D334" s="255"/>
+      <c r="E334" s="255" t="s">
         <v>498</v>
       </c>
       <c r="F334" s="81" t="s">
@@ -34679,10 +34679,10 @@
 )</f>
         <v>109-2-1</v>
       </c>
-      <c r="B335" s="258"/>
-      <c r="C335" s="254"/>
-      <c r="D335" s="256"/>
-      <c r="E335" s="256"/>
+      <c r="B335" s="257"/>
+      <c r="C335" s="253"/>
+      <c r="D335" s="255"/>
+      <c r="E335" s="255"/>
       <c r="F335" s="81" t="s">
         <v>457</v>
       </c>
@@ -34711,10 +34711,10 @@
 )</f>
         <v>109-3-1</v>
       </c>
-      <c r="B336" s="258"/>
-      <c r="C336" s="254"/>
-      <c r="D336" s="256"/>
-      <c r="E336" s="256"/>
+      <c r="B336" s="257"/>
+      <c r="C336" s="253"/>
+      <c r="D336" s="255"/>
+      <c r="E336" s="255"/>
       <c r="F336" s="81" t="s">
         <v>458</v>
       </c>
@@ -34743,10 +34743,10 @@
 )</f>
         <v>109-4-1</v>
       </c>
-      <c r="B337" s="258"/>
-      <c r="C337" s="254"/>
-      <c r="D337" s="255"/>
-      <c r="E337" s="256"/>
+      <c r="B337" s="257"/>
+      <c r="C337" s="253"/>
+      <c r="D337" s="254"/>
+      <c r="E337" s="255"/>
       <c r="F337" s="81" t="s">
         <v>459</v>
       </c>
@@ -34775,12 +34775,12 @@
 )</f>
         <v>110-1-1</v>
       </c>
-      <c r="B338" s="258"/>
-      <c r="C338" s="254"/>
-      <c r="D338" s="256" t="s">
+      <c r="B338" s="257"/>
+      <c r="C338" s="253"/>
+      <c r="D338" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="E338" s="257" t="s">
+      <c r="E338" s="256" t="s">
         <v>497</v>
       </c>
       <c r="F338" s="81" t="s">
@@ -34811,10 +34811,10 @@
 )</f>
         <v>110-2-1</v>
       </c>
-      <c r="B339" s="258"/>
-      <c r="C339" s="254"/>
-      <c r="D339" s="256"/>
-      <c r="E339" s="256"/>
+      <c r="B339" s="257"/>
+      <c r="C339" s="253"/>
+      <c r="D339" s="255"/>
+      <c r="E339" s="255"/>
       <c r="F339" s="81" t="s">
         <v>461</v>
       </c>
@@ -34843,10 +34843,10 @@
 )</f>
         <v>110-3-1</v>
       </c>
-      <c r="B340" s="256"/>
-      <c r="C340" s="256"/>
-      <c r="D340" s="255"/>
-      <c r="E340" s="255"/>
+      <c r="B340" s="255"/>
+      <c r="C340" s="255"/>
+      <c r="D340" s="254"/>
+      <c r="E340" s="254"/>
       <c r="F340" s="81" t="s">
         <v>462</v>
       </c>
@@ -34875,12 +34875,12 @@
 )</f>
         <v>111-1-1</v>
       </c>
-      <c r="B341" s="256"/>
-      <c r="C341" s="256"/>
-      <c r="D341" s="256" t="s">
+      <c r="B341" s="255"/>
+      <c r="C341" s="255"/>
+      <c r="D341" s="255" t="s">
         <v>463</v>
       </c>
-      <c r="E341" s="256" t="s">
+      <c r="E341" s="255" t="s">
         <v>497</v>
       </c>
       <c r="F341" s="81" t="s">
@@ -34911,10 +34911,10 @@
 )</f>
         <v>111-2-1</v>
       </c>
-      <c r="B342" s="258"/>
-      <c r="C342" s="254"/>
-      <c r="D342" s="256"/>
-      <c r="E342" s="256"/>
+      <c r="B342" s="257"/>
+      <c r="C342" s="253"/>
+      <c r="D342" s="255"/>
+      <c r="E342" s="255"/>
       <c r="F342" s="81" t="s">
         <v>465</v>
       </c>
@@ -34943,10 +34943,10 @@
 )</f>
         <v>111-3-1</v>
       </c>
-      <c r="B343" s="258"/>
-      <c r="C343" s="254"/>
-      <c r="D343" s="256"/>
-      <c r="E343" s="256"/>
+      <c r="B343" s="257"/>
+      <c r="C343" s="253"/>
+      <c r="D343" s="255"/>
+      <c r="E343" s="255"/>
       <c r="F343" s="81" t="s">
         <v>466</v>
       </c>
@@ -34975,10 +34975,10 @@
 )</f>
         <v>111-4-1</v>
       </c>
-      <c r="B344" s="258"/>
-      <c r="C344" s="254"/>
-      <c r="D344" s="256"/>
-      <c r="E344" s="256"/>
+      <c r="B344" s="257"/>
+      <c r="C344" s="253"/>
+      <c r="D344" s="255"/>
+      <c r="E344" s="255"/>
       <c r="F344" s="81" t="s">
         <v>467</v>
       </c>
@@ -35007,10 +35007,10 @@
 )</f>
         <v>111-5-1</v>
       </c>
-      <c r="B345" s="258"/>
-      <c r="C345" s="254"/>
-      <c r="D345" s="256"/>
-      <c r="E345" s="256"/>
+      <c r="B345" s="257"/>
+      <c r="C345" s="253"/>
+      <c r="D345" s="255"/>
+      <c r="E345" s="255"/>
       <c r="F345" s="81" t="s">
         <v>468</v>
       </c>
@@ -35039,10 +35039,10 @@
 )</f>
         <v>111-6-1</v>
       </c>
-      <c r="B346" s="258"/>
-      <c r="C346" s="254"/>
-      <c r="D346" s="256"/>
-      <c r="E346" s="256"/>
+      <c r="B346" s="257"/>
+      <c r="C346" s="253"/>
+      <c r="D346" s="255"/>
+      <c r="E346" s="255"/>
       <c r="F346" s="113" t="s">
         <v>469</v>
       </c>
@@ -35073,10 +35073,10 @@
 )</f>
         <v>111-7-1</v>
       </c>
-      <c r="B347" s="258"/>
-      <c r="C347" s="254"/>
-      <c r="D347" s="256"/>
-      <c r="E347" s="256"/>
+      <c r="B347" s="257"/>
+      <c r="C347" s="253"/>
+      <c r="D347" s="255"/>
+      <c r="E347" s="255"/>
       <c r="F347" s="81" t="s">
         <v>470</v>
       </c>
@@ -35105,10 +35105,10 @@
 )</f>
         <v>111-8-1</v>
       </c>
-      <c r="B348" s="258"/>
-      <c r="C348" s="254"/>
-      <c r="D348" s="256"/>
-      <c r="E348" s="256"/>
+      <c r="B348" s="257"/>
+      <c r="C348" s="253"/>
+      <c r="D348" s="255"/>
+      <c r="E348" s="255"/>
       <c r="F348" s="81" t="s">
         <v>471</v>
       </c>
@@ -35137,10 +35137,10 @@
 )</f>
         <v>111-9-1</v>
       </c>
-      <c r="B349" s="258"/>
-      <c r="C349" s="254"/>
-      <c r="D349" s="256"/>
-      <c r="E349" s="256"/>
+      <c r="B349" s="257"/>
+      <c r="C349" s="253"/>
+      <c r="D349" s="255"/>
+      <c r="E349" s="255"/>
       <c r="F349" s="81" t="s">
         <v>472</v>
       </c>
@@ -35169,10 +35169,10 @@
 )</f>
         <v>111-10-1</v>
       </c>
-      <c r="B350" s="258"/>
-      <c r="C350" s="254"/>
-      <c r="D350" s="256"/>
-      <c r="E350" s="256"/>
+      <c r="B350" s="257"/>
+      <c r="C350" s="253"/>
+      <c r="D350" s="255"/>
+      <c r="E350" s="255"/>
       <c r="F350" s="81" t="s">
         <v>473</v>
       </c>
@@ -35201,10 +35201,10 @@
 )</f>
         <v>111-11-1</v>
       </c>
-      <c r="B351" s="258"/>
-      <c r="C351" s="254"/>
-      <c r="D351" s="256"/>
-      <c r="E351" s="256"/>
+      <c r="B351" s="257"/>
+      <c r="C351" s="253"/>
+      <c r="D351" s="255"/>
+      <c r="E351" s="255"/>
       <c r="F351" s="81" t="s">
         <v>474</v>
       </c>
@@ -35233,10 +35233,10 @@
 )</f>
         <v>111-12-1</v>
       </c>
-      <c r="B352" s="258"/>
-      <c r="C352" s="254"/>
-      <c r="D352" s="256"/>
-      <c r="E352" s="256"/>
+      <c r="B352" s="257"/>
+      <c r="C352" s="253"/>
+      <c r="D352" s="255"/>
+      <c r="E352" s="255"/>
       <c r="F352" s="81" t="s">
         <v>475</v>
       </c>
@@ -35265,10 +35265,10 @@
 )</f>
         <v>111-13-1</v>
       </c>
-      <c r="B353" s="258"/>
-      <c r="C353" s="254"/>
-      <c r="D353" s="256"/>
-      <c r="E353" s="256"/>
+      <c r="B353" s="257"/>
+      <c r="C353" s="253"/>
+      <c r="D353" s="255"/>
+      <c r="E353" s="255"/>
       <c r="F353" s="81" t="s">
         <v>476</v>
       </c>
@@ -35297,10 +35297,10 @@
 )</f>
         <v>111-14-1</v>
       </c>
-      <c r="B354" s="258"/>
-      <c r="C354" s="254"/>
-      <c r="D354" s="256"/>
-      <c r="E354" s="255"/>
+      <c r="B354" s="257"/>
+      <c r="C354" s="253"/>
+      <c r="D354" s="255"/>
+      <c r="E354" s="254"/>
       <c r="F354" s="81" t="s">
         <v>477</v>
       </c>
@@ -35329,10 +35329,10 @@
 )</f>
         <v>112-1-1</v>
       </c>
-      <c r="B355" s="258"/>
-      <c r="C355" s="254"/>
-      <c r="D355" s="256"/>
-      <c r="E355" s="256" t="s">
+      <c r="B355" s="257"/>
+      <c r="C355" s="253"/>
+      <c r="D355" s="255"/>
+      <c r="E355" s="255" t="s">
         <v>125</v>
       </c>
       <c r="F355" s="81" t="s">
@@ -35363,10 +35363,10 @@
 )</f>
         <v>112-2-1</v>
       </c>
-      <c r="B356" s="258"/>
-      <c r="C356" s="254"/>
-      <c r="D356" s="256"/>
-      <c r="E356" s="256"/>
+      <c r="B356" s="257"/>
+      <c r="C356" s="253"/>
+      <c r="D356" s="255"/>
+      <c r="E356" s="255"/>
       <c r="F356" s="81" t="s">
         <v>479</v>
       </c>
@@ -35395,10 +35395,10 @@
 )</f>
         <v>112-3-1</v>
       </c>
-      <c r="B357" s="258"/>
-      <c r="C357" s="254"/>
-      <c r="D357" s="256"/>
-      <c r="E357" s="256"/>
+      <c r="B357" s="257"/>
+      <c r="C357" s="253"/>
+      <c r="D357" s="255"/>
+      <c r="E357" s="255"/>
       <c r="F357" s="81" t="s">
         <v>499</v>
       </c>
@@ -35427,10 +35427,10 @@
 )</f>
         <v>112-4-1</v>
       </c>
-      <c r="B358" s="258"/>
-      <c r="C358" s="254"/>
-      <c r="D358" s="256"/>
-      <c r="E358" s="256"/>
+      <c r="B358" s="257"/>
+      <c r="C358" s="253"/>
+      <c r="D358" s="255"/>
+      <c r="E358" s="255"/>
       <c r="F358" s="81" t="s">
         <v>480</v>
       </c>
@@ -35459,10 +35459,10 @@
 )</f>
         <v>112-5-1</v>
       </c>
-      <c r="B359" s="258"/>
-      <c r="C359" s="254"/>
-      <c r="D359" s="256"/>
-      <c r="E359" s="256"/>
+      <c r="B359" s="257"/>
+      <c r="C359" s="253"/>
+      <c r="D359" s="255"/>
+      <c r="E359" s="255"/>
       <c r="F359" s="81" t="s">
         <v>481</v>
       </c>
@@ -35491,10 +35491,10 @@
 )</f>
         <v>112-6-1</v>
       </c>
-      <c r="B360" s="258"/>
-      <c r="C360" s="254"/>
-      <c r="D360" s="256"/>
-      <c r="E360" s="256"/>
+      <c r="B360" s="257"/>
+      <c r="C360" s="253"/>
+      <c r="D360" s="255"/>
+      <c r="E360" s="255"/>
       <c r="F360" s="81" t="s">
         <v>482</v>
       </c>
@@ -35523,10 +35523,10 @@
 )</f>
         <v>112-7-1</v>
       </c>
-      <c r="B361" s="272"/>
-      <c r="C361" s="260"/>
-      <c r="D361" s="255"/>
-      <c r="E361" s="255"/>
+      <c r="B361" s="271"/>
+      <c r="C361" s="259"/>
+      <c r="D361" s="254"/>
+      <c r="E361" s="254"/>
       <c r="F361" s="81" t="s">
         <v>483</v>
       </c>
@@ -35558,13 +35558,13 @@
       <c r="B362" s="110" t="s">
         <v>501</v>
       </c>
-      <c r="C362" s="257" t="s">
+      <c r="C362" s="256" t="s">
         <v>484</v>
       </c>
-      <c r="D362" s="257" t="s">
+      <c r="D362" s="256" t="s">
         <v>497</v>
       </c>
-      <c r="E362" s="257" t="s">
+      <c r="E362" s="256" t="s">
         <v>497</v>
       </c>
       <c r="F362" s="92" t="s">
@@ -35596,9 +35596,9 @@
         <v>113-2-1</v>
       </c>
       <c r="B363" s="111"/>
-      <c r="C363" s="256"/>
-      <c r="D363" s="256"/>
-      <c r="E363" s="258"/>
+      <c r="C363" s="255"/>
+      <c r="D363" s="255"/>
+      <c r="E363" s="257"/>
       <c r="F363" s="142" t="s">
         <v>503</v>
       </c>
@@ -35628,9 +35628,9 @@
         <v>113-3-1</v>
       </c>
       <c r="B364" s="111"/>
-      <c r="C364" s="256"/>
-      <c r="D364" s="256"/>
-      <c r="E364" s="258"/>
+      <c r="C364" s="255"/>
+      <c r="D364" s="255"/>
+      <c r="E364" s="257"/>
       <c r="F364" s="142" t="s">
         <v>504</v>
       </c>
@@ -35660,9 +35660,9 @@
         <v>113-4-1</v>
       </c>
       <c r="B365" s="111"/>
-      <c r="C365" s="256"/>
-      <c r="D365" s="256"/>
-      <c r="E365" s="258"/>
+      <c r="C365" s="255"/>
+      <c r="D365" s="255"/>
+      <c r="E365" s="257"/>
       <c r="F365" s="142" t="s">
         <v>505</v>
       </c>
@@ -35692,25 +35692,25 @@
         <v>113-5-1</v>
       </c>
       <c r="B366" s="111"/>
-      <c r="C366" s="256"/>
-      <c r="D366" s="256"/>
-      <c r="E366" s="258"/>
-      <c r="F366" s="281" t="s">
+      <c r="C366" s="255"/>
+      <c r="D366" s="255"/>
+      <c r="E366" s="257"/>
+      <c r="F366" s="280" t="s">
         <v>506</v>
       </c>
-      <c r="G366" s="281" t="s">
+      <c r="G366" s="280" t="s">
         <v>656</v>
       </c>
       <c r="H366" s="100"/>
       <c r="I366" s="100"/>
       <c r="J366" s="115"/>
-      <c r="K366" s="282"/>
-      <c r="L366" s="283"/>
-      <c r="M366" s="284"/>
-      <c r="N366" s="284"/>
-      <c r="O366" s="284"/>
-      <c r="P366" s="284"/>
-      <c r="Q366" s="284"/>
+      <c r="K366" s="281"/>
+      <c r="L366" s="282"/>
+      <c r="M366" s="283"/>
+      <c r="N366" s="283"/>
+      <c r="O366" s="283"/>
+      <c r="P366" s="283"/>
+      <c r="Q366" s="283"/>
     </row>
     <row r="367" spans="1:17" s="34" customFormat="1">
       <c r="A367" s="55" t="str" cm="1">
@@ -35726,11 +35726,11 @@
         <v>114-1-1</v>
       </c>
       <c r="B367" s="111"/>
-      <c r="C367" s="254"/>
-      <c r="D367" s="257" t="s">
+      <c r="C367" s="253"/>
+      <c r="D367" s="256" t="s">
         <v>507</v>
       </c>
-      <c r="E367" s="273" t="s">
+      <c r="E367" s="272" t="s">
         <v>493</v>
       </c>
       <c r="F367" s="142" t="s">
@@ -35762,9 +35762,9 @@
         <v>114-2-1</v>
       </c>
       <c r="B368" s="111"/>
-      <c r="C368" s="256"/>
-      <c r="D368" s="256"/>
-      <c r="E368" s="258"/>
+      <c r="C368" s="255"/>
+      <c r="D368" s="255"/>
+      <c r="E368" s="257"/>
       <c r="F368" s="142" t="s">
         <v>510</v>
       </c>
@@ -35794,25 +35794,25 @@
         <v>114-3-1</v>
       </c>
       <c r="B369" s="111"/>
-      <c r="C369" s="256"/>
-      <c r="D369" s="256"/>
-      <c r="E369" s="258"/>
-      <c r="F369" s="281" t="s">
+      <c r="C369" s="255"/>
+      <c r="D369" s="255"/>
+      <c r="E369" s="257"/>
+      <c r="F369" s="280" t="s">
         <v>511</v>
       </c>
-      <c r="G369" s="281" t="s">
+      <c r="G369" s="280" t="s">
         <v>655</v>
       </c>
       <c r="H369" s="100"/>
       <c r="I369" s="100"/>
       <c r="J369" s="115"/>
-      <c r="K369" s="282"/>
-      <c r="L369" s="283"/>
-      <c r="M369" s="284"/>
-      <c r="N369" s="284"/>
-      <c r="O369" s="284"/>
-      <c r="P369" s="284"/>
-      <c r="Q369" s="284"/>
+      <c r="K369" s="281"/>
+      <c r="L369" s="282"/>
+      <c r="M369" s="283"/>
+      <c r="N369" s="283"/>
+      <c r="O369" s="283"/>
+      <c r="P369" s="283"/>
+      <c r="Q369" s="283"/>
     </row>
     <row r="370" spans="1:17" s="34" customFormat="1" ht="22.5">
       <c r="A370" s="55" t="str" cm="1">
@@ -35828,9 +35828,9 @@
         <v>114-4-1</v>
       </c>
       <c r="B370" s="111"/>
-      <c r="C370" s="256"/>
-      <c r="D370" s="256"/>
-      <c r="E370" s="258"/>
+      <c r="C370" s="255"/>
+      <c r="D370" s="255"/>
+      <c r="E370" s="257"/>
       <c r="F370" s="142" t="s">
         <v>512</v>
       </c>
@@ -35860,9 +35860,9 @@
         <v>114-5-1</v>
       </c>
       <c r="B371" s="111"/>
-      <c r="C371" s="255"/>
-      <c r="D371" s="255"/>
-      <c r="E371" s="272"/>
+      <c r="C371" s="254"/>
+      <c r="D371" s="254"/>
+      <c r="E371" s="271"/>
       <c r="F371" s="149" t="s">
         <v>513</v>
       </c>
@@ -35895,10 +35895,10 @@
       <c r="C372" s="110" t="s">
         <v>514</v>
       </c>
-      <c r="D372" s="262" t="s">
+      <c r="D372" s="261" t="s">
         <v>485</v>
       </c>
-      <c r="E372" s="257" t="s">
+      <c r="E372" s="256" t="s">
         <v>493</v>
       </c>
       <c r="F372" s="118" t="s">
@@ -35931,8 +35931,8 @@
       </c>
       <c r="B373" s="111"/>
       <c r="C373" s="111"/>
-      <c r="D373" s="254"/>
-      <c r="E373" s="256"/>
+      <c r="D373" s="253"/>
+      <c r="E373" s="255"/>
       <c r="F373" s="118" t="s">
         <v>516</v>
       </c>
@@ -35963,8 +35963,8 @@
       </c>
       <c r="B374" s="111"/>
       <c r="C374" s="111"/>
-      <c r="D374" s="254"/>
-      <c r="E374" s="256"/>
+      <c r="D374" s="253"/>
+      <c r="E374" s="255"/>
       <c r="F374" s="118" t="s">
         <v>517</v>
       </c>
@@ -35995,8 +35995,8 @@
       </c>
       <c r="B375" s="111"/>
       <c r="C375" s="111"/>
-      <c r="D375" s="254"/>
-      <c r="E375" s="256"/>
+      <c r="D375" s="253"/>
+      <c r="E375" s="255"/>
       <c r="F375" s="118" t="s">
         <v>518</v>
       </c>
@@ -36027,8 +36027,8 @@
       </c>
       <c r="B376" s="111"/>
       <c r="C376" s="111"/>
-      <c r="D376" s="254"/>
-      <c r="E376" s="256"/>
+      <c r="D376" s="253"/>
+      <c r="E376" s="255"/>
       <c r="F376" s="221" t="s">
         <v>519</v>
       </c>
@@ -36061,8 +36061,8 @@
       </c>
       <c r="B377" s="111"/>
       <c r="C377" s="111"/>
-      <c r="D377" s="260"/>
-      <c r="E377" s="255"/>
+      <c r="D377" s="259"/>
+      <c r="E377" s="254"/>
       <c r="F377" s="118" t="s">
         <v>520</v>
       </c>
@@ -36096,7 +36096,7 @@
       <c r="D378" s="158" t="s">
         <v>521</v>
       </c>
-      <c r="E378" s="257" t="s">
+      <c r="E378" s="256" t="s">
         <v>493</v>
       </c>
       <c r="F378" s="118" t="s">
@@ -36129,10 +36129,10 @@
       </c>
       <c r="B379" s="111"/>
       <c r="C379" s="111"/>
-      <c r="D379" s="257" t="s">
+      <c r="D379" s="256" t="s">
         <v>522</v>
       </c>
-      <c r="E379" s="257" t="s">
+      <c r="E379" s="256" t="s">
         <v>493</v>
       </c>
       <c r="F379" s="118" t="s">
@@ -36163,8 +36163,8 @@
 )</f>
         <v>118-1-1</v>
       </c>
-      <c r="B380" s="238"/>
-      <c r="C380" s="238"/>
+      <c r="B380" s="237"/>
+      <c r="C380" s="237"/>
       <c r="D380" s="158" t="s">
         <v>523</v>
       </c>
@@ -36199,16 +36199,16 @@
 )</f>
         <v>119-1-1</v>
       </c>
-      <c r="B381" s="256" t="s">
+      <c r="B381" s="255" t="s">
         <v>500</v>
       </c>
-      <c r="C381" s="256" t="s">
+      <c r="C381" s="255" t="s">
         <v>486</v>
       </c>
-      <c r="D381" s="256" t="s">
+      <c r="D381" s="255" t="s">
         <v>487</v>
       </c>
-      <c r="E381" s="256" t="s">
+      <c r="E381" s="255" t="s">
         <v>52</v>
       </c>
       <c r="F381" s="93" t="s">
@@ -36239,10 +36239,10 @@
 )</f>
         <v>119-2-1</v>
       </c>
-      <c r="B382" s="279"/>
-      <c r="C382" s="280"/>
-      <c r="D382" s="280"/>
-      <c r="E382" s="280"/>
+      <c r="B382" s="278"/>
+      <c r="C382" s="279"/>
+      <c r="D382" s="279"/>
+      <c r="E382" s="279"/>
       <c r="F382" s="81" t="s">
         <v>489</v>
       </c>
@@ -36464,10 +36464,10 @@
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="65"/>
-      <c r="D12" s="231" t="s">
+      <c r="D12" s="230" t="s">
         <v>574</v>
       </c>
-      <c r="E12" s="232"/>
+      <c r="E12" s="231"/>
       <c r="F12" s="139"/>
       <c r="G12" s="110" t="s">
         <v>571</v>
@@ -36475,11 +36475,11 @@
       <c r="H12" s="110" t="s">
         <v>592</v>
       </c>
-      <c r="I12" s="233"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="234"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="232"/>
+      <c r="K12" s="233"/>
       <c r="L12" s="112"/>
-      <c r="M12" s="235"/>
+      <c r="M12" s="234"/>
       <c r="N12" s="112"/>
       <c r="O12" s="112"/>
       <c r="P12" s="112"/>
@@ -36518,10 +36518,10 @@
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
-      <c r="D14" s="231" t="s">
+      <c r="D14" s="230" t="s">
         <v>578</v>
       </c>
-      <c r="E14" s="232"/>
+      <c r="E14" s="231"/>
       <c r="F14" s="139"/>
       <c r="G14" s="110" t="s">
         <v>571</v>
@@ -36529,11 +36529,11 @@
       <c r="H14" s="110" t="s">
         <v>592</v>
       </c>
-      <c r="I14" s="233"/>
-      <c r="J14" s="233"/>
-      <c r="K14" s="234"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="233"/>
       <c r="L14" s="112"/>
-      <c r="M14" s="235"/>
+      <c r="M14" s="234"/>
       <c r="N14" s="112"/>
       <c r="O14" s="112"/>
       <c r="P14" s="112"/>
@@ -36544,10 +36544,10 @@
       </c>
       <c r="B15" s="65"/>
       <c r="C15" s="65"/>
-      <c r="D15" s="227" t="s">
+      <c r="D15" s="351" t="s">
         <v>580</v>
       </c>
-      <c r="E15" s="236" t="s">
+      <c r="E15" s="235" t="s">
         <v>581</v>
       </c>
       <c r="F15" s="139"/>
@@ -36557,11 +36557,11 @@
       <c r="H15" s="110" t="s">
         <v>592</v>
       </c>
-      <c r="I15" s="233"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="234"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="232"/>
+      <c r="K15" s="233"/>
       <c r="L15" s="112"/>
-      <c r="M15" s="235"/>
+      <c r="M15" s="234"/>
       <c r="N15" s="112"/>
       <c r="O15" s="112"/>
       <c r="P15" s="112"/>
@@ -36572,7 +36572,7 @@
       </c>
       <c r="B16" s="65"/>
       <c r="C16" s="65"/>
-      <c r="D16" s="228"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="94" t="s">
         <v>583</v>
       </c>
@@ -36600,7 +36600,7 @@
       </c>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="228"/>
+      <c r="D17" s="120"/>
       <c r="E17" s="103" t="s">
         <v>584</v>
       </c>
@@ -36628,7 +36628,7 @@
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
-      <c r="D18" s="229"/>
+      <c r="D18" s="117"/>
       <c r="E18" s="103" t="s">
         <v>585</v>
       </c>
@@ -36686,7 +36686,7 @@
       </c>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>
-      <c r="D20" s="230" t="s">
+      <c r="D20" s="229" t="s">
         <v>590</v>
       </c>
       <c r="E20" s="94" t="s">
@@ -36716,10 +36716,10 @@
       </c>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
-      <c r="D21" s="350" t="s">
+      <c r="D21" s="349" t="s">
         <v>632</v>
       </c>
-      <c r="E21" s="351"/>
+      <c r="E21" s="350"/>
       <c r="F21" s="115" t="s">
         <v>646</v>
       </c>
@@ -36773,7 +36773,7 @@
         <v>597</v>
       </c>
       <c r="B23" s="65"/>
-      <c r="C23" s="229"/>
+      <c r="C23" s="228"/>
       <c r="D23" s="225" t="s">
         <v>598</v>
       </c>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC4B1E8-F6D1-40CF-9C04-0AC2AD2A2A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D148AC-F906-49BA-B0C7-23460D33A82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="656">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -8366,16 +8366,6 @@
   </si>
   <si>
     <t>リクエスト単体テストで確認するので対象外</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1-1-1, 2-1-1, 5-1-1 で確認するので対象外</t>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>タイショウガイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -9322,7 +9312,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="353">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -9974,9 +9964,6 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -10139,86 +10126,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -10328,6 +10240,84 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10340,8 +10330,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -11899,51 +11892,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="291" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="320" t="s">
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="294" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
-      <c r="N1" s="322"/>
-      <c r="O1" s="326" t="s">
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
+      <c r="N1" s="296"/>
+      <c r="O1" s="300" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="327"/>
-      <c r="Q1" s="327"/>
-      <c r="R1" s="328"/>
-      <c r="S1" s="335" t="s">
-        <v>654</v>
-      </c>
-      <c r="T1" s="336"/>
-      <c r="U1" s="336"/>
-      <c r="V1" s="336"/>
-      <c r="W1" s="336"/>
-      <c r="X1" s="336"/>
-      <c r="Y1" s="336"/>
-      <c r="Z1" s="337"/>
-      <c r="AA1" s="317" t="s">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="309" t="s">
+        <v>653</v>
+      </c>
+      <c r="T1" s="310"/>
+      <c r="U1" s="310"/>
+      <c r="V1" s="310"/>
+      <c r="W1" s="310"/>
+      <c r="X1" s="310"/>
+      <c r="Y1" s="310"/>
+      <c r="Z1" s="311"/>
+      <c r="AA1" s="291" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="319"/>
-      <c r="AC1" s="344"/>
-      <c r="AD1" s="345"/>
-      <c r="AE1" s="345"/>
-      <c r="AF1" s="346"/>
-      <c r="AG1" s="311"/>
-      <c r="AH1" s="312"/>
-      <c r="AI1" s="313"/>
+      <c r="AB1" s="293"/>
+      <c r="AC1" s="318"/>
+      <c r="AD1" s="319"/>
+      <c r="AE1" s="319"/>
+      <c r="AF1" s="320"/>
+      <c r="AG1" s="285"/>
+      <c r="AH1" s="286"/>
+      <c r="AI1" s="287"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11951,53 +11944,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="317" t="s">
+      <c r="A2" s="291" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="318"/>
-      <c r="C2" s="318"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="320" t="s">
+      <c r="B2" s="292"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="294" t="s">
         <v>643</v>
       </c>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="321"/>
-      <c r="K2" s="321"/>
-      <c r="L2" s="321"/>
-      <c r="M2" s="321"/>
-      <c r="N2" s="322"/>
-      <c r="O2" s="329"/>
-      <c r="P2" s="330"/>
-      <c r="Q2" s="330"/>
-      <c r="R2" s="331"/>
-      <c r="S2" s="338"/>
-      <c r="T2" s="339"/>
-      <c r="U2" s="339"/>
-      <c r="V2" s="339"/>
-      <c r="W2" s="339"/>
-      <c r="X2" s="339"/>
-      <c r="Y2" s="339"/>
-      <c r="Z2" s="340"/>
-      <c r="AA2" s="317" t="s">
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="296"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="312"/>
+      <c r="T2" s="313"/>
+      <c r="U2" s="313"/>
+      <c r="V2" s="313"/>
+      <c r="W2" s="313"/>
+      <c r="X2" s="313"/>
+      <c r="Y2" s="313"/>
+      <c r="Z2" s="314"/>
+      <c r="AA2" s="291" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="319"/>
-      <c r="AC2" s="323" t="str">
+      <c r="AB2" s="293"/>
+      <c r="AC2" s="297" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="324"/>
-      <c r="AE2" s="324"/>
-      <c r="AF2" s="325"/>
-      <c r="AG2" s="311" t="str">
+      <c r="AD2" s="298"/>
+      <c r="AE2" s="298"/>
+      <c r="AF2" s="299"/>
+      <c r="AG2" s="285" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="312"/>
-      <c r="AI2" s="313"/>
+      <c r="AH2" s="286"/>
+      <c r="AI2" s="287"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12005,45 +11998,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="317" t="s">
+      <c r="A3" s="291" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="318"/>
-      <c r="C3" s="318"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="320" t="s">
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="294" t="s">
         <v>644</v>
       </c>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="321"/>
-      <c r="L3" s="321"/>
-      <c r="M3" s="321"/>
-      <c r="N3" s="322"/>
-      <c r="O3" s="332"/>
-      <c r="P3" s="333"/>
-      <c r="Q3" s="333"/>
-      <c r="R3" s="334"/>
-      <c r="S3" s="341"/>
-      <c r="T3" s="342"/>
-      <c r="U3" s="342"/>
-      <c r="V3" s="342"/>
-      <c r="W3" s="342"/>
-      <c r="X3" s="342"/>
-      <c r="Y3" s="342"/>
-      <c r="Z3" s="343"/>
-      <c r="AA3" s="317"/>
-      <c r="AB3" s="319"/>
-      <c r="AC3" s="344"/>
-      <c r="AD3" s="345"/>
-      <c r="AE3" s="345"/>
-      <c r="AF3" s="346"/>
-      <c r="AG3" s="311"/>
-      <c r="AH3" s="312"/>
-      <c r="AI3" s="313"/>
+      <c r="F3" s="295"/>
+      <c r="G3" s="295"/>
+      <c r="H3" s="295"/>
+      <c r="I3" s="295"/>
+      <c r="J3" s="295"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="295"/>
+      <c r="M3" s="295"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="315"/>
+      <c r="T3" s="316"/>
+      <c r="U3" s="316"/>
+      <c r="V3" s="316"/>
+      <c r="W3" s="316"/>
+      <c r="X3" s="316"/>
+      <c r="Y3" s="316"/>
+      <c r="Z3" s="317"/>
+      <c r="AA3" s="291"/>
+      <c r="AB3" s="293"/>
+      <c r="AC3" s="318"/>
+      <c r="AD3" s="319"/>
+      <c r="AE3" s="319"/>
+      <c r="AF3" s="320"/>
+      <c r="AG3" s="285"/>
+      <c r="AH3" s="286"/>
+      <c r="AI3" s="287"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12080,1020 +12073,1176 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="314" t="s">
+      <c r="B7" s="288" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="315"/>
-      <c r="D7" s="314" t="s">
+      <c r="C7" s="289"/>
+      <c r="D7" s="288" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="316"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="314" t="s">
+      <c r="E7" s="290"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="288" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="316"/>
-      <c r="I7" s="315"/>
-      <c r="J7" s="314" t="s">
+      <c r="H7" s="290"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="288" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="316"/>
-      <c r="P7" s="315"/>
-      <c r="Q7" s="314" t="s">
+      <c r="K7" s="290"/>
+      <c r="L7" s="290"/>
+      <c r="M7" s="290"/>
+      <c r="N7" s="290"/>
+      <c r="O7" s="290"/>
+      <c r="P7" s="289"/>
+      <c r="Q7" s="288" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="316"/>
-      <c r="S7" s="316"/>
-      <c r="T7" s="316"/>
-      <c r="U7" s="316"/>
-      <c r="V7" s="316"/>
-      <c r="W7" s="316"/>
-      <c r="X7" s="316"/>
-      <c r="Y7" s="316"/>
-      <c r="Z7" s="316"/>
-      <c r="AA7" s="316"/>
-      <c r="AB7" s="316"/>
-      <c r="AC7" s="316"/>
-      <c r="AD7" s="316"/>
-      <c r="AE7" s="315"/>
-      <c r="AF7" s="314" t="s">
+      <c r="R7" s="290"/>
+      <c r="S7" s="290"/>
+      <c r="T7" s="290"/>
+      <c r="U7" s="290"/>
+      <c r="V7" s="290"/>
+      <c r="W7" s="290"/>
+      <c r="X7" s="290"/>
+      <c r="Y7" s="290"/>
+      <c r="Z7" s="290"/>
+      <c r="AA7" s="290"/>
+      <c r="AB7" s="290"/>
+      <c r="AC7" s="290"/>
+      <c r="AD7" s="290"/>
+      <c r="AE7" s="289"/>
+      <c r="AF7" s="288" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="316"/>
-      <c r="AH7" s="316"/>
-      <c r="AI7" s="315"/>
+      <c r="AG7" s="290"/>
+      <c r="AH7" s="290"/>
+      <c r="AI7" s="289"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="298"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="301"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="303"/>
-      <c r="H8" s="304"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="305"/>
-      <c r="K8" s="306"/>
-      <c r="L8" s="306"/>
-      <c r="M8" s="306"/>
-      <c r="N8" s="306"/>
-      <c r="O8" s="306"/>
-      <c r="P8" s="307"/>
-      <c r="Q8" s="308"/>
-      <c r="R8" s="309"/>
-      <c r="S8" s="309"/>
-      <c r="T8" s="309"/>
-      <c r="U8" s="309"/>
-      <c r="V8" s="309"/>
-      <c r="W8" s="309"/>
-      <c r="X8" s="309"/>
-      <c r="Y8" s="309"/>
-      <c r="Z8" s="309"/>
-      <c r="AA8" s="309"/>
-      <c r="AB8" s="309"/>
-      <c r="AC8" s="309"/>
-      <c r="AD8" s="309"/>
-      <c r="AE8" s="310"/>
-      <c r="AF8" s="305"/>
-      <c r="AG8" s="306"/>
-      <c r="AH8" s="306"/>
-      <c r="AI8" s="307"/>
+      <c r="B8" s="333"/>
+      <c r="C8" s="334"/>
+      <c r="D8" s="335"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="337"/>
+      <c r="G8" s="338"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="334"/>
+      <c r="J8" s="340"/>
+      <c r="K8" s="341"/>
+      <c r="L8" s="341"/>
+      <c r="M8" s="341"/>
+      <c r="N8" s="341"/>
+      <c r="O8" s="341"/>
+      <c r="P8" s="342"/>
+      <c r="Q8" s="343"/>
+      <c r="R8" s="344"/>
+      <c r="S8" s="344"/>
+      <c r="T8" s="344"/>
+      <c r="U8" s="344"/>
+      <c r="V8" s="344"/>
+      <c r="W8" s="344"/>
+      <c r="X8" s="344"/>
+      <c r="Y8" s="344"/>
+      <c r="Z8" s="344"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="344"/>
+      <c r="AC8" s="344"/>
+      <c r="AD8" s="344"/>
+      <c r="AE8" s="345"/>
+      <c r="AF8" s="340"/>
+      <c r="AG8" s="341"/>
+      <c r="AH8" s="341"/>
+      <c r="AI8" s="342"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="285"/>
-      <c r="C9" s="286"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="287"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="286"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="292"/>
-      <c r="L9" s="292"/>
-      <c r="M9" s="292"/>
-      <c r="N9" s="292"/>
-      <c r="O9" s="292"/>
-      <c r="P9" s="293"/>
-      <c r="Q9" s="294"/>
-      <c r="R9" s="295"/>
-      <c r="S9" s="295"/>
-      <c r="T9" s="295"/>
-      <c r="U9" s="295"/>
-      <c r="V9" s="295"/>
-      <c r="W9" s="295"/>
-      <c r="X9" s="295"/>
-      <c r="Y9" s="295"/>
-      <c r="Z9" s="295"/>
-      <c r="AA9" s="295"/>
-      <c r="AB9" s="295"/>
-      <c r="AC9" s="295"/>
-      <c r="AD9" s="295"/>
-      <c r="AE9" s="296"/>
-      <c r="AF9" s="291"/>
-      <c r="AG9" s="292"/>
-      <c r="AH9" s="292"/>
-      <c r="AI9" s="293"/>
+      <c r="B9" s="321"/>
+      <c r="C9" s="322"/>
+      <c r="D9" s="323"/>
+      <c r="E9" s="324"/>
+      <c r="F9" s="325"/>
+      <c r="G9" s="323"/>
+      <c r="H9" s="326"/>
+      <c r="I9" s="322"/>
+      <c r="J9" s="327"/>
+      <c r="K9" s="328"/>
+      <c r="L9" s="328"/>
+      <c r="M9" s="328"/>
+      <c r="N9" s="328"/>
+      <c r="O9" s="328"/>
+      <c r="P9" s="329"/>
+      <c r="Q9" s="330"/>
+      <c r="R9" s="331"/>
+      <c r="S9" s="331"/>
+      <c r="T9" s="331"/>
+      <c r="U9" s="331"/>
+      <c r="V9" s="331"/>
+      <c r="W9" s="331"/>
+      <c r="X9" s="331"/>
+      <c r="Y9" s="331"/>
+      <c r="Z9" s="331"/>
+      <c r="AA9" s="331"/>
+      <c r="AB9" s="331"/>
+      <c r="AC9" s="331"/>
+      <c r="AD9" s="331"/>
+      <c r="AE9" s="332"/>
+      <c r="AF9" s="327"/>
+      <c r="AG9" s="328"/>
+      <c r="AH9" s="328"/>
+      <c r="AI9" s="329"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="285"/>
-      <c r="C10" s="286"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="285"/>
-      <c r="H10" s="290"/>
-      <c r="I10" s="286"/>
-      <c r="J10" s="291"/>
-      <c r="K10" s="292"/>
-      <c r="L10" s="292"/>
-      <c r="M10" s="292"/>
-      <c r="N10" s="292"/>
-      <c r="O10" s="292"/>
-      <c r="P10" s="293"/>
-      <c r="Q10" s="294"/>
-      <c r="R10" s="295"/>
-      <c r="S10" s="295"/>
-      <c r="T10" s="295"/>
-      <c r="U10" s="295"/>
-      <c r="V10" s="295"/>
-      <c r="W10" s="295"/>
-      <c r="X10" s="295"/>
-      <c r="Y10" s="295"/>
-      <c r="Z10" s="295"/>
-      <c r="AA10" s="295"/>
-      <c r="AB10" s="295"/>
-      <c r="AC10" s="295"/>
-      <c r="AD10" s="295"/>
-      <c r="AE10" s="296"/>
-      <c r="AF10" s="291"/>
-      <c r="AG10" s="292"/>
-      <c r="AH10" s="292"/>
-      <c r="AI10" s="293"/>
+      <c r="B10" s="321"/>
+      <c r="C10" s="322"/>
+      <c r="D10" s="323"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="325"/>
+      <c r="G10" s="321"/>
+      <c r="H10" s="326"/>
+      <c r="I10" s="322"/>
+      <c r="J10" s="327"/>
+      <c r="K10" s="328"/>
+      <c r="L10" s="328"/>
+      <c r="M10" s="328"/>
+      <c r="N10" s="328"/>
+      <c r="O10" s="328"/>
+      <c r="P10" s="329"/>
+      <c r="Q10" s="330"/>
+      <c r="R10" s="331"/>
+      <c r="S10" s="331"/>
+      <c r="T10" s="331"/>
+      <c r="U10" s="331"/>
+      <c r="V10" s="331"/>
+      <c r="W10" s="331"/>
+      <c r="X10" s="331"/>
+      <c r="Y10" s="331"/>
+      <c r="Z10" s="331"/>
+      <c r="AA10" s="331"/>
+      <c r="AB10" s="331"/>
+      <c r="AC10" s="331"/>
+      <c r="AD10" s="331"/>
+      <c r="AE10" s="332"/>
+      <c r="AF10" s="327"/>
+      <c r="AG10" s="328"/>
+      <c r="AH10" s="328"/>
+      <c r="AI10" s="329"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="285"/>
-      <c r="C11" s="286"/>
-      <c r="D11" s="287"/>
-      <c r="E11" s="288"/>
-      <c r="F11" s="289"/>
-      <c r="G11" s="285"/>
-      <c r="H11" s="290"/>
-      <c r="I11" s="286"/>
-      <c r="J11" s="291"/>
-      <c r="K11" s="292"/>
-      <c r="L11" s="292"/>
-      <c r="M11" s="292"/>
-      <c r="N11" s="292"/>
-      <c r="O11" s="292"/>
-      <c r="P11" s="293"/>
-      <c r="Q11" s="294"/>
-      <c r="R11" s="295"/>
-      <c r="S11" s="295"/>
-      <c r="T11" s="295"/>
-      <c r="U11" s="295"/>
-      <c r="V11" s="295"/>
-      <c r="W11" s="295"/>
-      <c r="X11" s="295"/>
-      <c r="Y11" s="295"/>
-      <c r="Z11" s="295"/>
-      <c r="AA11" s="295"/>
-      <c r="AB11" s="295"/>
-      <c r="AC11" s="295"/>
-      <c r="AD11" s="295"/>
-      <c r="AE11" s="296"/>
-      <c r="AF11" s="291"/>
-      <c r="AG11" s="292"/>
-      <c r="AH11" s="292"/>
-      <c r="AI11" s="293"/>
+      <c r="B11" s="321"/>
+      <c r="C11" s="322"/>
+      <c r="D11" s="323"/>
+      <c r="E11" s="324"/>
+      <c r="F11" s="325"/>
+      <c r="G11" s="321"/>
+      <c r="H11" s="326"/>
+      <c r="I11" s="322"/>
+      <c r="J11" s="327"/>
+      <c r="K11" s="328"/>
+      <c r="L11" s="328"/>
+      <c r="M11" s="328"/>
+      <c r="N11" s="328"/>
+      <c r="O11" s="328"/>
+      <c r="P11" s="329"/>
+      <c r="Q11" s="330"/>
+      <c r="R11" s="331"/>
+      <c r="S11" s="331"/>
+      <c r="T11" s="331"/>
+      <c r="U11" s="331"/>
+      <c r="V11" s="331"/>
+      <c r="W11" s="331"/>
+      <c r="X11" s="331"/>
+      <c r="Y11" s="331"/>
+      <c r="Z11" s="331"/>
+      <c r="AA11" s="331"/>
+      <c r="AB11" s="331"/>
+      <c r="AC11" s="331"/>
+      <c r="AD11" s="331"/>
+      <c r="AE11" s="332"/>
+      <c r="AF11" s="327"/>
+      <c r="AG11" s="328"/>
+      <c r="AH11" s="328"/>
+      <c r="AI11" s="329"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="285"/>
-      <c r="C12" s="286"/>
-      <c r="D12" s="287"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="289"/>
-      <c r="G12" s="285"/>
-      <c r="H12" s="290"/>
-      <c r="I12" s="286"/>
-      <c r="J12" s="291"/>
-      <c r="K12" s="292"/>
-      <c r="L12" s="292"/>
-      <c r="M12" s="292"/>
-      <c r="N12" s="292"/>
-      <c r="O12" s="292"/>
-      <c r="P12" s="293"/>
-      <c r="Q12" s="294"/>
-      <c r="R12" s="295"/>
-      <c r="S12" s="295"/>
-      <c r="T12" s="295"/>
-      <c r="U12" s="295"/>
-      <c r="V12" s="295"/>
-      <c r="W12" s="295"/>
-      <c r="X12" s="295"/>
-      <c r="Y12" s="295"/>
-      <c r="Z12" s="295"/>
-      <c r="AA12" s="295"/>
-      <c r="AB12" s="295"/>
-      <c r="AC12" s="295"/>
-      <c r="AD12" s="295"/>
-      <c r="AE12" s="296"/>
-      <c r="AF12" s="291"/>
-      <c r="AG12" s="292"/>
-      <c r="AH12" s="292"/>
-      <c r="AI12" s="293"/>
+      <c r="B12" s="321"/>
+      <c r="C12" s="322"/>
+      <c r="D12" s="323"/>
+      <c r="E12" s="324"/>
+      <c r="F12" s="325"/>
+      <c r="G12" s="321"/>
+      <c r="H12" s="326"/>
+      <c r="I12" s="322"/>
+      <c r="J12" s="327"/>
+      <c r="K12" s="328"/>
+      <c r="L12" s="328"/>
+      <c r="M12" s="328"/>
+      <c r="N12" s="328"/>
+      <c r="O12" s="328"/>
+      <c r="P12" s="329"/>
+      <c r="Q12" s="330"/>
+      <c r="R12" s="331"/>
+      <c r="S12" s="331"/>
+      <c r="T12" s="331"/>
+      <c r="U12" s="331"/>
+      <c r="V12" s="331"/>
+      <c r="W12" s="331"/>
+      <c r="X12" s="331"/>
+      <c r="Y12" s="331"/>
+      <c r="Z12" s="331"/>
+      <c r="AA12" s="331"/>
+      <c r="AB12" s="331"/>
+      <c r="AC12" s="331"/>
+      <c r="AD12" s="331"/>
+      <c r="AE12" s="332"/>
+      <c r="AF12" s="327"/>
+      <c r="AG12" s="328"/>
+      <c r="AH12" s="328"/>
+      <c r="AI12" s="329"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="285"/>
-      <c r="C13" s="286"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="288"/>
-      <c r="F13" s="289"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="290"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="292"/>
-      <c r="L13" s="292"/>
-      <c r="M13" s="292"/>
-      <c r="N13" s="292"/>
-      <c r="O13" s="292"/>
-      <c r="P13" s="293"/>
-      <c r="Q13" s="294"/>
-      <c r="R13" s="295"/>
-      <c r="S13" s="295"/>
-      <c r="T13" s="295"/>
-      <c r="U13" s="295"/>
-      <c r="V13" s="295"/>
-      <c r="W13" s="295"/>
-      <c r="X13" s="295"/>
-      <c r="Y13" s="295"/>
-      <c r="Z13" s="295"/>
-      <c r="AA13" s="295"/>
-      <c r="AB13" s="295"/>
-      <c r="AC13" s="295"/>
-      <c r="AD13" s="295"/>
-      <c r="AE13" s="296"/>
-      <c r="AF13" s="291"/>
-      <c r="AG13" s="292"/>
-      <c r="AH13" s="292"/>
-      <c r="AI13" s="293"/>
+      <c r="B13" s="321"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="323"/>
+      <c r="E13" s="324"/>
+      <c r="F13" s="325"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="326"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="327"/>
+      <c r="K13" s="328"/>
+      <c r="L13" s="328"/>
+      <c r="M13" s="328"/>
+      <c r="N13" s="328"/>
+      <c r="O13" s="328"/>
+      <c r="P13" s="329"/>
+      <c r="Q13" s="330"/>
+      <c r="R13" s="331"/>
+      <c r="S13" s="331"/>
+      <c r="T13" s="331"/>
+      <c r="U13" s="331"/>
+      <c r="V13" s="331"/>
+      <c r="W13" s="331"/>
+      <c r="X13" s="331"/>
+      <c r="Y13" s="331"/>
+      <c r="Z13" s="331"/>
+      <c r="AA13" s="331"/>
+      <c r="AB13" s="331"/>
+      <c r="AC13" s="331"/>
+      <c r="AD13" s="331"/>
+      <c r="AE13" s="332"/>
+      <c r="AF13" s="327"/>
+      <c r="AG13" s="328"/>
+      <c r="AH13" s="328"/>
+      <c r="AI13" s="329"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="285"/>
-      <c r="C14" s="286"/>
-      <c r="D14" s="287"/>
-      <c r="E14" s="288"/>
-      <c r="F14" s="289"/>
-      <c r="G14" s="285"/>
-      <c r="H14" s="290"/>
-      <c r="I14" s="286"/>
-      <c r="J14" s="291"/>
-      <c r="K14" s="292"/>
-      <c r="L14" s="292"/>
-      <c r="M14" s="292"/>
-      <c r="N14" s="292"/>
-      <c r="O14" s="292"/>
-      <c r="P14" s="293"/>
-      <c r="Q14" s="294"/>
-      <c r="R14" s="295"/>
-      <c r="S14" s="295"/>
-      <c r="T14" s="295"/>
-      <c r="U14" s="295"/>
-      <c r="V14" s="295"/>
-      <c r="W14" s="295"/>
-      <c r="X14" s="295"/>
-      <c r="Y14" s="295"/>
-      <c r="Z14" s="295"/>
-      <c r="AA14" s="295"/>
-      <c r="AB14" s="295"/>
-      <c r="AC14" s="295"/>
-      <c r="AD14" s="295"/>
-      <c r="AE14" s="296"/>
-      <c r="AF14" s="291"/>
-      <c r="AG14" s="292"/>
-      <c r="AH14" s="292"/>
-      <c r="AI14" s="293"/>
+      <c r="B14" s="321"/>
+      <c r="C14" s="322"/>
+      <c r="D14" s="323"/>
+      <c r="E14" s="324"/>
+      <c r="F14" s="325"/>
+      <c r="G14" s="321"/>
+      <c r="H14" s="326"/>
+      <c r="I14" s="322"/>
+      <c r="J14" s="327"/>
+      <c r="K14" s="328"/>
+      <c r="L14" s="328"/>
+      <c r="M14" s="328"/>
+      <c r="N14" s="328"/>
+      <c r="O14" s="328"/>
+      <c r="P14" s="329"/>
+      <c r="Q14" s="330"/>
+      <c r="R14" s="331"/>
+      <c r="S14" s="331"/>
+      <c r="T14" s="331"/>
+      <c r="U14" s="331"/>
+      <c r="V14" s="331"/>
+      <c r="W14" s="331"/>
+      <c r="X14" s="331"/>
+      <c r="Y14" s="331"/>
+      <c r="Z14" s="331"/>
+      <c r="AA14" s="331"/>
+      <c r="AB14" s="331"/>
+      <c r="AC14" s="331"/>
+      <c r="AD14" s="331"/>
+      <c r="AE14" s="332"/>
+      <c r="AF14" s="327"/>
+      <c r="AG14" s="328"/>
+      <c r="AH14" s="328"/>
+      <c r="AI14" s="329"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="285"/>
-      <c r="C15" s="286"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="288"/>
-      <c r="F15" s="289"/>
-      <c r="G15" s="285"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="286"/>
-      <c r="J15" s="291"/>
-      <c r="K15" s="292"/>
-      <c r="L15" s="292"/>
-      <c r="M15" s="292"/>
-      <c r="N15" s="292"/>
-      <c r="O15" s="292"/>
-      <c r="P15" s="293"/>
-      <c r="Q15" s="294"/>
-      <c r="R15" s="295"/>
-      <c r="S15" s="295"/>
-      <c r="T15" s="295"/>
-      <c r="U15" s="295"/>
-      <c r="V15" s="295"/>
-      <c r="W15" s="295"/>
-      <c r="X15" s="295"/>
-      <c r="Y15" s="295"/>
-      <c r="Z15" s="295"/>
-      <c r="AA15" s="295"/>
-      <c r="AB15" s="295"/>
-      <c r="AC15" s="295"/>
-      <c r="AD15" s="295"/>
-      <c r="AE15" s="296"/>
-      <c r="AF15" s="291"/>
-      <c r="AG15" s="292"/>
-      <c r="AH15" s="292"/>
-      <c r="AI15" s="293"/>
+      <c r="B15" s="321"/>
+      <c r="C15" s="322"/>
+      <c r="D15" s="323"/>
+      <c r="E15" s="324"/>
+      <c r="F15" s="325"/>
+      <c r="G15" s="321"/>
+      <c r="H15" s="326"/>
+      <c r="I15" s="322"/>
+      <c r="J15" s="327"/>
+      <c r="K15" s="328"/>
+      <c r="L15" s="328"/>
+      <c r="M15" s="328"/>
+      <c r="N15" s="328"/>
+      <c r="O15" s="328"/>
+      <c r="P15" s="329"/>
+      <c r="Q15" s="330"/>
+      <c r="R15" s="331"/>
+      <c r="S15" s="331"/>
+      <c r="T15" s="331"/>
+      <c r="U15" s="331"/>
+      <c r="V15" s="331"/>
+      <c r="W15" s="331"/>
+      <c r="X15" s="331"/>
+      <c r="Y15" s="331"/>
+      <c r="Z15" s="331"/>
+      <c r="AA15" s="331"/>
+      <c r="AB15" s="331"/>
+      <c r="AC15" s="331"/>
+      <c r="AD15" s="331"/>
+      <c r="AE15" s="332"/>
+      <c r="AF15" s="327"/>
+      <c r="AG15" s="328"/>
+      <c r="AH15" s="328"/>
+      <c r="AI15" s="329"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="285"/>
-      <c r="C16" s="286"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="288"/>
-      <c r="F16" s="289"/>
-      <c r="G16" s="285"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="286"/>
-      <c r="J16" s="291"/>
-      <c r="K16" s="292"/>
-      <c r="L16" s="292"/>
-      <c r="M16" s="292"/>
-      <c r="N16" s="292"/>
-      <c r="O16" s="292"/>
-      <c r="P16" s="293"/>
-      <c r="Q16" s="294"/>
-      <c r="R16" s="295"/>
-      <c r="S16" s="295"/>
-      <c r="T16" s="295"/>
-      <c r="U16" s="295"/>
-      <c r="V16" s="295"/>
-      <c r="W16" s="295"/>
-      <c r="X16" s="295"/>
-      <c r="Y16" s="295"/>
-      <c r="Z16" s="295"/>
-      <c r="AA16" s="295"/>
-      <c r="AB16" s="295"/>
-      <c r="AC16" s="295"/>
-      <c r="AD16" s="295"/>
-      <c r="AE16" s="296"/>
-      <c r="AF16" s="291"/>
-      <c r="AG16" s="292"/>
-      <c r="AH16" s="292"/>
-      <c r="AI16" s="293"/>
+      <c r="B16" s="321"/>
+      <c r="C16" s="322"/>
+      <c r="D16" s="323"/>
+      <c r="E16" s="324"/>
+      <c r="F16" s="325"/>
+      <c r="G16" s="321"/>
+      <c r="H16" s="326"/>
+      <c r="I16" s="322"/>
+      <c r="J16" s="327"/>
+      <c r="K16" s="328"/>
+      <c r="L16" s="328"/>
+      <c r="M16" s="328"/>
+      <c r="N16" s="328"/>
+      <c r="O16" s="328"/>
+      <c r="P16" s="329"/>
+      <c r="Q16" s="330"/>
+      <c r="R16" s="331"/>
+      <c r="S16" s="331"/>
+      <c r="T16" s="331"/>
+      <c r="U16" s="331"/>
+      <c r="V16" s="331"/>
+      <c r="W16" s="331"/>
+      <c r="X16" s="331"/>
+      <c r="Y16" s="331"/>
+      <c r="Z16" s="331"/>
+      <c r="AA16" s="331"/>
+      <c r="AB16" s="331"/>
+      <c r="AC16" s="331"/>
+      <c r="AD16" s="331"/>
+      <c r="AE16" s="332"/>
+      <c r="AF16" s="327"/>
+      <c r="AG16" s="328"/>
+      <c r="AH16" s="328"/>
+      <c r="AI16" s="329"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="285"/>
-      <c r="C17" s="286"/>
-      <c r="D17" s="287"/>
-      <c r="E17" s="288"/>
-      <c r="F17" s="289"/>
-      <c r="G17" s="285"/>
-      <c r="H17" s="290"/>
-      <c r="I17" s="286"/>
-      <c r="J17" s="291"/>
-      <c r="K17" s="292"/>
-      <c r="L17" s="292"/>
-      <c r="M17" s="292"/>
-      <c r="N17" s="292"/>
-      <c r="O17" s="292"/>
-      <c r="P17" s="293"/>
-      <c r="Q17" s="294"/>
-      <c r="R17" s="295"/>
-      <c r="S17" s="295"/>
-      <c r="T17" s="295"/>
-      <c r="U17" s="295"/>
-      <c r="V17" s="295"/>
-      <c r="W17" s="295"/>
-      <c r="X17" s="295"/>
-      <c r="Y17" s="295"/>
-      <c r="Z17" s="295"/>
-      <c r="AA17" s="295"/>
-      <c r="AB17" s="295"/>
-      <c r="AC17" s="295"/>
-      <c r="AD17" s="295"/>
-      <c r="AE17" s="296"/>
-      <c r="AF17" s="291"/>
-      <c r="AG17" s="292"/>
-      <c r="AH17" s="292"/>
-      <c r="AI17" s="293"/>
+      <c r="B17" s="321"/>
+      <c r="C17" s="322"/>
+      <c r="D17" s="323"/>
+      <c r="E17" s="324"/>
+      <c r="F17" s="325"/>
+      <c r="G17" s="321"/>
+      <c r="H17" s="326"/>
+      <c r="I17" s="322"/>
+      <c r="J17" s="327"/>
+      <c r="K17" s="328"/>
+      <c r="L17" s="328"/>
+      <c r="M17" s="328"/>
+      <c r="N17" s="328"/>
+      <c r="O17" s="328"/>
+      <c r="P17" s="329"/>
+      <c r="Q17" s="330"/>
+      <c r="R17" s="331"/>
+      <c r="S17" s="331"/>
+      <c r="T17" s="331"/>
+      <c r="U17" s="331"/>
+      <c r="V17" s="331"/>
+      <c r="W17" s="331"/>
+      <c r="X17" s="331"/>
+      <c r="Y17" s="331"/>
+      <c r="Z17" s="331"/>
+      <c r="AA17" s="331"/>
+      <c r="AB17" s="331"/>
+      <c r="AC17" s="331"/>
+      <c r="AD17" s="331"/>
+      <c r="AE17" s="332"/>
+      <c r="AF17" s="327"/>
+      <c r="AG17" s="328"/>
+      <c r="AH17" s="328"/>
+      <c r="AI17" s="329"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="285"/>
-      <c r="C18" s="286"/>
-      <c r="D18" s="287"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="289"/>
-      <c r="G18" s="285"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="286"/>
-      <c r="J18" s="291"/>
-      <c r="K18" s="292"/>
-      <c r="L18" s="292"/>
-      <c r="M18" s="292"/>
-      <c r="N18" s="292"/>
-      <c r="O18" s="292"/>
-      <c r="P18" s="293"/>
-      <c r="Q18" s="294"/>
-      <c r="R18" s="295"/>
-      <c r="S18" s="295"/>
-      <c r="T18" s="295"/>
-      <c r="U18" s="295"/>
-      <c r="V18" s="295"/>
-      <c r="W18" s="295"/>
-      <c r="X18" s="295"/>
-      <c r="Y18" s="295"/>
-      <c r="Z18" s="295"/>
-      <c r="AA18" s="295"/>
-      <c r="AB18" s="295"/>
-      <c r="AC18" s="295"/>
-      <c r="AD18" s="295"/>
-      <c r="AE18" s="296"/>
-      <c r="AF18" s="291"/>
-      <c r="AG18" s="292"/>
-      <c r="AH18" s="292"/>
-      <c r="AI18" s="293"/>
+      <c r="B18" s="321"/>
+      <c r="C18" s="322"/>
+      <c r="D18" s="323"/>
+      <c r="E18" s="324"/>
+      <c r="F18" s="325"/>
+      <c r="G18" s="321"/>
+      <c r="H18" s="326"/>
+      <c r="I18" s="322"/>
+      <c r="J18" s="327"/>
+      <c r="K18" s="328"/>
+      <c r="L18" s="328"/>
+      <c r="M18" s="328"/>
+      <c r="N18" s="328"/>
+      <c r="O18" s="328"/>
+      <c r="P18" s="329"/>
+      <c r="Q18" s="330"/>
+      <c r="R18" s="331"/>
+      <c r="S18" s="331"/>
+      <c r="T18" s="331"/>
+      <c r="U18" s="331"/>
+      <c r="V18" s="331"/>
+      <c r="W18" s="331"/>
+      <c r="X18" s="331"/>
+      <c r="Y18" s="331"/>
+      <c r="Z18" s="331"/>
+      <c r="AA18" s="331"/>
+      <c r="AB18" s="331"/>
+      <c r="AC18" s="331"/>
+      <c r="AD18" s="331"/>
+      <c r="AE18" s="332"/>
+      <c r="AF18" s="327"/>
+      <c r="AG18" s="328"/>
+      <c r="AH18" s="328"/>
+      <c r="AI18" s="329"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="285"/>
-      <c r="C19" s="286"/>
-      <c r="D19" s="287"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="289"/>
-      <c r="G19" s="285"/>
-      <c r="H19" s="290"/>
-      <c r="I19" s="286"/>
-      <c r="J19" s="291"/>
-      <c r="K19" s="292"/>
-      <c r="L19" s="292"/>
-      <c r="M19" s="292"/>
-      <c r="N19" s="292"/>
-      <c r="O19" s="292"/>
-      <c r="P19" s="293"/>
-      <c r="Q19" s="294"/>
-      <c r="R19" s="295"/>
-      <c r="S19" s="295"/>
-      <c r="T19" s="295"/>
-      <c r="U19" s="295"/>
-      <c r="V19" s="295"/>
-      <c r="W19" s="295"/>
-      <c r="X19" s="295"/>
-      <c r="Y19" s="295"/>
-      <c r="Z19" s="295"/>
-      <c r="AA19" s="295"/>
-      <c r="AB19" s="295"/>
-      <c r="AC19" s="295"/>
-      <c r="AD19" s="295"/>
-      <c r="AE19" s="296"/>
-      <c r="AF19" s="291"/>
-      <c r="AG19" s="292"/>
-      <c r="AH19" s="292"/>
-      <c r="AI19" s="293"/>
+      <c r="B19" s="321"/>
+      <c r="C19" s="322"/>
+      <c r="D19" s="323"/>
+      <c r="E19" s="324"/>
+      <c r="F19" s="325"/>
+      <c r="G19" s="321"/>
+      <c r="H19" s="326"/>
+      <c r="I19" s="322"/>
+      <c r="J19" s="327"/>
+      <c r="K19" s="328"/>
+      <c r="L19" s="328"/>
+      <c r="M19" s="328"/>
+      <c r="N19" s="328"/>
+      <c r="O19" s="328"/>
+      <c r="P19" s="329"/>
+      <c r="Q19" s="330"/>
+      <c r="R19" s="331"/>
+      <c r="S19" s="331"/>
+      <c r="T19" s="331"/>
+      <c r="U19" s="331"/>
+      <c r="V19" s="331"/>
+      <c r="W19" s="331"/>
+      <c r="X19" s="331"/>
+      <c r="Y19" s="331"/>
+      <c r="Z19" s="331"/>
+      <c r="AA19" s="331"/>
+      <c r="AB19" s="331"/>
+      <c r="AC19" s="331"/>
+      <c r="AD19" s="331"/>
+      <c r="AE19" s="332"/>
+      <c r="AF19" s="327"/>
+      <c r="AG19" s="328"/>
+      <c r="AH19" s="328"/>
+      <c r="AI19" s="329"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="285"/>
-      <c r="C20" s="286"/>
-      <c r="D20" s="287"/>
-      <c r="E20" s="288"/>
-      <c r="F20" s="289"/>
-      <c r="G20" s="285"/>
-      <c r="H20" s="290"/>
-      <c r="I20" s="286"/>
-      <c r="J20" s="291"/>
-      <c r="K20" s="292"/>
-      <c r="L20" s="292"/>
-      <c r="M20" s="292"/>
-      <c r="N20" s="292"/>
-      <c r="O20" s="292"/>
-      <c r="P20" s="293"/>
-      <c r="Q20" s="294"/>
-      <c r="R20" s="295"/>
-      <c r="S20" s="295"/>
-      <c r="T20" s="295"/>
-      <c r="U20" s="295"/>
-      <c r="V20" s="295"/>
-      <c r="W20" s="295"/>
-      <c r="X20" s="295"/>
-      <c r="Y20" s="295"/>
-      <c r="Z20" s="295"/>
-      <c r="AA20" s="295"/>
-      <c r="AB20" s="295"/>
-      <c r="AC20" s="295"/>
-      <c r="AD20" s="295"/>
-      <c r="AE20" s="296"/>
-      <c r="AF20" s="291"/>
-      <c r="AG20" s="292"/>
-      <c r="AH20" s="292"/>
-      <c r="AI20" s="293"/>
+      <c r="B20" s="321"/>
+      <c r="C20" s="322"/>
+      <c r="D20" s="323"/>
+      <c r="E20" s="324"/>
+      <c r="F20" s="325"/>
+      <c r="G20" s="321"/>
+      <c r="H20" s="326"/>
+      <c r="I20" s="322"/>
+      <c r="J20" s="327"/>
+      <c r="K20" s="328"/>
+      <c r="L20" s="328"/>
+      <c r="M20" s="328"/>
+      <c r="N20" s="328"/>
+      <c r="O20" s="328"/>
+      <c r="P20" s="329"/>
+      <c r="Q20" s="330"/>
+      <c r="R20" s="331"/>
+      <c r="S20" s="331"/>
+      <c r="T20" s="331"/>
+      <c r="U20" s="331"/>
+      <c r="V20" s="331"/>
+      <c r="W20" s="331"/>
+      <c r="X20" s="331"/>
+      <c r="Y20" s="331"/>
+      <c r="Z20" s="331"/>
+      <c r="AA20" s="331"/>
+      <c r="AB20" s="331"/>
+      <c r="AC20" s="331"/>
+      <c r="AD20" s="331"/>
+      <c r="AE20" s="332"/>
+      <c r="AF20" s="327"/>
+      <c r="AG20" s="328"/>
+      <c r="AH20" s="328"/>
+      <c r="AI20" s="329"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="285"/>
-      <c r="C21" s="286"/>
-      <c r="D21" s="287"/>
-      <c r="E21" s="288"/>
-      <c r="F21" s="289"/>
-      <c r="G21" s="285"/>
-      <c r="H21" s="290"/>
-      <c r="I21" s="286"/>
-      <c r="J21" s="291"/>
-      <c r="K21" s="292"/>
-      <c r="L21" s="292"/>
-      <c r="M21" s="292"/>
-      <c r="N21" s="292"/>
-      <c r="O21" s="292"/>
-      <c r="P21" s="293"/>
-      <c r="Q21" s="294"/>
-      <c r="R21" s="295"/>
-      <c r="S21" s="295"/>
-      <c r="T21" s="295"/>
-      <c r="U21" s="295"/>
-      <c r="V21" s="295"/>
-      <c r="W21" s="295"/>
-      <c r="X21" s="295"/>
-      <c r="Y21" s="295"/>
-      <c r="Z21" s="295"/>
-      <c r="AA21" s="295"/>
-      <c r="AB21" s="295"/>
-      <c r="AC21" s="295"/>
-      <c r="AD21" s="295"/>
-      <c r="AE21" s="296"/>
-      <c r="AF21" s="291"/>
-      <c r="AG21" s="292"/>
-      <c r="AH21" s="292"/>
-      <c r="AI21" s="293"/>
+      <c r="B21" s="321"/>
+      <c r="C21" s="322"/>
+      <c r="D21" s="323"/>
+      <c r="E21" s="324"/>
+      <c r="F21" s="325"/>
+      <c r="G21" s="321"/>
+      <c r="H21" s="326"/>
+      <c r="I21" s="322"/>
+      <c r="J21" s="327"/>
+      <c r="K21" s="328"/>
+      <c r="L21" s="328"/>
+      <c r="M21" s="328"/>
+      <c r="N21" s="328"/>
+      <c r="O21" s="328"/>
+      <c r="P21" s="329"/>
+      <c r="Q21" s="330"/>
+      <c r="R21" s="331"/>
+      <c r="S21" s="331"/>
+      <c r="T21" s="331"/>
+      <c r="U21" s="331"/>
+      <c r="V21" s="331"/>
+      <c r="W21" s="331"/>
+      <c r="X21" s="331"/>
+      <c r="Y21" s="331"/>
+      <c r="Z21" s="331"/>
+      <c r="AA21" s="331"/>
+      <c r="AB21" s="331"/>
+      <c r="AC21" s="331"/>
+      <c r="AD21" s="331"/>
+      <c r="AE21" s="332"/>
+      <c r="AF21" s="327"/>
+      <c r="AG21" s="328"/>
+      <c r="AH21" s="328"/>
+      <c r="AI21" s="329"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="285"/>
-      <c r="C22" s="286"/>
-      <c r="D22" s="287"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="289"/>
-      <c r="G22" s="285"/>
-      <c r="H22" s="290"/>
-      <c r="I22" s="286"/>
-      <c r="J22" s="291"/>
-      <c r="K22" s="292"/>
-      <c r="L22" s="292"/>
-      <c r="M22" s="292"/>
-      <c r="N22" s="292"/>
-      <c r="O22" s="292"/>
-      <c r="P22" s="293"/>
-      <c r="Q22" s="294"/>
-      <c r="R22" s="295"/>
-      <c r="S22" s="295"/>
-      <c r="T22" s="295"/>
-      <c r="U22" s="295"/>
-      <c r="V22" s="295"/>
-      <c r="W22" s="295"/>
-      <c r="X22" s="295"/>
-      <c r="Y22" s="295"/>
-      <c r="Z22" s="295"/>
-      <c r="AA22" s="295"/>
-      <c r="AB22" s="295"/>
-      <c r="AC22" s="295"/>
-      <c r="AD22" s="295"/>
-      <c r="AE22" s="296"/>
-      <c r="AF22" s="291"/>
-      <c r="AG22" s="292"/>
-      <c r="AH22" s="292"/>
-      <c r="AI22" s="293"/>
+      <c r="B22" s="321"/>
+      <c r="C22" s="322"/>
+      <c r="D22" s="323"/>
+      <c r="E22" s="324"/>
+      <c r="F22" s="325"/>
+      <c r="G22" s="321"/>
+      <c r="H22" s="326"/>
+      <c r="I22" s="322"/>
+      <c r="J22" s="327"/>
+      <c r="K22" s="328"/>
+      <c r="L22" s="328"/>
+      <c r="M22" s="328"/>
+      <c r="N22" s="328"/>
+      <c r="O22" s="328"/>
+      <c r="P22" s="329"/>
+      <c r="Q22" s="330"/>
+      <c r="R22" s="331"/>
+      <c r="S22" s="331"/>
+      <c r="T22" s="331"/>
+      <c r="U22" s="331"/>
+      <c r="V22" s="331"/>
+      <c r="W22" s="331"/>
+      <c r="X22" s="331"/>
+      <c r="Y22" s="331"/>
+      <c r="Z22" s="331"/>
+      <c r="AA22" s="331"/>
+      <c r="AB22" s="331"/>
+      <c r="AC22" s="331"/>
+      <c r="AD22" s="331"/>
+      <c r="AE22" s="332"/>
+      <c r="AF22" s="327"/>
+      <c r="AG22" s="328"/>
+      <c r="AH22" s="328"/>
+      <c r="AI22" s="329"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="285"/>
-      <c r="C23" s="286"/>
-      <c r="D23" s="287"/>
-      <c r="E23" s="288"/>
-      <c r="F23" s="289"/>
-      <c r="G23" s="285"/>
-      <c r="H23" s="290"/>
-      <c r="I23" s="286"/>
-      <c r="J23" s="291"/>
-      <c r="K23" s="292"/>
-      <c r="L23" s="292"/>
-      <c r="M23" s="292"/>
-      <c r="N23" s="292"/>
-      <c r="O23" s="292"/>
-      <c r="P23" s="293"/>
-      <c r="Q23" s="294"/>
-      <c r="R23" s="295"/>
-      <c r="S23" s="295"/>
-      <c r="T23" s="295"/>
-      <c r="U23" s="295"/>
-      <c r="V23" s="295"/>
-      <c r="W23" s="295"/>
-      <c r="X23" s="295"/>
-      <c r="Y23" s="295"/>
-      <c r="Z23" s="295"/>
-      <c r="AA23" s="295"/>
-      <c r="AB23" s="295"/>
-      <c r="AC23" s="295"/>
-      <c r="AD23" s="295"/>
-      <c r="AE23" s="296"/>
-      <c r="AF23" s="291"/>
-      <c r="AG23" s="292"/>
-      <c r="AH23" s="292"/>
-      <c r="AI23" s="293"/>
+      <c r="B23" s="321"/>
+      <c r="C23" s="322"/>
+      <c r="D23" s="323"/>
+      <c r="E23" s="324"/>
+      <c r="F23" s="325"/>
+      <c r="G23" s="321"/>
+      <c r="H23" s="326"/>
+      <c r="I23" s="322"/>
+      <c r="J23" s="327"/>
+      <c r="K23" s="328"/>
+      <c r="L23" s="328"/>
+      <c r="M23" s="328"/>
+      <c r="N23" s="328"/>
+      <c r="O23" s="328"/>
+      <c r="P23" s="329"/>
+      <c r="Q23" s="330"/>
+      <c r="R23" s="331"/>
+      <c r="S23" s="331"/>
+      <c r="T23" s="331"/>
+      <c r="U23" s="331"/>
+      <c r="V23" s="331"/>
+      <c r="W23" s="331"/>
+      <c r="X23" s="331"/>
+      <c r="Y23" s="331"/>
+      <c r="Z23" s="331"/>
+      <c r="AA23" s="331"/>
+      <c r="AB23" s="331"/>
+      <c r="AC23" s="331"/>
+      <c r="AD23" s="331"/>
+      <c r="AE23" s="332"/>
+      <c r="AF23" s="327"/>
+      <c r="AG23" s="328"/>
+      <c r="AH23" s="328"/>
+      <c r="AI23" s="329"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="285"/>
-      <c r="C24" s="286"/>
-      <c r="D24" s="287"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="289"/>
-      <c r="G24" s="285"/>
-      <c r="H24" s="290"/>
-      <c r="I24" s="286"/>
-      <c r="J24" s="291"/>
-      <c r="K24" s="292"/>
-      <c r="L24" s="292"/>
-      <c r="M24" s="292"/>
-      <c r="N24" s="292"/>
-      <c r="O24" s="292"/>
-      <c r="P24" s="293"/>
-      <c r="Q24" s="294"/>
-      <c r="R24" s="295"/>
-      <c r="S24" s="295"/>
-      <c r="T24" s="295"/>
-      <c r="U24" s="295"/>
-      <c r="V24" s="295"/>
-      <c r="W24" s="295"/>
-      <c r="X24" s="295"/>
-      <c r="Y24" s="295"/>
-      <c r="Z24" s="295"/>
-      <c r="AA24" s="295"/>
-      <c r="AB24" s="295"/>
-      <c r="AC24" s="295"/>
-      <c r="AD24" s="295"/>
-      <c r="AE24" s="296"/>
-      <c r="AF24" s="291"/>
-      <c r="AG24" s="292"/>
-      <c r="AH24" s="292"/>
-      <c r="AI24" s="293"/>
+      <c r="B24" s="321"/>
+      <c r="C24" s="322"/>
+      <c r="D24" s="323"/>
+      <c r="E24" s="324"/>
+      <c r="F24" s="325"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="326"/>
+      <c r="I24" s="322"/>
+      <c r="J24" s="327"/>
+      <c r="K24" s="328"/>
+      <c r="L24" s="328"/>
+      <c r="M24" s="328"/>
+      <c r="N24" s="328"/>
+      <c r="O24" s="328"/>
+      <c r="P24" s="329"/>
+      <c r="Q24" s="330"/>
+      <c r="R24" s="331"/>
+      <c r="S24" s="331"/>
+      <c r="T24" s="331"/>
+      <c r="U24" s="331"/>
+      <c r="V24" s="331"/>
+      <c r="W24" s="331"/>
+      <c r="X24" s="331"/>
+      <c r="Y24" s="331"/>
+      <c r="Z24" s="331"/>
+      <c r="AA24" s="331"/>
+      <c r="AB24" s="331"/>
+      <c r="AC24" s="331"/>
+      <c r="AD24" s="331"/>
+      <c r="AE24" s="332"/>
+      <c r="AF24" s="327"/>
+      <c r="AG24" s="328"/>
+      <c r="AH24" s="328"/>
+      <c r="AI24" s="329"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="285"/>
-      <c r="C25" s="286"/>
-      <c r="D25" s="287"/>
-      <c r="E25" s="288"/>
-      <c r="F25" s="289"/>
-      <c r="G25" s="285"/>
-      <c r="H25" s="290"/>
-      <c r="I25" s="286"/>
-      <c r="J25" s="291"/>
-      <c r="K25" s="292"/>
-      <c r="L25" s="292"/>
-      <c r="M25" s="292"/>
-      <c r="N25" s="292"/>
-      <c r="O25" s="292"/>
-      <c r="P25" s="293"/>
-      <c r="Q25" s="294"/>
-      <c r="R25" s="295"/>
-      <c r="S25" s="295"/>
-      <c r="T25" s="295"/>
-      <c r="U25" s="295"/>
-      <c r="V25" s="295"/>
-      <c r="W25" s="295"/>
-      <c r="X25" s="295"/>
-      <c r="Y25" s="295"/>
-      <c r="Z25" s="295"/>
-      <c r="AA25" s="295"/>
-      <c r="AB25" s="295"/>
-      <c r="AC25" s="295"/>
-      <c r="AD25" s="295"/>
-      <c r="AE25" s="296"/>
-      <c r="AF25" s="291"/>
-      <c r="AG25" s="292"/>
-      <c r="AH25" s="292"/>
-      <c r="AI25" s="293"/>
+      <c r="B25" s="321"/>
+      <c r="C25" s="322"/>
+      <c r="D25" s="323"/>
+      <c r="E25" s="324"/>
+      <c r="F25" s="325"/>
+      <c r="G25" s="321"/>
+      <c r="H25" s="326"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="327"/>
+      <c r="K25" s="328"/>
+      <c r="L25" s="328"/>
+      <c r="M25" s="328"/>
+      <c r="N25" s="328"/>
+      <c r="O25" s="328"/>
+      <c r="P25" s="329"/>
+      <c r="Q25" s="330"/>
+      <c r="R25" s="331"/>
+      <c r="S25" s="331"/>
+      <c r="T25" s="331"/>
+      <c r="U25" s="331"/>
+      <c r="V25" s="331"/>
+      <c r="W25" s="331"/>
+      <c r="X25" s="331"/>
+      <c r="Y25" s="331"/>
+      <c r="Z25" s="331"/>
+      <c r="AA25" s="331"/>
+      <c r="AB25" s="331"/>
+      <c r="AC25" s="331"/>
+      <c r="AD25" s="331"/>
+      <c r="AE25" s="332"/>
+      <c r="AF25" s="327"/>
+      <c r="AG25" s="328"/>
+      <c r="AH25" s="328"/>
+      <c r="AI25" s="329"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="285"/>
-      <c r="C26" s="286"/>
-      <c r="D26" s="287"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="289"/>
-      <c r="G26" s="285"/>
-      <c r="H26" s="290"/>
-      <c r="I26" s="286"/>
-      <c r="J26" s="291"/>
-      <c r="K26" s="292"/>
-      <c r="L26" s="292"/>
-      <c r="M26" s="292"/>
-      <c r="N26" s="292"/>
-      <c r="O26" s="292"/>
-      <c r="P26" s="293"/>
-      <c r="Q26" s="294"/>
-      <c r="R26" s="295"/>
-      <c r="S26" s="295"/>
-      <c r="T26" s="295"/>
-      <c r="U26" s="295"/>
-      <c r="V26" s="295"/>
-      <c r="W26" s="295"/>
-      <c r="X26" s="295"/>
-      <c r="Y26" s="295"/>
-      <c r="Z26" s="295"/>
-      <c r="AA26" s="295"/>
-      <c r="AB26" s="295"/>
-      <c r="AC26" s="295"/>
-      <c r="AD26" s="295"/>
-      <c r="AE26" s="296"/>
-      <c r="AF26" s="291"/>
-      <c r="AG26" s="292"/>
-      <c r="AH26" s="292"/>
-      <c r="AI26" s="293"/>
+      <c r="B26" s="321"/>
+      <c r="C26" s="322"/>
+      <c r="D26" s="323"/>
+      <c r="E26" s="324"/>
+      <c r="F26" s="325"/>
+      <c r="G26" s="321"/>
+      <c r="H26" s="326"/>
+      <c r="I26" s="322"/>
+      <c r="J26" s="327"/>
+      <c r="K26" s="328"/>
+      <c r="L26" s="328"/>
+      <c r="M26" s="328"/>
+      <c r="N26" s="328"/>
+      <c r="O26" s="328"/>
+      <c r="P26" s="329"/>
+      <c r="Q26" s="330"/>
+      <c r="R26" s="331"/>
+      <c r="S26" s="331"/>
+      <c r="T26" s="331"/>
+      <c r="U26" s="331"/>
+      <c r="V26" s="331"/>
+      <c r="W26" s="331"/>
+      <c r="X26" s="331"/>
+      <c r="Y26" s="331"/>
+      <c r="Z26" s="331"/>
+      <c r="AA26" s="331"/>
+      <c r="AB26" s="331"/>
+      <c r="AC26" s="331"/>
+      <c r="AD26" s="331"/>
+      <c r="AE26" s="332"/>
+      <c r="AF26" s="327"/>
+      <c r="AG26" s="328"/>
+      <c r="AH26" s="328"/>
+      <c r="AI26" s="329"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="285"/>
-      <c r="C27" s="286"/>
-      <c r="D27" s="287"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="289"/>
-      <c r="G27" s="285"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="286"/>
-      <c r="J27" s="291"/>
-      <c r="K27" s="292"/>
-      <c r="L27" s="292"/>
-      <c r="M27" s="292"/>
-      <c r="N27" s="292"/>
-      <c r="O27" s="292"/>
-      <c r="P27" s="293"/>
-      <c r="Q27" s="294"/>
-      <c r="R27" s="295"/>
-      <c r="S27" s="295"/>
-      <c r="T27" s="295"/>
-      <c r="U27" s="295"/>
-      <c r="V27" s="295"/>
-      <c r="W27" s="295"/>
-      <c r="X27" s="295"/>
-      <c r="Y27" s="295"/>
-      <c r="Z27" s="295"/>
-      <c r="AA27" s="295"/>
-      <c r="AB27" s="295"/>
-      <c r="AC27" s="295"/>
-      <c r="AD27" s="295"/>
-      <c r="AE27" s="296"/>
-      <c r="AF27" s="291"/>
-      <c r="AG27" s="292"/>
-      <c r="AH27" s="292"/>
-      <c r="AI27" s="293"/>
+      <c r="B27" s="321"/>
+      <c r="C27" s="322"/>
+      <c r="D27" s="323"/>
+      <c r="E27" s="324"/>
+      <c r="F27" s="325"/>
+      <c r="G27" s="321"/>
+      <c r="H27" s="326"/>
+      <c r="I27" s="322"/>
+      <c r="J27" s="327"/>
+      <c r="K27" s="328"/>
+      <c r="L27" s="328"/>
+      <c r="M27" s="328"/>
+      <c r="N27" s="328"/>
+      <c r="O27" s="328"/>
+      <c r="P27" s="329"/>
+      <c r="Q27" s="330"/>
+      <c r="R27" s="331"/>
+      <c r="S27" s="331"/>
+      <c r="T27" s="331"/>
+      <c r="U27" s="331"/>
+      <c r="V27" s="331"/>
+      <c r="W27" s="331"/>
+      <c r="X27" s="331"/>
+      <c r="Y27" s="331"/>
+      <c r="Z27" s="331"/>
+      <c r="AA27" s="331"/>
+      <c r="AB27" s="331"/>
+      <c r="AC27" s="331"/>
+      <c r="AD27" s="331"/>
+      <c r="AE27" s="332"/>
+      <c r="AF27" s="327"/>
+      <c r="AG27" s="328"/>
+      <c r="AH27" s="328"/>
+      <c r="AI27" s="329"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="285"/>
-      <c r="C28" s="286"/>
-      <c r="D28" s="287"/>
-      <c r="E28" s="288"/>
-      <c r="F28" s="289"/>
-      <c r="G28" s="285"/>
-      <c r="H28" s="290"/>
-      <c r="I28" s="286"/>
-      <c r="J28" s="291"/>
-      <c r="K28" s="292"/>
-      <c r="L28" s="292"/>
-      <c r="M28" s="292"/>
-      <c r="N28" s="292"/>
-      <c r="O28" s="292"/>
-      <c r="P28" s="293"/>
-      <c r="Q28" s="294"/>
-      <c r="R28" s="295"/>
-      <c r="S28" s="295"/>
-      <c r="T28" s="295"/>
-      <c r="U28" s="295"/>
-      <c r="V28" s="295"/>
-      <c r="W28" s="295"/>
-      <c r="X28" s="295"/>
-      <c r="Y28" s="295"/>
-      <c r="Z28" s="295"/>
-      <c r="AA28" s="295"/>
-      <c r="AB28" s="295"/>
-      <c r="AC28" s="295"/>
-      <c r="AD28" s="295"/>
-      <c r="AE28" s="296"/>
-      <c r="AF28" s="291"/>
-      <c r="AG28" s="292"/>
-      <c r="AH28" s="292"/>
-      <c r="AI28" s="293"/>
+      <c r="B28" s="321"/>
+      <c r="C28" s="322"/>
+      <c r="D28" s="323"/>
+      <c r="E28" s="324"/>
+      <c r="F28" s="325"/>
+      <c r="G28" s="321"/>
+      <c r="H28" s="326"/>
+      <c r="I28" s="322"/>
+      <c r="J28" s="327"/>
+      <c r="K28" s="328"/>
+      <c r="L28" s="328"/>
+      <c r="M28" s="328"/>
+      <c r="N28" s="328"/>
+      <c r="O28" s="328"/>
+      <c r="P28" s="329"/>
+      <c r="Q28" s="330"/>
+      <c r="R28" s="331"/>
+      <c r="S28" s="331"/>
+      <c r="T28" s="331"/>
+      <c r="U28" s="331"/>
+      <c r="V28" s="331"/>
+      <c r="W28" s="331"/>
+      <c r="X28" s="331"/>
+      <c r="Y28" s="331"/>
+      <c r="Z28" s="331"/>
+      <c r="AA28" s="331"/>
+      <c r="AB28" s="331"/>
+      <c r="AC28" s="331"/>
+      <c r="AD28" s="331"/>
+      <c r="AE28" s="332"/>
+      <c r="AF28" s="327"/>
+      <c r="AG28" s="328"/>
+      <c r="AH28" s="328"/>
+      <c r="AI28" s="329"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="285"/>
-      <c r="C29" s="286"/>
-      <c r="D29" s="287"/>
-      <c r="E29" s="288"/>
-      <c r="F29" s="289"/>
-      <c r="G29" s="285"/>
-      <c r="H29" s="290"/>
-      <c r="I29" s="286"/>
-      <c r="J29" s="291"/>
-      <c r="K29" s="292"/>
-      <c r="L29" s="292"/>
-      <c r="M29" s="292"/>
-      <c r="N29" s="292"/>
-      <c r="O29" s="292"/>
-      <c r="P29" s="293"/>
-      <c r="Q29" s="294"/>
-      <c r="R29" s="295"/>
-      <c r="S29" s="295"/>
-      <c r="T29" s="295"/>
-      <c r="U29" s="295"/>
-      <c r="V29" s="295"/>
-      <c r="W29" s="295"/>
-      <c r="X29" s="295"/>
-      <c r="Y29" s="295"/>
-      <c r="Z29" s="295"/>
-      <c r="AA29" s="295"/>
-      <c r="AB29" s="295"/>
-      <c r="AC29" s="295"/>
-      <c r="AD29" s="295"/>
-      <c r="AE29" s="296"/>
-      <c r="AF29" s="291"/>
-      <c r="AG29" s="292"/>
-      <c r="AH29" s="292"/>
-      <c r="AI29" s="293"/>
+      <c r="B29" s="321"/>
+      <c r="C29" s="322"/>
+      <c r="D29" s="323"/>
+      <c r="E29" s="324"/>
+      <c r="F29" s="325"/>
+      <c r="G29" s="321"/>
+      <c r="H29" s="326"/>
+      <c r="I29" s="322"/>
+      <c r="J29" s="327"/>
+      <c r="K29" s="328"/>
+      <c r="L29" s="328"/>
+      <c r="M29" s="328"/>
+      <c r="N29" s="328"/>
+      <c r="O29" s="328"/>
+      <c r="P29" s="329"/>
+      <c r="Q29" s="330"/>
+      <c r="R29" s="331"/>
+      <c r="S29" s="331"/>
+      <c r="T29" s="331"/>
+      <c r="U29" s="331"/>
+      <c r="V29" s="331"/>
+      <c r="W29" s="331"/>
+      <c r="X29" s="331"/>
+      <c r="Y29" s="331"/>
+      <c r="Z29" s="331"/>
+      <c r="AA29" s="331"/>
+      <c r="AB29" s="331"/>
+      <c r="AC29" s="331"/>
+      <c r="AD29" s="331"/>
+      <c r="AE29" s="332"/>
+      <c r="AF29" s="327"/>
+      <c r="AG29" s="328"/>
+      <c r="AH29" s="328"/>
+      <c r="AI29" s="329"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="285"/>
-      <c r="C30" s="286"/>
-      <c r="D30" s="287"/>
-      <c r="E30" s="288"/>
-      <c r="F30" s="289"/>
-      <c r="G30" s="285"/>
-      <c r="H30" s="290"/>
-      <c r="I30" s="286"/>
-      <c r="J30" s="291"/>
-      <c r="K30" s="292"/>
-      <c r="L30" s="292"/>
-      <c r="M30" s="292"/>
-      <c r="N30" s="292"/>
-      <c r="O30" s="292"/>
-      <c r="P30" s="293"/>
-      <c r="Q30" s="294"/>
-      <c r="R30" s="295"/>
-      <c r="S30" s="295"/>
-      <c r="T30" s="295"/>
-      <c r="U30" s="295"/>
-      <c r="V30" s="295"/>
-      <c r="W30" s="295"/>
-      <c r="X30" s="295"/>
-      <c r="Y30" s="295"/>
-      <c r="Z30" s="295"/>
-      <c r="AA30" s="295"/>
-      <c r="AB30" s="295"/>
-      <c r="AC30" s="295"/>
-      <c r="AD30" s="295"/>
-      <c r="AE30" s="296"/>
-      <c r="AF30" s="291"/>
-      <c r="AG30" s="292"/>
-      <c r="AH30" s="292"/>
-      <c r="AI30" s="293"/>
+      <c r="B30" s="321"/>
+      <c r="C30" s="322"/>
+      <c r="D30" s="323"/>
+      <c r="E30" s="324"/>
+      <c r="F30" s="325"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="326"/>
+      <c r="I30" s="322"/>
+      <c r="J30" s="327"/>
+      <c r="K30" s="328"/>
+      <c r="L30" s="328"/>
+      <c r="M30" s="328"/>
+      <c r="N30" s="328"/>
+      <c r="O30" s="328"/>
+      <c r="P30" s="329"/>
+      <c r="Q30" s="330"/>
+      <c r="R30" s="331"/>
+      <c r="S30" s="331"/>
+      <c r="T30" s="331"/>
+      <c r="U30" s="331"/>
+      <c r="V30" s="331"/>
+      <c r="W30" s="331"/>
+      <c r="X30" s="331"/>
+      <c r="Y30" s="331"/>
+      <c r="Z30" s="331"/>
+      <c r="AA30" s="331"/>
+      <c r="AB30" s="331"/>
+      <c r="AC30" s="331"/>
+      <c r="AD30" s="331"/>
+      <c r="AE30" s="332"/>
+      <c r="AF30" s="327"/>
+      <c r="AG30" s="328"/>
+      <c r="AH30" s="328"/>
+      <c r="AI30" s="329"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="285"/>
-      <c r="C31" s="286"/>
-      <c r="D31" s="287"/>
-      <c r="E31" s="288"/>
-      <c r="F31" s="289"/>
-      <c r="G31" s="285"/>
-      <c r="H31" s="290"/>
-      <c r="I31" s="286"/>
-      <c r="J31" s="291"/>
-      <c r="K31" s="292"/>
-      <c r="L31" s="292"/>
-      <c r="M31" s="292"/>
-      <c r="N31" s="292"/>
-      <c r="O31" s="292"/>
-      <c r="P31" s="293"/>
-      <c r="Q31" s="294"/>
-      <c r="R31" s="295"/>
-      <c r="S31" s="295"/>
-      <c r="T31" s="295"/>
-      <c r="U31" s="295"/>
-      <c r="V31" s="295"/>
-      <c r="W31" s="295"/>
-      <c r="X31" s="295"/>
-      <c r="Y31" s="295"/>
-      <c r="Z31" s="295"/>
-      <c r="AA31" s="295"/>
-      <c r="AB31" s="295"/>
-      <c r="AC31" s="295"/>
-      <c r="AD31" s="295"/>
-      <c r="AE31" s="296"/>
-      <c r="AF31" s="291"/>
-      <c r="AG31" s="292"/>
-      <c r="AH31" s="292"/>
-      <c r="AI31" s="293"/>
+      <c r="B31" s="321"/>
+      <c r="C31" s="322"/>
+      <c r="D31" s="323"/>
+      <c r="E31" s="324"/>
+      <c r="F31" s="325"/>
+      <c r="G31" s="321"/>
+      <c r="H31" s="326"/>
+      <c r="I31" s="322"/>
+      <c r="J31" s="327"/>
+      <c r="K31" s="328"/>
+      <c r="L31" s="328"/>
+      <c r="M31" s="328"/>
+      <c r="N31" s="328"/>
+      <c r="O31" s="328"/>
+      <c r="P31" s="329"/>
+      <c r="Q31" s="330"/>
+      <c r="R31" s="331"/>
+      <c r="S31" s="331"/>
+      <c r="T31" s="331"/>
+      <c r="U31" s="331"/>
+      <c r="V31" s="331"/>
+      <c r="W31" s="331"/>
+      <c r="X31" s="331"/>
+      <c r="Y31" s="331"/>
+      <c r="Z31" s="331"/>
+      <c r="AA31" s="331"/>
+      <c r="AB31" s="331"/>
+      <c r="AC31" s="331"/>
+      <c r="AD31" s="331"/>
+      <c r="AE31" s="332"/>
+      <c r="AF31" s="327"/>
+      <c r="AG31" s="328"/>
+      <c r="AH31" s="328"/>
+      <c r="AI31" s="329"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="285"/>
-      <c r="C32" s="286"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="288"/>
-      <c r="F32" s="289"/>
-      <c r="G32" s="285"/>
-      <c r="H32" s="290"/>
-      <c r="I32" s="286"/>
-      <c r="J32" s="291"/>
-      <c r="K32" s="297"/>
-      <c r="L32" s="292"/>
-      <c r="M32" s="292"/>
-      <c r="N32" s="292"/>
-      <c r="O32" s="292"/>
-      <c r="P32" s="293"/>
-      <c r="Q32" s="294"/>
-      <c r="R32" s="295"/>
-      <c r="S32" s="295"/>
-      <c r="T32" s="295"/>
-      <c r="U32" s="295"/>
-      <c r="V32" s="295"/>
-      <c r="W32" s="295"/>
-      <c r="X32" s="295"/>
-      <c r="Y32" s="295"/>
-      <c r="Z32" s="295"/>
-      <c r="AA32" s="295"/>
-      <c r="AB32" s="295"/>
-      <c r="AC32" s="295"/>
-      <c r="AD32" s="295"/>
-      <c r="AE32" s="296"/>
-      <c r="AF32" s="291"/>
-      <c r="AG32" s="292"/>
-      <c r="AH32" s="292"/>
-      <c r="AI32" s="293"/>
+      <c r="B32" s="321"/>
+      <c r="C32" s="322"/>
+      <c r="D32" s="323"/>
+      <c r="E32" s="324"/>
+      <c r="F32" s="325"/>
+      <c r="G32" s="321"/>
+      <c r="H32" s="326"/>
+      <c r="I32" s="322"/>
+      <c r="J32" s="327"/>
+      <c r="K32" s="346"/>
+      <c r="L32" s="328"/>
+      <c r="M32" s="328"/>
+      <c r="N32" s="328"/>
+      <c r="O32" s="328"/>
+      <c r="P32" s="329"/>
+      <c r="Q32" s="330"/>
+      <c r="R32" s="331"/>
+      <c r="S32" s="331"/>
+      <c r="T32" s="331"/>
+      <c r="U32" s="331"/>
+      <c r="V32" s="331"/>
+      <c r="W32" s="331"/>
+      <c r="X32" s="331"/>
+      <c r="Y32" s="331"/>
+      <c r="Z32" s="331"/>
+      <c r="AA32" s="331"/>
+      <c r="AB32" s="331"/>
+      <c r="AC32" s="331"/>
+      <c r="AD32" s="331"/>
+      <c r="AE32" s="332"/>
+      <c r="AF32" s="327"/>
+      <c r="AG32" s="328"/>
+      <c r="AH32" s="328"/>
+      <c r="AI32" s="329"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="285"/>
-      <c r="C33" s="286"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="288"/>
-      <c r="F33" s="289"/>
-      <c r="G33" s="285"/>
-      <c r="H33" s="290"/>
-      <c r="I33" s="286"/>
-      <c r="J33" s="291"/>
-      <c r="K33" s="292"/>
-      <c r="L33" s="292"/>
-      <c r="M33" s="292"/>
-      <c r="N33" s="292"/>
-      <c r="O33" s="292"/>
-      <c r="P33" s="293"/>
-      <c r="Q33" s="294"/>
-      <c r="R33" s="295"/>
-      <c r="S33" s="295"/>
-      <c r="T33" s="295"/>
-      <c r="U33" s="295"/>
-      <c r="V33" s="295"/>
-      <c r="W33" s="295"/>
-      <c r="X33" s="295"/>
-      <c r="Y33" s="295"/>
-      <c r="Z33" s="295"/>
-      <c r="AA33" s="295"/>
-      <c r="AB33" s="295"/>
-      <c r="AC33" s="295"/>
-      <c r="AD33" s="295"/>
-      <c r="AE33" s="296"/>
-      <c r="AF33" s="291"/>
-      <c r="AG33" s="292"/>
-      <c r="AH33" s="292"/>
-      <c r="AI33" s="293"/>
+      <c r="B33" s="321"/>
+      <c r="C33" s="322"/>
+      <c r="D33" s="323"/>
+      <c r="E33" s="324"/>
+      <c r="F33" s="325"/>
+      <c r="G33" s="321"/>
+      <c r="H33" s="326"/>
+      <c r="I33" s="322"/>
+      <c r="J33" s="327"/>
+      <c r="K33" s="328"/>
+      <c r="L33" s="328"/>
+      <c r="M33" s="328"/>
+      <c r="N33" s="328"/>
+      <c r="O33" s="328"/>
+      <c r="P33" s="329"/>
+      <c r="Q33" s="330"/>
+      <c r="R33" s="331"/>
+      <c r="S33" s="331"/>
+      <c r="T33" s="331"/>
+      <c r="U33" s="331"/>
+      <c r="V33" s="331"/>
+      <c r="W33" s="331"/>
+      <c r="X33" s="331"/>
+      <c r="Y33" s="331"/>
+      <c r="Z33" s="331"/>
+      <c r="AA33" s="331"/>
+      <c r="AB33" s="331"/>
+      <c r="AC33" s="331"/>
+      <c r="AD33" s="331"/>
+      <c r="AE33" s="332"/>
+      <c r="AF33" s="327"/>
+      <c r="AG33" s="328"/>
+      <c r="AH33" s="328"/>
+      <c r="AI33" s="329"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13117,162 +13266,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -13412,7 +13405,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>4</v>
@@ -14368,7 +14361,7 @@
       <c r="B37" s="183"/>
       <c r="C37" s="183"/>
       <c r="D37" s="186"/>
-      <c r="E37" s="236"/>
+      <c r="E37" s="235"/>
       <c r="F37" s="146" t="s">
         <v>87</v>
       </c>
@@ -14400,7 +14393,7 @@
       <c r="B38" s="183"/>
       <c r="C38" s="183"/>
       <c r="D38" s="186"/>
-      <c r="E38" s="236"/>
+      <c r="E38" s="235"/>
       <c r="F38" s="185" t="s">
         <v>88</v>
       </c>
@@ -14466,7 +14459,7 @@
       <c r="D40" s="186" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="236" t="s">
+      <c r="E40" s="235" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="146" t="s">
@@ -17021,7 +17014,7 @@
         <v>194</v>
       </c>
       <c r="C112" s="186"/>
-      <c r="D112" s="236"/>
+      <c r="D112" s="235"/>
       <c r="E112" s="207"/>
       <c r="F112" s="146" t="s">
         <v>195</v>
@@ -17053,7 +17046,7 @@
       </c>
       <c r="B113" s="347"/>
       <c r="C113" s="186"/>
-      <c r="D113" s="236"/>
+      <c r="D113" s="235"/>
       <c r="E113" s="207"/>
       <c r="F113" s="146" t="s">
         <v>196</v>
@@ -17085,7 +17078,7 @@
       </c>
       <c r="B114" s="207"/>
       <c r="C114" s="186"/>
-      <c r="D114" s="236"/>
+      <c r="D114" s="235"/>
       <c r="E114" s="188"/>
       <c r="F114" s="146" t="s">
         <v>197</v>
@@ -17117,8 +17110,8 @@
       </c>
       <c r="B115" s="207"/>
       <c r="C115" s="186"/>
-      <c r="D115" s="236"/>
-      <c r="E115" s="236" t="s">
+      <c r="D115" s="235"/>
+      <c r="E115" s="235" t="s">
         <v>136</v>
       </c>
       <c r="F115" s="146" t="s">
@@ -17151,8 +17144,8 @@
       </c>
       <c r="B116" s="207"/>
       <c r="C116" s="186"/>
-      <c r="D116" s="236"/>
-      <c r="E116" s="236"/>
+      <c r="D116" s="235"/>
+      <c r="E116" s="235"/>
       <c r="F116" s="146" t="s">
         <v>199</v>
       </c>
@@ -17183,8 +17176,8 @@
       </c>
       <c r="B117" s="207"/>
       <c r="C117" s="186"/>
-      <c r="D117" s="236"/>
-      <c r="E117" s="236"/>
+      <c r="D117" s="235"/>
+      <c r="E117" s="235"/>
       <c r="F117" s="146" t="s">
         <v>200</v>
       </c>
@@ -17215,8 +17208,8 @@
       </c>
       <c r="B118" s="207"/>
       <c r="C118" s="186"/>
-      <c r="D118" s="236"/>
-      <c r="E118" s="236"/>
+      <c r="D118" s="235"/>
+      <c r="E118" s="235"/>
       <c r="F118" s="146" t="s">
         <v>201</v>
       </c>
@@ -17247,13 +17240,13 @@
       </c>
       <c r="B119" s="207"/>
       <c r="C119" s="186"/>
-      <c r="D119" s="236"/>
+      <c r="D119" s="235"/>
       <c r="E119" s="188"/>
       <c r="F119" s="154" t="s">
         <v>202</v>
       </c>
       <c r="G119" s="154" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H119" s="154"/>
       <c r="I119" s="154"/>
@@ -17281,8 +17274,8 @@
       </c>
       <c r="B120" s="207"/>
       <c r="C120" s="186"/>
-      <c r="D120" s="236"/>
-      <c r="E120" s="236" t="s">
+      <c r="D120" s="235"/>
+      <c r="E120" s="235" t="s">
         <v>203</v>
       </c>
       <c r="F120" s="146" t="s">
@@ -17315,8 +17308,8 @@
       </c>
       <c r="B121" s="207"/>
       <c r="C121" s="186"/>
-      <c r="D121" s="236"/>
-      <c r="E121" s="236"/>
+      <c r="D121" s="235"/>
+      <c r="E121" s="235"/>
       <c r="F121" s="146" t="s">
         <v>205</v>
       </c>
@@ -17347,8 +17340,8 @@
       </c>
       <c r="B122" s="207"/>
       <c r="C122" s="186"/>
-      <c r="D122" s="236"/>
-      <c r="E122" s="236"/>
+      <c r="D122" s="235"/>
+      <c r="E122" s="235"/>
       <c r="F122" s="154" t="s">
         <v>206</v>
       </c>
@@ -17381,8 +17374,8 @@
       </c>
       <c r="B123" s="207"/>
       <c r="C123" s="186"/>
-      <c r="D123" s="236"/>
-      <c r="E123" s="236"/>
+      <c r="D123" s="235"/>
+      <c r="E123" s="235"/>
       <c r="F123" s="154" t="s">
         <v>207</v>
       </c>
@@ -17415,7 +17408,7 @@
       </c>
       <c r="B124" s="207"/>
       <c r="C124" s="186"/>
-      <c r="D124" s="236"/>
+      <c r="D124" s="235"/>
       <c r="E124" s="188"/>
       <c r="F124" s="154" t="s">
         <v>208</v>
@@ -17518,10 +17511,10 @@
         <v>48-1-1</v>
       </c>
       <c r="B127" s="207"/>
-      <c r="C127" s="236" t="s">
+      <c r="C127" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D127" s="236" t="s">
+      <c r="D127" s="235" t="s">
         <v>212</v>
       </c>
       <c r="E127" s="154" t="s">
@@ -17558,9 +17551,9 @@
         <v>49-1-1</v>
       </c>
       <c r="B128" s="207"/>
-      <c r="C128" s="236"/>
-      <c r="D128" s="236"/>
-      <c r="E128" s="236" t="s">
+      <c r="C128" s="235"/>
+      <c r="D128" s="235"/>
+      <c r="E128" s="235" t="s">
         <v>215</v>
       </c>
       <c r="F128" s="146" t="s">
@@ -17592,9 +17585,9 @@
         <v>49-2-1</v>
       </c>
       <c r="B129" s="207"/>
-      <c r="C129" s="236"/>
-      <c r="D129" s="236"/>
-      <c r="E129" s="236"/>
+      <c r="C129" s="235"/>
+      <c r="D129" s="235"/>
+      <c r="E129" s="235"/>
       <c r="F129" s="146" t="s">
         <v>217</v>
       </c>
@@ -17911,7 +17904,7 @@
       <c r="C138" s="186" t="s">
         <v>229</v>
       </c>
-      <c r="D138" s="236" t="s">
+      <c r="D138" s="235" t="s">
         <v>212</v>
       </c>
       <c r="E138" s="146" t="s">
@@ -17947,7 +17940,7 @@
       </c>
       <c r="B139" s="207"/>
       <c r="C139" s="186"/>
-      <c r="D139" s="236"/>
+      <c r="D139" s="235"/>
       <c r="E139" s="146" t="s">
         <v>232</v>
       </c>
@@ -17981,7 +17974,7 @@
       </c>
       <c r="B140" s="207"/>
       <c r="C140" s="186"/>
-      <c r="D140" s="236"/>
+      <c r="D140" s="235"/>
       <c r="E140" s="146" t="s">
         <v>234</v>
       </c>
@@ -18015,7 +18008,7 @@
       </c>
       <c r="B141" s="207"/>
       <c r="C141" s="186"/>
-      <c r="D141" s="236"/>
+      <c r="D141" s="235"/>
       <c r="E141" s="154" t="s">
         <v>213</v>
       </c>
@@ -18051,7 +18044,7 @@
       </c>
       <c r="B142" s="207"/>
       <c r="C142" s="186"/>
-      <c r="D142" s="236"/>
+      <c r="D142" s="235"/>
       <c r="E142" s="146" t="s">
         <v>237</v>
       </c>
@@ -18085,7 +18078,7 @@
       </c>
       <c r="B143" s="207"/>
       <c r="C143" s="186"/>
-      <c r="D143" s="236"/>
+      <c r="D143" s="235"/>
       <c r="E143" s="210" t="s">
         <v>239</v>
       </c>
@@ -18121,7 +18114,7 @@
       </c>
       <c r="B144" s="207"/>
       <c r="C144" s="186"/>
-      <c r="D144" s="236"/>
+      <c r="D144" s="235"/>
       <c r="E144" s="210"/>
       <c r="F144" s="154" t="s">
         <v>241</v>
@@ -18155,7 +18148,7 @@
       </c>
       <c r="B145" s="207"/>
       <c r="C145" s="186"/>
-      <c r="D145" s="236"/>
+      <c r="D145" s="235"/>
       <c r="E145" s="210"/>
       <c r="F145" s="154" t="s">
         <v>242</v>
@@ -18189,7 +18182,7 @@
       </c>
       <c r="B146" s="207"/>
       <c r="C146" s="186"/>
-      <c r="D146" s="236"/>
+      <c r="D146" s="235"/>
       <c r="E146" s="210"/>
       <c r="F146" s="154" t="s">
         <v>243</v>
@@ -18223,7 +18216,7 @@
       </c>
       <c r="B147" s="207"/>
       <c r="C147" s="186"/>
-      <c r="D147" s="236"/>
+      <c r="D147" s="235"/>
       <c r="E147" s="210"/>
       <c r="F147" s="154" t="s">
         <v>244</v>
@@ -18291,7 +18284,7 @@
       </c>
       <c r="B149" s="207"/>
       <c r="C149" s="186"/>
-      <c r="D149" s="236" t="s">
+      <c r="D149" s="235" t="s">
         <v>246</v>
       </c>
       <c r="E149" s="207" t="s">
@@ -18327,7 +18320,7 @@
       </c>
       <c r="B150" s="207"/>
       <c r="C150" s="186"/>
-      <c r="D150" s="236"/>
+      <c r="D150" s="235"/>
       <c r="E150" s="188"/>
       <c r="F150" s="146" t="s">
         <v>248</v>
@@ -18359,8 +18352,8 @@
       </c>
       <c r="B151" s="207"/>
       <c r="C151" s="186"/>
-      <c r="D151" s="236"/>
-      <c r="E151" s="236" t="s">
+      <c r="D151" s="235"/>
+      <c r="E151" s="235" t="s">
         <v>125</v>
       </c>
       <c r="F151" s="146" t="s">
@@ -18393,7 +18386,7 @@
       </c>
       <c r="B152" s="207"/>
       <c r="C152" s="186"/>
-      <c r="D152" s="236"/>
+      <c r="D152" s="235"/>
       <c r="E152" s="207"/>
       <c r="F152" s="146" t="s">
         <v>250</v>
@@ -18425,7 +18418,7 @@
       </c>
       <c r="B153" s="207"/>
       <c r="C153" s="186"/>
-      <c r="D153" s="236"/>
+      <c r="D153" s="235"/>
       <c r="E153" s="207"/>
       <c r="F153" s="146" t="s">
         <v>251</v>
@@ -18457,7 +18450,7 @@
       </c>
       <c r="B154" s="207"/>
       <c r="C154" s="186"/>
-      <c r="D154" s="236"/>
+      <c r="D154" s="235"/>
       <c r="E154" s="207"/>
       <c r="F154" s="146" t="s">
         <v>252</v>
@@ -18489,7 +18482,7 @@
       </c>
       <c r="B155" s="207"/>
       <c r="C155" s="186"/>
-      <c r="D155" s="236"/>
+      <c r="D155" s="235"/>
       <c r="E155" s="207"/>
       <c r="F155" s="146" t="s">
         <v>253</v>
@@ -18521,7 +18514,7 @@
       </c>
       <c r="B156" s="207"/>
       <c r="C156" s="186"/>
-      <c r="D156" s="236"/>
+      <c r="D156" s="235"/>
       <c r="E156" s="207"/>
       <c r="F156" s="146" t="s">
         <v>254</v>
@@ -18553,7 +18546,7 @@
       </c>
       <c r="B157" s="207"/>
       <c r="C157" s="186"/>
-      <c r="D157" s="236"/>
+      <c r="D157" s="235"/>
       <c r="E157" s="207"/>
       <c r="F157" s="146" t="s">
         <v>255</v>
@@ -18585,7 +18578,7 @@
       </c>
       <c r="B158" s="207"/>
       <c r="C158" s="186"/>
-      <c r="D158" s="236"/>
+      <c r="D158" s="235"/>
       <c r="E158" s="207"/>
       <c r="F158" s="146" t="s">
         <v>256</v>
@@ -18617,7 +18610,7 @@
       </c>
       <c r="B159" s="207"/>
       <c r="C159" s="186"/>
-      <c r="D159" s="236"/>
+      <c r="D159" s="235"/>
       <c r="E159" s="207"/>
       <c r="F159" s="146" t="s">
         <v>257</v>
@@ -18649,7 +18642,7 @@
       </c>
       <c r="B160" s="207"/>
       <c r="C160" s="186"/>
-      <c r="D160" s="236"/>
+      <c r="D160" s="235"/>
       <c r="E160" s="207"/>
       <c r="F160" s="146" t="s">
         <v>258</v>
@@ -18681,7 +18674,7 @@
       </c>
       <c r="B161" s="207"/>
       <c r="C161" s="186"/>
-      <c r="D161" s="236"/>
+      <c r="D161" s="235"/>
       <c r="E161" s="188"/>
       <c r="F161" s="146" t="s">
         <v>259</v>
@@ -18713,8 +18706,8 @@
       </c>
       <c r="B162" s="207"/>
       <c r="C162" s="186"/>
-      <c r="D162" s="236"/>
-      <c r="E162" s="236" t="s">
+      <c r="D162" s="235"/>
+      <c r="E162" s="235" t="s">
         <v>59</v>
       </c>
       <c r="F162" s="146" t="s">
@@ -18747,8 +18740,8 @@
       </c>
       <c r="B163" s="207"/>
       <c r="C163" s="186"/>
-      <c r="D163" s="236"/>
-      <c r="E163" s="236"/>
+      <c r="D163" s="235"/>
+      <c r="E163" s="235"/>
       <c r="F163" s="146" t="s">
         <v>261</v>
       </c>
@@ -18779,8 +18772,8 @@
       </c>
       <c r="B164" s="207"/>
       <c r="C164" s="186"/>
-      <c r="D164" s="236"/>
-      <c r="E164" s="236"/>
+      <c r="D164" s="235"/>
+      <c r="E164" s="235"/>
       <c r="F164" s="146" t="s">
         <v>262</v>
       </c>
@@ -18811,8 +18804,8 @@
       </c>
       <c r="B165" s="207"/>
       <c r="C165" s="186"/>
-      <c r="D165" s="236"/>
-      <c r="E165" s="236"/>
+      <c r="D165" s="235"/>
+      <c r="E165" s="235"/>
       <c r="F165" s="146" t="s">
         <v>263</v>
       </c>
@@ -18843,8 +18836,8 @@
       </c>
       <c r="B166" s="207"/>
       <c r="C166" s="186"/>
-      <c r="D166" s="236"/>
-      <c r="E166" s="236"/>
+      <c r="D166" s="235"/>
+      <c r="E166" s="235"/>
       <c r="F166" s="146" t="s">
         <v>264</v>
       </c>
@@ -18875,13 +18868,13 @@
       </c>
       <c r="B167" s="207"/>
       <c r="C167" s="186"/>
-      <c r="D167" s="236"/>
-      <c r="E167" s="236"/>
+      <c r="D167" s="235"/>
+      <c r="E167" s="235"/>
       <c r="F167" s="154" t="s">
         <v>265</v>
       </c>
       <c r="G167" s="154" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H167" s="154"/>
       <c r="I167" s="154"/>
@@ -18907,9 +18900,9 @@
 )</f>
         <v>61-7-1</v>
       </c>
-      <c r="B168" s="236"/>
+      <c r="B168" s="235"/>
       <c r="C168" s="186"/>
-      <c r="D168" s="236"/>
+      <c r="D168" s="235"/>
       <c r="E168" s="188"/>
       <c r="F168" s="154" t="s">
         <v>266</v>
@@ -18941,9 +18934,9 @@
 )</f>
         <v>62-1-1</v>
       </c>
-      <c r="B169" s="236"/>
+      <c r="B169" s="235"/>
       <c r="C169" s="186"/>
-      <c r="D169" s="236"/>
+      <c r="D169" s="235"/>
       <c r="E169" s="185" t="s">
         <v>203</v>
       </c>
@@ -18977,8 +18970,8 @@
       </c>
       <c r="B170" s="207"/>
       <c r="C170" s="186"/>
-      <c r="D170" s="236"/>
-      <c r="E170" s="236"/>
+      <c r="D170" s="235"/>
+      <c r="E170" s="235"/>
       <c r="F170" s="146" t="s">
         <v>268</v>
       </c>
@@ -19009,8 +19002,8 @@
       </c>
       <c r="B171" s="207"/>
       <c r="C171" s="186"/>
-      <c r="D171" s="236"/>
-      <c r="E171" s="236"/>
+      <c r="D171" s="235"/>
+      <c r="E171" s="235"/>
       <c r="F171" s="146" t="s">
         <v>269</v>
       </c>
@@ -19041,8 +19034,8 @@
       </c>
       <c r="B172" s="207"/>
       <c r="C172" s="186"/>
-      <c r="D172" s="236"/>
-      <c r="E172" s="236"/>
+      <c r="D172" s="235"/>
+      <c r="E172" s="235"/>
       <c r="F172" s="146" t="s">
         <v>270</v>
       </c>
@@ -19073,8 +19066,8 @@
       </c>
       <c r="B173" s="207"/>
       <c r="C173" s="186"/>
-      <c r="D173" s="236"/>
-      <c r="E173" s="236"/>
+      <c r="D173" s="235"/>
+      <c r="E173" s="235"/>
       <c r="F173" s="146" t="s">
         <v>271</v>
       </c>
@@ -19105,8 +19098,8 @@
       </c>
       <c r="B174" s="207"/>
       <c r="C174" s="186"/>
-      <c r="D174" s="236"/>
-      <c r="E174" s="236"/>
+      <c r="D174" s="235"/>
+      <c r="E174" s="235"/>
       <c r="F174" s="146" t="s">
         <v>272</v>
       </c>
@@ -19137,8 +19130,8 @@
       </c>
       <c r="B175" s="207"/>
       <c r="C175" s="186"/>
-      <c r="D175" s="236"/>
-      <c r="E175" s="236"/>
+      <c r="D175" s="235"/>
+      <c r="E175" s="235"/>
       <c r="F175" s="154" t="s">
         <v>273</v>
       </c>
@@ -19171,8 +19164,8 @@
       </c>
       <c r="B176" s="207"/>
       <c r="C176" s="186"/>
-      <c r="D176" s="236"/>
-      <c r="E176" s="236"/>
+      <c r="D176" s="235"/>
+      <c r="E176" s="235"/>
       <c r="F176" s="154" t="s">
         <v>274</v>
       </c>
@@ -19205,7 +19198,7 @@
       </c>
       <c r="B177" s="207"/>
       <c r="C177" s="186"/>
-      <c r="D177" s="236"/>
+      <c r="D177" s="235"/>
       <c r="E177" s="188"/>
       <c r="F177" s="154" t="s">
         <v>275</v>
@@ -19239,7 +19232,7 @@
       </c>
       <c r="B178" s="207"/>
       <c r="C178" s="186"/>
-      <c r="D178" s="236"/>
+      <c r="D178" s="235"/>
       <c r="E178" s="146" t="s">
         <v>237</v>
       </c>
@@ -22825,8 +22818,8 @@
       </c>
       <c r="B280" s="183"/>
       <c r="C280" s="217"/>
-      <c r="D280" s="236"/>
-      <c r="E280" s="236"/>
+      <c r="D280" s="235"/>
+      <c r="E280" s="235"/>
       <c r="F280" s="146" t="s">
         <v>396</v>
       </c>
@@ -22857,8 +22850,8 @@
       </c>
       <c r="B281" s="183"/>
       <c r="C281" s="217"/>
-      <c r="D281" s="236"/>
-      <c r="E281" s="236"/>
+      <c r="D281" s="235"/>
+      <c r="E281" s="235"/>
       <c r="F281" s="146" t="s">
         <v>397</v>
       </c>
@@ -22920,10 +22913,10 @@
         <v>96-1-1</v>
       </c>
       <c r="B283" s="183"/>
-      <c r="C283" s="236" t="s">
+      <c r="C283" s="235" t="s">
         <v>399</v>
       </c>
-      <c r="D283" s="236" t="s">
+      <c r="D283" s="235" t="s">
         <v>212</v>
       </c>
       <c r="E283" s="146" t="s">
@@ -22959,7 +22952,7 @@
       </c>
       <c r="B284" s="183"/>
       <c r="C284" s="217"/>
-      <c r="D284" s="236"/>
+      <c r="D284" s="235"/>
       <c r="E284" s="188" t="s">
         <v>232</v>
       </c>
@@ -22993,7 +22986,7 @@
       </c>
       <c r="B285" s="183"/>
       <c r="C285" s="217"/>
-      <c r="D285" s="236"/>
+      <c r="D285" s="235"/>
       <c r="E285" s="146" t="s">
         <v>234</v>
       </c>
@@ -23061,10 +23054,10 @@
       </c>
       <c r="B287" s="183"/>
       <c r="C287" s="183"/>
-      <c r="D287" s="236" t="s">
+      <c r="D287" s="235" t="s">
         <v>404</v>
       </c>
-      <c r="E287" s="236" t="s">
+      <c r="E287" s="235" t="s">
         <v>405</v>
       </c>
       <c r="F287" s="146" t="s">
@@ -23098,7 +23091,7 @@
       <c r="B288" s="183"/>
       <c r="C288" s="183"/>
       <c r="D288" s="186"/>
-      <c r="E288" s="236"/>
+      <c r="E288" s="235"/>
       <c r="F288" s="146" t="s">
         <v>407</v>
       </c>
@@ -23130,7 +23123,7 @@
       <c r="B289" s="183"/>
       <c r="C289" s="183"/>
       <c r="D289" s="186"/>
-      <c r="E289" s="236"/>
+      <c r="E289" s="235"/>
       <c r="F289" s="146" t="s">
         <v>408</v>
       </c>
@@ -23162,7 +23155,7 @@
       <c r="B290" s="183"/>
       <c r="C290" s="183"/>
       <c r="D290" s="186"/>
-      <c r="E290" s="236"/>
+      <c r="E290" s="235"/>
       <c r="F290" s="146" t="s">
         <v>250</v>
       </c>
@@ -23194,7 +23187,7 @@
       <c r="B291" s="183"/>
       <c r="C291" s="183"/>
       <c r="D291" s="186"/>
-      <c r="E291" s="236"/>
+      <c r="E291" s="235"/>
       <c r="F291" s="146" t="s">
         <v>251</v>
       </c>
@@ -23226,7 +23219,7 @@
       <c r="B292" s="183"/>
       <c r="C292" s="183"/>
       <c r="D292" s="186"/>
-      <c r="E292" s="236"/>
+      <c r="E292" s="235"/>
       <c r="F292" s="146" t="s">
         <v>252</v>
       </c>
@@ -23258,7 +23251,7 @@
       <c r="B293" s="183"/>
       <c r="C293" s="183"/>
       <c r="D293" s="186"/>
-      <c r="E293" s="236"/>
+      <c r="E293" s="235"/>
       <c r="F293" s="146" t="s">
         <v>409</v>
       </c>
@@ -23290,7 +23283,7 @@
       <c r="B294" s="183"/>
       <c r="C294" s="183"/>
       <c r="D294" s="186"/>
-      <c r="E294" s="236"/>
+      <c r="E294" s="235"/>
       <c r="F294" s="146" t="s">
         <v>410</v>
       </c>
@@ -23545,13 +23538,13 @@
 )</f>
         <v>1-1-1</v>
       </c>
-      <c r="B11" s="238" t="s">
+      <c r="B11" s="237" t="s">
         <v>526</v>
       </c>
-      <c r="C11" s="238" t="s">
+      <c r="C11" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="239" t="s">
+      <c r="D11" s="238" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="153" t="s">
@@ -23587,10 +23580,10 @@
 )</f>
         <v>2-1-1</v>
       </c>
-      <c r="B12" s="239"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="241" t="s">
+      <c r="B12" s="238"/>
+      <c r="C12" s="239"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="240" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="113" t="s">
@@ -23623,12 +23616,12 @@
 )</f>
         <v>3-1-1</v>
       </c>
-      <c r="B13" s="239"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="239" t="s">
+      <c r="B13" s="238"/>
+      <c r="C13" s="239"/>
+      <c r="D13" s="238" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="242" t="s">
+      <c r="E13" s="241" t="s">
         <v>493</v>
       </c>
       <c r="F13" s="113" t="s">
@@ -23661,10 +23654,10 @@
 )</f>
         <v>3-2-1</v>
       </c>
-      <c r="B14" s="239"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="242"/>
+      <c r="B14" s="238"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="238"/>
+      <c r="E14" s="241"/>
       <c r="F14" s="113" t="s">
         <v>54</v>
       </c>
@@ -23695,10 +23688,10 @@
 )</f>
         <v>3-3-1</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="242"/>
+      <c r="B15" s="238"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="241"/>
       <c r="F15" s="113" t="s">
         <v>55</v>
       </c>
@@ -23729,10 +23722,10 @@
 )</f>
         <v>3-4-1</v>
       </c>
-      <c r="B16" s="239"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="242"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="241"/>
       <c r="F16" s="113" t="s">
         <v>56</v>
       </c>
@@ -23763,10 +23756,10 @@
 )</f>
         <v>3-5-1</v>
       </c>
-      <c r="B17" s="239"/>
-      <c r="C17" s="240"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="241"/>
+      <c r="B17" s="238"/>
+      <c r="C17" s="239"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="240"/>
       <c r="F17" s="113" t="s">
         <v>57</v>
       </c>
@@ -23797,12 +23790,12 @@
 )</f>
         <v>4-1-1</v>
       </c>
-      <c r="B18" s="239"/>
-      <c r="C18" s="240"/>
-      <c r="D18" s="242" t="s">
+      <c r="B18" s="238"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="241" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="242" t="s">
+      <c r="E18" s="241" t="s">
         <v>59</v>
       </c>
       <c r="F18" s="113" t="s">
@@ -23835,10 +23828,10 @@
 )</f>
         <v>4-2-1</v>
       </c>
-      <c r="B19" s="239"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="242"/>
-      <c r="E19" s="242"/>
+      <c r="B19" s="238"/>
+      <c r="C19" s="239"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
       <c r="F19" s="113" t="s">
         <v>61</v>
       </c>
@@ -23869,10 +23862,10 @@
 )</f>
         <v>4-3-1</v>
       </c>
-      <c r="B20" s="239"/>
-      <c r="C20" s="240"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="241"/>
+      <c r="B20" s="238"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="240"/>
       <c r="F20" s="113" t="s">
         <v>62</v>
       </c>
@@ -23903,10 +23896,10 @@
 )</f>
         <v>5-1-1</v>
       </c>
-      <c r="B21" s="239"/>
-      <c r="C21" s="240"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="242" t="s">
+      <c r="B21" s="238"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="241" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="113" t="s">
@@ -23939,10 +23932,10 @@
 )</f>
         <v>5-2-1</v>
       </c>
-      <c r="B22" s="239"/>
-      <c r="C22" s="240"/>
-      <c r="D22" s="242"/>
-      <c r="E22" s="242"/>
+      <c r="B22" s="238"/>
+      <c r="C22" s="239"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="241"/>
       <c r="F22" s="113" t="s">
         <v>65</v>
       </c>
@@ -23973,10 +23966,10 @@
 )</f>
         <v>5-3-1</v>
       </c>
-      <c r="B23" s="239"/>
-      <c r="C23" s="240"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="242"/>
+      <c r="B23" s="238"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="241"/>
       <c r="F23" s="113" t="s">
         <v>527</v>
       </c>
@@ -24007,10 +24000,10 @@
 )</f>
         <v>5-4-1</v>
       </c>
-      <c r="B24" s="239"/>
-      <c r="C24" s="240"/>
-      <c r="D24" s="243"/>
-      <c r="E24" s="241"/>
+      <c r="B24" s="238"/>
+      <c r="C24" s="239"/>
+      <c r="D24" s="242"/>
+      <c r="E24" s="240"/>
       <c r="F24" s="113" t="s">
         <v>528</v>
       </c>
@@ -24041,12 +24034,12 @@
 )</f>
         <v>6-1-1</v>
       </c>
-      <c r="B25" s="239"/>
-      <c r="C25" s="240"/>
-      <c r="D25" s="242" t="s">
+      <c r="B25" s="238"/>
+      <c r="C25" s="239"/>
+      <c r="D25" s="241" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="242" t="s">
+      <c r="E25" s="241" t="s">
         <v>493</v>
       </c>
       <c r="F25" s="113" t="s">
@@ -24079,10 +24072,10 @@
 )</f>
         <v>6-2-1</v>
       </c>
-      <c r="B26" s="239"/>
-      <c r="C26" s="240"/>
-      <c r="D26" s="243"/>
-      <c r="E26" s="241"/>
+      <c r="B26" s="238"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="240"/>
       <c r="F26" s="113" t="s">
         <v>70</v>
       </c>
@@ -24113,12 +24106,12 @@
 )</f>
         <v>7-1-1</v>
       </c>
-      <c r="B27" s="239"/>
-      <c r="C27" s="240"/>
-      <c r="D27" s="242" t="s">
+      <c r="B27" s="238"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="241" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="242" t="s">
+      <c r="E27" s="241" t="s">
         <v>72</v>
       </c>
       <c r="F27" s="113" t="s">
@@ -24151,10 +24144,10 @@
 )</f>
         <v>7-2-1</v>
       </c>
-      <c r="B28" s="239"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="242"/>
-      <c r="E28" s="241"/>
+      <c r="B28" s="238"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="240"/>
       <c r="F28" s="113" t="s">
         <v>74</v>
       </c>
@@ -24185,10 +24178,10 @@
 )</f>
         <v>8-1-1</v>
       </c>
-      <c r="B29" s="239"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="242" t="s">
+      <c r="B29" s="238"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="238"/>
+      <c r="E29" s="241" t="s">
         <v>75</v>
       </c>
       <c r="F29" s="113" t="s">
@@ -24221,10 +24214,10 @@
 )</f>
         <v>8-2-1</v>
       </c>
-      <c r="B30" s="239"/>
-      <c r="C30" s="240"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="242"/>
+      <c r="B30" s="238"/>
+      <c r="C30" s="239"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
       <c r="F30" s="113" t="s">
         <v>77</v>
       </c>
@@ -24255,10 +24248,10 @@
 )</f>
         <v>8-3-1</v>
       </c>
-      <c r="B31" s="239"/>
-      <c r="C31" s="240"/>
-      <c r="D31" s="242"/>
-      <c r="E31" s="242"/>
+      <c r="B31" s="238"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="241"/>
       <c r="F31" s="113" t="s">
         <v>78</v>
       </c>
@@ -24289,10 +24282,10 @@
 )</f>
         <v>8-4-1</v>
       </c>
-      <c r="B32" s="239"/>
-      <c r="C32" s="240"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="241"/>
+      <c r="B32" s="238"/>
+      <c r="C32" s="239"/>
+      <c r="D32" s="241"/>
+      <c r="E32" s="240"/>
       <c r="F32" s="113" t="s">
         <v>79</v>
       </c>
@@ -24323,10 +24316,10 @@
 )</f>
         <v>9-1-1</v>
       </c>
-      <c r="B33" s="239"/>
-      <c r="C33" s="240"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242" t="s">
+      <c r="B33" s="238"/>
+      <c r="C33" s="239"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="241" t="s">
         <v>529</v>
       </c>
       <c r="F33" s="113" t="s">
@@ -24359,10 +24352,10 @@
 )</f>
         <v>9-2-1</v>
       </c>
-      <c r="B34" s="239"/>
-      <c r="C34" s="240"/>
-      <c r="D34" s="242"/>
-      <c r="E34" s="241"/>
+      <c r="B34" s="238"/>
+      <c r="C34" s="239"/>
+      <c r="D34" s="241"/>
+      <c r="E34" s="240"/>
       <c r="F34" s="113" t="s">
         <v>82</v>
       </c>
@@ -24393,10 +24386,10 @@
 )</f>
         <v>10-1-1</v>
       </c>
-      <c r="B35" s="239"/>
-      <c r="C35" s="239"/>
-      <c r="D35" s="242"/>
-      <c r="E35" s="239" t="s">
+      <c r="B35" s="238"/>
+      <c r="C35" s="238"/>
+      <c r="D35" s="241"/>
+      <c r="E35" s="238" t="s">
         <v>83</v>
       </c>
       <c r="F35" s="113" t="s">
@@ -24429,14 +24422,14 @@
 )</f>
         <v>11-1-1</v>
       </c>
-      <c r="B36" s="239"/>
-      <c r="C36" s="244" t="s">
+      <c r="B36" s="238"/>
+      <c r="C36" s="243" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="244" t="s">
+      <c r="D36" s="243" t="s">
         <v>497</v>
       </c>
-      <c r="E36" s="245" t="s">
+      <c r="E36" s="244" t="s">
         <v>497</v>
       </c>
       <c r="F36" s="74" t="s">
@@ -24469,10 +24462,10 @@
 )</f>
         <v>11-2-1</v>
       </c>
-      <c r="B37" s="239"/>
-      <c r="C37" s="246"/>
-      <c r="D37" s="247"/>
-      <c r="E37" s="246"/>
+      <c r="B37" s="238"/>
+      <c r="C37" s="245"/>
+      <c r="D37" s="246"/>
+      <c r="E37" s="245"/>
       <c r="F37" s="73" t="s">
         <v>530</v>
       </c>
@@ -24503,10 +24496,10 @@
 )</f>
         <v>11-3-1</v>
       </c>
-      <c r="B38" s="239"/>
-      <c r="C38" s="246"/>
-      <c r="D38" s="247"/>
-      <c r="E38" s="246"/>
+      <c r="B38" s="238"/>
+      <c r="C38" s="245"/>
+      <c r="D38" s="246"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="73" t="s">
         <v>88</v>
       </c>
@@ -24537,10 +24530,10 @@
 )</f>
         <v>11-4-1</v>
       </c>
-      <c r="B39" s="239"/>
-      <c r="C39" s="246"/>
-      <c r="D39" s="248"/>
-      <c r="E39" s="249"/>
+      <c r="B39" s="238"/>
+      <c r="C39" s="245"/>
+      <c r="D39" s="247"/>
+      <c r="E39" s="248"/>
       <c r="F39" s="73" t="s">
         <v>89</v>
       </c>
@@ -24571,12 +24564,12 @@
 )</f>
         <v>12-1-1</v>
       </c>
-      <c r="B40" s="239"/>
-      <c r="C40" s="246"/>
-      <c r="D40" s="247" t="s">
+      <c r="B40" s="238"/>
+      <c r="C40" s="245"/>
+      <c r="D40" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="246" t="s">
+      <c r="E40" s="245" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="73" t="s">
@@ -24609,10 +24602,10 @@
 )</f>
         <v>12-2-1</v>
       </c>
-      <c r="B41" s="241"/>
-      <c r="C41" s="249"/>
-      <c r="D41" s="248"/>
-      <c r="E41" s="249"/>
+      <c r="B41" s="240"/>
+      <c r="C41" s="248"/>
+      <c r="D41" s="247"/>
+      <c r="E41" s="248"/>
       <c r="F41" s="73" t="s">
         <v>532</v>
       </c>
@@ -24643,16 +24636,16 @@
 )</f>
         <v>13-1-1</v>
       </c>
-      <c r="B42" s="250" t="s">
+      <c r="B42" s="249" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="250" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="251" t="s">
+      <c r="D42" s="250" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="252" t="s">
+      <c r="E42" s="251" t="s">
         <v>96</v>
       </c>
       <c r="F42" s="81" t="s">
@@ -24683,10 +24676,10 @@
 )</f>
         <v>13-2-1</v>
       </c>
-      <c r="B43" s="250"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="253"/>
+      <c r="B43" s="249"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="252"/>
       <c r="F43" s="81" t="s">
         <v>98</v>
       </c>
@@ -24715,10 +24708,10 @@
 )</f>
         <v>13-3-1</v>
       </c>
-      <c r="B44" s="250"/>
-      <c r="C44" s="250"/>
-      <c r="D44" s="250"/>
-      <c r="E44" s="254"/>
+      <c r="B44" s="249"/>
+      <c r="C44" s="249"/>
+      <c r="D44" s="249"/>
+      <c r="E44" s="253"/>
       <c r="F44" s="81" t="s">
         <v>99</v>
       </c>
@@ -24747,10 +24740,10 @@
 )</f>
         <v>14-1-1</v>
       </c>
-      <c r="B45" s="255"/>
-      <c r="C45" s="255"/>
-      <c r="D45" s="255"/>
-      <c r="E45" s="253" t="s">
+      <c r="B45" s="254"/>
+      <c r="C45" s="254"/>
+      <c r="D45" s="254"/>
+      <c r="E45" s="252" t="s">
         <v>100</v>
       </c>
       <c r="F45" s="81" t="s">
@@ -24781,10 +24774,10 @@
 )</f>
         <v>14-2-1</v>
       </c>
-      <c r="B46" s="255"/>
-      <c r="C46" s="255"/>
-      <c r="D46" s="255"/>
-      <c r="E46" s="253"/>
+      <c r="B46" s="254"/>
+      <c r="C46" s="254"/>
+      <c r="D46" s="254"/>
+      <c r="E46" s="252"/>
       <c r="F46" s="81" t="s">
         <v>102</v>
       </c>
@@ -24813,10 +24806,10 @@
 )</f>
         <v>14-3-1</v>
       </c>
-      <c r="B47" s="255"/>
-      <c r="C47" s="255"/>
-      <c r="D47" s="255"/>
-      <c r="E47" s="254"/>
+      <c r="B47" s="254"/>
+      <c r="C47" s="254"/>
+      <c r="D47" s="254"/>
+      <c r="E47" s="253"/>
       <c r="F47" s="81" t="s">
         <v>99</v>
       </c>
@@ -24845,10 +24838,10 @@
 )</f>
         <v>15-1-1</v>
       </c>
-      <c r="B48" s="255"/>
-      <c r="C48" s="255"/>
-      <c r="D48" s="255"/>
-      <c r="E48" s="253" t="s">
+      <c r="B48" s="254"/>
+      <c r="C48" s="254"/>
+      <c r="D48" s="254"/>
+      <c r="E48" s="252" t="s">
         <v>103</v>
       </c>
       <c r="F48" s="92" t="s">
@@ -24879,10 +24872,10 @@
 )</f>
         <v>15-2-1</v>
       </c>
-      <c r="B49" s="255"/>
-      <c r="C49" s="255"/>
-      <c r="D49" s="255"/>
-      <c r="E49" s="254"/>
+      <c r="B49" s="254"/>
+      <c r="C49" s="254"/>
+      <c r="D49" s="254"/>
+      <c r="E49" s="253"/>
       <c r="F49" s="92" t="s">
         <v>105</v>
       </c>
@@ -24911,10 +24904,10 @@
 )</f>
         <v>16-1-1</v>
       </c>
-      <c r="B50" s="255"/>
-      <c r="C50" s="255"/>
-      <c r="D50" s="255"/>
-      <c r="E50" s="253" t="s">
+      <c r="B50" s="254"/>
+      <c r="C50" s="254"/>
+      <c r="D50" s="254"/>
+      <c r="E50" s="252" t="s">
         <v>106</v>
       </c>
       <c r="F50" s="81" t="s">
@@ -24945,10 +24938,10 @@
 )</f>
         <v>16-2-1</v>
       </c>
-      <c r="B51" s="255"/>
-      <c r="C51" s="255"/>
-      <c r="D51" s="255"/>
-      <c r="E51" s="253"/>
+      <c r="B51" s="254"/>
+      <c r="C51" s="254"/>
+      <c r="D51" s="254"/>
+      <c r="E51" s="252"/>
       <c r="F51" s="81" t="s">
         <v>108</v>
       </c>
@@ -24977,10 +24970,10 @@
 )</f>
         <v>16-3-1</v>
       </c>
-      <c r="B52" s="255"/>
-      <c r="C52" s="255"/>
-      <c r="D52" s="255"/>
-      <c r="E52" s="253"/>
+      <c r="B52" s="254"/>
+      <c r="C52" s="254"/>
+      <c r="D52" s="254"/>
+      <c r="E52" s="252"/>
       <c r="F52" s="81" t="s">
         <v>109</v>
       </c>
@@ -25009,10 +25002,10 @@
 )</f>
         <v>16-4-1</v>
       </c>
-      <c r="B53" s="255"/>
-      <c r="C53" s="255"/>
-      <c r="D53" s="255"/>
-      <c r="E53" s="253"/>
+      <c r="B53" s="254"/>
+      <c r="C53" s="254"/>
+      <c r="D53" s="254"/>
+      <c r="E53" s="252"/>
       <c r="F53" s="81" t="s">
         <v>110</v>
       </c>
@@ -25041,10 +25034,10 @@
 )</f>
         <v>16-5-1</v>
       </c>
-      <c r="B54" s="255"/>
-      <c r="C54" s="255"/>
-      <c r="D54" s="255"/>
-      <c r="E54" s="253"/>
+      <c r="B54" s="254"/>
+      <c r="C54" s="254"/>
+      <c r="D54" s="254"/>
+      <c r="E54" s="252"/>
       <c r="F54" s="81" t="s">
         <v>111</v>
       </c>
@@ -25073,10 +25066,10 @@
 )</f>
         <v>16-6-1</v>
       </c>
-      <c r="B55" s="255"/>
-      <c r="C55" s="255"/>
-      <c r="D55" s="255"/>
-      <c r="E55" s="254"/>
+      <c r="B55" s="254"/>
+      <c r="C55" s="254"/>
+      <c r="D55" s="254"/>
+      <c r="E55" s="253"/>
       <c r="F55" s="81" t="s">
         <v>112</v>
       </c>
@@ -25105,10 +25098,10 @@
 )</f>
         <v>17-1-1</v>
       </c>
-      <c r="B56" s="255"/>
-      <c r="C56" s="255"/>
-      <c r="D56" s="255"/>
-      <c r="E56" s="256" t="s">
+      <c r="B56" s="254"/>
+      <c r="C56" s="254"/>
+      <c r="D56" s="254"/>
+      <c r="E56" s="255" t="s">
         <v>113</v>
       </c>
       <c r="F56" s="92" t="s">
@@ -25139,9 +25132,9 @@
 )</f>
         <v>18-1-1</v>
       </c>
-      <c r="B57" s="255"/>
-      <c r="C57" s="255"/>
-      <c r="D57" s="255"/>
+      <c r="B57" s="254"/>
+      <c r="C57" s="254"/>
+      <c r="D57" s="254"/>
       <c r="E57" s="158" t="s">
         <v>533</v>
       </c>
@@ -25173,9 +25166,9 @@
 )</f>
         <v>19-1-1</v>
       </c>
-      <c r="B58" s="255"/>
-      <c r="C58" s="255"/>
-      <c r="D58" s="254"/>
+      <c r="B58" s="254"/>
+      <c r="C58" s="254"/>
+      <c r="D58" s="253"/>
       <c r="E58" s="158" t="s">
         <v>117</v>
       </c>
@@ -25207,12 +25200,12 @@
 )</f>
         <v>20-1-1</v>
       </c>
-      <c r="B59" s="255"/>
-      <c r="C59" s="255"/>
-      <c r="D59" s="255" t="s">
+      <c r="B59" s="254"/>
+      <c r="C59" s="254"/>
+      <c r="D59" s="254" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="253" t="s">
+      <c r="E59" s="252" t="s">
         <v>497</v>
       </c>
       <c r="F59" s="81" t="s">
@@ -25243,10 +25236,10 @@
 )</f>
         <v>20-2-1</v>
       </c>
-      <c r="B60" s="255"/>
-      <c r="C60" s="257"/>
-      <c r="D60" s="255"/>
-      <c r="E60" s="253"/>
+      <c r="B60" s="254"/>
+      <c r="C60" s="256"/>
+      <c r="D60" s="254"/>
+      <c r="E60" s="252"/>
       <c r="F60" s="92" t="s">
         <v>535</v>
       </c>
@@ -25275,10 +25268,10 @@
 )</f>
         <v>20-3-1</v>
       </c>
-      <c r="B61" s="255"/>
-      <c r="C61" s="257"/>
-      <c r="D61" s="255"/>
-      <c r="E61" s="253"/>
+      <c r="B61" s="254"/>
+      <c r="C61" s="256"/>
+      <c r="D61" s="254"/>
+      <c r="E61" s="252"/>
       <c r="F61" s="81" t="s">
         <v>536</v>
       </c>
@@ -25307,10 +25300,10 @@
 )</f>
         <v>20-4-1</v>
       </c>
-      <c r="B62" s="255"/>
-      <c r="C62" s="257"/>
-      <c r="D62" s="255"/>
-      <c r="E62" s="253"/>
+      <c r="B62" s="254"/>
+      <c r="C62" s="256"/>
+      <c r="D62" s="254"/>
+      <c r="E62" s="252"/>
       <c r="F62" s="81" t="s">
         <v>537</v>
       </c>
@@ -25339,10 +25332,10 @@
 )</f>
         <v>20-5-1</v>
       </c>
-      <c r="B63" s="255"/>
-      <c r="C63" s="257"/>
-      <c r="D63" s="255"/>
-      <c r="E63" s="254"/>
+      <c r="B63" s="254"/>
+      <c r="C63" s="256"/>
+      <c r="D63" s="254"/>
+      <c r="E63" s="253"/>
       <c r="F63" s="81" t="s">
         <v>124</v>
       </c>
@@ -25371,10 +25364,10 @@
 )</f>
         <v>21-1-1</v>
       </c>
-      <c r="B64" s="255"/>
-      <c r="C64" s="257"/>
-      <c r="D64" s="255"/>
-      <c r="E64" s="253" t="s">
+      <c r="B64" s="254"/>
+      <c r="C64" s="256"/>
+      <c r="D64" s="254"/>
+      <c r="E64" s="252" t="s">
         <v>125</v>
       </c>
       <c r="F64" s="81" t="s">
@@ -25405,10 +25398,10 @@
 )</f>
         <v>21-2-1</v>
       </c>
-      <c r="B65" s="255"/>
-      <c r="C65" s="257"/>
-      <c r="D65" s="255"/>
-      <c r="E65" s="253"/>
+      <c r="B65" s="254"/>
+      <c r="C65" s="256"/>
+      <c r="D65" s="254"/>
+      <c r="E65" s="252"/>
       <c r="F65" s="81" t="s">
         <v>127</v>
       </c>
@@ -25437,10 +25430,10 @@
 )</f>
         <v>21-3-1</v>
       </c>
-      <c r="B66" s="255"/>
-      <c r="C66" s="257"/>
-      <c r="D66" s="255"/>
-      <c r="E66" s="253"/>
+      <c r="B66" s="254"/>
+      <c r="C66" s="256"/>
+      <c r="D66" s="254"/>
+      <c r="E66" s="252"/>
       <c r="F66" s="81" t="s">
         <v>128</v>
       </c>
@@ -25469,10 +25462,10 @@
 )</f>
         <v>21-4-1</v>
       </c>
-      <c r="B67" s="255"/>
-      <c r="C67" s="257"/>
-      <c r="D67" s="255"/>
-      <c r="E67" s="253"/>
+      <c r="B67" s="254"/>
+      <c r="C67" s="256"/>
+      <c r="D67" s="254"/>
+      <c r="E67" s="252"/>
       <c r="F67" s="81" t="s">
         <v>129</v>
       </c>
@@ -25501,10 +25494,10 @@
 )</f>
         <v>21-5-1</v>
       </c>
-      <c r="B68" s="255"/>
-      <c r="C68" s="257"/>
-      <c r="D68" s="255"/>
-      <c r="E68" s="253"/>
+      <c r="B68" s="254"/>
+      <c r="C68" s="256"/>
+      <c r="D68" s="254"/>
+      <c r="E68" s="252"/>
       <c r="F68" s="81" t="s">
         <v>130</v>
       </c>
@@ -25533,10 +25526,10 @@
 )</f>
         <v>21-6-1</v>
       </c>
-      <c r="B69" s="255"/>
-      <c r="C69" s="257"/>
-      <c r="D69" s="255"/>
-      <c r="E69" s="253"/>
+      <c r="B69" s="254"/>
+      <c r="C69" s="256"/>
+      <c r="D69" s="254"/>
+      <c r="E69" s="252"/>
       <c r="F69" s="81" t="s">
         <v>131</v>
       </c>
@@ -25565,10 +25558,10 @@
 )</f>
         <v>21-7-1</v>
       </c>
-      <c r="B70" s="255"/>
-      <c r="C70" s="257"/>
-      <c r="D70" s="255"/>
-      <c r="E70" s="253"/>
+      <c r="B70" s="254"/>
+      <c r="C70" s="256"/>
+      <c r="D70" s="254"/>
+      <c r="E70" s="252"/>
       <c r="F70" s="81" t="s">
         <v>132</v>
       </c>
@@ -25597,10 +25590,10 @@
 )</f>
         <v>21-8-1</v>
       </c>
-      <c r="B71" s="255"/>
-      <c r="C71" s="257"/>
-      <c r="D71" s="255"/>
-      <c r="E71" s="254"/>
+      <c r="B71" s="254"/>
+      <c r="C71" s="256"/>
+      <c r="D71" s="254"/>
+      <c r="E71" s="253"/>
       <c r="F71" s="81" t="s">
         <v>133</v>
       </c>
@@ -25629,9 +25622,9 @@
 )</f>
         <v>22-1-1</v>
       </c>
-      <c r="B72" s="255"/>
-      <c r="C72" s="257"/>
-      <c r="D72" s="255"/>
+      <c r="B72" s="254"/>
+      <c r="C72" s="256"/>
+      <c r="D72" s="254"/>
       <c r="E72" s="157" t="s">
         <v>134</v>
       </c>
@@ -25663,10 +25656,10 @@
 )</f>
         <v>23-1-1</v>
       </c>
-      <c r="B73" s="255"/>
-      <c r="C73" s="258"/>
-      <c r="D73" s="255"/>
-      <c r="E73" s="253" t="s">
+      <c r="B73" s="254"/>
+      <c r="C73" s="257"/>
+      <c r="D73" s="254"/>
+      <c r="E73" s="252" t="s">
         <v>136</v>
       </c>
       <c r="F73" s="81" t="s">
@@ -25697,10 +25690,10 @@
 )</f>
         <v>23-2-1</v>
       </c>
-      <c r="B74" s="255"/>
-      <c r="C74" s="258"/>
-      <c r="D74" s="255"/>
-      <c r="E74" s="253"/>
+      <c r="B74" s="254"/>
+      <c r="C74" s="257"/>
+      <c r="D74" s="254"/>
+      <c r="E74" s="252"/>
       <c r="F74" s="81" t="s">
         <v>138</v>
       </c>
@@ -25729,10 +25722,10 @@
 )</f>
         <v>23-3-1</v>
       </c>
-      <c r="B75" s="255"/>
-      <c r="C75" s="258"/>
-      <c r="D75" s="255"/>
-      <c r="E75" s="253"/>
+      <c r="B75" s="254"/>
+      <c r="C75" s="257"/>
+      <c r="D75" s="254"/>
+      <c r="E75" s="252"/>
       <c r="F75" s="81" t="s">
         <v>139</v>
       </c>
@@ -25761,10 +25754,10 @@
 )</f>
         <v>23-4-1</v>
       </c>
-      <c r="B76" s="255"/>
-      <c r="C76" s="258"/>
-      <c r="D76" s="255"/>
-      <c r="E76" s="253"/>
+      <c r="B76" s="254"/>
+      <c r="C76" s="257"/>
+      <c r="D76" s="254"/>
+      <c r="E76" s="252"/>
       <c r="F76" s="81" t="s">
         <v>140</v>
       </c>
@@ -25793,15 +25786,15 @@
 )</f>
         <v>23-5-1</v>
       </c>
-      <c r="B77" s="255"/>
-      <c r="C77" s="259"/>
-      <c r="D77" s="254"/>
-      <c r="E77" s="259"/>
+      <c r="B77" s="254"/>
+      <c r="C77" s="258"/>
+      <c r="D77" s="253"/>
+      <c r="E77" s="258"/>
       <c r="F77" s="113" t="s">
         <v>141</v>
       </c>
       <c r="G77" s="114" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H77" s="115"/>
       <c r="I77" s="115"/>
@@ -25827,14 +25820,14 @@
 )</f>
         <v>24-1-1</v>
       </c>
-      <c r="B78" s="260"/>
-      <c r="C78" s="261" t="s">
+      <c r="B78" s="259"/>
+      <c r="C78" s="260" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="256" t="s">
+      <c r="D78" s="255" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="261" t="s">
+      <c r="E78" s="260" t="s">
         <v>493</v>
       </c>
       <c r="F78" s="81" t="s">
@@ -25865,10 +25858,10 @@
 )</f>
         <v>24-2-1</v>
       </c>
-      <c r="B79" s="255"/>
-      <c r="C79" s="253"/>
-      <c r="D79" s="255"/>
-      <c r="E79" s="254"/>
+      <c r="B79" s="254"/>
+      <c r="C79" s="252"/>
+      <c r="D79" s="254"/>
+      <c r="E79" s="253"/>
       <c r="F79" s="81" t="s">
         <v>144</v>
       </c>
@@ -25897,9 +25890,9 @@
 )</f>
         <v>25-1-1</v>
       </c>
-      <c r="B80" s="255"/>
-      <c r="C80" s="253"/>
-      <c r="D80" s="255"/>
+      <c r="B80" s="254"/>
+      <c r="C80" s="252"/>
+      <c r="D80" s="254"/>
       <c r="E80" s="158" t="s">
         <v>145</v>
       </c>
@@ -25931,10 +25924,10 @@
 )</f>
         <v>26-1-1</v>
       </c>
-      <c r="B81" s="255"/>
-      <c r="C81" s="253"/>
-      <c r="D81" s="255"/>
-      <c r="E81" s="253" t="s">
+      <c r="B81" s="254"/>
+      <c r="C81" s="252"/>
+      <c r="D81" s="254"/>
+      <c r="E81" s="252" t="s">
         <v>147</v>
       </c>
       <c r="F81" s="81" t="s">
@@ -25965,10 +25958,10 @@
 )</f>
         <v>26-2-1</v>
       </c>
-      <c r="B82" s="255"/>
-      <c r="C82" s="253"/>
-      <c r="D82" s="255"/>
-      <c r="E82" s="254"/>
+      <c r="B82" s="254"/>
+      <c r="C82" s="252"/>
+      <c r="D82" s="254"/>
+      <c r="E82" s="253"/>
       <c r="F82" s="81" t="s">
         <v>149</v>
       </c>
@@ -25997,9 +25990,9 @@
 )</f>
         <v>27-1-1</v>
       </c>
-      <c r="B83" s="255"/>
-      <c r="C83" s="253"/>
-      <c r="D83" s="255"/>
+      <c r="B83" s="254"/>
+      <c r="C83" s="252"/>
+      <c r="D83" s="254"/>
       <c r="E83" s="158" t="s">
         <v>150</v>
       </c>
@@ -26031,9 +26024,9 @@
 )</f>
         <v>28-1-1</v>
       </c>
-      <c r="B84" s="255"/>
-      <c r="C84" s="254"/>
-      <c r="D84" s="254"/>
+      <c r="B84" s="254"/>
+      <c r="C84" s="253"/>
+      <c r="D84" s="253"/>
       <c r="E84" s="158" t="s">
         <v>152</v>
       </c>
@@ -26065,11 +26058,11 @@
 )</f>
         <v>29-1-1</v>
       </c>
-      <c r="B85" s="255"/>
-      <c r="C85" s="255" t="s">
+      <c r="B85" s="254"/>
+      <c r="C85" s="254" t="s">
         <v>154</v>
       </c>
-      <c r="D85" s="255" t="s">
+      <c r="D85" s="254" t="s">
         <v>17</v>
       </c>
       <c r="E85" s="158" t="s">
@@ -26103,9 +26096,9 @@
 )</f>
         <v>30-1-1</v>
       </c>
-      <c r="B86" s="255"/>
-      <c r="C86" s="253"/>
-      <c r="D86" s="255"/>
+      <c r="B86" s="254"/>
+      <c r="C86" s="252"/>
+      <c r="D86" s="254"/>
       <c r="E86" s="158" t="s">
         <v>145</v>
       </c>
@@ -26137,10 +26130,10 @@
 )</f>
         <v>31-1-1</v>
       </c>
-      <c r="B87" s="255"/>
-      <c r="C87" s="254"/>
-      <c r="D87" s="254"/>
-      <c r="E87" s="254" t="s">
+      <c r="B87" s="254"/>
+      <c r="C87" s="253"/>
+      <c r="D87" s="253"/>
+      <c r="E87" s="253" t="s">
         <v>494</v>
       </c>
       <c r="F87" s="81" t="s">
@@ -26171,14 +26164,14 @@
 )</f>
         <v>32-1-1</v>
       </c>
-      <c r="B88" s="255"/>
-      <c r="C88" s="253" t="s">
+      <c r="B88" s="254"/>
+      <c r="C88" s="252" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="255" t="s">
+      <c r="D88" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="253" t="s">
+      <c r="E88" s="252" t="s">
         <v>497</v>
       </c>
       <c r="F88" s="92" t="s">
@@ -26209,10 +26202,10 @@
 )</f>
         <v>32-2-1</v>
       </c>
-      <c r="B89" s="255"/>
-      <c r="C89" s="253"/>
-      <c r="D89" s="255"/>
-      <c r="E89" s="254"/>
+      <c r="B89" s="254"/>
+      <c r="C89" s="252"/>
+      <c r="D89" s="254"/>
+      <c r="E89" s="253"/>
       <c r="F89" s="81" t="s">
         <v>161</v>
       </c>
@@ -26241,9 +26234,9 @@
 )</f>
         <v>33-1-1</v>
       </c>
-      <c r="B90" s="255"/>
-      <c r="C90" s="253"/>
-      <c r="D90" s="255"/>
+      <c r="B90" s="254"/>
+      <c r="C90" s="252"/>
+      <c r="D90" s="254"/>
       <c r="E90" s="158" t="s">
         <v>145</v>
       </c>
@@ -26275,10 +26268,10 @@
 )</f>
         <v>34-1-1</v>
       </c>
-      <c r="B91" s="255"/>
-      <c r="C91" s="253"/>
-      <c r="D91" s="255"/>
-      <c r="E91" s="253" t="s">
+      <c r="B91" s="254"/>
+      <c r="C91" s="252"/>
+      <c r="D91" s="254"/>
+      <c r="E91" s="252" t="s">
         <v>147</v>
       </c>
       <c r="F91" s="81" t="s">
@@ -26309,10 +26302,10 @@
 )</f>
         <v>34-2-1</v>
       </c>
-      <c r="B92" s="255"/>
-      <c r="C92" s="253"/>
-      <c r="D92" s="255"/>
-      <c r="E92" s="254"/>
+      <c r="B92" s="254"/>
+      <c r="C92" s="252"/>
+      <c r="D92" s="254"/>
+      <c r="E92" s="253"/>
       <c r="F92" s="81" t="s">
         <v>164</v>
       </c>
@@ -26341,10 +26334,10 @@
 )</f>
         <v>35-1-1</v>
       </c>
-      <c r="B93" s="255"/>
-      <c r="C93" s="254"/>
-      <c r="D93" s="254"/>
-      <c r="E93" s="254" t="s">
+      <c r="B93" s="254"/>
+      <c r="C93" s="253"/>
+      <c r="D93" s="253"/>
+      <c r="E93" s="253" t="s">
         <v>494</v>
       </c>
       <c r="F93" s="81" t="s">
@@ -26375,14 +26368,14 @@
 )</f>
         <v>36-1-1</v>
       </c>
-      <c r="B94" s="255"/>
-      <c r="C94" s="256" t="s">
+      <c r="B94" s="254"/>
+      <c r="C94" s="255" t="s">
         <v>166</v>
       </c>
-      <c r="D94" s="256" t="s">
+      <c r="D94" s="255" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="253" t="s">
+      <c r="E94" s="252" t="s">
         <v>167</v>
       </c>
       <c r="F94" s="81" t="s">
@@ -26413,10 +26406,10 @@
 )</f>
         <v>36-2-1</v>
       </c>
-      <c r="B95" s="255"/>
-      <c r="C95" s="257"/>
-      <c r="D95" s="255"/>
-      <c r="E95" s="253"/>
+      <c r="B95" s="254"/>
+      <c r="C95" s="256"/>
+      <c r="D95" s="254"/>
+      <c r="E95" s="252"/>
       <c r="F95" s="81" t="s">
         <v>169</v>
       </c>
@@ -26445,10 +26438,10 @@
 )</f>
         <v>36-3-1</v>
       </c>
-      <c r="B96" s="255"/>
-      <c r="C96" s="257"/>
-      <c r="D96" s="255"/>
-      <c r="E96" s="253"/>
+      <c r="B96" s="254"/>
+      <c r="C96" s="256"/>
+      <c r="D96" s="254"/>
+      <c r="E96" s="252"/>
       <c r="F96" s="81" t="s">
         <v>170</v>
       </c>
@@ -26477,10 +26470,10 @@
 )</f>
         <v>36-4-1</v>
       </c>
-      <c r="B97" s="255"/>
-      <c r="C97" s="253"/>
-      <c r="D97" s="255"/>
-      <c r="E97" s="253"/>
+      <c r="B97" s="254"/>
+      <c r="C97" s="252"/>
+      <c r="D97" s="254"/>
+      <c r="E97" s="252"/>
       <c r="F97" s="81" t="s">
         <v>171</v>
       </c>
@@ -26509,10 +26502,10 @@
 )</f>
         <v>36-5-1</v>
       </c>
-      <c r="B98" s="255"/>
-      <c r="C98" s="253"/>
-      <c r="D98" s="255"/>
-      <c r="E98" s="254"/>
+      <c r="B98" s="254"/>
+      <c r="C98" s="252"/>
+      <c r="D98" s="254"/>
+      <c r="E98" s="253"/>
       <c r="F98" s="81" t="s">
         <v>172</v>
       </c>
@@ -26541,10 +26534,10 @@
 )</f>
         <v>37-1-1</v>
       </c>
-      <c r="B99" s="255"/>
-      <c r="C99" s="257"/>
-      <c r="D99" s="255"/>
-      <c r="E99" s="253" t="s">
+      <c r="B99" s="254"/>
+      <c r="C99" s="256"/>
+      <c r="D99" s="254"/>
+      <c r="E99" s="252" t="s">
         <v>173</v>
       </c>
       <c r="F99" s="81" t="s">
@@ -26575,10 +26568,10 @@
 )</f>
         <v>37-2-1</v>
       </c>
-      <c r="B100" s="255"/>
-      <c r="C100" s="255"/>
-      <c r="D100" s="255"/>
-      <c r="E100" s="253"/>
+      <c r="B100" s="254"/>
+      <c r="C100" s="254"/>
+      <c r="D100" s="254"/>
+      <c r="E100" s="252"/>
       <c r="F100" s="81" t="s">
         <v>175</v>
       </c>
@@ -26607,10 +26600,10 @@
 )</f>
         <v>37-3-1</v>
       </c>
-      <c r="B101" s="255"/>
-      <c r="C101" s="255"/>
-      <c r="D101" s="255"/>
-      <c r="E101" s="253"/>
+      <c r="B101" s="254"/>
+      <c r="C101" s="254"/>
+      <c r="D101" s="254"/>
+      <c r="E101" s="252"/>
       <c r="F101" s="81" t="s">
         <v>176</v>
       </c>
@@ -26639,10 +26632,10 @@
 )</f>
         <v>37-4-1</v>
       </c>
-      <c r="B102" s="255"/>
-      <c r="C102" s="253"/>
-      <c r="D102" s="255"/>
-      <c r="E102" s="253"/>
+      <c r="B102" s="254"/>
+      <c r="C102" s="252"/>
+      <c r="D102" s="254"/>
+      <c r="E102" s="252"/>
       <c r="F102" s="81" t="s">
         <v>177</v>
       </c>
@@ -26671,10 +26664,10 @@
 )</f>
         <v>37-5-1</v>
       </c>
-      <c r="B103" s="255"/>
-      <c r="C103" s="253"/>
-      <c r="D103" s="255"/>
-      <c r="E103" s="254"/>
+      <c r="B103" s="254"/>
+      <c r="C103" s="252"/>
+      <c r="D103" s="254"/>
+      <c r="E103" s="253"/>
       <c r="F103" s="81" t="s">
         <v>178</v>
       </c>
@@ -26703,10 +26696,10 @@
 )</f>
         <v>38-1-1</v>
       </c>
-      <c r="B104" s="255"/>
-      <c r="C104" s="254"/>
-      <c r="D104" s="255"/>
-      <c r="E104" s="259" t="s">
+      <c r="B104" s="254"/>
+      <c r="C104" s="253"/>
+      <c r="D104" s="254"/>
+      <c r="E104" s="258" t="s">
         <v>494</v>
       </c>
       <c r="F104" s="81" t="s">
@@ -26737,7 +26730,7 @@
 )</f>
         <v>39-1-1</v>
       </c>
-      <c r="B105" s="256" t="s">
+      <c r="B105" s="255" t="s">
         <v>180</v>
       </c>
       <c r="C105" s="158" t="s">
@@ -26777,14 +26770,14 @@
 )</f>
         <v>40-1-1</v>
       </c>
-      <c r="B106" s="255"/>
-      <c r="C106" s="256" t="s">
+      <c r="B106" s="254"/>
+      <c r="C106" s="255" t="s">
         <v>183</v>
       </c>
-      <c r="D106" s="256" t="s">
+      <c r="D106" s="255" t="s">
         <v>52</v>
       </c>
-      <c r="E106" s="256" t="s">
+      <c r="E106" s="255" t="s">
         <v>52</v>
       </c>
       <c r="F106" s="81" t="s">
@@ -26815,10 +26808,10 @@
 )</f>
         <v>40-2-1</v>
       </c>
-      <c r="B107" s="255"/>
-      <c r="C107" s="254"/>
-      <c r="D107" s="254"/>
-      <c r="E107" s="254"/>
+      <c r="B107" s="254"/>
+      <c r="C107" s="253"/>
+      <c r="D107" s="253"/>
+      <c r="E107" s="253"/>
       <c r="F107" s="81" t="s">
         <v>185</v>
       </c>
@@ -26847,7 +26840,7 @@
 )</f>
         <v>41-1-1</v>
       </c>
-      <c r="B108" s="255"/>
+      <c r="B108" s="254"/>
       <c r="C108" s="158" t="s">
         <v>538</v>
       </c>
@@ -26885,14 +26878,14 @@
 )</f>
         <v>42-1-1</v>
       </c>
-      <c r="B109" s="255"/>
-      <c r="C109" s="255" t="s">
+      <c r="B109" s="254"/>
+      <c r="C109" s="254" t="s">
         <v>539</v>
       </c>
-      <c r="D109" s="255" t="s">
+      <c r="D109" s="254" t="s">
         <v>52</v>
       </c>
-      <c r="E109" s="253" t="s">
+      <c r="E109" s="252" t="s">
         <v>52</v>
       </c>
       <c r="F109" s="81" t="s">
@@ -26923,10 +26916,10 @@
 )</f>
         <v>42-2-1</v>
       </c>
-      <c r="B110" s="254"/>
-      <c r="C110" s="254"/>
-      <c r="D110" s="254"/>
-      <c r="E110" s="259"/>
+      <c r="B110" s="253"/>
+      <c r="C110" s="253"/>
+      <c r="D110" s="253"/>
+      <c r="E110" s="258"/>
       <c r="F110" s="81" t="s">
         <v>190</v>
       </c>
@@ -26955,16 +26948,16 @@
 )</f>
         <v>43-1-1</v>
       </c>
-      <c r="B111" s="256" t="s">
+      <c r="B111" s="255" t="s">
         <v>191</v>
       </c>
-      <c r="C111" s="256" t="s">
+      <c r="C111" s="255" t="s">
         <v>192</v>
       </c>
-      <c r="D111" s="256" t="s">
+      <c r="D111" s="255" t="s">
         <v>497</v>
       </c>
-      <c r="E111" s="262" t="s">
+      <c r="E111" s="261" t="s">
         <v>497</v>
       </c>
       <c r="F111" s="81" t="s">
@@ -26998,9 +26991,9 @@
       <c r="B112" s="348" t="s">
         <v>540</v>
       </c>
-      <c r="C112" s="253"/>
-      <c r="D112" s="255"/>
-      <c r="E112" s="263"/>
+      <c r="C112" s="252"/>
+      <c r="D112" s="254"/>
+      <c r="E112" s="262"/>
       <c r="F112" s="81" t="s">
         <v>195</v>
       </c>
@@ -27030,9 +27023,9 @@
         <v>43-3-1</v>
       </c>
       <c r="B113" s="348"/>
-      <c r="C113" s="253"/>
-      <c r="D113" s="255"/>
-      <c r="E113" s="263"/>
+      <c r="C113" s="252"/>
+      <c r="D113" s="254"/>
+      <c r="E113" s="262"/>
       <c r="F113" s="81" t="s">
         <v>196</v>
       </c>
@@ -27061,10 +27054,10 @@
 )</f>
         <v>43-4-1</v>
       </c>
-      <c r="B114" s="255"/>
-      <c r="C114" s="253"/>
-      <c r="D114" s="255"/>
-      <c r="E114" s="254"/>
+      <c r="B114" s="254"/>
+      <c r="C114" s="252"/>
+      <c r="D114" s="254"/>
+      <c r="E114" s="253"/>
       <c r="F114" s="81" t="s">
         <v>197</v>
       </c>
@@ -27093,10 +27086,10 @@
 )</f>
         <v>44-1-1</v>
       </c>
-      <c r="B115" s="255"/>
-      <c r="C115" s="253"/>
-      <c r="D115" s="255"/>
-      <c r="E115" s="242" t="s">
+      <c r="B115" s="254"/>
+      <c r="C115" s="252"/>
+      <c r="D115" s="254"/>
+      <c r="E115" s="241" t="s">
         <v>136</v>
       </c>
       <c r="F115" s="113" t="s">
@@ -27129,10 +27122,10 @@
 )</f>
         <v>44-2-1</v>
       </c>
-      <c r="B116" s="255"/>
-      <c r="C116" s="253"/>
-      <c r="D116" s="255"/>
-      <c r="E116" s="242"/>
+      <c r="B116" s="254"/>
+      <c r="C116" s="252"/>
+      <c r="D116" s="254"/>
+      <c r="E116" s="241"/>
       <c r="F116" s="113" t="s">
         <v>199</v>
       </c>
@@ -27163,10 +27156,10 @@
 )</f>
         <v>44-3-1</v>
       </c>
-      <c r="B117" s="255"/>
-      <c r="C117" s="253"/>
-      <c r="D117" s="255"/>
-      <c r="E117" s="242"/>
+      <c r="B117" s="254"/>
+      <c r="C117" s="252"/>
+      <c r="D117" s="254"/>
+      <c r="E117" s="241"/>
       <c r="F117" s="113" t="s">
         <v>200</v>
       </c>
@@ -27197,10 +27190,10 @@
 )</f>
         <v>44-4-1</v>
       </c>
-      <c r="B118" s="255"/>
-      <c r="C118" s="253"/>
-      <c r="D118" s="255"/>
-      <c r="E118" s="242"/>
+      <c r="B118" s="254"/>
+      <c r="C118" s="252"/>
+      <c r="D118" s="254"/>
+      <c r="E118" s="241"/>
       <c r="F118" s="113" t="s">
         <v>201</v>
       </c>
@@ -27231,10 +27224,10 @@
 )</f>
         <v>44-5-1</v>
       </c>
-      <c r="B119" s="255"/>
-      <c r="C119" s="253"/>
-      <c r="D119" s="255"/>
-      <c r="E119" s="241"/>
+      <c r="B119" s="254"/>
+      <c r="C119" s="252"/>
+      <c r="D119" s="254"/>
+      <c r="E119" s="240"/>
       <c r="F119" s="113" t="s">
         <v>202</v>
       </c>
@@ -27265,10 +27258,10 @@
 )</f>
         <v>45-1-1</v>
       </c>
-      <c r="B120" s="255"/>
-      <c r="C120" s="253"/>
-      <c r="D120" s="255"/>
-      <c r="E120" s="242" t="s">
+      <c r="B120" s="254"/>
+      <c r="C120" s="252"/>
+      <c r="D120" s="254"/>
+      <c r="E120" s="241" t="s">
         <v>203</v>
       </c>
       <c r="F120" s="113" t="s">
@@ -27301,10 +27294,10 @@
 )</f>
         <v>45-2-1</v>
       </c>
-      <c r="B121" s="255"/>
-      <c r="C121" s="253"/>
-      <c r="D121" s="255"/>
-      <c r="E121" s="242"/>
+      <c r="B121" s="254"/>
+      <c r="C121" s="252"/>
+      <c r="D121" s="254"/>
+      <c r="E121" s="241"/>
       <c r="F121" s="113" t="s">
         <v>205</v>
       </c>
@@ -27335,10 +27328,10 @@
 )</f>
         <v>45-3-1</v>
       </c>
-      <c r="B122" s="255"/>
-      <c r="C122" s="253"/>
-      <c r="D122" s="255"/>
-      <c r="E122" s="242"/>
+      <c r="B122" s="254"/>
+      <c r="C122" s="252"/>
+      <c r="D122" s="254"/>
+      <c r="E122" s="241"/>
       <c r="F122" s="113" t="s">
         <v>206</v>
       </c>
@@ -27369,10 +27362,10 @@
 )</f>
         <v>45-4-1</v>
       </c>
-      <c r="B123" s="255"/>
-      <c r="C123" s="253"/>
-      <c r="D123" s="255"/>
-      <c r="E123" s="242"/>
+      <c r="B123" s="254"/>
+      <c r="C123" s="252"/>
+      <c r="D123" s="254"/>
+      <c r="E123" s="241"/>
       <c r="F123" s="113" t="s">
         <v>207</v>
       </c>
@@ -27403,10 +27396,10 @@
 )</f>
         <v>45-5-1</v>
       </c>
-      <c r="B124" s="255"/>
-      <c r="C124" s="253"/>
-      <c r="D124" s="255"/>
-      <c r="E124" s="241"/>
+      <c r="B124" s="254"/>
+      <c r="C124" s="252"/>
+      <c r="D124" s="254"/>
+      <c r="E124" s="240"/>
       <c r="F124" s="113" t="s">
         <v>208</v>
       </c>
@@ -27437,10 +27430,10 @@
 )</f>
         <v>46-1-1</v>
       </c>
-      <c r="B125" s="255"/>
-      <c r="C125" s="253"/>
-      <c r="D125" s="254"/>
-      <c r="E125" s="241" t="s">
+      <c r="B125" s="254"/>
+      <c r="C125" s="252"/>
+      <c r="D125" s="253"/>
+      <c r="E125" s="240" t="s">
         <v>541</v>
       </c>
       <c r="F125" s="113" t="s">
@@ -27473,12 +27466,12 @@
 )</f>
         <v>47-1-1</v>
       </c>
-      <c r="B126" s="255"/>
-      <c r="C126" s="259"/>
-      <c r="D126" s="254" t="s">
+      <c r="B126" s="254"/>
+      <c r="C126" s="258"/>
+      <c r="D126" s="253" t="s">
         <v>494</v>
       </c>
-      <c r="E126" s="254" t="s">
+      <c r="E126" s="253" t="s">
         <v>497</v>
       </c>
       <c r="F126" s="81" t="s">
@@ -27509,11 +27502,11 @@
 )</f>
         <v>48-1-1</v>
       </c>
-      <c r="B127" s="255"/>
-      <c r="C127" s="239" t="s">
+      <c r="B127" s="254"/>
+      <c r="C127" s="238" t="s">
         <v>526</v>
       </c>
-      <c r="D127" s="239" t="s">
+      <c r="D127" s="238" t="s">
         <v>212</v>
       </c>
       <c r="E127" s="153" t="s">
@@ -27549,10 +27542,10 @@
 )</f>
         <v>49-1-1</v>
       </c>
-      <c r="B128" s="255"/>
-      <c r="C128" s="239"/>
-      <c r="D128" s="239"/>
-      <c r="E128" s="242" t="s">
+      <c r="B128" s="254"/>
+      <c r="C128" s="238"/>
+      <c r="D128" s="238"/>
+      <c r="E128" s="241" t="s">
         <v>542</v>
       </c>
       <c r="F128" s="113" t="s">
@@ -27585,10 +27578,10 @@
 )</f>
         <v>49-2-1</v>
       </c>
-      <c r="B129" s="255"/>
-      <c r="C129" s="239"/>
-      <c r="D129" s="239"/>
-      <c r="E129" s="242"/>
+      <c r="B129" s="254"/>
+      <c r="C129" s="238"/>
+      <c r="D129" s="238"/>
+      <c r="E129" s="241"/>
       <c r="F129" s="113" t="s">
         <v>217</v>
       </c>
@@ -27619,10 +27612,10 @@
 )</f>
         <v>49-3-1</v>
       </c>
-      <c r="B130" s="254"/>
-      <c r="C130" s="241"/>
-      <c r="D130" s="241"/>
-      <c r="E130" s="243"/>
+      <c r="B130" s="253"/>
+      <c r="C130" s="240"/>
+      <c r="D130" s="240"/>
+      <c r="E130" s="242"/>
       <c r="F130" s="113" t="s">
         <v>218</v>
       </c>
@@ -27653,16 +27646,16 @@
 )</f>
         <v>50-1-1</v>
       </c>
-      <c r="B131" s="256" t="s">
+      <c r="B131" s="255" t="s">
         <v>219</v>
       </c>
-      <c r="C131" s="256" t="s">
+      <c r="C131" s="255" t="s">
         <v>192</v>
       </c>
-      <c r="D131" s="256" t="s">
+      <c r="D131" s="255" t="s">
         <v>497</v>
       </c>
-      <c r="E131" s="262" t="s">
+      <c r="E131" s="261" t="s">
         <v>497</v>
       </c>
       <c r="F131" s="81" t="s">
@@ -27696,9 +27689,9 @@
       <c r="B132" s="348" t="s">
         <v>221</v>
       </c>
-      <c r="C132" s="253"/>
-      <c r="D132" s="255"/>
-      <c r="E132" s="253"/>
+      <c r="C132" s="252"/>
+      <c r="D132" s="254"/>
+      <c r="E132" s="252"/>
       <c r="F132" s="113" t="s">
         <v>222</v>
       </c>
@@ -27730,9 +27723,9 @@
         <v>50-3-1</v>
       </c>
       <c r="B133" s="348"/>
-      <c r="C133" s="253"/>
-      <c r="D133" s="255"/>
-      <c r="E133" s="253"/>
+      <c r="C133" s="252"/>
+      <c r="D133" s="254"/>
+      <c r="E133" s="252"/>
       <c r="F133" s="113" t="s">
         <v>223</v>
       </c>
@@ -27763,10 +27756,10 @@
 )</f>
         <v>50-4-1</v>
       </c>
-      <c r="B134" s="255"/>
-      <c r="C134" s="253"/>
-      <c r="D134" s="255"/>
-      <c r="E134" s="254"/>
+      <c r="B134" s="254"/>
+      <c r="C134" s="252"/>
+      <c r="D134" s="254"/>
+      <c r="E134" s="253"/>
       <c r="F134" s="113" t="s">
         <v>224</v>
       </c>
@@ -27797,10 +27790,10 @@
 )</f>
         <v>51-1-1</v>
       </c>
-      <c r="B135" s="255"/>
-      <c r="C135" s="253"/>
-      <c r="D135" s="255"/>
-      <c r="E135" s="253" t="s">
+      <c r="B135" s="254"/>
+      <c r="C135" s="252"/>
+      <c r="D135" s="254"/>
+      <c r="E135" s="252" t="s">
         <v>225</v>
       </c>
       <c r="F135" s="81" t="s">
@@ -27831,10 +27824,10 @@
 )</f>
         <v>51-2-1</v>
       </c>
-      <c r="B136" s="255"/>
-      <c r="C136" s="253"/>
-      <c r="D136" s="254"/>
-      <c r="E136" s="254"/>
+      <c r="B136" s="254"/>
+      <c r="C136" s="252"/>
+      <c r="D136" s="253"/>
+      <c r="E136" s="253"/>
       <c r="F136" s="81" t="s">
         <v>227</v>
       </c>
@@ -27863,12 +27856,12 @@
 )</f>
         <v>52-1-1</v>
       </c>
-      <c r="B137" s="255"/>
-      <c r="C137" s="259"/>
-      <c r="D137" s="254" t="s">
+      <c r="B137" s="254"/>
+      <c r="C137" s="258"/>
+      <c r="D137" s="253" t="s">
         <v>494</v>
       </c>
-      <c r="E137" s="254" t="s">
+      <c r="E137" s="253" t="s">
         <v>497</v>
       </c>
       <c r="F137" s="81" t="s">
@@ -27899,11 +27892,11 @@
 )</f>
         <v>53-1-1</v>
       </c>
-      <c r="B138" s="255"/>
-      <c r="C138" s="253" t="s">
+      <c r="B138" s="254"/>
+      <c r="C138" s="252" t="s">
         <v>229</v>
       </c>
-      <c r="D138" s="255" t="s">
+      <c r="D138" s="254" t="s">
         <v>212</v>
       </c>
       <c r="E138" s="153" t="s">
@@ -27939,9 +27932,9 @@
 )</f>
         <v>54-1-1</v>
       </c>
-      <c r="B139" s="255"/>
-      <c r="C139" s="253"/>
-      <c r="D139" s="255"/>
+      <c r="B139" s="254"/>
+      <c r="C139" s="252"/>
+      <c r="D139" s="254"/>
       <c r="E139" s="153" t="s">
         <v>232</v>
       </c>
@@ -27975,9 +27968,9 @@
 )</f>
         <v>55-1-1</v>
       </c>
-      <c r="B140" s="255"/>
-      <c r="C140" s="253"/>
-      <c r="D140" s="255"/>
+      <c r="B140" s="254"/>
+      <c r="C140" s="252"/>
+      <c r="D140" s="254"/>
       <c r="E140" s="153" t="s">
         <v>234</v>
       </c>
@@ -28011,9 +28004,9 @@
 )</f>
         <v>56-1-1</v>
       </c>
-      <c r="B141" s="255"/>
-      <c r="C141" s="253"/>
-      <c r="D141" s="255"/>
+      <c r="B141" s="254"/>
+      <c r="C141" s="252"/>
+      <c r="D141" s="254"/>
       <c r="E141" s="153" t="s">
         <v>213</v>
       </c>
@@ -28047,9 +28040,9 @@
 )</f>
         <v>57-1-1</v>
       </c>
-      <c r="B142" s="255"/>
-      <c r="C142" s="253"/>
-      <c r="D142" s="255"/>
+      <c r="B142" s="254"/>
+      <c r="C142" s="252"/>
+      <c r="D142" s="254"/>
       <c r="E142" s="153" t="s">
         <v>543</v>
       </c>
@@ -28083,10 +28076,10 @@
 )</f>
         <v>58-1-1</v>
       </c>
-      <c r="B143" s="255"/>
-      <c r="C143" s="253"/>
-      <c r="D143" s="255"/>
-      <c r="E143" s="264" t="s">
+      <c r="B143" s="254"/>
+      <c r="C143" s="252"/>
+      <c r="D143" s="254"/>
+      <c r="E143" s="263" t="s">
         <v>544</v>
       </c>
       <c r="F143" s="113" t="s">
@@ -28119,10 +28112,10 @@
 )</f>
         <v>58-2-1</v>
       </c>
-      <c r="B144" s="255"/>
-      <c r="C144" s="253"/>
-      <c r="D144" s="255"/>
-      <c r="E144" s="264"/>
+      <c r="B144" s="254"/>
+      <c r="C144" s="252"/>
+      <c r="D144" s="254"/>
+      <c r="E144" s="263"/>
       <c r="F144" s="113" t="s">
         <v>241</v>
       </c>
@@ -28153,10 +28146,10 @@
 )</f>
         <v>58-3-1</v>
       </c>
-      <c r="B145" s="255"/>
-      <c r="C145" s="253"/>
-      <c r="D145" s="255"/>
-      <c r="E145" s="264"/>
+      <c r="B145" s="254"/>
+      <c r="C145" s="252"/>
+      <c r="D145" s="254"/>
+      <c r="E145" s="263"/>
       <c r="F145" s="113" t="s">
         <v>242</v>
       </c>
@@ -28187,10 +28180,10 @@
 )</f>
         <v>58-4-1</v>
       </c>
-      <c r="B146" s="255"/>
-      <c r="C146" s="253"/>
-      <c r="D146" s="255"/>
-      <c r="E146" s="264"/>
+      <c r="B146" s="254"/>
+      <c r="C146" s="252"/>
+      <c r="D146" s="254"/>
+      <c r="E146" s="263"/>
       <c r="F146" s="113" t="s">
         <v>243</v>
       </c>
@@ -28221,10 +28214,10 @@
 )</f>
         <v>58-5-1</v>
       </c>
-      <c r="B147" s="255"/>
-      <c r="C147" s="253"/>
-      <c r="D147" s="255"/>
-      <c r="E147" s="264"/>
+      <c r="B147" s="254"/>
+      <c r="C147" s="252"/>
+      <c r="D147" s="254"/>
+      <c r="E147" s="263"/>
       <c r="F147" s="113" t="s">
         <v>244</v>
       </c>
@@ -28255,10 +28248,10 @@
 )</f>
         <v>58-6-1</v>
       </c>
-      <c r="B148" s="255"/>
-      <c r="C148" s="253"/>
-      <c r="D148" s="254"/>
-      <c r="E148" s="241"/>
+      <c r="B148" s="254"/>
+      <c r="C148" s="252"/>
+      <c r="D148" s="253"/>
+      <c r="E148" s="240"/>
       <c r="F148" s="113" t="s">
         <v>245</v>
       </c>
@@ -28289,12 +28282,12 @@
 )</f>
         <v>59-1-1</v>
       </c>
-      <c r="B149" s="255"/>
-      <c r="C149" s="253"/>
-      <c r="D149" s="239" t="s">
+      <c r="B149" s="254"/>
+      <c r="C149" s="252"/>
+      <c r="D149" s="238" t="s">
         <v>246</v>
       </c>
-      <c r="E149" s="238" t="s">
+      <c r="E149" s="237" t="s">
         <v>497</v>
       </c>
       <c r="F149" s="113" t="s">
@@ -28327,10 +28320,10 @@
 )</f>
         <v>59-2-1</v>
       </c>
-      <c r="B150" s="255"/>
-      <c r="C150" s="253"/>
-      <c r="D150" s="239"/>
-      <c r="E150" s="241"/>
+      <c r="B150" s="254"/>
+      <c r="C150" s="252"/>
+      <c r="D150" s="238"/>
+      <c r="E150" s="240"/>
       <c r="F150" s="113" t="s">
         <v>248</v>
       </c>
@@ -28361,10 +28354,10 @@
 )</f>
         <v>60-1-1</v>
       </c>
-      <c r="B151" s="255"/>
-      <c r="C151" s="253"/>
-      <c r="D151" s="239"/>
-      <c r="E151" s="242" t="s">
+      <c r="B151" s="254"/>
+      <c r="C151" s="252"/>
+      <c r="D151" s="238"/>
+      <c r="E151" s="241" t="s">
         <v>125</v>
       </c>
       <c r="F151" s="113" t="s">
@@ -28397,10 +28390,10 @@
 )</f>
         <v>60-2-1</v>
       </c>
-      <c r="B152" s="255"/>
-      <c r="C152" s="253"/>
-      <c r="D152" s="239"/>
-      <c r="E152" s="264"/>
+      <c r="B152" s="254"/>
+      <c r="C152" s="252"/>
+      <c r="D152" s="238"/>
+      <c r="E152" s="263"/>
       <c r="F152" s="113" t="s">
         <v>250</v>
       </c>
@@ -28431,10 +28424,10 @@
 )</f>
         <v>60-3-1</v>
       </c>
-      <c r="B153" s="255"/>
-      <c r="C153" s="253"/>
-      <c r="D153" s="239"/>
-      <c r="E153" s="264"/>
+      <c r="B153" s="254"/>
+      <c r="C153" s="252"/>
+      <c r="D153" s="238"/>
+      <c r="E153" s="263"/>
       <c r="F153" s="113" t="s">
         <v>545</v>
       </c>
@@ -28465,10 +28458,10 @@
 )</f>
         <v>60-4-1</v>
       </c>
-      <c r="B154" s="255"/>
-      <c r="C154" s="253"/>
-      <c r="D154" s="239"/>
-      <c r="E154" s="264"/>
+      <c r="B154" s="254"/>
+      <c r="C154" s="252"/>
+      <c r="D154" s="238"/>
+      <c r="E154" s="263"/>
       <c r="F154" s="113" t="s">
         <v>546</v>
       </c>
@@ -28499,10 +28492,10 @@
 )</f>
         <v>60-5-1</v>
       </c>
-      <c r="B155" s="255"/>
-      <c r="C155" s="253"/>
-      <c r="D155" s="239"/>
-      <c r="E155" s="264"/>
+      <c r="B155" s="254"/>
+      <c r="C155" s="252"/>
+      <c r="D155" s="238"/>
+      <c r="E155" s="263"/>
       <c r="F155" s="113" t="s">
         <v>253</v>
       </c>
@@ -28533,10 +28526,10 @@
 )</f>
         <v>60-6-1</v>
       </c>
-      <c r="B156" s="255"/>
-      <c r="C156" s="253"/>
-      <c r="D156" s="239"/>
-      <c r="E156" s="264"/>
+      <c r="B156" s="254"/>
+      <c r="C156" s="252"/>
+      <c r="D156" s="238"/>
+      <c r="E156" s="263"/>
       <c r="F156" s="113" t="s">
         <v>254</v>
       </c>
@@ -28567,10 +28560,10 @@
 )</f>
         <v>60-7-1</v>
       </c>
-      <c r="B157" s="255"/>
-      <c r="C157" s="253"/>
-      <c r="D157" s="239"/>
-      <c r="E157" s="264"/>
+      <c r="B157" s="254"/>
+      <c r="C157" s="252"/>
+      <c r="D157" s="238"/>
+      <c r="E157" s="263"/>
       <c r="F157" s="113" t="s">
         <v>255</v>
       </c>
@@ -28601,10 +28594,10 @@
 )</f>
         <v>60-8-1</v>
       </c>
-      <c r="B158" s="255"/>
-      <c r="C158" s="253"/>
-      <c r="D158" s="239"/>
-      <c r="E158" s="264"/>
+      <c r="B158" s="254"/>
+      <c r="C158" s="252"/>
+      <c r="D158" s="238"/>
+      <c r="E158" s="263"/>
       <c r="F158" s="113" t="s">
         <v>256</v>
       </c>
@@ -28635,10 +28628,10 @@
 )</f>
         <v>60-9-1</v>
       </c>
-      <c r="B159" s="255"/>
-      <c r="C159" s="253"/>
-      <c r="D159" s="239"/>
-      <c r="E159" s="264"/>
+      <c r="B159" s="254"/>
+      <c r="C159" s="252"/>
+      <c r="D159" s="238"/>
+      <c r="E159" s="263"/>
       <c r="F159" s="113" t="s">
         <v>257</v>
       </c>
@@ -28669,10 +28662,10 @@
 )</f>
         <v>60-10-1</v>
       </c>
-      <c r="B160" s="255"/>
-      <c r="C160" s="253"/>
-      <c r="D160" s="239"/>
-      <c r="E160" s="264"/>
+      <c r="B160" s="254"/>
+      <c r="C160" s="252"/>
+      <c r="D160" s="238"/>
+      <c r="E160" s="263"/>
       <c r="F160" s="113" t="s">
         <v>258</v>
       </c>
@@ -28703,10 +28696,10 @@
 )</f>
         <v>60-11-1</v>
       </c>
-      <c r="B161" s="255"/>
-      <c r="C161" s="253"/>
-      <c r="D161" s="239"/>
-      <c r="E161" s="241"/>
+      <c r="B161" s="254"/>
+      <c r="C161" s="252"/>
+      <c r="D161" s="238"/>
+      <c r="E161" s="240"/>
       <c r="F161" s="113" t="s">
         <v>259</v>
       </c>
@@ -28737,10 +28730,10 @@
 )</f>
         <v>61-1-1</v>
       </c>
-      <c r="B162" s="255"/>
-      <c r="C162" s="253"/>
-      <c r="D162" s="239"/>
-      <c r="E162" s="242" t="s">
+      <c r="B162" s="254"/>
+      <c r="C162" s="252"/>
+      <c r="D162" s="238"/>
+      <c r="E162" s="241" t="s">
         <v>59</v>
       </c>
       <c r="F162" s="113" t="s">
@@ -28773,10 +28766,10 @@
 )</f>
         <v>61-2-1</v>
       </c>
-      <c r="B163" s="255"/>
-      <c r="C163" s="253"/>
-      <c r="D163" s="239"/>
-      <c r="E163" s="242"/>
+      <c r="B163" s="254"/>
+      <c r="C163" s="252"/>
+      <c r="D163" s="238"/>
+      <c r="E163" s="241"/>
       <c r="F163" s="113" t="s">
         <v>261</v>
       </c>
@@ -28807,10 +28800,10 @@
 )</f>
         <v>61-3-1</v>
       </c>
-      <c r="B164" s="255"/>
-      <c r="C164" s="253"/>
-      <c r="D164" s="239"/>
-      <c r="E164" s="242"/>
+      <c r="B164" s="254"/>
+      <c r="C164" s="252"/>
+      <c r="D164" s="238"/>
+      <c r="E164" s="241"/>
       <c r="F164" s="113" t="s">
         <v>262</v>
       </c>
@@ -28841,10 +28834,10 @@
 )</f>
         <v>61-4-1</v>
       </c>
-      <c r="B165" s="255"/>
-      <c r="C165" s="253"/>
-      <c r="D165" s="239"/>
-      <c r="E165" s="242"/>
+      <c r="B165" s="254"/>
+      <c r="C165" s="252"/>
+      <c r="D165" s="238"/>
+      <c r="E165" s="241"/>
       <c r="F165" s="113" t="s">
         <v>263</v>
       </c>
@@ -28875,10 +28868,10 @@
 )</f>
         <v>61-5-1</v>
       </c>
-      <c r="B166" s="255"/>
-      <c r="C166" s="253"/>
-      <c r="D166" s="239"/>
-      <c r="E166" s="242"/>
+      <c r="B166" s="254"/>
+      <c r="C166" s="252"/>
+      <c r="D166" s="238"/>
+      <c r="E166" s="241"/>
       <c r="F166" s="113" t="s">
         <v>264</v>
       </c>
@@ -28909,10 +28902,10 @@
 )</f>
         <v>61-6-1</v>
       </c>
-      <c r="B167" s="255"/>
-      <c r="C167" s="253"/>
-      <c r="D167" s="239"/>
-      <c r="E167" s="242"/>
+      <c r="B167" s="254"/>
+      <c r="C167" s="252"/>
+      <c r="D167" s="238"/>
+      <c r="E167" s="241"/>
       <c r="F167" s="113" t="s">
         <v>265</v>
       </c>
@@ -28943,10 +28936,10 @@
 )</f>
         <v>61-7-1</v>
       </c>
-      <c r="B168" s="254"/>
-      <c r="C168" s="259"/>
-      <c r="D168" s="241"/>
-      <c r="E168" s="243"/>
+      <c r="B168" s="253"/>
+      <c r="C168" s="258"/>
+      <c r="D168" s="240"/>
+      <c r="E168" s="242"/>
       <c r="F168" s="113" t="s">
         <v>266</v>
       </c>
@@ -28977,10 +28970,10 @@
 )</f>
         <v>62-1-1</v>
       </c>
-      <c r="B169" s="256"/>
-      <c r="C169" s="261"/>
-      <c r="D169" s="256"/>
-      <c r="E169" s="261" t="s">
+      <c r="B169" s="255"/>
+      <c r="C169" s="260"/>
+      <c r="D169" s="255"/>
+      <c r="E169" s="260" t="s">
         <v>203</v>
       </c>
       <c r="F169" s="113" t="s">
@@ -29013,10 +29006,10 @@
 )</f>
         <v>62-2-1</v>
       </c>
-      <c r="B170" s="255"/>
-      <c r="C170" s="253"/>
-      <c r="D170" s="255"/>
-      <c r="E170" s="253"/>
+      <c r="B170" s="254"/>
+      <c r="C170" s="252"/>
+      <c r="D170" s="254"/>
+      <c r="E170" s="252"/>
       <c r="F170" s="113" t="s">
         <v>268</v>
       </c>
@@ -29047,10 +29040,10 @@
 )</f>
         <v>62-3-1</v>
       </c>
-      <c r="B171" s="255"/>
-      <c r="C171" s="253"/>
-      <c r="D171" s="255"/>
-      <c r="E171" s="253"/>
+      <c r="B171" s="254"/>
+      <c r="C171" s="252"/>
+      <c r="D171" s="254"/>
+      <c r="E171" s="252"/>
       <c r="F171" s="113" t="s">
         <v>269</v>
       </c>
@@ -29081,10 +29074,10 @@
 )</f>
         <v>62-4-1</v>
       </c>
-      <c r="B172" s="255"/>
-      <c r="C172" s="253"/>
-      <c r="D172" s="255"/>
-      <c r="E172" s="253"/>
+      <c r="B172" s="254"/>
+      <c r="C172" s="252"/>
+      <c r="D172" s="254"/>
+      <c r="E172" s="252"/>
       <c r="F172" s="113" t="s">
         <v>270</v>
       </c>
@@ -29115,10 +29108,10 @@
 )</f>
         <v>62-5-1</v>
       </c>
-      <c r="B173" s="255"/>
-      <c r="C173" s="253"/>
-      <c r="D173" s="255"/>
-      <c r="E173" s="253"/>
+      <c r="B173" s="254"/>
+      <c r="C173" s="252"/>
+      <c r="D173" s="254"/>
+      <c r="E173" s="252"/>
       <c r="F173" s="113" t="s">
         <v>271</v>
       </c>
@@ -29149,10 +29142,10 @@
 )</f>
         <v>62-6-1</v>
       </c>
-      <c r="B174" s="255"/>
-      <c r="C174" s="253"/>
-      <c r="D174" s="255"/>
-      <c r="E174" s="253"/>
+      <c r="B174" s="254"/>
+      <c r="C174" s="252"/>
+      <c r="D174" s="254"/>
+      <c r="E174" s="252"/>
       <c r="F174" s="81" t="s">
         <v>272</v>
       </c>
@@ -29181,10 +29174,10 @@
 )</f>
         <v>62-7-1</v>
       </c>
-      <c r="B175" s="255"/>
-      <c r="C175" s="253"/>
-      <c r="D175" s="255"/>
-      <c r="E175" s="253"/>
+      <c r="B175" s="254"/>
+      <c r="C175" s="252"/>
+      <c r="D175" s="254"/>
+      <c r="E175" s="252"/>
       <c r="F175" s="113" t="s">
         <v>273</v>
       </c>
@@ -29215,10 +29208,10 @@
 )</f>
         <v>62-8-1</v>
       </c>
-      <c r="B176" s="255"/>
-      <c r="C176" s="253"/>
-      <c r="D176" s="255"/>
-      <c r="E176" s="253"/>
+      <c r="B176" s="254"/>
+      <c r="C176" s="252"/>
+      <c r="D176" s="254"/>
+      <c r="E176" s="252"/>
       <c r="F176" s="113" t="s">
         <v>274</v>
       </c>
@@ -29249,10 +29242,10 @@
 )</f>
         <v>62-9-1</v>
       </c>
-      <c r="B177" s="255"/>
-      <c r="C177" s="253"/>
-      <c r="D177" s="255"/>
-      <c r="E177" s="254"/>
+      <c r="B177" s="254"/>
+      <c r="C177" s="252"/>
+      <c r="D177" s="254"/>
+      <c r="E177" s="253"/>
       <c r="F177" s="113" t="s">
         <v>275</v>
       </c>
@@ -29283,10 +29276,10 @@
 )</f>
         <v>63-1-1</v>
       </c>
-      <c r="B178" s="255"/>
-      <c r="C178" s="253"/>
-      <c r="D178" s="255"/>
-      <c r="E178" s="241" t="s">
+      <c r="B178" s="254"/>
+      <c r="C178" s="252"/>
+      <c r="D178" s="254"/>
+      <c r="E178" s="240" t="s">
         <v>237</v>
       </c>
       <c r="F178" s="113" t="s">
@@ -29319,10 +29312,10 @@
 )</f>
         <v>64-1-1</v>
       </c>
-      <c r="B179" s="254"/>
-      <c r="C179" s="259"/>
-      <c r="D179" s="254"/>
-      <c r="E179" s="243" t="s">
+      <c r="B179" s="253"/>
+      <c r="C179" s="258"/>
+      <c r="D179" s="253"/>
+      <c r="E179" s="242" t="s">
         <v>277</v>
       </c>
       <c r="F179" s="113" t="s">
@@ -29355,10 +29348,10 @@
 )</f>
         <v>65-1-1</v>
       </c>
-      <c r="B180" s="238" t="s">
+      <c r="B180" s="237" t="s">
         <v>279</v>
       </c>
-      <c r="C180" s="238" t="s">
+      <c r="C180" s="237" t="s">
         <v>192</v>
       </c>
       <c r="D180" s="153" t="s">
@@ -29397,12 +29390,12 @@
 )</f>
         <v>66-1-1</v>
       </c>
-      <c r="B181" s="239"/>
-      <c r="C181" s="242"/>
+      <c r="B181" s="238"/>
+      <c r="C181" s="241"/>
       <c r="D181" s="153" t="s">
         <v>282</v>
       </c>
-      <c r="E181" s="241" t="s">
+      <c r="E181" s="240" t="s">
         <v>52</v>
       </c>
       <c r="F181" s="113" t="s">
@@ -29435,12 +29428,12 @@
 )</f>
         <v>67-1-1</v>
       </c>
-      <c r="B182" s="241"/>
-      <c r="C182" s="243"/>
-      <c r="D182" s="243" t="s">
+      <c r="B182" s="240"/>
+      <c r="C182" s="242"/>
+      <c r="D182" s="242" t="s">
         <v>547</v>
       </c>
-      <c r="E182" s="243" t="s">
+      <c r="E182" s="242" t="s">
         <v>52</v>
       </c>
       <c r="F182" s="113" t="s">
@@ -29473,13 +29466,13 @@
 )</f>
         <v>68-1-1</v>
       </c>
-      <c r="B183" s="245" t="s">
+      <c r="B183" s="244" t="s">
         <v>286</v>
       </c>
-      <c r="C183" s="245" t="s">
+      <c r="C183" s="244" t="s">
         <v>192</v>
       </c>
-      <c r="D183" s="245" t="s">
+      <c r="D183" s="244" t="s">
         <v>497</v>
       </c>
       <c r="E183" s="156" t="s">
@@ -29515,10 +29508,10 @@
 )</f>
         <v>69-1-1</v>
       </c>
-      <c r="B184" s="246"/>
-      <c r="C184" s="265"/>
-      <c r="D184" s="246"/>
-      <c r="E184" s="247" t="s">
+      <c r="B184" s="245"/>
+      <c r="C184" s="264"/>
+      <c r="D184" s="245"/>
+      <c r="E184" s="246" t="s">
         <v>59</v>
       </c>
       <c r="F184" s="73" t="s">
@@ -29551,10 +29544,10 @@
 )</f>
         <v>69-2-1</v>
       </c>
-      <c r="B185" s="246"/>
-      <c r="C185" s="266"/>
-      <c r="D185" s="246"/>
-      <c r="E185" s="249"/>
+      <c r="B185" s="245"/>
+      <c r="C185" s="265"/>
+      <c r="D185" s="245"/>
+      <c r="E185" s="248"/>
       <c r="F185" s="73" t="s">
         <v>290</v>
       </c>
@@ -29585,10 +29578,10 @@
 )</f>
         <v>70-1-1</v>
       </c>
-      <c r="B186" s="246"/>
-      <c r="C186" s="247"/>
-      <c r="D186" s="246"/>
-      <c r="E186" s="247" t="s">
+      <c r="B186" s="245"/>
+      <c r="C186" s="246"/>
+      <c r="D186" s="245"/>
+      <c r="E186" s="246" t="s">
         <v>291</v>
       </c>
       <c r="F186" s="73" t="s">
@@ -29621,10 +29614,10 @@
 )</f>
         <v>70-2-1</v>
       </c>
-      <c r="B187" s="246"/>
-      <c r="C187" s="247"/>
-      <c r="D187" s="267"/>
-      <c r="E187" s="249"/>
+      <c r="B187" s="245"/>
+      <c r="C187" s="246"/>
+      <c r="D187" s="266"/>
+      <c r="E187" s="248"/>
       <c r="F187" s="73" t="s">
         <v>293</v>
       </c>
@@ -29655,12 +29648,12 @@
 )</f>
         <v>71-1-1</v>
       </c>
-      <c r="B188" s="246"/>
-      <c r="C188" s="249"/>
-      <c r="D188" s="249" t="s">
+      <c r="B188" s="245"/>
+      <c r="C188" s="248"/>
+      <c r="D188" s="248" t="s">
         <v>494</v>
       </c>
-      <c r="E188" s="249" t="s">
+      <c r="E188" s="248" t="s">
         <v>497</v>
       </c>
       <c r="F188" s="73" t="s">
@@ -29693,14 +29686,14 @@
 )</f>
         <v>72-1-1</v>
       </c>
-      <c r="B189" s="246"/>
-      <c r="C189" s="247" t="s">
+      <c r="B189" s="245"/>
+      <c r="C189" s="246" t="s">
         <v>295</v>
       </c>
-      <c r="D189" s="246" t="s">
+      <c r="D189" s="245" t="s">
         <v>548</v>
       </c>
-      <c r="E189" s="247" t="s">
+      <c r="E189" s="246" t="s">
         <v>297</v>
       </c>
       <c r="F189" s="73" t="s">
@@ -29733,10 +29726,10 @@
 )</f>
         <v>72-2-1</v>
       </c>
-      <c r="B190" s="246"/>
-      <c r="C190" s="266"/>
-      <c r="D190" s="246"/>
-      <c r="E190" s="247"/>
+      <c r="B190" s="245"/>
+      <c r="C190" s="265"/>
+      <c r="D190" s="245"/>
+      <c r="E190" s="246"/>
       <c r="F190" s="73" t="s">
         <v>299</v>
       </c>
@@ -29767,10 +29760,10 @@
 )</f>
         <v>72-3-1</v>
       </c>
-      <c r="B191" s="246"/>
-      <c r="C191" s="266"/>
-      <c r="D191" s="246"/>
-      <c r="E191" s="247"/>
+      <c r="B191" s="245"/>
+      <c r="C191" s="265"/>
+      <c r="D191" s="245"/>
+      <c r="E191" s="246"/>
       <c r="F191" s="73" t="s">
         <v>300</v>
       </c>
@@ -29801,10 +29794,10 @@
 )</f>
         <v>72-4-1</v>
       </c>
-      <c r="B192" s="246"/>
-      <c r="C192" s="266"/>
-      <c r="D192" s="246"/>
-      <c r="E192" s="247"/>
+      <c r="B192" s="245"/>
+      <c r="C192" s="265"/>
+      <c r="D192" s="245"/>
+      <c r="E192" s="246"/>
       <c r="F192" s="73" t="s">
         <v>301</v>
       </c>
@@ -29835,10 +29828,10 @@
 )</f>
         <v>72-5-1</v>
       </c>
-      <c r="B193" s="246"/>
-      <c r="C193" s="266"/>
-      <c r="D193" s="246"/>
-      <c r="E193" s="247"/>
+      <c r="B193" s="245"/>
+      <c r="C193" s="265"/>
+      <c r="D193" s="245"/>
+      <c r="E193" s="246"/>
       <c r="F193" s="73" t="s">
         <v>302</v>
       </c>
@@ -29869,10 +29862,10 @@
 )</f>
         <v>72-6-1</v>
       </c>
-      <c r="B194" s="246"/>
-      <c r="C194" s="266"/>
-      <c r="D194" s="246"/>
-      <c r="E194" s="247"/>
+      <c r="B194" s="245"/>
+      <c r="C194" s="265"/>
+      <c r="D194" s="245"/>
+      <c r="E194" s="246"/>
       <c r="F194" s="73" t="s">
         <v>303</v>
       </c>
@@ -29903,10 +29896,10 @@
 )</f>
         <v>72-7-1</v>
       </c>
-      <c r="B195" s="246"/>
-      <c r="C195" s="266"/>
-      <c r="D195" s="246"/>
-      <c r="E195" s="249"/>
+      <c r="B195" s="245"/>
+      <c r="C195" s="265"/>
+      <c r="D195" s="245"/>
+      <c r="E195" s="248"/>
       <c r="F195" s="73" t="s">
         <v>304</v>
       </c>
@@ -29937,9 +29930,9 @@
 )</f>
         <v>73-1-1</v>
       </c>
-      <c r="B196" s="246"/>
-      <c r="C196" s="265"/>
-      <c r="D196" s="249"/>
+      <c r="B196" s="245"/>
+      <c r="C196" s="264"/>
+      <c r="D196" s="248"/>
       <c r="E196" s="156" t="s">
         <v>305</v>
       </c>
@@ -29973,12 +29966,12 @@
 )</f>
         <v>74-1-1</v>
       </c>
-      <c r="B197" s="246"/>
-      <c r="C197" s="265"/>
-      <c r="D197" s="246" t="s">
+      <c r="B197" s="245"/>
+      <c r="C197" s="264"/>
+      <c r="D197" s="245" t="s">
         <v>307</v>
       </c>
-      <c r="E197" s="247" t="s">
+      <c r="E197" s="246" t="s">
         <v>125</v>
       </c>
       <c r="F197" s="73" t="s">
@@ -30011,10 +30004,10 @@
 )</f>
         <v>74-2-1</v>
       </c>
-      <c r="B198" s="246"/>
-      <c r="C198" s="265"/>
-      <c r="D198" s="246"/>
-      <c r="E198" s="247"/>
+      <c r="B198" s="245"/>
+      <c r="C198" s="264"/>
+      <c r="D198" s="245"/>
+      <c r="E198" s="246"/>
       <c r="F198" s="73" t="s">
         <v>309</v>
       </c>
@@ -30045,10 +30038,10 @@
 )</f>
         <v>74-3-1</v>
       </c>
-      <c r="B199" s="246"/>
-      <c r="C199" s="265"/>
-      <c r="D199" s="246"/>
-      <c r="E199" s="247"/>
+      <c r="B199" s="245"/>
+      <c r="C199" s="264"/>
+      <c r="D199" s="245"/>
+      <c r="E199" s="246"/>
       <c r="F199" s="73" t="s">
         <v>310</v>
       </c>
@@ -30079,10 +30072,10 @@
 )</f>
         <v>74-4-1</v>
       </c>
-      <c r="B200" s="246"/>
-      <c r="C200" s="265"/>
-      <c r="D200" s="246"/>
-      <c r="E200" s="247"/>
+      <c r="B200" s="245"/>
+      <c r="C200" s="264"/>
+      <c r="D200" s="245"/>
+      <c r="E200" s="246"/>
       <c r="F200" s="73" t="s">
         <v>311</v>
       </c>
@@ -30113,10 +30106,10 @@
 )</f>
         <v>74-5-1</v>
       </c>
-      <c r="B201" s="246"/>
-      <c r="C201" s="265"/>
-      <c r="D201" s="246"/>
-      <c r="E201" s="247"/>
+      <c r="B201" s="245"/>
+      <c r="C201" s="264"/>
+      <c r="D201" s="245"/>
+      <c r="E201" s="246"/>
       <c r="F201" s="73" t="s">
         <v>312</v>
       </c>
@@ -30147,10 +30140,10 @@
 )</f>
         <v>74-6-1</v>
       </c>
-      <c r="B202" s="246"/>
-      <c r="C202" s="265"/>
-      <c r="D202" s="246"/>
-      <c r="E202" s="247"/>
+      <c r="B202" s="245"/>
+      <c r="C202" s="264"/>
+      <c r="D202" s="245"/>
+      <c r="E202" s="246"/>
       <c r="F202" s="73" t="s">
         <v>313</v>
       </c>
@@ -30181,10 +30174,10 @@
 )</f>
         <v>74-7-1</v>
       </c>
-      <c r="B203" s="246"/>
-      <c r="C203" s="265"/>
-      <c r="D203" s="246"/>
-      <c r="E203" s="247"/>
+      <c r="B203" s="245"/>
+      <c r="C203" s="264"/>
+      <c r="D203" s="245"/>
+      <c r="E203" s="246"/>
       <c r="F203" s="73" t="s">
         <v>550</v>
       </c>
@@ -30215,10 +30208,10 @@
 )</f>
         <v>74-8-1</v>
       </c>
-      <c r="B204" s="246"/>
-      <c r="C204" s="265"/>
-      <c r="D204" s="246"/>
-      <c r="E204" s="247"/>
+      <c r="B204" s="245"/>
+      <c r="C204" s="264"/>
+      <c r="D204" s="245"/>
+      <c r="E204" s="246"/>
       <c r="F204" s="73" t="s">
         <v>315</v>
       </c>
@@ -30249,10 +30242,10 @@
 )</f>
         <v>74-9-1</v>
       </c>
-      <c r="B205" s="246"/>
-      <c r="C205" s="265"/>
-      <c r="D205" s="246"/>
-      <c r="E205" s="247"/>
+      <c r="B205" s="245"/>
+      <c r="C205" s="264"/>
+      <c r="D205" s="245"/>
+      <c r="E205" s="246"/>
       <c r="F205" s="73" t="s">
         <v>316</v>
       </c>
@@ -30283,10 +30276,10 @@
 )</f>
         <v>74-10-1</v>
       </c>
-      <c r="B206" s="246"/>
-      <c r="C206" s="265"/>
-      <c r="D206" s="246"/>
-      <c r="E206" s="247"/>
+      <c r="B206" s="245"/>
+      <c r="C206" s="264"/>
+      <c r="D206" s="245"/>
+      <c r="E206" s="246"/>
       <c r="F206" s="73" t="s">
         <v>317</v>
       </c>
@@ -30317,10 +30310,10 @@
 )</f>
         <v>74-11-1</v>
       </c>
-      <c r="B207" s="246"/>
-      <c r="C207" s="265"/>
-      <c r="D207" s="246"/>
-      <c r="E207" s="247"/>
+      <c r="B207" s="245"/>
+      <c r="C207" s="264"/>
+      <c r="D207" s="245"/>
+      <c r="E207" s="246"/>
       <c r="F207" s="73" t="s">
         <v>318</v>
       </c>
@@ -30351,10 +30344,10 @@
 )</f>
         <v>74-12-1</v>
       </c>
-      <c r="B208" s="246"/>
-      <c r="C208" s="265"/>
-      <c r="D208" s="246"/>
-      <c r="E208" s="247"/>
+      <c r="B208" s="245"/>
+      <c r="C208" s="264"/>
+      <c r="D208" s="245"/>
+      <c r="E208" s="246"/>
       <c r="F208" s="73" t="s">
         <v>319</v>
       </c>
@@ -30385,10 +30378,10 @@
 )</f>
         <v>74-13-1</v>
       </c>
-      <c r="B209" s="246"/>
-      <c r="C209" s="265"/>
-      <c r="D209" s="249"/>
-      <c r="E209" s="248"/>
+      <c r="B209" s="245"/>
+      <c r="C209" s="264"/>
+      <c r="D209" s="248"/>
+      <c r="E209" s="247"/>
       <c r="F209" s="73" t="s">
         <v>320</v>
       </c>
@@ -30419,12 +30412,12 @@
 )</f>
         <v>75-1-1</v>
       </c>
-      <c r="B210" s="246"/>
-      <c r="C210" s="265"/>
-      <c r="D210" s="245" t="s">
+      <c r="B210" s="245"/>
+      <c r="C210" s="264"/>
+      <c r="D210" s="244" t="s">
         <v>551</v>
       </c>
-      <c r="E210" s="244" t="s">
+      <c r="E210" s="243" t="s">
         <v>125</v>
       </c>
       <c r="F210" s="73" t="s">
@@ -30457,10 +30450,10 @@
 )</f>
         <v>75-2-1</v>
       </c>
-      <c r="B211" s="246"/>
-      <c r="C211" s="265"/>
-      <c r="D211" s="246"/>
-      <c r="E211" s="247"/>
+      <c r="B211" s="245"/>
+      <c r="C211" s="264"/>
+      <c r="D211" s="245"/>
+      <c r="E211" s="246"/>
       <c r="F211" s="73" t="s">
         <v>323</v>
       </c>
@@ -30491,10 +30484,10 @@
 )</f>
         <v>75-3-1</v>
       </c>
-      <c r="B212" s="246"/>
-      <c r="C212" s="265"/>
-      <c r="D212" s="246"/>
-      <c r="E212" s="247"/>
+      <c r="B212" s="245"/>
+      <c r="C212" s="264"/>
+      <c r="D212" s="245"/>
+      <c r="E212" s="246"/>
       <c r="F212" s="73" t="s">
         <v>324</v>
       </c>
@@ -30525,10 +30518,10 @@
 )</f>
         <v>75-4-1</v>
       </c>
-      <c r="B213" s="246"/>
-      <c r="C213" s="265"/>
-      <c r="D213" s="246"/>
-      <c r="E213" s="247"/>
+      <c r="B213" s="245"/>
+      <c r="C213" s="264"/>
+      <c r="D213" s="245"/>
+      <c r="E213" s="246"/>
       <c r="F213" s="73" t="s">
         <v>310</v>
       </c>
@@ -30559,10 +30552,10 @@
 )</f>
         <v>75-5-1</v>
       </c>
-      <c r="B214" s="246"/>
-      <c r="C214" s="265"/>
-      <c r="D214" s="246"/>
-      <c r="E214" s="247"/>
+      <c r="B214" s="245"/>
+      <c r="C214" s="264"/>
+      <c r="D214" s="245"/>
+      <c r="E214" s="246"/>
       <c r="F214" s="73" t="s">
         <v>311</v>
       </c>
@@ -30593,10 +30586,10 @@
 )</f>
         <v>75-6-1</v>
       </c>
-      <c r="B215" s="246"/>
-      <c r="C215" s="265"/>
-      <c r="D215" s="246"/>
-      <c r="E215" s="247"/>
+      <c r="B215" s="245"/>
+      <c r="C215" s="264"/>
+      <c r="D215" s="245"/>
+      <c r="E215" s="246"/>
       <c r="F215" s="73" t="s">
         <v>325</v>
       </c>
@@ -30627,10 +30620,10 @@
 )</f>
         <v>75-7-1</v>
       </c>
-      <c r="B216" s="246"/>
-      <c r="C216" s="265"/>
-      <c r="D216" s="246"/>
-      <c r="E216" s="247"/>
+      <c r="B216" s="245"/>
+      <c r="C216" s="264"/>
+      <c r="D216" s="245"/>
+      <c r="E216" s="246"/>
       <c r="F216" s="73" t="s">
         <v>326</v>
       </c>
@@ -30661,10 +30654,10 @@
 )</f>
         <v>75-8-1</v>
       </c>
-      <c r="B217" s="246"/>
-      <c r="C217" s="265"/>
-      <c r="D217" s="246"/>
-      <c r="E217" s="247"/>
+      <c r="B217" s="245"/>
+      <c r="C217" s="264"/>
+      <c r="D217" s="245"/>
+      <c r="E217" s="246"/>
       <c r="F217" s="73" t="s">
         <v>552</v>
       </c>
@@ -30695,10 +30688,10 @@
 )</f>
         <v>75-9-1</v>
       </c>
-      <c r="B218" s="246"/>
-      <c r="C218" s="265"/>
-      <c r="D218" s="246"/>
-      <c r="E218" s="247"/>
+      <c r="B218" s="245"/>
+      <c r="C218" s="264"/>
+      <c r="D218" s="245"/>
+      <c r="E218" s="246"/>
       <c r="F218" s="73" t="s">
         <v>553</v>
       </c>
@@ -30729,10 +30722,10 @@
 )</f>
         <v>75-10-1</v>
       </c>
-      <c r="B219" s="246"/>
-      <c r="C219" s="265"/>
-      <c r="D219" s="246"/>
-      <c r="E219" s="247"/>
+      <c r="B219" s="245"/>
+      <c r="C219" s="264"/>
+      <c r="D219" s="245"/>
+      <c r="E219" s="246"/>
       <c r="F219" s="73" t="s">
         <v>328</v>
       </c>
@@ -30763,10 +30756,10 @@
 )</f>
         <v>75-11-1</v>
       </c>
-      <c r="B220" s="246"/>
-      <c r="C220" s="265"/>
-      <c r="D220" s="246"/>
-      <c r="E220" s="247"/>
+      <c r="B220" s="245"/>
+      <c r="C220" s="264"/>
+      <c r="D220" s="245"/>
+      <c r="E220" s="246"/>
       <c r="F220" s="73" t="s">
         <v>329</v>
       </c>
@@ -30797,10 +30790,10 @@
 )</f>
         <v>75-12-1</v>
       </c>
-      <c r="B221" s="246"/>
-      <c r="C221" s="265"/>
-      <c r="D221" s="246"/>
-      <c r="E221" s="247"/>
+      <c r="B221" s="245"/>
+      <c r="C221" s="264"/>
+      <c r="D221" s="245"/>
+      <c r="E221" s="246"/>
       <c r="F221" s="73" t="s">
         <v>330</v>
       </c>
@@ -30831,10 +30824,10 @@
 )</f>
         <v>75-13-1</v>
       </c>
-      <c r="B222" s="246"/>
-      <c r="C222" s="265"/>
-      <c r="D222" s="246"/>
-      <c r="E222" s="247"/>
+      <c r="B222" s="245"/>
+      <c r="C222" s="264"/>
+      <c r="D222" s="245"/>
+      <c r="E222" s="246"/>
       <c r="F222" s="73" t="s">
         <v>331</v>
       </c>
@@ -30865,10 +30858,10 @@
 )</f>
         <v>75-14-1</v>
       </c>
-      <c r="B223" s="246"/>
-      <c r="C223" s="265"/>
-      <c r="D223" s="246"/>
-      <c r="E223" s="247"/>
+      <c r="B223" s="245"/>
+      <c r="C223" s="264"/>
+      <c r="D223" s="245"/>
+      <c r="E223" s="246"/>
       <c r="F223" s="73" t="s">
         <v>332</v>
       </c>
@@ -30899,10 +30892,10 @@
 )</f>
         <v>75-15-1</v>
       </c>
-      <c r="B224" s="246"/>
-      <c r="C224" s="265"/>
-      <c r="D224" s="246"/>
-      <c r="E224" s="249"/>
+      <c r="B224" s="245"/>
+      <c r="C224" s="264"/>
+      <c r="D224" s="245"/>
+      <c r="E224" s="248"/>
       <c r="F224" s="73" t="s">
         <v>320</v>
       </c>
@@ -30933,10 +30926,10 @@
 )</f>
         <v>76-1-1</v>
       </c>
-      <c r="B225" s="246"/>
-      <c r="C225" s="265"/>
-      <c r="D225" s="246"/>
-      <c r="E225" s="247" t="s">
+      <c r="B225" s="245"/>
+      <c r="C225" s="264"/>
+      <c r="D225" s="245"/>
+      <c r="E225" s="246" t="s">
         <v>333</v>
       </c>
       <c r="F225" s="73" t="s">
@@ -30969,10 +30962,10 @@
 )</f>
         <v>76-2-1</v>
       </c>
-      <c r="B226" s="246"/>
-      <c r="C226" s="265"/>
-      <c r="D226" s="246"/>
-      <c r="E226" s="247"/>
+      <c r="B226" s="245"/>
+      <c r="C226" s="264"/>
+      <c r="D226" s="245"/>
+      <c r="E226" s="246"/>
       <c r="F226" s="73" t="s">
         <v>335</v>
       </c>
@@ -31003,10 +30996,10 @@
 )</f>
         <v>76-3-1</v>
       </c>
-      <c r="B227" s="246"/>
-      <c r="C227" s="265"/>
-      <c r="D227" s="246"/>
-      <c r="E227" s="249"/>
+      <c r="B227" s="245"/>
+      <c r="C227" s="264"/>
+      <c r="D227" s="245"/>
+      <c r="E227" s="248"/>
       <c r="F227" s="73" t="s">
         <v>336</v>
       </c>
@@ -31037,9 +31030,9 @@
 )</f>
         <v>77-1-1</v>
       </c>
-      <c r="B228" s="246"/>
-      <c r="C228" s="265"/>
-      <c r="D228" s="246"/>
+      <c r="B228" s="245"/>
+      <c r="C228" s="264"/>
+      <c r="D228" s="245"/>
       <c r="E228" s="156" t="s">
         <v>150</v>
       </c>
@@ -31073,10 +31066,10 @@
 )</f>
         <v>78-1-1</v>
       </c>
-      <c r="B229" s="249"/>
-      <c r="C229" s="249"/>
-      <c r="D229" s="249"/>
-      <c r="E229" s="268" t="s">
+      <c r="B229" s="248"/>
+      <c r="C229" s="248"/>
+      <c r="D229" s="248"/>
+      <c r="E229" s="267" t="s">
         <v>338</v>
       </c>
       <c r="F229" s="73" t="s">
@@ -31109,13 +31102,13 @@
 )</f>
         <v>79-1-1</v>
       </c>
-      <c r="B230" s="245" t="s">
+      <c r="B230" s="244" t="s">
         <v>340</v>
       </c>
-      <c r="C230" s="245" t="s">
+      <c r="C230" s="244" t="s">
         <v>192</v>
       </c>
-      <c r="D230" s="245" t="s">
+      <c r="D230" s="244" t="s">
         <v>497</v>
       </c>
       <c r="E230" s="156" t="s">
@@ -31151,10 +31144,10 @@
 )</f>
         <v>80-1-1</v>
       </c>
-      <c r="B231" s="246"/>
-      <c r="C231" s="246"/>
-      <c r="D231" s="246"/>
-      <c r="E231" s="247" t="s">
+      <c r="B231" s="245"/>
+      <c r="C231" s="245"/>
+      <c r="D231" s="245"/>
+      <c r="E231" s="246" t="s">
         <v>136</v>
       </c>
       <c r="F231" s="73" t="s">
@@ -31187,10 +31180,10 @@
 )</f>
         <v>80-2-1</v>
       </c>
-      <c r="B232" s="246"/>
-      <c r="C232" s="246"/>
-      <c r="D232" s="246"/>
-      <c r="E232" s="247"/>
+      <c r="B232" s="245"/>
+      <c r="C232" s="245"/>
+      <c r="D232" s="245"/>
+      <c r="E232" s="246"/>
       <c r="F232" s="73" t="s">
         <v>343</v>
       </c>
@@ -31221,10 +31214,10 @@
 )</f>
         <v>80-3-1</v>
       </c>
-      <c r="B233" s="246"/>
-      <c r="C233" s="246"/>
-      <c r="D233" s="246"/>
-      <c r="E233" s="247"/>
+      <c r="B233" s="245"/>
+      <c r="C233" s="245"/>
+      <c r="D233" s="245"/>
+      <c r="E233" s="246"/>
       <c r="F233" s="73" t="s">
         <v>344</v>
       </c>
@@ -31255,10 +31248,10 @@
 )</f>
         <v>80-4-1</v>
       </c>
-      <c r="B234" s="246"/>
-      <c r="C234" s="246"/>
-      <c r="D234" s="246"/>
-      <c r="E234" s="247"/>
+      <c r="B234" s="245"/>
+      <c r="C234" s="245"/>
+      <c r="D234" s="245"/>
+      <c r="E234" s="246"/>
       <c r="F234" s="73" t="s">
         <v>345</v>
       </c>
@@ -31289,10 +31282,10 @@
 )</f>
         <v>80-5-1</v>
       </c>
-      <c r="B235" s="246"/>
-      <c r="C235" s="246"/>
-      <c r="D235" s="246"/>
-      <c r="E235" s="249"/>
+      <c r="B235" s="245"/>
+      <c r="C235" s="245"/>
+      <c r="D235" s="245"/>
+      <c r="E235" s="248"/>
       <c r="F235" s="73" t="s">
         <v>346</v>
       </c>
@@ -31323,10 +31316,10 @@
 )</f>
         <v>81-1-1</v>
       </c>
-      <c r="B236" s="246"/>
-      <c r="C236" s="246"/>
-      <c r="D236" s="246"/>
-      <c r="E236" s="247" t="s">
+      <c r="B236" s="245"/>
+      <c r="C236" s="245"/>
+      <c r="D236" s="245"/>
+      <c r="E236" s="246" t="s">
         <v>203</v>
       </c>
       <c r="F236" s="73" t="s">
@@ -31359,10 +31352,10 @@
 )</f>
         <v>81-2-1</v>
       </c>
-      <c r="B237" s="246"/>
-      <c r="C237" s="246"/>
-      <c r="D237" s="246"/>
-      <c r="E237" s="247"/>
+      <c r="B237" s="245"/>
+      <c r="C237" s="245"/>
+      <c r="D237" s="245"/>
+      <c r="E237" s="246"/>
       <c r="F237" s="73" t="s">
         <v>348</v>
       </c>
@@ -31393,10 +31386,10 @@
 )</f>
         <v>81-3-1</v>
       </c>
-      <c r="B238" s="246"/>
-      <c r="C238" s="246"/>
-      <c r="D238" s="246"/>
-      <c r="E238" s="247"/>
+      <c r="B238" s="245"/>
+      <c r="C238" s="245"/>
+      <c r="D238" s="245"/>
+      <c r="E238" s="246"/>
       <c r="F238" s="73" t="s">
         <v>349</v>
       </c>
@@ -31427,10 +31420,10 @@
 )</f>
         <v>81-4-1</v>
       </c>
-      <c r="B239" s="246"/>
-      <c r="C239" s="246"/>
-      <c r="D239" s="246"/>
-      <c r="E239" s="247"/>
+      <c r="B239" s="245"/>
+      <c r="C239" s="245"/>
+      <c r="D239" s="245"/>
+      <c r="E239" s="246"/>
       <c r="F239" s="73" t="s">
         <v>350</v>
       </c>
@@ -31461,10 +31454,10 @@
 )</f>
         <v>81-5-1</v>
       </c>
-      <c r="B240" s="246"/>
-      <c r="C240" s="246"/>
-      <c r="D240" s="246"/>
-      <c r="E240" s="249"/>
+      <c r="B240" s="245"/>
+      <c r="C240" s="245"/>
+      <c r="D240" s="245"/>
+      <c r="E240" s="248"/>
       <c r="F240" s="73" t="s">
         <v>351</v>
       </c>
@@ -31495,10 +31488,10 @@
 )</f>
         <v>82-1-1</v>
       </c>
-      <c r="B241" s="246"/>
-      <c r="C241" s="249"/>
-      <c r="D241" s="249"/>
-      <c r="E241" s="249" t="s">
+      <c r="B241" s="245"/>
+      <c r="C241" s="248"/>
+      <c r="D241" s="248"/>
+      <c r="E241" s="248" t="s">
         <v>541</v>
       </c>
       <c r="F241" s="73" t="s">
@@ -31531,14 +31524,14 @@
 )</f>
         <v>83-1-1</v>
       </c>
-      <c r="B242" s="249"/>
-      <c r="C242" s="249" t="s">
+      <c r="B242" s="248"/>
+      <c r="C242" s="248" t="s">
         <v>526</v>
       </c>
-      <c r="D242" s="249" t="s">
+      <c r="D242" s="248" t="s">
         <v>212</v>
       </c>
-      <c r="E242" s="248" t="s">
+      <c r="E242" s="247" t="s">
         <v>213</v>
       </c>
       <c r="F242" s="73" t="s">
@@ -31571,16 +31564,16 @@
 )</f>
         <v>84-1-1</v>
       </c>
-      <c r="B243" s="245" t="s">
+      <c r="B243" s="244" t="s">
         <v>354</v>
       </c>
-      <c r="C243" s="245" t="s">
+      <c r="C243" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="D243" s="245" t="s">
+      <c r="D243" s="244" t="s">
         <v>497</v>
       </c>
-      <c r="E243" s="244" t="s">
+      <c r="E243" s="243" t="s">
         <v>497</v>
       </c>
       <c r="F243" s="73" t="s">
@@ -31613,10 +31606,10 @@
 )</f>
         <v>84-2-1</v>
       </c>
-      <c r="B244" s="246"/>
-      <c r="C244" s="246"/>
-      <c r="D244" s="249"/>
-      <c r="E244" s="249"/>
+      <c r="B244" s="245"/>
+      <c r="C244" s="245"/>
+      <c r="D244" s="248"/>
+      <c r="E244" s="248"/>
       <c r="F244" s="73" t="s">
         <v>357</v>
       </c>
@@ -31647,12 +31640,12 @@
 )</f>
         <v>85-1-1</v>
       </c>
-      <c r="B245" s="246"/>
-      <c r="C245" s="246"/>
-      <c r="D245" s="246" t="s">
+      <c r="B245" s="245"/>
+      <c r="C245" s="245"/>
+      <c r="D245" s="245" t="s">
         <v>494</v>
       </c>
-      <c r="E245" s="247" t="s">
+      <c r="E245" s="246" t="s">
         <v>497</v>
       </c>
       <c r="F245" s="73" t="s">
@@ -31685,10 +31678,10 @@
 )</f>
         <v>85-2-1</v>
       </c>
-      <c r="B246" s="246"/>
-      <c r="C246" s="249"/>
-      <c r="D246" s="249"/>
-      <c r="E246" s="249"/>
+      <c r="B246" s="245"/>
+      <c r="C246" s="248"/>
+      <c r="D246" s="248"/>
+      <c r="E246" s="248"/>
       <c r="F246" s="73" t="s">
         <v>359</v>
       </c>
@@ -31719,14 +31712,14 @@
 )</f>
         <v>86-1-1</v>
       </c>
-      <c r="B247" s="246"/>
-      <c r="C247" s="247" t="s">
+      <c r="B247" s="245"/>
+      <c r="C247" s="246" t="s">
         <v>360</v>
       </c>
-      <c r="D247" s="246" t="s">
+      <c r="D247" s="245" t="s">
         <v>212</v>
       </c>
-      <c r="E247" s="249" t="s">
+      <c r="E247" s="248" t="s">
         <v>230</v>
       </c>
       <c r="F247" s="73" t="s">
@@ -31759,10 +31752,10 @@
 )</f>
         <v>87-1-1</v>
       </c>
-      <c r="B248" s="246"/>
-      <c r="C248" s="247"/>
-      <c r="D248" s="246"/>
-      <c r="E248" s="249" t="s">
+      <c r="B248" s="245"/>
+      <c r="C248" s="246"/>
+      <c r="D248" s="245"/>
+      <c r="E248" s="248" t="s">
         <v>234</v>
       </c>
       <c r="F248" s="73" t="s">
@@ -31795,10 +31788,10 @@
 )</f>
         <v>88-1-1</v>
       </c>
-      <c r="B249" s="246"/>
-      <c r="C249" s="265"/>
-      <c r="D249" s="247"/>
-      <c r="E249" s="249" t="s">
+      <c r="B249" s="245"/>
+      <c r="C249" s="264"/>
+      <c r="D249" s="246"/>
+      <c r="E249" s="248" t="s">
         <v>213</v>
       </c>
       <c r="F249" s="73" t="s">
@@ -31831,10 +31824,10 @@
 )</f>
         <v>89-1-1</v>
       </c>
-      <c r="B250" s="246"/>
-      <c r="C250" s="247"/>
-      <c r="D250" s="249"/>
-      <c r="E250" s="249" t="s">
+      <c r="B250" s="245"/>
+      <c r="C250" s="246"/>
+      <c r="D250" s="248"/>
+      <c r="E250" s="248" t="s">
         <v>237</v>
       </c>
       <c r="F250" s="73" t="s">
@@ -31867,12 +31860,12 @@
 )</f>
         <v>90-1-1</v>
       </c>
-      <c r="B251" s="246"/>
-      <c r="C251" s="265"/>
-      <c r="D251" s="246" t="s">
+      <c r="B251" s="245"/>
+      <c r="C251" s="264"/>
+      <c r="D251" s="245" t="s">
         <v>246</v>
       </c>
-      <c r="E251" s="269" t="s">
+      <c r="E251" s="268" t="s">
         <v>497</v>
       </c>
       <c r="F251" s="73" t="s">
@@ -31905,10 +31898,10 @@
 )</f>
         <v>90-2-1</v>
       </c>
-      <c r="B252" s="246"/>
-      <c r="C252" s="265"/>
-      <c r="D252" s="247"/>
-      <c r="E252" s="249"/>
+      <c r="B252" s="245"/>
+      <c r="C252" s="264"/>
+      <c r="D252" s="246"/>
+      <c r="E252" s="248"/>
       <c r="F252" s="73" t="s">
         <v>366</v>
       </c>
@@ -31939,10 +31932,10 @@
 )</f>
         <v>91-1-1</v>
       </c>
-      <c r="B253" s="246"/>
-      <c r="C253" s="265"/>
-      <c r="D253" s="247"/>
-      <c r="E253" s="247" t="s">
+      <c r="B253" s="245"/>
+      <c r="C253" s="264"/>
+      <c r="D253" s="246"/>
+      <c r="E253" s="246" t="s">
         <v>125</v>
       </c>
       <c r="F253" s="73" t="s">
@@ -31975,10 +31968,10 @@
 )</f>
         <v>91-2-1</v>
       </c>
-      <c r="B254" s="246"/>
-      <c r="C254" s="265"/>
-      <c r="D254" s="247"/>
-      <c r="E254" s="247"/>
+      <c r="B254" s="245"/>
+      <c r="C254" s="264"/>
+      <c r="D254" s="246"/>
+      <c r="E254" s="246"/>
       <c r="F254" s="73" t="s">
         <v>368</v>
       </c>
@@ -32009,10 +32002,10 @@
 )</f>
         <v>91-3-1</v>
       </c>
-      <c r="B255" s="246"/>
-      <c r="C255" s="265"/>
-      <c r="D255" s="247"/>
-      <c r="E255" s="247"/>
+      <c r="B255" s="245"/>
+      <c r="C255" s="264"/>
+      <c r="D255" s="246"/>
+      <c r="E255" s="246"/>
       <c r="F255" s="73" t="s">
         <v>555</v>
       </c>
@@ -32043,10 +32036,10 @@
 )</f>
         <v>91-4-1</v>
       </c>
-      <c r="B256" s="246"/>
-      <c r="C256" s="265"/>
-      <c r="D256" s="247"/>
-      <c r="E256" s="247"/>
+      <c r="B256" s="245"/>
+      <c r="C256" s="264"/>
+      <c r="D256" s="246"/>
+      <c r="E256" s="246"/>
       <c r="F256" s="73" t="s">
         <v>370</v>
       </c>
@@ -32077,10 +32070,10 @@
 )</f>
         <v>91-5-1</v>
       </c>
-      <c r="B257" s="246"/>
-      <c r="C257" s="246"/>
-      <c r="D257" s="246"/>
-      <c r="E257" s="269"/>
+      <c r="B257" s="245"/>
+      <c r="C257" s="245"/>
+      <c r="D257" s="245"/>
+      <c r="E257" s="268"/>
       <c r="F257" s="73" t="s">
         <v>371</v>
       </c>
@@ -32111,10 +32104,10 @@
 )</f>
         <v>91-6-1</v>
       </c>
-      <c r="B258" s="246"/>
-      <c r="C258" s="246"/>
-      <c r="D258" s="246"/>
-      <c r="E258" s="269"/>
+      <c r="B258" s="245"/>
+      <c r="C258" s="245"/>
+      <c r="D258" s="245"/>
+      <c r="E258" s="268"/>
       <c r="F258" s="73" t="s">
         <v>372</v>
       </c>
@@ -32145,10 +32138,10 @@
 )</f>
         <v>91-7-1</v>
       </c>
-      <c r="B259" s="246"/>
-      <c r="C259" s="246"/>
-      <c r="D259" s="246"/>
-      <c r="E259" s="269"/>
+      <c r="B259" s="245"/>
+      <c r="C259" s="245"/>
+      <c r="D259" s="245"/>
+      <c r="E259" s="268"/>
       <c r="F259" s="73" t="s">
         <v>373</v>
       </c>
@@ -32179,10 +32172,10 @@
 )</f>
         <v>91-8-1</v>
       </c>
-      <c r="B260" s="246"/>
-      <c r="C260" s="246"/>
-      <c r="D260" s="246"/>
-      <c r="E260" s="269"/>
+      <c r="B260" s="245"/>
+      <c r="C260" s="245"/>
+      <c r="D260" s="245"/>
+      <c r="E260" s="268"/>
       <c r="F260" s="73" t="s">
         <v>374</v>
       </c>
@@ -32213,10 +32206,10 @@
 )</f>
         <v>91-9-1</v>
       </c>
-      <c r="B261" s="246"/>
-      <c r="C261" s="246"/>
-      <c r="D261" s="246"/>
-      <c r="E261" s="269"/>
+      <c r="B261" s="245"/>
+      <c r="C261" s="245"/>
+      <c r="D261" s="245"/>
+      <c r="E261" s="268"/>
       <c r="F261" s="73" t="s">
         <v>375</v>
       </c>
@@ -32247,10 +32240,10 @@
 )</f>
         <v>91-10-1</v>
       </c>
-      <c r="B262" s="246"/>
-      <c r="C262" s="246"/>
-      <c r="D262" s="246"/>
-      <c r="E262" s="247"/>
+      <c r="B262" s="245"/>
+      <c r="C262" s="245"/>
+      <c r="D262" s="245"/>
+      <c r="E262" s="246"/>
       <c r="F262" s="73" t="s">
         <v>376</v>
       </c>
@@ -32281,10 +32274,10 @@
 )</f>
         <v>91-11-1</v>
       </c>
-      <c r="B263" s="246"/>
-      <c r="C263" s="246"/>
-      <c r="D263" s="246"/>
-      <c r="E263" s="249"/>
+      <c r="B263" s="245"/>
+      <c r="C263" s="245"/>
+      <c r="D263" s="245"/>
+      <c r="E263" s="248"/>
       <c r="F263" s="73" t="s">
         <v>377</v>
       </c>
@@ -32315,10 +32308,10 @@
 )</f>
         <v>92-1-1</v>
       </c>
-      <c r="B264" s="246"/>
-      <c r="C264" s="246"/>
-      <c r="D264" s="246"/>
-      <c r="E264" s="247" t="s">
+      <c r="B264" s="245"/>
+      <c r="C264" s="245"/>
+      <c r="D264" s="245"/>
+      <c r="E264" s="246" t="s">
         <v>59</v>
       </c>
       <c r="F264" s="73" t="s">
@@ -32351,10 +32344,10 @@
 )</f>
         <v>92-2-1</v>
       </c>
-      <c r="B265" s="246"/>
-      <c r="C265" s="246"/>
-      <c r="D265" s="246"/>
-      <c r="E265" s="247"/>
+      <c r="B265" s="245"/>
+      <c r="C265" s="245"/>
+      <c r="D265" s="245"/>
+      <c r="E265" s="246"/>
       <c r="F265" s="73" t="s">
         <v>379</v>
       </c>
@@ -32385,10 +32378,10 @@
 )</f>
         <v>92-3-1</v>
       </c>
-      <c r="B266" s="246"/>
-      <c r="C266" s="265"/>
-      <c r="D266" s="246"/>
-      <c r="E266" s="247"/>
+      <c r="B266" s="245"/>
+      <c r="C266" s="264"/>
+      <c r="D266" s="245"/>
+      <c r="E266" s="246"/>
       <c r="F266" s="73" t="s">
         <v>380</v>
       </c>
@@ -32419,10 +32412,10 @@
 )</f>
         <v>92-4-1</v>
       </c>
-      <c r="B267" s="246"/>
-      <c r="C267" s="265"/>
-      <c r="D267" s="247"/>
-      <c r="E267" s="247"/>
+      <c r="B267" s="245"/>
+      <c r="C267" s="264"/>
+      <c r="D267" s="246"/>
+      <c r="E267" s="246"/>
       <c r="F267" s="73" t="s">
         <v>381</v>
       </c>
@@ -32453,10 +32446,10 @@
 )</f>
         <v>92-5-1</v>
       </c>
-      <c r="B268" s="246"/>
-      <c r="C268" s="265"/>
-      <c r="D268" s="247"/>
-      <c r="E268" s="247"/>
+      <c r="B268" s="245"/>
+      <c r="C268" s="264"/>
+      <c r="D268" s="246"/>
+      <c r="E268" s="246"/>
       <c r="F268" s="73" t="s">
         <v>382</v>
       </c>
@@ -32487,10 +32480,10 @@
 )</f>
         <v>92-6-1</v>
       </c>
-      <c r="B269" s="246"/>
-      <c r="C269" s="265"/>
-      <c r="D269" s="247"/>
-      <c r="E269" s="249"/>
+      <c r="B269" s="245"/>
+      <c r="C269" s="264"/>
+      <c r="D269" s="246"/>
+      <c r="E269" s="248"/>
       <c r="F269" s="73" t="s">
         <v>383</v>
       </c>
@@ -32521,10 +32514,10 @@
 )</f>
         <v>93-1-1</v>
       </c>
-      <c r="B270" s="246"/>
-      <c r="C270" s="265"/>
-      <c r="D270" s="247"/>
-      <c r="E270" s="247" t="s">
+      <c r="B270" s="245"/>
+      <c r="C270" s="264"/>
+      <c r="D270" s="246"/>
+      <c r="E270" s="246" t="s">
         <v>203</v>
       </c>
       <c r="F270" s="73" t="s">
@@ -32557,10 +32550,10 @@
 )</f>
         <v>93-2-1</v>
       </c>
-      <c r="B271" s="246"/>
-      <c r="C271" s="265"/>
-      <c r="D271" s="247"/>
-      <c r="E271" s="247"/>
+      <c r="B271" s="245"/>
+      <c r="C271" s="264"/>
+      <c r="D271" s="246"/>
+      <c r="E271" s="246"/>
       <c r="F271" s="73" t="s">
         <v>385</v>
       </c>
@@ -32591,10 +32584,10 @@
 )</f>
         <v>93-3-1</v>
       </c>
-      <c r="B272" s="246"/>
-      <c r="C272" s="265"/>
-      <c r="D272" s="247"/>
-      <c r="E272" s="247"/>
+      <c r="B272" s="245"/>
+      <c r="C272" s="264"/>
+      <c r="D272" s="246"/>
+      <c r="E272" s="246"/>
       <c r="F272" s="73" t="s">
         <v>386</v>
       </c>
@@ -32625,10 +32618,10 @@
 )</f>
         <v>93-4-1</v>
       </c>
-      <c r="B273" s="246"/>
-      <c r="C273" s="265"/>
-      <c r="D273" s="247"/>
-      <c r="E273" s="247"/>
+      <c r="B273" s="245"/>
+      <c r="C273" s="264"/>
+      <c r="D273" s="246"/>
+      <c r="E273" s="246"/>
       <c r="F273" s="73" t="s">
         <v>387</v>
       </c>
@@ -32659,10 +32652,10 @@
 )</f>
         <v>93-5-1</v>
       </c>
-      <c r="B274" s="246"/>
-      <c r="C274" s="265"/>
-      <c r="D274" s="247"/>
-      <c r="E274" s="247"/>
+      <c r="B274" s="245"/>
+      <c r="C274" s="264"/>
+      <c r="D274" s="246"/>
+      <c r="E274" s="246"/>
       <c r="F274" s="73" t="s">
         <v>388</v>
       </c>
@@ -32693,10 +32686,10 @@
 )</f>
         <v>93-6-1</v>
       </c>
-      <c r="B275" s="246"/>
-      <c r="C275" s="265"/>
-      <c r="D275" s="247"/>
-      <c r="E275" s="247"/>
+      <c r="B275" s="245"/>
+      <c r="C275" s="264"/>
+      <c r="D275" s="246"/>
+      <c r="E275" s="246"/>
       <c r="F275" s="73" t="s">
         <v>389</v>
       </c>
@@ -32727,10 +32720,10 @@
 )</f>
         <v>93-7-1</v>
       </c>
-      <c r="B276" s="246"/>
-      <c r="C276" s="265"/>
-      <c r="D276" s="247"/>
-      <c r="E276" s="247"/>
+      <c r="B276" s="245"/>
+      <c r="C276" s="264"/>
+      <c r="D276" s="246"/>
+      <c r="E276" s="246"/>
       <c r="F276" s="73" t="s">
         <v>390</v>
       </c>
@@ -32761,10 +32754,10 @@
 )</f>
         <v>93-8-1</v>
       </c>
-      <c r="B277" s="246"/>
-      <c r="C277" s="265"/>
-      <c r="D277" s="247"/>
-      <c r="E277" s="249"/>
+      <c r="B277" s="245"/>
+      <c r="C277" s="264"/>
+      <c r="D277" s="246"/>
+      <c r="E277" s="248"/>
       <c r="F277" s="73" t="s">
         <v>391</v>
       </c>
@@ -32795,10 +32788,10 @@
 )</f>
         <v>94-1-1</v>
       </c>
-      <c r="B278" s="249"/>
-      <c r="C278" s="270"/>
-      <c r="D278" s="248"/>
-      <c r="E278" s="248" t="s">
+      <c r="B278" s="248"/>
+      <c r="C278" s="269"/>
+      <c r="D278" s="247"/>
+      <c r="E278" s="247" t="s">
         <v>237</v>
       </c>
       <c r="F278" s="73" t="s">
@@ -32831,16 +32824,16 @@
 )</f>
         <v>95-1-1</v>
       </c>
-      <c r="B279" s="256" t="s">
+      <c r="B279" s="255" t="s">
         <v>393</v>
       </c>
-      <c r="C279" s="256" t="s">
+      <c r="C279" s="255" t="s">
         <v>394</v>
       </c>
-      <c r="D279" s="256" t="s">
+      <c r="D279" s="255" t="s">
         <v>497</v>
       </c>
-      <c r="E279" s="261" t="s">
+      <c r="E279" s="260" t="s">
         <v>497</v>
       </c>
       <c r="F279" s="81" t="s">
@@ -32871,10 +32864,10 @@
 )</f>
         <v>95-2-1</v>
       </c>
-      <c r="B280" s="255"/>
-      <c r="C280" s="255"/>
-      <c r="D280" s="255"/>
-      <c r="E280" s="253"/>
+      <c r="B280" s="254"/>
+      <c r="C280" s="254"/>
+      <c r="D280" s="254"/>
+      <c r="E280" s="252"/>
       <c r="F280" s="81" t="s">
         <v>396</v>
       </c>
@@ -32903,10 +32896,10 @@
 )</f>
         <v>95-3-1</v>
       </c>
-      <c r="B281" s="255"/>
-      <c r="C281" s="255"/>
-      <c r="D281" s="255"/>
-      <c r="E281" s="253"/>
+      <c r="B281" s="254"/>
+      <c r="C281" s="254"/>
+      <c r="D281" s="254"/>
+      <c r="E281" s="252"/>
       <c r="F281" s="81" t="s">
         <v>397</v>
       </c>
@@ -32935,10 +32928,10 @@
 )</f>
         <v>95-4-1</v>
       </c>
-      <c r="B282" s="255"/>
-      <c r="C282" s="254"/>
-      <c r="D282" s="254"/>
-      <c r="E282" s="254"/>
+      <c r="B282" s="254"/>
+      <c r="C282" s="253"/>
+      <c r="D282" s="253"/>
+      <c r="E282" s="253"/>
       <c r="F282" s="81" t="s">
         <v>398</v>
       </c>
@@ -32967,14 +32960,14 @@
 )</f>
         <v>96-1-1</v>
       </c>
-      <c r="B283" s="255"/>
-      <c r="C283" s="255" t="s">
+      <c r="B283" s="254"/>
+      <c r="C283" s="254" t="s">
         <v>399</v>
       </c>
-      <c r="D283" s="255" t="s">
+      <c r="D283" s="254" t="s">
         <v>212</v>
       </c>
-      <c r="E283" s="254" t="s">
+      <c r="E283" s="253" t="s">
         <v>230</v>
       </c>
       <c r="F283" s="81" t="s">
@@ -33005,10 +32998,10 @@
 )</f>
         <v>97-1-1</v>
       </c>
-      <c r="B284" s="255"/>
-      <c r="C284" s="255"/>
-      <c r="D284" s="255"/>
-      <c r="E284" s="254" t="s">
+      <c r="B284" s="254"/>
+      <c r="C284" s="254"/>
+      <c r="D284" s="254"/>
+      <c r="E284" s="253" t="s">
         <v>232</v>
       </c>
       <c r="F284" s="81" t="s">
@@ -33039,10 +33032,10 @@
 )</f>
         <v>98-1-1</v>
       </c>
-      <c r="B285" s="255"/>
-      <c r="C285" s="255"/>
-      <c r="D285" s="255"/>
-      <c r="E285" s="254" t="s">
+      <c r="B285" s="254"/>
+      <c r="C285" s="254"/>
+      <c r="D285" s="254"/>
+      <c r="E285" s="253" t="s">
         <v>234</v>
       </c>
       <c r="F285" s="81" t="s">
@@ -33073,10 +33066,10 @@
 )</f>
         <v>99-1-1</v>
       </c>
-      <c r="B286" s="255"/>
-      <c r="C286" s="255"/>
-      <c r="D286" s="254"/>
-      <c r="E286" s="254" t="s">
+      <c r="B286" s="254"/>
+      <c r="C286" s="254"/>
+      <c r="D286" s="253"/>
+      <c r="E286" s="253" t="s">
         <v>150</v>
       </c>
       <c r="F286" s="81" t="s">
@@ -33107,12 +33100,12 @@
 )</f>
         <v>100-1-1</v>
       </c>
-      <c r="B287" s="255"/>
-      <c r="C287" s="257"/>
-      <c r="D287" s="255" t="s">
+      <c r="B287" s="254"/>
+      <c r="C287" s="256"/>
+      <c r="D287" s="254" t="s">
         <v>404</v>
       </c>
-      <c r="E287" s="253" t="s">
+      <c r="E287" s="252" t="s">
         <v>405</v>
       </c>
       <c r="F287" s="81" t="s">
@@ -33143,10 +33136,10 @@
 )</f>
         <v>100-2-1</v>
       </c>
-      <c r="B288" s="255"/>
-      <c r="C288" s="257"/>
-      <c r="D288" s="253"/>
-      <c r="E288" s="253"/>
+      <c r="B288" s="254"/>
+      <c r="C288" s="256"/>
+      <c r="D288" s="252"/>
+      <c r="E288" s="252"/>
       <c r="F288" s="81" t="s">
         <v>407</v>
       </c>
@@ -33175,10 +33168,10 @@
 )</f>
         <v>100-3-1</v>
       </c>
-      <c r="B289" s="255"/>
-      <c r="C289" s="257"/>
-      <c r="D289" s="253"/>
-      <c r="E289" s="253"/>
+      <c r="B289" s="254"/>
+      <c r="C289" s="256"/>
+      <c r="D289" s="252"/>
+      <c r="E289" s="252"/>
       <c r="F289" s="81" t="s">
         <v>408</v>
       </c>
@@ -33207,10 +33200,10 @@
 )</f>
         <v>100-4-1</v>
       </c>
-      <c r="B290" s="255"/>
-      <c r="C290" s="257"/>
-      <c r="D290" s="253"/>
-      <c r="E290" s="253"/>
+      <c r="B290" s="254"/>
+      <c r="C290" s="256"/>
+      <c r="D290" s="252"/>
+      <c r="E290" s="252"/>
       <c r="F290" s="81" t="s">
         <v>556</v>
       </c>
@@ -33239,10 +33232,10 @@
 )</f>
         <v>100-5-1</v>
       </c>
-      <c r="B291" s="255"/>
-      <c r="C291" s="257"/>
-      <c r="D291" s="253"/>
-      <c r="E291" s="253"/>
+      <c r="B291" s="254"/>
+      <c r="C291" s="256"/>
+      <c r="D291" s="252"/>
+      <c r="E291" s="252"/>
       <c r="F291" s="81" t="s">
         <v>545</v>
       </c>
@@ -33271,10 +33264,10 @@
 )</f>
         <v>100-6-1</v>
       </c>
-      <c r="B292" s="255"/>
-      <c r="C292" s="257"/>
-      <c r="D292" s="253"/>
-      <c r="E292" s="253"/>
+      <c r="B292" s="254"/>
+      <c r="C292" s="256"/>
+      <c r="D292" s="252"/>
+      <c r="E292" s="252"/>
       <c r="F292" s="81" t="s">
         <v>546</v>
       </c>
@@ -33303,10 +33296,10 @@
 )</f>
         <v>100-7-1</v>
       </c>
-      <c r="B293" s="255"/>
-      <c r="C293" s="257"/>
-      <c r="D293" s="253"/>
-      <c r="E293" s="253"/>
+      <c r="B293" s="254"/>
+      <c r="C293" s="256"/>
+      <c r="D293" s="252"/>
+      <c r="E293" s="252"/>
       <c r="F293" s="81" t="s">
         <v>557</v>
       </c>
@@ -33335,10 +33328,10 @@
 )</f>
         <v>100-8-1</v>
       </c>
-      <c r="B294" s="255"/>
-      <c r="C294" s="257"/>
-      <c r="D294" s="253"/>
-      <c r="E294" s="253"/>
+      <c r="B294" s="254"/>
+      <c r="C294" s="256"/>
+      <c r="D294" s="252"/>
+      <c r="E294" s="252"/>
       <c r="F294" s="81" t="s">
         <v>410</v>
       </c>
@@ -33367,10 +33360,10 @@
 )</f>
         <v>100-9-1</v>
       </c>
-      <c r="B295" s="254"/>
-      <c r="C295" s="271"/>
-      <c r="D295" s="259"/>
-      <c r="E295" s="259"/>
+      <c r="B295" s="253"/>
+      <c r="C295" s="270"/>
+      <c r="D295" s="258"/>
+      <c r="E295" s="258"/>
       <c r="F295" s="81" t="s">
         <v>411</v>
       </c>
@@ -33399,23 +33392,23 @@
 )</f>
         <v>101-1-1</v>
       </c>
-      <c r="B296" s="272" t="s">
+      <c r="B296" s="271" t="s">
         <v>412</v>
       </c>
-      <c r="C296" s="261" t="s">
+      <c r="C296" s="260" t="s">
         <v>413</v>
       </c>
-      <c r="D296" s="255" t="s">
+      <c r="D296" s="254" t="s">
         <v>414</v>
       </c>
-      <c r="E296" s="256" t="s">
+      <c r="E296" s="255" t="s">
         <v>493</v>
       </c>
       <c r="F296" s="113" t="s">
         <v>415</v>
       </c>
       <c r="G296" s="94" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H296" s="94"/>
       <c r="I296" s="94"/>
@@ -33441,15 +33434,15 @@
 )</f>
         <v>101-2-1</v>
       </c>
-      <c r="B297" s="258"/>
-      <c r="C297" s="253"/>
-      <c r="D297" s="255"/>
-      <c r="E297" s="255"/>
+      <c r="B297" s="257"/>
+      <c r="C297" s="252"/>
+      <c r="D297" s="254"/>
+      <c r="E297" s="254"/>
       <c r="F297" s="113" t="s">
         <v>416</v>
       </c>
       <c r="G297" s="94" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H297" s="94"/>
       <c r="I297" s="94"/>
@@ -33475,10 +33468,10 @@
 )</f>
         <v>101-3-1</v>
       </c>
-      <c r="B298" s="258"/>
-      <c r="C298" s="253"/>
-      <c r="D298" s="255"/>
-      <c r="E298" s="255"/>
+      <c r="B298" s="257"/>
+      <c r="C298" s="252"/>
+      <c r="D298" s="254"/>
+      <c r="E298" s="254"/>
       <c r="F298" s="81" t="s">
         <v>417</v>
       </c>
@@ -33507,10 +33500,10 @@
 )</f>
         <v>101-4-1</v>
       </c>
-      <c r="B299" s="273"/>
-      <c r="C299" s="274"/>
-      <c r="D299" s="250"/>
-      <c r="E299" s="250"/>
+      <c r="B299" s="272"/>
+      <c r="C299" s="273"/>
+      <c r="D299" s="249"/>
+      <c r="E299" s="249"/>
       <c r="F299" s="68" t="s">
         <v>418</v>
       </c>
@@ -33539,10 +33532,10 @@
 )</f>
         <v>101-5-1</v>
       </c>
-      <c r="B300" s="273"/>
-      <c r="C300" s="274"/>
-      <c r="D300" s="250"/>
-      <c r="E300" s="250"/>
+      <c r="B300" s="272"/>
+      <c r="C300" s="273"/>
+      <c r="D300" s="249"/>
+      <c r="E300" s="249"/>
       <c r="F300" s="68" t="s">
         <v>419</v>
       </c>
@@ -33571,10 +33564,10 @@
 )</f>
         <v>101-6-1</v>
       </c>
-      <c r="B301" s="275"/>
-      <c r="C301" s="276"/>
-      <c r="D301" s="277"/>
-      <c r="E301" s="277"/>
+      <c r="B301" s="274"/>
+      <c r="C301" s="275"/>
+      <c r="D301" s="276"/>
+      <c r="E301" s="276"/>
       <c r="F301" s="53" t="s">
         <v>605</v>
       </c>
@@ -33603,10 +33596,10 @@
 )</f>
         <v>101-7-1</v>
       </c>
-      <c r="B302" s="273"/>
-      <c r="C302" s="274"/>
-      <c r="D302" s="250"/>
-      <c r="E302" s="250"/>
+      <c r="B302" s="272"/>
+      <c r="C302" s="273"/>
+      <c r="D302" s="249"/>
+      <c r="E302" s="249"/>
       <c r="F302" s="68" t="s">
         <v>420</v>
       </c>
@@ -33635,10 +33628,10 @@
 )</f>
         <v>101-8-1</v>
       </c>
-      <c r="B303" s="273"/>
-      <c r="C303" s="274"/>
-      <c r="D303" s="250"/>
-      <c r="E303" s="250"/>
+      <c r="B303" s="272"/>
+      <c r="C303" s="273"/>
+      <c r="D303" s="249"/>
+      <c r="E303" s="249"/>
       <c r="F303" s="68" t="s">
         <v>421</v>
       </c>
@@ -33667,10 +33660,10 @@
 )</f>
         <v>101-9-1</v>
       </c>
-      <c r="B304" s="273"/>
-      <c r="C304" s="274"/>
-      <c r="D304" s="250"/>
-      <c r="E304" s="250"/>
+      <c r="B304" s="272"/>
+      <c r="C304" s="273"/>
+      <c r="D304" s="249"/>
+      <c r="E304" s="249"/>
       <c r="F304" s="68" t="s">
         <v>422</v>
       </c>
@@ -33699,10 +33692,10 @@
 )</f>
         <v>101-10-1</v>
       </c>
-      <c r="B305" s="273"/>
-      <c r="C305" s="274"/>
-      <c r="D305" s="250"/>
-      <c r="E305" s="250"/>
+      <c r="B305" s="272"/>
+      <c r="C305" s="273"/>
+      <c r="D305" s="249"/>
+      <c r="E305" s="249"/>
       <c r="F305" s="68" t="s">
         <v>423</v>
       </c>
@@ -33731,10 +33724,10 @@
 )</f>
         <v>101-11-1</v>
       </c>
-      <c r="B306" s="273"/>
-      <c r="C306" s="274"/>
-      <c r="D306" s="250"/>
-      <c r="E306" s="250"/>
+      <c r="B306" s="272"/>
+      <c r="C306" s="273"/>
+      <c r="D306" s="249"/>
+      <c r="E306" s="249"/>
       <c r="F306" s="68" t="s">
         <v>424</v>
       </c>
@@ -33763,10 +33756,10 @@
 )</f>
         <v>101-12-1</v>
       </c>
-      <c r="B307" s="273"/>
-      <c r="C307" s="274"/>
-      <c r="D307" s="250"/>
-      <c r="E307" s="250"/>
+      <c r="B307" s="272"/>
+      <c r="C307" s="273"/>
+      <c r="D307" s="249"/>
+      <c r="E307" s="249"/>
       <c r="F307" s="68" t="s">
         <v>425</v>
       </c>
@@ -33795,10 +33788,10 @@
 )</f>
         <v>101-13-1</v>
       </c>
-      <c r="B308" s="273"/>
-      <c r="C308" s="274"/>
-      <c r="D308" s="250"/>
-      <c r="E308" s="250"/>
+      <c r="B308" s="272"/>
+      <c r="C308" s="273"/>
+      <c r="D308" s="249"/>
+      <c r="E308" s="249"/>
       <c r="F308" s="68" t="s">
         <v>426</v>
       </c>
@@ -33827,10 +33820,10 @@
 )</f>
         <v>101-14-1</v>
       </c>
-      <c r="B309" s="273"/>
-      <c r="C309" s="274"/>
-      <c r="D309" s="250"/>
-      <c r="E309" s="250"/>
+      <c r="B309" s="272"/>
+      <c r="C309" s="273"/>
+      <c r="D309" s="249"/>
+      <c r="E309" s="249"/>
       <c r="F309" s="67" t="s">
         <v>427</v>
       </c>
@@ -33859,10 +33852,10 @@
 )</f>
         <v>101-15-1</v>
       </c>
-      <c r="B310" s="273"/>
-      <c r="C310" s="274"/>
-      <c r="D310" s="250"/>
-      <c r="E310" s="250"/>
+      <c r="B310" s="272"/>
+      <c r="C310" s="273"/>
+      <c r="D310" s="249"/>
+      <c r="E310" s="249"/>
       <c r="F310" s="68" t="s">
         <v>428</v>
       </c>
@@ -33891,10 +33884,10 @@
 )</f>
         <v>101-16-1</v>
       </c>
-      <c r="B311" s="273"/>
-      <c r="C311" s="274"/>
-      <c r="D311" s="250"/>
-      <c r="E311" s="250"/>
+      <c r="B311" s="272"/>
+      <c r="C311" s="273"/>
+      <c r="D311" s="249"/>
+      <c r="E311" s="249"/>
       <c r="F311" s="68" t="s">
         <v>429</v>
       </c>
@@ -33923,10 +33916,10 @@
 )</f>
         <v>101-17-1</v>
       </c>
-      <c r="B312" s="273"/>
-      <c r="C312" s="274"/>
-      <c r="D312" s="250"/>
-      <c r="E312" s="250"/>
+      <c r="B312" s="272"/>
+      <c r="C312" s="273"/>
+      <c r="D312" s="249"/>
+      <c r="E312" s="249"/>
       <c r="F312" s="67" t="s">
         <v>430</v>
       </c>
@@ -33955,10 +33948,10 @@
 )</f>
         <v>101-18-1</v>
       </c>
-      <c r="B313" s="273"/>
-      <c r="C313" s="274"/>
-      <c r="D313" s="250"/>
-      <c r="E313" s="250"/>
+      <c r="B313" s="272"/>
+      <c r="C313" s="273"/>
+      <c r="D313" s="249"/>
+      <c r="E313" s="249"/>
       <c r="F313" s="67" t="s">
         <v>431</v>
       </c>
@@ -33987,10 +33980,10 @@
 )</f>
         <v>101-19-1</v>
       </c>
-      <c r="B314" s="273"/>
-      <c r="C314" s="274"/>
-      <c r="D314" s="250"/>
-      <c r="E314" s="250"/>
+      <c r="B314" s="272"/>
+      <c r="C314" s="273"/>
+      <c r="D314" s="249"/>
+      <c r="E314" s="249"/>
       <c r="F314" s="67" t="s">
         <v>432</v>
       </c>
@@ -34019,10 +34012,10 @@
 )</f>
         <v>101-20-1</v>
       </c>
-      <c r="B315" s="258"/>
-      <c r="C315" s="253"/>
-      <c r="D315" s="255"/>
-      <c r="E315" s="255"/>
+      <c r="B315" s="257"/>
+      <c r="C315" s="252"/>
+      <c r="D315" s="254"/>
+      <c r="E315" s="254"/>
       <c r="F315" s="81" t="s">
         <v>433</v>
       </c>
@@ -34051,10 +34044,10 @@
 )</f>
         <v>101-21-1</v>
       </c>
-      <c r="B316" s="258"/>
-      <c r="C316" s="253"/>
-      <c r="D316" s="255"/>
-      <c r="E316" s="255"/>
+      <c r="B316" s="257"/>
+      <c r="C316" s="252"/>
+      <c r="D316" s="254"/>
+      <c r="E316" s="254"/>
       <c r="F316" s="113" t="s">
         <v>434</v>
       </c>
@@ -34085,10 +34078,10 @@
 )</f>
         <v>102-1-1</v>
       </c>
-      <c r="B317" s="258"/>
-      <c r="C317" s="255"/>
-      <c r="D317" s="255"/>
-      <c r="E317" s="256" t="s">
+      <c r="B317" s="257"/>
+      <c r="C317" s="254"/>
+      <c r="D317" s="254"/>
+      <c r="E317" s="255" t="s">
         <v>435</v>
       </c>
       <c r="F317" s="81" t="s">
@@ -34119,10 +34112,10 @@
 )</f>
         <v>102-2-1</v>
       </c>
-      <c r="B318" s="258"/>
-      <c r="C318" s="253"/>
-      <c r="D318" s="255"/>
-      <c r="E318" s="254"/>
+      <c r="B318" s="257"/>
+      <c r="C318" s="252"/>
+      <c r="D318" s="254"/>
+      <c r="E318" s="253"/>
       <c r="F318" s="81" t="s">
         <v>437</v>
       </c>
@@ -34151,10 +34144,10 @@
 )</f>
         <v>103-1-1</v>
       </c>
-      <c r="B319" s="258"/>
-      <c r="C319" s="253"/>
-      <c r="D319" s="255"/>
-      <c r="E319" s="255" t="s">
+      <c r="B319" s="257"/>
+      <c r="C319" s="252"/>
+      <c r="D319" s="254"/>
+      <c r="E319" s="254" t="s">
         <v>438</v>
       </c>
       <c r="F319" s="81" t="s">
@@ -34185,10 +34178,10 @@
 )</f>
         <v>103-2-1</v>
       </c>
-      <c r="B320" s="258"/>
-      <c r="C320" s="253"/>
-      <c r="D320" s="255"/>
-      <c r="E320" s="255"/>
+      <c r="B320" s="257"/>
+      <c r="C320" s="252"/>
+      <c r="D320" s="254"/>
+      <c r="E320" s="254"/>
       <c r="F320" s="81" t="s">
         <v>440</v>
       </c>
@@ -34217,9 +34210,9 @@
 )</f>
         <v>104-1-1</v>
       </c>
-      <c r="B321" s="258"/>
-      <c r="C321" s="253"/>
-      <c r="D321" s="255"/>
+      <c r="B321" s="257"/>
+      <c r="C321" s="252"/>
+      <c r="D321" s="254"/>
       <c r="E321" s="158" t="s">
         <v>441</v>
       </c>
@@ -34251,10 +34244,10 @@
 )</f>
         <v>105-1-1</v>
       </c>
-      <c r="B322" s="258"/>
-      <c r="C322" s="253"/>
-      <c r="D322" s="255"/>
-      <c r="E322" s="255" t="s">
+      <c r="B322" s="257"/>
+      <c r="C322" s="252"/>
+      <c r="D322" s="254"/>
+      <c r="E322" s="254" t="s">
         <v>494</v>
       </c>
       <c r="F322" s="81" t="s">
@@ -34285,10 +34278,10 @@
 )</f>
         <v>105-2-1</v>
       </c>
-      <c r="B323" s="258"/>
-      <c r="C323" s="253"/>
-      <c r="D323" s="255"/>
-      <c r="E323" s="255"/>
+      <c r="B323" s="257"/>
+      <c r="C323" s="252"/>
+      <c r="D323" s="254"/>
+      <c r="E323" s="254"/>
       <c r="F323" s="81" t="s">
         <v>444</v>
       </c>
@@ -34317,10 +34310,10 @@
 )</f>
         <v>105-3-1</v>
       </c>
-      <c r="B324" s="258"/>
-      <c r="C324" s="253"/>
-      <c r="D324" s="255"/>
-      <c r="E324" s="255"/>
+      <c r="B324" s="257"/>
+      <c r="C324" s="252"/>
+      <c r="D324" s="254"/>
+      <c r="E324" s="254"/>
       <c r="F324" s="81" t="s">
         <v>445</v>
       </c>
@@ -34349,10 +34342,10 @@
 )</f>
         <v>105-4-1</v>
       </c>
-      <c r="B325" s="258"/>
-      <c r="C325" s="253"/>
-      <c r="D325" s="255"/>
-      <c r="E325" s="255"/>
+      <c r="B325" s="257"/>
+      <c r="C325" s="252"/>
+      <c r="D325" s="254"/>
+      <c r="E325" s="254"/>
       <c r="F325" s="81" t="s">
         <v>446</v>
       </c>
@@ -34381,10 +34374,10 @@
 )</f>
         <v>105-5-1</v>
       </c>
-      <c r="B326" s="258"/>
-      <c r="C326" s="253"/>
-      <c r="D326" s="255"/>
-      <c r="E326" s="255"/>
+      <c r="B326" s="257"/>
+      <c r="C326" s="252"/>
+      <c r="D326" s="254"/>
+      <c r="E326" s="254"/>
       <c r="F326" s="81" t="s">
         <v>447</v>
       </c>
@@ -34413,10 +34406,10 @@
 )</f>
         <v>105-6-1</v>
       </c>
-      <c r="B327" s="258"/>
-      <c r="C327" s="253"/>
-      <c r="D327" s="255"/>
-      <c r="E327" s="255"/>
+      <c r="B327" s="257"/>
+      <c r="C327" s="252"/>
+      <c r="D327" s="254"/>
+      <c r="E327" s="254"/>
       <c r="F327" s="81" t="s">
         <v>448</v>
       </c>
@@ -34445,10 +34438,10 @@
 )</f>
         <v>105-7-1</v>
       </c>
-      <c r="B328" s="258"/>
-      <c r="C328" s="253"/>
-      <c r="D328" s="255"/>
-      <c r="E328" s="255"/>
+      <c r="B328" s="257"/>
+      <c r="C328" s="252"/>
+      <c r="D328" s="254"/>
+      <c r="E328" s="254"/>
       <c r="F328" s="81" t="s">
         <v>449</v>
       </c>
@@ -34477,10 +34470,10 @@
 )</f>
         <v>105-8-1</v>
       </c>
-      <c r="B329" s="258"/>
-      <c r="C329" s="253"/>
-      <c r="D329" s="255"/>
-      <c r="E329" s="255"/>
+      <c r="B329" s="257"/>
+      <c r="C329" s="252"/>
+      <c r="D329" s="254"/>
+      <c r="E329" s="254"/>
       <c r="F329" s="81" t="s">
         <v>450</v>
       </c>
@@ -34509,10 +34502,10 @@
 )</f>
         <v>105-9-1</v>
       </c>
-      <c r="B330" s="258"/>
-      <c r="C330" s="253"/>
-      <c r="D330" s="255"/>
-      <c r="E330" s="255"/>
+      <c r="B330" s="257"/>
+      <c r="C330" s="252"/>
+      <c r="D330" s="254"/>
+      <c r="E330" s="254"/>
       <c r="F330" s="81" t="s">
         <v>451</v>
       </c>
@@ -34541,9 +34534,9 @@
 )</f>
         <v>106-1-1</v>
       </c>
-      <c r="B331" s="257"/>
-      <c r="C331" s="253"/>
-      <c r="D331" s="255"/>
+      <c r="B331" s="256"/>
+      <c r="C331" s="252"/>
+      <c r="D331" s="254"/>
       <c r="E331" s="158" t="s">
         <v>495</v>
       </c>
@@ -34575,9 +34568,9 @@
 )</f>
         <v>107-1-1</v>
       </c>
-      <c r="B332" s="257"/>
-      <c r="C332" s="253"/>
-      <c r="D332" s="254"/>
+      <c r="B332" s="256"/>
+      <c r="C332" s="252"/>
+      <c r="D332" s="253"/>
       <c r="E332" s="158" t="s">
         <v>496</v>
       </c>
@@ -34609,9 +34602,9 @@
 )</f>
         <v>108-1-1</v>
       </c>
-      <c r="B333" s="257"/>
-      <c r="C333" s="255"/>
-      <c r="D333" s="255" t="s">
+      <c r="B333" s="256"/>
+      <c r="C333" s="254"/>
+      <c r="D333" s="254" t="s">
         <v>454</v>
       </c>
       <c r="E333" s="158" t="s">
@@ -34645,10 +34638,10 @@
 )</f>
         <v>109-1-1</v>
       </c>
-      <c r="B334" s="257"/>
-      <c r="C334" s="253"/>
-      <c r="D334" s="255"/>
-      <c r="E334" s="255" t="s">
+      <c r="B334" s="256"/>
+      <c r="C334" s="252"/>
+      <c r="D334" s="254"/>
+      <c r="E334" s="254" t="s">
         <v>498</v>
       </c>
       <c r="F334" s="81" t="s">
@@ -34679,10 +34672,10 @@
 )</f>
         <v>109-2-1</v>
       </c>
-      <c r="B335" s="257"/>
-      <c r="C335" s="253"/>
-      <c r="D335" s="255"/>
-      <c r="E335" s="255"/>
+      <c r="B335" s="256"/>
+      <c r="C335" s="252"/>
+      <c r="D335" s="254"/>
+      <c r="E335" s="254"/>
       <c r="F335" s="81" t="s">
         <v>457</v>
       </c>
@@ -34711,10 +34704,10 @@
 )</f>
         <v>109-3-1</v>
       </c>
-      <c r="B336" s="257"/>
-      <c r="C336" s="253"/>
-      <c r="D336" s="255"/>
-      <c r="E336" s="255"/>
+      <c r="B336" s="256"/>
+      <c r="C336" s="252"/>
+      <c r="D336" s="254"/>
+      <c r="E336" s="254"/>
       <c r="F336" s="81" t="s">
         <v>458</v>
       </c>
@@ -34743,10 +34736,10 @@
 )</f>
         <v>109-4-1</v>
       </c>
-      <c r="B337" s="257"/>
-      <c r="C337" s="253"/>
-      <c r="D337" s="254"/>
-      <c r="E337" s="255"/>
+      <c r="B337" s="256"/>
+      <c r="C337" s="252"/>
+      <c r="D337" s="253"/>
+      <c r="E337" s="254"/>
       <c r="F337" s="81" t="s">
         <v>459</v>
       </c>
@@ -34775,12 +34768,12 @@
 )</f>
         <v>110-1-1</v>
       </c>
-      <c r="B338" s="257"/>
-      <c r="C338" s="253"/>
-      <c r="D338" s="255" t="s">
+      <c r="B338" s="256"/>
+      <c r="C338" s="252"/>
+      <c r="D338" s="254" t="s">
         <v>35</v>
       </c>
-      <c r="E338" s="256" t="s">
+      <c r="E338" s="255" t="s">
         <v>497</v>
       </c>
       <c r="F338" s="81" t="s">
@@ -34811,10 +34804,10 @@
 )</f>
         <v>110-2-1</v>
       </c>
-      <c r="B339" s="257"/>
-      <c r="C339" s="253"/>
-      <c r="D339" s="255"/>
-      <c r="E339" s="255"/>
+      <c r="B339" s="256"/>
+      <c r="C339" s="252"/>
+      <c r="D339" s="254"/>
+      <c r="E339" s="254"/>
       <c r="F339" s="81" t="s">
         <v>461</v>
       </c>
@@ -34843,10 +34836,10 @@
 )</f>
         <v>110-3-1</v>
       </c>
-      <c r="B340" s="255"/>
-      <c r="C340" s="255"/>
-      <c r="D340" s="254"/>
-      <c r="E340" s="254"/>
+      <c r="B340" s="254"/>
+      <c r="C340" s="254"/>
+      <c r="D340" s="253"/>
+      <c r="E340" s="253"/>
       <c r="F340" s="81" t="s">
         <v>462</v>
       </c>
@@ -34875,12 +34868,12 @@
 )</f>
         <v>111-1-1</v>
       </c>
-      <c r="B341" s="255"/>
-      <c r="C341" s="255"/>
-      <c r="D341" s="255" t="s">
+      <c r="B341" s="254"/>
+      <c r="C341" s="254"/>
+      <c r="D341" s="254" t="s">
         <v>463</v>
       </c>
-      <c r="E341" s="255" t="s">
+      <c r="E341" s="254" t="s">
         <v>497</v>
       </c>
       <c r="F341" s="81" t="s">
@@ -34911,10 +34904,10 @@
 )</f>
         <v>111-2-1</v>
       </c>
-      <c r="B342" s="257"/>
-      <c r="C342" s="253"/>
-      <c r="D342" s="255"/>
-      <c r="E342" s="255"/>
+      <c r="B342" s="256"/>
+      <c r="C342" s="252"/>
+      <c r="D342" s="254"/>
+      <c r="E342" s="254"/>
       <c r="F342" s="81" t="s">
         <v>465</v>
       </c>
@@ -34943,10 +34936,10 @@
 )</f>
         <v>111-3-1</v>
       </c>
-      <c r="B343" s="257"/>
-      <c r="C343" s="253"/>
-      <c r="D343" s="255"/>
-      <c r="E343" s="255"/>
+      <c r="B343" s="256"/>
+      <c r="C343" s="252"/>
+      <c r="D343" s="254"/>
+      <c r="E343" s="254"/>
       <c r="F343" s="81" t="s">
         <v>466</v>
       </c>
@@ -34975,10 +34968,10 @@
 )</f>
         <v>111-4-1</v>
       </c>
-      <c r="B344" s="257"/>
-      <c r="C344" s="253"/>
-      <c r="D344" s="255"/>
-      <c r="E344" s="255"/>
+      <c r="B344" s="256"/>
+      <c r="C344" s="252"/>
+      <c r="D344" s="254"/>
+      <c r="E344" s="254"/>
       <c r="F344" s="81" t="s">
         <v>467</v>
       </c>
@@ -35007,10 +35000,10 @@
 )</f>
         <v>111-5-1</v>
       </c>
-      <c r="B345" s="257"/>
-      <c r="C345" s="253"/>
-      <c r="D345" s="255"/>
-      <c r="E345" s="255"/>
+      <c r="B345" s="256"/>
+      <c r="C345" s="252"/>
+      <c r="D345" s="254"/>
+      <c r="E345" s="254"/>
       <c r="F345" s="81" t="s">
         <v>468</v>
       </c>
@@ -35039,15 +35032,15 @@
 )</f>
         <v>111-6-1</v>
       </c>
-      <c r="B346" s="257"/>
-      <c r="C346" s="253"/>
-      <c r="D346" s="255"/>
-      <c r="E346" s="255"/>
+      <c r="B346" s="256"/>
+      <c r="C346" s="252"/>
+      <c r="D346" s="254"/>
+      <c r="E346" s="254"/>
       <c r="F346" s="113" t="s">
         <v>469</v>
       </c>
       <c r="G346" s="114" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H346" s="115"/>
       <c r="I346" s="115"/>
@@ -35073,10 +35066,10 @@
 )</f>
         <v>111-7-1</v>
       </c>
-      <c r="B347" s="257"/>
-      <c r="C347" s="253"/>
-      <c r="D347" s="255"/>
-      <c r="E347" s="255"/>
+      <c r="B347" s="256"/>
+      <c r="C347" s="252"/>
+      <c r="D347" s="254"/>
+      <c r="E347" s="254"/>
       <c r="F347" s="81" t="s">
         <v>470</v>
       </c>
@@ -35105,10 +35098,10 @@
 )</f>
         <v>111-8-1</v>
       </c>
-      <c r="B348" s="257"/>
-      <c r="C348" s="253"/>
-      <c r="D348" s="255"/>
-      <c r="E348" s="255"/>
+      <c r="B348" s="256"/>
+      <c r="C348" s="252"/>
+      <c r="D348" s="254"/>
+      <c r="E348" s="254"/>
       <c r="F348" s="81" t="s">
         <v>471</v>
       </c>
@@ -35137,10 +35130,10 @@
 )</f>
         <v>111-9-1</v>
       </c>
-      <c r="B349" s="257"/>
-      <c r="C349" s="253"/>
-      <c r="D349" s="255"/>
-      <c r="E349" s="255"/>
+      <c r="B349" s="256"/>
+      <c r="C349" s="252"/>
+      <c r="D349" s="254"/>
+      <c r="E349" s="254"/>
       <c r="F349" s="81" t="s">
         <v>472</v>
       </c>
@@ -35169,10 +35162,10 @@
 )</f>
         <v>111-10-1</v>
       </c>
-      <c r="B350" s="257"/>
-      <c r="C350" s="253"/>
-      <c r="D350" s="255"/>
-      <c r="E350" s="255"/>
+      <c r="B350" s="256"/>
+      <c r="C350" s="252"/>
+      <c r="D350" s="254"/>
+      <c r="E350" s="254"/>
       <c r="F350" s="81" t="s">
         <v>473</v>
       </c>
@@ -35201,10 +35194,10 @@
 )</f>
         <v>111-11-1</v>
       </c>
-      <c r="B351" s="257"/>
-      <c r="C351" s="253"/>
-      <c r="D351" s="255"/>
-      <c r="E351" s="255"/>
+      <c r="B351" s="256"/>
+      <c r="C351" s="252"/>
+      <c r="D351" s="254"/>
+      <c r="E351" s="254"/>
       <c r="F351" s="81" t="s">
         <v>474</v>
       </c>
@@ -35233,10 +35226,10 @@
 )</f>
         <v>111-12-1</v>
       </c>
-      <c r="B352" s="257"/>
-      <c r="C352" s="253"/>
-      <c r="D352" s="255"/>
-      <c r="E352" s="255"/>
+      <c r="B352" s="256"/>
+      <c r="C352" s="252"/>
+      <c r="D352" s="254"/>
+      <c r="E352" s="254"/>
       <c r="F352" s="81" t="s">
         <v>475</v>
       </c>
@@ -35265,10 +35258,10 @@
 )</f>
         <v>111-13-1</v>
       </c>
-      <c r="B353" s="257"/>
-      <c r="C353" s="253"/>
-      <c r="D353" s="255"/>
-      <c r="E353" s="255"/>
+      <c r="B353" s="256"/>
+      <c r="C353" s="252"/>
+      <c r="D353" s="254"/>
+      <c r="E353" s="254"/>
       <c r="F353" s="81" t="s">
         <v>476</v>
       </c>
@@ -35297,10 +35290,10 @@
 )</f>
         <v>111-14-1</v>
       </c>
-      <c r="B354" s="257"/>
-      <c r="C354" s="253"/>
-      <c r="D354" s="255"/>
-      <c r="E354" s="254"/>
+      <c r="B354" s="256"/>
+      <c r="C354" s="252"/>
+      <c r="D354" s="254"/>
+      <c r="E354" s="253"/>
       <c r="F354" s="81" t="s">
         <v>477</v>
       </c>
@@ -35329,10 +35322,10 @@
 )</f>
         <v>112-1-1</v>
       </c>
-      <c r="B355" s="257"/>
-      <c r="C355" s="253"/>
-      <c r="D355" s="255"/>
-      <c r="E355" s="255" t="s">
+      <c r="B355" s="256"/>
+      <c r="C355" s="252"/>
+      <c r="D355" s="254"/>
+      <c r="E355" s="254" t="s">
         <v>125</v>
       </c>
       <c r="F355" s="81" t="s">
@@ -35363,10 +35356,10 @@
 )</f>
         <v>112-2-1</v>
       </c>
-      <c r="B356" s="257"/>
-      <c r="C356" s="253"/>
-      <c r="D356" s="255"/>
-      <c r="E356" s="255"/>
+      <c r="B356" s="256"/>
+      <c r="C356" s="252"/>
+      <c r="D356" s="254"/>
+      <c r="E356" s="254"/>
       <c r="F356" s="81" t="s">
         <v>479</v>
       </c>
@@ -35395,10 +35388,10 @@
 )</f>
         <v>112-3-1</v>
       </c>
-      <c r="B357" s="257"/>
-      <c r="C357" s="253"/>
-      <c r="D357" s="255"/>
-      <c r="E357" s="255"/>
+      <c r="B357" s="256"/>
+      <c r="C357" s="252"/>
+      <c r="D357" s="254"/>
+      <c r="E357" s="254"/>
       <c r="F357" s="81" t="s">
         <v>499</v>
       </c>
@@ -35427,10 +35420,10 @@
 )</f>
         <v>112-4-1</v>
       </c>
-      <c r="B358" s="257"/>
-      <c r="C358" s="253"/>
-      <c r="D358" s="255"/>
-      <c r="E358" s="255"/>
+      <c r="B358" s="256"/>
+      <c r="C358" s="252"/>
+      <c r="D358" s="254"/>
+      <c r="E358" s="254"/>
       <c r="F358" s="81" t="s">
         <v>480</v>
       </c>
@@ -35459,10 +35452,10 @@
 )</f>
         <v>112-5-1</v>
       </c>
-      <c r="B359" s="257"/>
-      <c r="C359" s="253"/>
-      <c r="D359" s="255"/>
-      <c r="E359" s="255"/>
+      <c r="B359" s="256"/>
+      <c r="C359" s="252"/>
+      <c r="D359" s="254"/>
+      <c r="E359" s="254"/>
       <c r="F359" s="81" t="s">
         <v>481</v>
       </c>
@@ -35491,10 +35484,10 @@
 )</f>
         <v>112-6-1</v>
       </c>
-      <c r="B360" s="257"/>
-      <c r="C360" s="253"/>
-      <c r="D360" s="255"/>
-      <c r="E360" s="255"/>
+      <c r="B360" s="256"/>
+      <c r="C360" s="252"/>
+      <c r="D360" s="254"/>
+      <c r="E360" s="254"/>
       <c r="F360" s="81" t="s">
         <v>482</v>
       </c>
@@ -35523,10 +35516,10 @@
 )</f>
         <v>112-7-1</v>
       </c>
-      <c r="B361" s="271"/>
-      <c r="C361" s="259"/>
-      <c r="D361" s="254"/>
-      <c r="E361" s="254"/>
+      <c r="B361" s="270"/>
+      <c r="C361" s="258"/>
+      <c r="D361" s="253"/>
+      <c r="E361" s="253"/>
       <c r="F361" s="81" t="s">
         <v>483</v>
       </c>
@@ -35558,13 +35551,13 @@
       <c r="B362" s="110" t="s">
         <v>501</v>
       </c>
-      <c r="C362" s="256" t="s">
+      <c r="C362" s="255" t="s">
         <v>484</v>
       </c>
-      <c r="D362" s="256" t="s">
+      <c r="D362" s="255" t="s">
         <v>497</v>
       </c>
-      <c r="E362" s="256" t="s">
+      <c r="E362" s="255" t="s">
         <v>497</v>
       </c>
       <c r="F362" s="92" t="s">
@@ -35596,9 +35589,9 @@
         <v>113-2-1</v>
       </c>
       <c r="B363" s="111"/>
-      <c r="C363" s="255"/>
-      <c r="D363" s="255"/>
-      <c r="E363" s="257"/>
+      <c r="C363" s="254"/>
+      <c r="D363" s="254"/>
+      <c r="E363" s="256"/>
       <c r="F363" s="142" t="s">
         <v>503</v>
       </c>
@@ -35628,9 +35621,9 @@
         <v>113-3-1</v>
       </c>
       <c r="B364" s="111"/>
-      <c r="C364" s="255"/>
-      <c r="D364" s="255"/>
-      <c r="E364" s="257"/>
+      <c r="C364" s="254"/>
+      <c r="D364" s="254"/>
+      <c r="E364" s="256"/>
       <c r="F364" s="142" t="s">
         <v>504</v>
       </c>
@@ -35660,9 +35653,9 @@
         <v>113-4-1</v>
       </c>
       <c r="B365" s="111"/>
-      <c r="C365" s="255"/>
-      <c r="D365" s="255"/>
-      <c r="E365" s="257"/>
+      <c r="C365" s="254"/>
+      <c r="D365" s="254"/>
+      <c r="E365" s="256"/>
       <c r="F365" s="142" t="s">
         <v>505</v>
       </c>
@@ -35692,25 +35685,25 @@
         <v>113-5-1</v>
       </c>
       <c r="B366" s="111"/>
-      <c r="C366" s="255"/>
-      <c r="D366" s="255"/>
-      <c r="E366" s="257"/>
-      <c r="F366" s="280" t="s">
+      <c r="C366" s="254"/>
+      <c r="D366" s="254"/>
+      <c r="E366" s="256"/>
+      <c r="F366" s="279" t="s">
         <v>506</v>
       </c>
-      <c r="G366" s="280" t="s">
-        <v>656</v>
+      <c r="G366" s="279" t="s">
+        <v>655</v>
       </c>
       <c r="H366" s="100"/>
       <c r="I366" s="100"/>
       <c r="J366" s="115"/>
-      <c r="K366" s="281"/>
-      <c r="L366" s="282"/>
-      <c r="M366" s="283"/>
-      <c r="N366" s="283"/>
-      <c r="O366" s="283"/>
-      <c r="P366" s="283"/>
-      <c r="Q366" s="283"/>
+      <c r="K366" s="280"/>
+      <c r="L366" s="281"/>
+      <c r="M366" s="282"/>
+      <c r="N366" s="282"/>
+      <c r="O366" s="282"/>
+      <c r="P366" s="282"/>
+      <c r="Q366" s="282"/>
     </row>
     <row r="367" spans="1:17" s="34" customFormat="1">
       <c r="A367" s="55" t="str" cm="1">
@@ -35726,11 +35719,11 @@
         <v>114-1-1</v>
       </c>
       <c r="B367" s="111"/>
-      <c r="C367" s="253"/>
-      <c r="D367" s="256" t="s">
+      <c r="C367" s="252"/>
+      <c r="D367" s="255" t="s">
         <v>507</v>
       </c>
-      <c r="E367" s="272" t="s">
+      <c r="E367" s="271" t="s">
         <v>493</v>
       </c>
       <c r="F367" s="142" t="s">
@@ -35762,9 +35755,9 @@
         <v>114-2-1</v>
       </c>
       <c r="B368" s="111"/>
-      <c r="C368" s="255"/>
-      <c r="D368" s="255"/>
-      <c r="E368" s="257"/>
+      <c r="C368" s="254"/>
+      <c r="D368" s="254"/>
+      <c r="E368" s="256"/>
       <c r="F368" s="142" t="s">
         <v>510</v>
       </c>
@@ -35794,25 +35787,25 @@
         <v>114-3-1</v>
       </c>
       <c r="B369" s="111"/>
-      <c r="C369" s="255"/>
-      <c r="D369" s="255"/>
-      <c r="E369" s="257"/>
-      <c r="F369" s="280" t="s">
+      <c r="C369" s="254"/>
+      <c r="D369" s="254"/>
+      <c r="E369" s="256"/>
+      <c r="F369" s="279" t="s">
         <v>511</v>
       </c>
-      <c r="G369" s="280" t="s">
-        <v>655</v>
+      <c r="G369" s="279" t="s">
+        <v>654</v>
       </c>
       <c r="H369" s="100"/>
       <c r="I369" s="100"/>
       <c r="J369" s="115"/>
-      <c r="K369" s="281"/>
-      <c r="L369" s="282"/>
-      <c r="M369" s="283"/>
-      <c r="N369" s="283"/>
-      <c r="O369" s="283"/>
-      <c r="P369" s="283"/>
-      <c r="Q369" s="283"/>
+      <c r="K369" s="280"/>
+      <c r="L369" s="281"/>
+      <c r="M369" s="282"/>
+      <c r="N369" s="282"/>
+      <c r="O369" s="282"/>
+      <c r="P369" s="282"/>
+      <c r="Q369" s="282"/>
     </row>
     <row r="370" spans="1:17" s="34" customFormat="1" ht="22.5">
       <c r="A370" s="55" t="str" cm="1">
@@ -35828,9 +35821,9 @@
         <v>114-4-1</v>
       </c>
       <c r="B370" s="111"/>
-      <c r="C370" s="255"/>
-      <c r="D370" s="255"/>
-      <c r="E370" s="257"/>
+      <c r="C370" s="254"/>
+      <c r="D370" s="254"/>
+      <c r="E370" s="256"/>
       <c r="F370" s="142" t="s">
         <v>512</v>
       </c>
@@ -35860,9 +35853,9 @@
         <v>114-5-1</v>
       </c>
       <c r="B371" s="111"/>
-      <c r="C371" s="254"/>
-      <c r="D371" s="254"/>
-      <c r="E371" s="271"/>
+      <c r="C371" s="253"/>
+      <c r="D371" s="253"/>
+      <c r="E371" s="270"/>
       <c r="F371" s="149" t="s">
         <v>513</v>
       </c>
@@ -35895,10 +35888,10 @@
       <c r="C372" s="110" t="s">
         <v>514</v>
       </c>
-      <c r="D372" s="261" t="s">
+      <c r="D372" s="260" t="s">
         <v>485</v>
       </c>
-      <c r="E372" s="256" t="s">
+      <c r="E372" s="255" t="s">
         <v>493</v>
       </c>
       <c r="F372" s="118" t="s">
@@ -35931,8 +35924,8 @@
       </c>
       <c r="B373" s="111"/>
       <c r="C373" s="111"/>
-      <c r="D373" s="253"/>
-      <c r="E373" s="255"/>
+      <c r="D373" s="252"/>
+      <c r="E373" s="254"/>
       <c r="F373" s="118" t="s">
         <v>516</v>
       </c>
@@ -35963,8 +35956,8 @@
       </c>
       <c r="B374" s="111"/>
       <c r="C374" s="111"/>
-      <c r="D374" s="253"/>
-      <c r="E374" s="255"/>
+      <c r="D374" s="252"/>
+      <c r="E374" s="254"/>
       <c r="F374" s="118" t="s">
         <v>517</v>
       </c>
@@ -35995,8 +35988,8 @@
       </c>
       <c r="B375" s="111"/>
       <c r="C375" s="111"/>
-      <c r="D375" s="253"/>
-      <c r="E375" s="255"/>
+      <c r="D375" s="252"/>
+      <c r="E375" s="254"/>
       <c r="F375" s="118" t="s">
         <v>518</v>
       </c>
@@ -36027,8 +36020,8 @@
       </c>
       <c r="B376" s="111"/>
       <c r="C376" s="111"/>
-      <c r="D376" s="253"/>
-      <c r="E376" s="255"/>
+      <c r="D376" s="252"/>
+      <c r="E376" s="254"/>
       <c r="F376" s="221" t="s">
         <v>519</v>
       </c>
@@ -36061,8 +36054,8 @@
       </c>
       <c r="B377" s="111"/>
       <c r="C377" s="111"/>
-      <c r="D377" s="259"/>
-      <c r="E377" s="254"/>
+      <c r="D377" s="258"/>
+      <c r="E377" s="253"/>
       <c r="F377" s="118" t="s">
         <v>520</v>
       </c>
@@ -36096,7 +36089,7 @@
       <c r="D378" s="158" t="s">
         <v>521</v>
       </c>
-      <c r="E378" s="256" t="s">
+      <c r="E378" s="255" t="s">
         <v>493</v>
       </c>
       <c r="F378" s="118" t="s">
@@ -36129,10 +36122,10 @@
       </c>
       <c r="B379" s="111"/>
       <c r="C379" s="111"/>
-      <c r="D379" s="256" t="s">
+      <c r="D379" s="255" t="s">
         <v>522</v>
       </c>
-      <c r="E379" s="256" t="s">
+      <c r="E379" s="255" t="s">
         <v>493</v>
       </c>
       <c r="F379" s="118" t="s">
@@ -36163,8 +36156,8 @@
 )</f>
         <v>118-1-1</v>
       </c>
-      <c r="B380" s="237"/>
-      <c r="C380" s="237"/>
+      <c r="B380" s="236"/>
+      <c r="C380" s="236"/>
       <c r="D380" s="158" t="s">
         <v>523</v>
       </c>
@@ -36199,16 +36192,16 @@
 )</f>
         <v>119-1-1</v>
       </c>
-      <c r="B381" s="255" t="s">
+      <c r="B381" s="254" t="s">
         <v>500</v>
       </c>
-      <c r="C381" s="255" t="s">
+      <c r="C381" s="254" t="s">
         <v>486</v>
       </c>
-      <c r="D381" s="255" t="s">
+      <c r="D381" s="254" t="s">
         <v>487</v>
       </c>
-      <c r="E381" s="255" t="s">
+      <c r="E381" s="254" t="s">
         <v>52</v>
       </c>
       <c r="F381" s="93" t="s">
@@ -36239,10 +36232,10 @@
 )</f>
         <v>119-2-1</v>
       </c>
-      <c r="B382" s="278"/>
-      <c r="C382" s="279"/>
-      <c r="D382" s="279"/>
-      <c r="E382" s="279"/>
+      <c r="B382" s="277"/>
+      <c r="C382" s="278"/>
+      <c r="D382" s="278"/>
+      <c r="E382" s="278"/>
       <c r="F382" s="81" t="s">
         <v>489</v>
       </c>
@@ -36436,7 +36429,7 @@
         <v>569</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D11" s="96" t="s">
         <v>570</v>
@@ -36464,10 +36457,10 @@
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="65"/>
-      <c r="D12" s="230" t="s">
+      <c r="D12" s="229" t="s">
         <v>574</v>
       </c>
-      <c r="E12" s="231"/>
+      <c r="E12" s="230"/>
       <c r="F12" s="139"/>
       <c r="G12" s="110" t="s">
         <v>571</v>
@@ -36475,11 +36468,11 @@
       <c r="H12" s="110" t="s">
         <v>592</v>
       </c>
-      <c r="I12" s="232"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="233"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="231"/>
+      <c r="K12" s="232"/>
       <c r="L12" s="112"/>
-      <c r="M12" s="234"/>
+      <c r="M12" s="233"/>
       <c r="N12" s="112"/>
       <c r="O12" s="112"/>
       <c r="P12" s="112"/>
@@ -36518,10 +36511,10 @@
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
-      <c r="D14" s="230" t="s">
+      <c r="D14" s="229" t="s">
         <v>578</v>
       </c>
-      <c r="E14" s="231"/>
+      <c r="E14" s="230"/>
       <c r="F14" s="139"/>
       <c r="G14" s="110" t="s">
         <v>571</v>
@@ -36529,11 +36522,11 @@
       <c r="H14" s="110" t="s">
         <v>592</v>
       </c>
-      <c r="I14" s="232"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="233"/>
+      <c r="I14" s="231"/>
+      <c r="J14" s="231"/>
+      <c r="K14" s="232"/>
       <c r="L14" s="112"/>
-      <c r="M14" s="234"/>
+      <c r="M14" s="233"/>
       <c r="N14" s="112"/>
       <c r="O14" s="112"/>
       <c r="P14" s="112"/>
@@ -36544,10 +36537,10 @@
       </c>
       <c r="B15" s="65"/>
       <c r="C15" s="65"/>
-      <c r="D15" s="351" t="s">
+      <c r="D15" s="283" t="s">
         <v>580</v>
       </c>
-      <c r="E15" s="235" t="s">
+      <c r="E15" s="234" t="s">
         <v>581</v>
       </c>
       <c r="F15" s="139"/>
@@ -36557,11 +36550,11 @@
       <c r="H15" s="110" t="s">
         <v>592</v>
       </c>
-      <c r="I15" s="232"/>
-      <c r="J15" s="232"/>
-      <c r="K15" s="233"/>
+      <c r="I15" s="231"/>
+      <c r="J15" s="231"/>
+      <c r="K15" s="232"/>
       <c r="L15" s="112"/>
-      <c r="M15" s="234"/>
+      <c r="M15" s="233"/>
       <c r="N15" s="112"/>
       <c r="O15" s="112"/>
       <c r="P15" s="112"/>
@@ -36680,35 +36673,33 @@
       <c r="O19" s="102"/>
       <c r="P19" s="102"/>
     </row>
-    <row r="20" spans="1:16" s="31" customFormat="1" ht="22.5">
-      <c r="A20" s="99" t="s">
+    <row r="20" spans="1:16" s="34" customFormat="1" ht="22.5">
+      <c r="A20" s="351" t="s">
         <v>589</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="229" t="s">
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="352" t="s">
         <v>590</v>
       </c>
-      <c r="E20" s="94" t="s">
+      <c r="E20" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="F20" s="115" t="s">
-        <v>647</v>
-      </c>
-      <c r="G20" s="100" t="s">
+      <c r="F20" s="139"/>
+      <c r="G20" s="110" t="s">
         <v>571</v>
       </c>
-      <c r="H20" s="100" t="s">
+      <c r="H20" s="110" t="s">
         <v>592</v>
       </c>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="232"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="233"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
     </row>
     <row r="21" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A21" s="99" t="s">
@@ -36805,7 +36796,7 @@
         <v>625</v>
       </c>
       <c r="D24" s="118" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E24" s="109" t="s">
         <v>626</v>
@@ -36859,7 +36850,7 @@
       <c r="B26" s="65"/>
       <c r="C26" s="120"/>
       <c r="D26" s="118" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E26" s="109" t="s">
         <v>626</v>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D148AC-F906-49BA-B0C7-23460D33A82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F45D22A-F587-402D-B49F-E427E95DE1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="647">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -7720,33 +7720,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面遷移図
-システム機能設計書</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve">画面遷移図
-画面イベント一覧
-(バリエーションがある場合は、バリエーションを整理した上でバリエーションごとに実行すること)
-</t>
-    <rPh sb="0" eb="5">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>セイリ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>2-1-1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -7880,14 +7853,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面遷移図
-画面イベント一覧</t>
-    <rPh sb="0" eb="5">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>8-1-1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -8153,61 +8118,6 @@
   </si>
   <si>
     <t>13-1-1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システム機能設計書
-ドメイン定義書
-メッセージ設計書</t>
-    <rPh sb="4" eb="9">
-      <t>キノウセッケイショ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>テイギショ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バリデーション処理
-ドメイン定義
-メッセージ設計（日本語）</t>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>ニホンゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バリデーション処理
-ドメイン定義</t>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システム機能設計書
-ドメイン定義書</t>
-    <rPh sb="4" eb="9">
-      <t>キノウセッケイショ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>テイギショ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -8258,22 +8168,6 @@
   <si>
     <t>テスト不要
 アーキがテストをするため</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システム機能設計書</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>項目定義
-画面イベント一覧
-画面イベント詳細</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -10129,8 +10023,92 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -10240,84 +10218,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10328,12 +10228,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11327,12 +11221,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="284" t="str">
+      <c r="I25" s="286" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="284"/>
-      <c r="K25" s="284"/>
+      <c r="J25" s="286"/>
+      <c r="K25" s="286"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -11892,51 +11786,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="319" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="294" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="322" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="300" t="s">
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="324"/>
+      <c r="O1" s="328" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="301"/>
-      <c r="Q1" s="301"/>
-      <c r="R1" s="302"/>
-      <c r="S1" s="309" t="s">
-        <v>653</v>
-      </c>
-      <c r="T1" s="310"/>
-      <c r="U1" s="310"/>
-      <c r="V1" s="310"/>
-      <c r="W1" s="310"/>
-      <c r="X1" s="310"/>
-      <c r="Y1" s="310"/>
-      <c r="Z1" s="311"/>
-      <c r="AA1" s="291" t="s">
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
+      <c r="R1" s="330"/>
+      <c r="S1" s="337" t="s">
+        <v>644</v>
+      </c>
+      <c r="T1" s="338"/>
+      <c r="U1" s="338"/>
+      <c r="V1" s="338"/>
+      <c r="W1" s="338"/>
+      <c r="X1" s="338"/>
+      <c r="Y1" s="338"/>
+      <c r="Z1" s="339"/>
+      <c r="AA1" s="319" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="293"/>
-      <c r="AC1" s="318"/>
-      <c r="AD1" s="319"/>
-      <c r="AE1" s="319"/>
-      <c r="AF1" s="320"/>
-      <c r="AG1" s="285"/>
-      <c r="AH1" s="286"/>
-      <c r="AI1" s="287"/>
+      <c r="AB1" s="321"/>
+      <c r="AC1" s="346"/>
+      <c r="AD1" s="347"/>
+      <c r="AE1" s="347"/>
+      <c r="AF1" s="348"/>
+      <c r="AG1" s="313"/>
+      <c r="AH1" s="314"/>
+      <c r="AI1" s="315"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11944,53 +11838,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="319" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="294" t="s">
-        <v>643</v>
-      </c>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
-      <c r="J2" s="295"/>
-      <c r="K2" s="295"/>
-      <c r="L2" s="295"/>
-      <c r="M2" s="295"/>
-      <c r="N2" s="296"/>
-      <c r="O2" s="303"/>
-      <c r="P2" s="304"/>
-      <c r="Q2" s="304"/>
-      <c r="R2" s="305"/>
-      <c r="S2" s="312"/>
-      <c r="T2" s="313"/>
-      <c r="U2" s="313"/>
-      <c r="V2" s="313"/>
-      <c r="W2" s="313"/>
-      <c r="X2" s="313"/>
-      <c r="Y2" s="313"/>
-      <c r="Z2" s="314"/>
-      <c r="AA2" s="291" t="s">
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="322" t="s">
+        <v>634</v>
+      </c>
+      <c r="F2" s="323"/>
+      <c r="G2" s="323"/>
+      <c r="H2" s="323"/>
+      <c r="I2" s="323"/>
+      <c r="J2" s="323"/>
+      <c r="K2" s="323"/>
+      <c r="L2" s="323"/>
+      <c r="M2" s="323"/>
+      <c r="N2" s="324"/>
+      <c r="O2" s="331"/>
+      <c r="P2" s="332"/>
+      <c r="Q2" s="332"/>
+      <c r="R2" s="333"/>
+      <c r="S2" s="340"/>
+      <c r="T2" s="341"/>
+      <c r="U2" s="341"/>
+      <c r="V2" s="341"/>
+      <c r="W2" s="341"/>
+      <c r="X2" s="341"/>
+      <c r="Y2" s="341"/>
+      <c r="Z2" s="342"/>
+      <c r="AA2" s="319" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="293"/>
-      <c r="AC2" s="297" t="str">
+      <c r="AB2" s="321"/>
+      <c r="AC2" s="325" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="298"/>
-      <c r="AE2" s="298"/>
-      <c r="AF2" s="299"/>
-      <c r="AG2" s="285" t="str">
+      <c r="AD2" s="326"/>
+      <c r="AE2" s="326"/>
+      <c r="AF2" s="327"/>
+      <c r="AG2" s="313" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="286"/>
-      <c r="AI2" s="287"/>
+      <c r="AH2" s="314"/>
+      <c r="AI2" s="315"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -11998,45 +11892,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="291" t="s">
+      <c r="A3" s="319" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="292"/>
-      <c r="C3" s="292"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="294" t="s">
-        <v>644</v>
-      </c>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
-      <c r="H3" s="295"/>
-      <c r="I3" s="295"/>
-      <c r="J3" s="295"/>
-      <c r="K3" s="295"/>
-      <c r="L3" s="295"/>
-      <c r="M3" s="295"/>
-      <c r="N3" s="296"/>
-      <c r="O3" s="306"/>
-      <c r="P3" s="307"/>
-      <c r="Q3" s="307"/>
-      <c r="R3" s="308"/>
-      <c r="S3" s="315"/>
-      <c r="T3" s="316"/>
-      <c r="U3" s="316"/>
-      <c r="V3" s="316"/>
-      <c r="W3" s="316"/>
-      <c r="X3" s="316"/>
-      <c r="Y3" s="316"/>
-      <c r="Z3" s="317"/>
-      <c r="AA3" s="291"/>
-      <c r="AB3" s="293"/>
-      <c r="AC3" s="318"/>
-      <c r="AD3" s="319"/>
-      <c r="AE3" s="319"/>
-      <c r="AF3" s="320"/>
-      <c r="AG3" s="285"/>
-      <c r="AH3" s="286"/>
-      <c r="AI3" s="287"/>
+      <c r="B3" s="320"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="322" t="s">
+        <v>635</v>
+      </c>
+      <c r="F3" s="323"/>
+      <c r="G3" s="323"/>
+      <c r="H3" s="323"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="323"/>
+      <c r="M3" s="323"/>
+      <c r="N3" s="324"/>
+      <c r="O3" s="334"/>
+      <c r="P3" s="335"/>
+      <c r="Q3" s="335"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="343"/>
+      <c r="T3" s="344"/>
+      <c r="U3" s="344"/>
+      <c r="V3" s="344"/>
+      <c r="W3" s="344"/>
+      <c r="X3" s="344"/>
+      <c r="Y3" s="344"/>
+      <c r="Z3" s="345"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="321"/>
+      <c r="AC3" s="346"/>
+      <c r="AD3" s="347"/>
+      <c r="AE3" s="347"/>
+      <c r="AF3" s="348"/>
+      <c r="AG3" s="313"/>
+      <c r="AH3" s="314"/>
+      <c r="AI3" s="315"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12073,1176 +11967,1020 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="288" t="s">
+      <c r="B7" s="316" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="289"/>
-      <c r="D7" s="288" t="s">
+      <c r="C7" s="317"/>
+      <c r="D7" s="316" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="290"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="288" t="s">
+      <c r="E7" s="318"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="316" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="290"/>
-      <c r="I7" s="289"/>
-      <c r="J7" s="288" t="s">
+      <c r="H7" s="318"/>
+      <c r="I7" s="317"/>
+      <c r="J7" s="316" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="290"/>
-      <c r="L7" s="290"/>
-      <c r="M7" s="290"/>
-      <c r="N7" s="290"/>
-      <c r="O7" s="290"/>
-      <c r="P7" s="289"/>
-      <c r="Q7" s="288" t="s">
+      <c r="K7" s="318"/>
+      <c r="L7" s="318"/>
+      <c r="M7" s="318"/>
+      <c r="N7" s="318"/>
+      <c r="O7" s="318"/>
+      <c r="P7" s="317"/>
+      <c r="Q7" s="316" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="290"/>
-      <c r="S7" s="290"/>
-      <c r="T7" s="290"/>
-      <c r="U7" s="290"/>
-      <c r="V7" s="290"/>
-      <c r="W7" s="290"/>
-      <c r="X7" s="290"/>
-      <c r="Y7" s="290"/>
-      <c r="Z7" s="290"/>
-      <c r="AA7" s="290"/>
-      <c r="AB7" s="290"/>
-      <c r="AC7" s="290"/>
-      <c r="AD7" s="290"/>
-      <c r="AE7" s="289"/>
-      <c r="AF7" s="288" t="s">
+      <c r="R7" s="318"/>
+      <c r="S7" s="318"/>
+      <c r="T7" s="318"/>
+      <c r="U7" s="318"/>
+      <c r="V7" s="318"/>
+      <c r="W7" s="318"/>
+      <c r="X7" s="318"/>
+      <c r="Y7" s="318"/>
+      <c r="Z7" s="318"/>
+      <c r="AA7" s="318"/>
+      <c r="AB7" s="318"/>
+      <c r="AC7" s="318"/>
+      <c r="AD7" s="318"/>
+      <c r="AE7" s="317"/>
+      <c r="AF7" s="316" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="290"/>
-      <c r="AH7" s="290"/>
-      <c r="AI7" s="289"/>
+      <c r="AG7" s="318"/>
+      <c r="AH7" s="318"/>
+      <c r="AI7" s="317"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="333"/>
-      <c r="C8" s="334"/>
-      <c r="D8" s="335"/>
-      <c r="E8" s="336"/>
-      <c r="F8" s="337"/>
-      <c r="G8" s="338"/>
-      <c r="H8" s="339"/>
-      <c r="I8" s="334"/>
-      <c r="J8" s="340"/>
-      <c r="K8" s="341"/>
-      <c r="L8" s="341"/>
-      <c r="M8" s="341"/>
-      <c r="N8" s="341"/>
-      <c r="O8" s="341"/>
-      <c r="P8" s="342"/>
-      <c r="Q8" s="343"/>
-      <c r="R8" s="344"/>
-      <c r="S8" s="344"/>
-      <c r="T8" s="344"/>
-      <c r="U8" s="344"/>
-      <c r="V8" s="344"/>
-      <c r="W8" s="344"/>
-      <c r="X8" s="344"/>
-      <c r="Y8" s="344"/>
-      <c r="Z8" s="344"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="344"/>
-      <c r="AC8" s="344"/>
-      <c r="AD8" s="344"/>
-      <c r="AE8" s="345"/>
-      <c r="AF8" s="340"/>
-      <c r="AG8" s="341"/>
-      <c r="AH8" s="341"/>
-      <c r="AI8" s="342"/>
+      <c r="B8" s="300"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="303"/>
+      <c r="F8" s="304"/>
+      <c r="G8" s="305"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="301"/>
+      <c r="J8" s="307"/>
+      <c r="K8" s="308"/>
+      <c r="L8" s="308"/>
+      <c r="M8" s="308"/>
+      <c r="N8" s="308"/>
+      <c r="O8" s="308"/>
+      <c r="P8" s="309"/>
+      <c r="Q8" s="310"/>
+      <c r="R8" s="311"/>
+      <c r="S8" s="311"/>
+      <c r="T8" s="311"/>
+      <c r="U8" s="311"/>
+      <c r="V8" s="311"/>
+      <c r="W8" s="311"/>
+      <c r="X8" s="311"/>
+      <c r="Y8" s="311"/>
+      <c r="Z8" s="311"/>
+      <c r="AA8" s="311"/>
+      <c r="AB8" s="311"/>
+      <c r="AC8" s="311"/>
+      <c r="AD8" s="311"/>
+      <c r="AE8" s="312"/>
+      <c r="AF8" s="307"/>
+      <c r="AG8" s="308"/>
+      <c r="AH8" s="308"/>
+      <c r="AI8" s="309"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="321"/>
-      <c r="C9" s="322"/>
-      <c r="D9" s="323"/>
-      <c r="E9" s="324"/>
-      <c r="F9" s="325"/>
-      <c r="G9" s="323"/>
-      <c r="H9" s="326"/>
-      <c r="I9" s="322"/>
-      <c r="J9" s="327"/>
-      <c r="K9" s="328"/>
-      <c r="L9" s="328"/>
-      <c r="M9" s="328"/>
-      <c r="N9" s="328"/>
-      <c r="O9" s="328"/>
-      <c r="P9" s="329"/>
-      <c r="Q9" s="330"/>
-      <c r="R9" s="331"/>
-      <c r="S9" s="331"/>
-      <c r="T9" s="331"/>
-      <c r="U9" s="331"/>
-      <c r="V9" s="331"/>
-      <c r="W9" s="331"/>
-      <c r="X9" s="331"/>
-      <c r="Y9" s="331"/>
-      <c r="Z9" s="331"/>
-      <c r="AA9" s="331"/>
-      <c r="AB9" s="331"/>
-      <c r="AC9" s="331"/>
-      <c r="AD9" s="331"/>
-      <c r="AE9" s="332"/>
-      <c r="AF9" s="327"/>
-      <c r="AG9" s="328"/>
-      <c r="AH9" s="328"/>
-      <c r="AI9" s="329"/>
+      <c r="B9" s="287"/>
+      <c r="C9" s="288"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="288"/>
+      <c r="J9" s="293"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="294"/>
+      <c r="M9" s="294"/>
+      <c r="N9" s="294"/>
+      <c r="O9" s="294"/>
+      <c r="P9" s="295"/>
+      <c r="Q9" s="296"/>
+      <c r="R9" s="297"/>
+      <c r="S9" s="297"/>
+      <c r="T9" s="297"/>
+      <c r="U9" s="297"/>
+      <c r="V9" s="297"/>
+      <c r="W9" s="297"/>
+      <c r="X9" s="297"/>
+      <c r="Y9" s="297"/>
+      <c r="Z9" s="297"/>
+      <c r="AA9" s="297"/>
+      <c r="AB9" s="297"/>
+      <c r="AC9" s="297"/>
+      <c r="AD9" s="297"/>
+      <c r="AE9" s="298"/>
+      <c r="AF9" s="293"/>
+      <c r="AG9" s="294"/>
+      <c r="AH9" s="294"/>
+      <c r="AI9" s="295"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="321"/>
-      <c r="C10" s="322"/>
-      <c r="D10" s="323"/>
-      <c r="E10" s="324"/>
-      <c r="F10" s="325"/>
-      <c r="G10" s="321"/>
-      <c r="H10" s="326"/>
-      <c r="I10" s="322"/>
-      <c r="J10" s="327"/>
-      <c r="K10" s="328"/>
-      <c r="L10" s="328"/>
-      <c r="M10" s="328"/>
-      <c r="N10" s="328"/>
-      <c r="O10" s="328"/>
-      <c r="P10" s="329"/>
-      <c r="Q10" s="330"/>
-      <c r="R10" s="331"/>
-      <c r="S10" s="331"/>
-      <c r="T10" s="331"/>
-      <c r="U10" s="331"/>
-      <c r="V10" s="331"/>
-      <c r="W10" s="331"/>
-      <c r="X10" s="331"/>
-      <c r="Y10" s="331"/>
-      <c r="Z10" s="331"/>
-      <c r="AA10" s="331"/>
-      <c r="AB10" s="331"/>
-      <c r="AC10" s="331"/>
-      <c r="AD10" s="331"/>
-      <c r="AE10" s="332"/>
-      <c r="AF10" s="327"/>
-      <c r="AG10" s="328"/>
-      <c r="AH10" s="328"/>
-      <c r="AI10" s="329"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="288"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="291"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="288"/>
+      <c r="J10" s="293"/>
+      <c r="K10" s="294"/>
+      <c r="L10" s="294"/>
+      <c r="M10" s="294"/>
+      <c r="N10" s="294"/>
+      <c r="O10" s="294"/>
+      <c r="P10" s="295"/>
+      <c r="Q10" s="296"/>
+      <c r="R10" s="297"/>
+      <c r="S10" s="297"/>
+      <c r="T10" s="297"/>
+      <c r="U10" s="297"/>
+      <c r="V10" s="297"/>
+      <c r="W10" s="297"/>
+      <c r="X10" s="297"/>
+      <c r="Y10" s="297"/>
+      <c r="Z10" s="297"/>
+      <c r="AA10" s="297"/>
+      <c r="AB10" s="297"/>
+      <c r="AC10" s="297"/>
+      <c r="AD10" s="297"/>
+      <c r="AE10" s="298"/>
+      <c r="AF10" s="293"/>
+      <c r="AG10" s="294"/>
+      <c r="AH10" s="294"/>
+      <c r="AI10" s="295"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="321"/>
-      <c r="C11" s="322"/>
-      <c r="D11" s="323"/>
-      <c r="E11" s="324"/>
-      <c r="F11" s="325"/>
-      <c r="G11" s="321"/>
-      <c r="H11" s="326"/>
-      <c r="I11" s="322"/>
-      <c r="J11" s="327"/>
-      <c r="K11" s="328"/>
-      <c r="L11" s="328"/>
-      <c r="M11" s="328"/>
-      <c r="N11" s="328"/>
-      <c r="O11" s="328"/>
-      <c r="P11" s="329"/>
-      <c r="Q11" s="330"/>
-      <c r="R11" s="331"/>
-      <c r="S11" s="331"/>
-      <c r="T11" s="331"/>
-      <c r="U11" s="331"/>
-      <c r="V11" s="331"/>
-      <c r="W11" s="331"/>
-      <c r="X11" s="331"/>
-      <c r="Y11" s="331"/>
-      <c r="Z11" s="331"/>
-      <c r="AA11" s="331"/>
-      <c r="AB11" s="331"/>
-      <c r="AC11" s="331"/>
-      <c r="AD11" s="331"/>
-      <c r="AE11" s="332"/>
-      <c r="AF11" s="327"/>
-      <c r="AG11" s="328"/>
-      <c r="AH11" s="328"/>
-      <c r="AI11" s="329"/>
+      <c r="B11" s="287"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="289"/>
+      <c r="E11" s="290"/>
+      <c r="F11" s="291"/>
+      <c r="G11" s="287"/>
+      <c r="H11" s="292"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="293"/>
+      <c r="K11" s="294"/>
+      <c r="L11" s="294"/>
+      <c r="M11" s="294"/>
+      <c r="N11" s="294"/>
+      <c r="O11" s="294"/>
+      <c r="P11" s="295"/>
+      <c r="Q11" s="296"/>
+      <c r="R11" s="297"/>
+      <c r="S11" s="297"/>
+      <c r="T11" s="297"/>
+      <c r="U11" s="297"/>
+      <c r="V11" s="297"/>
+      <c r="W11" s="297"/>
+      <c r="X11" s="297"/>
+      <c r="Y11" s="297"/>
+      <c r="Z11" s="297"/>
+      <c r="AA11" s="297"/>
+      <c r="AB11" s="297"/>
+      <c r="AC11" s="297"/>
+      <c r="AD11" s="297"/>
+      <c r="AE11" s="298"/>
+      <c r="AF11" s="293"/>
+      <c r="AG11" s="294"/>
+      <c r="AH11" s="294"/>
+      <c r="AI11" s="295"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="321"/>
-      <c r="C12" s="322"/>
-      <c r="D12" s="323"/>
-      <c r="E12" s="324"/>
-      <c r="F12" s="325"/>
-      <c r="G12" s="321"/>
-      <c r="H12" s="326"/>
-      <c r="I12" s="322"/>
-      <c r="J12" s="327"/>
-      <c r="K12" s="328"/>
-      <c r="L12" s="328"/>
-      <c r="M12" s="328"/>
-      <c r="N12" s="328"/>
-      <c r="O12" s="328"/>
-      <c r="P12" s="329"/>
-      <c r="Q12" s="330"/>
-      <c r="R12" s="331"/>
-      <c r="S12" s="331"/>
-      <c r="T12" s="331"/>
-      <c r="U12" s="331"/>
-      <c r="V12" s="331"/>
-      <c r="W12" s="331"/>
-      <c r="X12" s="331"/>
-      <c r="Y12" s="331"/>
-      <c r="Z12" s="331"/>
-      <c r="AA12" s="331"/>
-      <c r="AB12" s="331"/>
-      <c r="AC12" s="331"/>
-      <c r="AD12" s="331"/>
-      <c r="AE12" s="332"/>
-      <c r="AF12" s="327"/>
-      <c r="AG12" s="328"/>
-      <c r="AH12" s="328"/>
-      <c r="AI12" s="329"/>
+      <c r="B12" s="287"/>
+      <c r="C12" s="288"/>
+      <c r="D12" s="289"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="291"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="292"/>
+      <c r="I12" s="288"/>
+      <c r="J12" s="293"/>
+      <c r="K12" s="294"/>
+      <c r="L12" s="294"/>
+      <c r="M12" s="294"/>
+      <c r="N12" s="294"/>
+      <c r="O12" s="294"/>
+      <c r="P12" s="295"/>
+      <c r="Q12" s="296"/>
+      <c r="R12" s="297"/>
+      <c r="S12" s="297"/>
+      <c r="T12" s="297"/>
+      <c r="U12" s="297"/>
+      <c r="V12" s="297"/>
+      <c r="W12" s="297"/>
+      <c r="X12" s="297"/>
+      <c r="Y12" s="297"/>
+      <c r="Z12" s="297"/>
+      <c r="AA12" s="297"/>
+      <c r="AB12" s="297"/>
+      <c r="AC12" s="297"/>
+      <c r="AD12" s="297"/>
+      <c r="AE12" s="298"/>
+      <c r="AF12" s="293"/>
+      <c r="AG12" s="294"/>
+      <c r="AH12" s="294"/>
+      <c r="AI12" s="295"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="321"/>
-      <c r="C13" s="322"/>
-      <c r="D13" s="323"/>
-      <c r="E13" s="324"/>
-      <c r="F13" s="325"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="326"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="327"/>
-      <c r="K13" s="328"/>
-      <c r="L13" s="328"/>
-      <c r="M13" s="328"/>
-      <c r="N13" s="328"/>
-      <c r="O13" s="328"/>
-      <c r="P13" s="329"/>
-      <c r="Q13" s="330"/>
-      <c r="R13" s="331"/>
-      <c r="S13" s="331"/>
-      <c r="T13" s="331"/>
-      <c r="U13" s="331"/>
-      <c r="V13" s="331"/>
-      <c r="W13" s="331"/>
-      <c r="X13" s="331"/>
-      <c r="Y13" s="331"/>
-      <c r="Z13" s="331"/>
-      <c r="AA13" s="331"/>
-      <c r="AB13" s="331"/>
-      <c r="AC13" s="331"/>
-      <c r="AD13" s="331"/>
-      <c r="AE13" s="332"/>
-      <c r="AF13" s="327"/>
-      <c r="AG13" s="328"/>
-      <c r="AH13" s="328"/>
-      <c r="AI13" s="329"/>
+      <c r="B13" s="287"/>
+      <c r="C13" s="288"/>
+      <c r="D13" s="289"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="291"/>
+      <c r="G13" s="287"/>
+      <c r="H13" s="292"/>
+      <c r="I13" s="288"/>
+      <c r="J13" s="293"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="294"/>
+      <c r="M13" s="294"/>
+      <c r="N13" s="294"/>
+      <c r="O13" s="294"/>
+      <c r="P13" s="295"/>
+      <c r="Q13" s="296"/>
+      <c r="R13" s="297"/>
+      <c r="S13" s="297"/>
+      <c r="T13" s="297"/>
+      <c r="U13" s="297"/>
+      <c r="V13" s="297"/>
+      <c r="W13" s="297"/>
+      <c r="X13" s="297"/>
+      <c r="Y13" s="297"/>
+      <c r="Z13" s="297"/>
+      <c r="AA13" s="297"/>
+      <c r="AB13" s="297"/>
+      <c r="AC13" s="297"/>
+      <c r="AD13" s="297"/>
+      <c r="AE13" s="298"/>
+      <c r="AF13" s="293"/>
+      <c r="AG13" s="294"/>
+      <c r="AH13" s="294"/>
+      <c r="AI13" s="295"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="321"/>
-      <c r="C14" s="322"/>
-      <c r="D14" s="323"/>
-      <c r="E14" s="324"/>
-      <c r="F14" s="325"/>
-      <c r="G14" s="321"/>
-      <c r="H14" s="326"/>
-      <c r="I14" s="322"/>
-      <c r="J14" s="327"/>
-      <c r="K14" s="328"/>
-      <c r="L14" s="328"/>
-      <c r="M14" s="328"/>
-      <c r="N14" s="328"/>
-      <c r="O14" s="328"/>
-      <c r="P14" s="329"/>
-      <c r="Q14" s="330"/>
-      <c r="R14" s="331"/>
-      <c r="S14" s="331"/>
-      <c r="T14" s="331"/>
-      <c r="U14" s="331"/>
-      <c r="V14" s="331"/>
-      <c r="W14" s="331"/>
-      <c r="X14" s="331"/>
-      <c r="Y14" s="331"/>
-      <c r="Z14" s="331"/>
-      <c r="AA14" s="331"/>
-      <c r="AB14" s="331"/>
-      <c r="AC14" s="331"/>
-      <c r="AD14" s="331"/>
-      <c r="AE14" s="332"/>
-      <c r="AF14" s="327"/>
-      <c r="AG14" s="328"/>
-      <c r="AH14" s="328"/>
-      <c r="AI14" s="329"/>
+      <c r="B14" s="287"/>
+      <c r="C14" s="288"/>
+      <c r="D14" s="289"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="291"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="292"/>
+      <c r="I14" s="288"/>
+      <c r="J14" s="293"/>
+      <c r="K14" s="294"/>
+      <c r="L14" s="294"/>
+      <c r="M14" s="294"/>
+      <c r="N14" s="294"/>
+      <c r="O14" s="294"/>
+      <c r="P14" s="295"/>
+      <c r="Q14" s="296"/>
+      <c r="R14" s="297"/>
+      <c r="S14" s="297"/>
+      <c r="T14" s="297"/>
+      <c r="U14" s="297"/>
+      <c r="V14" s="297"/>
+      <c r="W14" s="297"/>
+      <c r="X14" s="297"/>
+      <c r="Y14" s="297"/>
+      <c r="Z14" s="297"/>
+      <c r="AA14" s="297"/>
+      <c r="AB14" s="297"/>
+      <c r="AC14" s="297"/>
+      <c r="AD14" s="297"/>
+      <c r="AE14" s="298"/>
+      <c r="AF14" s="293"/>
+      <c r="AG14" s="294"/>
+      <c r="AH14" s="294"/>
+      <c r="AI14" s="295"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="321"/>
-      <c r="C15" s="322"/>
-      <c r="D15" s="323"/>
-      <c r="E15" s="324"/>
-      <c r="F15" s="325"/>
-      <c r="G15" s="321"/>
-      <c r="H15" s="326"/>
-      <c r="I15" s="322"/>
-      <c r="J15" s="327"/>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
-      <c r="M15" s="328"/>
-      <c r="N15" s="328"/>
-      <c r="O15" s="328"/>
-      <c r="P15" s="329"/>
-      <c r="Q15" s="330"/>
-      <c r="R15" s="331"/>
-      <c r="S15" s="331"/>
-      <c r="T15" s="331"/>
-      <c r="U15" s="331"/>
-      <c r="V15" s="331"/>
-      <c r="W15" s="331"/>
-      <c r="X15" s="331"/>
-      <c r="Y15" s="331"/>
-      <c r="Z15" s="331"/>
-      <c r="AA15" s="331"/>
-      <c r="AB15" s="331"/>
-      <c r="AC15" s="331"/>
-      <c r="AD15" s="331"/>
-      <c r="AE15" s="332"/>
-      <c r="AF15" s="327"/>
-      <c r="AG15" s="328"/>
-      <c r="AH15" s="328"/>
-      <c r="AI15" s="329"/>
+      <c r="B15" s="287"/>
+      <c r="C15" s="288"/>
+      <c r="D15" s="289"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="291"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="292"/>
+      <c r="I15" s="288"/>
+      <c r="J15" s="293"/>
+      <c r="K15" s="294"/>
+      <c r="L15" s="294"/>
+      <c r="M15" s="294"/>
+      <c r="N15" s="294"/>
+      <c r="O15" s="294"/>
+      <c r="P15" s="295"/>
+      <c r="Q15" s="296"/>
+      <c r="R15" s="297"/>
+      <c r="S15" s="297"/>
+      <c r="T15" s="297"/>
+      <c r="U15" s="297"/>
+      <c r="V15" s="297"/>
+      <c r="W15" s="297"/>
+      <c r="X15" s="297"/>
+      <c r="Y15" s="297"/>
+      <c r="Z15" s="297"/>
+      <c r="AA15" s="297"/>
+      <c r="AB15" s="297"/>
+      <c r="AC15" s="297"/>
+      <c r="AD15" s="297"/>
+      <c r="AE15" s="298"/>
+      <c r="AF15" s="293"/>
+      <c r="AG15" s="294"/>
+      <c r="AH15" s="294"/>
+      <c r="AI15" s="295"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="321"/>
-      <c r="C16" s="322"/>
-      <c r="D16" s="323"/>
-      <c r="E16" s="324"/>
-      <c r="F16" s="325"/>
-      <c r="G16" s="321"/>
-      <c r="H16" s="326"/>
-      <c r="I16" s="322"/>
-      <c r="J16" s="327"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
-      <c r="M16" s="328"/>
-      <c r="N16" s="328"/>
-      <c r="O16" s="328"/>
-      <c r="P16" s="329"/>
-      <c r="Q16" s="330"/>
-      <c r="R16" s="331"/>
-      <c r="S16" s="331"/>
-      <c r="T16" s="331"/>
-      <c r="U16" s="331"/>
-      <c r="V16" s="331"/>
-      <c r="W16" s="331"/>
-      <c r="X16" s="331"/>
-      <c r="Y16" s="331"/>
-      <c r="Z16" s="331"/>
-      <c r="AA16" s="331"/>
-      <c r="AB16" s="331"/>
-      <c r="AC16" s="331"/>
-      <c r="AD16" s="331"/>
-      <c r="AE16" s="332"/>
-      <c r="AF16" s="327"/>
-      <c r="AG16" s="328"/>
-      <c r="AH16" s="328"/>
-      <c r="AI16" s="329"/>
+      <c r="B16" s="287"/>
+      <c r="C16" s="288"/>
+      <c r="D16" s="289"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="291"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="292"/>
+      <c r="I16" s="288"/>
+      <c r="J16" s="293"/>
+      <c r="K16" s="294"/>
+      <c r="L16" s="294"/>
+      <c r="M16" s="294"/>
+      <c r="N16" s="294"/>
+      <c r="O16" s="294"/>
+      <c r="P16" s="295"/>
+      <c r="Q16" s="296"/>
+      <c r="R16" s="297"/>
+      <c r="S16" s="297"/>
+      <c r="T16" s="297"/>
+      <c r="U16" s="297"/>
+      <c r="V16" s="297"/>
+      <c r="W16" s="297"/>
+      <c r="X16" s="297"/>
+      <c r="Y16" s="297"/>
+      <c r="Z16" s="297"/>
+      <c r="AA16" s="297"/>
+      <c r="AB16" s="297"/>
+      <c r="AC16" s="297"/>
+      <c r="AD16" s="297"/>
+      <c r="AE16" s="298"/>
+      <c r="AF16" s="293"/>
+      <c r="AG16" s="294"/>
+      <c r="AH16" s="294"/>
+      <c r="AI16" s="295"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="321"/>
-      <c r="C17" s="322"/>
-      <c r="D17" s="323"/>
-      <c r="E17" s="324"/>
-      <c r="F17" s="325"/>
-      <c r="G17" s="321"/>
-      <c r="H17" s="326"/>
-      <c r="I17" s="322"/>
-      <c r="J17" s="327"/>
-      <c r="K17" s="328"/>
-      <c r="L17" s="328"/>
-      <c r="M17" s="328"/>
-      <c r="N17" s="328"/>
-      <c r="O17" s="328"/>
-      <c r="P17" s="329"/>
-      <c r="Q17" s="330"/>
-      <c r="R17" s="331"/>
-      <c r="S17" s="331"/>
-      <c r="T17" s="331"/>
-      <c r="U17" s="331"/>
-      <c r="V17" s="331"/>
-      <c r="W17" s="331"/>
-      <c r="X17" s="331"/>
-      <c r="Y17" s="331"/>
-      <c r="Z17" s="331"/>
-      <c r="AA17" s="331"/>
-      <c r="AB17" s="331"/>
-      <c r="AC17" s="331"/>
-      <c r="AD17" s="331"/>
-      <c r="AE17" s="332"/>
-      <c r="AF17" s="327"/>
-      <c r="AG17" s="328"/>
-      <c r="AH17" s="328"/>
-      <c r="AI17" s="329"/>
+      <c r="B17" s="287"/>
+      <c r="C17" s="288"/>
+      <c r="D17" s="289"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="291"/>
+      <c r="G17" s="287"/>
+      <c r="H17" s="292"/>
+      <c r="I17" s="288"/>
+      <c r="J17" s="293"/>
+      <c r="K17" s="294"/>
+      <c r="L17" s="294"/>
+      <c r="M17" s="294"/>
+      <c r="N17" s="294"/>
+      <c r="O17" s="294"/>
+      <c r="P17" s="295"/>
+      <c r="Q17" s="296"/>
+      <c r="R17" s="297"/>
+      <c r="S17" s="297"/>
+      <c r="T17" s="297"/>
+      <c r="U17" s="297"/>
+      <c r="V17" s="297"/>
+      <c r="W17" s="297"/>
+      <c r="X17" s="297"/>
+      <c r="Y17" s="297"/>
+      <c r="Z17" s="297"/>
+      <c r="AA17" s="297"/>
+      <c r="AB17" s="297"/>
+      <c r="AC17" s="297"/>
+      <c r="AD17" s="297"/>
+      <c r="AE17" s="298"/>
+      <c r="AF17" s="293"/>
+      <c r="AG17" s="294"/>
+      <c r="AH17" s="294"/>
+      <c r="AI17" s="295"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="321"/>
-      <c r="C18" s="322"/>
-      <c r="D18" s="323"/>
-      <c r="E18" s="324"/>
-      <c r="F18" s="325"/>
-      <c r="G18" s="321"/>
-      <c r="H18" s="326"/>
-      <c r="I18" s="322"/>
-      <c r="J18" s="327"/>
-      <c r="K18" s="328"/>
-      <c r="L18" s="328"/>
-      <c r="M18" s="328"/>
-      <c r="N18" s="328"/>
-      <c r="O18" s="328"/>
-      <c r="P18" s="329"/>
-      <c r="Q18" s="330"/>
-      <c r="R18" s="331"/>
-      <c r="S18" s="331"/>
-      <c r="T18" s="331"/>
-      <c r="U18" s="331"/>
-      <c r="V18" s="331"/>
-      <c r="W18" s="331"/>
-      <c r="X18" s="331"/>
-      <c r="Y18" s="331"/>
-      <c r="Z18" s="331"/>
-      <c r="AA18" s="331"/>
-      <c r="AB18" s="331"/>
-      <c r="AC18" s="331"/>
-      <c r="AD18" s="331"/>
-      <c r="AE18" s="332"/>
-      <c r="AF18" s="327"/>
-      <c r="AG18" s="328"/>
-      <c r="AH18" s="328"/>
-      <c r="AI18" s="329"/>
+      <c r="B18" s="287"/>
+      <c r="C18" s="288"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="291"/>
+      <c r="G18" s="287"/>
+      <c r="H18" s="292"/>
+      <c r="I18" s="288"/>
+      <c r="J18" s="293"/>
+      <c r="K18" s="294"/>
+      <c r="L18" s="294"/>
+      <c r="M18" s="294"/>
+      <c r="N18" s="294"/>
+      <c r="O18" s="294"/>
+      <c r="P18" s="295"/>
+      <c r="Q18" s="296"/>
+      <c r="R18" s="297"/>
+      <c r="S18" s="297"/>
+      <c r="T18" s="297"/>
+      <c r="U18" s="297"/>
+      <c r="V18" s="297"/>
+      <c r="W18" s="297"/>
+      <c r="X18" s="297"/>
+      <c r="Y18" s="297"/>
+      <c r="Z18" s="297"/>
+      <c r="AA18" s="297"/>
+      <c r="AB18" s="297"/>
+      <c r="AC18" s="297"/>
+      <c r="AD18" s="297"/>
+      <c r="AE18" s="298"/>
+      <c r="AF18" s="293"/>
+      <c r="AG18" s="294"/>
+      <c r="AH18" s="294"/>
+      <c r="AI18" s="295"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="321"/>
-      <c r="C19" s="322"/>
-      <c r="D19" s="323"/>
-      <c r="E19" s="324"/>
-      <c r="F19" s="325"/>
-      <c r="G19" s="321"/>
-      <c r="H19" s="326"/>
-      <c r="I19" s="322"/>
-      <c r="J19" s="327"/>
-      <c r="K19" s="328"/>
-      <c r="L19" s="328"/>
-      <c r="M19" s="328"/>
-      <c r="N19" s="328"/>
-      <c r="O19" s="328"/>
-      <c r="P19" s="329"/>
-      <c r="Q19" s="330"/>
-      <c r="R19" s="331"/>
-      <c r="S19" s="331"/>
-      <c r="T19" s="331"/>
-      <c r="U19" s="331"/>
-      <c r="V19" s="331"/>
-      <c r="W19" s="331"/>
-      <c r="X19" s="331"/>
-      <c r="Y19" s="331"/>
-      <c r="Z19" s="331"/>
-      <c r="AA19" s="331"/>
-      <c r="AB19" s="331"/>
-      <c r="AC19" s="331"/>
-      <c r="AD19" s="331"/>
-      <c r="AE19" s="332"/>
-      <c r="AF19" s="327"/>
-      <c r="AG19" s="328"/>
-      <c r="AH19" s="328"/>
-      <c r="AI19" s="329"/>
+      <c r="B19" s="287"/>
+      <c r="C19" s="288"/>
+      <c r="D19" s="289"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="291"/>
+      <c r="G19" s="287"/>
+      <c r="H19" s="292"/>
+      <c r="I19" s="288"/>
+      <c r="J19" s="293"/>
+      <c r="K19" s="294"/>
+      <c r="L19" s="294"/>
+      <c r="M19" s="294"/>
+      <c r="N19" s="294"/>
+      <c r="O19" s="294"/>
+      <c r="P19" s="295"/>
+      <c r="Q19" s="296"/>
+      <c r="R19" s="297"/>
+      <c r="S19" s="297"/>
+      <c r="T19" s="297"/>
+      <c r="U19" s="297"/>
+      <c r="V19" s="297"/>
+      <c r="W19" s="297"/>
+      <c r="X19" s="297"/>
+      <c r="Y19" s="297"/>
+      <c r="Z19" s="297"/>
+      <c r="AA19" s="297"/>
+      <c r="AB19" s="297"/>
+      <c r="AC19" s="297"/>
+      <c r="AD19" s="297"/>
+      <c r="AE19" s="298"/>
+      <c r="AF19" s="293"/>
+      <c r="AG19" s="294"/>
+      <c r="AH19" s="294"/>
+      <c r="AI19" s="295"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="321"/>
-      <c r="C20" s="322"/>
-      <c r="D20" s="323"/>
-      <c r="E20" s="324"/>
-      <c r="F20" s="325"/>
-      <c r="G20" s="321"/>
-      <c r="H20" s="326"/>
-      <c r="I20" s="322"/>
-      <c r="J20" s="327"/>
-      <c r="K20" s="328"/>
-      <c r="L20" s="328"/>
-      <c r="M20" s="328"/>
-      <c r="N20" s="328"/>
-      <c r="O20" s="328"/>
-      <c r="P20" s="329"/>
-      <c r="Q20" s="330"/>
-      <c r="R20" s="331"/>
-      <c r="S20" s="331"/>
-      <c r="T20" s="331"/>
-      <c r="U20" s="331"/>
-      <c r="V20" s="331"/>
-      <c r="W20" s="331"/>
-      <c r="X20" s="331"/>
-      <c r="Y20" s="331"/>
-      <c r="Z20" s="331"/>
-      <c r="AA20" s="331"/>
-      <c r="AB20" s="331"/>
-      <c r="AC20" s="331"/>
-      <c r="AD20" s="331"/>
-      <c r="AE20" s="332"/>
-      <c r="AF20" s="327"/>
-      <c r="AG20" s="328"/>
-      <c r="AH20" s="328"/>
-      <c r="AI20" s="329"/>
+      <c r="B20" s="287"/>
+      <c r="C20" s="288"/>
+      <c r="D20" s="289"/>
+      <c r="E20" s="290"/>
+      <c r="F20" s="291"/>
+      <c r="G20" s="287"/>
+      <c r="H20" s="292"/>
+      <c r="I20" s="288"/>
+      <c r="J20" s="293"/>
+      <c r="K20" s="294"/>
+      <c r="L20" s="294"/>
+      <c r="M20" s="294"/>
+      <c r="N20" s="294"/>
+      <c r="O20" s="294"/>
+      <c r="P20" s="295"/>
+      <c r="Q20" s="296"/>
+      <c r="R20" s="297"/>
+      <c r="S20" s="297"/>
+      <c r="T20" s="297"/>
+      <c r="U20" s="297"/>
+      <c r="V20" s="297"/>
+      <c r="W20" s="297"/>
+      <c r="X20" s="297"/>
+      <c r="Y20" s="297"/>
+      <c r="Z20" s="297"/>
+      <c r="AA20" s="297"/>
+      <c r="AB20" s="297"/>
+      <c r="AC20" s="297"/>
+      <c r="AD20" s="297"/>
+      <c r="AE20" s="298"/>
+      <c r="AF20" s="293"/>
+      <c r="AG20" s="294"/>
+      <c r="AH20" s="294"/>
+      <c r="AI20" s="295"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="321"/>
-      <c r="C21" s="322"/>
-      <c r="D21" s="323"/>
-      <c r="E21" s="324"/>
-      <c r="F21" s="325"/>
-      <c r="G21" s="321"/>
-      <c r="H21" s="326"/>
-      <c r="I21" s="322"/>
-      <c r="J21" s="327"/>
-      <c r="K21" s="328"/>
-      <c r="L21" s="328"/>
-      <c r="M21" s="328"/>
-      <c r="N21" s="328"/>
-      <c r="O21" s="328"/>
-      <c r="P21" s="329"/>
-      <c r="Q21" s="330"/>
-      <c r="R21" s="331"/>
-      <c r="S21" s="331"/>
-      <c r="T21" s="331"/>
-      <c r="U21" s="331"/>
-      <c r="V21" s="331"/>
-      <c r="W21" s="331"/>
-      <c r="X21" s="331"/>
-      <c r="Y21" s="331"/>
-      <c r="Z21" s="331"/>
-      <c r="AA21" s="331"/>
-      <c r="AB21" s="331"/>
-      <c r="AC21" s="331"/>
-      <c r="AD21" s="331"/>
-      <c r="AE21" s="332"/>
-      <c r="AF21" s="327"/>
-      <c r="AG21" s="328"/>
-      <c r="AH21" s="328"/>
-      <c r="AI21" s="329"/>
+      <c r="B21" s="287"/>
+      <c r="C21" s="288"/>
+      <c r="D21" s="289"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="292"/>
+      <c r="I21" s="288"/>
+      <c r="J21" s="293"/>
+      <c r="K21" s="294"/>
+      <c r="L21" s="294"/>
+      <c r="M21" s="294"/>
+      <c r="N21" s="294"/>
+      <c r="O21" s="294"/>
+      <c r="P21" s="295"/>
+      <c r="Q21" s="296"/>
+      <c r="R21" s="297"/>
+      <c r="S21" s="297"/>
+      <c r="T21" s="297"/>
+      <c r="U21" s="297"/>
+      <c r="V21" s="297"/>
+      <c r="W21" s="297"/>
+      <c r="X21" s="297"/>
+      <c r="Y21" s="297"/>
+      <c r="Z21" s="297"/>
+      <c r="AA21" s="297"/>
+      <c r="AB21" s="297"/>
+      <c r="AC21" s="297"/>
+      <c r="AD21" s="297"/>
+      <c r="AE21" s="298"/>
+      <c r="AF21" s="293"/>
+      <c r="AG21" s="294"/>
+      <c r="AH21" s="294"/>
+      <c r="AI21" s="295"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="321"/>
-      <c r="C22" s="322"/>
-      <c r="D22" s="323"/>
-      <c r="E22" s="324"/>
-      <c r="F22" s="325"/>
-      <c r="G22" s="321"/>
-      <c r="H22" s="326"/>
-      <c r="I22" s="322"/>
-      <c r="J22" s="327"/>
-      <c r="K22" s="328"/>
-      <c r="L22" s="328"/>
-      <c r="M22" s="328"/>
-      <c r="N22" s="328"/>
-      <c r="O22" s="328"/>
-      <c r="P22" s="329"/>
-      <c r="Q22" s="330"/>
-      <c r="R22" s="331"/>
-      <c r="S22" s="331"/>
-      <c r="T22" s="331"/>
-      <c r="U22" s="331"/>
-      <c r="V22" s="331"/>
-      <c r="W22" s="331"/>
-      <c r="X22" s="331"/>
-      <c r="Y22" s="331"/>
-      <c r="Z22" s="331"/>
-      <c r="AA22" s="331"/>
-      <c r="AB22" s="331"/>
-      <c r="AC22" s="331"/>
-      <c r="AD22" s="331"/>
-      <c r="AE22" s="332"/>
-      <c r="AF22" s="327"/>
-      <c r="AG22" s="328"/>
-      <c r="AH22" s="328"/>
-      <c r="AI22" s="329"/>
+      <c r="B22" s="287"/>
+      <c r="C22" s="288"/>
+      <c r="D22" s="289"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="291"/>
+      <c r="G22" s="287"/>
+      <c r="H22" s="292"/>
+      <c r="I22" s="288"/>
+      <c r="J22" s="293"/>
+      <c r="K22" s="294"/>
+      <c r="L22" s="294"/>
+      <c r="M22" s="294"/>
+      <c r="N22" s="294"/>
+      <c r="O22" s="294"/>
+      <c r="P22" s="295"/>
+      <c r="Q22" s="296"/>
+      <c r="R22" s="297"/>
+      <c r="S22" s="297"/>
+      <c r="T22" s="297"/>
+      <c r="U22" s="297"/>
+      <c r="V22" s="297"/>
+      <c r="W22" s="297"/>
+      <c r="X22" s="297"/>
+      <c r="Y22" s="297"/>
+      <c r="Z22" s="297"/>
+      <c r="AA22" s="297"/>
+      <c r="AB22" s="297"/>
+      <c r="AC22" s="297"/>
+      <c r="AD22" s="297"/>
+      <c r="AE22" s="298"/>
+      <c r="AF22" s="293"/>
+      <c r="AG22" s="294"/>
+      <c r="AH22" s="294"/>
+      <c r="AI22" s="295"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="321"/>
-      <c r="C23" s="322"/>
-      <c r="D23" s="323"/>
-      <c r="E23" s="324"/>
-      <c r="F23" s="325"/>
-      <c r="G23" s="321"/>
-      <c r="H23" s="326"/>
-      <c r="I23" s="322"/>
-      <c r="J23" s="327"/>
-      <c r="K23" s="328"/>
-      <c r="L23" s="328"/>
-      <c r="M23" s="328"/>
-      <c r="N23" s="328"/>
-      <c r="O23" s="328"/>
-      <c r="P23" s="329"/>
-      <c r="Q23" s="330"/>
-      <c r="R23" s="331"/>
-      <c r="S23" s="331"/>
-      <c r="T23" s="331"/>
-      <c r="U23" s="331"/>
-      <c r="V23" s="331"/>
-      <c r="W23" s="331"/>
-      <c r="X23" s="331"/>
-      <c r="Y23" s="331"/>
-      <c r="Z23" s="331"/>
-      <c r="AA23" s="331"/>
-      <c r="AB23" s="331"/>
-      <c r="AC23" s="331"/>
-      <c r="AD23" s="331"/>
-      <c r="AE23" s="332"/>
-      <c r="AF23" s="327"/>
-      <c r="AG23" s="328"/>
-      <c r="AH23" s="328"/>
-      <c r="AI23" s="329"/>
+      <c r="B23" s="287"/>
+      <c r="C23" s="288"/>
+      <c r="D23" s="289"/>
+      <c r="E23" s="290"/>
+      <c r="F23" s="291"/>
+      <c r="G23" s="287"/>
+      <c r="H23" s="292"/>
+      <c r="I23" s="288"/>
+      <c r="J23" s="293"/>
+      <c r="K23" s="294"/>
+      <c r="L23" s="294"/>
+      <c r="M23" s="294"/>
+      <c r="N23" s="294"/>
+      <c r="O23" s="294"/>
+      <c r="P23" s="295"/>
+      <c r="Q23" s="296"/>
+      <c r="R23" s="297"/>
+      <c r="S23" s="297"/>
+      <c r="T23" s="297"/>
+      <c r="U23" s="297"/>
+      <c r="V23" s="297"/>
+      <c r="W23" s="297"/>
+      <c r="X23" s="297"/>
+      <c r="Y23" s="297"/>
+      <c r="Z23" s="297"/>
+      <c r="AA23" s="297"/>
+      <c r="AB23" s="297"/>
+      <c r="AC23" s="297"/>
+      <c r="AD23" s="297"/>
+      <c r="AE23" s="298"/>
+      <c r="AF23" s="293"/>
+      <c r="AG23" s="294"/>
+      <c r="AH23" s="294"/>
+      <c r="AI23" s="295"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="321"/>
-      <c r="C24" s="322"/>
-      <c r="D24" s="323"/>
-      <c r="E24" s="324"/>
-      <c r="F24" s="325"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="326"/>
-      <c r="I24" s="322"/>
-      <c r="J24" s="327"/>
-      <c r="K24" s="328"/>
-      <c r="L24" s="328"/>
-      <c r="M24" s="328"/>
-      <c r="N24" s="328"/>
-      <c r="O24" s="328"/>
-      <c r="P24" s="329"/>
-      <c r="Q24" s="330"/>
-      <c r="R24" s="331"/>
-      <c r="S24" s="331"/>
-      <c r="T24" s="331"/>
-      <c r="U24" s="331"/>
-      <c r="V24" s="331"/>
-      <c r="W24" s="331"/>
-      <c r="X24" s="331"/>
-      <c r="Y24" s="331"/>
-      <c r="Z24" s="331"/>
-      <c r="AA24" s="331"/>
-      <c r="AB24" s="331"/>
-      <c r="AC24" s="331"/>
-      <c r="AD24" s="331"/>
-      <c r="AE24" s="332"/>
-      <c r="AF24" s="327"/>
-      <c r="AG24" s="328"/>
-      <c r="AH24" s="328"/>
-      <c r="AI24" s="329"/>
+      <c r="B24" s="287"/>
+      <c r="C24" s="288"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="291"/>
+      <c r="G24" s="287"/>
+      <c r="H24" s="292"/>
+      <c r="I24" s="288"/>
+      <c r="J24" s="293"/>
+      <c r="K24" s="294"/>
+      <c r="L24" s="294"/>
+      <c r="M24" s="294"/>
+      <c r="N24" s="294"/>
+      <c r="O24" s="294"/>
+      <c r="P24" s="295"/>
+      <c r="Q24" s="296"/>
+      <c r="R24" s="297"/>
+      <c r="S24" s="297"/>
+      <c r="T24" s="297"/>
+      <c r="U24" s="297"/>
+      <c r="V24" s="297"/>
+      <c r="W24" s="297"/>
+      <c r="X24" s="297"/>
+      <c r="Y24" s="297"/>
+      <c r="Z24" s="297"/>
+      <c r="AA24" s="297"/>
+      <c r="AB24" s="297"/>
+      <c r="AC24" s="297"/>
+      <c r="AD24" s="297"/>
+      <c r="AE24" s="298"/>
+      <c r="AF24" s="293"/>
+      <c r="AG24" s="294"/>
+      <c r="AH24" s="294"/>
+      <c r="AI24" s="295"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="321"/>
-      <c r="C25" s="322"/>
-      <c r="D25" s="323"/>
-      <c r="E25" s="324"/>
-      <c r="F25" s="325"/>
-      <c r="G25" s="321"/>
-      <c r="H25" s="326"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="327"/>
-      <c r="K25" s="328"/>
-      <c r="L25" s="328"/>
-      <c r="M25" s="328"/>
-      <c r="N25" s="328"/>
-      <c r="O25" s="328"/>
-      <c r="P25" s="329"/>
-      <c r="Q25" s="330"/>
-      <c r="R25" s="331"/>
-      <c r="S25" s="331"/>
-      <c r="T25" s="331"/>
-      <c r="U25" s="331"/>
-      <c r="V25" s="331"/>
-      <c r="W25" s="331"/>
-      <c r="X25" s="331"/>
-      <c r="Y25" s="331"/>
-      <c r="Z25" s="331"/>
-      <c r="AA25" s="331"/>
-      <c r="AB25" s="331"/>
-      <c r="AC25" s="331"/>
-      <c r="AD25" s="331"/>
-      <c r="AE25" s="332"/>
-      <c r="AF25" s="327"/>
-      <c r="AG25" s="328"/>
-      <c r="AH25" s="328"/>
-      <c r="AI25" s="329"/>
+      <c r="B25" s="287"/>
+      <c r="C25" s="288"/>
+      <c r="D25" s="289"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="291"/>
+      <c r="G25" s="287"/>
+      <c r="H25" s="292"/>
+      <c r="I25" s="288"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="294"/>
+      <c r="L25" s="294"/>
+      <c r="M25" s="294"/>
+      <c r="N25" s="294"/>
+      <c r="O25" s="294"/>
+      <c r="P25" s="295"/>
+      <c r="Q25" s="296"/>
+      <c r="R25" s="297"/>
+      <c r="S25" s="297"/>
+      <c r="T25" s="297"/>
+      <c r="U25" s="297"/>
+      <c r="V25" s="297"/>
+      <c r="W25" s="297"/>
+      <c r="X25" s="297"/>
+      <c r="Y25" s="297"/>
+      <c r="Z25" s="297"/>
+      <c r="AA25" s="297"/>
+      <c r="AB25" s="297"/>
+      <c r="AC25" s="297"/>
+      <c r="AD25" s="297"/>
+      <c r="AE25" s="298"/>
+      <c r="AF25" s="293"/>
+      <c r="AG25" s="294"/>
+      <c r="AH25" s="294"/>
+      <c r="AI25" s="295"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="321"/>
-      <c r="C26" s="322"/>
-      <c r="D26" s="323"/>
-      <c r="E26" s="324"/>
-      <c r="F26" s="325"/>
-      <c r="G26" s="321"/>
-      <c r="H26" s="326"/>
-      <c r="I26" s="322"/>
-      <c r="J26" s="327"/>
-      <c r="K26" s="328"/>
-      <c r="L26" s="328"/>
-      <c r="M26" s="328"/>
-      <c r="N26" s="328"/>
-      <c r="O26" s="328"/>
-      <c r="P26" s="329"/>
-      <c r="Q26" s="330"/>
-      <c r="R26" s="331"/>
-      <c r="S26" s="331"/>
-      <c r="T26" s="331"/>
-      <c r="U26" s="331"/>
-      <c r="V26" s="331"/>
-      <c r="W26" s="331"/>
-      <c r="X26" s="331"/>
-      <c r="Y26" s="331"/>
-      <c r="Z26" s="331"/>
-      <c r="AA26" s="331"/>
-      <c r="AB26" s="331"/>
-      <c r="AC26" s="331"/>
-      <c r="AD26" s="331"/>
-      <c r="AE26" s="332"/>
-      <c r="AF26" s="327"/>
-      <c r="AG26" s="328"/>
-      <c r="AH26" s="328"/>
-      <c r="AI26" s="329"/>
+      <c r="B26" s="287"/>
+      <c r="C26" s="288"/>
+      <c r="D26" s="289"/>
+      <c r="E26" s="290"/>
+      <c r="F26" s="291"/>
+      <c r="G26" s="287"/>
+      <c r="H26" s="292"/>
+      <c r="I26" s="288"/>
+      <c r="J26" s="293"/>
+      <c r="K26" s="294"/>
+      <c r="L26" s="294"/>
+      <c r="M26" s="294"/>
+      <c r="N26" s="294"/>
+      <c r="O26" s="294"/>
+      <c r="P26" s="295"/>
+      <c r="Q26" s="296"/>
+      <c r="R26" s="297"/>
+      <c r="S26" s="297"/>
+      <c r="T26" s="297"/>
+      <c r="U26" s="297"/>
+      <c r="V26" s="297"/>
+      <c r="W26" s="297"/>
+      <c r="X26" s="297"/>
+      <c r="Y26" s="297"/>
+      <c r="Z26" s="297"/>
+      <c r="AA26" s="297"/>
+      <c r="AB26" s="297"/>
+      <c r="AC26" s="297"/>
+      <c r="AD26" s="297"/>
+      <c r="AE26" s="298"/>
+      <c r="AF26" s="293"/>
+      <c r="AG26" s="294"/>
+      <c r="AH26" s="294"/>
+      <c r="AI26" s="295"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="321"/>
-      <c r="C27" s="322"/>
-      <c r="D27" s="323"/>
-      <c r="E27" s="324"/>
-      <c r="F27" s="325"/>
-      <c r="G27" s="321"/>
-      <c r="H27" s="326"/>
-      <c r="I27" s="322"/>
-      <c r="J27" s="327"/>
-      <c r="K27" s="328"/>
-      <c r="L27" s="328"/>
-      <c r="M27" s="328"/>
-      <c r="N27" s="328"/>
-      <c r="O27" s="328"/>
-      <c r="P27" s="329"/>
-      <c r="Q27" s="330"/>
-      <c r="R27" s="331"/>
-      <c r="S27" s="331"/>
-      <c r="T27" s="331"/>
-      <c r="U27" s="331"/>
-      <c r="V27" s="331"/>
-      <c r="W27" s="331"/>
-      <c r="X27" s="331"/>
-      <c r="Y27" s="331"/>
-      <c r="Z27" s="331"/>
-      <c r="AA27" s="331"/>
-      <c r="AB27" s="331"/>
-      <c r="AC27" s="331"/>
-      <c r="AD27" s="331"/>
-      <c r="AE27" s="332"/>
-      <c r="AF27" s="327"/>
-      <c r="AG27" s="328"/>
-      <c r="AH27" s="328"/>
-      <c r="AI27" s="329"/>
+      <c r="B27" s="287"/>
+      <c r="C27" s="288"/>
+      <c r="D27" s="289"/>
+      <c r="E27" s="290"/>
+      <c r="F27" s="291"/>
+      <c r="G27" s="287"/>
+      <c r="H27" s="292"/>
+      <c r="I27" s="288"/>
+      <c r="J27" s="293"/>
+      <c r="K27" s="294"/>
+      <c r="L27" s="294"/>
+      <c r="M27" s="294"/>
+      <c r="N27" s="294"/>
+      <c r="O27" s="294"/>
+      <c r="P27" s="295"/>
+      <c r="Q27" s="296"/>
+      <c r="R27" s="297"/>
+      <c r="S27" s="297"/>
+      <c r="T27" s="297"/>
+      <c r="U27" s="297"/>
+      <c r="V27" s="297"/>
+      <c r="W27" s="297"/>
+      <c r="X27" s="297"/>
+      <c r="Y27" s="297"/>
+      <c r="Z27" s="297"/>
+      <c r="AA27" s="297"/>
+      <c r="AB27" s="297"/>
+      <c r="AC27" s="297"/>
+      <c r="AD27" s="297"/>
+      <c r="AE27" s="298"/>
+      <c r="AF27" s="293"/>
+      <c r="AG27" s="294"/>
+      <c r="AH27" s="294"/>
+      <c r="AI27" s="295"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="321"/>
-      <c r="C28" s="322"/>
-      <c r="D28" s="323"/>
-      <c r="E28" s="324"/>
-      <c r="F28" s="325"/>
-      <c r="G28" s="321"/>
-      <c r="H28" s="326"/>
-      <c r="I28" s="322"/>
-      <c r="J28" s="327"/>
-      <c r="K28" s="328"/>
-      <c r="L28" s="328"/>
-      <c r="M28" s="328"/>
-      <c r="N28" s="328"/>
-      <c r="O28" s="328"/>
-      <c r="P28" s="329"/>
-      <c r="Q28" s="330"/>
-      <c r="R28" s="331"/>
-      <c r="S28" s="331"/>
-      <c r="T28" s="331"/>
-      <c r="U28" s="331"/>
-      <c r="V28" s="331"/>
-      <c r="W28" s="331"/>
-      <c r="X28" s="331"/>
-      <c r="Y28" s="331"/>
-      <c r="Z28" s="331"/>
-      <c r="AA28" s="331"/>
-      <c r="AB28" s="331"/>
-      <c r="AC28" s="331"/>
-      <c r="AD28" s="331"/>
-      <c r="AE28" s="332"/>
-      <c r="AF28" s="327"/>
-      <c r="AG28" s="328"/>
-      <c r="AH28" s="328"/>
-      <c r="AI28" s="329"/>
+      <c r="B28" s="287"/>
+      <c r="C28" s="288"/>
+      <c r="D28" s="289"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="291"/>
+      <c r="G28" s="287"/>
+      <c r="H28" s="292"/>
+      <c r="I28" s="288"/>
+      <c r="J28" s="293"/>
+      <c r="K28" s="294"/>
+      <c r="L28" s="294"/>
+      <c r="M28" s="294"/>
+      <c r="N28" s="294"/>
+      <c r="O28" s="294"/>
+      <c r="P28" s="295"/>
+      <c r="Q28" s="296"/>
+      <c r="R28" s="297"/>
+      <c r="S28" s="297"/>
+      <c r="T28" s="297"/>
+      <c r="U28" s="297"/>
+      <c r="V28" s="297"/>
+      <c r="W28" s="297"/>
+      <c r="X28" s="297"/>
+      <c r="Y28" s="297"/>
+      <c r="Z28" s="297"/>
+      <c r="AA28" s="297"/>
+      <c r="AB28" s="297"/>
+      <c r="AC28" s="297"/>
+      <c r="AD28" s="297"/>
+      <c r="AE28" s="298"/>
+      <c r="AF28" s="293"/>
+      <c r="AG28" s="294"/>
+      <c r="AH28" s="294"/>
+      <c r="AI28" s="295"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="321"/>
-      <c r="C29" s="322"/>
-      <c r="D29" s="323"/>
-      <c r="E29" s="324"/>
-      <c r="F29" s="325"/>
-      <c r="G29" s="321"/>
-      <c r="H29" s="326"/>
-      <c r="I29" s="322"/>
-      <c r="J29" s="327"/>
-      <c r="K29" s="328"/>
-      <c r="L29" s="328"/>
-      <c r="M29" s="328"/>
-      <c r="N29" s="328"/>
-      <c r="O29" s="328"/>
-      <c r="P29" s="329"/>
-      <c r="Q29" s="330"/>
-      <c r="R29" s="331"/>
-      <c r="S29" s="331"/>
-      <c r="T29" s="331"/>
-      <c r="U29" s="331"/>
-      <c r="V29" s="331"/>
-      <c r="W29" s="331"/>
-      <c r="X29" s="331"/>
-      <c r="Y29" s="331"/>
-      <c r="Z29" s="331"/>
-      <c r="AA29" s="331"/>
-      <c r="AB29" s="331"/>
-      <c r="AC29" s="331"/>
-      <c r="AD29" s="331"/>
-      <c r="AE29" s="332"/>
-      <c r="AF29" s="327"/>
-      <c r="AG29" s="328"/>
-      <c r="AH29" s="328"/>
-      <c r="AI29" s="329"/>
+      <c r="B29" s="287"/>
+      <c r="C29" s="288"/>
+      <c r="D29" s="289"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="291"/>
+      <c r="G29" s="287"/>
+      <c r="H29" s="292"/>
+      <c r="I29" s="288"/>
+      <c r="J29" s="293"/>
+      <c r="K29" s="294"/>
+      <c r="L29" s="294"/>
+      <c r="M29" s="294"/>
+      <c r="N29" s="294"/>
+      <c r="O29" s="294"/>
+      <c r="P29" s="295"/>
+      <c r="Q29" s="296"/>
+      <c r="R29" s="297"/>
+      <c r="S29" s="297"/>
+      <c r="T29" s="297"/>
+      <c r="U29" s="297"/>
+      <c r="V29" s="297"/>
+      <c r="W29" s="297"/>
+      <c r="X29" s="297"/>
+      <c r="Y29" s="297"/>
+      <c r="Z29" s="297"/>
+      <c r="AA29" s="297"/>
+      <c r="AB29" s="297"/>
+      <c r="AC29" s="297"/>
+      <c r="AD29" s="297"/>
+      <c r="AE29" s="298"/>
+      <c r="AF29" s="293"/>
+      <c r="AG29" s="294"/>
+      <c r="AH29" s="294"/>
+      <c r="AI29" s="295"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="321"/>
-      <c r="C30" s="322"/>
-      <c r="D30" s="323"/>
-      <c r="E30" s="324"/>
-      <c r="F30" s="325"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="326"/>
-      <c r="I30" s="322"/>
-      <c r="J30" s="327"/>
-      <c r="K30" s="328"/>
-      <c r="L30" s="328"/>
-      <c r="M30" s="328"/>
-      <c r="N30" s="328"/>
-      <c r="O30" s="328"/>
-      <c r="P30" s="329"/>
-      <c r="Q30" s="330"/>
-      <c r="R30" s="331"/>
-      <c r="S30" s="331"/>
-      <c r="T30" s="331"/>
-      <c r="U30" s="331"/>
-      <c r="V30" s="331"/>
-      <c r="W30" s="331"/>
-      <c r="X30" s="331"/>
-      <c r="Y30" s="331"/>
-      <c r="Z30" s="331"/>
-      <c r="AA30" s="331"/>
-      <c r="AB30" s="331"/>
-      <c r="AC30" s="331"/>
-      <c r="AD30" s="331"/>
-      <c r="AE30" s="332"/>
-      <c r="AF30" s="327"/>
-      <c r="AG30" s="328"/>
-      <c r="AH30" s="328"/>
-      <c r="AI30" s="329"/>
+      <c r="B30" s="287"/>
+      <c r="C30" s="288"/>
+      <c r="D30" s="289"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="291"/>
+      <c r="G30" s="287"/>
+      <c r="H30" s="292"/>
+      <c r="I30" s="288"/>
+      <c r="J30" s="293"/>
+      <c r="K30" s="294"/>
+      <c r="L30" s="294"/>
+      <c r="M30" s="294"/>
+      <c r="N30" s="294"/>
+      <c r="O30" s="294"/>
+      <c r="P30" s="295"/>
+      <c r="Q30" s="296"/>
+      <c r="R30" s="297"/>
+      <c r="S30" s="297"/>
+      <c r="T30" s="297"/>
+      <c r="U30" s="297"/>
+      <c r="V30" s="297"/>
+      <c r="W30" s="297"/>
+      <c r="X30" s="297"/>
+      <c r="Y30" s="297"/>
+      <c r="Z30" s="297"/>
+      <c r="AA30" s="297"/>
+      <c r="AB30" s="297"/>
+      <c r="AC30" s="297"/>
+      <c r="AD30" s="297"/>
+      <c r="AE30" s="298"/>
+      <c r="AF30" s="293"/>
+      <c r="AG30" s="294"/>
+      <c r="AH30" s="294"/>
+      <c r="AI30" s="295"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="321"/>
-      <c r="C31" s="322"/>
-      <c r="D31" s="323"/>
-      <c r="E31" s="324"/>
-      <c r="F31" s="325"/>
-      <c r="G31" s="321"/>
-      <c r="H31" s="326"/>
-      <c r="I31" s="322"/>
-      <c r="J31" s="327"/>
-      <c r="K31" s="328"/>
-      <c r="L31" s="328"/>
-      <c r="M31" s="328"/>
-      <c r="N31" s="328"/>
-      <c r="O31" s="328"/>
-      <c r="P31" s="329"/>
-      <c r="Q31" s="330"/>
-      <c r="R31" s="331"/>
-      <c r="S31" s="331"/>
-      <c r="T31" s="331"/>
-      <c r="U31" s="331"/>
-      <c r="V31" s="331"/>
-      <c r="W31" s="331"/>
-      <c r="X31" s="331"/>
-      <c r="Y31" s="331"/>
-      <c r="Z31" s="331"/>
-      <c r="AA31" s="331"/>
-      <c r="AB31" s="331"/>
-      <c r="AC31" s="331"/>
-      <c r="AD31" s="331"/>
-      <c r="AE31" s="332"/>
-      <c r="AF31" s="327"/>
-      <c r="AG31" s="328"/>
-      <c r="AH31" s="328"/>
-      <c r="AI31" s="329"/>
+      <c r="B31" s="287"/>
+      <c r="C31" s="288"/>
+      <c r="D31" s="289"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="291"/>
+      <c r="G31" s="287"/>
+      <c r="H31" s="292"/>
+      <c r="I31" s="288"/>
+      <c r="J31" s="293"/>
+      <c r="K31" s="294"/>
+      <c r="L31" s="294"/>
+      <c r="M31" s="294"/>
+      <c r="N31" s="294"/>
+      <c r="O31" s="294"/>
+      <c r="P31" s="295"/>
+      <c r="Q31" s="296"/>
+      <c r="R31" s="297"/>
+      <c r="S31" s="297"/>
+      <c r="T31" s="297"/>
+      <c r="U31" s="297"/>
+      <c r="V31" s="297"/>
+      <c r="W31" s="297"/>
+      <c r="X31" s="297"/>
+      <c r="Y31" s="297"/>
+      <c r="Z31" s="297"/>
+      <c r="AA31" s="297"/>
+      <c r="AB31" s="297"/>
+      <c r="AC31" s="297"/>
+      <c r="AD31" s="297"/>
+      <c r="AE31" s="298"/>
+      <c r="AF31" s="293"/>
+      <c r="AG31" s="294"/>
+      <c r="AH31" s="294"/>
+      <c r="AI31" s="295"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="321"/>
-      <c r="C32" s="322"/>
-      <c r="D32" s="323"/>
-      <c r="E32" s="324"/>
-      <c r="F32" s="325"/>
-      <c r="G32" s="321"/>
-      <c r="H32" s="326"/>
-      <c r="I32" s="322"/>
-      <c r="J32" s="327"/>
-      <c r="K32" s="346"/>
-      <c r="L32" s="328"/>
-      <c r="M32" s="328"/>
-      <c r="N32" s="328"/>
-      <c r="O32" s="328"/>
-      <c r="P32" s="329"/>
-      <c r="Q32" s="330"/>
-      <c r="R32" s="331"/>
-      <c r="S32" s="331"/>
-      <c r="T32" s="331"/>
-      <c r="U32" s="331"/>
-      <c r="V32" s="331"/>
-      <c r="W32" s="331"/>
-      <c r="X32" s="331"/>
-      <c r="Y32" s="331"/>
-      <c r="Z32" s="331"/>
-      <c r="AA32" s="331"/>
-      <c r="AB32" s="331"/>
-      <c r="AC32" s="331"/>
-      <c r="AD32" s="331"/>
-      <c r="AE32" s="332"/>
-      <c r="AF32" s="327"/>
-      <c r="AG32" s="328"/>
-      <c r="AH32" s="328"/>
-      <c r="AI32" s="329"/>
+      <c r="B32" s="287"/>
+      <c r="C32" s="288"/>
+      <c r="D32" s="289"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="291"/>
+      <c r="G32" s="287"/>
+      <c r="H32" s="292"/>
+      <c r="I32" s="288"/>
+      <c r="J32" s="293"/>
+      <c r="K32" s="299"/>
+      <c r="L32" s="294"/>
+      <c r="M32" s="294"/>
+      <c r="N32" s="294"/>
+      <c r="O32" s="294"/>
+      <c r="P32" s="295"/>
+      <c r="Q32" s="296"/>
+      <c r="R32" s="297"/>
+      <c r="S32" s="297"/>
+      <c r="T32" s="297"/>
+      <c r="U32" s="297"/>
+      <c r="V32" s="297"/>
+      <c r="W32" s="297"/>
+      <c r="X32" s="297"/>
+      <c r="Y32" s="297"/>
+      <c r="Z32" s="297"/>
+      <c r="AA32" s="297"/>
+      <c r="AB32" s="297"/>
+      <c r="AC32" s="297"/>
+      <c r="AD32" s="297"/>
+      <c r="AE32" s="298"/>
+      <c r="AF32" s="293"/>
+      <c r="AG32" s="294"/>
+      <c r="AH32" s="294"/>
+      <c r="AI32" s="295"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="321"/>
-      <c r="C33" s="322"/>
-      <c r="D33" s="323"/>
-      <c r="E33" s="324"/>
-      <c r="F33" s="325"/>
-      <c r="G33" s="321"/>
-      <c r="H33" s="326"/>
-      <c r="I33" s="322"/>
-      <c r="J33" s="327"/>
-      <c r="K33" s="328"/>
-      <c r="L33" s="328"/>
-      <c r="M33" s="328"/>
-      <c r="N33" s="328"/>
-      <c r="O33" s="328"/>
-      <c r="P33" s="329"/>
-      <c r="Q33" s="330"/>
-      <c r="R33" s="331"/>
-      <c r="S33" s="331"/>
-      <c r="T33" s="331"/>
-      <c r="U33" s="331"/>
-      <c r="V33" s="331"/>
-      <c r="W33" s="331"/>
-      <c r="X33" s="331"/>
-      <c r="Y33" s="331"/>
-      <c r="Z33" s="331"/>
-      <c r="AA33" s="331"/>
-      <c r="AB33" s="331"/>
-      <c r="AC33" s="331"/>
-      <c r="AD33" s="331"/>
-      <c r="AE33" s="332"/>
-      <c r="AF33" s="327"/>
-      <c r="AG33" s="328"/>
-      <c r="AH33" s="328"/>
-      <c r="AI33" s="329"/>
+      <c r="B33" s="287"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="289"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="291"/>
+      <c r="G33" s="287"/>
+      <c r="H33" s="292"/>
+      <c r="I33" s="288"/>
+      <c r="J33" s="293"/>
+      <c r="K33" s="294"/>
+      <c r="L33" s="294"/>
+      <c r="M33" s="294"/>
+      <c r="N33" s="294"/>
+      <c r="O33" s="294"/>
+      <c r="P33" s="295"/>
+      <c r="Q33" s="296"/>
+      <c r="R33" s="297"/>
+      <c r="S33" s="297"/>
+      <c r="T33" s="297"/>
+      <c r="U33" s="297"/>
+      <c r="V33" s="297"/>
+      <c r="W33" s="297"/>
+      <c r="X33" s="297"/>
+      <c r="Y33" s="297"/>
+      <c r="Z33" s="297"/>
+      <c r="AA33" s="297"/>
+      <c r="AB33" s="297"/>
+      <c r="AC33" s="297"/>
+      <c r="AD33" s="297"/>
+      <c r="AE33" s="298"/>
+      <c r="AF33" s="293"/>
+      <c r="AG33" s="294"/>
+      <c r="AH33" s="294"/>
+      <c r="AI33" s="295"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13266,6 +13004,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -13311,7 +13205,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="25" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -13321,12 +13215,12 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -13405,7 +13299,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>4</v>
@@ -14291,10 +14185,10 @@
         <v>83</v>
       </c>
       <c r="F35" s="173" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H35" s="177"/>
       <c r="I35" s="177"/>
@@ -17010,7 +16904,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="347" t="s">
+      <c r="B112" s="349" t="s">
         <v>194</v>
       </c>
       <c r="C112" s="186"/>
@@ -17044,7 +16938,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="347"/>
+      <c r="B113" s="349"/>
       <c r="C113" s="186"/>
       <c r="D113" s="235"/>
       <c r="E113" s="207"/>
@@ -17246,7 +17140,7 @@
         <v>202</v>
       </c>
       <c r="G119" s="154" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="H119" s="154"/>
       <c r="I119" s="154"/>
@@ -17346,7 +17240,7 @@
         <v>206</v>
       </c>
       <c r="G122" s="154" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H122" s="154"/>
       <c r="I122" s="154"/>
@@ -17380,7 +17274,7 @@
         <v>207</v>
       </c>
       <c r="G123" s="154" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H123" s="154"/>
       <c r="I123" s="154"/>
@@ -17414,7 +17308,7 @@
         <v>208</v>
       </c>
       <c r="G124" s="154" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H124" s="154"/>
       <c r="I124" s="154"/>
@@ -17524,7 +17418,7 @@
         <v>214</v>
       </c>
       <c r="G127" s="154" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H127" s="154"/>
       <c r="I127" s="154"/>
@@ -17664,7 +17558,7 @@
         <v>220</v>
       </c>
       <c r="G131" s="154" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H131" s="154"/>
       <c r="I131" s="154"/>
@@ -17690,7 +17584,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="347" t="s">
+      <c r="B132" s="349" t="s">
         <v>221</v>
       </c>
       <c r="C132" s="186"/>
@@ -17700,7 +17594,7 @@
         <v>222</v>
       </c>
       <c r="G132" s="154" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H132" s="154"/>
       <c r="I132" s="154"/>
@@ -17726,7 +17620,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="347"/>
+      <c r="B133" s="349"/>
       <c r="C133" s="186"/>
       <c r="D133" s="174"/>
       <c r="E133" s="174"/>
@@ -17734,7 +17628,7 @@
         <v>223</v>
       </c>
       <c r="G133" s="154" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H133" s="154"/>
       <c r="I133" s="154"/>
@@ -17768,7 +17662,7 @@
         <v>224</v>
       </c>
       <c r="G134" s="154" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H134" s="154"/>
       <c r="I134" s="154"/>
@@ -17804,7 +17698,7 @@
         <v>226</v>
       </c>
       <c r="G135" s="154" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H135" s="154"/>
       <c r="I135" s="154"/>
@@ -17838,7 +17732,7 @@
         <v>227</v>
       </c>
       <c r="G136" s="154" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H136" s="154"/>
       <c r="I136" s="154"/>
@@ -18016,7 +17910,7 @@
         <v>236</v>
       </c>
       <c r="G141" s="154" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H141" s="154"/>
       <c r="I141" s="154"/>
@@ -18086,7 +17980,7 @@
         <v>240</v>
       </c>
       <c r="G143" s="154" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H143" s="154"/>
       <c r="I143" s="154"/>
@@ -18120,7 +18014,7 @@
         <v>241</v>
       </c>
       <c r="G144" s="154" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H144" s="154"/>
       <c r="I144" s="154"/>
@@ -18154,7 +18048,7 @@
         <v>242</v>
       </c>
       <c r="G145" s="154" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H145" s="154"/>
       <c r="I145" s="154"/>
@@ -18188,7 +18082,7 @@
         <v>243</v>
       </c>
       <c r="G146" s="154" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H146" s="154"/>
       <c r="I146" s="154"/>
@@ -18222,7 +18116,7 @@
         <v>244</v>
       </c>
       <c r="G147" s="154" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H147" s="154"/>
       <c r="I147" s="154"/>
@@ -18256,7 +18150,7 @@
         <v>245</v>
       </c>
       <c r="G148" s="154" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H148" s="154"/>
       <c r="I148" s="154"/>
@@ -18874,7 +18768,7 @@
         <v>265</v>
       </c>
       <c r="G167" s="154" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="H167" s="154"/>
       <c r="I167" s="154"/>
@@ -18908,7 +18802,7 @@
         <v>266</v>
       </c>
       <c r="G168" s="154" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H168" s="154"/>
       <c r="I168" s="154"/>
@@ -19136,7 +19030,7 @@
         <v>273</v>
       </c>
       <c r="G175" s="154" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H175" s="154"/>
       <c r="I175" s="154"/>
@@ -19170,7 +19064,7 @@
         <v>274</v>
       </c>
       <c r="G176" s="154" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H176" s="154"/>
       <c r="I176" s="154"/>
@@ -19204,7 +19098,7 @@
         <v>275</v>
       </c>
       <c r="G177" s="154" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H177" s="154"/>
       <c r="I177" s="154"/>
@@ -19274,7 +19168,7 @@
         <v>278</v>
       </c>
       <c r="G179" s="154" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H179" s="154"/>
       <c r="I179" s="154"/>
@@ -21070,7 +20964,7 @@
         <v>341</v>
       </c>
       <c r="G230" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H230" s="177"/>
       <c r="I230" s="177"/>
@@ -21106,7 +21000,7 @@
         <v>342</v>
       </c>
       <c r="G231" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H231" s="177"/>
       <c r="I231" s="177"/>
@@ -21140,7 +21034,7 @@
         <v>343</v>
       </c>
       <c r="G232" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H232" s="177"/>
       <c r="I232" s="177"/>
@@ -21174,7 +21068,7 @@
         <v>344</v>
       </c>
       <c r="G233" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H233" s="177"/>
       <c r="I233" s="177"/>
@@ -21208,7 +21102,7 @@
         <v>345</v>
       </c>
       <c r="G234" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H234" s="177"/>
       <c r="I234" s="177"/>
@@ -21242,7 +21136,7 @@
         <v>346</v>
       </c>
       <c r="G235" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H235" s="177"/>
       <c r="I235" s="177"/>
@@ -21278,7 +21172,7 @@
         <v>347</v>
       </c>
       <c r="G236" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H236" s="177"/>
       <c r="I236" s="177"/>
@@ -21312,7 +21206,7 @@
         <v>348</v>
       </c>
       <c r="G237" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H237" s="177"/>
       <c r="I237" s="177"/>
@@ -21346,7 +21240,7 @@
         <v>349</v>
       </c>
       <c r="G238" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H238" s="177"/>
       <c r="I238" s="177"/>
@@ -21380,7 +21274,7 @@
         <v>350</v>
       </c>
       <c r="G239" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H239" s="177"/>
       <c r="I239" s="177"/>
@@ -21414,7 +21308,7 @@
         <v>351</v>
       </c>
       <c r="G240" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H240" s="177"/>
       <c r="I240" s="177"/>
@@ -21450,7 +21344,7 @@
         <v>352</v>
       </c>
       <c r="G241" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H241" s="177"/>
       <c r="I241" s="177"/>
@@ -21490,7 +21384,7 @@
         <v>353</v>
       </c>
       <c r="G242" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H242" s="177"/>
       <c r="I242" s="177"/>
@@ -21532,7 +21426,7 @@
         <v>356</v>
       </c>
       <c r="G243" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H243" s="177"/>
       <c r="I243" s="177"/>
@@ -21566,7 +21460,7 @@
         <v>357</v>
       </c>
       <c r="G244" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H244" s="177"/>
       <c r="I244" s="177"/>
@@ -21604,7 +21498,7 @@
         <v>358</v>
       </c>
       <c r="G245" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H245" s="177"/>
       <c r="I245" s="177"/>
@@ -21638,7 +21532,7 @@
         <v>359</v>
       </c>
       <c r="G246" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H246" s="177"/>
       <c r="I246" s="177"/>
@@ -21678,7 +21572,7 @@
         <v>361</v>
       </c>
       <c r="G247" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H247" s="177"/>
       <c r="I247" s="177"/>
@@ -21714,7 +21608,7 @@
         <v>362</v>
       </c>
       <c r="G248" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H248" s="177"/>
       <c r="I248" s="177"/>
@@ -21750,7 +21644,7 @@
         <v>363</v>
       </c>
       <c r="G249" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H249" s="177"/>
       <c r="I249" s="177"/>
@@ -21786,7 +21680,7 @@
         <v>364</v>
       </c>
       <c r="G250" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H250" s="177"/>
       <c r="I250" s="177"/>
@@ -21824,7 +21718,7 @@
         <v>365</v>
       </c>
       <c r="G251" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H251" s="177"/>
       <c r="I251" s="177"/>
@@ -21858,7 +21752,7 @@
         <v>366</v>
       </c>
       <c r="G252" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H252" s="177"/>
       <c r="I252" s="177"/>
@@ -21894,7 +21788,7 @@
         <v>367</v>
       </c>
       <c r="G253" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H253" s="177"/>
       <c r="I253" s="177"/>
@@ -21928,7 +21822,7 @@
         <v>368</v>
       </c>
       <c r="G254" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H254" s="177"/>
       <c r="I254" s="177"/>
@@ -21962,7 +21856,7 @@
         <v>369</v>
       </c>
       <c r="G255" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H255" s="177"/>
       <c r="I255" s="177"/>
@@ -21996,7 +21890,7 @@
         <v>370</v>
       </c>
       <c r="G256" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H256" s="177"/>
       <c r="I256" s="177"/>
@@ -22030,7 +21924,7 @@
         <v>371</v>
       </c>
       <c r="G257" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H257" s="177"/>
       <c r="I257" s="177"/>
@@ -22064,7 +21958,7 @@
         <v>372</v>
       </c>
       <c r="G258" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H258" s="177"/>
       <c r="I258" s="177"/>
@@ -22098,7 +21992,7 @@
         <v>373</v>
       </c>
       <c r="G259" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H259" s="177"/>
       <c r="I259" s="177"/>
@@ -22132,7 +22026,7 @@
         <v>374</v>
       </c>
       <c r="G260" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H260" s="177"/>
       <c r="I260" s="177"/>
@@ -22166,7 +22060,7 @@
         <v>375</v>
       </c>
       <c r="G261" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H261" s="177"/>
       <c r="I261" s="177"/>
@@ -22200,7 +22094,7 @@
         <v>376</v>
       </c>
       <c r="G262" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H262" s="177"/>
       <c r="I262" s="177"/>
@@ -22234,7 +22128,7 @@
         <v>377</v>
       </c>
       <c r="G263" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H263" s="177"/>
       <c r="I263" s="177"/>
@@ -22270,7 +22164,7 @@
         <v>378</v>
       </c>
       <c r="G264" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H264" s="177"/>
       <c r="I264" s="177"/>
@@ -22304,7 +22198,7 @@
         <v>379</v>
       </c>
       <c r="G265" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H265" s="177"/>
       <c r="I265" s="177"/>
@@ -22338,7 +22232,7 @@
         <v>380</v>
       </c>
       <c r="G266" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H266" s="177"/>
       <c r="I266" s="177"/>
@@ -22372,7 +22266,7 @@
         <v>381</v>
       </c>
       <c r="G267" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H267" s="177"/>
       <c r="I267" s="177"/>
@@ -22406,7 +22300,7 @@
         <v>382</v>
       </c>
       <c r="G268" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H268" s="177"/>
       <c r="I268" s="177"/>
@@ -22440,7 +22334,7 @@
         <v>383</v>
       </c>
       <c r="G269" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H269" s="177"/>
       <c r="I269" s="177"/>
@@ -22476,7 +22370,7 @@
         <v>384</v>
       </c>
       <c r="G270" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H270" s="177"/>
       <c r="I270" s="177"/>
@@ -22510,7 +22404,7 @@
         <v>385</v>
       </c>
       <c r="G271" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H271" s="177"/>
       <c r="I271" s="177"/>
@@ -22544,7 +22438,7 @@
         <v>386</v>
       </c>
       <c r="G272" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H272" s="177"/>
       <c r="I272" s="177"/>
@@ -22578,7 +22472,7 @@
         <v>387</v>
       </c>
       <c r="G273" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H273" s="177"/>
       <c r="I273" s="177"/>
@@ -22612,7 +22506,7 @@
         <v>388</v>
       </c>
       <c r="G274" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H274" s="177"/>
       <c r="I274" s="177"/>
@@ -22646,7 +22540,7 @@
         <v>389</v>
       </c>
       <c r="G275" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H275" s="177"/>
       <c r="I275" s="177"/>
@@ -22680,7 +22574,7 @@
         <v>390</v>
       </c>
       <c r="G276" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H276" s="177"/>
       <c r="I276" s="177"/>
@@ -22714,7 +22608,7 @@
         <v>391</v>
       </c>
       <c r="G277" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H277" s="177"/>
       <c r="I277" s="177"/>
@@ -22750,7 +22644,7 @@
         <v>392</v>
       </c>
       <c r="G278" s="177" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H278" s="177"/>
       <c r="I278" s="177"/>
@@ -23391,7 +23285,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="25" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -23401,12 +23295,12 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -25794,7 +25688,7 @@
         <v>141</v>
       </c>
       <c r="G77" s="114" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="H77" s="115"/>
       <c r="I77" s="115"/>
@@ -26988,7 +26882,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="348" t="s">
+      <c r="B112" s="350" t="s">
         <v>540</v>
       </c>
       <c r="C112" s="252"/>
@@ -27022,7 +26916,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="348"/>
+      <c r="B113" s="350"/>
       <c r="C113" s="252"/>
       <c r="D113" s="254"/>
       <c r="E113" s="262"/>
@@ -27096,7 +26990,7 @@
         <v>198</v>
       </c>
       <c r="G115" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H115" s="115"/>
       <c r="I115" s="115"/>
@@ -27130,7 +27024,7 @@
         <v>199</v>
       </c>
       <c r="G116" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H116" s="115"/>
       <c r="I116" s="115"/>
@@ -27164,7 +27058,7 @@
         <v>200</v>
       </c>
       <c r="G117" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H117" s="115"/>
       <c r="I117" s="115"/>
@@ -27198,7 +27092,7 @@
         <v>201</v>
       </c>
       <c r="G118" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H118" s="115"/>
       <c r="I118" s="115"/>
@@ -27232,7 +27126,7 @@
         <v>202</v>
       </c>
       <c r="G119" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H119" s="115"/>
       <c r="I119" s="115"/>
@@ -27268,7 +27162,7 @@
         <v>204</v>
       </c>
       <c r="G120" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H120" s="115"/>
       <c r="I120" s="115"/>
@@ -27302,7 +27196,7 @@
         <v>205</v>
       </c>
       <c r="G121" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H121" s="115"/>
       <c r="I121" s="115"/>
@@ -27336,7 +27230,7 @@
         <v>206</v>
       </c>
       <c r="G122" s="108" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H122" s="115"/>
       <c r="I122" s="115"/>
@@ -27370,7 +27264,7 @@
         <v>207</v>
       </c>
       <c r="G123" s="108" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H123" s="115"/>
       <c r="I123" s="115"/>
@@ -27404,7 +27298,7 @@
         <v>208</v>
       </c>
       <c r="G124" s="108" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H124" s="115"/>
       <c r="I124" s="115"/>
@@ -27440,7 +27334,7 @@
         <v>210</v>
       </c>
       <c r="G125" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H125" s="115"/>
       <c r="I125" s="115"/>
@@ -27516,7 +27410,7 @@
         <v>214</v>
       </c>
       <c r="G127" s="108" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H127" s="115"/>
       <c r="I127" s="115"/>
@@ -27552,7 +27446,7 @@
         <v>216</v>
       </c>
       <c r="G128" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H128" s="115"/>
       <c r="I128" s="115"/>
@@ -27586,7 +27480,7 @@
         <v>217</v>
       </c>
       <c r="G129" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H129" s="115"/>
       <c r="I129" s="115"/>
@@ -27620,7 +27514,7 @@
         <v>218</v>
       </c>
       <c r="G130" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H130" s="115"/>
       <c r="I130" s="115"/>
@@ -27686,7 +27580,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="348" t="s">
+      <c r="B132" s="350" t="s">
         <v>221</v>
       </c>
       <c r="C132" s="252"/>
@@ -27696,7 +27590,7 @@
         <v>222</v>
       </c>
       <c r="G132" s="108" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H132" s="115"/>
       <c r="I132" s="115"/>
@@ -27722,7 +27616,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="348"/>
+      <c r="B133" s="350"/>
       <c r="C133" s="252"/>
       <c r="D133" s="254"/>
       <c r="E133" s="252"/>
@@ -27730,7 +27624,7 @@
         <v>223</v>
       </c>
       <c r="G133" s="108" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H133" s="115"/>
       <c r="I133" s="115"/>
@@ -27764,7 +27658,7 @@
         <v>224</v>
       </c>
       <c r="G134" s="108" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H134" s="115"/>
       <c r="I134" s="115"/>
@@ -27906,7 +27800,7 @@
         <v>231</v>
       </c>
       <c r="G138" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H138" s="115"/>
       <c r="I138" s="115"/>
@@ -27942,7 +27836,7 @@
         <v>233</v>
       </c>
       <c r="G139" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H139" s="115"/>
       <c r="I139" s="115"/>
@@ -27978,7 +27872,7 @@
         <v>235</v>
       </c>
       <c r="G140" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H140" s="115"/>
       <c r="I140" s="115"/>
@@ -28014,7 +27908,7 @@
         <v>236</v>
       </c>
       <c r="G141" s="108" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H141" s="115"/>
       <c r="I141" s="115"/>
@@ -28050,7 +27944,7 @@
         <v>238</v>
       </c>
       <c r="G142" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H142" s="115"/>
       <c r="I142" s="115"/>
@@ -28086,7 +27980,7 @@
         <v>240</v>
       </c>
       <c r="G143" s="108" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H143" s="115"/>
       <c r="I143" s="115"/>
@@ -28120,7 +28014,7 @@
         <v>241</v>
       </c>
       <c r="G144" s="108" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H144" s="115"/>
       <c r="I144" s="115"/>
@@ -28154,7 +28048,7 @@
         <v>242</v>
       </c>
       <c r="G145" s="108" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H145" s="115"/>
       <c r="I145" s="115"/>
@@ -28188,7 +28082,7 @@
         <v>243</v>
       </c>
       <c r="G146" s="108" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H146" s="115"/>
       <c r="I146" s="115"/>
@@ -28222,7 +28116,7 @@
         <v>244</v>
       </c>
       <c r="G147" s="108" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H147" s="115"/>
       <c r="I147" s="115"/>
@@ -28256,7 +28150,7 @@
         <v>245</v>
       </c>
       <c r="G148" s="108" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H148" s="115"/>
       <c r="I148" s="115"/>
@@ -28294,7 +28188,7 @@
         <v>247</v>
       </c>
       <c r="G149" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H149" s="115"/>
       <c r="I149" s="115"/>
@@ -28328,7 +28222,7 @@
         <v>248</v>
       </c>
       <c r="G150" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H150" s="115"/>
       <c r="I150" s="115"/>
@@ -28364,7 +28258,7 @@
         <v>249</v>
       </c>
       <c r="G151" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H151" s="115"/>
       <c r="I151" s="115"/>
@@ -28398,7 +28292,7 @@
         <v>250</v>
       </c>
       <c r="G152" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H152" s="115"/>
       <c r="I152" s="115"/>
@@ -28432,7 +28326,7 @@
         <v>545</v>
       </c>
       <c r="G153" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H153" s="115"/>
       <c r="I153" s="115"/>
@@ -28466,7 +28360,7 @@
         <v>546</v>
       </c>
       <c r="G154" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H154" s="115"/>
       <c r="I154" s="115"/>
@@ -28500,7 +28394,7 @@
         <v>253</v>
       </c>
       <c r="G155" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H155" s="115"/>
       <c r="I155" s="115"/>
@@ -28534,7 +28428,7 @@
         <v>254</v>
       </c>
       <c r="G156" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H156" s="115"/>
       <c r="I156" s="115"/>
@@ -28568,7 +28462,7 @@
         <v>255</v>
       </c>
       <c r="G157" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H157" s="115"/>
       <c r="I157" s="115"/>
@@ -28602,7 +28496,7 @@
         <v>256</v>
       </c>
       <c r="G158" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H158" s="115"/>
       <c r="I158" s="115"/>
@@ -28636,7 +28530,7 @@
         <v>257</v>
       </c>
       <c r="G159" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H159" s="115"/>
       <c r="I159" s="115"/>
@@ -28670,7 +28564,7 @@
         <v>258</v>
       </c>
       <c r="G160" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H160" s="115"/>
       <c r="I160" s="115"/>
@@ -28704,7 +28598,7 @@
         <v>259</v>
       </c>
       <c r="G161" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H161" s="115"/>
       <c r="I161" s="115"/>
@@ -28740,7 +28634,7 @@
         <v>260</v>
       </c>
       <c r="G162" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H162" s="115"/>
       <c r="I162" s="115"/>
@@ -28774,7 +28668,7 @@
         <v>261</v>
       </c>
       <c r="G163" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H163" s="115"/>
       <c r="I163" s="115"/>
@@ -28808,7 +28702,7 @@
         <v>262</v>
       </c>
       <c r="G164" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H164" s="115"/>
       <c r="I164" s="115"/>
@@ -28842,7 +28736,7 @@
         <v>263</v>
       </c>
       <c r="G165" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H165" s="115"/>
       <c r="I165" s="115"/>
@@ -28876,7 +28770,7 @@
         <v>264</v>
       </c>
       <c r="G166" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H166" s="115"/>
       <c r="I166" s="115"/>
@@ -28910,7 +28804,7 @@
         <v>265</v>
       </c>
       <c r="G167" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H167" s="115"/>
       <c r="I167" s="115"/>
@@ -28944,7 +28838,7 @@
         <v>266</v>
       </c>
       <c r="G168" s="108" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H168" s="115"/>
       <c r="I168" s="115"/>
@@ -28980,7 +28874,7 @@
         <v>267</v>
       </c>
       <c r="G169" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H169" s="115"/>
       <c r="I169" s="115"/>
@@ -29014,7 +28908,7 @@
         <v>268</v>
       </c>
       <c r="G170" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H170" s="115"/>
       <c r="I170" s="115"/>
@@ -29048,7 +28942,7 @@
         <v>269</v>
       </c>
       <c r="G171" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H171" s="115"/>
       <c r="I171" s="115"/>
@@ -29082,7 +28976,7 @@
         <v>270</v>
       </c>
       <c r="G172" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H172" s="115"/>
       <c r="I172" s="115"/>
@@ -29116,7 +29010,7 @@
         <v>271</v>
       </c>
       <c r="G173" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H173" s="115"/>
       <c r="I173" s="115"/>
@@ -29182,7 +29076,7 @@
         <v>273</v>
       </c>
       <c r="G175" s="108" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H175" s="115"/>
       <c r="I175" s="115"/>
@@ -29216,7 +29110,7 @@
         <v>274</v>
       </c>
       <c r="G176" s="108" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H176" s="115"/>
       <c r="I176" s="115"/>
@@ -29250,7 +29144,7 @@
         <v>275</v>
       </c>
       <c r="G177" s="108" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H177" s="115"/>
       <c r="I177" s="115"/>
@@ -29286,7 +29180,7 @@
         <v>276</v>
       </c>
       <c r="G178" s="114" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H178" s="115"/>
       <c r="I178" s="115"/>
@@ -29322,7 +29216,7 @@
         <v>278</v>
       </c>
       <c r="G179" s="108" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H179" s="115"/>
       <c r="I179" s="115"/>
@@ -31118,7 +31012,7 @@
         <v>341</v>
       </c>
       <c r="G230" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H230" s="51"/>
       <c r="I230" s="51"/>
@@ -31154,7 +31048,7 @@
         <v>342</v>
       </c>
       <c r="G231" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H231" s="51"/>
       <c r="I231" s="51"/>
@@ -31188,7 +31082,7 @@
         <v>343</v>
       </c>
       <c r="G232" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H232" s="51"/>
       <c r="I232" s="51"/>
@@ -31222,7 +31116,7 @@
         <v>344</v>
       </c>
       <c r="G233" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H233" s="51"/>
       <c r="I233" s="51"/>
@@ -31256,7 +31150,7 @@
         <v>345</v>
       </c>
       <c r="G234" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H234" s="51"/>
       <c r="I234" s="51"/>
@@ -31290,7 +31184,7 @@
         <v>346</v>
       </c>
       <c r="G235" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H235" s="51"/>
       <c r="I235" s="51"/>
@@ -31326,7 +31220,7 @@
         <v>347</v>
       </c>
       <c r="G236" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H236" s="51"/>
       <c r="I236" s="51"/>
@@ -31360,7 +31254,7 @@
         <v>348</v>
       </c>
       <c r="G237" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H237" s="51"/>
       <c r="I237" s="51"/>
@@ -31394,7 +31288,7 @@
         <v>349</v>
       </c>
       <c r="G238" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H238" s="51"/>
       <c r="I238" s="51"/>
@@ -31428,7 +31322,7 @@
         <v>350</v>
       </c>
       <c r="G239" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H239" s="51"/>
       <c r="I239" s="51"/>
@@ -31462,7 +31356,7 @@
         <v>351</v>
       </c>
       <c r="G240" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H240" s="51"/>
       <c r="I240" s="51"/>
@@ -31498,7 +31392,7 @@
         <v>352</v>
       </c>
       <c r="G241" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H241" s="51"/>
       <c r="I241" s="51"/>
@@ -31538,7 +31432,7 @@
         <v>353</v>
       </c>
       <c r="G242" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H242" s="51"/>
       <c r="I242" s="51"/>
@@ -31580,7 +31474,7 @@
         <v>356</v>
       </c>
       <c r="G243" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H243" s="51"/>
       <c r="I243" s="51"/>
@@ -31614,7 +31508,7 @@
         <v>357</v>
       </c>
       <c r="G244" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H244" s="51"/>
       <c r="I244" s="51"/>
@@ -31652,7 +31546,7 @@
         <v>358</v>
       </c>
       <c r="G245" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H245" s="51"/>
       <c r="I245" s="51"/>
@@ -31686,7 +31580,7 @@
         <v>359</v>
       </c>
       <c r="G246" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H246" s="51"/>
       <c r="I246" s="51"/>
@@ -31726,7 +31620,7 @@
         <v>361</v>
       </c>
       <c r="G247" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H247" s="51"/>
       <c r="I247" s="51"/>
@@ -31762,7 +31656,7 @@
         <v>362</v>
       </c>
       <c r="G248" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H248" s="51"/>
       <c r="I248" s="51"/>
@@ -31798,7 +31692,7 @@
         <v>363</v>
       </c>
       <c r="G249" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H249" s="51"/>
       <c r="I249" s="51"/>
@@ -31834,7 +31728,7 @@
         <v>364</v>
       </c>
       <c r="G250" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H250" s="51"/>
       <c r="I250" s="51"/>
@@ -31872,7 +31766,7 @@
         <v>365</v>
       </c>
       <c r="G251" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H251" s="51"/>
       <c r="I251" s="51"/>
@@ -31906,7 +31800,7 @@
         <v>366</v>
       </c>
       <c r="G252" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H252" s="51"/>
       <c r="I252" s="51"/>
@@ -31942,7 +31836,7 @@
         <v>367</v>
       </c>
       <c r="G253" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H253" s="51"/>
       <c r="I253" s="51"/>
@@ -31976,7 +31870,7 @@
         <v>368</v>
       </c>
       <c r="G254" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H254" s="51"/>
       <c r="I254" s="51"/>
@@ -32010,7 +31904,7 @@
         <v>555</v>
       </c>
       <c r="G255" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H255" s="51"/>
       <c r="I255" s="51"/>
@@ -32044,7 +31938,7 @@
         <v>370</v>
       </c>
       <c r="G256" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H256" s="51"/>
       <c r="I256" s="51"/>
@@ -32078,7 +31972,7 @@
         <v>371</v>
       </c>
       <c r="G257" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H257" s="51"/>
       <c r="I257" s="51"/>
@@ -32112,7 +32006,7 @@
         <v>372</v>
       </c>
       <c r="G258" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H258" s="51"/>
       <c r="I258" s="51"/>
@@ -32146,7 +32040,7 @@
         <v>373</v>
       </c>
       <c r="G259" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H259" s="51"/>
       <c r="I259" s="51"/>
@@ -32180,7 +32074,7 @@
         <v>374</v>
       </c>
       <c r="G260" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H260" s="51"/>
       <c r="I260" s="51"/>
@@ -32214,7 +32108,7 @@
         <v>375</v>
       </c>
       <c r="G261" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H261" s="51"/>
       <c r="I261" s="51"/>
@@ -32248,7 +32142,7 @@
         <v>376</v>
       </c>
       <c r="G262" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H262" s="51"/>
       <c r="I262" s="51"/>
@@ -32282,7 +32176,7 @@
         <v>377</v>
       </c>
       <c r="G263" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H263" s="51"/>
       <c r="I263" s="51"/>
@@ -32318,7 +32212,7 @@
         <v>378</v>
       </c>
       <c r="G264" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H264" s="51"/>
       <c r="I264" s="51"/>
@@ -32352,7 +32246,7 @@
         <v>379</v>
       </c>
       <c r="G265" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H265" s="51"/>
       <c r="I265" s="51"/>
@@ -32386,7 +32280,7 @@
         <v>380</v>
       </c>
       <c r="G266" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H266" s="51"/>
       <c r="I266" s="51"/>
@@ -32420,7 +32314,7 @@
         <v>381</v>
       </c>
       <c r="G267" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H267" s="51"/>
       <c r="I267" s="51"/>
@@ -32454,7 +32348,7 @@
         <v>382</v>
       </c>
       <c r="G268" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H268" s="51"/>
       <c r="I268" s="51"/>
@@ -32488,7 +32382,7 @@
         <v>383</v>
       </c>
       <c r="G269" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H269" s="51"/>
       <c r="I269" s="51"/>
@@ -32524,7 +32418,7 @@
         <v>384</v>
       </c>
       <c r="G270" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H270" s="51"/>
       <c r="I270" s="51"/>
@@ -32558,7 +32452,7 @@
         <v>385</v>
       </c>
       <c r="G271" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H271" s="51"/>
       <c r="I271" s="51"/>
@@ -32592,7 +32486,7 @@
         <v>386</v>
       </c>
       <c r="G272" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H272" s="51"/>
       <c r="I272" s="51"/>
@@ -32626,7 +32520,7 @@
         <v>387</v>
       </c>
       <c r="G273" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H273" s="51"/>
       <c r="I273" s="51"/>
@@ -32660,7 +32554,7 @@
         <v>388</v>
       </c>
       <c r="G274" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H274" s="51"/>
       <c r="I274" s="51"/>
@@ -32694,7 +32588,7 @@
         <v>389</v>
       </c>
       <c r="G275" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H275" s="51"/>
       <c r="I275" s="51"/>
@@ -32728,7 +32622,7 @@
         <v>390</v>
       </c>
       <c r="G276" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H276" s="51"/>
       <c r="I276" s="51"/>
@@ -32762,7 +32656,7 @@
         <v>391</v>
       </c>
       <c r="G277" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H277" s="51"/>
       <c r="I277" s="51"/>
@@ -32798,7 +32692,7 @@
         <v>392</v>
       </c>
       <c r="G278" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H278" s="51"/>
       <c r="I278" s="51"/>
@@ -33408,7 +33302,7 @@
         <v>415</v>
       </c>
       <c r="G296" s="94" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="H296" s="94"/>
       <c r="I296" s="94"/>
@@ -33442,7 +33336,7 @@
         <v>416</v>
       </c>
       <c r="G297" s="94" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="H297" s="94"/>
       <c r="I297" s="94"/>
@@ -33569,7 +33463,7 @@
       <c r="D301" s="276"/>
       <c r="E301" s="276"/>
       <c r="F301" s="53" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G301" s="53"/>
       <c r="H301" s="157"/>
@@ -34052,7 +33946,7 @@
         <v>434</v>
       </c>
       <c r="G316" s="94" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H316" s="154"/>
       <c r="I316" s="94"/>
@@ -35040,7 +34934,7 @@
         <v>469</v>
       </c>
       <c r="G346" s="114" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="H346" s="115"/>
       <c r="I346" s="115"/>
@@ -35692,7 +35586,7 @@
         <v>506</v>
       </c>
       <c r="G366" s="279" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="H366" s="100"/>
       <c r="I366" s="100"/>
@@ -35794,7 +35688,7 @@
         <v>511</v>
       </c>
       <c r="G369" s="279" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="H369" s="100"/>
       <c r="I369" s="100"/>
@@ -35895,7 +35789,7 @@
         <v>493</v>
       </c>
       <c r="F372" s="118" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="G372" s="118"/>
       <c r="H372" s="146"/>
@@ -36026,7 +35920,7 @@
         <v>519</v>
       </c>
       <c r="G376" s="221" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="H376" s="100"/>
       <c r="I376" s="100"/>
@@ -36165,7 +36059,7 @@
         <v>493</v>
       </c>
       <c r="F380" s="121" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G380" s="118"/>
       <c r="H380" s="110"/>
@@ -36315,22 +36209,22 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="25" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="25" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M6" s="25" t="s">
         <v>14</v>
@@ -36388,7 +36282,7 @@
         <v>568</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>9</v>
@@ -36421,7 +36315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="31" customFormat="1" ht="78.75">
+    <row r="11" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A11" s="95" t="s">
         <v>564</v>
       </c>
@@ -36429,19 +36323,15 @@
         <v>569</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D11" s="96" t="s">
         <v>570</v>
       </c>
       <c r="E11" s="97"/>
       <c r="F11" s="150"/>
-      <c r="G11" s="63" t="s">
-        <v>571</v>
-      </c>
-      <c r="H11" s="63" t="s">
-        <v>572</v>
-      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="122"/>
@@ -36451,23 +36341,19 @@
       <c r="O11" s="64"/>
       <c r="P11" s="64"/>
     </row>
-    <row r="12" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="12" spans="1:16" s="31" customFormat="1">
       <c r="A12" s="99" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="65"/>
       <c r="D12" s="229" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E12" s="230"/>
       <c r="F12" s="139"/>
-      <c r="G12" s="110" t="s">
-        <v>571</v>
-      </c>
-      <c r="H12" s="110" t="s">
-        <v>592</v>
-      </c>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
       <c r="I12" s="231"/>
       <c r="J12" s="231"/>
       <c r="K12" s="232"/>
@@ -36477,25 +36363,21 @@
       <c r="O12" s="112"/>
       <c r="P12" s="112"/>
     </row>
-    <row r="13" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="13" spans="1:16" s="31" customFormat="1">
       <c r="A13" s="99" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>
       <c r="D13" s="225" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E13" s="226"/>
       <c r="F13" s="115" t="s">
-        <v>646</v>
-      </c>
-      <c r="G13" s="100" t="s">
-        <v>571</v>
-      </c>
-      <c r="H13" s="100" t="s">
-        <v>592</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="101"/>
       <c r="J13" s="101"/>
       <c r="K13" s="128"/>
@@ -36505,23 +36387,19 @@
       <c r="O13" s="102"/>
       <c r="P13" s="102"/>
     </row>
-    <row r="14" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="14" spans="1:16" s="31" customFormat="1">
       <c r="A14" s="99" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="229" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E14" s="230"/>
       <c r="F14" s="139"/>
-      <c r="G14" s="110" t="s">
-        <v>571</v>
-      </c>
-      <c r="H14" s="110" t="s">
-        <v>592</v>
-      </c>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="231"/>
       <c r="J14" s="231"/>
       <c r="K14" s="232"/>
@@ -36531,25 +36409,21 @@
       <c r="O14" s="112"/>
       <c r="P14" s="112"/>
     </row>
-    <row r="15" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="15" spans="1:16" s="31" customFormat="1">
       <c r="A15" s="99" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B15" s="65"/>
       <c r="C15" s="65"/>
       <c r="D15" s="283" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E15" s="234" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F15" s="139"/>
-      <c r="G15" s="110" t="s">
-        <v>571</v>
-      </c>
-      <c r="H15" s="110" t="s">
-        <v>592</v>
-      </c>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="231"/>
       <c r="J15" s="231"/>
       <c r="K15" s="232"/>
@@ -36561,23 +36435,19 @@
     </row>
     <row r="16" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A16" s="99" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B16" s="65"/>
       <c r="C16" s="65"/>
       <c r="D16" s="120"/>
       <c r="E16" s="94" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F16" s="115" t="s">
-        <v>646</v>
-      </c>
-      <c r="G16" s="100" t="s">
-        <v>571</v>
-      </c>
-      <c r="H16" s="100" t="s">
-        <v>592</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="101"/>
       <c r="J16" s="101"/>
       <c r="K16" s="128"/>
@@ -36587,25 +36457,21 @@
       <c r="O16" s="102"/>
       <c r="P16" s="102"/>
     </row>
-    <row r="17" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="17" spans="1:16" s="31" customFormat="1">
       <c r="A17" s="99" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
       <c r="D17" s="120"/>
       <c r="E17" s="103" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F17" s="115" t="s">
-        <v>646</v>
-      </c>
-      <c r="G17" s="100" t="s">
-        <v>571</v>
-      </c>
-      <c r="H17" s="100" t="s">
-        <v>592</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
       <c r="I17" s="101"/>
       <c r="J17" s="101"/>
       <c r="K17" s="128"/>
@@ -36615,25 +36481,21 @@
       <c r="O17" s="102"/>
       <c r="P17" s="102"/>
     </row>
-    <row r="18" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="18" spans="1:16" s="31" customFormat="1">
       <c r="A18" s="99" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
       <c r="D18" s="117"/>
       <c r="E18" s="103" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F18" s="115" t="s">
-        <v>646</v>
-      </c>
-      <c r="G18" s="100" t="s">
-        <v>571</v>
-      </c>
-      <c r="H18" s="100" t="s">
-        <v>592</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
       <c r="I18" s="101"/>
       <c r="J18" s="101"/>
       <c r="K18" s="128"/>
@@ -36645,25 +36507,21 @@
     </row>
     <row r="19" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A19" s="99" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B19" s="65"/>
       <c r="C19" s="65"/>
       <c r="D19" s="103" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E19" s="94" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F19" s="115" t="s">
-        <v>646</v>
-      </c>
-      <c r="G19" s="100" t="s">
-        <v>571</v>
-      </c>
-      <c r="H19" s="100" t="s">
-        <v>592</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
       <c r="I19" s="101"/>
       <c r="J19" s="101"/>
       <c r="K19" s="128"/>
@@ -36674,24 +36532,20 @@
       <c r="P19" s="102"/>
     </row>
     <row r="20" spans="1:16" s="34" customFormat="1" ht="22.5">
-      <c r="A20" s="351" t="s">
-        <v>589</v>
+      <c r="A20" s="284" t="s">
+        <v>587</v>
       </c>
       <c r="B20" s="120"/>
       <c r="C20" s="120"/>
-      <c r="D20" s="352" t="s">
-        <v>590</v>
+      <c r="D20" s="285" t="s">
+        <v>588</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F20" s="139"/>
-      <c r="G20" s="110" t="s">
-        <v>571</v>
-      </c>
-      <c r="H20" s="110" t="s">
-        <v>592</v>
-      </c>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="231"/>
       <c r="J20" s="231"/>
       <c r="K20" s="232"/>
@@ -36701,25 +36555,21 @@
       <c r="O20" s="112"/>
       <c r="P20" s="112"/>
     </row>
-    <row r="21" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="21" spans="1:16" s="31" customFormat="1" ht="13.5">
       <c r="A21" s="99" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
-      <c r="D21" s="349" t="s">
-        <v>632</v>
-      </c>
-      <c r="E21" s="350"/>
+      <c r="D21" s="351" t="s">
+        <v>625</v>
+      </c>
+      <c r="E21" s="352"/>
       <c r="F21" s="115" t="s">
-        <v>646</v>
-      </c>
-      <c r="G21" s="100" t="s">
-        <v>571</v>
-      </c>
-      <c r="H21" s="100" t="s">
-        <v>592</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
       <c r="I21" s="101"/>
       <c r="J21" s="101"/>
       <c r="K21" s="128"/>
@@ -36729,27 +36579,23 @@
       <c r="O21" s="102"/>
       <c r="P21" s="102"/>
     </row>
-    <row r="22" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="22" spans="1:16" s="31" customFormat="1">
       <c r="A22" s="99" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B22" s="65"/>
       <c r="C22" s="227" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D22" s="225" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E22" s="226"/>
       <c r="F22" s="115" t="s">
-        <v>646</v>
-      </c>
-      <c r="G22" s="100" t="s">
-        <v>571</v>
-      </c>
-      <c r="H22" s="100" t="s">
-        <v>592</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
       <c r="I22" s="101"/>
       <c r="J22" s="101"/>
       <c r="K22" s="128"/>
@@ -36759,25 +36605,21 @@
       <c r="O22" s="102"/>
       <c r="P22" s="102"/>
     </row>
-    <row r="23" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="23" spans="1:16" s="31" customFormat="1">
       <c r="A23" s="99" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B23" s="65"/>
       <c r="C23" s="228"/>
       <c r="D23" s="225" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E23" s="226"/>
       <c r="F23" s="115" t="s">
-        <v>646</v>
-      </c>
-      <c r="G23" s="100" t="s">
-        <v>571</v>
-      </c>
-      <c r="H23" s="100" t="s">
-        <v>592</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="101"/>
       <c r="J23" s="101"/>
       <c r="K23" s="128"/>
@@ -36789,25 +36631,21 @@
     </row>
     <row r="24" spans="1:16" s="34" customFormat="1" ht="22.5">
       <c r="A24" s="99" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B24" s="65"/>
       <c r="C24" s="110" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D24" s="118" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="E24" s="109" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F24" s="110"/>
-      <c r="G24" s="110" t="s">
-        <v>624</v>
-      </c>
-      <c r="H24" s="110" t="s">
-        <v>623</v>
-      </c>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
       <c r="I24" s="151"/>
       <c r="J24" s="152"/>
       <c r="K24" s="112"/>
@@ -36817,23 +36655,19 @@
       <c r="O24" s="66"/>
       <c r="P24" s="66"/>
     </row>
-    <row r="25" spans="1:16" s="34" customFormat="1" ht="33.75">
+    <row r="25" spans="1:16" s="34" customFormat="1">
       <c r="A25" s="99" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B25" s="65"/>
       <c r="C25" s="111"/>
       <c r="D25" s="119"/>
       <c r="E25" s="109" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F25" s="110"/>
-      <c r="G25" s="110" t="s">
-        <v>621</v>
-      </c>
-      <c r="H25" s="110" t="s">
-        <v>622</v>
-      </c>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
       <c r="I25" s="151"/>
       <c r="J25" s="152"/>
       <c r="K25" s="112"/>
@@ -36845,23 +36679,19 @@
     </row>
     <row r="26" spans="1:16" s="34" customFormat="1" ht="22.5">
       <c r="A26" s="99" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B26" s="65"/>
       <c r="C26" s="120"/>
       <c r="D26" s="118" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E26" s="109" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F26" s="110"/>
-      <c r="G26" s="110" t="s">
-        <v>624</v>
-      </c>
-      <c r="H26" s="110" t="s">
-        <v>623</v>
-      </c>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
       <c r="I26" s="151"/>
       <c r="J26" s="152"/>
       <c r="K26" s="112"/>
@@ -36871,23 +36701,19 @@
       <c r="O26" s="66"/>
       <c r="P26" s="66"/>
     </row>
-    <row r="27" spans="1:16" s="34" customFormat="1" ht="33.75">
+    <row r="27" spans="1:16" s="34" customFormat="1">
       <c r="A27" s="99" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B27" s="65"/>
       <c r="C27" s="117"/>
       <c r="D27" s="117"/>
       <c r="E27" s="109" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F27" s="110"/>
-      <c r="G27" s="110" t="s">
-        <v>621</v>
-      </c>
-      <c r="H27" s="110" t="s">
-        <v>622</v>
-      </c>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
       <c r="I27" s="151"/>
       <c r="J27" s="152"/>
       <c r="K27" s="112"/>
@@ -36897,27 +36723,23 @@
       <c r="O27" s="66"/>
       <c r="P27" s="66"/>
     </row>
-    <row r="28" spans="1:16" s="31" customFormat="1" ht="33.75">
+    <row r="28" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A28" s="99" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B28" s="100" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C28" s="104" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D28" s="105"/>
       <c r="E28" s="106"/>
       <c r="F28" s="115" t="s">
-        <v>633</v>
-      </c>
-      <c r="G28" s="103" t="s">
-        <v>634</v>
-      </c>
-      <c r="H28" s="94" t="s">
-        <v>635</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="G28" s="103"/>
+      <c r="H28" s="94"/>
       <c r="I28" s="101"/>
       <c r="J28" s="101"/>
       <c r="K28" s="128"/>
@@ -36929,23 +36751,19 @@
     </row>
     <row r="29" spans="1:16" s="31" customFormat="1">
       <c r="A29" s="124" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="B29" s="130"/>
       <c r="C29" s="131" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D29" s="132"/>
       <c r="E29" s="133"/>
       <c r="F29" s="115" t="s">
-        <v>636</v>
-      </c>
-      <c r="G29" s="134" t="s">
-        <v>493</v>
-      </c>
-      <c r="H29" s="134" t="s">
-        <v>493</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
       <c r="I29" s="135"/>
       <c r="J29" s="135"/>
       <c r="K29" s="136"/>
